--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -4053,7 +4053,7 @@
     <t xml:space="preserve">Piperacillin/tazobactam</t>
   </si>
   <si>
-    <t xml:space="preserve">c("p/t", "piptaz", "pita", "pt", "ptc", "ptz", "tzp")</t>
+    <t xml:space="preserve">c("p/t", "piptaz", "piptazo", "pita", "pt", "ptc", "ptz", "tzp")</t>
   </si>
   <si>
     <t xml:space="preserve">c("", "tazocel", "tazocillin", "tazocin", "zosyn")</t>
@@ -6458,7 +6458,7 @@
         <v>63</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -6502,7 +6502,7 @@
         <v>70</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -7637,7 +7637,9 @@
       <c r="I43" t="s">
         <v>20</v>
       </c>
-      <c r="J43"/>
+      <c r="J43" t="n">
+        <v>15</v>
+      </c>
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
@@ -9665,7 +9667,9 @@
       <c r="I100" t="s">
         <v>443</v>
       </c>
-      <c r="J100"/>
+      <c r="J100" t="n">
+        <v>2.1</v>
+      </c>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -11575,7 +11579,9 @@
       <c r="I153" t="s">
         <v>685</v>
       </c>
-      <c r="J153"/>
+      <c r="J153" t="n">
+        <v>0.2</v>
+      </c>
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
@@ -12385,7 +12391,9 @@
       <c r="I175" t="s">
         <v>784</v>
       </c>
-      <c r="J175"/>
+      <c r="J175" t="n">
+        <v>0.75</v>
+      </c>
       <c r="K175"/>
       <c r="L175"/>
       <c r="M175"/>
@@ -13095,7 +13103,9 @@
       <c r="I195" t="s">
         <v>864</v>
       </c>
-      <c r="J195"/>
+      <c r="J195" t="n">
+        <v>0.32</v>
+      </c>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
@@ -14307,7 +14317,9 @@
       <c r="I230" t="s">
         <v>1007</v>
       </c>
-      <c r="J230"/>
+      <c r="J230" t="n">
+        <v>0.4</v>
+      </c>
       <c r="K230"/>
       <c r="L230"/>
       <c r="M230"/>
@@ -15141,7 +15153,9 @@
       <c r="I253" t="s">
         <v>1100</v>
       </c>
-      <c r="J253"/>
+      <c r="J253" t="n">
+        <v>1.2</v>
+      </c>
       <c r="K253"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -18077,7 +18091,9 @@
       <c r="I336" t="s">
         <v>1435</v>
       </c>
-      <c r="J336"/>
+      <c r="J336" t="n">
+        <v>0.2</v>
+      </c>
       <c r="K336"/>
       <c r="L336"/>
       <c r="M336"/>
@@ -18865,7 +18881,9 @@
       <c r="I358" t="s">
         <v>20</v>
       </c>
-      <c r="J358"/>
+      <c r="J358" t="n">
+        <v>86</v>
+      </c>
       <c r="K358"/>
       <c r="L358"/>
       <c r="M358"/>
@@ -20843,7 +20861,9 @@
       <c r="I412" t="s">
         <v>1734</v>
       </c>
-      <c r="J412"/>
+      <c r="J412" t="n">
+        <v>0.2</v>
+      </c>
       <c r="K412"/>
       <c r="L412"/>
       <c r="M412"/>

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -104,7 +104,7 @@
     <t xml:space="preserve">Other antifungals for topical use</t>
   </si>
   <si>
-    <t xml:space="preserve">c("5flc", "fluo")</t>
+    <t xml:space="preserve">c("5flc", "fcu", "fluo", "fluy")</t>
   </si>
   <si>
     <t xml:space="preserve">c("alcobon", "ancobon", "ancotil", "ancotyl", "flucitosina", "flucystine", "flucytosin", "flucytosine", "flucytosinum", "flucytosone", "fluocytosine", "fluorcytosine")</t>
@@ -249,7 +249,7 @@
     <t xml:space="preserve">Antibiotics</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amfb", "amph")</t>
+    <t xml:space="preserve">c("amf", "amfb", "amph")</t>
   </si>
   <si>
     <t xml:space="preserve">c("abelcet", "abelecet", "ambisome", "amfotericina b", "amphocin", "amphomoronal", "amphortericin b", "amphotec", "amphotericin", "amphotericin b", "amphotericine b", "amphotericinum b", "amphozone", "anfotericine b", "fungilin", "fungisome", "fungisone", "fungizone", "halizon")</t>
@@ -1986,7 +1986,7 @@
     <t xml:space="preserve">Polymyxins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cl", "coli", "cs", "ct")</t>
+    <t xml:space="preserve">c("cl", "coli", "cs", "cst", "ct")</t>
   </si>
   <si>
     <t xml:space="preserve">c("belcomycine", "colimycin", "colimycin sulphate", "colisticin", "colistimethate", "colistimethate sodium", "colistin sulfate", "colistin sulphate", "colomycin", "coly-mycin", "polymyxin e", "polymyxin e. sulfate", "promixin", "totazina")</t>
@@ -2500,7 +2500,7 @@
     <t xml:space="preserve">Triazole derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fluc", "fluz")</t>
+    <t xml:space="preserve">c("fluc", "fluz", "flz")</t>
   </si>
   <si>
     <t xml:space="preserve">c("alflucoz", "alfumet", "biocanol", "biozole", "biozolene", "canzol", "cryptal", "diflazon", "diflucan", "dimycon", "elazor", "flucazol", "fluconazol", "fluconazole", "fluconazole capsules", "fluconazolum", "flucostat", "flukezol", "flunazol", "flunizol", "flusol", "fluzon", "fluzone", "forcan", "fuconal", "fungata", "loitin", "oxifugol", "pritenzol", "syscan", "trican", "triconal", "triflucan", "zoltec")</t>
@@ -2551,7 +2551,7 @@
     <t xml:space="preserve">Fosfomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ff", "fm", "fo", "fos", "fosf")</t>
+    <t xml:space="preserve">c("ff", "fm", "fo", "fof", "fos", "fosf")</t>
   </si>
   <si>
     <t xml:space="preserve">c("fosfocina", "fosfomicina", "fosfomycin", "fosfomycin sodium", "fosfomycine", "fosfomycinum", "fosfonomycin", "monuril", "monurol", "phosphonemycin", "phosphonomycin", "veramina")</t>
@@ -2601,7 +2601,7 @@
     <t xml:space="preserve">Steroid antibacterials</t>
   </si>
   <si>
-    <t xml:space="preserve">fusi</t>
+    <t xml:space="preserve">c("fa", "fusi")</t>
   </si>
   <si>
     <t xml:space="preserve">c("acide fusidique", "acido fusidico", "acidum fusidicum", "flucidin", "fucidate", "fucidate sodium", "fucidic acid", "fucidin", "fucidin acid", "fucithalmic", "fusidate", "fusidate acid", "fusidic acid", "fusidine", "fusidinic acid", "ramycin")</t>
@@ -2676,7 +2676,7 @@
     <t xml:space="preserve">Gentamicin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("gehl", "genta high", "gentamicin high")</t>
+    <t xml:space="preserve">c("g_h", "gehl", "genta high", "gentamicin high")</t>
   </si>
   <si>
     <t xml:space="preserve">GEP</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">Kanamycin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "kahl")</t>
+    <t xml:space="preserve">c("", "k_h", "kahl")</t>
   </si>
   <si>
     <t xml:space="preserve">KAC</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">Imidazole derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">keto</t>
+    <t xml:space="preserve">c("keto", "ktc")</t>
   </si>
   <si>
     <t xml:space="preserve">c("extina", "fungarest", "fungoral", "ketocanazole", "ketoconazol", "ketoconazole", "ketoconazolum", "ketoderm", "nizoral", "xolegel")</t>
@@ -4047,7 +4047,7 @@
     <t xml:space="preserve">Piperacillin/tazobactam</t>
   </si>
   <si>
-    <t xml:space="preserve">c("p/t", "piptaz", "piptazo", "pita", "pt", "ptc", "ptz", "tzp")</t>
+    <t xml:space="preserve">c("p/t", "piptaz", "piptazo", "pit", "pita", "pt", "ptc", "ptz", "tzp")</t>
   </si>
   <si>
     <t xml:space="preserve">c("", "tazocel", "tazocillin", "tazocin", "zosyn")</t>
@@ -4661,7 +4661,7 @@
     <t xml:space="preserve">Sparfloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "spar")</t>
+    <t xml:space="preserve">c("", "spa", "spar")</t>
   </si>
   <si>
     <t xml:space="preserve">c("esparfloxacino", "sparfloxacin", "sparfloxacine", "sparfloxacinum")</t>
@@ -4727,7 +4727,7 @@
     <t xml:space="preserve">Streptomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("s", "str", "stre")</t>
+    <t xml:space="preserve">c("s", "stm", "str", "stre")</t>
   </si>
   <si>
     <t xml:space="preserve">c("agrept", "agrimycin", "chemform", "estreptomicina", "neodiestreptopab", "strepcen", "streptomicina", "streptomycin", "streptomycin a", "streptomycin spx", "streptomycin sulfate", "streptomycine", "streptomyzin", "vetstrep")</t>
@@ -4742,7 +4742,7 @@
     <t xml:space="preserve">Streptomycin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sthl", "strepto high", "streptomycin high")</t>
+    <t xml:space="preserve">c("s_h", "sthl", "strepto high", "streptomycin high")</t>
   </si>
   <si>
     <t xml:space="preserve">STI</t>
@@ -5504,7 +5504,7 @@
     <t xml:space="preserve">Tigecycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tgc", "tige")</t>
+    <t xml:space="preserve">c("tgc", "tig", "tige")</t>
   </si>
   <si>
     <t xml:space="preserve">c("haizheng li xing", "tigeciclina", "tigecyclin", "tigecycline", "tigecycline hydrate", "tigecyclinum", "tigilcycline", "tygacil")</t>
@@ -5639,7 +5639,7 @@
     <t xml:space="preserve">Trimethoprim</t>
   </si>
   <si>
-    <t xml:space="preserve">c("t", "tmp", "tr", "trim", "w")</t>
+    <t xml:space="preserve">c("t", "tmp", "tr", "tri", "trim", "w")</t>
   </si>
   <si>
     <t xml:space="preserve">c("abaprim", "alprim", "anitrim", "antrima", "antrimox", "bacdan", "bacidal", "bacide", "bacterial", "bacticel", "bactifor", "bactin", "bactoprim", "bactramin", "bactrim", "bencole", "bethaprim", "biosulten", "briscotrim", "chemotrin", "colizole", "colizole ds", "conprim", "cotrimel", "cotrimoxizole", "deprim", "dosulfin", "duocide", "esbesul", "espectrin", "euctrim", "exbesul", "fermagex", "fortrim", "idotrim", "ikaprim", "instalac", "kombinax", "lagatrim", "lagatrim forte", "lastrim", "lescot", 
@@ -5785,7 +5785,7 @@
     <t xml:space="preserve">Voriconazole</t>
   </si>
   <si>
-    <t xml:space="preserve">vori</t>
+    <t xml:space="preserve">c("vori", "vrc")</t>
   </si>
   <si>
     <t xml:space="preserve">c("pfizer", "vfend i.v.", "voriconazol", "voriconazole", "voriconazolum", "vorikonazole")</t>

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -77,15 +77,12 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">c("aminopar", "aminosalicylic", "aminosalicylic acid", "aminosalyl", "aminox", "apacil", "deapasil", "entepas", "ferrosan", "gabbropas", "helipidyl", "hellipidyl", "neopasalate", "osacyl", "pamacyl", "pamisyl", "paramycin", "parasal", "parasalicil", "parasalindon", "pasalon", "pasara", "pascorbic", "pasdium", "paser granules", "paskalium", "pasmed", "pasnodia", "pasolac", "propasa", "rezipas", "teebacin", "wln: zr cq dvq")</t>
+    <t xml:space="preserve">aminopar,aminosalicylic,aminosalicylic acid,aminosalyl,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,helipidyl,hellipidyl,neopasalate,osacyl,pamacyl,pamisyl,paramycin,parasal,parasalicil,parasalindon,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnodia,pasolac,propasa,rezipas,teebacin,wln: zr cq dvq</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
   </si>
   <si>
-    <t xml:space="preserve">character(0)</t>
-  </si>
-  <si>
     <t xml:space="preserve">FCT</t>
   </si>
   <si>
@@ -104,13 +101,13 @@
     <t xml:space="preserve">Other antifungals for topical use</t>
   </si>
   <si>
-    <t xml:space="preserve">c("5flc", "fcu", "fluo", "fluy")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alcobon", "ancobon", "ancotil", "ancotyl", "flucitosina", "flucystine", "flucytosin", "flucytosine", "flucytosinum", "flucytosone", "fluocytosine", "fluorcytosine")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10974-4", "23805-5", "25142-1", "25143-9", "3639-2", "46218-4")</t>
+    <t xml:space="preserve">5flc,fcu,fluo,fluy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcobon,ancobon,ancotil,ancotyl,flucitosina,flucystine,flucytosin,flucytosine,flucytosinum,flucytosone,fluocytosine,fluorcytosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10974-4,23805-5,25142-1,25143-9,3639-2,46218-4</t>
   </si>
   <si>
     <t xml:space="preserve">ACM</t>
@@ -122,13 +119,16 @@
     <t xml:space="preserve">Macrolides/lincosamides</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASP</t>
   </si>
   <si>
     <t xml:space="preserve">Acetylspiramycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acetylspiramycin", "foromacidin b", "spiramycin ii")</t>
+    <t xml:space="preserve">acetylspiramycin,foromacidin b,spiramycin ii</t>
   </si>
   <si>
     <t xml:space="preserve">ALS</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Drugs for treatment of lepra</t>
   </si>
   <si>
-    <t xml:space="preserve">c("adesulfone sodium", "aldapsone", "aldesulfona sodica", "aldesulfone", "aldesulfone sodique", "aldesulfone sodium", "diamidin", "diasone", "diasone sodium", "diazon", "novotrone", "sodium aldesulphone", "sodium sulfoxone", "sulfoxone sodium")</t>
+    <t xml:space="preserve">adesulfone sodium,aldapsone,aldesulfona sodica,aldesulfone,aldesulfone sodique,aldesulfone sodium,diamidin,diasone,diasone sodium,diazon,novotrone,sodium aldesulphone,sodium sulfoxone,sulfoxone sodium</t>
   </si>
   <si>
     <t xml:space="preserve">AMK</t>
@@ -158,7 +158,7 @@
     <t xml:space="preserve">Aminoglycosides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AX12", "J01GB06", "S01AA21")</t>
+    <t xml:space="preserve">D06AX12,J01GB06,S01AA21</t>
   </si>
   <si>
     <t xml:space="preserve">Aminoglycoside antibacterials</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">Other aminoglycosides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ak", "ami", "amik", "amk", "an")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("amicacin", "amikacillin", "amikacin", "amikacin base", "amikacin dihydrate", "amikacin sulfate", "amikacina", "amikacine", "amikacinum", "amikavet", "amikin", "amiklin", "amikozit", "amukin", "arikace", "briclin", "lukadin", "mikavir", "pierami", "potentox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("13546-7", "15098-7", "17798-0", "31097-9", "31098-7", "31099-5", "3319-1", "3320-9", "3321-7", "35669-1", "50802-8", "50803-6", "56628-1", "59378-0", "80972-3")</t>
+    <t xml:space="preserve">ak,ami,amik,amk,an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amicacin,amikacillin,amikacin,amikacin base,amikacin dihydrate,amikacin sulfate,amikacina,amikacine,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,briclin,lukadin,mikavir,pierami,potentox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13546-7,15098-7,17798-0,31097-9,31098-7,31099-5,3319-1,3320-9,3321-7,35669-1,50802-8,50803-6,56628-1,59378-0,80972-3</t>
   </si>
   <si>
     <t xml:space="preserve">AKF</t>
@@ -200,14 +200,13 @@
     <t xml:space="preserve">Penicillins with extended spectrum</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ac", "amox", "amx")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("actimoxi", "amoclen", "amolin", "amopen", "amopenixin", "amoxibiotic", "amoxicaps", "amoxicilina", "amoxicillin", "amoxicilline", "amoxicillinum", "amoxiden", "amoxil", "amoxivet", "amoxy", "amoxycillin", "anemolin", "aspenil", "biomox", "bristamox", "cemoxin", "clamoxyl", "delacillin", "dispermox", "efpenix", "flemoxin", "hiconcil", "histocillin", "hydroxyampicillin", "ibiamox", "imacillin", "lamoxy", "metafarma capsules", "metifarma capsules", "moxacin", "moxatag", "ospamox", "pamoxicillin", 
-"piramox", "robamox", "sawamox pm", "tolodina", "unicillin", "utimox", "vetramox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16365-9", "25274-2", "3344-9", "80133-2")</t>
+    <t xml:space="preserve">ac,amox,amx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actimoxi,amoclen,amolin,amopen,amopenixin,amoxibiotic,amoxicaps,amoxicilina,amoxicillin,amoxicilline,amoxicillinum,amoxiden,amoxil,amoxivet,amoxy,amoxycillin,anemolin,aspenil,biomox,bristamox,cemoxin,clamoxyl,delacillin,dispermox,efpenix,flemoxin,hiconcil,histocillin,hydroxyampicillin,ibiamox,imacillin,lamoxy,metafarma capsules,metifarma capsules,moxacin,moxatag,ospamox,pamoxicillin,piramox,robamox,sawamox pm,tolodina,unicillin,utimox,vetramox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16365-9,25274-2,3344-9,80133-2</t>
   </si>
   <si>
     <t xml:space="preserve">AMC</t>
@@ -222,10 +221,10 @@
     <t xml:space="preserve">Combinations of penicillins, incl. beta-lactamase inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("a/c", "amcl", "aml", "aug", "xl")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("amocla", "amoclan", "amoclav", "amoxsiklav", "augmentan", "augmentin", "augmentin xr", "augmentine", "auspilic", "clamentin", "clamobit", "clavamox", "clavinex", "clavoxilin plus", "clavulin", "clavumox", "coamoxiclav", "eumetinex", "kmoxilin", "spectramox", "spektramox", "viaclav", "xiclav")</t>
+    <t xml:space="preserve">a/c,amcl,aml,aug,xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amocla,amoclan,amoclav,amoxsiklav,augmentan,augmentin,augmentin xr,augmentine,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilin plus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,viaclav,xiclav</t>
   </si>
   <si>
     <t xml:space="preserve">AXS</t>
@@ -240,7 +239,7 @@
     <t xml:space="preserve">Amphotericin B</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB04", "A07AA07", "G01AA03", "J02AA01")</t>
+    <t xml:space="preserve">A01AB04,A07AA07,G01AA03,J02AA01</t>
   </si>
   <si>
     <t xml:space="preserve">Antimycotics for systemic use</t>
@@ -249,16 +248,16 @@
     <t xml:space="preserve">Antibiotics</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amf", "amfb", "amph")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abelcet", "abelecet", "ambisome", "amfotericina b", "amphocin", "amphomoronal", "amphortericin b", "amphotec", "amphotericin", "amphotericin b", "amphotericine b", "amphotericinum b", "amphozone", "anfotericine b", "fungilin", "fungisome", "fungisone", "fungizone", "halizon")</t>
+    <t xml:space="preserve">amf,amfb,amph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abelcet,abelecet,ambisome,amfotericina b,amphocin,amphomoronal,amphortericin b,amphotec,amphotericin,amphotericin b,amphotericine b,amphotericinum b,amphozone,anfotericine b,fungilin,fungisome,fungisone,fungizone,halizon</t>
   </si>
   <si>
     <t xml:space="preserve">mg</t>
   </si>
   <si>
-    <t xml:space="preserve">c("16370-9", "3353-0", "3354-8", "40707-2", "40757-7", "49859-2")</t>
+    <t xml:space="preserve">16370-9,3353-0,3354-8,40707-2,40757-7,49859-2</t>
   </si>
   <si>
     <t xml:space="preserve">AMH</t>
@@ -267,7 +266,7 @@
     <t xml:space="preserve">Amphotericin B-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amfo b high", "amhl", "ampho b high", "amphotericin high")</t>
+    <t xml:space="preserve">amfo b high,amhl,ampho b high,amphotericin high</t>
   </si>
   <si>
     <t xml:space="preserve">AMP</t>
@@ -276,18 +275,16 @@
     <t xml:space="preserve">Ampicillin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01CA01", "S01AA19")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("am", "amp", "ampi")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acillin", "adobacillin", "amblosin", "amcill", "amfipen", "amfipen v", "amipenix s", "ampichel", "ampicil", "ampicilina", "ampicillin", "ampicillin a", "ampicillin acid", "ampicillin anhydrate", "ampicillin anhydrous", "ampicillin base", "ampicillin sodium", "ampicillina", "ampicilline", "ampicillinum", "ampicin", "ampifarm", "ampikel", "ampimed", "ampipenin", "ampiscel", "ampisyn", "ampivax", "ampivet", "amplacilina", "amplin", "amplipenyl", "amplisom", "amplital", "anhydrous ampicillin", "austrapen", 
-"binotal", "bonapicillin", "britacil", "campicillin", "copharcilin", "delcillin", "deripen", "divercillin", "doktacillin", "duphacillin", "grampenil", "guicitrina", "guicitrine", "lifeampil", "marcillin", "morepen", "norobrittin", "nuvapen", "olin kid", "omnipen", "orbicilina", "pen a oral", "pen ampil", "penbristol", "penbritin", "penbritin paediatric", "penbritin syrup", "penbrock", "penicline", "penimic", "pensyn", "pentrex", "pentrexl", "pentrexyl", "pentritin", "pfizerpen a", "polycillin", "polyflex", 
-"ponecil", "princillin", "principen", "qidamp", "racenacillin", "rosampline", "roscillin", "semicillin", "semicillin r", "servicillin", "sumipanto", "synpenin", "texcillin", "tokiocillin", "tolomol", "totacillin", "totalciclina", "totapen", "trifacilina", "ukapen", "ultrabion", "ultrabron", "vampen", "viccillin", "viccillin s", "vidocillin", "wypicil")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("21066-6", "3355-5", "33562-0", "33919-2", "43883-8", "43884-6", "87604-5")</t>
+    <t xml:space="preserve">J01CA01,S01AA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am,amp,ampi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acillin,adobacillin,amblosin,amcill,amfipen,amfipen v,amipenix s,ampichel,ampicil,ampicilina,ampicillin,ampicillin a,ampicillin acid,ampicillin anhydrate,ampicillin anhydrous,ampicillin base,ampicillin sodium,ampicillina,ampicilline,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,anhydrous ampicillin,austrapen,binotal,bonapicillin,britacil,campicillin,copharcilin,delcillin,deripen,divercillin,doktacillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olin kid,omnipen,orbicilina,pen a oral,pen ampil,penbristol,penbritin,penbritin paediatric,penbritin syrup,penbrock,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpen a,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,rosampline,roscillin,semicillin,semicillin r,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillin s,vidocillin,wypicil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21066-6,3355-5,33562-0,33919-2,43883-8,43884-6,87604-5</t>
   </si>
   <si>
     <t xml:space="preserve">SAM</t>
@@ -299,7 +296,7 @@
     <t xml:space="preserve">J01CR01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("a/s", "ab", "ams", "amsu", "apsu", "sam")</t>
+    <t xml:space="preserve">a/s,ab,ams,amsu,apsu,sam</t>
   </si>
   <si>
     <t xml:space="preserve">AMR</t>
@@ -308,7 +305,7 @@
     <t xml:space="preserve">Amprolium</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amprocidum", "amprolio", "amprolium", "amprovine")</t>
+    <t xml:space="preserve">amprocidum,amprolio,amprolium,amprovine</t>
   </si>
   <si>
     <t xml:space="preserve">ANI</t>
@@ -326,7 +323,7 @@
     <t xml:space="preserve">anid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("anidulafungin", "anidulafungina", "anidulafungine", "anidulafunginum", "ecalta", "eraxis")</t>
+    <t xml:space="preserve">anidulafungin,anidulafungina,anidulafungine,anidulafunginum,ecalta,eraxis</t>
   </si>
   <si>
     <t xml:space="preserve">58420-1</t>
@@ -338,7 +335,7 @@
     <t xml:space="preserve">Apalcillin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("apalcilina", "apalcillin", "apalcilline", "apalcillinum")</t>
+    <t xml:space="preserve">apalcilina,apalcillin,apalcilline,apalcillinum</t>
   </si>
   <si>
     <t xml:space="preserve">APR</t>
@@ -347,7 +344,7 @@
     <t xml:space="preserve">Apramycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ambylan", "apralan", "apramicina", "apramycin", "apramycine", "apramycinum", "nebramycin ii")</t>
+    <t xml:space="preserve">ambylan,apralan,apramicina,apramycin,apramycine,apramycinum,nebramycin ii</t>
   </si>
   <si>
     <t xml:space="preserve">ARB</t>
@@ -359,7 +356,7 @@
     <t xml:space="preserve">J01GB12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("arbekacin", "arbekacina", "arbekacine", "arbekacini sulfas", "arbekacinum", "habekacin", "haberacin")</t>
+    <t xml:space="preserve">arbekacin,arbekacina,arbekacine,arbekacini sulfas,arbekacinum,habekacin,haberacin</t>
   </si>
   <si>
     <t xml:space="preserve">APX</t>
@@ -371,7 +368,7 @@
     <t xml:space="preserve">J01CA19</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aspoxicilina", "aspoxicillan", "aspoxicillin", "aspoxicilline", "aspoxicillinum")</t>
+    <t xml:space="preserve">aspoxicilina,aspoxicillan,aspoxicillin,aspoxicilline,aspoxicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">AST</t>
@@ -380,7 +377,7 @@
     <t xml:space="preserve">Astromicin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("astromicin", "astromicin a", "astromicina", "astromicine", "astromicinum", "fortimicin a")</t>
+    <t xml:space="preserve">astromicin,astromicin a,astromicina,astromicine,astromicinum,fortimicin a</t>
   </si>
   <si>
     <t xml:space="preserve">AVB</t>
@@ -389,7 +386,7 @@
     <t xml:space="preserve">Avibactam</t>
   </si>
   <si>
-    <t xml:space="preserve">c("avibactam", "avibactam free acid")</t>
+    <t xml:space="preserve">avibactam,avibactam free acid</t>
   </si>
   <si>
     <t xml:space="preserve">AVI</t>
@@ -398,7 +395,7 @@
     <t xml:space="preserve">Avilamycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("avilamycin", "avilamycina", "avilamycine", "avilamycinum", "surmax")</t>
+    <t xml:space="preserve">avilamycin,avilamycina,avilamycine,avilamycinum,surmax</t>
   </si>
   <si>
     <t xml:space="preserve">AVO</t>
@@ -422,7 +419,7 @@
     <t xml:space="preserve">Beta-lactamase sensitive penicillins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("azidocilina", "azidocillin", "azidocillina", "azidocilline", "azidocillinum")</t>
+    <t xml:space="preserve">azidocilina,azidocillin,azidocillina,azidocilline,azidocillinum</t>
   </si>
   <si>
     <t xml:space="preserve">AZM</t>
@@ -431,7 +428,7 @@
     <t xml:space="preserve">Azithromycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01FA10", "S01AA26")</t>
+    <t xml:space="preserve">J01FA10,S01AA26</t>
   </si>
   <si>
     <t xml:space="preserve">Macrolides, lincosamides and streptogramins</t>
@@ -440,13 +437,13 @@
     <t xml:space="preserve">Macrolides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("az", "azi", "azit", "azm")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("aritromicina", "azasite", "azenil", "azifast", "azigram", "azimakrol", "azithramycine", "azithromycin", "azithromycine", "azithromycinum", "azitrocin", "azitromax", "azitromicina", "azitromicine", "azitromin", "aziwok", "aztrin", "azyter", "azythromycin", "hemomycin", "misultina", "mixoterin", "setron", "sumamed", "tromix", "trulimax", "zentavion", "zithrax", "zithromac", "zithromax", "zithromax iv", "zithromycin", "zitrim", "zitromax", "zitrotek", "zmax sr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16420-2", "25233-8")</t>
+    <t xml:space="preserve">az,azi,azit,azm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aritromicina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithromycin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwok,aztrin,azyter,azythromycin,hemomycin,misultina,mixoterin,setron,sumamed,tromix,trulimax,zentavion,zithrax,zithromac,zithromax,zithromax iv,zithromycin,zitrim,zitromax,zitrotek,zmax sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16420-2,25233-8</t>
   </si>
   <si>
     <t xml:space="preserve">AZL</t>
@@ -458,7 +455,7 @@
     <t xml:space="preserve">J01CA09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("az", "azl", "azlo")</t>
+    <t xml:space="preserve">az,azl,azlo</t>
   </si>
   <si>
     <t xml:space="preserve">ATM</t>
@@ -476,13 +473,13 @@
     <t xml:space="preserve">Monobactams</t>
   </si>
   <si>
-    <t xml:space="preserve">c("at", "atm", "azm", "azt", "aztr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("azactam", "azetreonam", "azthreonam", "aztreonam", "primbactam")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16423-6", "25234-6", "3369-6")</t>
+    <t xml:space="preserve">at,atm,azm,azt,aztr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azactam,azetreonam,azthreonam,aztreonam,primbactam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16423-6,25234-6,3369-6</t>
   </si>
   <si>
     <t xml:space="preserve">AZA</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">J01CA06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bacampicilina", "bacampicillin", "bacampicilline", "bacampicillinum", "penglobe")</t>
+    <t xml:space="preserve">bacampicilina,bacampicillin,bacampicilline,bacampicillinum,penglobe</t>
   </si>
   <si>
     <t xml:space="preserve">BAC</t>
@@ -530,7 +527,7 @@
     <t xml:space="preserve">J04AK05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bedaquiline", "sirturo")</t>
+    <t xml:space="preserve">bedaquiline,sirturo</t>
   </si>
   <si>
     <t xml:space="preserve">80637-2</t>
@@ -545,7 +542,7 @@
     <t xml:space="preserve">J01GB13</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aminodeoxykanamycin", "becanamicina", "bekanamycin", "bekanamycine", "bekanamycinum", "nebramycin v")</t>
+    <t xml:space="preserve">aminodeoxykanamycin,becanamicina,bekanamycin,bekanamycine,bekanamycinum,nebramycin v</t>
   </si>
   <si>
     <t xml:space="preserve">BNB</t>
@@ -566,7 +563,7 @@
     <t xml:space="preserve">J01CE10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bicillin v", "biphecillin")</t>
+    <t xml:space="preserve">bicillin v,biphecillin</t>
   </si>
   <si>
     <t xml:space="preserve">PEN</t>
@@ -575,17 +572,16 @@
     <t xml:space="preserve">Benzylpenicillin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01CE01", "S01AA14")</t>
+    <t xml:space="preserve">J01CE01,S01AA14</t>
   </si>
   <si>
     <t xml:space="preserve">Combinations of antibacterials</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bepe", "pen", "peni", "peni g", "penicillin", "penicillin g", "pg")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abbocillin", "ayercillin", "bencilpenicilina", "benzopenicillin", "benzyl penicillin", "benzylpenicillin", "benzylpenicillin g", "benzylpenicilline", "benzylpenicillinum", "bicillin", "cillora", "cilloral", "cilopen", "compocillin g", "cosmopen", "dropcillin", "free penicillin g", "free penicillin ii", "galofak", "gelacillin", "liquacillin", "megacillin", "pencillin g", "penicillin", "penicilling", "pentids", "permapen", "pfizerpen", "pfizerpen g", "pharmacillin", "pradupen", "specilline g", "ursopen"
-)</t>
+    <t xml:space="preserve">bepe,pen,peni,peni g,penicillin,penicillin g,pg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbocillin,ayercillin,bencilpenicilina,benzopenicillin,benzyl penicillin,benzylpenicillin,benzylpenicillin g,benzylpenicilline,benzylpenicillinum,bicillin,cillora,cilloral,cilopen,compocillin g,cosmopen,dropcillin,free penicillin g,free penicillin ii,galofak,gelacillin,liquacillin,megacillin,pencillin g,penicillin,penicilling,pentids,permapen,pfizerpen,pfizerpen g,pharmacillin,pradupen,specilline g,ursopen</t>
   </si>
   <si>
     <t xml:space="preserve">3913-1</t>
@@ -618,7 +614,7 @@
     <t xml:space="preserve">J01DH05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("biapenem", "biapenern", "bipenem", "omegacin")</t>
+    <t xml:space="preserve">biapenem,biapenern,bipenem,omegacin</t>
   </si>
   <si>
     <t xml:space="preserve">BCZ</t>
@@ -627,10 +623,10 @@
     <t xml:space="preserve">Bicyclomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "bicozamycin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("aizumycin", "bacfeed", "bacteron", "bicozamicina", "bicozamycin", "bicozamycine", "bicozamycinum")</t>
+    <t xml:space="preserve">,bicozamycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aizumycin,bacfeed,bacteron,bicozamicina,bicozamycin,bicozamycine,bicozamycinum</t>
   </si>
   <si>
     <t xml:space="preserve">BDP</t>
@@ -651,7 +647,7 @@
     <t xml:space="preserve">Trimethoprim and derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("brodimoprim", "brodimoprima", "brodimoprime", "brodimoprimum", "bromdimoprim", "hyprim", "unitrim")</t>
+    <t xml:space="preserve">brodimoprim,brodimoprima,brodimoprime,brodimoprimum,bromdimoprim,hyprim,unitrim</t>
   </si>
   <si>
     <t xml:space="preserve">BUT</t>
@@ -663,7 +659,7 @@
     <t xml:space="preserve">G01AF15</t>
   </si>
   <si>
-    <t xml:space="preserve">c("butaconazole", "butoconazol", "butoconazole", "butoconazolum", "compositenstarke", "dahlin", "femstat", "gynofort", "polyfructosanum")</t>
+    <t xml:space="preserve">butaconazole,butoconazol,butoconazole,butoconazolum,compositenstarke,dahlin,femstat,gynofort,polyfructosanum</t>
   </si>
   <si>
     <t xml:space="preserve">CDZ</t>
@@ -696,7 +692,7 @@
     <t xml:space="preserve">J04AB30</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "capr")</t>
+    <t xml:space="preserve">,capr</t>
   </si>
   <si>
     <t xml:space="preserve">CRB</t>
@@ -708,10 +704,10 @@
     <t xml:space="preserve">J01CA03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bar", "carb", "cb")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("anabactyl", "carbenicilina", "carbenicillin", "carbenicillina", "carbenicilline", "carbenicillinum", "geopen", "pyopen")</t>
+    <t xml:space="preserve">bar,carb,cb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anabactyl,carbenicilina,carbenicillin,carbenicillina,carbenicilline,carbenicillinum,geopen,pyopen</t>
   </si>
   <si>
     <t xml:space="preserve">3434-8</t>
@@ -726,7 +722,7 @@
     <t xml:space="preserve">J01CA05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("carindacilina", "carindacillin", "carindacilline", "carindacillinum")</t>
+    <t xml:space="preserve">carindacilina,carindacillin,carindacilline,carindacillinum</t>
   </si>
   <si>
     <t xml:space="preserve">CAR</t>
@@ -738,7 +734,7 @@
     <t xml:space="preserve">J01DF02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("carumonam", "carumonamum")</t>
+    <t xml:space="preserve">carumonam,carumonamum</t>
   </si>
   <si>
     <t xml:space="preserve">CAS</t>
@@ -753,7 +749,7 @@
     <t xml:space="preserve">casp</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cancidas", "capsofungin", "caspofungin")</t>
+    <t xml:space="preserve">cancidas,capsofungin,caspofungin</t>
   </si>
   <si>
     <t xml:space="preserve">58419-3</t>
@@ -774,7 +770,7 @@
     <t xml:space="preserve">First-generation cephalosporins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefacetril", "cefacetrile", "cefacetrilo", "cefacetrilum", "celospor", "celtol", "cephacetrile", "cristacef", "vetrimast")</t>
+    <t xml:space="preserve">cefacetril,cefacetrile,cefacetrilo,cefacetrilum,celospor,celtol,cephacetrile,cristacef,vetrimast</t>
   </si>
   <si>
     <t xml:space="preserve">CEC</t>
@@ -792,13 +788,13 @@
     <t xml:space="preserve">Second-generation cephalosporins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ccl", "cec", "cf", "cfac", "cfc", "cfcl", "cfr", "fac")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alenfral", "alfacet", "ceclor", "ceclor cd", "cefaclor", "cefaclor anhydrous", "cefaclor monohydrate", "cefacloro", "cefaclorum", "cefeaclor", "cephaclor", "dystaclor mr", "keflor", "kefral", "raniclor")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16564-7", "21149-0")</t>
+    <t xml:space="preserve">ccl,cec,cf,cfac,cfc,cfcl,cfr,fac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alenfral,alfacet,ceclor,ceclor cd,cefaclor,cefaclor anhydrous,cefaclor monohydrate,cefacloro,cefaclorum,cefeaclor,cephaclor,dystaclor mr,keflor,kefral,raniclor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16564-7,21149-0</t>
   </si>
   <si>
     <t xml:space="preserve">CFR</t>
@@ -810,10 +806,10 @@
     <t xml:space="preserve">J01DB05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfdx", "cfr", "fad")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefadrops", "cefadroxil", "cefadroxil anhydrous", "cefadroxilo", "cefadroxilum", "cefradroxil", "cephadroxil", "duricef", "sumacef", "ultracef")</t>
+    <t xml:space="preserve">cfdx,cfr,fad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefadrops,cefadroxil,cefadroxil anhydrous,cefadroxilo,cefadroxilum,cefradroxil,cephadroxil,duricef,sumacef,ultracef</t>
   </si>
   <si>
     <t xml:space="preserve">16565-4</t>
@@ -831,7 +827,7 @@
     <t xml:space="preserve">cefa</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aliporina", "ampligram", "cefaloridin", "cefaloridina", "cefaloridine", "cefaloridinum", "cefalorizin", "ceflorin", "cepaloridin", "cepalorin", "cephalomycine", "cephaloridin", "cephaloridine", "cephaloridinum", "ceporan", "ceporin", "ceporine", "cilifor", "deflorin", "faredina", "floridin", "glaxoridin", "intrasporin", "keflodin", "keflordin", "kefloridin", "kefspor", "lloncefal", "loridine", "sasperin", "sefacin", "verolgin", "vioviantine")</t>
+    <t xml:space="preserve">aliporina,ampligram,cefaloridin,cefaloridina,cefaloridine,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,loridine,sasperin,sefacin,verolgin,vioviantine</t>
   </si>
   <si>
     <t xml:space="preserve">MAN</t>
@@ -843,10 +839,10 @@
     <t xml:space="preserve">J01DC03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfam", "cfmn")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefadole", "cefamandol", "cefamandole", "cefamandolum", "cephadole", "cephamandole", "kefamandol", "kefdole", "mancef")</t>
+    <t xml:space="preserve">cfam,cfmn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefadole,cefamandol,cefamandole,cefamandolum,cephadole,cephamandole,kefamandol,kefdole,mancef</t>
   </si>
   <si>
     <t xml:space="preserve">3441-3</t>
@@ -861,7 +857,7 @@
     <t xml:space="preserve">J01DB07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bricef", "cefatrix", "cefatrizine", "cefatrizino", "cefatrizinum", "cepticol", "cetrazil", "latocef", "orosporina", "trizina")</t>
+    <t xml:space="preserve">bricef,cefatrix,cefatrizine,cefatrizino,cefatrizinum,cepticol,cetrazil,latocef,orosporina,trizina</t>
   </si>
   <si>
     <t xml:space="preserve">CZD</t>
@@ -873,7 +869,7 @@
     <t xml:space="preserve">J01DB06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefazedon", "cefazedona", "cefazedone", "cefazedone acid", "cefazedonum", "refosporen", "refosporene", "refosporin")</t>
+    <t xml:space="preserve">cefazedon,cefazedona,cefazedone,cefazedone acid,cefazedonum,refosporen,refosporene,refosporin</t>
   </si>
   <si>
     <t xml:space="preserve">CZO</t>
@@ -885,13 +881,13 @@
     <t xml:space="preserve">J01DB04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfz", "cfzl", "cz", "czol", "faz", "kz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("atirin", "cefamezin", "cefamezine", "cefazina", "cefazolin", "cefazolin acid", "cefazolina", "cefazoline", "cefazolinum", "cephamezine", "cephazolidin", "cephazolin", "cephazoline", "elzogram", "firmacef", "kefzol", "liviclina", "totacef")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16566-2", "25235-3", "3442-1", "3443-9", "80962-4")</t>
+    <t xml:space="preserve">cfz,cfzl,cz,czol,faz,kz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atirin,cefamezin,cefamezine,cefazina,cefazolin,cefazolin acid,cefazolina,cefazoline,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,kefzol,liviclina,totacef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16566-2,25235-3,3442-1,3443-9,80962-4</t>
   </si>
   <si>
     <t xml:space="preserve">CFB</t>
@@ -903,7 +899,7 @@
     <t xml:space="preserve">J01DC13</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefbuperazona", "cefbuperazone", "cefbuperazonum", "cefbuperzaone", "cerbuperazone", "tomiporan")</t>
+    <t xml:space="preserve">cefbuperazona,cefbuperazone,cefbuperazonum,cefbuperzaone,cerbuperazone,tomiporan</t>
   </si>
   <si>
     <t xml:space="preserve">CCP</t>
@@ -918,7 +914,7 @@
     <t xml:space="preserve">J01DD17</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefcamate", "cefcapene")</t>
+    <t xml:space="preserve">cefcamate,cefcapene</t>
   </si>
   <si>
     <t xml:space="preserve">CCX</t>
@@ -927,7 +923,7 @@
     <t xml:space="preserve">Cefcapene pivoxil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefcamate pivoxil", "cefcapene piroxil")</t>
+    <t xml:space="preserve">cefcamate pivoxil,cefcapene piroxil</t>
   </si>
   <si>
     <t xml:space="preserve">CDR</t>
@@ -942,10 +938,10 @@
     <t xml:space="preserve">Third-generation cephalosporins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cd", "cdn", "cdr", "cfd", "din")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefdinir", "cefdinirum", "cefdinyl", "cefdirnir", "ceftinex", "cefzon", "omnicef")</t>
+    <t xml:space="preserve">cd,cdn,cdr,cfd,din</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefdinir,cefdinirum,cefdinyl,cefdirnir,ceftinex,cefzon,omnicef</t>
   </si>
   <si>
     <t xml:space="preserve">DIT</t>
@@ -969,7 +965,7 @@
     <t xml:space="preserve">Cefditoren pivoxil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefditoren", "cefditoren pi voxil", "cefditoren pivoxil", "cefditorin", "cefditorin pivoxil", "meiact", "spectracef")</t>
+    <t xml:space="preserve">cefditoren,cefditoren pi voxil,cefditoren pivoxil,cefditorin,cefditorin pivoxil,meiact,spectracef</t>
   </si>
   <si>
     <t xml:space="preserve">FEP</t>
@@ -987,10 +983,10 @@
     <t xml:space="preserve">Fourth-generation cephalosporins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfep", "cfpi", "cpe", "cpm", "fep", "pm", "xpm")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("axepim", "cefepima", "cefepime", "cefepimum", "cepimax", "cepimex", "maxcef", "maxipime")</t>
+    <t xml:space="preserve">cfep,cfpi,cpe,cpm,fep,pm,xpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axepim,cefepima,cefepime,cefepimum,cepimax,cepimex,maxcef,maxipime</t>
   </si>
   <si>
     <t xml:space="preserve">38363-8</t>
@@ -1002,7 +998,7 @@
     <t xml:space="preserve">Cefepime/clavulanic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cicl", "xpml")</t>
+    <t xml:space="preserve">cicl,xpml</t>
   </si>
   <si>
     <t xml:space="preserve">FNC</t>
@@ -1032,7 +1028,7 @@
     <t xml:space="preserve">J01DD10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefetamet", "cefetametum", "cepime o", "deacetoxycefotaxime")</t>
+    <t xml:space="preserve">cefetamet,cefetametum,cepime o,deacetoxycefotaxime</t>
   </si>
   <si>
     <t xml:space="preserve">CPI</t>
@@ -1041,7 +1037,7 @@
     <t xml:space="preserve">Cefetamet pivoxil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefetamet pivoxyl", "globocef")</t>
+    <t xml:space="preserve">cefetamet pivoxyl,globocef</t>
   </si>
   <si>
     <t xml:space="preserve">CCL</t>
@@ -1050,7 +1046,7 @@
     <t xml:space="preserve">Cefetecol</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cefcatacol")</t>
+    <t xml:space="preserve">,cefcatacol</t>
   </si>
   <si>
     <t xml:space="preserve">CZL</t>
@@ -1062,7 +1058,7 @@
     <t xml:space="preserve">Cephalosporins (unclassified gen.)</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefetrizole", "cefetrizolum")</t>
+    <t xml:space="preserve">cefetrizole,cefetrizolum</t>
   </si>
   <si>
     <t xml:space="preserve">FDC</t>
@@ -1086,13 +1082,13 @@
     <t xml:space="preserve">J01DD08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfe", "cfix", "cfxm", "dcfm", "fix", "ix")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefixim", "cefixima", "cefixime", "cefixime anhydrous", "cefiximum", "cefixoral", "cefspan", "cephoral", "denvar", "necopen", "suprax", "tricef", "unixime")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16567-0", "25236-1")</t>
+    <t xml:space="preserve">cfe,cfix,cfxm,dcfm,fix,ix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefixim,cefixima,cefixime,cefixime anhydrous,cefiximum,cefixoral,cefspan,cephoral,denvar,necopen,suprax,tricef,unixime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16567-0,25236-1</t>
   </si>
   <si>
     <t xml:space="preserve">CMX</t>
@@ -1104,7 +1100,7 @@
     <t xml:space="preserve">J01DD05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bestron", "cefmax", "cefmenoxima", "cefmenoxime", "cefmenoximum")</t>
+    <t xml:space="preserve">bestron,cefmax,cefmenoxima,cefmenoxime,cefmenoximum</t>
   </si>
   <si>
     <t xml:space="preserve">CMZ</t>
@@ -1116,7 +1112,7 @@
     <t xml:space="preserve">J01DC09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefmetazole", "cefmetazolo", "cefmetazolum")</t>
+    <t xml:space="preserve">cefmetazole,cefmetazolo,cefmetazolum</t>
   </si>
   <si>
     <t xml:space="preserve">CNX</t>
@@ -1128,7 +1124,7 @@
     <t xml:space="preserve">J01DC12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefminox", "cefminoxum")</t>
+    <t xml:space="preserve">cefminox,cefminoxum</t>
   </si>
   <si>
     <t xml:space="preserve">DIZ</t>
@@ -1140,7 +1136,7 @@
     <t xml:space="preserve">J01DD09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefodizima", "cefodizime", "cefodizime acid", "cefodizimum", "cefodizme", "diezime", "modivid", "neucef", "timecef")</t>
+    <t xml:space="preserve">cefodizima,cefodizime,cefodizime acid,cefodizimum,cefodizme,diezime,modivid,neucef,timecef</t>
   </si>
   <si>
     <t xml:space="preserve">CID</t>
@@ -1152,10 +1148,10 @@
     <t xml:space="preserve">J01DC06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefonicid", "cefonicido", "cefonicidum", "monocef")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25237-9", "3444-7")</t>
+    <t xml:space="preserve">cefonicid,cefonicido,cefonicidum,monocef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25237-9,3444-7</t>
   </si>
   <si>
     <t xml:space="preserve">CFP</t>
@@ -1167,10 +1163,10 @@
     <t xml:space="preserve">J01DD12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfp", "cfpz", "cp", "cpz", "fop", "per")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bioperazone", "cefobid", "cefoperazine", "cefoperazon", "cefoperazone", "cefoperazone acid", "cefoperazono", "cefoperazonum", "cefozon", "medocef", "myticef", "pathozone", "peracef")</t>
+    <t xml:space="preserve">cfp,cfpz,cp,cpz,fop,per</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioperazone,cefobid,cefoperazine,cefoperazon,cefoperazone,cefoperazone acid,cefoperazono,cefoperazonum,cefozon,medocef,myticef,pathozone,peracef</t>
   </si>
   <si>
     <t xml:space="preserve">3445-4</t>
@@ -1194,7 +1190,7 @@
     <t xml:space="preserve">J01DC11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ceforanide", "ceforanido", "ceforanidum", "precef", "radacef")</t>
+    <t xml:space="preserve">ceforanide,ceforanido,ceforanidum,precef,radacef</t>
   </si>
   <si>
     <t xml:space="preserve">CSE</t>
@@ -1203,7 +1199,7 @@
     <t xml:space="preserve">Cefoselis</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefoselis", "cefoselis sulfate", "winsef")</t>
+    <t xml:space="preserve">cefoselis,cefoselis sulfate,winsef</t>
   </si>
   <si>
     <t xml:space="preserve">CTX</t>
@@ -1215,13 +1211,13 @@
     <t xml:space="preserve">J01DD01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfot", "cft", "cftx", "ct", "ctx", "fot", "tax", "xct")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefotaxim", "cefotaxim hikma", "cefotaxima", "cefotaxime", "cefotaxime acid", "cefotaximum", "cephotaxime", "claforan", "omnatax")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25238-7", "3446-2", "80961-6")</t>
+    <t xml:space="preserve">cfot,cft,cftx,ct,ctx,fot,tax,xct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefotaxim,cefotaxim hikma,cefotaxima,cefotaxime,cefotaxime acid,cefotaximum,cephotaxime,claforan,omnatax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25238-7,3446-2,80961-6</t>
   </si>
   <si>
     <t xml:space="preserve">CTC</t>
@@ -1230,7 +1226,7 @@
     <t xml:space="preserve">Cefotaxime/clavulanic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cxcl", "xctl")</t>
+    <t xml:space="preserve">cxcl,xctl</t>
   </si>
   <si>
     <t xml:space="preserve">CTS</t>
@@ -1248,13 +1244,13 @@
     <t xml:space="preserve">J01DC05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cftt", "cn", "cte", "ctn", "ctt", "tans")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("apacef", "cefotetan", "cefotetan free acid", "cefotetanum")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25239-5", "3447-0")</t>
+    <t xml:space="preserve">cftt,cn,cte,ctn,ctt,tans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apacef,cefotetan,cefotetan free acid,cefotetanum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25239-5,3447-0</t>
   </si>
   <si>
     <t xml:space="preserve">CTF</t>
@@ -1266,7 +1262,7 @@
     <t xml:space="preserve">J01DC07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefotiam", "cefotiam?", "cefotiamum", "ceradolan", "ceradon", "haloapor")</t>
+    <t xml:space="preserve">cefotiam,cefotiam?,cefotiamum,ceradolan,ceradon,haloapor</t>
   </si>
   <si>
     <t xml:space="preserve">CHE</t>
@@ -1275,7 +1271,7 @@
     <t xml:space="preserve">Cefotiam hexetil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefotiam cilexetil", "pansporin t")</t>
+    <t xml:space="preserve">cefotiam cilexetil,pansporin t</t>
   </si>
   <si>
     <t xml:space="preserve">FOV</t>
@@ -1293,13 +1289,13 @@
     <t xml:space="preserve">J01DC01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfox", "cfx", "cfxt", "cx", "fox", "fx")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefoxitin", "cefoxitina", "cefoxitine", "cefoxitinum", "cefoxotin", "cephoxitin", "mefoxin", "mefoxitin", "rephoxitin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25240-3", "3448-8")</t>
+    <t xml:space="preserve">cfox,cfx,cfxt,cx,fox,fx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefoxitin,cefoxitina,cefoxitine,cefoxitinum,cefoxotin,cephoxitin,mefoxin,mefoxitin,rephoxitin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25240-3,3448-8</t>
   </si>
   <si>
     <t xml:space="preserve">FOX1</t>
@@ -1329,7 +1325,7 @@
     <t xml:space="preserve">Cefpimizole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefpimizol", "cefpimizole", "cefpimizole sodium", "cefpimizolum")</t>
+    <t xml:space="preserve">cefpimizol,cefpimizole,cefpimizole sodium,cefpimizolum</t>
   </si>
   <si>
     <t xml:space="preserve">CPM</t>
@@ -1341,7 +1337,7 @@
     <t xml:space="preserve">J01DD11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefpiramide", "cefpiramide acid", "cefpiramido", "cefpiramidum")</t>
+    <t xml:space="preserve">cefpiramide,cefpiramide acid,cefpiramido,cefpiramidum</t>
   </si>
   <si>
     <t xml:space="preserve">CPO</t>
@@ -1353,10 +1349,10 @@
     <t xml:space="preserve">J01DE02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cfpr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("broact", "cefpiroma", "cefpirome", "cefpiromum", "cefrom", "cerfpirome", "keiten")</t>
+    <t xml:space="preserve">,cfpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broact,cefpiroma,cefpirome,cefpiromum,cefrom,cerfpirome,keiten</t>
   </si>
   <si>
     <t xml:space="preserve">CPD</t>
@@ -1368,10 +1364,10 @@
     <t xml:space="preserve">J01DD13</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfpd", "cfpo", "cpd", "pod", "px")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefpodoxim acid", "cefpodoxima", "cefpodoxime", "cefpodoxime acid", "cefpodoximum", "epoxim")</t>
+    <t xml:space="preserve">cfpd,cfpo,cpd,pod,px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefpodoxim acid,cefpodoxima,cefpodoxime,cefpodoxime acid,cefpodoximum,epoxim</t>
   </si>
   <si>
     <t xml:space="preserve">25241-1</t>
@@ -1383,7 +1379,7 @@
     <t xml:space="preserve">Cefpodoxime proxetil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefodox", "cefoprox", "cefpodoxime proxetil", "cepodem", "orelox", "otreon", "podomexef", "simplicef", "vantin")</t>
+    <t xml:space="preserve">cefodox,cefoprox,cefpodoxime proxetil,cepodem,orelox,otreon,podomexef,simplicef,vantin</t>
   </si>
   <si>
     <t xml:space="preserve">CDC</t>
@@ -1392,7 +1388,7 @@
     <t xml:space="preserve">Cefpodoxime/clavulanic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cecl")</t>
+    <t xml:space="preserve">,cecl</t>
   </si>
   <si>
     <t xml:space="preserve">CPR</t>
@@ -1404,10 +1400,10 @@
     <t xml:space="preserve">J01DC10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cpr", "cpz", "fp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("arzimol", "brisoral", "cefprozil", "cefprozil anhydrous", "cefprozil hydrate", "cefprozilo", "cefprozilum", "cefzil", "cronocef", "procef", "serozil")</t>
+    <t xml:space="preserve">cpr,cpz,fp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arzimol,brisoral,cefprozil,cefprozil anhydrous,cefprozil hydrate,cefprozilo,cefprozilum,cefzil,cronocef,procef,serozil</t>
   </si>
   <si>
     <t xml:space="preserve">CEQ</t>
@@ -1416,7 +1412,7 @@
     <t xml:space="preserve">Cefquinome</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefquinoma", "cefquinome", "cefquinomum", "cobactan")</t>
+    <t xml:space="preserve">cefquinoma,cefquinome,cefquinomum,cobactan</t>
   </si>
   <si>
     <t xml:space="preserve">CRD</t>
@@ -1428,7 +1424,7 @@
     <t xml:space="preserve">J01DB11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefroxadine", "cefroxadino", "cefroxadinum")</t>
+    <t xml:space="preserve">cefroxadine,cefroxadino,cefroxadinum</t>
   </si>
   <si>
     <t xml:space="preserve">CFS</t>
@@ -1440,13 +1436,13 @@
     <t xml:space="preserve">J01DD03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfsl", "cfsu")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefsulodin", "cefsulodine", "cefsulodino", "cefsulodinum")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("131-3", "25242-9")</t>
+    <t xml:space="preserve">cfsl,cfsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefsulodin,cefsulodine,cefsulodino,cefsulodinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131-3,25242-9</t>
   </si>
   <si>
     <t xml:space="preserve">CSU</t>
@@ -1455,7 +1451,7 @@
     <t xml:space="preserve">Cefsumide</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefsumide", "cefsumido", "cefsumidum")</t>
+    <t xml:space="preserve">cefsumide,cefsumido,cefsumidum</t>
   </si>
   <si>
     <t xml:space="preserve">CPT</t>
@@ -1470,10 +1466,10 @@
     <t xml:space="preserve">J01DI02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cfro")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("teflaro", "zinforo")</t>
+    <t xml:space="preserve">,cfro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teflaro,zinforo</t>
   </si>
   <si>
     <t xml:space="preserve">CPA</t>
@@ -1491,13 +1487,13 @@
     <t xml:space="preserve">J01DD02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("caz", "cefta", "cfta", "cftz", "taz", "tz", "xtz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("ceftazidim", "ceftazidima", "ceftazidime", "ceftazidimum", "ceptaz", "fortaz", "fortum", "pentacef", "tazicef", "tazidime")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("21151-6", "3449-6", "80960-8")</t>
+    <t xml:space="preserve">caz,cefta,cfta,cftz,taz,tz,xtz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceftazidim,ceftazidima,ceftazidime,ceftazidimum,ceptaz,fortaz,fortum,pentacef,tazicef,tazidime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21151-6,3449-6,80960-8</t>
   </si>
   <si>
     <t xml:space="preserve">CZA</t>
@@ -1506,10 +1502,10 @@
     <t xml:space="preserve">Ceftazidime/avibactam</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cfav")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("avycaz", "zavicefta")</t>
+    <t xml:space="preserve">,cfav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avycaz,zavicefta</t>
   </si>
   <si>
     <t xml:space="preserve">CCV</t>
@@ -1521,7 +1517,7 @@
     <t xml:space="preserve">J01DD52</t>
   </si>
   <si>
-    <t xml:space="preserve">c("czcl", "xtzl")</t>
+    <t xml:space="preserve">czcl,xtzl</t>
   </si>
   <si>
     <t xml:space="preserve">CEM</t>
@@ -1533,7 +1529,7 @@
     <t xml:space="preserve">J01DD18</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefteram", "cefterame", "cefteramum", "ceftetrame")</t>
+    <t xml:space="preserve">cefteram,cefterame,cefteramum,ceftetrame</t>
   </si>
   <si>
     <t xml:space="preserve">CPL</t>
@@ -1542,7 +1538,7 @@
     <t xml:space="preserve">Cefteram pivoxil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefteram pivoxil", "tomiron")</t>
+    <t xml:space="preserve">cefteram pivoxil,tomiron</t>
   </si>
   <si>
     <t xml:space="preserve">CTL</t>
@@ -1554,7 +1550,7 @@
     <t xml:space="preserve">J01DB12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ceftezol", "ceftezole", "ceftezolo", "ceftezolum", "demethylcefazolin")</t>
+    <t xml:space="preserve">ceftezol,ceftezole,ceftezolo,ceftezolum,demethylcefazolin</t>
   </si>
   <si>
     <t xml:space="preserve">CTB</t>
@@ -1566,10 +1562,10 @@
     <t xml:space="preserve">J01DD14</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cb", "cfbu", "ctb", "tib")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("ceftem", "ceftibuten", "ceftibuten hydrate", "ceftibutene", "ceftibuteno", "ceftibutenum", "cephem", "ceprifran", "isocef", "keimax")</t>
+    <t xml:space="preserve">cb,cfbu,ctb,tib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceftem,ceftibuten,ceftibuten hydrate,ceftibutene,ceftibuteno,ceftibutenum,cephem,ceprifran,isocef,keimax</t>
   </si>
   <si>
     <t xml:space="preserve">TIO</t>
@@ -1578,7 +1574,7 @@
     <t xml:space="preserve">Ceftiofur</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ceftiofur", "ceftiofurum", "excede", "excenel", "naxcel")</t>
+    <t xml:space="preserve">ceftiofur,ceftiofurum,excede,excenel,naxcel</t>
   </si>
   <si>
     <t xml:space="preserve">CZX</t>
@@ -1590,13 +1586,13 @@
     <t xml:space="preserve">J01DD07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfzx", "ctz", "cz", "czx", "tiz", "zox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefizox", "ceftisomin", "ceftix", "ceftizoxima", "ceftizoxime", "ceftizoximum", "epocelin", "eposerin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25243-7", "3450-4")</t>
+    <t xml:space="preserve">cfzx,ctz,cz,czx,tiz,zox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefizox,ceftisomin,ceftix,ceftizoxima,ceftizoxime,ceftizoximum,epocelin,eposerin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25243-7,3450-4</t>
   </si>
   <si>
     <t xml:space="preserve">CZP</t>
@@ -1650,13 +1646,13 @@
     <t xml:space="preserve">J01DD04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("axo", "cax", "cftr", "cro", "ctr", "frx", "tx")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("biotrakson", "cefatriaxone", "cefatriaxone hydrate", "ceftriaxon", "ceftriaxona", "ceftriaxone", "ceftriaxone sodium", "ceftriaxonum", "ceftriazone", "cephtriaxone", "longacef", "rocefin", "rocephalin", "rocephin", "rocephine", "rophex")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25244-5", "3451-2", "80957-4")</t>
+    <t xml:space="preserve">axo,cax,cftr,cro,ctr,frx,tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biotrakson,cefatriaxone,cefatriaxone hydrate,ceftriaxon,ceftriaxona,ceftriaxone,ceftriaxone sodium,ceftriaxonum,ceftriazone,cephtriaxone,longacef,rocefin,rocephalin,rocephin,rocephine,rophex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25244-5,3451-2,80957-4</t>
   </si>
   <si>
     <t xml:space="preserve">CXM</t>
@@ -1665,16 +1661,16 @@
     <t xml:space="preserve">Cefuroxime</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01DC02", "S01AA27")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cfrx", "cfur", "cfx", "crm", "cxm", "fur", "rox", "xm")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("biofuroksym", "cefuril", "cefuroxim", "cefuroxime", "cefuroximine", "cefuroximo", "cefuroximum", "cephuroxime", "kefurox", "sharox", "zinacef", "zinacef danmark")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25245-2", "3452-0", "80608-3", "80617-4")</t>
+    <t xml:space="preserve">J01DC02,S01AA27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cfrx,cfur,cfx,crm,cxm,fur,rox,xm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biofuroksym,cefuril,cefuroxim,cefuroxime,cefuroximine,cefuroximo,cefuroximum,cephuroxime,kefurox,sharox,zinacef,zinacef danmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25245-2,3452-0,80608-3,80617-4</t>
   </si>
   <si>
     <t xml:space="preserve">CXA</t>
@@ -1683,10 +1679,10 @@
     <t xml:space="preserve">Cefuroxime axetil</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cfax")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("altacef", "bioracef", "cefaks", "cefazine", "ceftin", "cefuroximaxetil", "cefuroxime axetil", "celocid", "cepazine", "cethixim", "cetoxil", "coliofossim", "elobact", "forcef", "furoxime", "kalcef", "maxitil", "medoxm", "nivador", "zinnat")</t>
+    <t xml:space="preserve">,cfax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altacef,bioracef,cefaks,cefazine,ceftin,cefuroximaxetil,cefuroxime axetil,celocid,cepazine,cethixim,cetoxil,coliofossim,elobact,forcef,furoxime,kalcef,maxitil,medoxm,nivador,zinnat</t>
   </si>
   <si>
     <t xml:space="preserve">CFM2</t>
@@ -1704,7 +1700,7 @@
     <t xml:space="preserve">Cefuzonam</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cefuzonam", "cefuzonam sodium", "cefuzoname", "cefuzonamum")</t>
+    <t xml:space="preserve">cefuzonam,cefuzonam sodium,cefuzoname,cefuzonamum</t>
   </si>
   <si>
     <t xml:space="preserve">LEX</t>
@@ -1716,15 +1712,13 @@
     <t xml:space="preserve">J01DB01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "cflx")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alcephin", "alexin", "alsporin", "anhydrous cefalexin", "anhydrous cephalexin", "biocef", "carnosporin", "cefablan", "cefadal", "cefadin", "cefadina", "cefaleksin", "cefalessina", "cefalexin", "cefalexin anhydrous", "cefalexina", "cefalexine", "cefalexinum", "cefalin", "cefaloto", "cefaseptin", "ceflax", "ceforal", "cefovit", "celexin", "cepastar", "cepexin", "cephacillin", "cephalexin", "cephalexin anhydrous", "cephalexine", "cephalexinum", "cephanasten", "cephaxin", "cephin", "ceporex", "ceporex forte", 
-"ceporexin", "ceporexine", "cerexin", "cerexins", "cophalexin", "durantel", "durantel ds", "erocetin", "factagard", "felexin", "ibilex", "ibrexin", "inphalex", "kefalospes", "keflet", "keflex", "kefolan", "keforal", "keftab", "kekrinal", "kidolex", "lafarine", "larixin", "lenocef", "lexibiotico", "lonflex", "lopilexin", "madlexin", "mamalexin", "mamlexin", "medoxine", "neokef", "neolexina", "novolexin", "optocef", "oracef", "oriphex", "oroxin", "ortisporina", "ospexin", "palitrex", "panixine disperdose", 
-"pectril", "pyassan", "roceph", "roceph distab", "sanaxin", "sartosona", "sencephalin", "sepexin", "servispor", "sialexin", "sinthecillin", "sporicef", "sporidex", "syncle", "synecl", "tepaxin", "tokiolexin", "uphalexin", "voxxim", "winlex", "zozarine")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("21175-5", "3453-8")</t>
+    <t xml:space="preserve">,cflx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcephin,alexin,alsporin,anhydrous cefalexin,anhydrous cephalexin,biocef,carnosporin,cefablan,cefadal,cefadin,cefadina,cefaleksin,cefalessina,cefalexin,cefalexin anhydrous,cefalexina,cefalexine,cefalexinum,cefalin,cefaloto,cefaseptin,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexin,cephalexin anhydrous,cephalexine,cephalexinum,cephanasten,cephaxin,cephin,ceporex,ceporex forte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,durantel,durantel ds,erocetin,factagard,felexin,ibilex,ibrexin,inphalex,kefalospes,keflet,keflex,kefolan,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,lonflex,lopilexin,madlexin,mamalexin,mamlexin,medoxine,neokef,neolexina,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixine disperdose,pectril,pyassan,roceph,roceph distab,sanaxin,sartosona,sencephalin,sepexin,servispor,sialexin,sinthecillin,sporicef,sporidex,syncle,synecl,tepaxin,tokiolexin,uphalexin,voxxim,winlex,zozarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21175-5,3453-8</t>
   </si>
   <si>
     <t xml:space="preserve">CEP</t>
@@ -1736,13 +1730,13 @@
     <t xml:space="preserve">J01DB03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfal", "cflt")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cefalothin", "cefalotin", "cefalotina", "cefalotina fabra", "cefalotine", "cefalotinum", "cemastin", "cephalothinum", "cephalotin", "coaxin", "keflin", "seffin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25246-0", "3454-6")</t>
+    <t xml:space="preserve">cfal,cflt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cefalothin,cefalotin,cefalotina,cefalotina fabra,cefalotine,cefalotinum,cemastin,cephalothinum,cephalotin,coaxin,keflin,seffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25246-0,3454-6</t>
   </si>
   <si>
     <t xml:space="preserve">HAP</t>
@@ -1754,7 +1748,7 @@
     <t xml:space="preserve">J01DB08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ambrocef", "cefadyl", "cefapilin", "cefapirin", "cefapirina", "cefapirine", "cefapirinum", "cefaprin", "cefaprin sodium", "cefatrex", "cefatrexyl", "cephapirine", "metricure")</t>
+    <t xml:space="preserve">ambrocef,cefadyl,cefapilin,cefapirin,cefapirina,cefapirine,cefapirinum,cefaprin,cefaprin sodium,cefatrex,cefatrexyl,cephapirine,metricure</t>
   </si>
   <si>
     <t xml:space="preserve">10980-1</t>
@@ -1769,10 +1763,10 @@
     <t xml:space="preserve">J01DB09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cfra", "cfrd")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("anspor", "cefradin", "cefradina", "cefradine", "cefradinum", "cekodin", "cephradin", "cephradine", "eskacef", "infexin", "megace f", "megacef", "sefril", "velocef", "velosef")</t>
+    <t xml:space="preserve">cfra,cfrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anspor,cefradin,cefradina,cefradine,cefradinum,cekodin,cephradin,cephradine,eskacef,infexin,megace f,megacef,sefril,velocef,velosef</t>
   </si>
   <si>
     <t xml:space="preserve">CTO</t>
@@ -1784,7 +1778,7 @@
     <t xml:space="preserve">Tetracyclines</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cetocycline", "cetocyline", "cetotetrine")</t>
+    <t xml:space="preserve">cetocycline,cetocyline,cetotetrine</t>
   </si>
   <si>
     <t xml:space="preserve">CHL</t>
@@ -1796,20 +1790,16 @@
     <t xml:space="preserve">Amphenicols</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AX02", "D10AF03", "G01AA05", "J01BA01", "S01AA01", "S02AA01", "S03AA08")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("c", "chl", "chlo", "cl")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alficetyn", "ambofen", "amphenicol", "amphicol", "amseclor", "anacetin", "aquamycetin", "austracil", "austracol", "biocetin", "biophenicol", "catilan", "ch loramex", "chemiceticol", "chemicetin", "chemicetina", "chlomin", "chlomycol", "chloramex", "chloramfenikol", "chloramficin", "chloramfilin", "chloramphenicol", "chloramphenicole", "chloramphenicolum", "chloramsaar", "chlorasol", "chlorbiotic", "chloricol", "chlormycetin r", "chlornitromycin", "chloroamphenicol", "chlorocaps", "chlorocid", 
-"chlorocid s", "chlorocide", "chlorocidin c", "chlorocidin c tetran", "chlorocin", "chlorocol", "chlorofair", "chloroject l", "chloromax", "chloromycetin", "chloromycetny", "chloromyxin", "chloronitrin", "chloroptic", "chloroptic s.o.p", "chloroptic s.o.p.", "chlorovules", "chlorsig", "cidocetine", "ciplamycetin", "cloramfen", "cloramfenicol", "cloramfenicolo", "cloramficin", "cloramical", "cloramicol", "cloramidina", "cloranfenicol", "cloroamfenicolo", "clorocyn", "cloromisan", "cloromissan", "clorosintex", 
-"comycetin", "cylphenicol", "desphen", "detreomycin", "detreomycine", "dextromycetin", "doctamicina", "duphenicol", "econochlor", "embacetin", "emetren", "enicol", "enteromycetin", "erbaplast", "ertilen", "f armicetina", "farmicetina", "fenicol", "globenicol", "glorous", "halomycetin", "hortfenicol", "interomycetine", "intramycetin", "intramyctin", "isicetin", "ismicetina", "isophenicol", "isopto fenicol", "juvamycetin", "kamaver", "kemicetina", "kemicetine", "kloramfenikol", "klorita", "klorocid s", 
-"laevomycetinum", "leukamycin", "leukomyan", "leukomycin", "levocin", "levomicetina", "levomitsetin", "levomycetin", "levoplast", "levosin", "levovetin", "loromicetina", "loromisan", "loromisin", "mastiphen", "mediamycetine", "medichol", "micloretin", "micochlorine", "micoclorina", "microcetina", "mychel", "mycinol", "myclocin", "mycochlorin", "myscel", "normimycin v", "novochlorocap", "novomycetin", "novophenicol", "ocuphenicol", "oftalent", "oleomycetin", "opclor", "opelor", "ophthochlor", "ophthocort", 
-"ophtochlor", "optomycin", "otachron", "otophen", "pantovernil", "paraxin", "pentamycetin", "quemicetina", "rivomycin", "romphenil", "ronfenil", "ronphenil", "septicol", "sificetina", "sintomicetina", "sintomicetine r", "sno phenicol", "soluthor", "stanomycetin", "synthomycetin", "synthomycetine", "synthomycine", "syntomycin", "tevcocin", "tevcosin", "tifomycin", "tifomycine", "tiromycetin", "treomicetina", "unimycetin", "veticol", "vice ton", "viceton")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("15101-9", "16603-3", "16604-1", "25247-8", "29214-4", "29346-4", "29347-2", "3455-3")</t>
+    <t xml:space="preserve">D06AX02,D10AF03,G01AA05,J01BA01,S01AA01,S02AA01,S03AA08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c,chl,chlo,cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,ch loramex,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicol,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetin r,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocid s,chlorocide,chlorocidin c,chlorocidin c tetran,chlorocin,chlorocol,chlorofair,chloroject l,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloroptic s.o.p,chloroptic s.o.p.,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,f armicetina,farmicetina,fenicol,globenicol,glorous,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isopto fenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocid s,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycin v,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetina,sintomicetine r,sno phenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,unimycetin,veticol,vice ton,viceton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15101-9,16603-3,16604-1,25247-8,29214-4,29346-4,29347-2,3455-3</t>
   </si>
   <si>
     <t xml:space="preserve">CTE</t>
@@ -1818,10 +1808,10 @@
     <t xml:space="preserve">Chlortetracycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB21", "D06AA02", "J01AA03", "S01AA02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acronize", "aueromycin", "aureocina", "aureomycin", "aureomykoin", "biomitsin", "biomycin", "biomycin a", "chlormax", "chlorotetracycline", "chlortetracycline", "chlortetracyclinum", "chrysomykine", "clortetraciclina", "duomycin", "flamycin", "uromycin")</t>
+    <t xml:space="preserve">A01AB21,D06AA02,J01AA03,S01AA02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acronize,aueromycin,aureocina,aureomycin,aureomykoin,biomitsin,biomycin,biomycin a,chlormax,chlorotetracycline,chlortetracycline,chlortetracyclinum,chrysomykine,clortetraciclina,duomycin,flamycin,uromycin</t>
   </si>
   <si>
     <t xml:space="preserve">87600-3</t>
@@ -1833,7 +1823,7 @@
     <t xml:space="preserve">Ciclacillin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bastcillin", "calthor", "ciclacilina", "ciclacillin", "ciclacilline", "ciclacillinum", "ciclacillum", "citosarin", "cyclacillin", "cyclapen", "noblicil", "orfilina", "peamezin", "syngacillin", "ultracillin", "vastcillin", "vipicil", "wyvital")</t>
+    <t xml:space="preserve">bastcillin,calthor,ciclacilina,ciclacillin,ciclacilline,ciclacillinum,ciclacillum,citosarin,cyclacillin,cyclapen,noblicil,orfilina,peamezin,syngacillin,ultracillin,vastcillin,vipicil,wyvital</t>
   </si>
   <si>
     <t xml:space="preserve">CIX</t>
@@ -1842,7 +1832,7 @@
     <t xml:space="preserve">Ciclopirox</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AE14", "G01AX12")</t>
+    <t xml:space="preserve">D01AE14,G01AX12</t>
   </si>
   <si>
     <t xml:space="preserve">cipx</t>
@@ -1863,10 +1853,10 @@
     <t xml:space="preserve">Other quinolones</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cino", "cnox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("azolinic acid", "cinobac", "cinobactin", "cinoxacin", "cinoxacine", "cinoxacino", "cinoxacinum", "clinoxacin", "noxigram", "uronorm")</t>
+    <t xml:space="preserve">cino,cnox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azolinic acid,cinobac,cinobactin,cinoxacin,cinoxacine,cinoxacino,cinoxacinum,clinoxacin,noxigram,uronorm</t>
   </si>
   <si>
     <t xml:space="preserve">CIP</t>
@@ -1875,20 +1865,19 @@
     <t xml:space="preserve">Ciprofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA02", "S01AE03", "S02AA15", "S03AA07")</t>
+    <t xml:space="preserve">J01MA02,S01AE03,S02AA15,S03AA07</t>
   </si>
   <si>
     <t xml:space="preserve">Fluoroquinolones</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ci", "cip", "cipr", "cp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alcon cilox", "auripro", "bacquinor", "baflox", "baycip", "bernoflox", "cetraxal", "ciflox", "cifloxin", "ciloxan", "ciplus", "ciprecu", "ciprine", "ciprinol", "cipro i.v.", "cipro iv", "cipro xl", "cipro xr", "ciprobay", "ciprobay uro", "ciprocinol", "ciprodar", "ciproflox", "ciprofloxacin", "ciprofloxacina", "ciprofloxacine", "ciprofloxacino", "ciprofloxacinum", "ciprogis", "ciprolin", "ciprolon", "cipromycin", "ciproquinol", "ciprowin", "ciproxan", "ciproxin", "ciproxina", "ciproxine", "ciriax", 
-"citopcin", "corsacin", "cyprobay", "fimoflox", "flociprin", "ipiflox", "italnik", "linhaliq", "otiprio", "probiox", "proflaxin", "quinolid", "quintor", "rancif", "roxytal", "septicide", "sophixin ofteno", "spitacin", "superocin", "velmonit", "velomonit", "zumaflox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("14031-9", "14032-7", "14058-2", "14059-0", "25248-6", "34636-1", "3484-3")</t>
+    <t xml:space="preserve">ci,cip,cipr,cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcon cilox,auripro,bacquinor,baflox,baycip,bernoflox,cetraxal,ciflox,cifloxin,ciloxan,ciplus,ciprecu,ciprine,ciprinol,cipro i.v.,cipro iv,cipro xl,cipro xr,ciprobay,ciprobay uro,ciprocinol,ciprodar,ciproflox,ciprofloxacin,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprogis,ciprolin,ciprolon,cipromycin,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citopcin,corsacin,cyprobay,fimoflox,flociprin,ipiflox,italnik,linhaliq,otiprio,probiox,proflaxin,quinolid,quintor,rancif,roxytal,septicide,sophixin ofteno,spitacin,superocin,velmonit,velomonit,zumaflox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14031-9,14032-7,14058-2,14059-0,25248-6,34636-1,3484-3</t>
   </si>
   <si>
     <t xml:space="preserve">CLR</t>
@@ -1900,14 +1889,13 @@
     <t xml:space="preserve">J01FA09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ch", "cla", "clar", "clm", "clr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abbotic", "astromen", "biaxin", "biaxin filmtab", "biaxin hp", "biaxin xl", "biaxin xl filmtab", "bicrolid", "clacee", "clacid", "clacine", "clambiotic", "clarem", "claribid", "claricide", "claridar", "claripen", "clarith", "clarithromycin", "clarithromycine", "clarithromycinum", "claritromicina", "clathromycin", "crixan", "cyllid", "cyllind", "fromilid", "heliclar", "klabax", "klacid", "klaciped", "klaricid", "klaricid h.p", "klaricid h.p.", "klaricid pediatric", "klaricid xl", "klarid", "klarin", 
-"kofron", "mabicrol", "macladin", "maclar", "veclam", "vikrol", "zeclar")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16619-9", "25253-6", "34638-7", "80559-8")</t>
+    <t xml:space="preserve">ch,cla,clar,clm,clr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abbotic,astromen,biaxin,biaxin filmtab,biaxin hp,biaxin xl,biaxin xl filmtab,bicrolid,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycin,clarithromycine,clarithromycinum,claritromicina,clathromycin,crixan,cyllid,cyllind,fromilid,heliclar,klabax,klacid,klaciped,klaricid,klaricid h.p,klaricid h.p.,klaricid pediatric,klaricid xl,klarid,klarin,kofron,mabicrol,macladin,maclar,veclam,vikrol,zeclar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16619-9,25253-6,34638-7,80559-8</t>
   </si>
   <si>
     <t xml:space="preserve">CLA1</t>
@@ -1916,7 +1904,7 @@
     <t xml:space="preserve">Clavulanic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acide clavulanique", "acido clavulanico", "acidum clavulanicum", "clavulanate", "clavulanate acid", "clavulanate lithium", "clavulanic acid", "clavulansaeure", "clavulansaure", "clavulinic acid", "clavulox", "sodium clavulanate")</t>
+    <t xml:space="preserve">acide clavulanique,acido clavulanico,acidum clavulanicum,clavulanate,clavulanate acid,clavulanate lithium,clavulanic acid,clavulansaeure,clavulansaure,clavulinic acid,clavulox,sodium clavulanate</t>
   </si>
   <si>
     <t xml:space="preserve">CLX</t>
@@ -1934,19 +1922,19 @@
     <t xml:space="preserve">Clindamycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D10AF01", "G01AA10", "J01FF01")</t>
+    <t xml:space="preserve">D10AF01,G01AA10,J01FF01</t>
   </si>
   <si>
     <t xml:space="preserve">Lincosamides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cc", "cd", "cli", "clin", "cm", "da")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("antirobe", "chlolincocin", "clindaderm", "clindamicina", "clindamycin", "clindamycine", "clindamycinum", "clinimycin", "dalacin c", "dalacine", "klimicin", "sobelin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16621-5", "16622-3", "25249-4", "3486-8")</t>
+    <t xml:space="preserve">cc,cd,cli,clin,cm,da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antirobe,chlolincocin,clindaderm,clindamicina,clindamycin,clindamycine,clindamycinum,clinimycin,dalacin c,dalacine,klimicin,sobelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16621-5,16622-3,25249-4,3486-8</t>
   </si>
   <si>
     <t xml:space="preserve">CLF</t>
@@ -1961,7 +1949,7 @@
     <t xml:space="preserve">clof</t>
   </si>
   <si>
-    <t xml:space="preserve">c("chlofazimine", "clofazimin", "clofazimina", "clofazimine", "clofaziminum", "lampren", "lamprene", "riminophenazine")</t>
+    <t xml:space="preserve">chlofazimine,clofazimin,clofazimina,clofazimine,clofaziminum,lampren,lamprene,riminophenazine</t>
   </si>
   <si>
     <t xml:space="preserve">CLF1</t>
@@ -1973,7 +1961,7 @@
     <t xml:space="preserve">J01XX03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("clofoctol", "clofoctolo", "clofoctolum", "gramplus", "octofene")</t>
+    <t xml:space="preserve">clofoctol,clofoctolo,clofoctolum,gramplus,octofene</t>
   </si>
   <si>
     <t xml:space="preserve">CLM</t>
@@ -1985,7 +1973,7 @@
     <t xml:space="preserve">J01CE07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("chlomethocillin", "clometacillin", "clometocilina", "clometocillin", "clometocilline", "clometocillinum", "rixapen")</t>
+    <t xml:space="preserve">chlomethocillin,clometacillin,clometocilina,clometocillin,clometocilline,clometocillinum,rixapen</t>
   </si>
   <si>
     <t xml:space="preserve">CLM1</t>
@@ -1997,7 +1985,7 @@
     <t xml:space="preserve">J01AA11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("chlormethylencycline", "clomociclina", "clomocyclin", "clomocycline", "clomocyclinum", "megaclor")</t>
+    <t xml:space="preserve">chlormethylencycline,clomociclina,clomocyclin,clomocycline,clomocyclinum,megaclor</t>
   </si>
   <si>
     <t xml:space="preserve">CTR</t>
@@ -2006,14 +1994,13 @@
     <t xml:space="preserve">Clotrimazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB18", "D01AC01", "G01AF02")</t>
+    <t xml:space="preserve">A01AB18,D01AC01,G01AF02</t>
   </si>
   <si>
     <t xml:space="preserve">clot</t>
   </si>
   <si>
-    <t xml:space="preserve">c("canesten", "canesten cream", "canesten solution", "canestene", "canestine", "canifug", "chlotrimazole", "cimitidine", "clomatin", "clotrimaderm", "clotrimaderm cream", "clotrimazol", "clotrimazole", "clotrimazolum", "cutistad", "desamix f", "diphenylmethane", "empecid", "esparol", "fem care", "femcare", "gyne lotrimin", "jidesheng", "kanesten", "klotrimazole", "lotrimax", "lotrimin", "lotrimin af", "lotrimin af cream", "lotrimin af lotion", "lotrimin af solution", "lotrimin cream", "lotrimin lotion", 
-"lotrimin solution", "monobaycuten", "mycelax", "mycelex", "mycelex cream", "mycelex g", "mycelex otc", "mycelex solution", "mycelex troches", "mycelex twin pack", "myclo cream", "myclo solution", "myclo spray solution", "mycofug", "mycosporin", "mykosporin", "nalbix", "otomax", "pedisafe", "rimazole", "stiemazol", "tibatin", "trimysten", "veltrim")</t>
+    <t xml:space="preserve">canesten,canesten cream,canesten solution,canestene,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimaderm cream,clotrimazol,clotrimazole,clotrimazolum,cutistad,desamix f,diphenylmethane,empecid,esparol,fem care,femcare,gyne lotrimin,jidesheng,kanesten,klotrimazole,lotrimax,lotrimin,lotrimin af,lotrimin af cream,lotrimin af lotion,lotrimin af solution,lotrimin cream,lotrimin lotion,lotrimin solution,monobaycuten,mycelax,mycelex,mycelex cream,mycelex g,mycelex otc,mycelex solution,mycelex troches,mycelex twin pack,myclo cream,myclo solution,myclo spray solution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,veltrim</t>
   </si>
   <si>
     <t xml:space="preserve">CLO</t>
@@ -2028,13 +2015,13 @@
     <t xml:space="preserve">Beta-lactamase resistant penicillins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "clox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("chloroxacillin", "clossacillina", "cloxacilina", "cloxacillin", "cloxacillin sodium", "cloxacilline", "cloxacillinna", "cloxacillinum", "cloxapen", "methocillin s", "orbenin", "syntarpen", "tegopen")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16628-0", "25250-2")</t>
+    <t xml:space="preserve">,clox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chloroxacillin,clossacillina,cloxacilina,cloxacillin,cloxacillin sodium,cloxacilline,cloxacillinna,cloxacillinum,cloxapen,methocillin s,orbenin,syntarpen,tegopen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16628-0,25250-2</t>
   </si>
   <si>
     <t xml:space="preserve">COL</t>
@@ -2046,19 +2033,19 @@
     <t xml:space="preserve">Polymyxins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA10", "J01XB01")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cl", "coli", "cs", "cst", "ct")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("belcomycine", "colimycin", "colimycin sulphate", "colisticin", "colistimethate", "colistimethate sodium", "colistin sulfate", "colistin sulphate", "colomycin", "coly-mycin", "polymyxin e", "polymyxin e. sulfate", "promixin", "totazina")</t>
+    <t xml:space="preserve">A07AA10,J01XB01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl,coli,cs,cst,ct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belcomycine,colimycin,colimycin sulphate,colisticin,colistimethate,colistimethate sodium,colistin sulfate,colistin sulphate,colomycin,coly-mycin,polymyxin e,polymyxin e. sulfate,promixin,totazina</t>
   </si>
   <si>
     <t xml:space="preserve">MU</t>
   </si>
   <si>
-    <t xml:space="preserve">c("16645-4", "29493-4")</t>
+    <t xml:space="preserve">16645-4,29493-4</t>
   </si>
   <si>
     <t xml:space="preserve">COP</t>
@@ -2079,10 +2066,10 @@
     <t xml:space="preserve">cycl</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cicloserina", "closerin", "closina", "cyclorin", "cycloserin", "cycloserine", "cycloserinum", "farmiserina", "micoserina", "miroserina", "miroseryn", "novoserin", "oxamicina", "oxamycin", "seromycin", "tebemicina", "tisomycin", "wasserina")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16702-3", "25251-0", "3519-6")</t>
+    <t xml:space="preserve">cicloserina,closerin,closina,cyclorin,cycloserin,cycloserine,cycloserinum,farmiserina,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,tisomycin,wasserina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16702-3,25251-0,3519-6</t>
   </si>
   <si>
     <t xml:space="preserve">DAL</t>
@@ -2100,7 +2087,7 @@
     <t xml:space="preserve">dalb</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dalbavancin", "dalvance")</t>
+    <t xml:space="preserve">dalbavancin,dalvance</t>
   </si>
   <si>
     <t xml:space="preserve">DAN</t>
@@ -2109,7 +2096,7 @@
     <t xml:space="preserve">Danofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("advocin", "danofloxacin", "danofloxacine", "danofloxacino", "danofloxacinum")</t>
+    <t xml:space="preserve">advocin,danofloxacin,danofloxacine,danofloxacino,danofloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">DPS</t>
@@ -2118,11 +2105,10 @@
     <t xml:space="preserve">Dapsone</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D10AX05", "J04BA02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("aczone", "araldite ht", "atrisone", "avlosulfon", "avlosulfone", "avlosulphone", "avsulfor", "bis sulfone", "bissulfone", "bissulphone", "croysulfone", "croysulphone", "dapson", "dapsona", "dapsone", "dapsonum", "di sulfone", "diaphenyl sulfone", "diaphenylsulfon", "diaphenylsulfone", "diaphenylsulphon", "diaphenylsulphone", "dimitone", "diphenasone", "diphone", "disulfone", "disulone", "disulphone", "dubronax", "dubronaz", "dumitone", "eporal", "metabolite c", "novophone", "protogen", "servidapson", 
-"slphadione", "sulfadione", "sulfona", "sulfone ucb", "sulfonyldianiline", "sulphadione", "sulphonyldianiline", "sumicure s", "tarimyl", "udolac", "wln: zr dswr dz")</t>
+    <t xml:space="preserve">D10AX05,J04BA02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aczone,araldite ht,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bis sulfone,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsone,dapsonum,di sulfone,diaphenyl sulfone,diaphenylsulfon,diaphenylsulfone,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulfone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,metabolite c,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfone ucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicure s,tarimyl,udolac,wln: zr dswr dz</t>
   </si>
   <si>
     <t xml:space="preserve">9747-7</t>
@@ -2137,10 +2123,10 @@
     <t xml:space="preserve">J01XX09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dap", "dapt")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cidecin", "cubicin", "dapcin", "daptomicina", "daptomycine", "daptomycinum")</t>
+    <t xml:space="preserve">dap,dapt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cidecin,cubicin,dapcin,daptomicina,daptomycine,daptomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">DFX</t>
@@ -2152,7 +2138,7 @@
     <t xml:space="preserve">J01MA23</t>
   </si>
   <si>
-    <t xml:space="preserve">c("baxdela", "delafloxacin", "delafloxacinum")</t>
+    <t xml:space="preserve">baxdela,delafloxacin,delafloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">DLM</t>
@@ -2170,7 +2156,7 @@
     <t xml:space="preserve">dela</t>
   </si>
   <si>
-    <t xml:space="preserve">c("delamanid", "deltyba")</t>
+    <t xml:space="preserve">delamanid,deltyba</t>
   </si>
   <si>
     <t xml:space="preserve">DEM</t>
@@ -2179,13 +2165,13 @@
     <t xml:space="preserve">Demeclocycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AA01", "J01AA01")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bioterciclin", "clortetrin", "deganol", "demeclociclina", "demeclocycline", "demeclocyclinum", "demeclor", "demetraclin", "diuciclin", "elkamicina", "ledermycin", "mexocine", "novotriclina", "perciclina", "sumaclina")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10982-7", "29494-2")</t>
+    <t xml:space="preserve">D06AA01,J01AA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bioterciclin,clortetrin,deganol,demeclociclina,demeclocycline,demeclocyclinum,demeclor,demetraclin,diuciclin,elkamicina,ledermycin,mexocine,novotriclina,perciclina,sumaclina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10982-7,29494-2</t>
   </si>
   <si>
     <t xml:space="preserve">DKB</t>
@@ -2197,7 +2183,7 @@
     <t xml:space="preserve">J01GB09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("debecacin", "dibekacin", "dibekacin sulfate", "dibekacina", "dibekacine", "dibekacinum", "dideoxykanamycin b", "kappati", "orbicin", "panamicin")</t>
+    <t xml:space="preserve">debecacin,dibekacin,dibekacin sulfate,dibekacina,dibekacine,dibekacinum,dideoxykanamycin b,kappati,orbicin,panamicin</t>
   </si>
   <si>
     <t xml:space="preserve">DIC</t>
@@ -2209,13 +2195,13 @@
     <t xml:space="preserve">J01CF01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "dicl")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("dichloroxacillin", "diclossacillina", "dicloxaciclin", "dicloxacilin", "dicloxacilina", "dicloxacillin", "dicloxacillin sodium", "dicloxacillina", "dicloxacilline", "dicloxacillinum", "dicloxacycline", "dycill", "dynapen", "maclicine", "nm|| dicloxacillin", "pathocil")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10984-3", "16769-2", "25252-8")</t>
+    <t xml:space="preserve">,dicl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dichloroxacillin,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillin,dicloxacillin sodium,dicloxacillina,dicloxacilline,dicloxacillinum,dicloxacycline,dycill,dynapen,maclicine,nm|| dicloxacillin,pathocil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10984-3,16769-2,25252-8</t>
   </si>
   <si>
     <t xml:space="preserve">DIF</t>
@@ -2236,7 +2222,7 @@
     <t xml:space="preserve">J01FA13</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dirithromycin", "dirithromycine", "dirithromycinum", "diritromicina", "divitross", "dynabac", "noriclan", "valodin")</t>
+    <t xml:space="preserve">dirithromycin,dirithromycine,dirithromycinum,diritromicina,divitross,dynabac,noriclan,valodin</t>
   </si>
   <si>
     <t xml:space="preserve">DOR</t>
@@ -2251,7 +2237,7 @@
     <t xml:space="preserve">dori</t>
   </si>
   <si>
-    <t xml:space="preserve">c("doribax", "doripenem", "doripenem hydrate", "finibax")</t>
+    <t xml:space="preserve">doribax,doripenem,doripenem hydrate,finibax</t>
   </si>
   <si>
     <t xml:space="preserve">DOX</t>
@@ -2260,16 +2246,16 @@
     <t xml:space="preserve">Doxycycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB22", "J01AA02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("dox", "doxy")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("atridox", "azudoxat", "deoxymykoin", "dossiciclina", "doxcycline anhydrous", "doxiciclina", "doxitard", "doxivetin", "doxycen", "doxychel", "doxycin", "doxycyclin", "doxycycline", "doxycycline calcium", "doxycycline hyclate", "doxycyclinum", "doxylin", "doxysol", "doxytec", "doxytetracycline", "hydramycin", "investin", "jenacyclin", "liviatin", "monodox", "oracea", "periostat", "ronaxan", "spanor", "supracyclin", "vibramycin", "vibramycin novum", "vibramycine", "vibravenos", "zenavod")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10986-8", "21250-6", "26902-7")</t>
+    <t xml:space="preserve">A01AB22,J01AA02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dox,doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atridox,azudoxat,deoxymykoin,dossiciclina,doxcycline anhydrous,doxiciclina,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycycline,doxycycline calcium,doxycycline hyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,hydramycin,investin,jenacyclin,liviatin,monodox,oracea,periostat,ronaxan,spanor,supracyclin,vibramycin,vibramycin novum,vibramycine,vibravenos,zenavod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10986-8,21250-6,26902-7</t>
   </si>
   <si>
     <t xml:space="preserve">ECO</t>
@@ -2278,7 +2264,7 @@
     <t xml:space="preserve">Econazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AC03", "G01AF05")</t>
+    <t xml:space="preserve">D01AC03,G01AF05</t>
   </si>
   <si>
     <t xml:space="preserve">Imidazole and triazole derivatives</t>
@@ -2287,7 +2273,7 @@
     <t xml:space="preserve">econ</t>
   </si>
   <si>
-    <t xml:space="preserve">c("econazol", "econazole", "econazolum", "ecostatin", "ecostatin cream", "palavale", "pevaryl", "spectazole", "spectazole cream")</t>
+    <t xml:space="preserve">econazol,econazole,econazolum,ecostatin,ecostatin cream,palavale,pevaryl,spectazole,spectazole cream</t>
   </si>
   <si>
     <t xml:space="preserve">ENX</t>
@@ -2299,13 +2285,13 @@
     <t xml:space="preserve">J01MA04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "enox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("almitil", "bactidan", "bactidron", "comprecin", "enofloxacine", "enoksetin", "enoram", "enoxacin", "enoxacina", "enoxacine", "enoxacino", "enoxacinum", "enoxen", "enoxin", "enoxor", "flumark", "penetrex")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("16816-1", "3590-7")</t>
+    <t xml:space="preserve">,enox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almitil,bactidan,bactidron,comprecin,enofloxacine,enoksetin,enoram,enoxacin,enoxacina,enoxacine,enoxacino,enoxacinum,enoxen,enoxin,enoxor,flumark,penetrex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16816-1,3590-7</t>
   </si>
   <si>
     <t xml:space="preserve">ENR</t>
@@ -2314,7 +2300,7 @@
     <t xml:space="preserve">Enrofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("baytril", "enrofloxacin", "enrofloxacine", "enrofloxacino", "enrofloxacinum")</t>
+    <t xml:space="preserve">baytril,enrofloxacin,enrofloxacine,enrofloxacino,enrofloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">ENV</t>
@@ -2323,10 +2309,10 @@
     <t xml:space="preserve">Enviomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "tuberactinomycin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("enviomicina", "enviomycin", "enviomycina", "enviomycinum")</t>
+    <t xml:space="preserve">,tuberactinomycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enviomicina,enviomycin,enviomycina,enviomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">EPE</t>
@@ -2344,7 +2330,7 @@
     <t xml:space="preserve">J01CA07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dexacillin", "dihydroampicillin", "epicilina", "epicillin", "epicilline", "epicillinum")</t>
+    <t xml:space="preserve">dexacillin,dihydroampicillin,epicilina,epicillin,epicilline,epicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">EPP</t>
@@ -2353,7 +2339,7 @@
     <t xml:space="preserve">Epiroprim</t>
   </si>
   <si>
-    <t xml:space="preserve">c("epiroprim", "epiroprima", "epiroprime", "epiroprimum")</t>
+    <t xml:space="preserve">epiroprim,epiroprima,epiroprime,epiroprimum</t>
   </si>
   <si>
     <t xml:space="preserve">ERV</t>
@@ -2380,10 +2366,10 @@
     <t xml:space="preserve">J01DH03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("erta", "etp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("ertapenem", "invanz")</t>
+    <t xml:space="preserve">erta,etp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ertapenem,invanz</t>
   </si>
   <si>
     <t xml:space="preserve">ERY</t>
@@ -2392,18 +2378,16 @@
     <t xml:space="preserve">Erythromycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D10AF02", "J01FA01", "S01AA17")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("e", "em", "ery", "eryt")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abboticin", "abomacetin", "acneryne", "acnesol", "akne cordes losung", "aknederm ery gel", "aknemycin", "austrias", "benzamycin", "derimer", "deripil", "dotycin", "dumotrycin", "emuvin", "emycin", "endoeritrin", "erecin", "erisone", "eritomicina", "eritrocina", "eritromicina", "ermycin", "eryacne", "eryacnen", "eryc sprinkles", "erycen", "erycette", "erycin", "erycinum", "eryderm", "erydermer", "erygel", "eryhexal", "erymax", "erymed", "erysafe", "erytab", "erythrocin", "erythrocin stearate", 
-"erythroderm", "erythrogran", "erythroguent", "erythromid", "erythromycin", "erythromycin a", "erythromycin base", "erythromycin lactate", "erythromycine", "erythromycines", "erythromycinum", "erytop", "erytrociclin", "ilocaps", "ilosone", "iloticina", "ilotycin", "ilotycin gluceptate", "ilotycin t.s.", "inderm", "inderm gel", "indermretcin", "latotryd", "lederpax", "mephamycin", "mercina", "oftamolets", "paediathrocin", "pantoderm", "pantodrin", "pantomicina", "pce dispertab", "pharyngocin", "primacine", 
-"propiocine", "proterytrin", "retcin", "robimycin", "romycin", "sansac", "skid gel e", "staticin", "stiemicyn", "stiemycin", "theramycin z", "tiloryth", "tiprocin", "torlamicina", "udima ery gel", "wyamycin s")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("12298-6", "16829-4", "25275-9", "3597-2")</t>
+    <t xml:space="preserve">D10AF02,J01FA01,S01AA17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e,em,ery,eryt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abboticin,abomacetin,acneryne,acnesol,akne cordes losung,aknederm ery gel,aknemycin,austrias,benzamycin,derimer,deripil,dotycin,dumotrycin,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,eryc sprinkles,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erysafe,erytab,erythrocin,erythrocin stearate,erythroderm,erythrogran,erythroguent,erythromid,erythromycin,erythromycin a,erythromycin base,erythromycin lactate,erythromycine,erythromycines,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,ilotycin gluceptate,ilotycin t.s.,inderm,inderm gel,indermretcin,latotryd,lederpax,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pce dispertab,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,romycin,sansac,skid gel e,staticin,stiemicyn,stiemycin,theramycin z,tiloryth,tiprocin,torlamicina,udima ery gel,wyamycin s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12298-6,16829-4,25275-9,3597-2</t>
   </si>
   <si>
     <t xml:space="preserve">ETH</t>
@@ -2418,10 +2402,10 @@
     <t xml:space="preserve">etha</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aethambutolum", "ebutol", "etambutol", "etambutolo", "etapiam", "ethambutol", "ethambutolum", "myambutol", "mycobutol", "purderal", "servambutol")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25404-5", "3607-9")</t>
+    <t xml:space="preserve">aethambutolum,ebutol,etambutol,etambutolo,etapiam,ethambutol,ethambutolum,myambutol,mycobutol,purderal,servambutol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25404-5,3607-9</t>
   </si>
   <si>
     <t xml:space="preserve">ETI</t>
@@ -2451,8 +2435,7 @@
     <t xml:space="preserve">ethi</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aethionamidum", "aetina", "aetiva", "amidazin", "amidazine", "ethatyl", "ethimide", "ethina", "ethinamide", "ethionamide", "ethionamidum", "ethioniamide", "ethylisothiamide", "ethyonomide", "etimid", "etiocidan", "etionamid", "etionamida", "etionamide", "etioniamid", "etionid", "etionizin", "etionizina", "etionizine", "fatoliamid", "iridocin", "iridocin bayer", "iridozin", "isothin", "isotiamida", "itiocide", "nicotion", "nisotin", "nizotin", "rigenicid", "sertinon", "teberus", "thianid", "thianide", 
-"thioamide", "thiodine", "thiomid", "thioniden", "tianid", "tiomid", "trecator", "trecator sc", "trekator", "trescatyl", "trescazide", "tubenamide", "tubermin", "tuberoid", "tuberoson")</t>
+    <t xml:space="preserve">aethionamidum,aetina,aetiva,amidazin,amidazine,ethatyl,ethimide,ethina,ethinamide,ethionamide,ethionamidum,ethioniamide,ethylisothiamide,ethyonomide,etimid,etiocidan,etionamid,etionamida,etionamide,etioniamid,etionid,etionizin,etionizina,etionizine,fatoliamid,iridocin,iridocin bayer,iridozin,isothin,isotiamida,itiocide,nicotion,nisotin,nizotin,rigenicid,sertinon,teberus,thianid,thianide,thioamide,thiodine,thiomid,thioniden,tianid,tiomid,trecator,trecator sc,trekator,trescatyl,trescazide,tubenamide,tubermin,tuberoid,tuberoson</t>
   </si>
   <si>
     <t xml:space="preserve">16845-0</t>
@@ -2464,7 +2447,7 @@
     <t xml:space="preserve">Ethopabate</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amprol plus", "ethopabat", "ethopabate", "ethyl pabate")</t>
+    <t xml:space="preserve">amprol plus,ethopabat,ethopabate,ethyl pabate</t>
   </si>
   <si>
     <t xml:space="preserve">EXE</t>
@@ -2482,7 +2465,7 @@
     <t xml:space="preserve">J01DI03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("faropenem", "faropenem sodium", "fropenem", "fropenum sodium")</t>
+    <t xml:space="preserve">faropenem,faropenem sodium,fropenem,fropenum sodium</t>
   </si>
   <si>
     <t xml:space="preserve">FDX</t>
@@ -2494,7 +2477,7 @@
     <t xml:space="preserve">A07AA12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dificid", "dificlir", "difimicin", "fidaxomicin", "lipiarmycin", "tiacumicin b")</t>
+    <t xml:space="preserve">dificid,dificlir,difimicin,fidaxomicin,lipiarmycin,tiacumicin b</t>
   </si>
   <si>
     <t xml:space="preserve">FIN</t>
@@ -2524,10 +2507,10 @@
     <t xml:space="preserve">J01MA08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "fler")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("fleroxacin", "fleroxacine", "fleroxacino", "fleroxacinum", "fleroxicin", "megalocin", "megalone", "megalosin", "quinodis")</t>
+    <t xml:space="preserve">,fler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fleroxacin,fleroxacine,fleroxacino,fleroxacinum,fleroxicin,megalocin,megalone,megalosin,quinodis</t>
   </si>
   <si>
     <t xml:space="preserve">FLO</t>
@@ -2539,7 +2522,7 @@
     <t xml:space="preserve">J01DC14</t>
   </si>
   <si>
-    <t xml:space="preserve">c("flomoxef", "flomoxefo", "flomoxefum")</t>
+    <t xml:space="preserve">flomoxef,flomoxefo,flomoxefum</t>
   </si>
   <si>
     <t xml:space="preserve">FLR</t>
@@ -2548,7 +2531,7 @@
     <t xml:space="preserve">Florfenicol</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aquafen", "florfenicol", "nuflor", "nuflor gold")</t>
+    <t xml:space="preserve">aquafen,florfenicol,nuflor,nuflor gold</t>
   </si>
   <si>
     <t xml:space="preserve">87599-7</t>
@@ -2563,10 +2546,10 @@
     <t xml:space="preserve">J01CF05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("clox", "flux")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("floxacillin", "floxapen", "floxapen sodium salt", "fluclox", "flucloxacilina", "flucloxacillin", "flucloxacilline", "flucloxacillinum", "fluorochloroxacillin")</t>
+    <t xml:space="preserve">clox,flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floxacillin,floxapen,floxapen sodium salt,fluclox,flucloxacilina,flucloxacillin,flucloxacilline,flucloxacillinum,fluorochloroxacillin</t>
   </si>
   <si>
     <t xml:space="preserve">FLU</t>
@@ -2575,19 +2558,19 @@
     <t xml:space="preserve">Fluconazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AC15", "J02AC01")</t>
+    <t xml:space="preserve">D01AC15,J02AC01</t>
   </si>
   <si>
     <t xml:space="preserve">Triazole derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fluc", "fluz", "flz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alflucoz", "alfumet", "biocanol", "biozole", "biozolene", "canzol", "cryptal", "diflazon", "diflucan", "dimycon", "elazor", "flucazol", "fluconazol", "fluconazole", "fluconazole capsules", "fluconazolum", "flucostat", "flukezol", "flunazol", "flunizol", "flusol", "fluzon", "fluzone", "forcan", "fuconal", "fungata", "loitin", "oxifugol", "pritenzol", "syscan", "trican", "triconal", "triflucan", "zoltec")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10987-6", "16870-8", "25255-1", "80530-9")</t>
+    <t xml:space="preserve">fluc,fluz,flz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alflucoz,alfumet,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazol,fluconazole,fluconazole capsules,fluconazolum,flucostat,flukezol,flunazol,flunizol,flusol,fluzon,fluzone,forcan,fuconal,fungata,loitin,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zoltec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10987-6,16870-8,25255-1,80530-9</t>
   </si>
   <si>
     <t xml:space="preserve">FLM</t>
@@ -2599,7 +2582,7 @@
     <t xml:space="preserve">J01MB07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("apurone", "fantacin", "flumequine", "flumequino", "flumequinum", "flumigal", "flumiquil", "flumisol", "flumix", "imequyl")</t>
+    <t xml:space="preserve">apurone,fantacin,flumequine,flumequino,flumequinum,flumigal,flumiquil,flumisol,flumix,imequyl</t>
   </si>
   <si>
     <t xml:space="preserve">FLR1</t>
@@ -2611,7 +2594,7 @@
     <t xml:space="preserve">J01FA14</t>
   </si>
   <si>
-    <t xml:space="preserve">c("flurithromicina", "flurithromycime", "flurithromycin", "flurithromycine", "flurithromycinum", "fluritromicina", "fluritromycinum", "flurizic")</t>
+    <t xml:space="preserve">flurithromicina,flurithromycime,flurithromycin,flurithromycine,flurithromycinum,fluritromicina,fluritromycinum,flurizic</t>
   </si>
   <si>
     <t xml:space="preserve">FFL</t>
@@ -2620,7 +2603,7 @@
     <t xml:space="preserve">Fosfluconazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fosfluconazole", "phosfluconazole", "procif", "prodif")</t>
+    <t xml:space="preserve">fosfluconazole,phosfluconazole,procif,prodif</t>
   </si>
   <si>
     <t xml:space="preserve">FOS</t>
@@ -2632,10 +2615,10 @@
     <t xml:space="preserve">J01XX01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ff", "fm", "fo", "fof", "fos", "fosf")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("fosfocina", "fosfomicina", "fosfomycin", "fosfomycin sodium", "fosfomycine", "fosfomycinum", "fosfonomycin", "monuril", "monurol", "phosphonemycin", "phosphonomycin", "veramina")</t>
+    <t xml:space="preserve">ff,fm,fo,fof,fos,fosf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fosfocina,fosfomicina,fosfomycin,fosfomycin sodium,fosfomycine,fosfomycinum,fosfonomycin,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
   </si>
   <si>
     <t xml:space="preserve">FMD</t>
@@ -2644,7 +2627,7 @@
     <t xml:space="preserve">Fosmidomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fosmidomycin", "fosmidomycina", "fosmidomycine", "fosmidomycinum")</t>
+    <t xml:space="preserve">fosmidomycin,fosmidomycina,fosmidomycine,fosmidomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">FRM</t>
@@ -2653,14 +2636,13 @@
     <t xml:space="preserve">Framycetin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D09AA01", "R01AX08", "S01AA07")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("", "fram")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("actilin", "actiline", "antibiotique", "bycomycin", "endomixin", "enterfram", "fradiomycin", "fradiomycin b", "fradiomycinum", "framicetina", "framycetin", "framycetin sulfate", "framycetine", "framycetinum", "framygen", "fraquinol", "jernadex", "myacine", "myacyne", "mycerin", "mycifradin", "neobrettin", "neolate", "neomas", "neomcin", "neomicina", "neomin", "neomycin", "neomycin b", "neomycin b sulfate", "neomycin solution", "neomycin sulfate", "neomycin sulphate", "neomycinb", "neomycine", "neomycinum", 
-"nivemycin", "pimavecort", "soframycin", "soframycine", "tuttomycin", "vonamycin", "vonamycin powder v")</t>
+    <t xml:space="preserve">D09AA01,R01AX08,S01AA07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,fram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actilin,actiline,antibiotique,bycomycin,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framycetin,framycetin sulfate,framycetine,framycetinum,framygen,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin,neomycin b,neomycin b sulfate,neomycin solution,neomycin sulfate,neomycin sulphate,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
   </si>
   <si>
     <t xml:space="preserve">FRZ</t>
@@ -2672,8 +2654,7 @@
     <t xml:space="preserve">G01AX06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bifuron", "corizium", "coryzium", "diafuron", "enterotoxon", "furall", "furaxon", "furaxone", "furazol", "furazolidine", "furazolidon", "furazolidona", "furazolidone", "furazolidonum", "furazolum", "furazon", "furidon", "furovag", "furox aerosol powder", "furoxal", "furoxane", "furoxon", "furoxone", "furoxone liquid", "furoxone swine mix", "furozolidine", "giardil", "giarlam", "medaron", "neftin", "nicolen", "nifulidone", "nifuran", "nifurazolidone", "nifurazolidonum", "nitrofurazolidone", "nitrofurazolidonum", 
-"nitrofuroxon", "optazol", "ortazol", "puradin", "roptazol", "sclaventerol", "tikofuran", "topazone", "trichofuron", "tricofuron", "tricoron", "trifurox", "viofuragyn")</t>
+    <t xml:space="preserve">bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furaxon,furaxone,furazol,furazolidine,furazolidon,furazolidona,furazolidone,furazolidonum,furazolum,furazon,furidon,furovag,furox aerosol powder,furoxal,furoxane,furoxon,furoxone,furoxone liquid,furoxone swine mix,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
   </si>
   <si>
     <t xml:space="preserve">FUS</t>
@@ -2682,16 +2663,16 @@
     <t xml:space="preserve">Fusidic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AX01", "D09AA02", "J01XC01", "S01AA13")</t>
+    <t xml:space="preserve">D06AX01,D09AA02,J01XC01,S01AA13</t>
   </si>
   <si>
     <t xml:space="preserve">Steroid antibacterials</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fa", "fusi")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acide fusidique", "acido fusidico", "acidum fusidicum", "flucidin", "fucidate", "fucidate sodium", "fucidic acid", "fucidin", "fucidin acid", "fucithalmic", "fusidate", "fusidate acid", "fusidic acid", "fusidine", "fusidinic acid", "ramycin")</t>
+    <t xml:space="preserve">fa,fusi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acide fusidique,acido fusidico,acidum fusidicum,flucidin,fucidate,fucidate sodium,fucidic acid,fucidin,fucidin acid,fucithalmic,fusidate,fusidate acid,fusidic acid,fusidine,fusidinic acid,ramycin</t>
   </si>
   <si>
     <t xml:space="preserve">GAM</t>
@@ -2712,7 +2693,7 @@
     <t xml:space="preserve">J01MA19</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ganefloxacin", "garenfloxacin", "garenoxacin")</t>
+    <t xml:space="preserve">ganefloxacin,garenfloxacin,garenoxacin</t>
   </si>
   <si>
     <t xml:space="preserve">GAT</t>
@@ -2721,13 +2702,13 @@
     <t xml:space="preserve">Gatifloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA16", "S01AE06")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("", "gati")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("gatiflo", "gatifloxacin", "gatifloxacine", "gatifloxcin", "gatilox", "gatiquin", "gatispan", "tequin", "tequin and zymar", "zymaxid")</t>
+    <t xml:space="preserve">J01MA16,S01AE06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,gati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gatiflo,gatifloxacin,gatifloxacine,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequin and zymar,zymaxid</t>
   </si>
   <si>
     <t xml:space="preserve">GEM</t>
@@ -2739,7 +2720,7 @@
     <t xml:space="preserve">J01MA15</t>
   </si>
   <si>
-    <t xml:space="preserve">c("factiv", "factive", "gemifioxacin", "gemifloxacin", "gemifloxacine", "gemifloxacino", "gemifloxacinum")</t>
+    <t xml:space="preserve">factiv,factive,gemifioxacin,gemifloxacin,gemifloxacine,gemifloxacino,gemifloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">GEN</t>
@@ -2748,16 +2729,16 @@
     <t xml:space="preserve">Gentamicin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AX07", "J01GB03", "S01AA11", "S02AA14", "S03AA06")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cn", "gen", "gent", "gm")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("apogen", "centicin", "cidomycin", "garasol", "genoptic liquifilm", "genoptic s.o.p.", "gentacycol", "gentafair", "gentak", "gentamar", "gentamcin sulfate", "gentamicin", "gentamicina", "gentamicine", "gentamicins", "gentamicinum", "gentamycin", "gentamycins", "gentamycinum", "gentavet", "gentocin", "jenamicin", "lyramycin", "oksitselanim", "refobacin", "refobacin tm", "septigen", "uromycine")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("13561-6", "13562-4", "15106-8", "22746-2", "22747-0", "31091-2", "31092-0", "31093-8", "35668-3", "3663-2", "3664-0", "3665-7", "39082-3", "47109-4", "59379-8", "80971-5", "88111-0")</t>
+    <t xml:space="preserve">D06AX07,J01GB03,S01AA11,S02AA14,S03AA06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cn,gen,gent,gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apogen,centicin,cidomycin,garasol,genoptic liquifilm,genoptic s.o.p.,gentacycol,gentafair,gentak,gentamar,gentamcin sulfate,gentamicin,gentamicina,gentamicine,gentamicins,gentamicinum,gentamycin,gentamycins,gentamycinum,gentavet,gentocin,jenamicin,lyramycin,oksitselanim,refobacin,refobacin tm,septigen,uromycine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13561-6,13562-4,15106-8,22746-2,22747-0,31091-2,31092-0,31093-8,35668-3,3663-2,3664-0,3665-7,39082-3,47109-4,59379-8,80971-5,88111-0</t>
   </si>
   <si>
     <t xml:space="preserve">GEH</t>
@@ -2766,7 +2747,7 @@
     <t xml:space="preserve">Gentamicin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("gehi", "gehl", "genta high", "gentamicin high")</t>
+    <t xml:space="preserve">gehi,gehl,genta high,gentamicin high</t>
   </si>
   <si>
     <t xml:space="preserve">GEP</t>
@@ -2787,7 +2768,7 @@
     <t xml:space="preserve">J01MA11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "grep")</t>
+    <t xml:space="preserve">,grep</t>
   </si>
   <si>
     <t xml:space="preserve">grepafloxacin</t>
@@ -2799,11 +2780,10 @@
     <t xml:space="preserve">Griseofulvin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AA08", "D01BA01")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("amudane", "curling factor", "delmofulvina", "fulcin", "fulcine", "fulvican grisactin", "fulvicin", "fulvicin bolus", "fulvidex", "fulvina", "fulvinil", "fulvistatin", "fungivin", "greosin", "gresfeed", "gricin", "grifulin", "grifulvin", "grifulvin v", "grisactin", "grisactin ultra", "grisactin v", "griscofulvin", "grise ostatin", "grisefuline", "griseo", "griseofulvin", "griseofulvin forte", "griseofulvina", "griseofulvine", "griseofulvinum", "griseomix", "griseostatin", "grisetin", "grisofulvin", 
-"grisovin", "grisovin fp", "grizeofulvin", "grysio", "guservin", "lamoryl", "likuden", "likunden", "murfulvin", "poncyl", "spirofulvin", "sporostatin xan", "xuanjing")</t>
+    <t xml:space="preserve">D01AA08,D01BA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amudane,curling factor,delmofulvina,fulcin,fulcine,fulvican grisactin,fulvicin,fulvicin bolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvin v,grisactin,grisactin ultra,grisactin v,griscofulvin,grise ostatin,grisefuline,griseo,griseofulvin,griseofulvin forte,griseofulvina,griseofulvine,griseofulvinum,griseomix,griseostatin,grisetin,grisofulvin,grisovin,grisovin fp,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatin xan,xuanjing</t>
   </si>
   <si>
     <t xml:space="preserve">12402-4</t>
@@ -2815,7 +2795,7 @@
     <t xml:space="preserve">Habekacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("arbekacin sulfate", "habekacin", "habekacin sulfate", "habekacin xsulfate")</t>
+    <t xml:space="preserve">arbekacin sulfate,habekacin,habekacin sulfate,habekacin xsulfate</t>
   </si>
   <si>
     <t xml:space="preserve">HCH</t>
@@ -2824,10 +2804,10 @@
     <t xml:space="preserve">Hachimycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AA03", "G01AA06", "J02AA02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cabimicina", "hachimicina", "hachimycin", "hachimycine", "hachimycinum", "trichomycinum", "trichonat")</t>
+    <t xml:space="preserve">D01AA03,G01AA06,J02AA02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabimicina,hachimicina,hachimycin,hachimycine,hachimycinum,trichomycinum,trichonat</t>
   </si>
   <si>
     <t xml:space="preserve">HET</t>
@@ -2839,7 +2819,7 @@
     <t xml:space="preserve">J01CA18</t>
   </si>
   <si>
-    <t xml:space="preserve">c("etacillina", "hetacilina", "hetacillin", "hetacilline", "hetacillinum", "phenazacillin", "versapen")</t>
+    <t xml:space="preserve">etacillina,hetacilina,hetacillin,hetacilline,hetacillinum,phenazacillin,versapen</t>
   </si>
   <si>
     <t xml:space="preserve">HYG</t>
@@ -2848,7 +2828,7 @@
     <t xml:space="preserve">Hygromycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("antihelmycin", "hydromycin b", "hygrovetine")</t>
+    <t xml:space="preserve">antihelmycin,hydromycin b,hygrovetine</t>
   </si>
   <si>
     <t xml:space="preserve">IBX</t>
@@ -2869,7 +2849,7 @@
     <t xml:space="preserve">J01EA03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("iclaprim", "mersarex")</t>
+    <t xml:space="preserve">iclaprim,mersarex</t>
   </si>
   <si>
     <t xml:space="preserve">IPM</t>
@@ -2881,13 +2861,13 @@
     <t xml:space="preserve">J01DH51</t>
   </si>
   <si>
-    <t xml:space="preserve">c("imci", "imi", "imip", "imp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("imipemide", "imipenem", "imipenem anhydrous", "imipenem/cilastatin", "imipenemum", "imipenen", "primaxin", "tienamycin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("17010-0", "25257-7", "27331-8", "3688-9")</t>
+    <t xml:space="preserve">imci,imi,imip,imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imipemide,imipenem,imipenem anhydrous,imipenem/cilastatin,imipenemum,imipenen,primaxin,tienamycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17010-0,25257-7,27331-8,3688-9</t>
   </si>
   <si>
     <t xml:space="preserve">IPE</t>
@@ -2911,7 +2891,7 @@
     <t xml:space="preserve">J02AC05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "isav")</t>
+    <t xml:space="preserve">,isav</t>
   </si>
   <si>
     <t xml:space="preserve">isavuconazole</t>
@@ -2926,7 +2906,7 @@
     <t xml:space="preserve">J01GB11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("isepacin", "isepalline", "isepamicin", "isepamicina", "isepamicine", "isepamicinum")</t>
+    <t xml:space="preserve">isepacin,isepalline,isepamicin,isepamicina,isepamicine,isepamicinum</t>
   </si>
   <si>
     <t xml:space="preserve">ISO</t>
@@ -2935,13 +2915,13 @@
     <t xml:space="preserve">Isoconazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AC05", "G01AF07")</t>
+    <t xml:space="preserve">D01AC05,G01AF07</t>
   </si>
   <si>
     <t xml:space="preserve">Antimycotics for topic use</t>
   </si>
   <si>
-    <t xml:space="preserve">c("isoconazol", "isoconazole", "isoconazolum", "travogen")</t>
+    <t xml:space="preserve">isoconazol,isoconazole,isoconazolum,travogen</t>
   </si>
   <si>
     <t xml:space="preserve">INH</t>
@@ -2959,14 +2939,10 @@
     <t xml:space="preserve">inh</t>
   </si>
   <si>
-    <t xml:space="preserve">c("abdizide", "andrazide", "anidrasona", "antimicina", "antituberkulosum", "armacide", "armazid", "armazide", "atcotibine", "azt + isoniazid", "azuren", "bacillin", "cemidon", "chemiazid", "chemidon", "continazine", "cortinazine", "cotinazin", "cotinizin", "defonin", "dibutin", "diforin", "dinacrin", "ditubin", "ebidene", "eralon", "ertuban", "eutizon", "evalon", "fetefu", "fimalene", "hid rasonil", "hidranizil", "hidrasonil", "hidrulta", "hidrun", "hycozid", "hydrazid", "hydrazide", "hyozid", "i.a.i.", 
-"idrazil", "inizid", "iscotin", "isidrina", "ismazide", "isobicina", "isocid", "isocidene", "isocotin", "isohydrazide", "isokin", "isolyn", "isonerit", "isonex", "isoniacid", "isoniazid", "isoniazid sa", "isoniazida", "isoniazide", "isoniazidum", "isonicazide", "isonicid", "isonico", "isonicotan", "isonicotil", "isonicotinhydrazid", "isonicotinohydrazide", "isonide", "isonidrin", "isonikazid", "isonilex", "isonin", "isonindon", "isonirit", "isoniton", "isonizida", "isonizide", "isotamine", "isotebe", 
-"isotebezid", "isotinyl", "isozid", "isozide", "isozyd", "laniazid", "laniozid", "lanizid", "mayambutol", "mybasan", "neoteben", "neoxin", "neumandin", "niadrin", "nicazide", "nicetal", "nicizina", "niconyl", "nicotibina", "nicotibine", "nicotisan", "nicozide", "nidaton", "nidrazid", "nikozid", "niplen", "nitadon", "niteban", "nydrazid", "nyscozid", "pelazid", "percin", "phthisen", "pycazide", "pyreazid", "pyricidin", "pyridicin", "pyrizidin", "raumanon", "razide", "retozide", "rifater", "rimicid", 
-"rimifon", "rimiphone", "rimitsid", "robiselin", "robisellin", "roxifen", "sanohidrazina", "sauterazid", "sauterzid", "stanozide", "tebecid", "tebenic", "tebexin", "tebilon", "teebaconin", "tekazin", "tibazide", "tibemid", "tibiazide", "tibinide", "tibison", "tibivis", "tibizide", "tibusan", "tisiodrazida", "tizide", "tubazid", "tubazide", "tubeco", "tubecotubercid", "tuberian", "tubicon", "tubilysin", "tubizid", "tubomel", "unicocyde", "unicozyde", "vazadrine", "vederon", "zidafimia", "zinadon", 
-"zonazide")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25451-6", "26756-7", "3697-0", "40371-7")</t>
+    <t xml:space="preserve">abdizide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azt + isoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hid rasonil,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,i.a.i.,idrazil,inizid,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazid,isoniazid sa,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25451-6,26756-7,3697-0,40371-7</t>
   </si>
   <si>
     <t xml:space="preserve">ITR</t>
@@ -2981,10 +2957,10 @@
     <t xml:space="preserve">itra</t>
   </si>
   <si>
-    <t xml:space="preserve">c("itraconazol", "itraconazole", "itraconazolum", "itraconzaole", "itrazole", "oriconazole", "sporanox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10989-2", "12392-7", "25258-5", "27081-9", "32184-4", "32185-1", "80531-7")</t>
+    <t xml:space="preserve">itraconazol,itraconazole,itraconazolum,itraconzaole,itrazole,oriconazole,sporanox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10989-2,12392-7,25258-5,27081-9,32184-4,32185-1,80531-7</t>
   </si>
   <si>
     <t xml:space="preserve">JOS</t>
@@ -2996,7 +2972,7 @@
     <t xml:space="preserve">J01FA07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("josacine", "josamicina", "josamycin", "josamycine", "josamycinum")</t>
+    <t xml:space="preserve">josacine,josamicina,josamycin,josamycine,josamycinum</t>
   </si>
   <si>
     <t xml:space="preserve">KAN</t>
@@ -3005,16 +2981,16 @@
     <t xml:space="preserve">Kanamycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA08", "J01GB04", "S01AA24")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("hlk", "k", "kan", "kana", "km")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("kanamicina", "kanamycin", "kanamycin a", "kanamycin base", "kanamycine", "kanamycinum", "kantrex", "kenamycin a", "klebcil", "liposomal kanamycin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("23889-9", "3698-8", "3699-6", "3700-2", "47395-9")</t>
+    <t xml:space="preserve">A07AA08,J01GB04,S01AA24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hlk,k,kan,kana,km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kanamicina,kanamycin,kanamycin a,kanamycin base,kanamycine,kanamycinum,kantrex,kenamycin a,klebcil,liposomal kanamycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23889-9,3698-8,3699-6,3700-2,47395-9</t>
   </si>
   <si>
     <t xml:space="preserve">KAH</t>
@@ -3023,7 +2999,7 @@
     <t xml:space="preserve">Kanamycin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "k_h", "kahl")</t>
+    <t xml:space="preserve">,k_h,kahl</t>
   </si>
   <si>
     <t xml:space="preserve">KAC</t>
@@ -3038,19 +3014,19 @@
     <t xml:space="preserve">Ketoconazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AC08", "G01AF11", "H02CA03", "J02AB02")</t>
+    <t xml:space="preserve">D01AC08,G01AF11,H02CA03,J02AB02</t>
   </si>
   <si>
     <t xml:space="preserve">Imidazole derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("keto", "ktc")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("extina", "fungarest", "fungoral", "ketocanazole", "ketoconazol", "ketoconazole", "ketoconazolum", "ketoderm", "nizoral", "xolegel")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10990-0", "12393-5", "25259-3", "60091-6", "60092-4")</t>
+    <t xml:space="preserve">keto,ktc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extina,fungarest,fungoral,ketocanazole,ketoconazol,ketoconazole,ketoconazolum,ketoderm,nizoral,xolegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10990-0,12393-5,25259-3,60091-6,60092-4</t>
   </si>
   <si>
     <t xml:space="preserve">KIT</t>
@@ -3059,7 +3035,7 @@
     <t xml:space="preserve">Kitasamycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "leucomycin")</t>
+    <t xml:space="preserve">,leucomycin</t>
   </si>
   <si>
     <t xml:space="preserve">LAS</t>
@@ -3068,7 +3044,7 @@
     <t xml:space="preserve">Lasalocid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("avatec", "lasalocid", "lasalocid a", "lasalocide", "lasalocide a", "lasalocido", "lasalocidum")</t>
+    <t xml:space="preserve">avatec,lasalocid,lasalocid a,lasalocide,lasalocide a,lasalocido,lasalocidum</t>
   </si>
   <si>
     <t xml:space="preserve">87598-9</t>
@@ -3083,10 +3059,10 @@
     <t xml:space="preserve">J01DD06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("mox", "moxa", "moxalactam")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("disodium moxalactam", "festamoxin", "lamoxactam", "latamoxef", "latamoxefum", "shiomarin")</t>
+    <t xml:space="preserve">mox,moxa,moxalactam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disodium moxalactam,festamoxin,lamoxactam,latamoxef,latamoxefum,shiomarin</t>
   </si>
   <si>
     <t xml:space="preserve">LMU</t>
@@ -3107,7 +3083,7 @@
     <t xml:space="preserve">Lenampicillin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("lenampicilina", "lenampicillin", "lenampicillin hcl", "lenampicilline", "lenampicillinum")</t>
+    <t xml:space="preserve">lenampicilina,lenampicillin,lenampicillin hcl,lenampicilline,lenampicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">LVX</t>
@@ -3116,16 +3092,16 @@
     <t xml:space="preserve">Levofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA12", "S01AE05")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("le", "lev", "levo", "lvx")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("aeroquin", "cravit", "cravit hydrate", "cravit iv", "cravit ophthalmic", "elequine", "floxacin", "floxel", "iquix hydrate", "leroxacin", "lesacin", "levaquin", "levaquin hydrate", "levo floxacin", "levofiexacin", "levofloxacin", "levofloxacin hydrate", "levofloxacine", "levofloxacino", "levofloxacinum", "levokacin", "levoxacin", "mosardal", "nofaxin", "oftaquix", "quixin", "reskuin", "tavanic", "unibiotic", "venaxan", "volequin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("21368-6", "30532-6", "30533-4")</t>
+    <t xml:space="preserve">J01MA12,S01AE05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le,lev,levo,lvx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeroquin,cravit,cravit hydrate,cravit iv,cravit ophthalmic,elequine,floxacin,floxel,iquix hydrate,leroxacin,lesacin,levaquin,levaquin hydrate,levo floxacin,levofiexacin,levofloxacin,levofloxacin hydrate,levofloxacine,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,oftaquix,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21368-6,30532-6,30533-4</t>
   </si>
   <si>
     <t xml:space="preserve">LND</t>
@@ -3146,7 +3122,7 @@
     <t xml:space="preserve">Linco-spectin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "lincomycin/spectinomycin")</t>
+    <t xml:space="preserve">,lincomycin/spectinomycin</t>
   </si>
   <si>
     <t xml:space="preserve">LIN</t>
@@ -3161,7 +3137,7 @@
     <t xml:space="preserve">linc</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cillimycin", "jiemycin", "lincolcina", "lincolnensin", "lincomicina", "lincomycin", "lincomycin a", "lincomycine", "lincomycinum")</t>
+    <t xml:space="preserve">cillimycin,jiemycin,lincolcina,lincolnensin,lincomicina,lincomycin,lincomycin a,lincomycine,lincomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">87597-1</t>
@@ -3176,13 +3152,13 @@
     <t xml:space="preserve">J01XX08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("line", "lnz", "lz", "lzd")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("linezlid", "linezoid", "linezolid", "linezolide", "linezolidum", "zivoxid", "zyvoxa", "zyvoxam", "zyvoxid")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("34202-2", "80609-1")</t>
+    <t xml:space="preserve">line,lnz,lz,lzd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linezlid,linezoid,linezolid,linezolide,linezolidum,zivoxid,zyvoxa,zyvoxam,zyvoxid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34202-2,80609-1</t>
   </si>
   <si>
     <t xml:space="preserve">LFE</t>
@@ -3197,13 +3173,13 @@
     <t xml:space="preserve">Lomefloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA07", "S01AE04")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("lmf", "lom", "lome")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("lomefloxacin", "lomefloxacine", "lomefloxacino", "lomefloxacinum", "maxaquin")</t>
+    <t xml:space="preserve">J01MA07,S01AE04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lmf,lom,lome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lomefloxacin,lomefloxacine,lomefloxacino,lomefloxacinum,maxaquin</t>
   </si>
   <si>
     <t xml:space="preserve">LOR</t>
@@ -3215,10 +3191,10 @@
     <t xml:space="preserve">J01DC08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "lora")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("anhydrous loracarbef", "lorabid", "loracarbef", "loracarbefum", "lorbef", "loribid")</t>
+    <t xml:space="preserve">,lora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anhydrous loracarbef,lorabid,loracarbef,loracarbefum,lorbef,loribid</t>
   </si>
   <si>
     <t xml:space="preserve">LYM</t>
@@ -3230,7 +3206,7 @@
     <t xml:space="preserve">J01AA04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("biovetin", "chlortetracyclin", "ciclisin", "ciclolysal", "infaciclina", "limeciclina", "lisinbiotic", "lymecyclin", "lymecycline", "lymecyclinum", "mucomycin", "ntetracycline", "tetralisal", "tetralysal", "vebicyclysal")</t>
+    <t xml:space="preserve">biovetin,chlortetracyclin,ciclisin,ciclolysal,infaciclina,limeciclina,lisinbiotic,lymecyclin,lymecycline,lymecyclinum,mucomycin,ntetracycline,tetralisal,tetralysal,vebicyclysal</t>
   </si>
   <si>
     <t xml:space="preserve">MNA</t>
@@ -3239,10 +3215,10 @@
     <t xml:space="preserve">Mandelic acid</t>
   </si>
   <si>
-    <t xml:space="preserve">c("B05CA06", "J01XX06")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acido mandelico", "almond acid", "amygdalic acid", "benzoglycolic acid", "hydroxyacetic acid", "kyselina mandlova", "mandelic acid", "paramandelic acid", "phenylglycolic acid", "uromaline")</t>
+    <t xml:space="preserve">B05CA06,J01XX06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acido mandelico,almond acid,amygdalic acid,benzoglycolic acid,hydroxyacetic acid,kyselina mandlova,mandelic acid,paramandelic acid,phenylglycolic acid,uromaline</t>
   </si>
   <si>
     <t xml:space="preserve">MGX</t>
@@ -3257,7 +3233,7 @@
     <t xml:space="preserve">Marbofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("marbocyl", "marbofloxacin", "marbofloxacine", "marbofloxacino", "marbofloxacinum", "zeniquin")</t>
+    <t xml:space="preserve">marbocyl,marbofloxacin,marbofloxacine,marbofloxacino,marbofloxacinum,zeniquin</t>
   </si>
   <si>
     <t xml:space="preserve">MEC</t>
@@ -3269,10 +3245,10 @@
     <t xml:space="preserve">J01CA11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "amdinocillin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("amdinocillin", "coactin", "hexacillin", "mecilinamo", "mecillinam", "mecillinamum", "micillinam", "penicillin hx", "selexidin")</t>
+    <t xml:space="preserve">,amdinocillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amdinocillin,coactin,hexacillin,mecilinamo,mecillinam,mecillinamum,micillinam,penicillin hx,selexidin</t>
   </si>
   <si>
     <t xml:space="preserve">MEL</t>
@@ -3290,10 +3266,10 @@
     <t xml:space="preserve">J01DH02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("mem", "mer", "mero", "mp", "mrp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("meronem", "meropen", "meropenem", "meropenem anhydrous", "meropenem hydrate", "meropenem trihydrate", "meropenemum", "merrem", "merrem i.v.", "merrem iv")</t>
+    <t xml:space="preserve">mem,mer,mero,mp,mrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meronem,meropen,meropenem,meropenem anhydrous,meropenem hydrate,meropenem trihydrate,meropenemum,merrem,merrem i.v.,merrem iv</t>
   </si>
   <si>
     <t xml:space="preserve">41406-0</t>
@@ -3320,7 +3296,7 @@
     <t xml:space="preserve">Mesulfamide</t>
   </si>
   <si>
-    <t xml:space="preserve">c("mesulfamide", "mesulfamido", "mesulfamidum")</t>
+    <t xml:space="preserve">mesulfamide,mesulfamido,mesulfamidum</t>
   </si>
   <si>
     <t xml:space="preserve">MTC</t>
@@ -3332,7 +3308,7 @@
     <t xml:space="preserve">J01AA05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bialatan", "metaciclina", "metacycline", "metacyclinum", "methacycline", "methacycline base", "methacyclinum", "methylenecycline", "physiomycine", "rondomycin")</t>
+    <t xml:space="preserve">bialatan,metaciclina,metacycline,metacyclinum,methacycline,methacycline base,methacyclinum,methylenecycline,physiomycine,rondomycin</t>
   </si>
   <si>
     <t xml:space="preserve">MTM</t>
@@ -3344,8 +3320,7 @@
     <t xml:space="preserve">J01CA14</t>
   </si>
   <si>
-    <t xml:space="preserve">c("blomopen", "bonopen", "celinmicina", "elatocilline", "fedacilina kapseln", "filorex", "italcina kapseln", "magnipen", "metabacter ampullen", "metambac", "metampicilina", "metampicillin", "metampicillin sodium", "metampicillina", "metampicilline", "metampicillinum", "methampicillin", "metiskia ampullen", "micinovo", "micinovo ampullen", "pangocilin", "probiotic", "rastomycin k", "relyothenate", "ruticina", "rutizina", "rutizina ampullen", "sedomycin", "suvipen", "suvipen ampullen", "tampilen ampullen", 
-"teonicon trofen", "viderpen", "viderpin", "vioplex")</t>
+    <t xml:space="preserve">blomopen,bonopen,celinmicina,elatocilline,fedacilina kapseln,filorex,italcina kapseln,magnipen,metabacter ampullen,metambac,metampicilina,metampicillin,metampicillin sodium,metampicillina,metampicilline,metampicillinum,methampicillin,metiskia ampullen,micinovo,micinovo ampullen,pangocilin,probiotic,rastomycin k,relyothenate,ruticina,rutizina,rutizina ampullen,sedomycin,suvipen,suvipen ampullen,tampilen ampullen,teonicon trofen,viderpen,viderpin,vioplex</t>
   </si>
   <si>
     <t xml:space="preserve">MTH</t>
@@ -3357,8 +3332,7 @@
     <t xml:space="preserve">J01XX05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aceto hmt", "aminoform", "aminoformaldehyde", "ammoform", "ammonioformaldehyde", "antihydral", "cystamin", "cystex", "cystogen", "duirexol", "ekagom h", "esametilentetramina", "formamine", "formin", "h.m.t.", "heksa k", "herax uts", "heterin", "hexa b", "hexaform", "hexaloids", "hexamethylamine", "hexamethylenamine", "hexamethyleneamine", "hexamethylentetramin", "hexamine", "hexamine silver", "hexamine superfine", "hexaminum", "hexasan", "hexilmethylenamine", "metenamina", "metenamine", "methamin", 
-"methenamin", "methenamine", "methenamine silver", "methenaminum", "metramine", "naphthamine", "nocceler h", "preparation af", "resotropin", "sanceler h", "sanceler ht", "silver methenamine", "uramin", "uratrine", "urisol", "uritone", "urodeine", "urotropin", "urotropine", "vesaloin", "vesalvine", "xametrin")</t>
+    <t xml:space="preserve">aceto hmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagom h,esametilentetramina,formamine,formin,h.m.t.,heksa k,herax uts,heterin,hexa b,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexamine silver,hexamine superfine,hexaminum,hexasan,hexilmethylenamine,metenamina,metenamine,methamin,methenamin,methenamine,methenamine silver,methenaminum,metramine,naphthamine,nocceler h,preparation af,resotropin,sanceler h,sanceler ht,silver methenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
   </si>
   <si>
     <t xml:space="preserve">MET</t>
@@ -3373,10 +3347,10 @@
     <t xml:space="preserve">meti</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dimocillin", "metacillin", "methcilline", "methicillin", "methicillinum", "methycillin", "meticilina", "meticillin", "meticillina", "meticilline", "meticillinum", "staphcillin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("29492-6", "3788-7")</t>
+    <t xml:space="preserve">dimocillin,metacillin,methcilline,methicillin,methicillinum,methycillin,meticilina,meticillin,meticillina,meticilline,meticillinum,staphcillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29492-6,3788-7</t>
   </si>
   <si>
     <t xml:space="preserve">MTP</t>
@@ -3385,7 +3359,7 @@
     <t xml:space="preserve">Metioprim</t>
   </si>
   <si>
-    <t xml:space="preserve">c("methioprim", "metioprim", "metioprima", "metioprime", "metioprimum")</t>
+    <t xml:space="preserve">methioprim,metioprim,metioprima,metioprime,metioprimum</t>
   </si>
   <si>
     <t xml:space="preserve">MXT</t>
@@ -3394,7 +3368,7 @@
     <t xml:space="preserve">Metioxate</t>
   </si>
   <si>
-    <t xml:space="preserve">c("metioxate", "metioxato", "metioxatum")</t>
+    <t xml:space="preserve">metioxate,metioxato,metioxatum</t>
   </si>
   <si>
     <t xml:space="preserve">MTR</t>
@@ -3403,15 +3377,13 @@
     <t xml:space="preserve">Metronidazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB17", "D06BX01", "G01AF01", "J01XD01", "P01AB01")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("metr", "mnz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acromona", "anagiardil", "arilin", "atrivyl", "danizol", "deflamon", "efloran", "elyzol", "entizol", "flagemona", "flagesol", "flagil", "flagyl", "flagyl er", "flagyl i.v.", "flagyl i.v. rtu", "flazol", "flegyl", "florazole", "fossyol", "giatricol", "ginefla vir", "gineflavir", "helidac", "mepagyl", "meronidal", "methronidazole", "metric", "metro cream", "metro gel", "metro i.v", "metro i.v.", "metro iv", "metrocream", "metrodzhil", "metrogel", "metrogyl", "metrolag", "metrolotion", "metrolyl", 
-"metromidol", "metronidaz", "metronidazol", "metronidazole", "metronidazole usp", "metronidazolo", "metronidazolum", "metrotop", "metrozine", "metryl", "mexibol", "mexibol 'silanes'", "monagyl", "monasin", "nidagel", "nidagyl", "noritate", "novonidazol", "orvagil", "polibiotic", "protostat", "rathimed", "rosased", "sanatrichom", "satric", "takimetol", "trichazol", "trichex", "tricho cordes", "trichobrol", "trichocide", "trichomol", "trichopal", "trichopol", "tricocet", "tricom", "tricowas b", "trikacide", 
-"trikamon", "trikhopol", "trikojol", "trikozol", "trimeks", "trivazol", "vagilen", "vagimid", "vandazole", "vertisal", "wagitran", "zadstat", "zidoval")</t>
+    <t xml:space="preserve">A01AB17,D06BX01,G01AF01,J01XD01,P01AB01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metr,mnz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acromona,anagiardil,arilin,atrivyl,danizol,deflamon,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyl er,flagyl i.v.,flagyl i.v. rtu,flazol,flegyl,florazole,fossyol,giatricol,ginefla vir,gineflavir,helidac,mepagyl,meronidal,methronidazole,metric,metro cream,metro gel,metro i.v,metro i.v.,metro iv,metrocream,metrodzhil,metrogel,metrogyl,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazole,metronidazole usp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibol 'silanes',monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,tricho cordes,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,tricowas b,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
   </si>
   <si>
     <t xml:space="preserve">10991-8</t>
@@ -3426,10 +3398,10 @@
     <t xml:space="preserve">J01CA10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("mez", "mezl", "mz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("mezlin", "mezlocilina", "mezlocillin", "mezlocillin acid", "mezlocillin sodium", "mezlocilline", "mezlocillinum", "multocillin")</t>
+    <t xml:space="preserve">mez,mezl,mz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mezlin,mezlocilina,mezlocillin,mezlocillin acid,mezlocillin sodium,mezlocilline,mezlocillinum,multocillin</t>
   </si>
   <si>
     <t xml:space="preserve">3820-8</t>
@@ -3450,10 +3422,10 @@
     <t xml:space="preserve">J02AX05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "mica")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("micafungin", "mycamine")</t>
+    <t xml:space="preserve">,mica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micafungin,mycamine</t>
   </si>
   <si>
     <t xml:space="preserve">58418-5</t>
@@ -3465,13 +3437,13 @@
     <t xml:space="preserve">Miconazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB09", "A07AC01", "D01AC02", "G01AF04", "J02AB01", "S02AA13")</t>
+    <t xml:space="preserve">A01AB09,A07AC01,D01AC02,G01AF04,J02AB01,S02AA13</t>
   </si>
   <si>
     <t xml:space="preserve">mico</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aflorix", "albistat", "andergin", "brentan", "conofite", "dactarin", "daktarin", "daktarin iv", "florid", "lotrimin af", "micantin", "miconasil nitrate", "miconazol", "miconazole", "miconazole base", "miconazolo", "miconazolum", "micozole", "minostate", "monista", "monistat", "monistat iv", "oravig", "vusion", "zimybase", "zimycan")</t>
+    <t xml:space="preserve">aflorix,albistat,andergin,brentan,conofite,dactarin,daktarin,daktarin iv,florid,lotrimin af,micantin,miconasil nitrate,miconazol,miconazole,miconazole base,miconazolo,miconazolum,micozole,minostate,monista,monistat,monistat iv,oravig,vusion,zimybase,zimycan</t>
   </si>
   <si>
     <t xml:space="preserve">17278-3</t>
@@ -3486,7 +3458,7 @@
     <t xml:space="preserve">S01AA22</t>
   </si>
   <si>
-    <t xml:space="preserve">c("gentamicin c", "micromycin", "micronomicin", "micronomicina", "micronomicine", "micronomicinum", "sagamicin", "santemycin")</t>
+    <t xml:space="preserve">gentamicin c,micromycin,micronomicin,micronomicina,micronomicine,micronomicinum,sagamicin,santemycin</t>
   </si>
   <si>
     <t xml:space="preserve">MID</t>
@@ -3498,7 +3470,7 @@
     <t xml:space="preserve">J01FA03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aboren", "espinomycin a", "macropen", "madecacine", "medemycin", "midecamicina", "midecamycin", "midecamycin a", "midecamycine", "midecamycinum", "midecin", "momicine", "mydecamycin", "myoxam", "normicina", "rubimycin", "turimycin p")</t>
+    <t xml:space="preserve">aboren,espinomycin a,macropen,madecacine,medemycin,midecamicina,midecamycin,midecamycin a,midecamycine,midecamycinum,midecin,momicine,mydecamycin,myoxam,normicina,rubimycin,turimycin p</t>
   </si>
   <si>
     <t xml:space="preserve">MIL</t>
@@ -3507,7 +3479,7 @@
     <t xml:space="preserve">Miloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("miloxacin", "miloxacine", "miloxacino", "miloxacinum")</t>
+    <t xml:space="preserve">miloxacin,miloxacine,miloxacino,miloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">MNO</t>
@@ -3516,16 +3488,16 @@
     <t xml:space="preserve">Minocycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB23", "D10AF07", "J01AA08")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("mc", "mh", "mi", "min", "mino", "mn", "mno")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("akamin", "aknemin", "borymycin", "dynacin", "klinomycin", "minociclina", "minocin", "minocline", "minocyclin", "minocycline", "minocyclinum", "minocyn", "minoderm", "minomycin", "sebomin", "solodyn", "vectrin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("34606-4", "3822-4", "49757-8")</t>
+    <t xml:space="preserve">A01AB23,D10AF07,J01AA08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mc,mh,mi,min,mino,mn,mno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akamin,aknemin,borymycin,dynacin,klinomycin,minociclina,minocin,minocline,minocyclin,minocycline,minocyclinum,minocyn,minoderm,minomycin,sebomin,solodyn,vectrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34606-4,3822-4,49757-8</t>
   </si>
   <si>
     <t xml:space="preserve">MCM</t>
@@ -3537,7 +3509,7 @@
     <t xml:space="preserve">J01FA11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acecamycin", "macroral", "midecamycin acetate", "miocamen", "miocamycine", "miokamycin", "myocamicin", "ponsinomycin")</t>
+    <t xml:space="preserve">acecamycin,macroral,midecamycin acetate,miocamen,miocamycine,miokamycin,myocamicin,ponsinomycin</t>
   </si>
   <si>
     <t xml:space="preserve">MON</t>
@@ -3546,7 +3518,7 @@
     <t xml:space="preserve">Monensin sodium</t>
   </si>
   <si>
-    <t xml:space="preserve">c("monensin sodium", "sodium monensin")</t>
+    <t xml:space="preserve">monensin sodium,sodium monensin</t>
   </si>
   <si>
     <t xml:space="preserve">MRN</t>
@@ -3558,7 +3530,7 @@
     <t xml:space="preserve">J04AK04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("morfazinamide", "morfazinammide", "morfgazinamide", "morinamida", "morinamide", "morinamidum", "morphazinamid", "morphazinamide", "piazofolina", "piazolin", "piazolina")</t>
+    <t xml:space="preserve">morfazinamide,morfazinammide,morfgazinamide,morinamida,morinamide,morinamidum,morphazinamid,morphazinamide,piazofolina,piazolin,piazolina</t>
   </si>
   <si>
     <t xml:space="preserve">MFX</t>
@@ -3567,16 +3539,16 @@
     <t xml:space="preserve">Moxifloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA14", "S01AE07")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("mox", "moxi", "mxf")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("actira", "avelox", "avelox i.v.", "avelox iv", "avolex", "izilox", "moxeza", "moxifloxacin", "moxifloxacine", "vigamox")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("43751-7", "45223-5", "80540-8")</t>
+    <t xml:space="preserve">J01MA14,S01AE07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mox,moxi,mxf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actira,avelox,avelox i.v.,avelox iv,avolex,izilox,moxeza,moxifloxacin,moxifloxacine,vigamox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43751-7,45223-5,80540-8</t>
   </si>
   <si>
     <t xml:space="preserve">MUP</t>
@@ -3585,13 +3557,13 @@
     <t xml:space="preserve">Mupirocin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AX09", "R01AX06")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("mup", "mupi")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bactoderm", "bactroban", "bactroban nasal", "bactroban ointment", "centany", "mupirocin", "mupirocina", "mupirocine", "mupirocinum", "plasimine", "pseudomonic acid", "pseudomonic acid a", "turixin")</t>
+    <t xml:space="preserve">D06AX09,R01AX06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mup,mupi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bactoderm,bactroban,bactroban nasal,bactroban ointment,centany,mupirocin,mupirocina,mupirocine,mupirocinum,plasimine,pseudomonic acid,pseudomonic acid a,turixin</t>
   </si>
   <si>
     <t xml:space="preserve">NAC</t>
@@ -3612,7 +3584,7 @@
     <t xml:space="preserve">D10AF05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acuatim", "nadifloxacin", "nadifloxacine", "nadifloxacino", "nadifloxacinum", "nadixa", "nadoxin")</t>
+    <t xml:space="preserve">acuatim,nadifloxacin,nadifloxacine,nadifloxacino,nadifloxacinum,nadixa,nadoxin</t>
   </si>
   <si>
     <t xml:space="preserve">NAF</t>
@@ -3624,10 +3596,10 @@
     <t xml:space="preserve">J01CF06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("nafcilina", "nafcillin", "nafcillin sodium", "nafcilline", "nafcillinum", "nallpen", "naphcillin", "unipen")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10993-4", "25232-0")</t>
+    <t xml:space="preserve">nafcilina,nafcillin,nafcillin sodium,nafcilline,nafcillinum,nallpen,naphcillin,unipen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10993-4,25232-0</t>
   </si>
   <si>
     <t xml:space="preserve">ZWK</t>
@@ -3648,11 +3620,10 @@
     <t xml:space="preserve">J01MB02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("na", "nal", "nali")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acide nalidixico", "acide nalidixique", "acido nalidissico", "acido nalidixico", "acidum nalidixicum", "betaxina", "dixiben", "dixinal", "eucisten", "eucistin", "innoxalomn", "innoxalon", "jicsron", "kusnarin", "naldixic acid", "nalidic acid", "nalidicron", "nalidixan", "nalidixane", "nalidixate", "nalidixate sodium", "nalidixic", "nalidixic acid", "nalidixin", "nalidixinic acid", "nalidixinsaure", "nalitucsan", "nalurin", "narigix", "naxuril", "neggram", "negram", "nevigramon", "nicelate", "nogram", 
-"poleon", "sicmylon", "specifen", "specifin", "unaserus", "uralgin", "uriben", "uriclar", "urisal", "urodixin", "uroman", "uroneg", "uronidix", "uropan", "wintomylon", "wintron")</t>
+    <t xml:space="preserve">na,nal,nali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acide nalidixico,acide nalidixique,acido nalidissico,acido nalidixico,acidum nalidixicum,betaxina,dixiben,dixinal,eucisten,eucistin,innoxalomn,innoxalon,jicsron,kusnarin,naldixic acid,nalidic acid,nalidicron,nalidixan,nalidixane,nalidixate,nalidixate sodium,nalidixic,nalidixic acid,nalidixin,nalidixinic acid,nalidixinsaure,nalitucsan,nalurin,narigix,naxuril,neggram,negram,nevigramon,nicelate,nogram,poleon,sicmylon,specifen,specifin,unaserus,uralgin,uriben,uriclar,urisal,urodixin,uroman,uroneg,uronidix,uropan,wintomylon,wintron</t>
   </si>
   <si>
     <t xml:space="preserve">NAR</t>
@@ -3661,7 +3632,7 @@
     <t xml:space="preserve">Narasin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("monteban", "narasin", "narasin a", "narasine", "narasino", "narasinum", "narasul")</t>
+    <t xml:space="preserve">monteban,narasin,narasin a,narasine,narasino,narasinum,narasul</t>
   </si>
   <si>
     <t xml:space="preserve">87570-8</t>
@@ -3673,13 +3644,13 @@
     <t xml:space="preserve">Neomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB08", "A07AA01", "B05CA09", "D06AX04", "J01GB05", "R02AB01", "S01AA03", "S02AA07", "S03AA01")</t>
+    <t xml:space="preserve">A01AB08,A07AA01,B05CA09,D06AX04,J01GB05,R02AB01,S01AA03,S02AA07,S03AA01</t>
   </si>
   <si>
     <t xml:space="preserve">neom</t>
   </si>
   <si>
-    <t xml:space="preserve">c("10995-9", "25262-7")</t>
+    <t xml:space="preserve">10995-9,25262-7</t>
   </si>
   <si>
     <t xml:space="preserve">NET</t>
@@ -3688,16 +3659,16 @@
     <t xml:space="preserve">Netilmicin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01GB07", "S01AA23")</t>
+    <t xml:space="preserve">J01GB07,S01AA23</t>
   </si>
   <si>
     <t xml:space="preserve">neti</t>
   </si>
   <si>
-    <t xml:space="preserve">c("netillin", "netilmicin", "netilmicin sulfate", "netilmicina", "netilmicine", "netilmicinum", "netilyn", "netira", "vectacin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25263-5", "3848-9", "3849-7", "3850-5", "47385-0", "59565-2", "59566-0", "59567-8")</t>
+    <t xml:space="preserve">netillin,netilmicin,netilmicin sulfate,netilmicina,netilmicine,netilmicinum,netilyn,netira,vectacin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25263-5,3848-9,3849-7,3850-5,47385-0,59565-2,59566-0,59567-8</t>
   </si>
   <si>
     <t xml:space="preserve">NIC</t>
@@ -3706,7 +3677,7 @@
     <t xml:space="preserve">Nicarbazin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("nicarb", "nicarbasin", "nicarbazin", "nicarbazine", "nicoxin", "nicrazin", "nicrazine", "nirazin")</t>
+    <t xml:space="preserve">nicarb,nicarbasin,nicarbazin,nicarbazine,nicoxin,nicrazin,nicrazine,nirazin</t>
   </si>
   <si>
     <t xml:space="preserve">NIF</t>
@@ -3715,7 +3686,7 @@
     <t xml:space="preserve">Nifuroquine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("nifuroquina", "nifuroquine", "nifuroquinum", "quinaldofur")</t>
+    <t xml:space="preserve">nifuroquina,nifuroquine,nifuroquinum,quinaldofur</t>
   </si>
   <si>
     <t xml:space="preserve">NFR</t>
@@ -3730,7 +3701,7 @@
     <t xml:space="preserve">Nitrofuran derivatives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("levantin", "nifurtoinol", "nifurtoinolo", "nifurtoinolum", "urfadin", "urfadine", "urfadyn")</t>
+    <t xml:space="preserve">levantin,nifurtoinol,nifurtoinolo,nifurtoinolum,urfadin,urfadine,urfadyn</t>
   </si>
   <si>
     <t xml:space="preserve">NTZ</t>
@@ -3742,7 +3713,7 @@
     <t xml:space="preserve">P01AX11</t>
   </si>
   <si>
-    <t xml:space="preserve">c("adrovet", "alinia", "azt + nitazoxanide", "colufase", "cryptaz", "dexidex", "heliton", "kidonax", "nitaxozanid", "nitaxozanide", "nitazox", "nitazoxamide", "nitazoxanid", "nitazoxanida", "nitazoxanide", "nitazoxanidum", "omniparax", "pacovanton", "paramix", "taenitaz")</t>
+    <t xml:space="preserve">adrovet,alinia,azt + nitazoxanide,colufase,cryptaz,dexidex,heliton,kidonax,nitaxozanid,nitaxozanide,nitazox,nitazoxamide,nitazoxanid,nitazoxanida,nitazoxanide,nitazoxanidum,omniparax,pacovanton,paramix,taenitaz</t>
   </si>
   <si>
     <t xml:space="preserve">NIT</t>
@@ -3754,12 +3725,10 @@
     <t xml:space="preserve">J01XE01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("f", "f/m", "fd", "ft", "ni", "nit", "nitr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("alfuran", "benkfuran", "berkfuran", "berkfurin", "ceduran", "chemiofuran", "cistofuran", "cyantin", "cystit", "dantafur", "fua med", "fuamed", "furabid", "furachel", "furadantin", "furadantin retard", "furadantina mc", "furadantine", "furadantine mc", "furadantoin", "furadoin", "furadoine", "furadonin", "furadonine", "furadoninum", "furadontin", "furadoxyl", "furalan", "furaloid", "furantoin", "furantoina", "furatoin", "furedan", "furina", "furobactina", "furodantin", "furophen t", "gerofuran", 
-"io&gt;&gt;uss&gt;&gt;a&lt;&lt;ixoo", "ituran", "ivadantin", "macpac", "macrobid", "macrodantin", "macrodantina", "macrofuran", "macrofurin", "nierofu", "nifurantin", "nifuretten", "nitoin", "nitrex", "nitrofuradantin", "nitrofurantion", "nitrofurantoin", "nitrofurantoin macro", "nitrofurantoina", "nitrofurantoine", "nitrofurantoinum", "novofuran", "orafuran", "parfuran", "phenurin", "piyeloseptyl", "siraliden", "trantoin", "uerineks", "urantoin", "urizept", "urodin", "urofuran", "urofurin", "urolisa", "urolong", 
-"uvamin", "welfurin", "zoofurin")</t>
+    <t xml:space="preserve">f,f/m,fd,ft,ni,nit,nitr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fua med,fuamed,furabid,furachel,furadantin,furadantin retard,furadantina mc,furadantine,furadantine mc,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophen t,gerofuran,io&gt;&gt;uss&gt;&gt;a&lt;&lt;ixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantion,nitrofurantoin,nitrofurantoin macro,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,parfuran,phenurin,piyeloseptyl,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
   </si>
   <si>
     <t xml:space="preserve">3860-4</t>
@@ -3771,8 +3740,7 @@
     <t xml:space="preserve">Nitrofurazone</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acutol", "aldomycin", "alfucin", "amifur", "babrocid", "becafurazone", "biofuracina", "biofurea", "chemofuran", "chixin", "cocafurin", "coxistat", "dermofural", "dymazone", "dynazone", "eldezol", "fedacin", "flavazone", "fracine", "furacilin", "furacilinum", "furacillin", "furacin", "furacine", "furacinetten", "furacoccid", "furacort", "furacycline", "furaderm", "furagent", "furalcyn", "furaldon", "furalone", "furametral", "furaplast", "furaseptyl", "furaskin", "furatsilin", "furaziline", "furazin", 
-"furazina", "furazol w", "furazone", "furazyme", "furesol", "furfurin", "furosem", "fuvacillin", "hemofuran", "ibiofural", "mammex", "mastofuran", "monafuracin", "monafuracis", "monofuracin", "nfz mix", "nifucin", "nifurid", "nifuzon", "nitrofural", "nitrofuralum", "nitrofuran", "nitrofurane", "nitrofurazan", "nitrofurazone", "nitrofurazonum", "nitrofurol", "nitrozone", "otofural", "otofuran", "rivafurazon", "sanfuran", "vabrocid", "vadrocid", "yatrocin")</t>
+    <t xml:space="preserve">acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazol w,furazone,furazyme,furesol,furfurin,furosem,fuvacillin,hemofuran,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nfz mix,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazone,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,sanfuran,vabrocid,vadrocid,yatrocin</t>
   </si>
   <si>
     <t xml:space="preserve">NTR</t>
@@ -3784,7 +3752,7 @@
     <t xml:space="preserve">J01XX07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("galinok", "isinok", "nibiol", "nicene forte", "nitroxolin", "nitroxolina", "nitroxoline", "nitroxolinum", "notroxoline", "noxibiol")</t>
+    <t xml:space="preserve">galinok,isinok,nibiol,nicene forte,nitroxolin,nitroxolina,nitroxoline,nitroxolinum,notroxoline,noxibiol</t>
   </si>
   <si>
     <t xml:space="preserve">NOR</t>
@@ -3793,13 +3761,13 @@
     <t xml:space="preserve">Norfloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA06", "S01AE02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("nor", "norf", "nx", "nxn")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("baccidal", "barazan", "chibroxin", "chibroxine", "chibroxol", "fulgram", "gonorcin", "lexinor", "nolicin", "noracin", "noraxin", "norflo", "norfloxacin", "norfloxacine", "norfloxacino", "norfloxacinum", "norocin", "noroxin", "noroxine", "norxacin", "sebercim", "uroxacin", "utinor", "zoroxin")</t>
+    <t xml:space="preserve">J01MA06,S01AE02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nor,norf,nx,nxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baccidal,barazan,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,nolicin,noracin,noraxin,norflo,norfloxacin,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,sebercim,uroxacin,utinor,zoroxin</t>
   </si>
   <si>
     <t xml:space="preserve">3867-9</t>
@@ -3823,7 +3791,7 @@
     <t xml:space="preserve">novo</t>
   </si>
   <si>
-    <t xml:space="preserve">c("albamix", "albamycin", "cardelmycin", "cathocin", "cathomycin", "crystallinic acid", "inamycin", "novobiocin", "novobiocina", "novobiocine", "novobiocinum", "robiocina", "sirbiocina", "spheromycin", "stilbiocina", "streptonivicin")</t>
+    <t xml:space="preserve">albamix,albamycin,cardelmycin,cathocin,cathomycin,crystallinic acid,inamycin,novobiocin,novobiocina,novobiocine,novobiocinum,robiocina,sirbiocina,spheromycin,stilbiocina,streptonivicin</t>
   </si>
   <si>
     <t xml:space="preserve">17378-1</t>
@@ -3835,13 +3803,13 @@
     <t xml:space="preserve">Nystatin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA02", "D01AA01", "G01AA01")</t>
+    <t xml:space="preserve">A07AA02,D01AA01,G01AA01</t>
   </si>
   <si>
     <t xml:space="preserve">nyst</t>
   </si>
   <si>
-    <t xml:space="preserve">c("biofanal", "candex lotion", "comycin", "diastatin", "herniocid", "moronal", "myconystatin", "mycostatin", "mycostatin pastilles", "mykinac", "mykostatyna", "nilstat", "nistatin", "nistatina", "nyamyc", "nyotran", "nyotrantrade mark", "nystaform", "nystan", "nystatin", "nystatin a", "nystatin g", "nystatin lf", "nystatine", "nystatinum", "nystatyna", "nystavescent", "nystex", "nystop", "stamycin", "terrastatin", "zydin e")</t>
+    <t xml:space="preserve">biofanal,candex lotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatin pastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrade mark,nystaform,nystan,nystatin,nystatin a,nystatin g,nystatin lf,nystatine,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydin e</t>
   </si>
   <si>
     <t xml:space="preserve">OFX</t>
@@ -3850,17 +3818,16 @@
     <t xml:space="preserve">Ofloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01MA01", "S01AE01", "S02AA16")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("of", "ofl", "oflo", "ofx")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bactocin", "danoflox", "effexin", "exocin", "exocine", "flobacin", "flodemex", "flotavid", "flovid", "floxal", "floxil", "floxin", "floxin otic", "floxstat", "fugacin", "inoflox", "kinflocin", "kinoxacin", "levofloxacin hcl", "liflox", "loxinter", "marfloxacin", "medofloxine", "mergexin", "monoflocet", "novecin", "nufafloqo", "occidal", "ocuflox", "oflocee", "oflocet", "oflocin", "oflodal", "oflodex", "oflodura", "ofloxacin", "ofloxacin otic", "ofloxacina", "ofloxacine", "ofloxacino", "ofloxacinum", 
-"ofloxin", "onexacin", "operan", "orocin", "otonil", "oxaldin", "pharflox", "praxin", "puiritol", "qinolon", "quinolon", "quotavil", "sinflo", "tabrin", "taravid", "tariflox", "tarivid", "telbit", "tructum", "uro tarivid", "viotisone", "visiren", "zanocin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25264-3", "3877-8")</t>
+    <t xml:space="preserve">J01MA01,S01AE01,S02AA16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of,ofl,oflo,ofx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bactocin,danoflox,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxin otic,floxstat,fugacin,inoflox,kinflocin,kinoxacin,levofloxacin hcl,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacin,ofloxacin otic,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,uro tarivid,viotisone,visiren,zanocin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25264-3,3877-8</t>
   </si>
   <si>
     <t xml:space="preserve">OLE</t>
@@ -3872,7 +3839,7 @@
     <t xml:space="preserve">J01FA05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amimycin", "landomycin", "matromycin", "oleandomycin a", "romicil")</t>
+    <t xml:space="preserve">amimycin,landomycin,matromycin,oleandomycin a,romicil</t>
   </si>
   <si>
     <t xml:space="preserve">OMC</t>
@@ -3884,7 +3851,7 @@
     <t xml:space="preserve">J01AA15</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amadacycline", "omadacycline")</t>
+    <t xml:space="preserve">amadacycline,omadacycline</t>
   </si>
   <si>
     <t xml:space="preserve">OPT</t>
@@ -3893,7 +3860,7 @@
     <t xml:space="preserve">Optochin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("numoquin", "optochin", "optoquine")</t>
+    <t xml:space="preserve">numoquin,optochin,optoquine</t>
   </si>
   <si>
     <t xml:space="preserve">ORB</t>
@@ -3932,10 +3899,10 @@
     <t xml:space="preserve">Ornidazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("G01AF06", "J01XD03", "P01AB03")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("madelen", "ornidal", "ornidazol", "ornidazole", "ornidazolum", "tiberal")</t>
+    <t xml:space="preserve">G01AF06,J01XD03,P01AB03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madelen,ornidal,ornidazol,ornidazole,ornidazolum,tiberal</t>
   </si>
   <si>
     <t xml:space="preserve">OXA</t>
@@ -3947,13 +3914,13 @@
     <t xml:space="preserve">J01CF04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ox", "oxa", "oxac", "oxal", "oxs")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bactocill", "ossacillina", "oxacilina", "oxacillin", "oxacillin sodium", "oxacilline", "oxacillinum", "oxazocillin", "oxazocilline", "prostaphlin", "prostaphlyn", "sodium oxacillin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25265-0", "3882-8")</t>
+    <t xml:space="preserve">ox,oxa,oxac,oxal,oxs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bactocill,ossacillina,oxacilina,oxacillin,oxacillin sodium,oxacilline,oxacillinum,oxazocillin,oxazocilline,prostaphlin,prostaphlyn,sodium oxacillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25265-0,3882-8</t>
   </si>
   <si>
     <t xml:space="preserve">OXO</t>
@@ -3965,7 +3932,7 @@
     <t xml:space="preserve">J01MB05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acide oxolinique", "acido ossolico", "acido oxolinico", "acidum oxolinicum", "aqualinic", "cistopax", "dioxacin", "emyrenil", "gramurin", "inoxyl", "nidantin", "oksaren", "orthurine", "ossian", "oxoboi", "oxolinic", "oxolinic acid", "pietil", "prodoxal", "prodoxol", "starner", "tiurasin", "ultibid", "urinox", "uritrate", "urotrate", "uroxol", "utibid")</t>
+    <t xml:space="preserve">acide oxolinique,acido ossolico,acido oxolinico,acidum oxolinicum,aqualinic,cistopax,dioxacin,emyrenil,gramurin,inoxyl,nidantin,oksaren,orthurine,ossian,oxoboi,oxolinic,oxolinic acid,pietil,prodoxal,prodoxol,starner,tiurasin,ultibid,urinox,uritrate,urotrate,uroxol,utibid</t>
   </si>
   <si>
     <t xml:space="preserve">OXY</t>
@@ -3974,14 +3941,13 @@
     <t xml:space="preserve">Oxytetracycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06AA03", "G01AA07", "J01AA06", "S01AA04")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("adamycin", "berkmycen", "biostat", "biostat pa", "dabicycline", "dalimycin", "embryostat", "fanterrin", "galsenomycin", "geomycin", "geotilin", "hydroxytetracyclinum", "imperacin", "lenocycline", "macocyn", "medamycin", "mepatar", "oksisyklin", "ossitetraciclina", "oxacycline", "oxitetraciclina", "oxitetracyclin", "oxitetracycline", "oxitetracyclinum", "oxydon", "oxymycin", "oxymykoin", "oxypam", "oxysteclin", "oxyterracin", "oxyterracine", "oxyterracyne", "oxytetracid", "oxytetracyclin", "oxytetracycline", 
-"oxytetracycline base", "oxytetracyclinum", "proteroxyna", "riomitsin", "ryomycin", "solkaciclina", "stecsolin", "stevacin", "tarocyn", "tarosin", "teravit", "terrafungine", "terramitsin", "terramycin", "terramycin im", "tetran", "unimycin", "ursocyclin", "ursocycline", "vendarcin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("17396-3", "25266-8", "87595-5")</t>
+    <t xml:space="preserve">D06AA03,G01AA07,J01AA06,S01AA04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamycin,berkmycen,biostat,biostat pa,dabicycline,dalimycin,embryostat,fanterrin,galsenomycin,geomycin,geotilin,hydroxytetracyclinum,imperacin,lenocycline,macocyn,medamycin,mepatar,oksisyklin,ossitetraciclina,oxacycline,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxydon,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytetracid,oxytetracyclin,oxytetracycline,oxytetracycline base,oxytetracyclinum,proteroxyna,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,tarocyn,tarosin,teravit,terrafungine,terramitsin,terramycin,terramycin im,tetran,unimycin,ursocyclin,ursocycline,vendarcin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17396-3,25266-8,87595-5</t>
   </si>
   <si>
     <t xml:space="preserve">OZN</t>
@@ -4002,7 +3968,7 @@
     <t xml:space="preserve">Panipenem</t>
   </si>
   <si>
-    <t xml:space="preserve">c("panipenem", "panipenemum", "penipanem")</t>
+    <t xml:space="preserve">panipenem,panipenemum,penipanem</t>
   </si>
   <si>
     <t xml:space="preserve">PAR</t>
@@ -4014,7 +3980,7 @@
     <t xml:space="preserve">A07AA06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aminosidin", "aminosidine", "aminosidine i", "aminosidine sulfate", "amminosidin", "crestomycin", "estomycin", "gabbromicina", "gabbromycin", "gabromycin", "humatin", "humycin", "hydroxymycin", "hydroxymycin sulfate", "monomycin", "monomycin a", "neomycin e", "paramomycin", "paramomycin sulfate", "paromomicina", "paromomycin", "paromomycin i", "paromomycine", "paromomycinum", "paucimycin", "paucimycinum", "quintomycin c")</t>
+    <t xml:space="preserve">aminosidin,aminosidine,aminosidine i,aminosidine sulfate,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,hydroxymycin sulfate,monomycin,monomycin a,neomycin e,paramomycin,paramomycin sulfate,paromomicina,paromomycin,paromomycin i,paromomycine,paromomycinum,paucimycin,paucimycinum,quintomycin c</t>
   </si>
   <si>
     <t xml:space="preserve">PAZ</t>
@@ -4026,7 +3992,7 @@
     <t xml:space="preserve">J01MA18</t>
   </si>
   <si>
-    <t xml:space="preserve">c("pazufloxacin", "pazufloxacine", "pazufloxacino", "pazufloxacinum")</t>
+    <t xml:space="preserve">pazufloxacin,pazufloxacine,pazufloxacino,pazufloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">PEF</t>
@@ -4038,10 +4004,10 @@
     <t xml:space="preserve">J01MA03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "pefl")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abactal", "labocton", "pefloxacin", "pefloxacine", "pefloxacino", "pefloxacinum", "perfloxacin", "silver pefloxacin")</t>
+    <t xml:space="preserve">,pefl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abactal,labocton,pefloxacin,pefloxacine,pefloxacino,pefloxacinum,perfloxacin,silver pefloxacin</t>
   </si>
   <si>
     <t xml:space="preserve">3906-5</t>
@@ -4056,7 +4022,7 @@
     <t xml:space="preserve">J01CE06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("hydroxymethyl", "penamecilina", "penamecillin", "penamecillina", "penamecilline", "penamecillinum")</t>
+    <t xml:space="preserve">hydroxymethyl,penamecilina,penamecillin,penamecillina,penamecilline,penamecillinum</t>
   </si>
   <si>
     <t xml:space="preserve">PNO</t>
@@ -4080,7 +4046,7 @@
     <t xml:space="preserve">J01AA10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("duamine", "hydrocycline", "penetracyne", "penimepiciclina", "penimepicycline", "penimepicyclinum")</t>
+    <t xml:space="preserve">duamine,hydrocycline,penetracyne,penimepiciclina,penimepicycline,penimepicyclinum</t>
   </si>
   <si>
     <t xml:space="preserve">PIM</t>
@@ -4089,7 +4055,7 @@
     <t xml:space="preserve">Pentisomicin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("pentisomicin", "pentisomicina", "pentisomicine", "pentisomicinum")</t>
+    <t xml:space="preserve">pentisomicin,pentisomicina,pentisomicine,pentisomicinum</t>
   </si>
   <si>
     <t xml:space="preserve">PTZ</t>
@@ -4116,10 +4082,10 @@
     <t xml:space="preserve">J01CE05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "fene")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("feneticilina", "feneticillina", "feneticilline", "k phenethicillin", "phenethicilin", "phenethicillinum", "pheneticillin", "pheneticilline", "pheneticillinum", "phenoxy pc", "potassium penicillin")</t>
+    <t xml:space="preserve">,fene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feneticilina,feneticillina,feneticilline,k phenethicillin,phenethicilin,phenethicillinum,pheneticillin,pheneticilline,pheneticillinum,phenoxy pc,potassium penicillin</t>
   </si>
   <si>
     <t xml:space="preserve">41471-4</t>
@@ -4134,10 +4100,10 @@
     <t xml:space="preserve">J01CE02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fepe", "peni v", "penicillin v", "pnv", "pv")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acipen v", "apocillin", "apopen", "beromycin", "calcipen", "compocillin v", "crystapen v", "distaquaine v", "eskacillian v", "eskacillin v", "fenacilin", "fenospen", "meropenin", "oracillin", "oratren", "penicillin v", "phenocillin", "phenomycilline", "phenopenicillin", "robicillin", "rocilin", "stabicillin", "vebecillin", "veetids", "vegacillin")</t>
+    <t xml:space="preserve">fepe,peni v,penicillin v,pnv,pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acipen v,apocillin,apopen,beromycin,calcipen,compocillin v,crystapen v,distaquaine v,eskacillian v,eskacillin v,fenacilin,fenospen,meropenin,oracillin,oratren,penicillin v,phenocillin,phenomycilline,phenopenicillin,robicillin,rocilin,stabicillin,vebecillin,veetids,vegacillin</t>
   </si>
   <si>
     <t xml:space="preserve">PMR</t>
@@ -4146,10 +4112,10 @@
     <t xml:space="preserve">Pimaricin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "natamycin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("delvocid", "mycophyt", "myprozine", "natacyn", "natamicina", "natamycin", "natamycine", "natamycinum", "pimafucin", "pimaracin", "pimarizin", "synogil", "tennecetin")</t>
+    <t xml:space="preserve">,natamycin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delvocid,mycophyt,myprozine,natacyn,natamicina,natamycin,natamycine,natamycinum,pimafucin,pimaracin,pimarizin,synogil,tennecetin</t>
   </si>
   <si>
     <t xml:space="preserve">PPA</t>
@@ -4161,10 +4127,10 @@
     <t xml:space="preserve">J01MB04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("pipz", "pizu")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("acide pipemidique", "acido pipemidico", "acidum pipemidicum", "deblaston", "dolcol", "pipedac", "pipemid", "pipemidic", "pipemidic acid", "pipemidicacid", "pipram", "uromidin")</t>
+    <t xml:space="preserve">pipz,pizu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acide pipemidique,acido pipemidico,acidum pipemidicum,deblaston,dolcol,pipedac,pipemid,pipemidic,pipemidic acid,pipemidicacid,pipram,uromidin</t>
   </si>
   <si>
     <t xml:space="preserve">PIP</t>
@@ -4176,13 +4142,13 @@
     <t xml:space="preserve">J01CA12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("pi", "pip", "pipc", "pipe", "pp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("isipen", "pentcillin", "peperacillin", "peracin", "piperacilina", "piperacillin", "piperacillin na", "piperacillin sodium", "piperacilline", "piperacillinum", "pipercillin", "pipracil", "pipril")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25268-4", "3972-7")</t>
+    <t xml:space="preserve">pi,pip,pipc,pipe,pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isipen,pentcillin,peperacillin,peracin,piperacilina,piperacillin,piperacillin na,piperacillin sodium,piperacilline,piperacillinum,pipercillin,pipracil,pipril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25268-4,3972-7</t>
   </si>
   <si>
     <t xml:space="preserve">PIS</t>
@@ -4200,10 +4166,10 @@
     <t xml:space="preserve">J01CR05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("p/t", "piptaz", "piptazo", "pit", "pita", "pt", "ptc", "ptz", "tzp")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("", "tazocel", "tazocillin", "tazocin", "zosyn")</t>
+    <t xml:space="preserve">p/t,piptaz,piptazo,pit,pita,pt,ptc,ptz,tzp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,tazocel,tazocillin,tazocin,zosyn</t>
   </si>
   <si>
     <t xml:space="preserve">PRC</t>
@@ -4221,7 +4187,7 @@
     <t xml:space="preserve">Pirlimycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("pirlimycin", "pirlimycina", "pirlimycine", "pirlimycinum", "pirsue")</t>
+    <t xml:space="preserve">pirlimycin,pirlimycina,pirlimycine,pirlimycinum,pirsue</t>
   </si>
   <si>
     <t xml:space="preserve">PIR</t>
@@ -4233,7 +4199,7 @@
     <t xml:space="preserve">J01MB03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acide piromidique", "acido piromidico", "acidum piromidicum", "actrun c", "bactramyl", "enterol", "gastrurol", "panacid", "pirodal", "piromidic acid", "pyrido", "reelon", "septural", "urisept", "uropir", "zaomeal")</t>
+    <t xml:space="preserve">acide piromidique,acido piromidico,acidum piromidicum,actrun c,bactramyl,enterol,gastrurol,panacid,pirodal,piromidic acid,pyrido,reelon,septural,urisept,uropir,zaomeal</t>
   </si>
   <si>
     <t xml:space="preserve">PVM</t>
@@ -4245,7 +4211,7 @@
     <t xml:space="preserve">J01CA02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("berocillin", "pivaloylampicillin", "pivampicilina", "pivampicillin", "pivampicilline", "pivampicillinum", "pondocillin")</t>
+    <t xml:space="preserve">berocillin,pivaloylampicillin,pivampicilina,pivampicillin,pivampicilline,pivampicillinum,pondocillin</t>
   </si>
   <si>
     <t xml:space="preserve">PME</t>
@@ -4257,7 +4223,7 @@
     <t xml:space="preserve">J01CA08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amdinocillin pivoxil", "coactabs", "hydroxymethyl", "pivmecilinamo", "pivmecillinam", "pivmecillinam hcl", "pivmecillinamum")</t>
+    <t xml:space="preserve">amdinocillin pivoxil,coactabs,hydroxymethyl,pivmecilinamo,pivmecillinam,pivmecillinam hcl,pivmecillinamum</t>
   </si>
   <si>
     <t xml:space="preserve">PLZ</t>
@@ -4281,16 +4247,16 @@
     <t xml:space="preserve">Polymyxin B</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA05", "J01XB02", "S01AA18", "S02AA11", "S03AA03")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("pb", "pol", "polb", "poly", "poly b", "polymixin", "polymixin b")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("polimixina b", "polumyxin b", "polymixin b", "polymyxine b")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("17473-0", "25269-2")</t>
+    <t xml:space="preserve">A07AA05,J01XB02,S01AA18,S02AA11,S03AA03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pb,pol,polb,poly,poly b,polymixin,polymixin b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polimixina b,polumyxin b,polymixin b,polymyxine b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17473-0,25269-2</t>
   </si>
   <si>
     <t xml:space="preserve">POP</t>
@@ -4311,10 +4277,10 @@
     <t xml:space="preserve">posa</t>
   </si>
   <si>
-    <t xml:space="preserve">c("noxafil", "posaconazole", "posaconazole sp", "posconazole")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("53731-6", "80545-7")</t>
+    <t xml:space="preserve">noxafil,posaconazole,posaconazole sp,posconazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53731-6,80545-7</t>
   </si>
   <si>
     <t xml:space="preserve">PRA</t>
@@ -4362,10 +4328,10 @@
     <t xml:space="preserve">Streptogramins</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "pris")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("eskalin v", "mikamycin", "mikamycine", "mikamycinum", "ostreogrycinum", "pristinamycine", "pristinamycinum", "stafac", "stafytracine", "staphylomycin", "starfac", "streptogramin", "vernamycin", "virgimycin", "virgimycine", "virginiamycina", "virginiamycine", "virginiamycinum")</t>
+    <t xml:space="preserve">,pris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eskalin v,mikamycin,mikamycine,mikamycinum,ostreogrycinum,pristinamycine,pristinamycinum,stafac,stafytracine,staphylomycin,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamycina,virginiamycine,virginiamycinum</t>
   </si>
   <si>
     <t xml:space="preserve">PRB</t>
@@ -4377,7 +4343,7 @@
     <t xml:space="preserve">J01CE09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("depocillin", "duphapen", "hostacillin", "hydracillin", "jenacillin o", "nopcaine", "penicillin procaine", "retardillin", "vetspen", "vitablend")</t>
+    <t xml:space="preserve">depocillin,duphapen,hostacillin,hydracillin,jenacillin o,nopcaine,penicillin procaine,retardillin,vetspen,vitablend</t>
   </si>
   <si>
     <t xml:space="preserve">PRP</t>
@@ -4389,7 +4355,7 @@
     <t xml:space="preserve">J01CE03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("propicilina", "propicillin", "propicilline", "propicillinum")</t>
+    <t xml:space="preserve">propicilina,propicillin,propicilline,propicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">PKA</t>
@@ -4398,7 +4364,7 @@
     <t xml:space="preserve">Propikacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("propikacin", "propikacina", "propikacine", "propikacinum")</t>
+    <t xml:space="preserve">propikacin,propikacina,propikacine,propikacinum</t>
   </si>
   <si>
     <t xml:space="preserve">PTH</t>
@@ -4413,7 +4379,7 @@
     <t xml:space="preserve">prot</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ektebin", "peteha", "prothionamide", "prothionamidum", "protion", "protionamid", "protionamida", "protionamide", "protionamidum", "protionizina", "tebeform", "trevintix", "tuberex")</t>
+    <t xml:space="preserve">ektebin,peteha,prothionamide,prothionamidum,protion,protionamid,protionamida,protionamide,protionamidum,protionizina,tebeform,trevintix,tuberex</t>
   </si>
   <si>
     <t xml:space="preserve">PRU</t>
@@ -4425,7 +4391,7 @@
     <t xml:space="preserve">J01MA17</t>
   </si>
   <si>
-    <t xml:space="preserve">c("prulifloxacin", "pruvel", "pufloxacin dioxolil", "quisnon")</t>
+    <t xml:space="preserve">prulifloxacin,pruvel,pufloxacin dioxolil,quisnon</t>
   </si>
   <si>
     <t xml:space="preserve">PZA</t>
@@ -4440,11 +4406,10 @@
     <t xml:space="preserve">pyra</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aldinamid", "aldinamide", "braccopiral", "corsazinmid", "dipimide", "eprazin", "farmizina", "isopas", "lynamide", "novamid", "p ezetamid", "pezetamid", "pharozinamide", "piraldina", "pirazimida", "pirazinamid", "pirazinamida", "pirazinamide", "prazina", "pyrafat", "pyramide", "pyrazide", "pyrazinamdie", "pyrazinamid", "pyrazinamide", "pyrazinamidum", "pyrazine carboxamide", "pyrazineamide", "pyrizinamide", "rifafour", "rozide", "tebrazid", "tebrazio", "tisamid", "unipyranamide", "zinamide", "zinastat"
-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("11001-5", "25270-0")</t>
+    <t xml:space="preserve">aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,p ezetamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamide,pyrazinamidum,pyrazine carboxamide,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11001-5,25270-0</t>
   </si>
   <si>
     <t xml:space="preserve">QDA</t>
@@ -4456,7 +4421,7 @@
     <t xml:space="preserve">J01FG02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("q/d", "qda", "qida", "quda", "rp", "syn")</t>
+    <t xml:space="preserve">q/d,qda,qida,quda,rp,syn</t>
   </si>
   <si>
     <t xml:space="preserve">RAC</t>
@@ -4465,7 +4430,7 @@
     <t xml:space="preserve">Ractopamine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ractopamina", "ractopamine", "ractopaminum")</t>
+    <t xml:space="preserve">ractopamina,ractopamine,ractopaminum</t>
   </si>
   <si>
     <t xml:space="preserve">RAM</t>
@@ -4501,10 +4466,10 @@
     <t xml:space="preserve">Other antibiotics for topical use</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "ret")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("altabax", "altargo", "retapamulin")</t>
+    <t xml:space="preserve">,ret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altabax,altargo,retapamulin</t>
   </si>
   <si>
     <t xml:space="preserve">RZF</t>
@@ -4525,7 +4490,7 @@
     <t xml:space="preserve">ribo</t>
   </si>
   <si>
-    <t xml:space="preserve">c("kisqali", "ribociclib")</t>
+    <t xml:space="preserve">kisqali,ribociclib</t>
   </si>
   <si>
     <t xml:space="preserve">RST</t>
@@ -4537,7 +4502,7 @@
     <t xml:space="preserve">J01GB10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dekamycin iv", "hetangmycin", "ribastamin", "ribostamicina", "ribostamycin", "ribostamycine", "ribostamycinum", "vistamycin", "xylostatin")</t>
+    <t xml:space="preserve">dekamycin iv,hetangmycin,ribastamin,ribostamicina,ribostamycin,ribostamycine,ribostamycinum,vistamycin,xylostatin</t>
   </si>
   <si>
     <t xml:space="preserve">RID1</t>
@@ -4561,7 +4526,7 @@
     <t xml:space="preserve">rifb</t>
   </si>
   <si>
-    <t xml:space="preserve">c("alfacid", "ansamicin", "ansamycin", "ansatipin", "ansatipine", "mycobutin", "rifabutin", "rifabutina", "rifabutine", "rifabutinum")</t>
+    <t xml:space="preserve">alfacid,ansamicin,ansamycin,ansatipin,ansatipine,mycobutin,rifabutin,rifabutina,rifabutine,rifabutinum</t>
   </si>
   <si>
     <t xml:space="preserve">24032-5</t>
@@ -4579,8 +4544,7 @@
     <t xml:space="preserve">rifa</t>
   </si>
   <si>
-    <t xml:space="preserve">c("abrifam", "archidyn", "arficin", "arzide", "azt + rifampin", "benemicin", "benemycin", "dipicin", "doloresum", "eremfat", "famcin", "fenampicin", "rifadin", "rifadin i.v", "rifadin i.v.", "rifadine", "rifagen", "rifaldazin", "rifaldazine", "rifaldin", "rifamate", "rifamicin amp", "rifamor", "rifampicin", "rifampicin sv", "rifampicina", "rifampicine", "rifampicinum", "rifampin", "rifamsolin", "rifamycin amp", "rifaprodin", "rifcin", "rifobac", "rifoldin", "rifoldine", "riforal", "rimactan", "rimactane", 
-"rimactizid", "rimazid", "rimycin", "sinerdol", "tubocin")</t>
+    <t xml:space="preserve">abrifam,archidyn,arficin,arzide,azt + rifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadin i.v,rifadin i.v.,rifadine,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicin amp,rifamor,rifampicin,rifampicin sv,rifampicina,rifampicine,rifampicinum,rifampin,rifamsolin,rifamycin amp,rifaprodin,rifcin,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
   </si>
   <si>
     <t xml:space="preserve">RFI</t>
@@ -4592,7 +4556,7 @@
     <t xml:space="preserve">J04AM02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("rifinah", "rimactazid")</t>
+    <t xml:space="preserve">rifinah,rimactazid</t>
   </si>
   <si>
     <t xml:space="preserve">RPEI</t>
@@ -4619,10 +4583,10 @@
     <t xml:space="preserve">Rifamycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA13", "D06AX15", "J04AB03", "S01AA16", "S02AA12")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("aemcolo", "rifacin", "rifamicina", "rifamicine sv", "rifamycin", "rifamycine", "rifamycinum", "rifocin", "rifocyn", "rifomycin", "rifomycin sv", "tuborin")</t>
+    <t xml:space="preserve">A07AA13,D06AX15,J04AB03,S01AA16,S02AA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aemcolo,rifacin,rifamicina,rifamicine sv,rifamycin,rifamycine,rifamycinum,rifocin,rifocyn,rifomycin,rifomycin sv,tuborin</t>
   </si>
   <si>
     <t xml:space="preserve">RFP</t>
@@ -4634,10 +4598,10 @@
     <t xml:space="preserve">J04AB05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("rifp", "rpt")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cyclopentyl rifampin", "priftin", "rifapentin", "rifapentina", "rifapentine", "rifapentinum")</t>
+    <t xml:space="preserve">rifp,rpt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cyclopentyl rifampin,priftin,rifapentin,rifapentina,rifapentine,rifapentinum</t>
   </si>
   <si>
     <t xml:space="preserve">RFX</t>
@@ -4646,13 +4610,13 @@
     <t xml:space="preserve">Rifaximin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA11", "D06AX11")</t>
+    <t xml:space="preserve">A07AA11,D06AX11</t>
   </si>
   <si>
     <t xml:space="preserve">Intestinal antiinfectives</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fatroximin", "flonorm", "lormyx", "lumenax", "normix", "redactiv", "rifacol", "rifamixin", "rifaxidin", "rifaximin", "rifaximina", "rifaximine", "rifaximinum", "rifaxin", "ritacol", "spiraxin", "xifaxan", "xifaxsan")</t>
+    <t xml:space="preserve">fatroximin,flonorm,lormyx,lumenax,normix,redactiv,rifacol,rifamixin,rifaxidin,rifaximin,rifaximina,rifaximine,rifaximinum,rifaxin,ritacol,spiraxin,xifaxan,xifaxsan</t>
   </si>
   <si>
     <t xml:space="preserve">RIT</t>
@@ -4682,7 +4646,7 @@
     <t xml:space="preserve">J01FA12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("propionylleucomycin", "ricamycin", "rokicid", "rokital", "rokitamicina", "rokitamycin", "rokitamycine", "rokitamycinum")</t>
+    <t xml:space="preserve">propionylleucomycin,ricamycin,rokicid,rokital,rokitamicina,rokitamycin,rokitamycine,rokitamycinum</t>
   </si>
   <si>
     <t xml:space="preserve">RLT</t>
@@ -4694,7 +4658,7 @@
     <t xml:space="preserve">J01AA09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bristacin", "kinteto", "reverin", "rolitetraciclina", "rolitetracycline", "rolitetracyclinum", "solvocillin", "superciclin", "synotodecin", "synterin", "syntetrex", "syntetrin", "velacicline", "velacycline")</t>
+    <t xml:space="preserve">bristacin,kinteto,reverin,rolitetraciclina,rolitetracycline,rolitetracyclinum,solvocillin,superciclin,synotodecin,synterin,syntetrex,syntetrin,velacicline,velacycline</t>
   </si>
   <si>
     <t xml:space="preserve">ROS</t>
@@ -4706,7 +4670,7 @@
     <t xml:space="preserve">J01MB01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acrosoxacin", "eracine", "eradacil", "eradacin", "rosoxacin", "rosoxacine", "rosoxacino", "rosoxacinum", "roxadyl", "winuron")</t>
+    <t xml:space="preserve">acrosoxacin,eracine,eradacil,eradacin,rosoxacin,rosoxacine,rosoxacino,rosoxacinum,roxadyl,winuron</t>
   </si>
   <si>
     <t xml:space="preserve">RXT</t>
@@ -4730,7 +4694,7 @@
     <t xml:space="preserve">J01MA10</t>
   </si>
   <si>
-    <t xml:space="preserve">c("rufloxacin", "rufloxacin hcl", "rufloxacine", "rufloxacino", "rufloxacinum")</t>
+    <t xml:space="preserve">rufloxacin,rufloxacin hcl,rufloxacine,rufloxacino,rufloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">SAL</t>
@@ -4739,7 +4703,7 @@
     <t xml:space="preserve">Salinomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("coxistac", "procoxacin", "salinomicina", "salinomycin", "salinomycine", "salinomycinum")</t>
+    <t xml:space="preserve">coxistac,procoxacin,salinomicina,salinomycin,salinomycine,salinomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">87593-0</t>
@@ -4751,7 +4715,7 @@
     <t xml:space="preserve">Sarafloxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("difloxacine", "difloxacino", "difloxacinum", "saraflox", "sarafloxacin", "sarafloxacine", "sarafloxacino", "sarafloxacinum")</t>
+    <t xml:space="preserve">difloxacine,difloxacino,difloxacinum,saraflox,sarafloxacin,sarafloxacine,sarafloxacino,sarafloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">SRX</t>
@@ -4772,7 +4736,7 @@
     <t xml:space="preserve">P01AB07</t>
   </si>
   <si>
-    <t xml:space="preserve">c("flagentyl", "secnidal", "secnidazol", "secnidazole", "secnidazolum", "secnil", "sindose", "solosec")</t>
+    <t xml:space="preserve">flagentyl,secnidal,secnidazol,secnidazole,secnidazolum,secnil,sindose,solosec</t>
   </si>
   <si>
     <t xml:space="preserve">SMF</t>
@@ -4799,7 +4763,7 @@
     <t xml:space="preserve">siso</t>
   </si>
   <si>
-    <t xml:space="preserve">c("rickamicin", "salvamina", "siseptin sulfate", "sisomicin", "sisomicin sulfate", "sisomicina", "sisomicine", "sisomicinum", "sisomin", "sisomycin", "sissomicin", "sizomycin")</t>
+    <t xml:space="preserve">rickamicin,salvamina,siseptin sulfate,sisomicin,sisomicin sulfate,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
   </si>
   <si>
     <t xml:space="preserve">SIT</t>
@@ -4811,7 +4775,7 @@
     <t xml:space="preserve">J01MA21</t>
   </si>
   <si>
-    <t xml:space="preserve">c("gracevit", "sitafloxacinisomer")</t>
+    <t xml:space="preserve">gracevit,sitafloxacinisomer</t>
   </si>
   <si>
     <t xml:space="preserve">SDA</t>
@@ -4823,7 +4787,7 @@
     <t xml:space="preserve">J04AA02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bactylan", "decapasil", "lepasen", "monopas", "nippas", "p.a.s. sodium", "pamisyl sodium", "parasal sodium", "pas sodium", "pasade", "pasnal", "passodico", "salvis", "sanipirol", "sodiopas", "sodium p.a.s", "sodium pas", "teebacin", "tubersan")</t>
+    <t xml:space="preserve">bactylan,decapasil,lepasen,monopas,nippas,p.a.s. sodium,pamisyl sodium,parasal sodium,pas sodium,pasade,pasnal,passodico,salvis,sanipirol,sodiopas,sodium p.a.s,sodium pas,teebacin,tubersan</t>
   </si>
   <si>
     <t xml:space="preserve">SOL</t>
@@ -4844,10 +4808,10 @@
     <t xml:space="preserve">J01MA09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "spa", "spar")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("esparfloxacino", "sparfloxacin", "sparfloxacine", "sparfloxacinum")</t>
+    <t xml:space="preserve">,spa,spar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esparfloxacino,sparfloxacin,sparfloxacine,sparfloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">SPT</t>
@@ -4859,10 +4823,10 @@
     <t xml:space="preserve">J01XX04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sc", "spe", "spec", "spt")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("actinospectacina", "adspec", "espectinomicina", "prospec", "specitinomycin", "spectam", "spectinomicina", "spectinomycin", "spectinomycin di hcl", "spectinomycine", "spectinomycinum", "stanilo", "togamycin", "trobicin")</t>
+    <t xml:space="preserve">sc,spe,spec,spt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actinospectacina,adspec,espectinomicina,prospec,specitinomycin,spectam,spectinomicina,spectinomycin,spectinomycin di hcl,spectinomycine,spectinomycinum,stanilo,togamycin,trobicin</t>
   </si>
   <si>
     <t xml:space="preserve">SPI</t>
@@ -4874,10 +4838,10 @@
     <t xml:space="preserve">J01FA02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "spir")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("espiramicin", "provamycin", "rovamycin", "rovamycine", "sequamycin", "spiramycine", "spiramycinum")</t>
+    <t xml:space="preserve">,spir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">espiramicin,provamycin,rovamycin,rovamycine,sequamycin,spiramycine,spiramycinum</t>
   </si>
   <si>
     <t xml:space="preserve">SPM</t>
@@ -4907,13 +4871,13 @@
     <t xml:space="preserve">Streptomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA04", "J01GA01")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("s", "stm", "str", "stre")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("agrept", "agrimycin", "chemform", "estreptomicina", "neodiestreptopab", "strepcen", "streptomicina", "streptomycin", "streptomycin a", "streptomycin spx", "streptomycin sulfate", "streptomycine", "streptomyzin", "vetstrep")</t>
+    <t xml:space="preserve">A07AA04,J01GA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s,stm,str,stre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrept,agrimycin,chemform,estreptomicina,neodiestreptopab,strepcen,streptomicina,streptomycin,streptomycin a,streptomycin spx,streptomycin sulfate,streptomycine,streptomyzin,vetstrep</t>
   </si>
   <si>
     <t xml:space="preserve">4039-4</t>
@@ -4925,7 +4889,7 @@
     <t xml:space="preserve">Streptomycin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sthi", "sthl", "strepto high", "streptomycin high")</t>
+    <t xml:space="preserve">sthi,sthl,strepto high,streptomycin high</t>
   </si>
   <si>
     <t xml:space="preserve">STI</t>
@@ -4949,7 +4913,7 @@
     <t xml:space="preserve">Beta-lactamase inhibitors</t>
   </si>
   <si>
-    <t xml:space="preserve">c("betamaze", "sulbactam", "sulbactam acid", "sulbactam free acid", "sulbactamum")</t>
+    <t xml:space="preserve">betamaze,sulbactam,sulbactam acid,sulbactam free acid,sulbactamum</t>
   </si>
   <si>
     <t xml:space="preserve">SBC</t>
@@ -4961,7 +4925,7 @@
     <t xml:space="preserve">J01CA16</t>
   </si>
   <si>
-    <t xml:space="preserve">c("kedacillina", "sulbenicilina", "sulbenicilline", "sulbenicillinum")</t>
+    <t xml:space="preserve">kedacillina,sulbenicilina,sulbenicilline,sulbenicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">SUC</t>
@@ -4973,7 +4937,7 @@
     <t xml:space="preserve">D01AC09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sulconazol", "sulconazole", "sulconazolum")</t>
+    <t xml:space="preserve">sulconazol,sulconazole,sulconazolum</t>
   </si>
   <si>
     <t xml:space="preserve">SUP</t>
@@ -4982,7 +4946,7 @@
     <t xml:space="preserve">Sulfachlorpyridazine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cluricol", "cosulid", "cosumix", "durasulf", "nefrosul", "nsulfanilamide", "prinzone vet", "prinzone vet.", "solfaclorpiridazina", "sonilyn", "sulfachlorpyridazine", "sulfacloropiridazina", "vetisulid")</t>
+    <t xml:space="preserve">cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone vet,prinzone vet.,solfaclorpiridazina,sonilyn,sulfachlorpyridazine,sulfacloropiridazina,vetisulid</t>
   </si>
   <si>
     <t xml:space="preserve">SDI</t>
@@ -4997,11 +4961,10 @@
     <t xml:space="preserve">Intermediate-acting sulfonamides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("adiazin", "adiazine", "cocodiazine", "codiazine", "cremodiazine", "cremotres", "debenal", "deltazina", "diazin", "diazolone", "diazovit", "diazyl", "eskadiazine", "honey diazine", "liquadiazine", "microsulfon", "neazine", "neotrizine", "nsulfanilamide", "palatrize", "piridisir", "pirimal", "pyrimal", "quadetts", "quadramoid", "sanodiazine", "sildaflo", "silvadene", "solfadiazina", "spofadrizine", "sterazine", "sulfacombin", "sulfadiazene", "sulfadiazin", "sulfadiazina", "sulfadiazine", "sulfadiazinum", 
-"sulfapirimidin", "sulfapyrimidin", "sulfapyrimidine", "sulfatryl", "sulfazine", "sulfolex", "sulfonamides duplex", "sulfonsol", "sulfose", "sulphadiazine", "sulphadiazine e", "terfonyl", "theradiazine", "thermazene", "trifonamide", "triple sulfa", "triple sulfas", "trisem", "truozine", "zinc sulfadiazine")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("27216-1", "59742-7", "6907-0")</t>
+    <t xml:space="preserve">adiazin,adiazine,cocodiazine,codiazine,cremodiazine,cremotres,debenal,deltazina,diazin,diazolone,diazovit,diazyl,eskadiazine,honey diazine,liquadiazine,microsulfon,neazine,neotrizine,nsulfanilamide,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,sildaflo,silvadene,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazine,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonamides duplex,sulfonsol,sulfose,sulphadiazine,sulphadiazine e,terfonyl,theradiazine,thermazene,trifonamide,triple sulfa,triple sulfas,trisem,truozine,zinc sulfadiazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27216-1,59742-7,6907-0</t>
   </si>
   <si>
     <t xml:space="preserve">SLT</t>
@@ -5025,7 +4988,7 @@
     <t xml:space="preserve">J01EE02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("antastmon", "cotrimazine", "diaziprim forte", "ditrim", "ditrivet", "sultrisan", "triglobe", "trimin", "tucoprim", "uniprim")</t>
+    <t xml:space="preserve">antastmon,cotrimazine,diaziprim forte,ditrim,ditrivet,sultrisan,triglobe,trimin,tucoprim,uniprim</t>
   </si>
   <si>
     <t xml:space="preserve">SUD</t>
@@ -5040,8 +5003,7 @@
     <t xml:space="preserve">Long-acting sulfonamides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("agribon", "arnosulfan", "bactrovet", "deposul", "diasulfa", "diasulfyl", "dimetazina", "dinosol", "dorisul", "lasibon", "madribon", "madrigid", "madriqid", "madroxin", "madroxine", "maxulvet", "mecozine", "memcozine", "metoxidon", "neostrepal", "neostreptal", "nsulfanilamide", "omnibon", "persulfen", "primor", "radonin", "redifal", "rofenaid", "roscosulf", "scandisil", "solfadimetossina", "sudine", "suldixine", "sulfabon", "sulfadimethoxin", "sulfadimethoxine", "sulfadimethoxinum", "sulfadimetossina", 
-"sulfadimetoxin", "sulfadimetoxina", "sulfadimetoxine", "sulfastop", "sulfdimethoxine", "sulfoplan", "sulphadimethoxine", "sulxin", "sumbio", "symbio", "theracanzan", "ultrasulfon")</t>
+    <t xml:space="preserve">agribon,arnosulfan,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamide,omnibon,persulfen,primor,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxine,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfastop,sulfdimethoxine,sulfoplan,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
   </si>
   <si>
     <t xml:space="preserve">SDM</t>
@@ -5056,8 +5018,7 @@
     <t xml:space="preserve">Short-acting sulfonamides</t>
   </si>
   <si>
-    <t xml:space="preserve">c("azolmetazin", "benzene sulfonamide", "calfspan", "calfspan tablets", "cremomethazine", "diazil", "diazilsulfadine", "dimezathine", "intradine", "kelametazine", "mermeth", "metazin", "neasina", "neazina", "nsulfanilamide", "panazin", "pirmazin", "primazin", "sa iii", "solfadimidina", "spanbolet", "sulfadimerazine", "sulfadimesin", "sulfadimesine", "sulfadimethyldiazine", "sulfadimezin", "sulfadimezine", "sulfadimezinum", "sulfadimidin", "sulfadimidina", "sulfadimidine", "sulfadimidinum", "sulfadine", 
-"sulfametazina", "sulfametazyny", "sulfamethazine", "sulfamethiazine", "sulfamezathine", "sulfamidine", "sulfasure sr bolus", "sulfodimesin", "sulfodimezine", "sulka k boluses", "sulka s boluses", "sulmet", "sulphadimidine", "sulphamethasine", "sulphamethazine", "sulphamezathine", "sulphamidine", "sulphodimezine", "superseptil", "superseptyl", "vertolan")</t>
+    <t xml:space="preserve">azolmetazin,benzene sulfonamide,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidine,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazine,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan</t>
   </si>
   <si>
     <t xml:space="preserve">SLT2</t>
@@ -5075,15 +5036,13 @@
     <t xml:space="preserve">Sulfafurazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01EB05", "S01AB02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("", "sfsz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("accuzole", "alphazole", "amidoxal", "astrazolo", "azo gantrisin", "azosulfizin", "bactesulf", "barazae", "chemouag", "cosoxazole", "dorsulfan", "dorsulfan warthausen", "entusil", "entusul", "eryzole", "gantrisin", "gantrisine", "gantrisona", "gantrizin", "gantrosan", "isoxamin", "neazolin", "neoxazoi", "neoxazol", "novazolo", "novosaxazole", "nsulfanilamide", "nsulphanilamide", "pancid", "pediazole", "renosulfan", "resoxol", "roxosul", "roxosul tablets", "roxoxol", "saxosozine", "sodizole", "solfafurazolo", 
-"soxamide", "soxazole", "soxisol", "soxitabs", "soxomide", "stansin", "sulbio", "sulfafuraz ole", "sulfafurazol", "sulfafurazole", "sulfafurazolum", "sulfagan", "sulfagen", "sulfaisoxazole", "sulfalar", "sulfapolar", "sulfasol", "sulfasoxazole", "sulfasoxizole", "sulfazin", "sulfisin", "sulfisonazole", "sulfisoxasole", "sulfisoxazol", "sulfisoxazole", "sulfisoxazolum", "sulfizin", "sulfizol", "sulfizole", "sulfofurazole", "sulfoxol", "suloxsol", "sulphafuraz", "sulphafurazol", "sulphafurazole", "sulphafurazolum", 
-"sulphaisoxazole", "sulphisoxazol", "sulphisoxazole", "sulphofurazole", "sulsoxin", "thiasin", "unisulf", "urisoxin", "uritrisin", "urogan", "vagilia")</t>
+    <t xml:space="preserve">J01EB05,S01AB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,sfsz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazole,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazole,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
   </si>
   <si>
     <t xml:space="preserve">SLF1</t>
@@ -5095,7 +5054,7 @@
     <t xml:space="preserve">J01EB01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aristamid", "aristamide", "aristogyn", "domain", "domian", "elcosin", "elcosine", "elkosil", "elkosin", "elkosine", "erycon", "isosulf", "mefenal", "nsulfanilamide", "solfisomidina", "sulfadimetine", "sulfaisodimerazine", "sulfaisodimidine", "sulfaisodimidinum", "sulfaisomidine", "sulfamethin", "sulfasomidine", "sulfisomidina", "sulfisomidine", "sulfisomidine sodium", "sulfisomidinum", "sulphasomidine")</t>
+    <t xml:space="preserve">aristamid,aristamide,aristogyn,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,isosulf,mefenal,nsulfanilamide,solfisomidina,sulfadimetine,sulfaisodimerazine,sulfaisodimidine,sulfaisodimidinum,sulfaisomidine,sulfamethin,sulfasomidine,sulfisomidina,sulfisomidine,sulfisomidine sodium,sulfisomidinum,sulphasomidine</t>
   </si>
   <si>
     <t xml:space="preserve">SLF2</t>
@@ -5107,7 +5066,7 @@
     <t xml:space="preserve">J01ED02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("dalysep", "kelfizin", "kelfizina", "kelfizine", "kelfizine w", "longum", "nsulfanilamide", "policydal", "polycidal", "solfametopirazina", "sulfalen", "sulfalene", "sulfaleno", "sulfalenum", "sulfamethopyrazine", "sulfamethoxypyrazine", "sulfametopyrazine", "sulfametoxypyridazin", "sulphalene", "sulphametopyrazine", "vetkelfizina")</t>
+    <t xml:space="preserve">dalysep,kelfizin,kelfizina,kelfizine,kelfizine w,longum,nsulfanilamide,policydal,polycidal,solfametopirazina,sulfalen,sulfalene,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
   </si>
   <si>
     <t xml:space="preserve">SZO</t>
@@ -5119,7 +5078,7 @@
     <t xml:space="preserve">J01ED09</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sulfamazon", "sulfamazona", "sulfamazone", "sulfamazonum")</t>
+    <t xml:space="preserve">sulfamazon,sulfamazona,sulfamazone,sulfamazonum</t>
   </si>
   <si>
     <t xml:space="preserve">SLF3</t>
@@ -5128,10 +5087,10 @@
     <t xml:space="preserve">Sulfamerazine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06BA06", "J01ED07")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("cremomerazine", "kelamerazine", "mebacid", "mesulfa", "methylpyrimal", "methylsulfazin", "methylsulfazine", "metilsulfadiazin", "metilsulfazin", "nsulfanilamide", "percoccide", "pyralcid", "pyrimal m", "romezin", "septacil", "septosyl", "solfamerazina", "solumedin", "sulfameradine", "sulfamerazin", "sulfamerazina", "sulfamerazine", "sulfamerazinum", "sulfamethyldiazine", "sulphamerazine", "sumedine", "susfamerazine")</t>
+    <t xml:space="preserve">D06BA06,J01ED07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cremomerazine,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,nsulfanilamide,percoccide,pyralcid,pyrimal m,romezin,septacil,septosyl,solfamerazina,solumedin,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazine,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine,susfamerazine</t>
   </si>
   <si>
     <t xml:space="preserve">SLT3</t>
@@ -5158,16 +5117,16 @@
     <t xml:space="preserve">Sulfamethizole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("B05CA04", "D06BA04", "J01EB02", "S01AB01")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("", "sfmz")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("ayerlucil", "lucosil", "methazol", "microsul", "nsulfanilamide", "proklar", "renasul", "salimol", "solfametizolo", "sulamethizole", "sulfa gram", "sulfamethizol", "sulfamethizole", "sulfamethizolum", "sulfametizol", "sulfapyelon", "sulfstat", "sulfurine", "sulphamethizole", "tetracid", "thidicur", "thiosulfil", "thiosulfil forte", "ultrasul", "urocydal", "urodiaton", "urolucosil", "urosulfin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("60175-7", "60176-5", "60177-3")</t>
+    <t xml:space="preserve">B05CA04,D06BA04,J01EB02,S01AB01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,sfmz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayerlucil,lucosil,methazol,microsul,nsulfanilamide,proklar,renasul,salimol,solfametizolo,sulamethizole,sulfa gram,sulfamethizol,sulfamethizole,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphamethizole,tetracid,thidicur,thiosulfil,thiosulfil forte,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60175-7,60176-5,60177-3</t>
   </si>
   <si>
     <t xml:space="preserve">SMX</t>
@@ -5179,13 +5138,13 @@
     <t xml:space="preserve">J01EC01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sfmx", "sulf")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("azo gantanol", "eusaprim", "gamazole", "gantanol", "gantanol ds", "metoxal", "nsulfanilamide", "nsulphanilamide", "radonil", "septran", "septrin", "simsinomin", "sinomin", "solfametossazolo", "sulfamethalazole", "sulfamethoxazol", "sulfamethoxazole", "sulfamethoxazolum", "sulfamethoxizole", "sulfamethylisoxazole", "sulfametoxazol", "sulfisomezole", "sulphamethalazole", "sulphamethoxazol", "sulphamethoxazole", "sulphisomezole", "urobak")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("10342-4", "25271-8", "39772-9", "59971-2", "59972-0", "60333-2", "72674-5", "80549-9", "80974-9")</t>
+    <t xml:space="preserve">sfmx,sulf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azo gantanol,eusaprim,gamazole,gantanol,gantanol ds,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,septrin,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfisomezole,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10342-4,25271-8,39772-9,59971-2,59972-0,60333-2,72674-5,80549-9,80974-9</t>
   </si>
   <si>
     <t xml:space="preserve">SLF5</t>
@@ -5197,7 +5156,7 @@
     <t xml:space="preserve">J01ED05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("altezol", "davosin", "depovernil", "kineks", "lederkyn", "lentac", "lisulfen", "longin", "medicel", "midicel", "midikel", "myasul", "nsulfanilamide", "opinsul", "paramid", "paramid supra", "petrisul", "piridolo", "quinoseptyl", "retamid", "retasulfin", "retasulphine", "slosul", "spofadazine", "sulfalex", "sulfapyridazine", "sulfdurazin", "sulfozona", "sultirene", "vinces")</t>
+    <t xml:space="preserve">altezol,davosin,depovernil,kineks,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,nsulfanilamide,opinsul,paramid,paramid supra,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,sulfalex,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
   </si>
   <si>
     <t xml:space="preserve">SLF6</t>
@@ -5209,7 +5168,7 @@
     <t xml:space="preserve">J01ED03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("duroprocin", "methofadin", "methofazine", "nsulfanilamide", "solfametomidina", "sulfamethomidine", "sulfametomidin", "sulfametomidina", "sulfametomidine", "sulfametomidinum")</t>
+    <t xml:space="preserve">duroprocin,methofadin,methofazine,nsulfanilamide,solfametomidina,sulfamethomidine,sulfametomidin,sulfametomidina,sulfametomidine,sulfametomidinum</t>
   </si>
   <si>
     <t xml:space="preserve">SLF7</t>
@@ -5221,8 +5180,7 @@
     <t xml:space="preserve">J01ED04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bayrena", "berlicid", "dairena", "durenat", "juvoxin", "kinecid", "kirocid", "longasulf", "methoxypyrimal", "nsulfanilamide", "solfametossidiazina", "sulfameter", "sulfamethorine", "sulfamethoxine", "sulfamethoxydiazin", "sulfamethoxydiazine", "sulfamethoxydin", "sulfamethoxydine", "sulfametin", "sulfametinum", "sulfametorin", "sulfametorine", "sulfametorinum", "sulfametoxidiazina", "sulfametoxidine", "sulfametoxydiazine", "sulfametoxydiazinum", "sulphameter", "sulphamethoxydiazine", "supramid", 
-"ultrax")</t>
+    <t xml:space="preserve">bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,longasulf,methoxypyrimal,nsulfanilamide,solfametossidiazina,sulfameter,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorin,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazine,sulfametoxydiazinum,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
   </si>
   <si>
     <t xml:space="preserve">SLT4</t>
@@ -5234,7 +5192,7 @@
     <t xml:space="preserve">J01EE03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "trsm")</t>
+    <t xml:space="preserve">,trsm</t>
   </si>
   <si>
     <t xml:space="preserve">SLF8</t>
@@ -5246,7 +5204,7 @@
     <t xml:space="preserve">J01EC03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("justamil", "nsulfanilamide", "oxasulfa", "solfamossolo", "sulfadimethyloxazole", "sulfamoxol", "sulfamoxole", "sulfamoxolum", "sulfano", "sulfavigor", "sulfmidil", "sulfono", "sulfune", "sulfuno", "sulphamoxole", "tardamid", "tardamide")</t>
+    <t xml:space="preserve">justamil,nsulfanilamide,oxasulfa,solfamossolo,sulfadimethyloxazole,sulfamoxol,sulfamoxole,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
   </si>
   <si>
     <t xml:space="preserve">SLT5</t>
@@ -5264,12 +5222,10 @@
     <t xml:space="preserve">Sulfanilamide</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06BA05", "J01EB06")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("albexan", "albosal", "ambeside", "antistrept", "astreptine", "astrocid", "bacteramid", "bactesid", "collomide", "colsulanyde", "copticide", "deseptyl", "desseptyl", "dipron", "ergaseptine", "erysipan", "estreptocida", "exoseptoplix", "gerison", "gombardol", "infepan", "lysococcine", "neococcyl", "orgaseptine", "prontalbin", "prontosil album", "prontosil i", "prontosil white", "prontylin", "pronzin album", "proseptal", "proseptine", "proseptol", "pysococcine", "rubiazol a", "sanamid", "septamide album", 
-"septanilam", "septinal", "septolix", "septoplex", "septoplix", "solfanilamide", "stopton album", "stramid", "strepamide", "strepsan", "streptagol", "streptamid", "streptamin", "streptasol", "streptocid", "streptocid album", "streptocide", "streptocide white", "streptocidum", "streptoclase", "streptocom", "streptol", "strepton", "streptopan", "streptosil", "streptozol", "streptozone", "streptrocide", "sulfamidyl", "sulfamine", "sulfana", "sulfanalone", "sulfanidyl", "sulfanil", "sulfanilamida", "sulfanilamide", 
-"sulfanilamidum", "sulfanilimidic acid", "sulfanimide", "sulfocidin", "sulfocidine", "sulfonamide", "sulfonamide p", "sulfonylamide", "sulphanilamide", "sulphanilamide gr", "sulphonamide", "therapol", "tolder", "white streptocide", "wln: zswr dz")</t>
+    <t xml:space="preserve">D06BA05,J01EB06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,desseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,gerison,gombardol,infepan,lysococcine,neococcyl,orgaseptine,prontalbin,prontosil album,prontosil i,prontosil white,prontylin,pronzin album,proseptal,proseptine,proseptol,pysococcine,rubiazol a,sanamid,septamide album,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stopton album,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocid album,streptocide,streptocide white,streptocidum,streptoclase,streptocom,streptol,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamida,sulfanilamide,sulfanilamidum,sulfanilimidic acid,sulfanimide,sulfocidin,sulfocidine,sulfonamide,sulfonamide p,sulfonylamide,sulphanilamide,sulphanilamide gr,sulphonamide,therapol,tolder,white streptocide,wln: zswr dz</t>
   </si>
   <si>
     <t xml:space="preserve">SLF10</t>
@@ -5281,7 +5237,7 @@
     <t xml:space="preserve">J01ED06</t>
   </si>
   <si>
-    <t xml:space="preserve">c("anastaf", "archisulfa", "avissul", "chemiopen", "demosulfan", "durisan saft", "ipersulfidin sirup", "isosulfamerazine", "methylsulfadiazin", "novosul", "nsulfanilamide", "orosulfan", "pallidin", "retardon", "risulfasens", "sulfaperin", "sulfaperina", "sulfaperine", "sulfaperinum", "sulfatreis", "sulfopirimidine", "sulpenta", "ultrasulfon sirup")</t>
+    <t xml:space="preserve">anastaf,archisulfa,avissul,chemiopen,demosulfan,durisan saft,ipersulfidin sirup,isosulfamerazine,methylsulfadiazin,novosul,nsulfanilamide,orosulfan,pallidin,retardon,risulfasens,sulfaperin,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,ultrasulfon sirup</t>
   </si>
   <si>
     <t xml:space="preserve">SLF11</t>
@@ -5293,7 +5249,7 @@
     <t xml:space="preserve">J01ED08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("depocid", "depotsulfonamide", "eftolon", "firmazolo", "inamil", "isarol", "isarol v", "merian", "microtan pirazolo", "nsulfanilamide", "orisul", "orisulf", "paidazolo", "phenylsulfapyrazole", "plisulfan", "raziosulfa", "solfafenazolo", "sulfabid", "sulfafenazol", "sulfafenazolo", "sulfaphenazol", "sulfaphenazole", "sulfaphenazolum", "sulfaphenazon", "sulfaphenylpipazol", "sulfaphenylpyrazol", "sulfaphenylpyrazole", "sulfonylpyrazol", "sulphaphenazole", "sulphenazole")</t>
+    <t xml:space="preserve">depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,isarol v,merian,microtan pirazolo,nsulfanilamide,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazole,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
   </si>
   <si>
     <t xml:space="preserve">SLF12</t>
@@ -5305,10 +5261,10 @@
     <t xml:space="preserve">J01EB04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("adiplon", "coccoclase", "dagenan", "eubasin", "eubasinum", "haptocil", "piridazol", "plurazol", "pyriamid", "pyridazol", "relbapiridina", "septipulmon", "solfapiridina", "streptosilpyridine", "sulfapiridina", "sulfapyridin", "sulfapyridine", "sulfapyridinum", "sulfidin", "sulfidine", "sulphapyridin", "sulphapyridine", "thioseptal", "trianon")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("14075-6", "55580-5")</t>
+    <t xml:space="preserve">adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,septipulmon,solfapiridina,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridine,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14075-6,55580-5</t>
   </si>
   <si>
     <t xml:space="preserve">SNA</t>
@@ -5317,7 +5273,7 @@
     <t xml:space="preserve">Sulfasuccinamide</t>
   </si>
   <si>
-    <t xml:space="preserve">c("ambesid", "derganil", "sulfasuccinamid", "sulfasuccinamida", "sulfasuccinamide", "sulfasuccinamidum")</t>
+    <t xml:space="preserve">ambesid,derganil,sulfasuccinamid,sulfasuccinamida,sulfasuccinamide,sulfasuccinamidum</t>
   </si>
   <si>
     <t xml:space="preserve">SUT</t>
@@ -5326,11 +5282,10 @@
     <t xml:space="preserve">Sulfathiazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D06BA02", "J01EB07")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("azoquimiol", "azoseptale", "cerazol", "cerazole", "chemosept", "cibazol", "duatok", "dulana", "eleudron", "enterobiocine", "estafilol", "formosulfathiazole", "neostrepsan", "norsulfasol", "norsulfazol", "norsulfazole", "norsulfazolum", "nsulfanilamide", "planomide", "poliseptil", "sanotiazol", "septozol", "solfatiazolo", "streptosilthiazole", "sulfamul", "sulfathiazol", "sulfathiazole", "sulfathiazolum", "sulfatiazol", "sulfavitina", "sulfocerol", "sulphathiazole", "sulzol", "thiacoccine", "thiasulfol", 
-"thiazamide", "thiozamide", "wintrazole")</t>
+    <t xml:space="preserve">D06BA02,J01EB07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,nsulfanilamide,planomide,poliseptil,sanotiazol,septozol,solfatiazolo,streptosilthiazole,sulfamul,sulfathiazol,sulfathiazole,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,wintrazole</t>
   </si>
   <si>
     <t xml:space="preserve">87591-4</t>
@@ -5345,7 +5300,7 @@
     <t xml:space="preserve">J01EB08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("badional", "baldinol", "fontamide", "salvoseptyl", "solfatiourea", "solufontamide", "sulfanilthiourea", "sulfathiocarbamid", "sulfathiocarbamide", "sulfathiocarbamidum", "sulfathiourea", "sulfathiouree", "sulfatiourea", "sulphathiourea")</t>
+    <t xml:space="preserve">badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathiourea,sulfathiouree,sulfatiourea,sulphathiourea</t>
   </si>
   <si>
     <t xml:space="preserve">SOX</t>
@@ -5363,7 +5318,7 @@
     <t xml:space="preserve">Sulfonamide</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "sfna")</t>
+    <t xml:space="preserve">,sfna</t>
   </si>
   <si>
     <t xml:space="preserve">SLP</t>
@@ -5384,7 +5339,7 @@
     <t xml:space="preserve">J01CR04</t>
   </si>
   <si>
-    <t xml:space="preserve">c("sultamicilina", "sultamicillin", "sultamicillinum")</t>
+    <t xml:space="preserve">sultamicilina,sultamicillin,sultamicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">SUR</t>
@@ -5405,7 +5360,7 @@
     <t xml:space="preserve">J01CA15</t>
   </si>
   <si>
-    <t xml:space="preserve">c("talampicilina", "talampicillin", "talampicilline", "talampicillinum")</t>
+    <t xml:space="preserve">talampicilina,talampicillin,talampicilline,talampicillinum</t>
   </si>
   <si>
     <t xml:space="preserve">TLP</t>
@@ -5429,7 +5384,7 @@
     <t xml:space="preserve">tazo</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tazobactam", "tazobactam acid", "tazobactamum", "tazobactum")</t>
+    <t xml:space="preserve">tazobactam,tazobactam acid,tazobactamum,tazobactum</t>
   </si>
   <si>
     <t xml:space="preserve">TBP</t>
@@ -5450,7 +5405,7 @@
     <t xml:space="preserve">tedi</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tedizolid", "torezolid")</t>
+    <t xml:space="preserve">tedizolid,torezolid</t>
   </si>
   <si>
     <t xml:space="preserve">TEC</t>
@@ -5462,13 +5417,13 @@
     <t xml:space="preserve">J01XA02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tec", "tei", "teic", "tp", "tpl", "tpn")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("targocid", "tecoplanina", "tecoplanine", "tecoplaninum", "teichomycin", "teicoplanina", "teicoplanine", "teicoplaninum")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25534-9", "25535-6", "34378-0", "34379-8", "4043-6", "80968-1")</t>
+    <t xml:space="preserve">tec,tei,teic,tp,tpl,tpn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25534-9,25535-6,34378-0,34379-8,4043-6,80968-1</t>
   </si>
   <si>
     <t xml:space="preserve">TCM</t>
@@ -5489,7 +5444,7 @@
     <t xml:space="preserve">tela</t>
   </si>
   <si>
-    <t xml:space="preserve">c("telavancin", "vibativ")</t>
+    <t xml:space="preserve">telavancin,vibativ</t>
   </si>
   <si>
     <t xml:space="preserve">TLT</t>
@@ -5501,7 +5456,7 @@
     <t xml:space="preserve">J01FA15</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "teli")</t>
+    <t xml:space="preserve">,teli</t>
   </si>
   <si>
     <t xml:space="preserve">levviax</t>
@@ -5516,10 +5471,10 @@
     <t xml:space="preserve">J01MA05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "tema")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("omniflox", "temafloxacin", "temafloxacina", "temafloxacine", "temafloxacinum")</t>
+    <t xml:space="preserve">,tema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omniflox,temafloxacin,temafloxacina,temafloxacine,temafloxacinum</t>
   </si>
   <si>
     <t xml:space="preserve">TEM</t>
@@ -5531,10 +5486,10 @@
     <t xml:space="preserve">J01CA17</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "temo")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("temocilina", "temocillin", "temocillina", "temocilline", "temocillinum")</t>
+    <t xml:space="preserve">,temo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temocilina,temocillin,temocillina,temocilline,temocillinum</t>
   </si>
   <si>
     <t xml:space="preserve">TRB</t>
@@ -5543,16 +5498,16 @@
     <t xml:space="preserve">Terbinafine</t>
   </si>
   <si>
-    <t xml:space="preserve">c("D01AE15", "D01BA02")</t>
+    <t xml:space="preserve">D01AE15,D01BA02</t>
   </si>
   <si>
     <t xml:space="preserve">Antifungals for systemic use</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "terb")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("corbinal", "lamasil", "lamisil", "lamisil at", "lamisil tablet", "terbinafina", "terbinafine", "terbinafinum", "terbinex")</t>
+    <t xml:space="preserve">,terb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corbinal,lamasil,lamisil,lamisil at,lamisil tablet,terbinafina,terbinafine,terbinafinum,terbinex</t>
   </si>
   <si>
     <t xml:space="preserve">TRC</t>
@@ -5564,7 +5519,7 @@
     <t xml:space="preserve">G01AG02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fungistat", "panlomyc", "terazol", "terconazol", "terconazole", "terconazolum", "tercospor", "triaconazole", "zazole")</t>
+    <t xml:space="preserve">fungistat,panlomyc,terazol,terconazol,terconazole,terconazolum,tercospor,triaconazole,zazole</t>
   </si>
   <si>
     <t xml:space="preserve">TRZ</t>
@@ -5576,7 +5531,7 @@
     <t xml:space="preserve">J04AK03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("terivalidin", "terizidon", "terizidona", "terizidone", "terizidonum")</t>
+    <t xml:space="preserve">terivalidin,terizidon,terizidona,terizidone,terizidonum</t>
   </si>
   <si>
     <t xml:space="preserve">TCY</t>
@@ -5585,18 +5540,16 @@
     <t xml:space="preserve">Tetracycline</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A01AB13", "D06AA04", "J01AA07", "S01AA09", "S02AA08", "S03AA02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("tc", "te", "tet", "tetr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abramycin", "abricycline", "achromycin", "achromycin v", "actisite", "agromicina", "ambramicina", "ambramycin", "amycin", "biocycline", "bristaciclin", "bristaciclina", "bristacycline", "cefracycline", "centet", "ciclibion", "copharlan", "criseociclina", "cyclomycin", "cyclopar", "cytome", "democracin", "deschlorobiomycin", "dumocyclin", "enterocycline", "hostacyclin", "lexacycline", "limecycline", "liquamycin", "medocycline", "mericycline", "micycline", "neocycline", "oletetrin", "omegamycin", 
-"orlycycline", "panmycin", "piracaps", "polycycline", "polyotic", "purocyclina", "resteclin", "robitet", "roviciclina", "sigmamycin", "solvocin", "sumycin", "sumycin syrup", "tetrabon", "tetrachel", "tetraciclina", "tetracycl", "tetracyclin", "tetracycline", "tetracycline base", "tetracycline i", "tetracycline ii", "tetracyclinum", "tetracyn", "tetradecin", "tetrafil", "tetramed", "tetrasure", "tetraverine", "tetrazyklin", "tetrex", "topicycline", "tsiklomistsin", "tsiklomitsin", "veracin", "vetacyclinum"
-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25272-6", "4045-1", "87590-6")</t>
+    <t xml:space="preserve">A01AB13,D06AA04,J01AA07,S01AA09,S02AA08,S03AA02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tc,te,tet,tetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abramycin,abricycline,achromycin,achromycin v,actisite,agromicina,ambramicina,ambramycin,amycin,biocycline,bristaciclin,bristaciclina,bristacycline,cefracycline,centet,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,democracin,deschlorobiomycin,dumocyclin,enterocycline,hostacyclin,lexacycline,limecycline,liquamycin,medocycline,mericycline,micycline,neocycline,oletetrin,omegamycin,orlycycline,panmycin,piracaps,polycycline,polyotic,purocyclina,resteclin,robitet,roviciclina,sigmamycin,solvocin,sumycin,sumycin syrup,tetrabon,tetrachel,tetraciclina,tetracycl,tetracyclin,tetracycline,tetracycline base,tetracycline i,tetracycline ii,tetracyclinum,tetracyn,tetradecin,tetrafil,tetramed,tetrasure,tetraverine,tetrazyklin,tetrex,topicycline,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25272-6,4045-1,87590-6</t>
   </si>
   <si>
     <t xml:space="preserve">TET</t>
@@ -5605,7 +5558,7 @@
     <t xml:space="preserve">Tetroxoprim</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tetroxoprim", "tetroxoprima", "tetroxoprime", "tetroxoprimum")</t>
+    <t xml:space="preserve">tetroxoprim,tetroxoprima,tetroxoprime,tetroxoprimum</t>
   </si>
   <si>
     <t xml:space="preserve">THA</t>
@@ -5614,8 +5567,7 @@
     <t xml:space="preserve">Thiacetazone</t>
   </si>
   <si>
-    <t xml:space="preserve">c("aktivan", "ambathizon", "amithiozone", "amithizone", "amitiozon", "benthiozone", "benzothiozane", "benzothiozon", "berculon a", "berkazon", "citazone", "conteben", "diasan", "diazan", "domakol", "ilbion", "livazone", "mirizone neustab", "mivizon", "myvizone", "neotibil", "neustab", "novakol", "nuclon argentinian", "panrone", "parazone", "seroden", "siocarbazone", "tebalon", "tebecure", "tebemar", "tebesone i", "tebethion", "tebethione", "tebezon", "thiacetazone", "thiacetone", "thiacetozone", 
-"thibon", "thibone", "thioacetazon", "thioacetazone", "thioacetazonum", "thioazetazone", "thiocarbazil", "thiomicid", "thionicid", "thioparamizon", "thioparamizone", "thiosemicarbarzone", "thiosemicarbazone", "thiotebesin", "thiotebezin", "thiotebicina", "thizone", "tiacetazon", "tibicur", "tibion", "tibione", "tibizan", "tibone", "tioacetazon", "tioacetazona", "tioatsetazon", "tiobicina", "tiocarone", "tiosecolo", "tubercazon", "tubigal")</t>
+    <t xml:space="preserve">aktivan,ambathizon,amithiozone,amithizone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,diazan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazone,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
   </si>
   <si>
     <t xml:space="preserve">THI</t>
@@ -5627,7 +5579,7 @@
     <t xml:space="preserve">J01BA02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("descocin", "dexawin", "dextrosulfenidol", "dextrosulphenidol", "efnicol", "hyrazin", "igralin", "macphenicol", "masatirin", "neomyson", "racefenicol", "racefenicolo", "racefenicolum", "raceophenidol", "racephenicol", "rincrol", "thiamcol", "thiamphenicol", "thiamphenicolum", "thiocymetin", "thiomycetin", "thiophenicol", "tiamfenicol", "tiamfenicolo", "urfamicina", "urfamycine", "vicemycetin")</t>
+    <t xml:space="preserve">descocin,dexawin,dextrosulfenidol,dextrosulphenidol,efnicol,hyrazin,igralin,macphenicol,masatirin,neomyson,racefenicol,racefenicolo,racefenicolum,raceophenidol,racephenicol,rincrol,thiamcol,thiamphenicol,thiamphenicolum,thiocymetin,thiomycetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamicina,urfamycine,vicemycetin</t>
   </si>
   <si>
     <t xml:space="preserve">THI1</t>
@@ -5645,7 +5597,7 @@
     <t xml:space="preserve">Tiamulin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("denagard", "tiamulin", "tiamulin pamoate", "tiamulina", "tiamuline", "tiamulinum")</t>
+    <t xml:space="preserve">denagard,tiamulin,tiamulin pamoate,tiamulina,tiamuline,tiamulinum</t>
   </si>
   <si>
     <t xml:space="preserve">87589-8</t>
@@ -5660,13 +5612,13 @@
     <t xml:space="preserve">J01CA13</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tc", "ti", "tic", "tica")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("ticarcilina", "ticarcillin", "ticarcilline", "ticarcillinum", "ticillin")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("25254-4", "4054-3", "4055-0")</t>
+    <t xml:space="preserve">tc,ti,tic,tica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ticarcilina,ticarcillin,ticarcilline,ticarcillinum,ticillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25254-4,4054-3,4055-0</t>
   </si>
   <si>
     <t xml:space="preserve">TCC</t>
@@ -5678,7 +5630,7 @@
     <t xml:space="preserve">J01CR03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("t/c", "tcc", "ticl", "tim", "tlc")</t>
+    <t xml:space="preserve">t/c,tcc,ticl,tim,tlc</t>
   </si>
   <si>
     <t xml:space="preserve">timentin</t>
@@ -5693,10 +5645,10 @@
     <t xml:space="preserve">J01AA12</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tgc", "tig", "tige")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("haizheng li xing", "tigeciclina", "tigecyclin", "tigecycline", "tigecycline hydrate", "tigecyclinum", "tigilcycline", "tygacil")</t>
+    <t xml:space="preserve">tgc,tig,tige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haizheng li xing,tigeciclina,tigecyclin,tigecycline,tigecycline hydrate,tigecyclinum,tigilcycline,tygacil</t>
   </si>
   <si>
     <t xml:space="preserve">TBQ</t>
@@ -5708,7 +5660,7 @@
     <t xml:space="preserve">P01AA05</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tilbroquinol", "tilbroquinolum")</t>
+    <t xml:space="preserve">tilbroquinol,tilbroquinolum</t>
   </si>
   <si>
     <t xml:space="preserve">TIP</t>
@@ -5717,7 +5669,7 @@
     <t xml:space="preserve">Tildipirosin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tildipirosin", "zuprevo")</t>
+    <t xml:space="preserve">tildipirosin,zuprevo</t>
   </si>
   <si>
     <t xml:space="preserve">TIL</t>
@@ -5726,7 +5678,7 @@
     <t xml:space="preserve">Tilmicosin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("micotil", "pulmotil", "tilmicosin", "tilmicosina", "tilmicosine", "tilmicosinum")</t>
+    <t xml:space="preserve">micotil,pulmotil,tilmicosin,tilmicosina,tilmicosine,tilmicosinum</t>
   </si>
   <si>
     <t xml:space="preserve">87588-0</t>
@@ -5738,13 +5690,13 @@
     <t xml:space="preserve">Tinidazole</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01XD02", "P01AB02")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("", "tini")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("amtiba", "bioshik", "ethyl sulfone", "fasigin", "fasigyn", "fasigyntrade mark", "fasygin", "glongyn", "haisigyn", "pletil", "simplotan", "simplotantrade mark", "sorquetan", "tindamax", "tindamaxtrade mark", "tinidazol", "tinidazole", "tinidazolum", "tricolam", "trimonase")</t>
+    <t xml:space="preserve">J01XD02,P01AB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,tini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amtiba,bioshik,ethyl sulfone,fasigin,fasigyn,fasigyntrade mark,fasygin,glongyn,haisigyn,pletil,simplotan,simplotantrade mark,sorquetan,tindamax,tindamaxtrade mark,tinidazol,tinidazole,tinidazolum,tricolam,trimonase</t>
   </si>
   <si>
     <t xml:space="preserve">TCR</t>
@@ -5756,7 +5708,7 @@
     <t xml:space="preserve">J04AD02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("amixyl", "datanil", "disocarban", "disoxyl", "thiocarlide", "tiocarlid", "tiocarlida", "tiocarlide", "tiocarlidum")</t>
+    <t xml:space="preserve">amixyl,datanil,disocarban,disoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlide,tiocarlidum</t>
   </si>
   <si>
     <t xml:space="preserve">TDC</t>
@@ -5765,7 +5717,7 @@
     <t xml:space="preserve">Tiodonium chloride</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cloruro de tiodonio", "tiodonii chloridum", "tiodonium chloride")</t>
+    <t xml:space="preserve">cloruro de tiodonio,tiodonii chloridum,tiodonium chloride</t>
   </si>
   <si>
     <t xml:space="preserve">TXC</t>
@@ -5774,7 +5726,7 @@
     <t xml:space="preserve">Tioxacin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tioxacin", "tioxacine", "tioxacino", "tioxacinum", "tioxic acid")</t>
+    <t xml:space="preserve">tioxacin,tioxacine,tioxacino,tioxacinum,tioxic acid</t>
   </si>
   <si>
     <t xml:space="preserve">TIZ</t>
@@ -5792,16 +5744,16 @@
     <t xml:space="preserve">Tobramycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("J01GB01", "S01AA12")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("nn", "tm", "to", "tob", "tobr")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bethkis", "brulamycin", "deoxykanamycin b", "distobram", "gernebcin", "gotabiotic", "kitabis pak", "nebcin", "nebicin", "nebramycin", "nebramycin vi", "obramycin", "sybryx", "tenebrimycin", "tenemycin", "tobacin", "tobi podhaler", "tobracin", "tobradex", "tobradistin", "tobralex", "tobramaxin", "tobramicin", "tobramicina", "tobramitsetin", "tobramycetin", "tobramycin", "tobramycin base", "tobramycin sulfate", "tobramycine", "tobramycinum", "tobrased", "tobrasone", "tobrex")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("13584-8", "17808-7", "22750-4", "22751-2", "22752-0", "31094-6", "31095-3", "31096-1", "35239-3", "35670-9", "4057-6", "4058-4", "4059-2", "50927-3", "52962-8", "59380-6", "80966-5")</t>
+    <t xml:space="preserve">J01GB01,S01AA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nn,tm,to,tob,tobr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bethkis,brulamycin,deoxykanamycin b,distobram,gernebcin,gotabiotic,kitabis pak,nebcin,nebicin,nebramycin,nebramycin vi,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobi podhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycin,tobramycin base,tobramycin sulfate,tobramycine,tobramycinum,tobrased,tobrasone,tobrex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13584-8,17808-7,22750-4,22751-2,22752-0,31094-6,31095-3,31096-1,35239-3,35670-9,4057-6,4058-4,4059-2,50927-3,52962-8,59380-6,80966-5</t>
   </si>
   <si>
     <t xml:space="preserve">TOH</t>
@@ -5810,7 +5762,7 @@
     <t xml:space="preserve">Tobramycin-high</t>
   </si>
   <si>
-    <t xml:space="preserve">c("tobra high", "tobramycin high", "tohl")</t>
+    <t xml:space="preserve">tobra high,tobramycin high,tohl</t>
   </si>
   <si>
     <t xml:space="preserve">TFX</t>
@@ -5834,15 +5786,13 @@
     <t xml:space="preserve">J01EA01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("t", "tmp", "tr", "tri", "trim", "w")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("abaprim", "alprim", "anitrim", "antrima", "antrimox", "bacdan", "bacidal", "bacide", "bacterial", "bacticel", "bactifor", "bactin", "bactoprim", "bactramin", "bactrim", "bencole", "bethaprim", "biosulten", "briscotrim", "chemotrin", "colizole", "colizole ds", "conprim", "cotrimel", "cotrimoxizole", "deprim", "dosulfin", "duocide", "esbesul", "espectrin", "euctrim", "exbesul", "fermagex", "fortrim", "idotrim", "ikaprim", "instalac", "kombinax", "lagatrim", "lagatrim forte", "lastrim", "lescot", 
-"methoprim", "metoprim", "monoprim", "monotrim", "monotrimin", "novotrimel", "omstat", "oraprim", "pancidim", "polytrim", "priloprim", "primosept", "primsol", "proloprim", "protrin", "purbal", "resprim", "resprim forte", "roubac", "roubal", "salvatrim", "septrin ds", "septrin forte", "septrin s", "setprin", "sinotrim", "stopan", "streptoplus", "sugaprim", "sulfamar", "sulfamethoprim", "sulfoxaprim", "sulthrim", "sultrex", "syraprim", "tiempe", "tmp smx", "toprim", "trimanyl", "trimethioprim", "trimethopim", 
-"trimethoprim", "trimethoprime", "trimethoprimum", "trimethopriom", "trimetoprim", "trimetoprima", "trimexazole", "trimexol", "trimezol", "trimogal", "trimono", "trimopan", "trimpex", "triprim", "trisul", "trisulcom", "trisulfam", "trisural", "uretrim", "urobactrim", "utetrin", "velaten", "wellcoprim", "wellcoprin", "xeroprim", "zamboprim")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("11005-6", "17747-7", "25273-4", "32342-8", "4079-0", "4080-8", "4081-6", "55584-7", "80552-3", "80973-1")</t>
+    <t xml:space="preserve">t,tmp,tr,tri,trim,w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,colizole ds,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,instalac,kombinax,lagatrim,lagatrim forte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprim forte,roubac,roubal,salvatrim,septrin ds,septrin forte,septrin s,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmp smx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11005-6,17747-7,25273-4,32342-8,4079-0,4080-8,4081-6,55584-7,80552-3,80973-1</t>
   </si>
   <si>
     <t xml:space="preserve">SXT</t>
@@ -5854,10 +5804,10 @@
     <t xml:space="preserve">J01EE01</t>
   </si>
   <si>
-    <t xml:space="preserve">c("cot", "cotrim", "sxt", "t/s", "trsu", "trsx", "ts")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("bactrim", "bactrimel", "belcomycine", "colimycin", "colimycin sulphate", "colisticin", "colistimethate", "colistimethate sodium", "colistin sulfate", "colistin sulphate", "colomycin", "coly-mycin", "cotrimazole", "cotrimoxazole", "polymyxin e", "polymyxin e. sulfate", "promixin", "septra", "totazina")</t>
+    <t xml:space="preserve">cot,cotrim,sxt,t/s,trsu,trsx,ts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bactrim,bactrimel,belcomycine,colimycin,colimycin sulphate,colisticin,colistimethate,colistimethate sodium,colistin sulfate,colistin sulphate,colomycin,coly-mycin,cotrimazole,cotrimoxazole,polymyxin e,polymyxin e. sulfate,promixin,septra,totazina</t>
   </si>
   <si>
     <t xml:space="preserve">TRL</t>
@@ -5869,7 +5819,7 @@
     <t xml:space="preserve">J01FA08</t>
   </si>
   <si>
-    <t xml:space="preserve">c("acetyloleandomycin", "aovine", "cyclamycin", "evramicina", "matromicina", "matromycin t", "oleandocetine", "t.a.o.", "treolmicina", "tribiocillina", "triocetin", "triolan", "troleandomicina", "troleandomycin", "troleandomycine", "troleandomycinum", "viamicina", "wytrion")</t>
+    <t xml:space="preserve">acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycin t,oleandocetine,t.a.o.,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycin,troleandomycine,troleandomycinum,viamicina,wytrion</t>
   </si>
   <si>
     <t xml:space="preserve">TRO</t>
@@ -5878,7 +5828,7 @@
     <t xml:space="preserve">Trospectomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("trospectinomycin", "trospectomicina", "trospectomycin", "trospectomycine", "trospectomycinum")</t>
+    <t xml:space="preserve">trospectinomycin,trospectomicina,trospectomycin,trospectomycine,trospectomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">TVA</t>
@@ -5890,10 +5840,10 @@
     <t xml:space="preserve">J01MA13</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "trov")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("trovafloxacin", "trovan")</t>
+    <t xml:space="preserve">,trov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trovafloxacin,trovan</t>
   </si>
   <si>
     <t xml:space="preserve">TUL</t>
@@ -5902,7 +5852,7 @@
     <t xml:space="preserve">Tulathromycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("draxxin", "tulathrmycin a", "tulathromycin", "tulathromycin a")</t>
+    <t xml:space="preserve">draxxin,tulathrmycin a,tulathromycin,tulathromycin a</t>
   </si>
   <si>
     <t xml:space="preserve">TYL</t>
@@ -5911,7 +5861,7 @@
     <t xml:space="preserve">Tylosin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("fradizine", "tilosina", "tylocine", "tylosin", "tylosin a", "tylosine", "tylosinum")</t>
+    <t xml:space="preserve">fradizine,tilosina,tylocine,tylosin,tylosin a,tylosine,tylosinum</t>
   </si>
   <si>
     <t xml:space="preserve">87587-2</t>
@@ -5923,7 +5873,7 @@
     <t xml:space="preserve">Tylvalosin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("", "tvn")</t>
+    <t xml:space="preserve">,tvn</t>
   </si>
   <si>
     <t xml:space="preserve">PRU1</t>
@@ -5941,16 +5891,16 @@
     <t xml:space="preserve">Vancomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("A07AA09", "J01XA01", "S01AA28")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("va", "van", "vanc")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("vancocin", "vancocin hcl", "vancoled", "vancomicina", "vancomycin", "vancomycin hcl", "vancomycine", "vancomycinum", "vancor", "viomycin derivative")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("13586-3", "13587-1", "20578-1", "31012-8", "39092-2", "39796-8", "39797-6", "4089-9", "4090-7", "4091-5", "4092-3", "50938-0", "59381-4")</t>
+    <t xml:space="preserve">A07AA09,J01XA01,S01AA28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va,van,vanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vancocin,vancocin hcl,vancoled,vancomicina,vancomycin,vancomycin hcl,vancomycine,vancomycinum,vancor,viomycin derivative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13586-3,13587-1,20578-1,31012-8,39092-2,39796-8,39797-6,4089-9,4090-7,4091-5,4092-3,50938-0,59381-4</t>
   </si>
   <si>
     <t xml:space="preserve">VAM</t>
@@ -5965,7 +5915,7 @@
     <t xml:space="preserve">Viomycin</t>
   </si>
   <si>
-    <t xml:space="preserve">c("celiomycin", "florimycin", "floromycin", "viomicina", "viomycin", "viomycine", "viomycinum")</t>
+    <t xml:space="preserve">celiomycin,florimycin,floromycin,viomicina,viomycin,viomycine,viomycinum</t>
   </si>
   <si>
     <t xml:space="preserve">VIR</t>
@@ -5983,13 +5933,13 @@
     <t xml:space="preserve">J02AC03</t>
   </si>
   <si>
-    <t xml:space="preserve">c("vori", "vrc")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("pfizer", "vfend i.v.", "voriconazol", "voriconazole", "voriconazolum", "vorikonazole")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c("38370-3", "53902-3", "73676-9", "80553-1", "80651-3")</t>
+    <t xml:space="preserve">vori,vrc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pfizer,vfend i.v.,voriconazol,voriconazole,voriconazolum,vorikonazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38370-3,53902-3,73676-9,80553-1,80651-3</t>
   </si>
   <si>
     <t xml:space="preserve">XBR</t>
@@ -6001,7 +5951,7 @@
     <t xml:space="preserve">J01XX02</t>
   </si>
   <si>
-    <t xml:space="preserve">c("bactacine", "bracen", "nanbacine", "xibornol", "xibornolo", "xibornolum")</t>
+    <t xml:space="preserve">bactacine,bracen,nanbacine,xibornol,xibornolo,xibornolum</t>
   </si>
   <si>
     <t xml:space="preserve">ZID</t>
@@ -6429,59 +6379,61 @@
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n">
         <v>3366</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="n">
         <v>6450012</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
@@ -6509,9 +6461,11 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
@@ -6525,7 +6479,7 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -6565,7 +6519,7 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -6619,7 +6573,9 @@
       <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
@@ -6721,7 +6677,7 @@
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -6737,7 +6693,9 @@
       <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="s">
@@ -6765,7 +6723,7 @@
         <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
@@ -6809,7 +6767,9 @@
       <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="s">
@@ -6923,7 +6883,9 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16" t="s">
@@ -6937,7 +6899,7 @@
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -6951,7 +6913,7 @@
         <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
         <v>100</v>
@@ -6993,7 +6955,9 @@
       <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="s">
@@ -7007,7 +6971,7 @@
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -7023,7 +6987,9 @@
       <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="s">
@@ -7037,7 +7003,7 @@
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -7073,7 +7039,7 @@
         <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -7109,7 +7075,7 @@
         <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -7125,7 +7091,9 @@
       <c r="D22" t="s">
         <v>47</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
@@ -7139,7 +7107,7 @@
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -7155,7 +7123,9 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="s">
@@ -7169,7 +7139,7 @@
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -7185,7 +7155,9 @@
       <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="s">
@@ -7199,7 +7171,7 @@
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -7215,7 +7187,9 @@
       <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
@@ -7269,7 +7243,7 @@
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -7283,7 +7257,7 @@
         <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
         <v>138</v>
@@ -7407,7 +7381,9 @@
       <c r="D30" t="s">
         <v>58</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30" t="s">
@@ -7435,7 +7411,9 @@
       <c r="D31" t="s">
         <v>58</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="s">
@@ -7489,7 +7467,7 @@
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -7593,7 +7571,7 @@
         <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -7671,7 +7649,7 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
@@ -7743,7 +7721,7 @@
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -7779,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -7795,7 +7773,9 @@
       <c r="D41" t="s">
         <v>41</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="s">
@@ -7809,7 +7789,7 @@
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
@@ -7849,7 +7829,7 @@
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -7863,7 +7843,7 @@
         <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
         <v>214</v>
@@ -7881,7 +7861,7 @@
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -7897,7 +7877,9 @@
       <c r="D44" t="s">
         <v>218</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
@@ -7911,7 +7893,7 @@
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -8069,7 +8051,7 @@
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -8105,7 +8087,7 @@
         <v>22</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
@@ -8119,7 +8101,7 @@
         <v>242</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
         <v>243</v>
@@ -8181,7 +8163,7 @@
       <c r="L51"/>
       <c r="M51"/>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -8301,7 +8283,7 @@
         <v>22</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -8381,7 +8363,7 @@
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -8421,7 +8403,7 @@
         <v>22</v>
       </c>
       <c r="N57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -8497,7 +8479,7 @@
         <v>22</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -8533,7 +8515,7 @@
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -8549,7 +8531,9 @@
       <c r="D61" t="s">
         <v>298</v>
       </c>
-      <c r="E61"/>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61" t="s">
@@ -8563,7 +8547,7 @@
       <c r="L61"/>
       <c r="M61"/>
       <c r="N61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -8603,7 +8587,7 @@
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -8643,7 +8627,7 @@
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -8659,7 +8643,9 @@
       <c r="D64" t="s">
         <v>298</v>
       </c>
-      <c r="E64"/>
+      <c r="E64" t="s">
+        <v>35</v>
+      </c>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64" t="s">
@@ -8673,7 +8659,7 @@
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -8729,7 +8715,9 @@
       <c r="D66" t="s">
         <v>320</v>
       </c>
-      <c r="E66"/>
+      <c r="E66" t="s">
+        <v>35</v>
+      </c>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
@@ -8757,7 +8745,9 @@
       <c r="D67" t="s">
         <v>58</v>
       </c>
-      <c r="E67"/>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
@@ -8787,7 +8777,9 @@
       <c r="D68" t="s">
         <v>320</v>
       </c>
-      <c r="E68"/>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68" t="s">
@@ -8815,7 +8807,9 @@
       <c r="D69" t="s">
         <v>41</v>
       </c>
-      <c r="E69"/>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69" t="s">
@@ -8869,7 +8863,7 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -8885,7 +8879,9 @@
       <c r="D71" t="s">
         <v>298</v>
       </c>
-      <c r="E71"/>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71" t="s">
@@ -8899,7 +8895,7 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -8915,7 +8911,9 @@
       <c r="D72" t="s">
         <v>320</v>
       </c>
-      <c r="E72"/>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72" t="s">
@@ -8945,7 +8943,9 @@
       <c r="D73" t="s">
         <v>347</v>
       </c>
-      <c r="E73"/>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73" t="s">
@@ -8959,7 +8959,7 @@
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -8991,7 +8991,7 @@
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -9071,7 +9071,7 @@
         <v>22</v>
       </c>
       <c r="N76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -9111,7 +9111,7 @@
         <v>22</v>
       </c>
       <c r="N77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -9147,7 +9147,7 @@
         <v>22</v>
       </c>
       <c r="N78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -9187,7 +9187,7 @@
         <v>22</v>
       </c>
       <c r="N79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
@@ -9345,7 +9345,7 @@
         <v>22</v>
       </c>
       <c r="N83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -9361,7 +9361,9 @@
       <c r="D84" t="s">
         <v>320</v>
       </c>
-      <c r="E84"/>
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84" t="s">
@@ -9375,7 +9377,7 @@
       <c r="L84"/>
       <c r="M84"/>
       <c r="N84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -9431,7 +9433,9 @@
       <c r="D86" t="s">
         <v>298</v>
       </c>
-      <c r="E86"/>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86" t="s">
@@ -9461,7 +9465,9 @@
       <c r="D87" t="s">
         <v>298</v>
       </c>
-      <c r="E87"/>
+      <c r="E87" t="s">
+        <v>35</v>
+      </c>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="s">
@@ -9559,7 +9565,7 @@
         <v>22</v>
       </c>
       <c r="N89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -9575,7 +9581,9 @@
       <c r="D90" t="s">
         <v>298</v>
       </c>
-      <c r="E90"/>
+      <c r="E90" t="s">
+        <v>35</v>
+      </c>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90" t="s">
@@ -9589,7 +9597,7 @@
       <c r="L90"/>
       <c r="M90"/>
       <c r="N90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -9605,7 +9613,9 @@
       <c r="D91" t="s">
         <v>298</v>
       </c>
-      <c r="E91"/>
+      <c r="E91" t="s">
+        <v>35</v>
+      </c>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91" t="s">
@@ -9673,7 +9683,9 @@
       <c r="D93" t="s">
         <v>255</v>
       </c>
-      <c r="E93"/>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93" t="s">
@@ -9723,7 +9735,7 @@
         <v>22</v>
       </c>
       <c r="N94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -9739,7 +9751,9 @@
       <c r="D95" t="s">
         <v>298</v>
       </c>
-      <c r="E95"/>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95" t="s">
@@ -9753,7 +9767,7 @@
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -9793,7 +9807,7 @@
         <v>22</v>
       </c>
       <c r="N96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -9833,7 +9847,7 @@
         <v>22</v>
       </c>
       <c r="N97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
@@ -9889,7 +9903,9 @@
       <c r="D99" t="s">
         <v>298</v>
       </c>
-      <c r="E99"/>
+      <c r="E99" t="s">
+        <v>35</v>
+      </c>
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99" t="s">
@@ -9903,7 +9919,7 @@
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
@@ -9917,7 +9933,9 @@
       <c r="D100" t="s">
         <v>298</v>
       </c>
-      <c r="E100"/>
+      <c r="E100" t="s">
+        <v>35</v>
+      </c>
       <c r="F100"/>
       <c r="G100"/>
       <c r="H100" t="s">
@@ -9971,7 +9989,7 @@
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
@@ -9987,7 +10005,9 @@
       <c r="D102" t="s">
         <v>320</v>
       </c>
-      <c r="E102"/>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
       <c r="F102"/>
       <c r="G102"/>
       <c r="H102" t="s">
@@ -10001,7 +10021,7 @@
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
@@ -10041,7 +10061,7 @@
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
@@ -10097,7 +10117,9 @@
       <c r="D105" t="s">
         <v>347</v>
       </c>
-      <c r="E105"/>
+      <c r="E105" t="s">
+        <v>35</v>
+      </c>
       <c r="F105"/>
       <c r="G105"/>
       <c r="H105" t="s">
@@ -10111,7 +10133,7 @@
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
@@ -10147,7 +10169,7 @@
         <v>22</v>
       </c>
       <c r="N106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
@@ -10161,7 +10183,9 @@
       <c r="D107" t="s">
         <v>482</v>
       </c>
-      <c r="E107"/>
+      <c r="E107" t="s">
+        <v>35</v>
+      </c>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107" t="s">
@@ -10231,7 +10255,9 @@
       <c r="D109" t="s">
         <v>298</v>
       </c>
-      <c r="E109"/>
+      <c r="E109" t="s">
+        <v>35</v>
+      </c>
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109" t="s">
@@ -10321,7 +10347,7 @@
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -10337,7 +10363,9 @@
       <c r="D112" t="s">
         <v>298</v>
       </c>
-      <c r="E112"/>
+      <c r="E112" t="s">
+        <v>35</v>
+      </c>
       <c r="F112"/>
       <c r="G112"/>
       <c r="H112" t="s">
@@ -10351,7 +10379,7 @@
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -10391,7 +10419,7 @@
         <v>22</v>
       </c>
       <c r="N113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -10431,7 +10459,7 @@
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -10447,7 +10475,9 @@
       <c r="D115" t="s">
         <v>298</v>
       </c>
-      <c r="E115"/>
+      <c r="E115" t="s">
+        <v>35</v>
+      </c>
       <c r="F115"/>
       <c r="G115"/>
       <c r="H115" t="s">
@@ -10461,7 +10491,7 @@
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -10517,7 +10547,9 @@
       <c r="D117" t="s">
         <v>298</v>
       </c>
-      <c r="E117"/>
+      <c r="E117" t="s">
+        <v>35</v>
+      </c>
       <c r="F117"/>
       <c r="G117"/>
       <c r="H117" t="s">
@@ -10547,7 +10579,9 @@
       <c r="D118" t="s">
         <v>482</v>
       </c>
-      <c r="E118"/>
+      <c r="E118" t="s">
+        <v>35</v>
+      </c>
       <c r="F118"/>
       <c r="G118"/>
       <c r="H118" t="s">
@@ -10561,7 +10595,7 @@
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -10653,7 +10687,9 @@
       <c r="D121" t="s">
         <v>482</v>
       </c>
-      <c r="E121"/>
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
       <c r="F121"/>
       <c r="G121"/>
       <c r="H121" t="s">
@@ -10767,7 +10803,9 @@
       <c r="D124" t="s">
         <v>255</v>
       </c>
-      <c r="E124"/>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
       <c r="F124"/>
       <c r="G124"/>
       <c r="H124" t="s">
@@ -10781,7 +10819,7 @@
       <c r="L124"/>
       <c r="M124"/>
       <c r="N124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -10831,7 +10869,9 @@
       <c r="D126" t="s">
         <v>41</v>
       </c>
-      <c r="E126"/>
+      <c r="E126" t="s">
+        <v>35</v>
+      </c>
       <c r="F126"/>
       <c r="G126"/>
       <c r="H126" t="s">
@@ -10845,7 +10885,7 @@
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127">
@@ -11009,7 +11049,7 @@
         <v>22</v>
       </c>
       <c r="N130" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
@@ -11025,7 +11065,9 @@
       <c r="D131" t="s">
         <v>587</v>
       </c>
-      <c r="E131"/>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
       <c r="F131"/>
       <c r="G131"/>
       <c r="H131" t="s">
@@ -11039,7 +11081,7 @@
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132">
@@ -11139,7 +11181,9 @@
       <c r="D134" t="s">
         <v>58</v>
       </c>
-      <c r="E134"/>
+      <c r="E134" t="s">
+        <v>35</v>
+      </c>
       <c r="F134"/>
       <c r="G134"/>
       <c r="H134" t="s">
@@ -11153,7 +11197,7 @@
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
@@ -11167,16 +11211,16 @@
         <v>605</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
         <v>606</v>
       </c>
       <c r="F135" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s">
         <v>28</v>
-      </c>
-      <c r="G135" t="s">
-        <v>29</v>
       </c>
       <c r="H135" t="s">
         <v>607</v>
@@ -11189,7 +11233,7 @@
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -11229,7 +11273,7 @@
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137">
@@ -11287,7 +11331,7 @@
         <v>623</v>
       </c>
       <c r="D138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E138" t="s">
         <v>624</v>
@@ -11333,7 +11377,9 @@
       <c r="D139" t="s">
         <v>41</v>
       </c>
-      <c r="E139"/>
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
       <c r="F139"/>
       <c r="G139"/>
       <c r="H139" t="s">
@@ -11347,7 +11393,7 @@
       <c r="L139"/>
       <c r="M139"/>
       <c r="N139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
@@ -11363,7 +11409,9 @@
       <c r="D140" t="s">
         <v>193</v>
       </c>
-      <c r="E140"/>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
       <c r="F140"/>
       <c r="G140"/>
       <c r="H140" t="s">
@@ -11377,7 +11425,7 @@
       <c r="L140"/>
       <c r="M140"/>
       <c r="N140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141">
@@ -11391,7 +11439,7 @@
         <v>635</v>
       </c>
       <c r="D141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E141" t="s">
         <v>636</v>
@@ -11461,7 +11509,7 @@
       <c r="L142"/>
       <c r="M142"/>
       <c r="N142" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
@@ -11497,7 +11545,7 @@
       <c r="L143"/>
       <c r="M143"/>
       <c r="N143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144">
@@ -11537,7 +11585,7 @@
       <c r="L144"/>
       <c r="M144"/>
       <c r="N144" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
@@ -11577,7 +11625,7 @@
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
@@ -11591,7 +11639,7 @@
         <v>659</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E146" t="s">
         <v>660</v>
@@ -11609,7 +11657,7 @@
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147">
@@ -11711,7 +11759,9 @@
       <c r="D149" t="s">
         <v>41</v>
       </c>
-      <c r="E149"/>
+      <c r="E149" t="s">
+        <v>35</v>
+      </c>
       <c r="F149"/>
       <c r="G149"/>
       <c r="H149" t="s">
@@ -11805,7 +11855,7 @@
         <v>22</v>
       </c>
       <c r="N151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -11821,7 +11871,9 @@
       <c r="D152" t="s">
         <v>193</v>
       </c>
-      <c r="E152"/>
+      <c r="E152" t="s">
+        <v>35</v>
+      </c>
       <c r="F152"/>
       <c r="G152"/>
       <c r="H152" t="s">
@@ -11835,7 +11887,7 @@
       <c r="L152"/>
       <c r="M152"/>
       <c r="N152" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153">
@@ -11915,7 +11967,7 @@
         <v>22</v>
       </c>
       <c r="N154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155">
@@ -11955,7 +12007,7 @@
         <v>22</v>
       </c>
       <c r="N155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156">
@@ -11995,7 +12047,7 @@
       <c r="L156"/>
       <c r="M156"/>
       <c r="N156" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157">
@@ -12075,7 +12127,7 @@
         <v>22</v>
       </c>
       <c r="N158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159">
@@ -12135,7 +12187,9 @@
       <c r="D160" t="s">
         <v>193</v>
       </c>
-      <c r="E160"/>
+      <c r="E160" t="s">
+        <v>35</v>
+      </c>
       <c r="F160"/>
       <c r="G160"/>
       <c r="H160" t="s">
@@ -12149,7 +12203,7 @@
       <c r="L160"/>
       <c r="M160"/>
       <c r="N160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161">
@@ -12163,7 +12217,7 @@
         <v>734</v>
       </c>
       <c r="D161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E161" t="s">
         <v>735</v>
@@ -12189,7 +12243,7 @@
       <c r="L161"/>
       <c r="M161"/>
       <c r="N161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162">
@@ -12229,7 +12283,7 @@
         <v>22</v>
       </c>
       <c r="N162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163">
@@ -12287,13 +12341,13 @@
         <v>749</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E164" t="s">
         <v>750</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G164" t="s">
         <v>751</v>
@@ -12309,7 +12363,7 @@
       <c r="L164"/>
       <c r="M164"/>
       <c r="N164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165">
@@ -12365,7 +12419,9 @@
       <c r="D166" t="s">
         <v>193</v>
       </c>
-      <c r="E166"/>
+      <c r="E166" t="s">
+        <v>35</v>
+      </c>
       <c r="F166"/>
       <c r="G166"/>
       <c r="H166" t="s">
@@ -12379,7 +12435,7 @@
       <c r="L166"/>
       <c r="M166"/>
       <c r="N166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167">
@@ -12395,7 +12451,9 @@
       <c r="D167" t="s">
         <v>16</v>
       </c>
-      <c r="E167"/>
+      <c r="E167" t="s">
+        <v>35</v>
+      </c>
       <c r="F167"/>
       <c r="G167"/>
       <c r="H167" t="s">
@@ -12409,7 +12467,7 @@
       <c r="L167"/>
       <c r="M167"/>
       <c r="N167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168">
@@ -12423,7 +12481,9 @@
       <c r="D168" t="s">
         <v>41</v>
       </c>
-      <c r="E168"/>
+      <c r="E168" t="s">
+        <v>35</v>
+      </c>
       <c r="F168"/>
       <c r="G168"/>
       <c r="H168" t="s">
@@ -12481,7 +12541,7 @@
         <v>22</v>
       </c>
       <c r="N169" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
@@ -12497,7 +12557,9 @@
       <c r="D170" t="s">
         <v>41</v>
       </c>
-      <c r="E170"/>
+      <c r="E170" t="s">
+        <v>35</v>
+      </c>
       <c r="F170"/>
       <c r="G170"/>
       <c r="H170" t="s">
@@ -12511,7 +12573,7 @@
       <c r="L170"/>
       <c r="M170"/>
       <c r="N170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -12547,7 +12609,7 @@
       <c r="L171"/>
       <c r="M171"/>
       <c r="N171" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172">
@@ -12587,7 +12649,7 @@
         <v>22</v>
       </c>
       <c r="N172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173">
@@ -12601,7 +12663,7 @@
         <v>787</v>
       </c>
       <c r="D173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E173" t="s">
         <v>788</v>
@@ -12767,7 +12829,9 @@
       <c r="D177" t="s">
         <v>41</v>
       </c>
-      <c r="E177"/>
+      <c r="E177" t="s">
+        <v>35</v>
+      </c>
       <c r="F177"/>
       <c r="G177"/>
       <c r="H177" t="s">
@@ -12781,7 +12845,7 @@
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178">
@@ -12793,7 +12857,9 @@
         <v>813</v>
       </c>
       <c r="D178"/>
-      <c r="E178"/>
+      <c r="E178" t="s">
+        <v>35</v>
+      </c>
       <c r="F178"/>
       <c r="G178"/>
       <c r="H178" t="s">
@@ -12847,7 +12913,7 @@
       <c r="L179"/>
       <c r="M179"/>
       <c r="N179" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180">
@@ -12883,7 +12949,7 @@
       <c r="L180"/>
       <c r="M180"/>
       <c r="N180" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -12899,7 +12965,9 @@
       <c r="D181" t="s">
         <v>193</v>
       </c>
-      <c r="E181"/>
+      <c r="E181" t="s">
+        <v>35</v>
+      </c>
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181" t="s">
@@ -12913,7 +12981,7 @@
       <c r="L181"/>
       <c r="M181"/>
       <c r="N181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182">
@@ -12929,7 +12997,9 @@
       <c r="D182" t="s">
         <v>41</v>
       </c>
-      <c r="E182"/>
+      <c r="E182" t="s">
+        <v>35</v>
+      </c>
       <c r="F182"/>
       <c r="G182"/>
       <c r="H182" t="s">
@@ -12943,7 +13013,7 @@
       <c r="L182"/>
       <c r="M182"/>
       <c r="N182" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183">
@@ -12987,7 +13057,7 @@
         <v>22</v>
       </c>
       <c r="N183" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184">
@@ -13023,7 +13093,7 @@
         <v>22</v>
       </c>
       <c r="N184" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185">
@@ -13039,7 +13109,9 @@
       <c r="D185" t="s">
         <v>41</v>
       </c>
-      <c r="E185"/>
+      <c r="E185" t="s">
+        <v>35</v>
+      </c>
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185" t="s">
@@ -13097,7 +13169,7 @@
         <v>22</v>
       </c>
       <c r="N186" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187">
@@ -13111,7 +13183,7 @@
         <v>847</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E187" t="s">
         <v>848</v>
@@ -13181,7 +13253,7 @@
       <c r="L188"/>
       <c r="M188"/>
       <c r="N188" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189">
@@ -13195,7 +13267,7 @@
         <v>858</v>
       </c>
       <c r="D189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E189" t="s">
         <v>859</v>
@@ -13221,7 +13293,7 @@
       <c r="L189"/>
       <c r="M189"/>
       <c r="N189" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190">
@@ -13235,9 +13307,11 @@
         <v>862</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
-      </c>
-      <c r="E190"/>
+        <v>25</v>
+      </c>
+      <c r="E190" t="s">
+        <v>35</v>
+      </c>
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190" t="s">
@@ -13251,7 +13325,7 @@
       <c r="L190"/>
       <c r="M190"/>
       <c r="N190" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -13295,7 +13369,7 @@
         <v>22</v>
       </c>
       <c r="N191" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192">
@@ -13311,7 +13385,9 @@
       <c r="D192" t="s">
         <v>41</v>
       </c>
-      <c r="E192"/>
+      <c r="E192" t="s">
+        <v>35</v>
+      </c>
       <c r="F192"/>
       <c r="G192"/>
       <c r="H192" t="s">
@@ -13325,7 +13401,7 @@
       <c r="L192"/>
       <c r="M192"/>
       <c r="N192" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193">
@@ -13357,7 +13433,7 @@
       <c r="L193"/>
       <c r="M193"/>
       <c r="N193" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
@@ -13389,7 +13465,7 @@
       <c r="L194"/>
       <c r="M194"/>
       <c r="N194" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195">
@@ -13433,7 +13509,7 @@
         <v>22</v>
       </c>
       <c r="N195" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196">
@@ -13447,9 +13523,11 @@
         <v>888</v>
       </c>
       <c r="D196" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" t="s">
         <v>35</v>
       </c>
-      <c r="E196"/>
       <c r="F196"/>
       <c r="G196"/>
       <c r="H196" t="s">
@@ -13463,7 +13541,7 @@
       <c r="L196"/>
       <c r="M196"/>
       <c r="N196" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197">
@@ -13499,7 +13577,7 @@
       <c r="L197"/>
       <c r="M197"/>
       <c r="N197" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198">
@@ -13543,7 +13621,7 @@
         <v>22</v>
       </c>
       <c r="N198" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199">
@@ -13583,7 +13661,7 @@
       <c r="L199"/>
       <c r="M199"/>
       <c r="N199" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
@@ -13637,7 +13715,9 @@
       <c r="D201" t="s">
         <v>47</v>
       </c>
-      <c r="E201"/>
+      <c r="E201" t="s">
+        <v>35</v>
+      </c>
       <c r="F201"/>
       <c r="G201"/>
       <c r="H201" t="s">
@@ -13667,7 +13747,9 @@
       <c r="D202" t="s">
         <v>41</v>
       </c>
-      <c r="E202"/>
+      <c r="E202" t="s">
+        <v>35</v>
+      </c>
       <c r="F202"/>
       <c r="G202"/>
       <c r="H202" t="s">
@@ -13681,7 +13763,7 @@
       <c r="L202"/>
       <c r="M202"/>
       <c r="N202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203">
@@ -13721,7 +13803,7 @@
       <c r="L203"/>
       <c r="M203"/>
       <c r="N203" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204">
@@ -13735,7 +13817,7 @@
         <v>921</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E204" t="s">
         <v>922</v>
@@ -13773,7 +13855,9 @@
       <c r="D205" t="s">
         <v>47</v>
       </c>
-      <c r="E205"/>
+      <c r="E205" t="s">
+        <v>35</v>
+      </c>
       <c r="F205"/>
       <c r="G205"/>
       <c r="H205" t="s">
@@ -13787,7 +13871,7 @@
       <c r="L205"/>
       <c r="M205"/>
       <c r="N205" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206">
@@ -13801,7 +13885,7 @@
         <v>929</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E206" t="s">
         <v>930</v>
@@ -13823,7 +13907,7 @@
       <c r="L206"/>
       <c r="M206"/>
       <c r="N206" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207">
@@ -13863,7 +13947,7 @@
       <c r="L207"/>
       <c r="M207"/>
       <c r="N207" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208">
@@ -13879,7 +13963,9 @@
       <c r="D208" t="s">
         <v>47</v>
       </c>
-      <c r="E208"/>
+      <c r="E208" t="s">
+        <v>35</v>
+      </c>
       <c r="F208"/>
       <c r="G208"/>
       <c r="H208" t="s">
@@ -13893,7 +13979,7 @@
       <c r="L208"/>
       <c r="M208"/>
       <c r="N208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209">
@@ -13907,7 +13993,9 @@
       <c r="D209" t="s">
         <v>941</v>
       </c>
-      <c r="E209"/>
+      <c r="E209" t="s">
+        <v>35</v>
+      </c>
       <c r="F209"/>
       <c r="G209"/>
       <c r="H209" t="s">
@@ -13953,7 +14041,7 @@
       <c r="L210"/>
       <c r="M210"/>
       <c r="N210" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -14007,7 +14095,9 @@
       <c r="D212" t="s">
         <v>198</v>
       </c>
-      <c r="E212"/>
+      <c r="E212" t="s">
+        <v>35</v>
+      </c>
       <c r="F212"/>
       <c r="G212"/>
       <c r="H212" t="s">
@@ -14035,7 +14125,9 @@
       <c r="D213" t="s">
         <v>198</v>
       </c>
-      <c r="E213"/>
+      <c r="E213" t="s">
+        <v>35</v>
+      </c>
       <c r="F213"/>
       <c r="G213"/>
       <c r="H213" t="s">
@@ -14063,7 +14155,7 @@
         <v>957</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E214" t="s">
         <v>958</v>
@@ -14089,7 +14181,7 @@
         <v>22</v>
       </c>
       <c r="N214" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215">
@@ -14129,7 +14221,7 @@
         <v>22</v>
       </c>
       <c r="N215" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216">
@@ -14143,7 +14235,7 @@
         <v>966</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E216" t="s">
         <v>967</v>
@@ -14165,7 +14257,7 @@
       <c r="L216"/>
       <c r="M216"/>
       <c r="N216" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217">
@@ -14223,7 +14315,7 @@
         <v>978</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E218" t="s">
         <v>979</v>
@@ -14267,7 +14359,7 @@
         <v>984</v>
       </c>
       <c r="D219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E219" t="s">
         <v>985</v>
@@ -14293,7 +14385,7 @@
       <c r="L219"/>
       <c r="M219"/>
       <c r="N219" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220">
@@ -14351,7 +14443,9 @@
       <c r="D221" t="s">
         <v>47</v>
       </c>
-      <c r="E221"/>
+      <c r="E221" t="s">
+        <v>35</v>
+      </c>
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221" t="s">
@@ -14379,7 +14473,9 @@
       <c r="D222" t="s">
         <v>47</v>
       </c>
-      <c r="E222"/>
+      <c r="E222" t="s">
+        <v>35</v>
+      </c>
       <c r="F222"/>
       <c r="G222"/>
       <c r="H222" t="s">
@@ -14407,7 +14503,7 @@
         <v>999</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E223" t="s">
         <v>1000</v>
@@ -14445,9 +14541,11 @@
         <v>1006</v>
       </c>
       <c r="D224" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" t="s">
         <v>35</v>
       </c>
-      <c r="E224"/>
       <c r="F224"/>
       <c r="G224"/>
       <c r="H224" t="s">
@@ -14477,7 +14575,9 @@
       <c r="D225" t="s">
         <v>41</v>
       </c>
-      <c r="E225"/>
+      <c r="E225" t="s">
+        <v>35</v>
+      </c>
       <c r="F225"/>
       <c r="G225"/>
       <c r="H225" t="s">
@@ -14531,7 +14631,7 @@
         <v>22</v>
       </c>
       <c r="N226" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227">
@@ -14563,7 +14663,7 @@
       <c r="L227"/>
       <c r="M227"/>
       <c r="N227" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -14579,7 +14679,9 @@
       <c r="D228" t="s">
         <v>58</v>
       </c>
-      <c r="E228"/>
+      <c r="E228" t="s">
+        <v>35</v>
+      </c>
       <c r="F228"/>
       <c r="G228"/>
       <c r="H228" t="s">
@@ -14593,7 +14695,7 @@
       <c r="L228"/>
       <c r="M228"/>
       <c r="N228" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229">
@@ -14669,7 +14771,7 @@
       <c r="L230"/>
       <c r="M230"/>
       <c r="N230" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231">
@@ -14683,7 +14785,9 @@
       <c r="D231" t="s">
         <v>41</v>
       </c>
-      <c r="E231"/>
+      <c r="E231" t="s">
+        <v>35</v>
+      </c>
       <c r="F231"/>
       <c r="G231"/>
       <c r="H231" t="s">
@@ -14711,7 +14815,7 @@
         <v>1038</v>
       </c>
       <c r="D232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E232" t="s">
         <v>1039</v>
@@ -14799,7 +14903,9 @@
       <c r="D234" t="s">
         <v>41</v>
       </c>
-      <c r="E234"/>
+      <c r="E234" t="s">
+        <v>35</v>
+      </c>
       <c r="F234"/>
       <c r="G234"/>
       <c r="H234" t="s">
@@ -14853,7 +14959,7 @@
       <c r="L235"/>
       <c r="M235"/>
       <c r="N235" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236">
@@ -14893,7 +14999,7 @@
       <c r="L236"/>
       <c r="M236"/>
       <c r="N236" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237">
@@ -14937,7 +15043,7 @@
         <v>22</v>
       </c>
       <c r="N237" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
@@ -14977,7 +15083,7 @@
       <c r="L238"/>
       <c r="M238"/>
       <c r="N238" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239">
@@ -14991,7 +15097,9 @@
       <c r="D239" t="s">
         <v>941</v>
       </c>
-      <c r="E239"/>
+      <c r="E239" t="s">
+        <v>35</v>
+      </c>
       <c r="F239"/>
       <c r="G239"/>
       <c r="H239" t="s">
@@ -15021,7 +15129,9 @@
       <c r="D240" t="s">
         <v>193</v>
       </c>
-      <c r="E240"/>
+      <c r="E240" t="s">
+        <v>35</v>
+      </c>
       <c r="F240"/>
       <c r="G240"/>
       <c r="H240" t="s">
@@ -15035,7 +15145,7 @@
       <c r="L240"/>
       <c r="M240"/>
       <c r="N240" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241">
@@ -15075,7 +15185,7 @@
         <v>22</v>
       </c>
       <c r="N241" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242">
@@ -15089,9 +15199,11 @@
         <v>1080</v>
       </c>
       <c r="D242" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242" t="s">
         <v>35</v>
       </c>
-      <c r="E242"/>
       <c r="F242"/>
       <c r="G242"/>
       <c r="H242" t="s">
@@ -15159,7 +15271,9 @@
       <c r="D244" t="s">
         <v>198</v>
       </c>
-      <c r="E244"/>
+      <c r="E244" t="s">
+        <v>35</v>
+      </c>
       <c r="F244"/>
       <c r="G244"/>
       <c r="H244" t="s">
@@ -15227,7 +15341,9 @@
       <c r="D246" t="s">
         <v>41</v>
       </c>
-      <c r="E246"/>
+      <c r="E246" t="s">
+        <v>35</v>
+      </c>
       <c r="F246"/>
       <c r="G246"/>
       <c r="H246" t="s">
@@ -15241,7 +15357,7 @@
       <c r="L246"/>
       <c r="M246"/>
       <c r="N246" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -15281,7 +15397,7 @@
       <c r="L247"/>
       <c r="M247"/>
       <c r="N247" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248">
@@ -15325,7 +15441,7 @@
         <v>22</v>
       </c>
       <c r="N248" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
@@ -15365,7 +15481,7 @@
       <c r="L249"/>
       <c r="M249"/>
       <c r="N249" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -15421,7 +15537,9 @@
       <c r="D251" t="s">
         <v>41</v>
       </c>
-      <c r="E251"/>
+      <c r="E251" t="s">
+        <v>35</v>
+      </c>
       <c r="F251"/>
       <c r="G251"/>
       <c r="H251" t="s">
@@ -15435,7 +15553,7 @@
       <c r="L251"/>
       <c r="M251"/>
       <c r="N251" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
@@ -15451,7 +15569,9 @@
       <c r="D252" t="s">
         <v>193</v>
       </c>
-      <c r="E252"/>
+      <c r="E252" t="s">
+        <v>35</v>
+      </c>
       <c r="F252"/>
       <c r="G252"/>
       <c r="H252" t="s">
@@ -15465,7 +15585,7 @@
       <c r="L252"/>
       <c r="M252"/>
       <c r="N252" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253">
@@ -15563,7 +15683,9 @@
       <c r="D255" t="s">
         <v>58</v>
       </c>
-      <c r="E255"/>
+      <c r="E255" t="s">
+        <v>35</v>
+      </c>
       <c r="F255"/>
       <c r="G255"/>
       <c r="H255" t="s">
@@ -15591,7 +15713,7 @@
         <v>1134</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E256" t="s">
         <v>1135</v>
@@ -15631,7 +15753,7 @@
         <v>1140</v>
       </c>
       <c r="D257" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E257" t="s">
         <v>1141</v>
@@ -15693,7 +15815,7 @@
       <c r="L258"/>
       <c r="M258"/>
       <c r="N258" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
@@ -15707,7 +15829,7 @@
         <v>1150</v>
       </c>
       <c r="D259" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E259" t="s">
         <v>1151</v>
@@ -15737,7 +15859,7 @@
         <v>22</v>
       </c>
       <c r="N259" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260">
@@ -15753,7 +15875,9 @@
       <c r="D260" t="s">
         <v>193</v>
       </c>
-      <c r="E260"/>
+      <c r="E260" t="s">
+        <v>35</v>
+      </c>
       <c r="F260"/>
       <c r="G260"/>
       <c r="H260" t="s">
@@ -15767,7 +15891,7 @@
       <c r="L260"/>
       <c r="M260"/>
       <c r="N260" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261">
@@ -15825,7 +15949,7 @@
         <v>1163</v>
       </c>
       <c r="D262" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E262" t="s">
         <v>1164</v>
@@ -15851,7 +15975,7 @@
       <c r="L262"/>
       <c r="M262"/>
       <c r="N262" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263">
@@ -15867,7 +15991,9 @@
       <c r="D263" t="s">
         <v>41</v>
       </c>
-      <c r="E263"/>
+      <c r="E263" t="s">
+        <v>35</v>
+      </c>
       <c r="F263"/>
       <c r="G263"/>
       <c r="H263" t="s">
@@ -15881,7 +16007,7 @@
       <c r="L263"/>
       <c r="M263"/>
       <c r="N263" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264">
@@ -15917,7 +16043,7 @@
       <c r="L264"/>
       <c r="M264"/>
       <c r="N264" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265">
@@ -15993,7 +16119,7 @@
       <c r="L266"/>
       <c r="M266"/>
       <c r="N266" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267">
@@ -16009,7 +16135,9 @@
       <c r="D267" t="s">
         <v>58</v>
       </c>
-      <c r="E267"/>
+      <c r="E267" t="s">
+        <v>35</v>
+      </c>
       <c r="F267"/>
       <c r="G267"/>
       <c r="H267" t="s">
@@ -16023,7 +16151,7 @@
       <c r="L267"/>
       <c r="M267"/>
       <c r="N267" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268">
@@ -16055,7 +16183,7 @@
       <c r="L268"/>
       <c r="M268"/>
       <c r="N268" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269">
@@ -16105,9 +16233,11 @@
         <v>1197</v>
       </c>
       <c r="D270" t="s">
+        <v>34</v>
+      </c>
+      <c r="E270" t="s">
         <v>35</v>
       </c>
-      <c r="E270"/>
       <c r="F270"/>
       <c r="G270"/>
       <c r="H270" t="s">
@@ -16121,7 +16251,7 @@
       <c r="L270"/>
       <c r="M270"/>
       <c r="N270" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271">
@@ -16161,7 +16291,7 @@
       <c r="L271"/>
       <c r="M271"/>
       <c r="N271" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272">
@@ -16177,7 +16307,9 @@
       <c r="D272" t="s">
         <v>41</v>
       </c>
-      <c r="E272"/>
+      <c r="E272" t="s">
+        <v>35</v>
+      </c>
       <c r="F272"/>
       <c r="G272"/>
       <c r="H272" t="s">
@@ -16291,7 +16423,9 @@
       <c r="D275" t="s">
         <v>41</v>
       </c>
-      <c r="E275"/>
+      <c r="E275" t="s">
+        <v>35</v>
+      </c>
       <c r="F275"/>
       <c r="G275"/>
       <c r="H275" t="s">
@@ -16305,7 +16439,7 @@
       <c r="L275"/>
       <c r="M275"/>
       <c r="N275" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276">
@@ -16321,7 +16455,9 @@
       <c r="D276" t="s">
         <v>193</v>
       </c>
-      <c r="E276"/>
+      <c r="E276" t="s">
+        <v>35</v>
+      </c>
       <c r="F276"/>
       <c r="G276"/>
       <c r="H276" t="s">
@@ -16335,7 +16471,7 @@
       <c r="L276"/>
       <c r="M276"/>
       <c r="N276" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277">
@@ -16375,7 +16511,7 @@
       <c r="L277"/>
       <c r="M277"/>
       <c r="N277" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278">
@@ -16411,7 +16547,7 @@
       <c r="L278"/>
       <c r="M278"/>
       <c r="N278" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279">
@@ -16467,7 +16603,9 @@
       <c r="D280" t="s">
         <v>41</v>
       </c>
-      <c r="E280"/>
+      <c r="E280" t="s">
+        <v>35</v>
+      </c>
       <c r="F280"/>
       <c r="G280"/>
       <c r="H280" t="s">
@@ -16481,7 +16619,7 @@
       <c r="L280"/>
       <c r="M280"/>
       <c r="N280" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281">
@@ -16521,7 +16659,7 @@
       <c r="L281"/>
       <c r="M281"/>
       <c r="N281" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
@@ -16577,7 +16715,9 @@
       <c r="D283" t="s">
         <v>130</v>
       </c>
-      <c r="E283"/>
+      <c r="E283" t="s">
+        <v>35</v>
+      </c>
       <c r="F283"/>
       <c r="G283"/>
       <c r="H283" t="s">
@@ -16591,7 +16731,7 @@
       <c r="L283"/>
       <c r="M283"/>
       <c r="N283" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284">
@@ -16607,7 +16747,9 @@
       <c r="D284" t="s">
         <v>41</v>
       </c>
-      <c r="E284"/>
+      <c r="E284" t="s">
+        <v>35</v>
+      </c>
       <c r="F284"/>
       <c r="G284"/>
       <c r="H284" t="s">
@@ -16635,7 +16777,7 @@
         <v>1262</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E285" t="s">
         <v>1263</v>
@@ -16657,7 +16799,7 @@
       <c r="L285"/>
       <c r="M285"/>
       <c r="N285" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286">
@@ -16715,7 +16857,7 @@
         <v>1273</v>
       </c>
       <c r="D287" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E287" t="s">
         <v>1274</v>
@@ -16741,7 +16883,7 @@
       <c r="L287"/>
       <c r="M287"/>
       <c r="N287" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288">
@@ -16781,7 +16923,7 @@
         <v>22</v>
       </c>
       <c r="N288" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289">
@@ -16797,7 +16939,9 @@
       <c r="D289" t="s">
         <v>41</v>
       </c>
-      <c r="E289"/>
+      <c r="E289" t="s">
+        <v>35</v>
+      </c>
       <c r="F289"/>
       <c r="G289"/>
       <c r="H289" t="s">
@@ -16811,7 +16955,7 @@
       <c r="L289"/>
       <c r="M289"/>
       <c r="N289" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290">
@@ -16827,7 +16971,9 @@
       <c r="D290" t="s">
         <v>193</v>
       </c>
-      <c r="E290"/>
+      <c r="E290" t="s">
+        <v>35</v>
+      </c>
       <c r="F290"/>
       <c r="G290"/>
       <c r="H290" t="s">
@@ -16841,7 +16987,7 @@
       <c r="L290"/>
       <c r="M290"/>
       <c r="N290" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291">
@@ -16877,7 +17023,7 @@
       <c r="L291"/>
       <c r="M291"/>
       <c r="N291" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292">
@@ -16891,7 +17037,9 @@
       <c r="D292" t="s">
         <v>41</v>
       </c>
-      <c r="E292"/>
+      <c r="E292" t="s">
+        <v>35</v>
+      </c>
       <c r="F292"/>
       <c r="G292"/>
       <c r="H292" t="s">
@@ -16949,7 +17097,7 @@
         <v>22</v>
       </c>
       <c r="N293" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294">
@@ -17033,7 +17181,7 @@
       <c r="L295"/>
       <c r="M295"/>
       <c r="N295" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296">
@@ -17089,7 +17237,9 @@
         <v>1313</v>
       </c>
       <c r="D297"/>
-      <c r="E297"/>
+      <c r="E297" t="s">
+        <v>35</v>
+      </c>
       <c r="F297"/>
       <c r="G297"/>
       <c r="H297" t="s">
@@ -17119,7 +17269,9 @@
       <c r="D298" t="s">
         <v>16</v>
       </c>
-      <c r="E298"/>
+      <c r="E298" t="s">
+        <v>35</v>
+      </c>
       <c r="F298"/>
       <c r="G298"/>
       <c r="H298" t="s">
@@ -17133,7 +17285,7 @@
       <c r="L298"/>
       <c r="M298"/>
       <c r="N298" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299">
@@ -17149,7 +17301,9 @@
       <c r="D299" t="s">
         <v>198</v>
       </c>
-      <c r="E299"/>
+      <c r="E299" t="s">
+        <v>35</v>
+      </c>
       <c r="F299"/>
       <c r="G299"/>
       <c r="H299" t="s">
@@ -17163,7 +17317,7 @@
       <c r="L299"/>
       <c r="M299"/>
       <c r="N299" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300">
@@ -17199,7 +17353,7 @@
       <c r="L300"/>
       <c r="M300"/>
       <c r="N300" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301">
@@ -17239,7 +17393,7 @@
         <v>22</v>
       </c>
       <c r="N301" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302">
@@ -17323,7 +17477,7 @@
       <c r="L303"/>
       <c r="M303"/>
       <c r="N303" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304">
@@ -17337,7 +17491,9 @@
       <c r="D304" t="s">
         <v>58</v>
       </c>
-      <c r="E304"/>
+      <c r="E304" t="s">
+        <v>35</v>
+      </c>
       <c r="F304"/>
       <c r="G304"/>
       <c r="H304" t="s">
@@ -17365,7 +17521,9 @@
       <c r="D305" t="s">
         <v>58</v>
       </c>
-      <c r="E305"/>
+      <c r="E305" t="s">
+        <v>35</v>
+      </c>
       <c r="F305"/>
       <c r="G305"/>
       <c r="H305" t="s">
@@ -17415,7 +17573,7 @@
       <c r="L306"/>
       <c r="M306"/>
       <c r="N306" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307">
@@ -17431,7 +17589,9 @@
       <c r="D307" t="s">
         <v>47</v>
       </c>
-      <c r="E307"/>
+      <c r="E307" t="s">
+        <v>35</v>
+      </c>
       <c r="F307"/>
       <c r="G307"/>
       <c r="H307" t="s">
@@ -17445,7 +17605,7 @@
       <c r="L307"/>
       <c r="M307"/>
       <c r="N307" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308">
@@ -17461,7 +17621,9 @@
       <c r="D308" t="s">
         <v>41</v>
       </c>
-      <c r="E308"/>
+      <c r="E308" t="s">
+        <v>35</v>
+      </c>
       <c r="F308"/>
       <c r="G308"/>
       <c r="H308" t="s">
@@ -17491,7 +17653,9 @@
       <c r="D309" t="s">
         <v>41</v>
       </c>
-      <c r="E309"/>
+      <c r="E309" t="s">
+        <v>35</v>
+      </c>
       <c r="F309"/>
       <c r="G309"/>
       <c r="H309" t="s">
@@ -17505,7 +17669,7 @@
       <c r="L309"/>
       <c r="M309"/>
       <c r="N309" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310">
@@ -17585,7 +17749,7 @@
       <c r="L311"/>
       <c r="M311"/>
       <c r="N311" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312">
@@ -17599,9 +17763,11 @@
         <v>1365</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
-      </c>
-      <c r="E312"/>
+        <v>25</v>
+      </c>
+      <c r="E312" t="s">
+        <v>35</v>
+      </c>
       <c r="F312"/>
       <c r="G312"/>
       <c r="H312" t="s">
@@ -17615,7 +17781,7 @@
       <c r="L312"/>
       <c r="M312"/>
       <c r="N312" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313">
@@ -17655,7 +17821,7 @@
       <c r="L313"/>
       <c r="M313"/>
       <c r="N313" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314">
@@ -17709,7 +17875,9 @@
       <c r="D315" t="s">
         <v>58</v>
       </c>
-      <c r="E315"/>
+      <c r="E315" t="s">
+        <v>35</v>
+      </c>
       <c r="F315"/>
       <c r="G315"/>
       <c r="H315" t="s">
@@ -17763,7 +17931,7 @@
         <v>22</v>
       </c>
       <c r="N316" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317">
@@ -17779,7 +17947,9 @@
       <c r="D317" t="s">
         <v>58</v>
       </c>
-      <c r="E317"/>
+      <c r="E317" t="s">
+        <v>35</v>
+      </c>
       <c r="F317"/>
       <c r="G317"/>
       <c r="H317" t="s">
@@ -17793,7 +17963,7 @@
       <c r="L317"/>
       <c r="M317"/>
       <c r="N317" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318">
@@ -17807,9 +17977,11 @@
         <v>1390</v>
       </c>
       <c r="D318" t="s">
+        <v>34</v>
+      </c>
+      <c r="E318" t="s">
         <v>35</v>
       </c>
-      <c r="E318"/>
       <c r="F318"/>
       <c r="G318"/>
       <c r="H318" t="s">
@@ -17823,7 +17995,7 @@
       <c r="L318"/>
       <c r="M318"/>
       <c r="N318" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319">
@@ -17863,7 +18035,7 @@
       <c r="L319"/>
       <c r="M319"/>
       <c r="N319" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320">
@@ -17903,7 +18075,7 @@
       <c r="L320"/>
       <c r="M320"/>
       <c r="N320" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321">
@@ -17943,7 +18115,7 @@
       <c r="L321"/>
       <c r="M321"/>
       <c r="N321" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322">
@@ -18033,7 +18205,9 @@
       <c r="D324" t="s">
         <v>672</v>
       </c>
-      <c r="E324"/>
+      <c r="E324" t="s">
+        <v>35</v>
+      </c>
       <c r="F324"/>
       <c r="G324"/>
       <c r="H324" t="s">
@@ -18061,7 +18235,7 @@
         <v>1418</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E325" t="s">
         <v>1419</v>
@@ -18107,7 +18281,9 @@
       <c r="D326" t="s">
         <v>193</v>
       </c>
-      <c r="E326"/>
+      <c r="E326" t="s">
+        <v>35</v>
+      </c>
       <c r="F326"/>
       <c r="G326"/>
       <c r="H326" t="s">
@@ -18121,7 +18297,7 @@
       <c r="L326"/>
       <c r="M326"/>
       <c r="N326" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327">
@@ -18137,7 +18313,9 @@
       <c r="D327" t="s">
         <v>193</v>
       </c>
-      <c r="E327"/>
+      <c r="E327" t="s">
+        <v>35</v>
+      </c>
       <c r="F327"/>
       <c r="G327"/>
       <c r="H327" t="s">
@@ -18151,7 +18329,7 @@
       <c r="L327"/>
       <c r="M327"/>
       <c r="N327" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328">
@@ -18201,9 +18379,11 @@
         <v>1433</v>
       </c>
       <c r="D329" t="s">
+        <v>34</v>
+      </c>
+      <c r="E329" t="s">
         <v>35</v>
       </c>
-      <c r="E329"/>
       <c r="F329"/>
       <c r="G329"/>
       <c r="H329" t="s">
@@ -18231,7 +18411,7 @@
         <v>1435</v>
       </c>
       <c r="D330" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E330" t="s">
         <v>1436</v>
@@ -18257,7 +18437,7 @@
       <c r="L330"/>
       <c r="M330"/>
       <c r="N330" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331">
@@ -18297,7 +18477,7 @@
         <v>22</v>
       </c>
       <c r="N331" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332">
@@ -18337,7 +18517,7 @@
       <c r="L332"/>
       <c r="M332"/>
       <c r="N332" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333">
@@ -18353,7 +18533,9 @@
       <c r="D333" t="s">
         <v>47</v>
       </c>
-      <c r="E333"/>
+      <c r="E333" t="s">
+        <v>35</v>
+      </c>
       <c r="F333"/>
       <c r="G333"/>
       <c r="H333" t="s">
@@ -18367,7 +18549,7 @@
       <c r="L333"/>
       <c r="M333"/>
       <c r="N333" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334">
@@ -18407,7 +18589,7 @@
       <c r="L334"/>
       <c r="M334"/>
       <c r="N334" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335">
@@ -18447,7 +18629,7 @@
       <c r="L335"/>
       <c r="M335"/>
       <c r="N335" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336">
@@ -18501,7 +18683,7 @@
         <v>1467</v>
       </c>
       <c r="D337" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E337" t="s">
         <v>1468</v>
@@ -18543,7 +18725,9 @@
       <c r="D338" t="s">
         <v>41</v>
       </c>
-      <c r="E338"/>
+      <c r="E338" t="s">
+        <v>35</v>
+      </c>
       <c r="F338"/>
       <c r="G338"/>
       <c r="H338" t="s">
@@ -18557,7 +18741,7 @@
       <c r="L338"/>
       <c r="M338"/>
       <c r="N338" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339">
@@ -18573,7 +18757,9 @@
       <c r="D339" t="s">
         <v>130</v>
       </c>
-      <c r="E339"/>
+      <c r="E339" t="s">
+        <v>35</v>
+      </c>
       <c r="F339"/>
       <c r="G339"/>
       <c r="H339" t="s">
@@ -18587,7 +18773,7 @@
       <c r="L339"/>
       <c r="M339"/>
       <c r="N339" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340">
@@ -18603,7 +18789,9 @@
       <c r="D340" t="s">
         <v>198</v>
       </c>
-      <c r="E340"/>
+      <c r="E340" t="s">
+        <v>35</v>
+      </c>
       <c r="F340"/>
       <c r="G340"/>
       <c r="H340" t="s">
@@ -18617,7 +18805,7 @@
       <c r="L340"/>
       <c r="M340"/>
       <c r="N340" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341">
@@ -18653,7 +18841,7 @@
       <c r="L341"/>
       <c r="M341"/>
       <c r="N341" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342">
@@ -18667,7 +18855,9 @@
       <c r="D342" t="s">
         <v>941</v>
       </c>
-      <c r="E342"/>
+      <c r="E342" t="s">
+        <v>35</v>
+      </c>
       <c r="F342"/>
       <c r="G342"/>
       <c r="H342" t="s">
@@ -18695,7 +18885,7 @@
         <v>1489</v>
       </c>
       <c r="D343" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E343" t="s">
         <v>1490</v>
@@ -18717,7 +18907,7 @@
       <c r="L343"/>
       <c r="M343"/>
       <c r="N343" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344">
@@ -18757,7 +18947,7 @@
         <v>22</v>
       </c>
       <c r="N344" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345">
@@ -18773,7 +18963,9 @@
       <c r="D345" t="s">
         <v>41</v>
       </c>
-      <c r="E345"/>
+      <c r="E345" t="s">
+        <v>35</v>
+      </c>
       <c r="F345"/>
       <c r="G345"/>
       <c r="H345" t="s">
@@ -18787,7 +18979,7 @@
       <c r="L345"/>
       <c r="M345"/>
       <c r="N345" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346">
@@ -18871,7 +19063,7 @@
         <v>22</v>
       </c>
       <c r="N347" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348">
@@ -18905,7 +19097,7 @@
       <c r="L348"/>
       <c r="M348"/>
       <c r="N348" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349">
@@ -19013,7 +19205,7 @@
         <v>22</v>
       </c>
       <c r="N351" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352">
@@ -19053,7 +19245,7 @@
       <c r="L352"/>
       <c r="M352"/>
       <c r="N352" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353">
@@ -19093,7 +19285,7 @@
       <c r="L353"/>
       <c r="M353"/>
       <c r="N353" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354">
@@ -19109,7 +19301,9 @@
       <c r="D354" t="s">
         <v>198</v>
       </c>
-      <c r="E354"/>
+      <c r="E354" t="s">
+        <v>35</v>
+      </c>
       <c r="F354"/>
       <c r="G354"/>
       <c r="H354" t="s">
@@ -19123,7 +19317,7 @@
       <c r="L354"/>
       <c r="M354"/>
       <c r="N354" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355">
@@ -19139,7 +19333,9 @@
       <c r="D355" t="s">
         <v>198</v>
       </c>
-      <c r="E355"/>
+      <c r="E355" t="s">
+        <v>35</v>
+      </c>
       <c r="F355"/>
       <c r="G355"/>
       <c r="H355" t="s">
@@ -19153,7 +19349,7 @@
       <c r="L355"/>
       <c r="M355"/>
       <c r="N355" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356">
@@ -19167,7 +19363,7 @@
         <v>1542</v>
       </c>
       <c r="D356" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E356" t="s">
         <v>1543</v>
@@ -19193,7 +19389,7 @@
       <c r="L356"/>
       <c r="M356"/>
       <c r="N356" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357">
@@ -19233,7 +19429,7 @@
         <v>22</v>
       </c>
       <c r="N357" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358">
@@ -19273,7 +19469,7 @@
       <c r="L358"/>
       <c r="M358"/>
       <c r="N358" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359">
@@ -19285,7 +19481,7 @@
         <v>1554</v>
       </c>
       <c r="D359" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E359" t="s">
         <v>1555</v>
@@ -19351,7 +19547,7 @@
       <c r="L360"/>
       <c r="M360"/>
       <c r="N360" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361">
@@ -19367,7 +19563,9 @@
       <c r="D361" t="s">
         <v>41</v>
       </c>
-      <c r="E361"/>
+      <c r="E361" t="s">
+        <v>35</v>
+      </c>
       <c r="F361"/>
       <c r="G361"/>
       <c r="H361" t="s">
@@ -19397,7 +19595,9 @@
       <c r="D362" t="s">
         <v>193</v>
       </c>
-      <c r="E362"/>
+      <c r="E362" t="s">
+        <v>35</v>
+      </c>
       <c r="F362"/>
       <c r="G362"/>
       <c r="H362" t="s">
@@ -19411,7 +19611,7 @@
       <c r="L362"/>
       <c r="M362"/>
       <c r="N362" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363">
@@ -19427,7 +19627,9 @@
       <c r="D363" t="s">
         <v>58</v>
       </c>
-      <c r="E363"/>
+      <c r="E363" t="s">
+        <v>35</v>
+      </c>
       <c r="F363"/>
       <c r="G363"/>
       <c r="H363" t="s">
@@ -19441,7 +19643,7 @@
       <c r="L363"/>
       <c r="M363"/>
       <c r="N363" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364">
@@ -19477,7 +19679,7 @@
       <c r="L364"/>
       <c r="M364"/>
       <c r="N364" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365">
@@ -19551,7 +19753,7 @@
         <v>22</v>
       </c>
       <c r="N366" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367">
@@ -19587,7 +19789,7 @@
       <c r="L367"/>
       <c r="M367"/>
       <c r="N367" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368">
@@ -19631,7 +19833,7 @@
         <v>22</v>
       </c>
       <c r="N368" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369">
@@ -19645,7 +19847,7 @@
         <v>1593</v>
       </c>
       <c r="D369" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E369" t="s">
         <v>1594</v>
@@ -19703,7 +19905,7 @@
       <c r="L370"/>
       <c r="M370"/>
       <c r="N370" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371">
@@ -19743,7 +19945,7 @@
         <v>22</v>
       </c>
       <c r="N371" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372">
@@ -19757,7 +19959,7 @@
         <v>1606</v>
       </c>
       <c r="D372" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E372" t="s">
         <v>1607</v>
@@ -19783,7 +19985,7 @@
       <c r="L372"/>
       <c r="M372"/>
       <c r="N372" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373">
@@ -19909,7 +20111,9 @@
       <c r="D376" t="s">
         <v>47</v>
       </c>
-      <c r="E376"/>
+      <c r="E376" t="s">
+        <v>35</v>
+      </c>
       <c r="F376"/>
       <c r="G376"/>
       <c r="H376" t="s">
@@ -19997,7 +20201,7 @@
         <v>22</v>
       </c>
       <c r="N378" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379">
@@ -20037,7 +20241,7 @@
         <v>22</v>
       </c>
       <c r="N379" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380">
@@ -20051,7 +20255,7 @@
         <v>1639</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E380" t="s">
         <v>1640</v>
@@ -20069,7 +20273,7 @@
       <c r="L380"/>
       <c r="M380"/>
       <c r="N380" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381">
@@ -20085,7 +20289,9 @@
       <c r="D381" t="s">
         <v>41</v>
       </c>
-      <c r="E381"/>
+      <c r="E381" t="s">
+        <v>35</v>
+      </c>
       <c r="F381"/>
       <c r="G381"/>
       <c r="H381" t="s">
@@ -20099,7 +20305,7 @@
       <c r="L381"/>
       <c r="M381"/>
       <c r="N381" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382">
@@ -20211,7 +20417,7 @@
       <c r="L384"/>
       <c r="M384"/>
       <c r="N384" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385">
@@ -20251,7 +20457,7 @@
       <c r="L385"/>
       <c r="M385"/>
       <c r="N385" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386">
@@ -20291,7 +20497,7 @@
       <c r="L386"/>
       <c r="M386"/>
       <c r="N386" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387">
@@ -20369,7 +20575,7 @@
         <v>22</v>
       </c>
       <c r="N388" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389">
@@ -20413,7 +20619,7 @@
         <v>22</v>
       </c>
       <c r="N389" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390">
@@ -20453,7 +20659,7 @@
       <c r="L390"/>
       <c r="M390"/>
       <c r="N390" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391">
@@ -20493,7 +20699,7 @@
       <c r="L391"/>
       <c r="M391"/>
       <c r="N391" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392">
@@ -20533,7 +20739,7 @@
       <c r="L392"/>
       <c r="M392"/>
       <c r="N392" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393">
@@ -20583,7 +20789,9 @@
       <c r="D394" t="s">
         <v>41</v>
       </c>
-      <c r="E394"/>
+      <c r="E394" t="s">
+        <v>35</v>
+      </c>
       <c r="F394"/>
       <c r="G394"/>
       <c r="H394" t="s">
@@ -20717,7 +20925,7 @@
       <c r="L397"/>
       <c r="M397"/>
       <c r="N397" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398">
@@ -20753,7 +20961,7 @@
       <c r="L398"/>
       <c r="M398"/>
       <c r="N398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399">
@@ -20793,7 +21001,7 @@
       <c r="L399"/>
       <c r="M399"/>
       <c r="N399" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400">
@@ -20871,7 +21079,7 @@
         <v>22</v>
       </c>
       <c r="N401" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402">
@@ -20941,7 +21149,7 @@
       <c r="L403"/>
       <c r="M403"/>
       <c r="N403" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404">
@@ -20981,7 +21189,7 @@
       <c r="L404"/>
       <c r="M404"/>
       <c r="N404" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405">
@@ -21021,7 +21229,7 @@
       <c r="L405"/>
       <c r="M405"/>
       <c r="N405" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406">
@@ -21077,7 +21285,9 @@
       <c r="D407" t="s">
         <v>41</v>
       </c>
-      <c r="E407"/>
+      <c r="E407" t="s">
+        <v>35</v>
+      </c>
       <c r="F407"/>
       <c r="G407"/>
       <c r="H407" t="s">
@@ -21091,7 +21301,7 @@
       <c r="L407"/>
       <c r="M407"/>
       <c r="N407" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408">
@@ -21167,7 +21377,7 @@
       <c r="L409"/>
       <c r="M409"/>
       <c r="N409" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410">
@@ -21183,7 +21393,9 @@
       <c r="D410" t="s">
         <v>41</v>
       </c>
-      <c r="E410"/>
+      <c r="E410" t="s">
+        <v>35</v>
+      </c>
       <c r="F410"/>
       <c r="G410"/>
       <c r="H410" t="s">
@@ -21213,7 +21425,9 @@
       <c r="D411" t="s">
         <v>41</v>
       </c>
-      <c r="E411"/>
+      <c r="E411" t="s">
+        <v>35</v>
+      </c>
       <c r="F411"/>
       <c r="G411"/>
       <c r="H411" t="s">
@@ -21243,7 +21457,9 @@
       <c r="D412" t="s">
         <v>41</v>
       </c>
-      <c r="E412"/>
+      <c r="E412" t="s">
+        <v>35</v>
+      </c>
       <c r="F412"/>
       <c r="G412"/>
       <c r="H412" t="s">
@@ -21257,7 +21473,7 @@
       <c r="L412"/>
       <c r="M412"/>
       <c r="N412" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="413">
@@ -21297,7 +21513,7 @@
       <c r="L413"/>
       <c r="M413"/>
       <c r="N413" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="414">
@@ -21313,7 +21529,9 @@
       <c r="D414" t="s">
         <v>41</v>
       </c>
-      <c r="E414"/>
+      <c r="E414" t="s">
+        <v>35</v>
+      </c>
       <c r="F414"/>
       <c r="G414"/>
       <c r="H414" t="s">
@@ -21327,7 +21545,7 @@
       <c r="L414"/>
       <c r="M414"/>
       <c r="N414" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415">
@@ -21367,7 +21585,7 @@
       <c r="L415"/>
       <c r="M415"/>
       <c r="N415" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416">
@@ -21383,7 +21601,9 @@
       <c r="D416" t="s">
         <v>41</v>
       </c>
-      <c r="E416"/>
+      <c r="E416" t="s">
+        <v>35</v>
+      </c>
       <c r="F416"/>
       <c r="G416"/>
       <c r="H416" t="s">
@@ -21397,7 +21617,7 @@
       <c r="L416"/>
       <c r="M416"/>
       <c r="N416" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417">
@@ -21433,7 +21653,7 @@
       <c r="L417"/>
       <c r="M417"/>
       <c r="N417" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418">
@@ -21449,7 +21669,9 @@
       <c r="D418" t="s">
         <v>198</v>
       </c>
-      <c r="E418"/>
+      <c r="E418" t="s">
+        <v>35</v>
+      </c>
       <c r="F418"/>
       <c r="G418"/>
       <c r="H418" t="s">
@@ -21507,7 +21729,7 @@
         <v>22</v>
       </c>
       <c r="N419" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420">
@@ -21561,7 +21783,9 @@
       <c r="D421" t="s">
         <v>130</v>
       </c>
-      <c r="E421"/>
+      <c r="E421" t="s">
+        <v>35</v>
+      </c>
       <c r="F421"/>
       <c r="G421"/>
       <c r="H421" t="s">
@@ -21611,7 +21835,7 @@
       <c r="L422"/>
       <c r="M422"/>
       <c r="N422" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423">
@@ -21625,7 +21849,7 @@
         <v>1812</v>
       </c>
       <c r="D423" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E423" t="s">
         <v>1813</v>
@@ -21651,7 +21875,7 @@
       <c r="L423"/>
       <c r="M423"/>
       <c r="N423" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424">
@@ -21691,7 +21915,7 @@
       <c r="L424"/>
       <c r="M424"/>
       <c r="N424" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="425">
@@ -21731,7 +21955,7 @@
         <v>22</v>
       </c>
       <c r="N425" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="426">
@@ -21745,7 +21969,7 @@
         <v>1827</v>
       </c>
       <c r="D426" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E426" t="s">
         <v>1828</v>
@@ -21771,7 +21995,7 @@
       <c r="L426"/>
       <c r="M426"/>
       <c r="N426" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427">
@@ -21785,7 +22009,7 @@
         <v>1833</v>
       </c>
       <c r="D427" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E427" t="s">
         <v>1834</v>
@@ -21803,7 +22027,7 @@
       <c r="L427"/>
       <c r="M427"/>
       <c r="N427" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428">
@@ -21839,7 +22063,7 @@
       <c r="L428"/>
       <c r="M428"/>
       <c r="N428" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="429">
@@ -21899,7 +22123,9 @@
       <c r="D430" t="s">
         <v>41</v>
       </c>
-      <c r="E430"/>
+      <c r="E430" t="s">
+        <v>35</v>
+      </c>
       <c r="F430"/>
       <c r="G430"/>
       <c r="H430" t="s">
@@ -21913,7 +22139,7 @@
       <c r="L430"/>
       <c r="M430"/>
       <c r="N430" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431">
@@ -21929,7 +22155,9 @@
       <c r="D431" t="s">
         <v>218</v>
       </c>
-      <c r="E431"/>
+      <c r="E431" t="s">
+        <v>35</v>
+      </c>
       <c r="F431"/>
       <c r="G431"/>
       <c r="H431" t="s">
@@ -21943,7 +22171,7 @@
       <c r="L431"/>
       <c r="M431"/>
       <c r="N431" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="432">
@@ -21987,7 +22215,7 @@
         <v>22</v>
       </c>
       <c r="N432" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="433">
@@ -22037,7 +22265,9 @@
       <c r="D434" t="s">
         <v>41</v>
       </c>
-      <c r="E434"/>
+      <c r="E434" t="s">
+        <v>35</v>
+      </c>
       <c r="F434"/>
       <c r="G434"/>
       <c r="H434" t="s">
@@ -22131,7 +22361,7 @@
         <v>22</v>
       </c>
       <c r="N436" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="437">
@@ -22171,7 +22401,7 @@
         <v>22</v>
       </c>
       <c r="N437" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438">
@@ -22203,7 +22433,7 @@
       <c r="L438"/>
       <c r="M438"/>
       <c r="N438" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439">
@@ -22217,9 +22447,11 @@
         <v>1884</v>
       </c>
       <c r="D439" t="s">
+        <v>34</v>
+      </c>
+      <c r="E439" t="s">
         <v>35</v>
       </c>
-      <c r="E439"/>
       <c r="F439"/>
       <c r="G439"/>
       <c r="H439" t="s">
@@ -22233,7 +22465,7 @@
       <c r="L439"/>
       <c r="M439"/>
       <c r="N439" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="440">
@@ -22247,9 +22479,11 @@
         <v>1887</v>
       </c>
       <c r="D440" t="s">
+        <v>34</v>
+      </c>
+      <c r="E440" t="s">
         <v>35</v>
       </c>
-      <c r="E440"/>
       <c r="F440"/>
       <c r="G440"/>
       <c r="H440" t="s">
@@ -22307,7 +22541,7 @@
         <v>22</v>
       </c>
       <c r="N441" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="442">
@@ -22347,7 +22581,7 @@
       <c r="L442"/>
       <c r="M442"/>
       <c r="N442" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443">
@@ -22363,7 +22597,9 @@
       <c r="D443" t="s">
         <v>41</v>
       </c>
-      <c r="E443"/>
+      <c r="E443" t="s">
+        <v>35</v>
+      </c>
       <c r="F443"/>
       <c r="G443"/>
       <c r="H443" t="s">
@@ -22377,7 +22613,7 @@
       <c r="L443"/>
       <c r="M443"/>
       <c r="N443" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="444">
@@ -22393,7 +22629,9 @@
       <c r="D444" t="s">
         <v>193</v>
       </c>
-      <c r="E444"/>
+      <c r="E444" t="s">
+        <v>35</v>
+      </c>
       <c r="F444"/>
       <c r="G444"/>
       <c r="H444" t="s">
@@ -22407,7 +22645,7 @@
       <c r="L444"/>
       <c r="M444"/>
       <c r="N444" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="445">
@@ -22423,7 +22661,9 @@
       <c r="D445" t="s">
         <v>41</v>
       </c>
-      <c r="E445"/>
+      <c r="E445" t="s">
+        <v>35</v>
+      </c>
       <c r="F445"/>
       <c r="G445"/>
       <c r="H445" t="s">
@@ -22437,7 +22677,7 @@
       <c r="L445"/>
       <c r="M445"/>
       <c r="N445" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446">
@@ -22491,7 +22731,9 @@
       <c r="D447" t="s">
         <v>47</v>
       </c>
-      <c r="E447"/>
+      <c r="E447" t="s">
+        <v>35</v>
+      </c>
       <c r="F447"/>
       <c r="G447"/>
       <c r="H447" t="s">
@@ -22541,7 +22783,7 @@
       <c r="L448"/>
       <c r="M448"/>
       <c r="N448" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449">
@@ -22621,7 +22863,7 @@
       <c r="L450"/>
       <c r="M450"/>
       <c r="N450" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451">
@@ -22635,7 +22877,7 @@
         <v>1933</v>
       </c>
       <c r="D451" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E451" t="s">
         <v>1934</v>
@@ -22661,7 +22903,7 @@
       <c r="L451"/>
       <c r="M451"/>
       <c r="N451" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="452">
@@ -22677,7 +22919,9 @@
       <c r="D452" t="s">
         <v>41</v>
       </c>
-      <c r="E452"/>
+      <c r="E452" t="s">
+        <v>35</v>
+      </c>
       <c r="F452"/>
       <c r="G452"/>
       <c r="H452" t="s">
@@ -22691,7 +22935,7 @@
       <c r="L452"/>
       <c r="M452"/>
       <c r="N452" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="453">
@@ -22735,7 +22979,7 @@
         <v>22</v>
       </c>
       <c r="N453" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454">
@@ -22749,9 +22993,11 @@
         <v>1945</v>
       </c>
       <c r="D454" t="s">
+        <v>34</v>
+      </c>
+      <c r="E454" t="s">
         <v>35</v>
       </c>
-      <c r="E454"/>
       <c r="F454"/>
       <c r="G454"/>
       <c r="H454" t="s">
@@ -22765,7 +23011,7 @@
       <c r="L454"/>
       <c r="M454"/>
       <c r="N454" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455">
@@ -22779,9 +23025,11 @@
         <v>1948</v>
       </c>
       <c r="D455" t="s">
+        <v>34</v>
+      </c>
+      <c r="E455" t="s">
         <v>35</v>
       </c>
-      <c r="E455"/>
       <c r="F455"/>
       <c r="G455"/>
       <c r="H455" t="s">
@@ -22809,9 +23057,11 @@
         <v>1952</v>
       </c>
       <c r="D456" t="s">
+        <v>34</v>
+      </c>
+      <c r="E456" t="s">
         <v>35</v>
       </c>
-      <c r="E456"/>
       <c r="F456"/>
       <c r="G456"/>
       <c r="H456" t="s">
@@ -22841,7 +23091,9 @@
       <c r="D457" t="s">
         <v>41</v>
       </c>
-      <c r="E457"/>
+      <c r="E457" t="s">
+        <v>35</v>
+      </c>
       <c r="F457"/>
       <c r="G457"/>
       <c r="H457" t="s">
@@ -22855,7 +23107,7 @@
       <c r="L457"/>
       <c r="M457"/>
       <c r="N457" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458">
@@ -22913,7 +23165,9 @@
       <c r="D459" t="s">
         <v>130</v>
       </c>
-      <c r="E459"/>
+      <c r="E459" t="s">
+        <v>35</v>
+      </c>
       <c r="F459"/>
       <c r="G459"/>
       <c r="H459" t="s">
@@ -22943,7 +23197,9 @@
       <c r="D460" t="s">
         <v>16</v>
       </c>
-      <c r="E460"/>
+      <c r="E460" t="s">
+        <v>35</v>
+      </c>
       <c r="F460"/>
       <c r="G460"/>
       <c r="H460" t="s">
@@ -22957,7 +23213,7 @@
       <c r="L460"/>
       <c r="M460"/>
       <c r="N460" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="461">
@@ -22973,7 +23229,9 @@
       <c r="D461" t="s">
         <v>41</v>
       </c>
-      <c r="E461"/>
+      <c r="E461" t="s">
+        <v>35</v>
+      </c>
       <c r="F461"/>
       <c r="G461"/>
       <c r="H461" t="s">
@@ -22987,7 +23245,7 @@
       <c r="L461"/>
       <c r="M461"/>
       <c r="N461" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="462">
@@ -23001,7 +23259,7 @@
         <v>1971</v>
       </c>
       <c r="D462" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E462" t="s">
         <v>1972</v>
@@ -23067,7 +23325,7 @@
       <c r="L463"/>
       <c r="M463"/>
       <c r="N463" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464">
@@ -23083,7 +23341,9 @@
       <c r="D464" t="s">
         <v>41</v>
       </c>
-      <c r="E464"/>
+      <c r="E464" t="s">
+        <v>35</v>
+      </c>
       <c r="F464"/>
       <c r="G464"/>
       <c r="H464" t="s">
@@ -23097,7 +23357,7 @@
       <c r="L464"/>
       <c r="M464"/>
       <c r="N464" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="465">
@@ -23109,7 +23369,9 @@
         <v>1984</v>
       </c>
       <c r="D465"/>
-      <c r="E465"/>
+      <c r="E465" t="s">
+        <v>35</v>
+      </c>
       <c r="F465"/>
       <c r="G465"/>
       <c r="H465" t="s">

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1987">
   <si>
     <t xml:space="preserve">ab</t>
   </si>
@@ -2309,6 +2309,9 @@
     <t xml:space="preserve">Enviomycin</t>
   </si>
   <si>
+    <t xml:space="preserve">J04AB06</t>
+  </si>
+  <si>
     <t xml:space="preserve">,tuberactinomycin</t>
   </si>
   <si>
@@ -3954,6 +3957,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ozenoxacin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D06AX14</t>
   </si>
   <si>
     <t xml:space="preserve">PAS</t>
@@ -12452,15 +12458,15 @@
         <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>765</v>
       </c>
       <c r="F167"/>
       <c r="G167"/>
       <c r="H167" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I167" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J167"/>
       <c r="K167"/>
@@ -12472,11 +12478,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B168"/>
       <c r="C168" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D168" t="s">
         <v>41</v>
@@ -12502,19 +12508,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B169" t="n">
         <v>71392</v>
       </c>
       <c r="C169" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D169" t="s">
         <v>58</v>
       </c>
       <c r="E169" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F169" t="s">
         <v>60</v>
@@ -12526,7 +12532,7 @@
         <v>20</v>
       </c>
       <c r="I169" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="J169" t="n">
         <v>2</v>
@@ -12546,13 +12552,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B170" t="n">
         <v>68916</v>
       </c>
       <c r="C170" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D170" t="s">
         <v>41</v>
@@ -12566,7 +12572,7 @@
         <v>20</v>
       </c>
       <c r="I170" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="J170"/>
       <c r="K170"/>
@@ -12578,19 +12584,19 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B171" t="n">
         <v>54726192</v>
       </c>
       <c r="C171" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D171" t="s">
         <v>587</v>
       </c>
       <c r="E171" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F171" t="s">
         <v>587</v>
@@ -12599,10 +12605,10 @@
         <v>587</v>
       </c>
       <c r="H171" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I171" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
@@ -12614,19 +12620,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B172" t="n">
         <v>150610</v>
       </c>
       <c r="C172" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D172" t="s">
         <v>198</v>
       </c>
       <c r="E172" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F172" t="s">
         <v>151</v>
@@ -12635,10 +12641,10 @@
         <v>198</v>
       </c>
       <c r="H172" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I172" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
@@ -12654,19 +12660,19 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B173" t="n">
         <v>12560</v>
       </c>
       <c r="C173" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D173" t="s">
         <v>34</v>
       </c>
       <c r="E173" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F173" t="s">
         <v>139</v>
@@ -12675,10 +12681,10 @@
         <v>140</v>
       </c>
       <c r="H173" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I173" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J173" t="n">
         <v>2</v>
@@ -12693,24 +12699,24 @@
         <v>22</v>
       </c>
       <c r="N173" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B174" t="n">
         <v>14052</v>
       </c>
       <c r="C174" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D174" t="s">
         <v>16</v>
       </c>
       <c r="E174" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F174" t="s">
         <v>18</v>
@@ -12719,10 +12725,10 @@
         <v>712</v>
       </c>
       <c r="H174" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I174" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="J174" t="n">
         <v>1.2</v>
@@ -12737,30 +12743,30 @@
         <v>22</v>
       </c>
       <c r="N174" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B175" t="n">
         <v>456476</v>
       </c>
       <c r="C175" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D175" t="s">
         <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F175" t="s">
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H175" t="s">
         <v>20</v>
@@ -12778,31 +12784,31 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B176" t="n">
         <v>2761171</v>
       </c>
       <c r="C176" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D176" t="s">
         <v>16</v>
       </c>
       <c r="E176" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F176" t="s">
         <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H176" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="I176" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="J176" t="n">
         <v>0.75</v>
@@ -12813,18 +12819,18 @@
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B177" t="n">
         <v>6034</v>
       </c>
       <c r="C177" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D177" t="s">
         <v>41</v>
@@ -12838,7 +12844,7 @@
         <v>20</v>
       </c>
       <c r="I177" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="J177"/>
       <c r="K177"/>
@@ -12850,11 +12856,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B178"/>
       <c r="C178" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D178"/>
       <c r="E178" t="s">
@@ -12878,19 +12884,19 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B179" t="n">
         <v>65894</v>
       </c>
       <c r="C179" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D179" t="s">
         <v>41</v>
       </c>
       <c r="E179" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F179" t="s">
         <v>151</v>
@@ -12902,7 +12908,7 @@
         <v>20</v>
       </c>
       <c r="I179" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="J179" t="n">
         <v>0.75</v>
@@ -12918,19 +12924,19 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B180" t="n">
         <v>10034073</v>
       </c>
       <c r="C180" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D180" t="s">
         <v>41</v>
       </c>
       <c r="E180" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F180"/>
       <c r="G180"/>
@@ -12938,7 +12944,7 @@
         <v>20</v>
       </c>
       <c r="I180" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J180" t="n">
         <v>0.4</v>
@@ -12954,13 +12960,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B181" t="n">
         <v>11567473</v>
       </c>
       <c r="C181" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D181" t="s">
         <v>193</v>
@@ -12974,7 +12980,7 @@
         <v>20</v>
       </c>
       <c r="I181" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="J181"/>
       <c r="K181"/>
@@ -12986,13 +12992,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B182" t="n">
         <v>46783781</v>
       </c>
       <c r="C182" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D182" t="s">
         <v>41</v>
@@ -13006,7 +13012,7 @@
         <v>20</v>
       </c>
       <c r="I182" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J182"/>
       <c r="K182"/>
@@ -13018,19 +13024,19 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B183" t="n">
         <v>3357</v>
       </c>
       <c r="C183" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D183" t="s">
         <v>193</v>
       </c>
       <c r="E183" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F183" t="s">
         <v>611</v>
@@ -13039,10 +13045,10 @@
         <v>618</v>
       </c>
       <c r="H183" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I183" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J183" t="n">
         <v>0.4</v>
@@ -13062,19 +13068,19 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B184" t="n">
         <v>65864</v>
       </c>
       <c r="C184" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D184" t="s">
         <v>41</v>
       </c>
       <c r="E184" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F184"/>
       <c r="G184"/>
@@ -13082,7 +13088,7 @@
         <v>20</v>
       </c>
       <c r="I184" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
@@ -13098,13 +13104,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B185" t="n">
         <v>114811</v>
       </c>
       <c r="C185" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D185" t="s">
         <v>41</v>
@@ -13118,31 +13124,31 @@
         <v>20</v>
       </c>
       <c r="I185" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="J185"/>
       <c r="K185"/>
       <c r="L185"/>
       <c r="M185"/>
       <c r="N185" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B186" t="n">
         <v>21319</v>
       </c>
       <c r="C186" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D186" t="s">
         <v>58</v>
       </c>
       <c r="E186" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F186" t="s">
         <v>60</v>
@@ -13151,10 +13157,10 @@
         <v>666</v>
       </c>
       <c r="H186" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I186" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="J186" t="n">
         <v>2</v>
@@ -13174,31 +13180,31 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B187" t="n">
         <v>3365</v>
       </c>
       <c r="C187" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D187" t="s">
         <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F187" t="s">
         <v>76</v>
       </c>
       <c r="G187" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H187" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="I187" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J187" t="n">
         <v>0.2</v>
@@ -13213,24 +13219,24 @@
         <v>22</v>
       </c>
       <c r="N187" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B188" t="n">
         <v>3374</v>
       </c>
       <c r="C188" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D188" t="s">
         <v>193</v>
       </c>
       <c r="E188" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F188" t="s">
         <v>611</v>
@@ -13242,7 +13248,7 @@
         <v>20</v>
       </c>
       <c r="I188" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="J188" t="n">
         <v>1.2</v>
@@ -13258,19 +13264,19 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B189" t="n">
         <v>71260</v>
       </c>
       <c r="C189" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D189" t="s">
         <v>34</v>
       </c>
       <c r="E189" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F189" t="s">
         <v>139</v>
@@ -13282,7 +13288,7 @@
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J189" t="n">
         <v>0.75</v>
@@ -13298,13 +13304,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B190" t="n">
         <v>214356</v>
       </c>
       <c r="C190" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D190" t="s">
         <v>25</v>
@@ -13318,7 +13324,7 @@
         <v>20</v>
       </c>
       <c r="I190" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J190"/>
       <c r="K190"/>
@@ -13330,19 +13336,19 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B191" t="n">
         <v>446987</v>
       </c>
       <c r="C191" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D191" t="s">
         <v>41</v>
       </c>
       <c r="E191" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F191" t="s">
         <v>41</v>
@@ -13351,10 +13357,10 @@
         <v>41</v>
       </c>
       <c r="H191" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="I191" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J191" t="n">
         <v>3</v>
@@ -13374,13 +13380,13 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B192" t="n">
         <v>572</v>
       </c>
       <c r="C192" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D192" t="s">
         <v>41</v>
@@ -13394,7 +13400,7 @@
         <v>20</v>
       </c>
       <c r="I192" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J192"/>
       <c r="K192"/>
@@ -13406,27 +13412,27 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B193" t="n">
         <v>8378</v>
       </c>
       <c r="C193" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D193" t="s">
         <v>47</v>
       </c>
       <c r="E193" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F193"/>
       <c r="G193"/>
       <c r="H193" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="I193" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J193"/>
       <c r="K193"/>
@@ -13438,19 +13444,19 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B194" t="n">
         <v>5323714</v>
       </c>
       <c r="C194" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D194" t="s">
         <v>41</v>
       </c>
       <c r="E194" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F194"/>
       <c r="G194"/>
@@ -13458,7 +13464,7 @@
         <v>20</v>
       </c>
       <c r="I194" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="J194"/>
       <c r="K194"/>
@@ -13470,31 +13476,31 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B195" t="n">
         <v>3000226</v>
       </c>
       <c r="C195" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D195" t="s">
         <v>41</v>
       </c>
       <c r="E195" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F195" t="s">
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="H195" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="I195" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="J195" t="n">
         <v>1.5</v>
@@ -13514,13 +13520,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B196" t="n">
         <v>59364992</v>
       </c>
       <c r="C196" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D196" t="s">
         <v>34</v>
@@ -13534,7 +13540,7 @@
         <v>20</v>
       </c>
       <c r="I196" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="J196"/>
       <c r="K196"/>
@@ -13546,19 +13552,19 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B197" t="n">
         <v>124093</v>
       </c>
       <c r="C197" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D197" t="s">
         <v>193</v>
       </c>
       <c r="E197" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F197"/>
       <c r="G197"/>
@@ -13566,7 +13572,7 @@
         <v>20</v>
       </c>
       <c r="I197" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="J197" t="n">
         <v>0.4</v>
@@ -13582,19 +13588,19 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B198" t="n">
         <v>5379</v>
       </c>
       <c r="C198" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D198" t="s">
         <v>193</v>
       </c>
       <c r="E198" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F198" t="s">
         <v>611</v>
@@ -13603,10 +13609,10 @@
         <v>618</v>
       </c>
       <c r="H198" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I198" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J198" t="n">
         <v>0.4</v>
@@ -13626,19 +13632,19 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B199" t="n">
         <v>9571107</v>
       </c>
       <c r="C199" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D199" t="s">
         <v>193</v>
       </c>
       <c r="E199" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F199" t="s">
         <v>611</v>
@@ -13650,7 +13656,7 @@
         <v>20</v>
       </c>
       <c r="I199" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="J199" t="n">
         <v>0.32</v>
@@ -13666,19 +13672,19 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B200" t="n">
         <v>3467</v>
       </c>
       <c r="C200" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D200" t="s">
         <v>47</v>
       </c>
       <c r="E200" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F200" t="s">
         <v>49</v>
@@ -13687,10 +13693,10 @@
         <v>50</v>
       </c>
       <c r="H200" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I200" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="J200"/>
       <c r="K200"/>
@@ -13701,16 +13707,16 @@
         <v>22</v>
       </c>
       <c r="N200" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B201"/>
       <c r="C201" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D201" t="s">
         <v>47</v>
@@ -13721,7 +13727,7 @@
       <c r="F201"/>
       <c r="G201"/>
       <c r="H201" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I201" t="s">
         <v>20</v>
@@ -13736,13 +13742,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B202" t="n">
         <v>25101874</v>
       </c>
       <c r="C202" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D202" t="s">
         <v>41</v>
@@ -13756,7 +13762,7 @@
         <v>20</v>
       </c>
       <c r="I202" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="J202"/>
       <c r="K202"/>
@@ -13768,19 +13774,19 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B203" t="n">
         <v>72474</v>
       </c>
       <c r="C203" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D203" t="s">
         <v>193</v>
       </c>
       <c r="E203" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F203" t="s">
         <v>611</v>
@@ -13789,10 +13795,10 @@
         <v>618</v>
       </c>
       <c r="H203" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I203" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="J203" t="n">
         <v>0.4</v>
@@ -13808,19 +13814,19 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B204" t="n">
         <v>441140</v>
       </c>
       <c r="C204" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D204" t="s">
         <v>25</v>
       </c>
       <c r="E204" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F204"/>
       <c r="G204"/>
@@ -13828,7 +13834,7 @@
         <v>20</v>
       </c>
       <c r="I204" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="J204" t="n">
         <v>0.5</v>
@@ -13839,18 +13845,18 @@
       <c r="L204"/>
       <c r="M204"/>
       <c r="N204" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B205" t="n">
         <v>175989</v>
       </c>
       <c r="C205" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D205" t="s">
         <v>47</v>
@@ -13864,7 +13870,7 @@
         <v>20</v>
       </c>
       <c r="I205" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="J205"/>
       <c r="K205"/>
@@ -13876,19 +13882,19 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B206" t="n">
         <v>11979956</v>
       </c>
       <c r="C206" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D206" t="s">
         <v>25</v>
       </c>
       <c r="E206" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F206" t="s">
         <v>76</v>
@@ -13900,7 +13906,7 @@
         <v>20</v>
       </c>
       <c r="I206" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J206"/>
       <c r="K206"/>
@@ -13912,19 +13918,19 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B207" t="n">
         <v>443387</v>
       </c>
       <c r="C207" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D207" t="s">
         <v>58</v>
       </c>
       <c r="E207" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F207" t="s">
         <v>60</v>
@@ -13936,7 +13942,7 @@
         <v>20</v>
       </c>
       <c r="I207" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J207" t="n">
         <v>2</v>
@@ -13952,13 +13958,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B208" t="n">
         <v>56928061</v>
       </c>
       <c r="C208" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D208" t="s">
         <v>47</v>
@@ -13972,7 +13978,7 @@
         <v>20</v>
       </c>
       <c r="I208" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="J208"/>
       <c r="K208"/>
@@ -13984,14 +13990,14 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B209"/>
       <c r="C209" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D209" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E209" t="s">
         <v>35</v>
@@ -14014,19 +14020,19 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B210" t="n">
         <v>213043</v>
       </c>
       <c r="C210" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D210" t="s">
         <v>41</v>
       </c>
       <c r="E210" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F210"/>
       <c r="G210"/>
@@ -14034,7 +14040,7 @@
         <v>20</v>
       </c>
       <c r="I210" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="J210"/>
       <c r="K210"/>
@@ -14046,19 +14052,19 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B211" t="n">
         <v>104838</v>
       </c>
       <c r="C211" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D211" t="s">
         <v>198</v>
       </c>
       <c r="E211" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F211" t="s">
         <v>151</v>
@@ -14067,10 +14073,10 @@
         <v>198</v>
       </c>
       <c r="H211" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I211" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J211"/>
       <c r="K211"/>
@@ -14081,16 +14087,16 @@
         <v>22</v>
       </c>
       <c r="N211" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B212"/>
       <c r="C212" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D212" t="s">
         <v>198</v>
@@ -14116,11 +14122,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B213"/>
       <c r="C213" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D213" t="s">
         <v>198</v>
@@ -14146,27 +14152,27 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B214" t="n">
         <v>6918485</v>
       </c>
       <c r="C214" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D214" t="s">
         <v>25</v>
       </c>
       <c r="E214" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="F214"/>
       <c r="G214"/>
       <c r="H214" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="I214" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J214" t="n">
         <v>0.2</v>
@@ -14186,19 +14192,19 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B215" t="n">
         <v>3037209</v>
       </c>
       <c r="C215" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D215" t="s">
         <v>47</v>
       </c>
       <c r="E215" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F215" t="s">
         <v>49</v>
@@ -14210,7 +14216,7 @@
         <v>20</v>
       </c>
       <c r="I215" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J215"/>
       <c r="K215"/>
@@ -14226,31 +14232,31 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B216" t="n">
         <v>3760</v>
       </c>
       <c r="C216" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D216" t="s">
         <v>25</v>
       </c>
       <c r="E216" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F216" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G216" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H216" t="s">
         <v>20</v>
       </c>
       <c r="I216" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="J216"/>
       <c r="K216"/>
@@ -14262,31 +14268,31 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B217" t="n">
         <v>3767</v>
       </c>
       <c r="C217" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D217" t="s">
         <v>16</v>
       </c>
       <c r="E217" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H217" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I217" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="J217" t="n">
         <v>0.3</v>
@@ -14301,36 +14307,36 @@
         <v>22</v>
       </c>
       <c r="N217" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B218" t="n">
         <v>3793</v>
       </c>
       <c r="C218" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D218" t="s">
         <v>25</v>
       </c>
       <c r="E218" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F218" t="s">
         <v>76</v>
       </c>
       <c r="G218" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H218" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="I218" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J218" t="n">
         <v>0.2</v>
@@ -14345,24 +14351,24 @@
         <v>22</v>
       </c>
       <c r="N218" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B219" t="n">
         <v>5282165</v>
       </c>
       <c r="C219" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D219" t="s">
         <v>34</v>
       </c>
       <c r="E219" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="F219" t="s">
         <v>139</v>
@@ -14374,7 +14380,7 @@
         <v>20</v>
       </c>
       <c r="I219" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J219" t="n">
         <v>2</v>
@@ -14390,19 +14396,19 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B220" t="n">
         <v>6032</v>
       </c>
       <c r="C220" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D220" t="s">
         <v>47</v>
       </c>
       <c r="E220" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F220" t="s">
         <v>49</v>
@@ -14411,10 +14417,10 @@
         <v>50</v>
       </c>
       <c r="H220" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I220" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="J220" t="n">
         <v>3</v>
@@ -14429,16 +14435,16 @@
         <v>22</v>
       </c>
       <c r="N220" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B221"/>
       <c r="C221" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D221" t="s">
         <v>47</v>
@@ -14449,7 +14455,7 @@
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="I221" t="s">
         <v>20</v>
@@ -14464,11 +14470,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B222"/>
       <c r="C222" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D222" t="s">
         <v>47</v>
@@ -14494,34 +14500,34 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B223" t="n">
         <v>456201</v>
       </c>
       <c r="C223" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D223" t="s">
         <v>25</v>
       </c>
       <c r="E223" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F223" t="s">
         <v>76</v>
       </c>
       <c r="G223" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H223" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="I223" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K223" t="s">
         <v>22</v>
@@ -14529,16 +14535,16 @@
       <c r="L223"/>
       <c r="M223"/>
       <c r="N223" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B224"/>
       <c r="C224" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D224" t="s">
         <v>34</v>
@@ -14549,7 +14555,7 @@
       <c r="F224"/>
       <c r="G224"/>
       <c r="H224" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="I224" t="s">
         <v>20</v>
@@ -14564,13 +14570,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B225" t="n">
         <v>5360807</v>
       </c>
       <c r="C225" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D225" t="s">
         <v>41</v>
@@ -14584,31 +14590,31 @@
         <v>20</v>
       </c>
       <c r="I225" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="J225"/>
       <c r="K225"/>
       <c r="L225"/>
       <c r="M225"/>
       <c r="N225" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B226" t="n">
         <v>47499</v>
       </c>
       <c r="C226" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D226" t="s">
         <v>298</v>
       </c>
       <c r="E226" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F226" t="s">
         <v>151</v>
@@ -14617,10 +14623,10 @@
         <v>307</v>
       </c>
       <c r="H226" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="I226" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="J226"/>
       <c r="K226"/>
@@ -14636,19 +14642,19 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B227" t="n">
         <v>25185057</v>
       </c>
       <c r="C227" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D227" t="s">
         <v>41</v>
       </c>
       <c r="E227" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F227"/>
       <c r="G227"/>
@@ -14656,7 +14662,7 @@
         <v>20</v>
       </c>
       <c r="I227" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="J227"/>
       <c r="K227"/>
@@ -14668,13 +14674,13 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B228" t="n">
         <v>65646</v>
       </c>
       <c r="C228" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D228" t="s">
         <v>58</v>
@@ -14688,7 +14694,7 @@
         <v>20</v>
       </c>
       <c r="I228" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="J228"/>
       <c r="K228"/>
@@ -14700,19 +14706,19 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B229" t="n">
         <v>149096</v>
       </c>
       <c r="C229" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D229" t="s">
         <v>193</v>
       </c>
       <c r="E229" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F229" t="s">
         <v>611</v>
@@ -14721,10 +14727,10 @@
         <v>618</v>
       </c>
       <c r="H229" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="I229" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="J229" t="n">
         <v>0.5</v>
@@ -14739,24 +14745,24 @@
         <v>22</v>
       </c>
       <c r="N229" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B230" t="n">
         <v>9850038</v>
       </c>
       <c r="C230" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D230" t="s">
         <v>193</v>
       </c>
       <c r="E230" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F230"/>
       <c r="G230"/>
@@ -14764,7 +14770,7 @@
         <v>20</v>
       </c>
       <c r="I230" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J230"/>
       <c r="K230"/>
@@ -14776,11 +14782,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B231"/>
       <c r="C231" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D231" t="s">
         <v>41</v>
@@ -14791,7 +14797,7 @@
       <c r="F231"/>
       <c r="G231"/>
       <c r="H231" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="I231" t="s">
         <v>20</v>
@@ -14806,19 +14812,19 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B232" t="n">
         <v>3000540</v>
       </c>
       <c r="C232" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D232" t="s">
         <v>34</v>
       </c>
       <c r="E232" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F232" t="s">
         <v>139</v>
@@ -14827,10 +14833,10 @@
         <v>637</v>
       </c>
       <c r="H232" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I232" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="J232" t="n">
         <v>1.8</v>
@@ -14845,24 +14851,24 @@
         <v>22</v>
       </c>
       <c r="N232" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B233" t="n">
         <v>441401</v>
       </c>
       <c r="C233" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D233" t="s">
         <v>218</v>
       </c>
       <c r="E233" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F233" t="s">
         <v>41</v>
@@ -14871,10 +14877,10 @@
         <v>41</v>
       </c>
       <c r="H233" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="I233" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="J233" t="n">
         <v>1.2</v>
@@ -14889,16 +14895,16 @@
         <v>22</v>
       </c>
       <c r="N233" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B234"/>
       <c r="C234" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D234" t="s">
         <v>41</v>
@@ -14924,19 +14930,19 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B235" t="n">
         <v>3948</v>
       </c>
       <c r="C235" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D235" t="s">
         <v>193</v>
       </c>
       <c r="E235" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F235" t="s">
         <v>611</v>
@@ -14945,10 +14951,10 @@
         <v>618</v>
       </c>
       <c r="H235" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I235" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="J235" t="n">
         <v>0.4</v>
@@ -14964,19 +14970,19 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B236" t="n">
         <v>5284585</v>
       </c>
       <c r="C236" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D236" t="s">
         <v>255</v>
       </c>
       <c r="E236" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F236" t="s">
         <v>151</v>
@@ -14985,10 +14991,10 @@
         <v>257</v>
       </c>
       <c r="H236" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="I236" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="J236" t="n">
         <v>0.6</v>
@@ -15004,19 +15010,19 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B237" t="n">
         <v>54707177</v>
       </c>
       <c r="C237" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D237" t="s">
         <v>587</v>
       </c>
       <c r="E237" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F237" t="s">
         <v>587</v>
@@ -15028,7 +15034,7 @@
         <v>20</v>
       </c>
       <c r="I237" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="J237" t="n">
         <v>0.6</v>
@@ -15048,19 +15054,19 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B238" t="n">
         <v>1292</v>
       </c>
       <c r="C238" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D238" t="s">
         <v>41</v>
       </c>
       <c r="E238" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F238" t="s">
         <v>41</v>
@@ -15072,7 +15078,7 @@
         <v>20</v>
       </c>
       <c r="I238" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="J238" t="n">
         <v>12</v>
@@ -15088,14 +15094,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B239"/>
       <c r="C239" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D239" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E239" t="s">
         <v>35</v>
@@ -15118,13 +15124,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B240" t="n">
         <v>60651</v>
       </c>
       <c r="C240" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D240" t="s">
         <v>193</v>
@@ -15138,7 +15144,7 @@
         <v>20</v>
       </c>
       <c r="I240" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="J240"/>
       <c r="K240"/>
@@ -15150,19 +15156,19 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B241" t="n">
         <v>36273</v>
       </c>
       <c r="C241" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D241" t="s">
         <v>58</v>
       </c>
       <c r="E241" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F241" t="s">
         <v>60</v>
@@ -15171,10 +15177,10 @@
         <v>61</v>
       </c>
       <c r="H241" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="I241" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="J241"/>
       <c r="K241"/>
@@ -15190,13 +15196,13 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B242" t="n">
         <v>71306732</v>
       </c>
       <c r="C242" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D242" t="s">
         <v>34</v>
@@ -15222,19 +15228,19 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B243" t="n">
         <v>441130</v>
       </c>
       <c r="C243" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D243" t="s">
         <v>198</v>
       </c>
       <c r="E243" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F243" t="s">
         <v>151</v>
@@ -15243,10 +15249,10 @@
         <v>198</v>
       </c>
       <c r="H243" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I243" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="J243"/>
       <c r="K243"/>
@@ -15257,16 +15263,16 @@
         <v>22</v>
       </c>
       <c r="N243" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B244"/>
       <c r="C244" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D244" t="s">
         <v>198</v>
@@ -15292,17 +15298,17 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B245"/>
       <c r="C245" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D245" t="s">
         <v>198</v>
       </c>
       <c r="E245" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F245" t="s">
         <v>151</v>
@@ -15330,13 +15336,13 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B246" t="n">
         <v>176886</v>
       </c>
       <c r="C246" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D246" t="s">
         <v>41</v>
@@ -15350,7 +15356,7 @@
         <v>20</v>
       </c>
       <c r="I246" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="J246"/>
       <c r="K246"/>
@@ -15362,19 +15368,19 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B247" t="n">
         <v>54675785</v>
       </c>
       <c r="C247" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D247" t="s">
         <v>587</v>
       </c>
       <c r="E247" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="F247" t="s">
         <v>587</v>
@@ -15386,7 +15392,7 @@
         <v>20</v>
       </c>
       <c r="I247" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="J247" t="n">
         <v>0.6</v>
@@ -15402,19 +15408,19 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B248" t="n">
         <v>6713928</v>
       </c>
       <c r="C248" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D248" t="s">
         <v>58</v>
       </c>
       <c r="E248" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F248" t="s">
         <v>60</v>
@@ -15426,7 +15432,7 @@
         <v>20</v>
       </c>
       <c r="I248" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="J248" t="n">
         <v>1.5</v>
@@ -15446,19 +15452,19 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B249" t="n">
         <v>4101</v>
       </c>
       <c r="C249" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D249" t="s">
         <v>41</v>
       </c>
       <c r="E249" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F249" t="s">
         <v>41</v>
@@ -15470,7 +15476,7 @@
         <v>20</v>
       </c>
       <c r="I249" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="J249" t="n">
         <v>3</v>
@@ -15486,19 +15492,19 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B250" t="n">
         <v>6087</v>
       </c>
       <c r="C250" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D250" t="s">
         <v>58</v>
       </c>
       <c r="E250" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="F250" t="s">
         <v>60</v>
@@ -15507,10 +15513,10 @@
         <v>666</v>
       </c>
       <c r="H250" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="I250" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="J250"/>
       <c r="K250"/>
@@ -15521,18 +15527,18 @@
         <v>22</v>
       </c>
       <c r="N250" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B251" t="n">
         <v>68590</v>
       </c>
       <c r="C251" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D251" t="s">
         <v>41</v>
@@ -15546,7 +15552,7 @@
         <v>20</v>
       </c>
       <c r="I251" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="J251"/>
       <c r="K251"/>
@@ -15558,13 +15564,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B252" t="n">
         <v>3047729</v>
       </c>
       <c r="C252" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D252" t="s">
         <v>193</v>
@@ -15578,7 +15584,7 @@
         <v>20</v>
       </c>
       <c r="I252" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="J252"/>
       <c r="K252"/>
@@ -15590,31 +15596,31 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B253" t="n">
         <v>4173</v>
       </c>
       <c r="C253" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D253" t="s">
         <v>41</v>
       </c>
       <c r="E253" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F253" t="s">
         <v>41</v>
       </c>
       <c r="G253" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H253" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="I253" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="J253" t="n">
         <v>2</v>
@@ -15629,24 +15635,24 @@
         <v>22</v>
       </c>
       <c r="N253" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B254" t="n">
         <v>656511</v>
       </c>
       <c r="C254" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D254" t="s">
         <v>58</v>
       </c>
       <c r="E254" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F254" t="s">
         <v>60</v>
@@ -15655,10 +15661,10 @@
         <v>61</v>
       </c>
       <c r="H254" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="I254" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="J254"/>
       <c r="K254"/>
@@ -15669,16 +15675,16 @@
         <v>22</v>
       </c>
       <c r="N254" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B255"/>
       <c r="C255" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D255" t="s">
         <v>58</v>
@@ -15704,19 +15710,19 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B256" t="n">
         <v>477468</v>
       </c>
       <c r="C256" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D256" t="s">
         <v>25</v>
       </c>
       <c r="E256" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="F256" t="s">
         <v>76</v>
@@ -15725,10 +15731,10 @@
         <v>101</v>
       </c>
       <c r="H256" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="I256" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="J256"/>
       <c r="K256"/>
@@ -15739,36 +15745,36 @@
         <v>22</v>
       </c>
       <c r="N256" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B257" t="n">
         <v>4189</v>
       </c>
       <c r="C257" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D257" t="s">
         <v>25</v>
       </c>
       <c r="E257" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F257" t="s">
         <v>76</v>
       </c>
       <c r="G257" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H257" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I257" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="J257" t="n">
         <v>0.2</v>
@@ -15783,24 +15789,24 @@
         <v>22</v>
       </c>
       <c r="N257" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B258" t="n">
         <v>3037206</v>
       </c>
       <c r="C258" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D258" t="s">
         <v>47</v>
       </c>
       <c r="E258" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F258"/>
       <c r="G258"/>
@@ -15808,7 +15814,7 @@
         <v>20</v>
       </c>
       <c r="I258" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="J258"/>
       <c r="K258"/>
@@ -15820,19 +15826,19 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B259" t="n">
         <v>5282169</v>
       </c>
       <c r="C259" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D259" t="s">
         <v>34</v>
       </c>
       <c r="E259" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F259" t="s">
         <v>139</v>
@@ -15844,7 +15850,7 @@
         <v>20</v>
       </c>
       <c r="I259" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="J259" t="n">
         <v>1.2</v>
@@ -15864,13 +15870,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B260" t="n">
         <v>37614</v>
       </c>
       <c r="C260" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D260" t="s">
         <v>193</v>
@@ -15884,7 +15890,7 @@
         <v>20</v>
       </c>
       <c r="I260" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="J260"/>
       <c r="K260"/>
@@ -15896,19 +15902,19 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B261" t="n">
         <v>54675783</v>
       </c>
       <c r="C261" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D261" t="s">
         <v>587</v>
       </c>
       <c r="E261" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F261" t="s">
         <v>587</v>
@@ -15917,10 +15923,10 @@
         <v>587</v>
       </c>
       <c r="H261" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="I261" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="J261" t="n">
         <v>1</v>
@@ -15935,24 +15941,24 @@
         <v>22</v>
       </c>
       <c r="N261" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B262" t="n">
         <v>5282188</v>
       </c>
       <c r="C262" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D262" t="s">
         <v>34</v>
       </c>
       <c r="E262" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F262" t="s">
         <v>139</v>
@@ -15964,7 +15970,7 @@
         <v>20</v>
       </c>
       <c r="I262" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="J262" t="n">
         <v>1.2</v>
@@ -15980,13 +15986,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B263" t="n">
         <v>23667299</v>
       </c>
       <c r="C263" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="D263" t="s">
         <v>41</v>
@@ -16000,7 +16006,7 @@
         <v>20</v>
       </c>
       <c r="I263" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="J263"/>
       <c r="K263"/>
@@ -16012,19 +16018,19 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B264" t="n">
         <v>70374</v>
       </c>
       <c r="C264" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D264" t="s">
         <v>16</v>
       </c>
       <c r="E264" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F264" t="s">
         <v>18</v>
@@ -16036,7 +16042,7 @@
         <v>20</v>
       </c>
       <c r="I264" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="J264"/>
       <c r="K264"/>
@@ -16048,19 +16054,19 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B265" t="n">
         <v>152946</v>
       </c>
       <c r="C265" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D265" t="s">
         <v>193</v>
       </c>
       <c r="E265" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F265" t="s">
         <v>611</v>
@@ -16069,10 +16075,10 @@
         <v>618</v>
       </c>
       <c r="H265" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="I265" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="J265" t="n">
         <v>0.4</v>
@@ -16087,32 +16093,32 @@
         <v>22</v>
       </c>
       <c r="N265" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B266" t="n">
         <v>446596</v>
       </c>
       <c r="C266" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D266" t="s">
         <v>41</v>
       </c>
       <c r="E266" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F266"/>
       <c r="G266"/>
       <c r="H266" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="I266" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J266"/>
       <c r="K266"/>
@@ -16124,13 +16130,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B267" t="n">
         <v>73386748</v>
       </c>
       <c r="C267" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D267" t="s">
         <v>58</v>
@@ -16144,7 +16150,7 @@
         <v>20</v>
       </c>
       <c r="I267" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="J267"/>
       <c r="K267"/>
@@ -16156,19 +16162,19 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B268" t="n">
         <v>4410</v>
       </c>
       <c r="C268" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D268" t="s">
         <v>193</v>
       </c>
       <c r="E268" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F268"/>
       <c r="G268"/>
@@ -16176,7 +16182,7 @@
         <v>20</v>
       </c>
       <c r="I268" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J268"/>
       <c r="K268"/>
@@ -16188,19 +16194,19 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B269" t="n">
         <v>8982</v>
       </c>
       <c r="C269" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D269" t="s">
         <v>58</v>
       </c>
       <c r="E269" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="F269"/>
       <c r="G269"/>
@@ -16208,7 +16214,7 @@
         <v>20</v>
       </c>
       <c r="I269" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="J269"/>
       <c r="K269"/>
@@ -16219,18 +16225,18 @@
         <v>22</v>
       </c>
       <c r="N269" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B270" t="n">
         <v>117587595</v>
       </c>
       <c r="C270" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D270" t="s">
         <v>34</v>
@@ -16244,7 +16250,7 @@
         <v>20</v>
       </c>
       <c r="I270" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J270"/>
       <c r="K270"/>
@@ -16256,19 +16262,19 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B271" t="n">
         <v>4421</v>
       </c>
       <c r="C271" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D271" t="s">
         <v>193</v>
       </c>
       <c r="E271" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F271" t="s">
         <v>611</v>
@@ -16277,10 +16283,10 @@
         <v>612</v>
       </c>
       <c r="H271" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="I271" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="J271" t="n">
         <v>4</v>
@@ -16296,13 +16302,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B272" t="n">
         <v>65452</v>
       </c>
       <c r="C272" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D272" t="s">
         <v>41</v>
@@ -16316,31 +16322,31 @@
         <v>20</v>
       </c>
       <c r="I272" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="J272"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
       <c r="N272" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B273" t="n">
         <v>8378</v>
       </c>
       <c r="C273" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D273" t="s">
         <v>47</v>
       </c>
       <c r="E273" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F273" t="s">
         <v>49</v>
@@ -16349,10 +16355,10 @@
         <v>50</v>
       </c>
       <c r="H273" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="I273" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J273" t="n">
         <v>5</v>
@@ -16363,24 +16369,24 @@
       <c r="L273"/>
       <c r="M273"/>
       <c r="N273" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B274" t="n">
         <v>441306</v>
       </c>
       <c r="C274" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D274" t="s">
         <v>47</v>
       </c>
       <c r="E274" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F274" t="s">
         <v>49</v>
@@ -16389,10 +16395,10 @@
         <v>50</v>
       </c>
       <c r="H274" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="I274" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="J274" t="n">
         <v>0.35</v>
@@ -16407,18 +16413,18 @@
         <v>22</v>
       </c>
       <c r="N274" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B275" t="n">
         <v>9507</v>
       </c>
       <c r="C275" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D275" t="s">
         <v>41</v>
@@ -16432,7 +16438,7 @@
         <v>20</v>
       </c>
       <c r="I275" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="J275"/>
       <c r="K275"/>
@@ -16444,13 +16450,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B276" t="n">
         <v>71946</v>
       </c>
       <c r="C276" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D276" t="s">
         <v>193</v>
@@ -16464,7 +16470,7 @@
         <v>20</v>
       </c>
       <c r="I276" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="J276"/>
       <c r="K276"/>
@@ -16476,31 +16482,31 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B277" t="n">
         <v>9571062</v>
       </c>
       <c r="C277" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D277" t="s">
         <v>41</v>
       </c>
       <c r="E277" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F277" t="s">
         <v>41</v>
       </c>
       <c r="G277" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H277" t="s">
         <v>20</v>
       </c>
       <c r="I277" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="J277" t="n">
         <v>0.16</v>
@@ -16516,19 +16522,19 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B278" t="n">
         <v>41684</v>
       </c>
       <c r="C278" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D278" t="s">
         <v>41</v>
       </c>
       <c r="E278" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F278"/>
       <c r="G278"/>
@@ -16536,7 +16542,7 @@
         <v>20</v>
       </c>
       <c r="I278" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -16552,31 +16558,31 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B279" t="n">
         <v>6604200</v>
       </c>
       <c r="C279" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D279" t="s">
         <v>41</v>
       </c>
       <c r="E279" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F279" t="s">
         <v>41</v>
       </c>
       <c r="G279" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="H279" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="I279" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="J279" t="n">
         <v>0.2</v>
@@ -16587,18 +16593,18 @@
       <c r="L279"/>
       <c r="M279"/>
       <c r="N279" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B280" t="n">
         <v>5447130</v>
       </c>
       <c r="C280" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D280" t="s">
         <v>41</v>
@@ -16612,7 +16618,7 @@
         <v>20</v>
       </c>
       <c r="I280" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="J280"/>
       <c r="K280"/>
@@ -16624,19 +16630,19 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B281" t="n">
         <v>19910</v>
       </c>
       <c r="C281" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D281" t="s">
         <v>193</v>
       </c>
       <c r="E281" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F281" t="s">
         <v>41</v>
@@ -16648,7 +16654,7 @@
         <v>20</v>
       </c>
       <c r="I281" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="J281" t="n">
         <v>1</v>
@@ -16664,19 +16670,19 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B282" t="n">
         <v>4539</v>
       </c>
       <c r="C282" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D282" t="s">
         <v>193</v>
       </c>
       <c r="E282" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F282" t="s">
         <v>611</v>
@@ -16685,10 +16691,10 @@
         <v>618</v>
       </c>
       <c r="H282" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="I282" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="J282" t="n">
         <v>0.8</v>
@@ -16699,18 +16705,18 @@
       <c r="L282"/>
       <c r="M282"/>
       <c r="N282" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B283" t="n">
         <v>10419027</v>
       </c>
       <c r="C283" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D283" t="s">
         <v>130</v>
@@ -16724,7 +16730,7 @@
         <v>20</v>
       </c>
       <c r="I283" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="J283"/>
       <c r="K283"/>
@@ -16736,13 +16742,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B284" t="n">
         <v>54675769</v>
       </c>
       <c r="C284" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D284" t="s">
         <v>41</v>
@@ -16753,42 +16759,42 @@
       <c r="F284"/>
       <c r="G284"/>
       <c r="H284" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="I284" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="J284"/>
       <c r="K284"/>
       <c r="L284"/>
       <c r="M284"/>
       <c r="N284" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B285" t="n">
         <v>6433272</v>
       </c>
       <c r="C285" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D285" t="s">
         <v>25</v>
       </c>
       <c r="E285" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="F285"/>
       <c r="G285"/>
       <c r="H285" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="I285" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="J285" t="n">
         <v>1.5</v>
@@ -16804,19 +16810,19 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B286" t="n">
         <v>4583</v>
       </c>
       <c r="C286" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D286" t="s">
         <v>193</v>
       </c>
       <c r="E286" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="F286" t="s">
         <v>611</v>
@@ -16825,10 +16831,10 @@
         <v>618</v>
       </c>
       <c r="H286" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="I286" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="J286" t="n">
         <v>0.4</v>
@@ -16843,24 +16849,24 @@
         <v>22</v>
       </c>
       <c r="N286" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B287" t="n">
         <v>72493</v>
       </c>
       <c r="C287" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D287" t="s">
         <v>34</v>
       </c>
       <c r="E287" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F287" t="s">
         <v>139</v>
@@ -16872,7 +16878,7 @@
         <v>20</v>
       </c>
       <c r="I287" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="J287" t="n">
         <v>1</v>
@@ -16888,19 +16894,19 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B288" t="n">
         <v>54697325</v>
       </c>
       <c r="C288" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D288" t="s">
         <v>587</v>
       </c>
       <c r="E288" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F288"/>
       <c r="G288"/>
@@ -16908,7 +16914,7 @@
         <v>20</v>
       </c>
       <c r="I288" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="J288" t="n">
         <v>0.3</v>
@@ -16928,13 +16934,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B289" t="n">
         <v>87880</v>
       </c>
       <c r="C289" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D289" t="s">
         <v>41</v>
@@ -16948,7 +16954,7 @@
         <v>20</v>
       </c>
       <c r="I289" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="J289"/>
       <c r="K289"/>
@@ -16960,13 +16966,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B290" t="n">
         <v>60605</v>
       </c>
       <c r="C290" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D290" t="s">
         <v>193</v>
@@ -16980,7 +16986,7 @@
         <v>20</v>
       </c>
       <c r="I290" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="J290"/>
       <c r="K290"/>
@@ -16992,19 +16998,19 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B291" t="n">
         <v>16136912</v>
       </c>
       <c r="C291" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D291" t="s">
         <v>130</v>
       </c>
       <c r="E291" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F291" t="s">
         <v>41</v>
@@ -17013,10 +17019,10 @@
         <v>689</v>
       </c>
       <c r="H291" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="I291" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="J291"/>
       <c r="K291"/>
@@ -17028,11 +17034,11 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B292"/>
       <c r="C292" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D292" t="s">
         <v>41</v>
@@ -17058,31 +17064,31 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B293" t="n">
         <v>28061</v>
       </c>
       <c r="C293" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D293" t="s">
         <v>41</v>
       </c>
       <c r="E293" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F293" t="s">
         <v>41</v>
       </c>
       <c r="G293" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H293" t="s">
         <v>20</v>
       </c>
       <c r="I293" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="J293" t="n">
         <v>1.5</v>
@@ -17102,19 +17108,19 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B294" t="n">
         <v>6196</v>
       </c>
       <c r="C294" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D294" t="s">
         <v>58</v>
       </c>
       <c r="E294" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F294" t="s">
         <v>60</v>
@@ -17123,10 +17129,10 @@
         <v>666</v>
       </c>
       <c r="H294" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I294" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="J294" t="n">
         <v>2</v>
@@ -17141,24 +17147,24 @@
         <v>22</v>
       </c>
       <c r="N294" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B295" t="n">
         <v>4628</v>
       </c>
       <c r="C295" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D295" t="s">
         <v>193</v>
       </c>
       <c r="E295" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F295" t="s">
         <v>611</v>
@@ -17170,7 +17176,7 @@
         <v>20</v>
       </c>
       <c r="I295" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="J295" t="n">
         <v>1</v>
@@ -17186,19 +17192,19 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B296" t="n">
         <v>54675779</v>
       </c>
       <c r="C296" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D296" t="s">
         <v>587</v>
       </c>
       <c r="E296" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F296" t="s">
         <v>587</v>
@@ -17210,7 +17216,7 @@
         <v>20</v>
       </c>
       <c r="I296" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="J296" t="n">
         <v>1</v>
@@ -17225,20 +17231,20 @@
         <v>22</v>
       </c>
       <c r="N296" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B297"/>
       <c r="C297" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D297"/>
       <c r="E297" t="s">
-        <v>35</v>
+        <v>1315</v>
       </c>
       <c r="F297"/>
       <c r="G297"/>
@@ -17258,13 +17264,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B298" t="n">
         <v>4649</v>
       </c>
       <c r="C298" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D298" t="s">
         <v>16</v>
@@ -17290,13 +17296,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B299" t="n">
         <v>72015</v>
       </c>
       <c r="C299" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D299" t="s">
         <v>198</v>
@@ -17310,7 +17316,7 @@
         <v>20</v>
       </c>
       <c r="I299" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="J299"/>
       <c r="K299"/>
@@ -17322,19 +17328,19 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B300" t="n">
         <v>165580</v>
       </c>
       <c r="C300" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D300" t="s">
         <v>41</v>
       </c>
       <c r="E300" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F300"/>
       <c r="G300"/>
@@ -17342,7 +17348,7 @@
         <v>20</v>
       </c>
       <c r="I300" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="J300" t="n">
         <v>3</v>
@@ -17358,19 +17364,19 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="B301" t="n">
         <v>65957</v>
       </c>
       <c r="C301" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="D301" t="s">
         <v>193</v>
       </c>
       <c r="E301" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F301" t="s">
         <v>611</v>
@@ -17382,7 +17388,7 @@
         <v>20</v>
       </c>
       <c r="I301" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="J301"/>
       <c r="K301"/>
@@ -17398,19 +17404,19 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="B302" t="n">
         <v>51081</v>
       </c>
       <c r="C302" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D302" t="s">
         <v>193</v>
       </c>
       <c r="E302" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F302" t="s">
         <v>611</v>
@@ -17419,10 +17425,10 @@
         <v>618</v>
       </c>
       <c r="H302" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="I302" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="J302" t="n">
         <v>0.8</v>
@@ -17437,24 +17443,24 @@
         <v>22</v>
       </c>
       <c r="N302" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="B303" t="n">
         <v>10250769</v>
       </c>
       <c r="C303" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="D303" t="s">
         <v>58</v>
       </c>
       <c r="E303" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F303" t="s">
         <v>60</v>
@@ -17466,7 +17472,7 @@
         <v>20</v>
       </c>
       <c r="I303" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J303" t="n">
         <v>1.05</v>
@@ -17482,11 +17488,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B304"/>
       <c r="C304" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D304" t="s">
         <v>58</v>
@@ -17512,11 +17518,11 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="B305"/>
       <c r="C305" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="D305" t="s">
         <v>58</v>
@@ -17542,19 +17548,19 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="B306" t="n">
         <v>54686187</v>
       </c>
       <c r="C306" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="D306" t="s">
         <v>587</v>
       </c>
       <c r="E306" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F306" t="s">
         <v>587</v>
@@ -17566,7 +17572,7 @@
         <v>20</v>
       </c>
       <c r="I306" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="J306"/>
       <c r="K306"/>
@@ -17578,13 +17584,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B307" t="n">
         <v>65453</v>
       </c>
       <c r="C307" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="D307" t="s">
         <v>47</v>
@@ -17598,7 +17604,7 @@
         <v>20</v>
       </c>
       <c r="I307" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="J307"/>
       <c r="K307"/>
@@ -17610,13 +17616,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="B308" t="n">
         <v>55250256</v>
       </c>
       <c r="C308" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="D308" t="s">
         <v>41</v>
@@ -17642,13 +17648,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="B309" t="n">
         <v>16132253</v>
       </c>
       <c r="C309" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="D309" t="s">
         <v>41</v>
@@ -17662,7 +17668,7 @@
         <v>20</v>
       </c>
       <c r="I309" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="J309"/>
       <c r="K309"/>
@@ -17674,19 +17680,19 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="B310" t="n">
         <v>272833</v>
       </c>
       <c r="C310" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="D310" t="s">
         <v>58</v>
       </c>
       <c r="E310" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F310" t="s">
         <v>60</v>
@@ -17695,10 +17701,10 @@
         <v>134</v>
       </c>
       <c r="H310" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="I310" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="J310" t="n">
         <v>1</v>
@@ -17709,24 +17715,24 @@
       <c r="L310"/>
       <c r="M310"/>
       <c r="N310" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="B311" t="n">
         <v>6869</v>
       </c>
       <c r="C311" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="D311" t="s">
         <v>58</v>
       </c>
       <c r="E311" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F311" t="s">
         <v>60</v>
@@ -17735,10 +17741,10 @@
         <v>134</v>
       </c>
       <c r="H311" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="I311" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="J311" t="n">
         <v>2</v>
@@ -17754,13 +17760,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B312" t="n">
         <v>5284447</v>
       </c>
       <c r="C312" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="D312" t="s">
         <v>25</v>
@@ -17771,10 +17777,10 @@
       <c r="F312"/>
       <c r="G312"/>
       <c r="H312" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="I312" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="J312"/>
       <c r="K312"/>
@@ -17786,19 +17792,19 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="B313" t="n">
         <v>4831</v>
       </c>
       <c r="C313" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="D313" t="s">
         <v>193</v>
       </c>
       <c r="E313" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="F313" t="s">
         <v>611</v>
@@ -17807,10 +17813,10 @@
         <v>612</v>
       </c>
       <c r="H313" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="I313" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="J313" t="n">
         <v>0.8</v>
@@ -17826,19 +17832,19 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B314" t="n">
         <v>43672</v>
       </c>
       <c r="C314" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="D314" t="s">
         <v>58</v>
       </c>
       <c r="E314" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F314" t="s">
         <v>60</v>
@@ -17847,10 +17853,10 @@
         <v>61</v>
       </c>
       <c r="H314" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="I314" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="J314"/>
       <c r="K314"/>
@@ -17861,16 +17867,16 @@
         <v>22</v>
       </c>
       <c r="N314" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="B315"/>
       <c r="C315" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="D315" t="s">
         <v>58</v>
@@ -17896,19 +17902,19 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="B316" t="n">
         <v>461573</v>
       </c>
       <c r="C316" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="D316" t="s">
         <v>58</v>
       </c>
       <c r="E316" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F316" t="s">
         <v>60</v>
@@ -17917,10 +17923,10 @@
         <v>68</v>
       </c>
       <c r="H316" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="I316" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="J316"/>
       <c r="K316"/>
@@ -17936,13 +17942,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="B317" t="n">
         <v>71978</v>
       </c>
       <c r="C317" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D317" t="s">
         <v>58</v>
@@ -17956,7 +17962,7 @@
         <v>20</v>
       </c>
       <c r="I317" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="J317"/>
       <c r="K317"/>
@@ -17968,13 +17974,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="B318" t="n">
         <v>157385</v>
       </c>
       <c r="C318" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="D318" t="s">
         <v>34</v>
@@ -17988,7 +17994,7 @@
         <v>20</v>
       </c>
       <c r="I318" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="J318"/>
       <c r="K318"/>
@@ -18000,19 +18006,19 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="B319" t="n">
         <v>4855</v>
       </c>
       <c r="C319" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D319" t="s">
         <v>193</v>
       </c>
       <c r="E319" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="F319" t="s">
         <v>611</v>
@@ -18024,7 +18030,7 @@
         <v>20</v>
       </c>
       <c r="I319" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="J319" t="n">
         <v>2</v>
@@ -18040,19 +18046,19 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="B320" t="n">
         <v>33478</v>
       </c>
       <c r="C320" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="D320" t="s">
         <v>58</v>
       </c>
       <c r="E320" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F320" t="s">
         <v>60</v>
@@ -18064,7 +18070,7 @@
         <v>20</v>
       </c>
       <c r="I320" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="J320" t="n">
         <v>1.05</v>
@@ -18080,19 +18086,19 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="B321" t="n">
         <v>115163</v>
       </c>
       <c r="C321" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="D321" t="s">
         <v>58</v>
       </c>
       <c r="E321" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F321" t="s">
         <v>60</v>
@@ -18104,7 +18110,7 @@
         <v>20</v>
       </c>
       <c r="I321" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="J321" t="n">
         <v>0.6</v>
@@ -18120,19 +18126,19 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="B322" t="n">
         <v>42613186</v>
       </c>
       <c r="C322" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="D322" t="s">
         <v>47</v>
       </c>
       <c r="E322" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F322"/>
       <c r="G322"/>
@@ -18140,31 +18146,31 @@
         <v>20</v>
       </c>
       <c r="I322" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="J322"/>
       <c r="K322"/>
       <c r="L322"/>
       <c r="M322"/>
       <c r="N322" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="B323" t="n">
         <v>49800004</v>
       </c>
       <c r="C323" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="D323" t="s">
         <v>672</v>
       </c>
       <c r="E323" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F323" t="s">
         <v>41</v>
@@ -18173,10 +18179,10 @@
         <v>672</v>
       </c>
       <c r="H323" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="I323" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="J323" t="n">
         <v>3</v>
@@ -18191,16 +18197,16 @@
         <v>22</v>
       </c>
       <c r="N323" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="B324"/>
       <c r="C324" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D324" t="s">
         <v>672</v>
@@ -18226,31 +18232,31 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="B325" t="n">
         <v>468595</v>
       </c>
       <c r="C325" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="D325" t="s">
         <v>25</v>
       </c>
       <c r="E325" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="F325" t="s">
         <v>76</v>
       </c>
       <c r="G325" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H325" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="I325" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="J325" t="n">
         <v>0.3</v>
@@ -18265,18 +18271,18 @@
         <v>22</v>
       </c>
       <c r="N325" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B326" t="n">
         <v>9802884</v>
       </c>
       <c r="C326" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="D326" t="s">
         <v>193</v>
@@ -18290,7 +18296,7 @@
         <v>20</v>
       </c>
       <c r="I326" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="J326"/>
       <c r="K326"/>
@@ -18302,13 +18308,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B327" t="n">
         <v>71455</v>
       </c>
       <c r="C327" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="D327" t="s">
         <v>193</v>
@@ -18322,7 +18328,7 @@
         <v>20</v>
       </c>
       <c r="I327" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="J327"/>
       <c r="K327"/>
@@ -18334,19 +18340,19 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B328" t="n">
         <v>456199</v>
       </c>
       <c r="C328" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="D328" t="s">
         <v>16</v>
       </c>
       <c r="E328" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="F328" t="s">
         <v>18</v>
@@ -18370,13 +18376,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="B329" t="n">
         <v>6446787</v>
       </c>
       <c r="C329" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="D329" t="s">
         <v>34</v>
@@ -18402,31 +18408,31 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="B330" t="n">
         <v>11979535</v>
       </c>
       <c r="C330" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="D330" t="s">
         <v>34</v>
       </c>
       <c r="E330" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="F330" t="s">
         <v>139</v>
       </c>
       <c r="G330" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="H330" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="I330" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="J330" t="n">
         <v>2</v>
@@ -18442,19 +18448,19 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="B331" t="n">
         <v>5903</v>
       </c>
       <c r="C331" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="D331" t="s">
         <v>58</v>
       </c>
       <c r="E331" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="F331" t="s">
         <v>60</v>
@@ -18466,7 +18472,7 @@
         <v>20</v>
       </c>
       <c r="I331" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="J331"/>
       <c r="K331"/>
@@ -18482,19 +18488,19 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="B332" t="n">
         <v>92879</v>
       </c>
       <c r="C332" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="D332" t="s">
         <v>58</v>
       </c>
       <c r="E332" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="F332" t="s">
         <v>60</v>
@@ -18506,7 +18512,7 @@
         <v>20</v>
       </c>
       <c r="I332" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="J332" t="n">
         <v>0.9</v>
@@ -18522,13 +18528,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="B333" t="n">
         <v>9872451</v>
       </c>
       <c r="C333" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="D333" t="s">
         <v>47</v>
@@ -18542,7 +18548,7 @@
         <v>20</v>
       </c>
       <c r="I333" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="J333"/>
       <c r="K333"/>
@@ -18554,31 +18560,31 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B334" t="n">
         <v>666418</v>
       </c>
       <c r="C334" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="D334" t="s">
         <v>16</v>
       </c>
       <c r="E334" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="F334" t="s">
         <v>18</v>
       </c>
       <c r="G334" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H334" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="I334" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="J334" t="n">
         <v>0.75</v>
@@ -18594,19 +18600,19 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B335" t="n">
         <v>65947</v>
       </c>
       <c r="C335" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="D335" t="s">
         <v>193</v>
       </c>
       <c r="E335" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="F335" t="s">
         <v>611</v>
@@ -18618,7 +18624,7 @@
         <v>20</v>
       </c>
       <c r="I335" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="J335" t="n">
         <v>0.6</v>
@@ -18634,19 +18640,19 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="B336" t="n">
         <v>1046</v>
       </c>
       <c r="C336" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D336" t="s">
         <v>16</v>
       </c>
       <c r="E336" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F336" t="s">
         <v>18</v>
@@ -18655,10 +18661,10 @@
         <v>712</v>
       </c>
       <c r="H336" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="I336" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="J336" t="n">
         <v>1.5</v>
@@ -18669,33 +18675,33 @@
       <c r="L336"/>
       <c r="M336"/>
       <c r="N336" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="B337" t="n">
         <v>11979418</v>
       </c>
       <c r="C337" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D337" t="s">
         <v>34</v>
       </c>
       <c r="E337" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F337" t="s">
         <v>139</v>
       </c>
       <c r="G337" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="H337" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="I337" t="s">
         <v>20</v>
@@ -18714,13 +18720,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="B338" t="n">
         <v>56052</v>
       </c>
       <c r="C338" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="D338" t="s">
         <v>41</v>
@@ -18734,7 +18740,7 @@
         <v>20</v>
       </c>
       <c r="I338" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="J338"/>
       <c r="K338"/>
@@ -18746,13 +18752,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="B339" t="n">
         <v>16132338</v>
       </c>
       <c r="C339" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="D339" t="s">
         <v>130</v>
@@ -18766,7 +18772,7 @@
         <v>20</v>
       </c>
       <c r="I339" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="J339"/>
       <c r="K339"/>
@@ -18778,13 +18784,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B340" t="n">
         <v>10993211</v>
       </c>
       <c r="C340" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="D340" t="s">
         <v>198</v>
@@ -18798,7 +18804,7 @@
         <v>20</v>
       </c>
       <c r="I340" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="J340"/>
       <c r="K340"/>
@@ -18810,31 +18816,31 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="B341" t="n">
         <v>6918462</v>
       </c>
       <c r="C341" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="D341" t="s">
         <v>41</v>
       </c>
       <c r="E341" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F341" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="G341" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="H341" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="I341" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="J341"/>
       <c r="K341"/>
@@ -18846,14 +18852,14 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="B342"/>
       <c r="C342" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="D342" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E342" t="s">
         <v>35</v>
@@ -18876,33 +18882,35 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="B343" t="n">
         <v>44631912</v>
       </c>
       <c r="C343" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="D343" t="s">
         <v>25</v>
       </c>
       <c r="E343" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="F343" t="s">
         <v>76</v>
       </c>
       <c r="G343" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H343" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="I343" t="s">
-        <v>1492</v>
-      </c>
-      <c r="J343"/>
+        <v>1494</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.45</v>
+      </c>
       <c r="K343"/>
       <c r="L343"/>
       <c r="M343"/>
@@ -18912,19 +18920,19 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="B344" t="n">
         <v>33042</v>
       </c>
       <c r="C344" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D344" t="s">
         <v>47</v>
       </c>
       <c r="E344" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F344" t="s">
         <v>49</v>
@@ -18936,7 +18944,7 @@
         <v>20</v>
       </c>
       <c r="I344" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="J344"/>
       <c r="K344"/>
@@ -18952,13 +18960,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="B345" t="n">
         <v>16659285</v>
       </c>
       <c r="C345" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="D345" t="s">
         <v>41</v>
@@ -18972,7 +18980,7 @@
         <v>20</v>
       </c>
       <c r="I345" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="J345"/>
       <c r="K345"/>
@@ -18984,19 +18992,19 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="B346" t="n">
         <v>135398743</v>
       </c>
       <c r="C346" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="D346" t="s">
         <v>16</v>
       </c>
       <c r="E346" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="F346" t="s">
         <v>18</v>
@@ -19005,10 +19013,10 @@
         <v>77</v>
       </c>
       <c r="H346" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="I346" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="J346" t="n">
         <v>0.15</v>
@@ -19019,24 +19027,24 @@
       <c r="L346"/>
       <c r="M346"/>
       <c r="N346" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="B347" t="n">
         <v>135398735</v>
       </c>
       <c r="C347" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="D347" t="s">
         <v>16</v>
       </c>
       <c r="E347" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F347" t="s">
         <v>18</v>
@@ -19045,10 +19053,10 @@
         <v>77</v>
       </c>
       <c r="H347" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="I347" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="J347" t="n">
         <v>0.6</v>
@@ -19068,29 +19076,29 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="B348"/>
       <c r="C348" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="D348" t="s">
         <v>16</v>
       </c>
       <c r="E348" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="F348" t="s">
         <v>18</v>
       </c>
       <c r="G348" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H348" t="s">
         <v>20</v>
       </c>
       <c r="I348" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="J348"/>
       <c r="K348"/>
@@ -19102,23 +19110,23 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B349"/>
       <c r="C349" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="D349" t="s">
         <v>16</v>
       </c>
       <c r="E349" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="F349" t="s">
         <v>18</v>
       </c>
       <c r="G349" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H349" t="s">
         <v>20</v>
@@ -19136,23 +19144,23 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="B350"/>
       <c r="C350" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="D350" t="s">
         <v>16</v>
       </c>
       <c r="E350" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="F350" t="s">
         <v>18</v>
       </c>
       <c r="G350" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H350" t="s">
         <v>20</v>
@@ -19170,19 +19178,19 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="B351" t="n">
         <v>6324616</v>
       </c>
       <c r="C351" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="D351" t="s">
         <v>16</v>
       </c>
       <c r="E351" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="F351" t="s">
         <v>18</v>
@@ -19194,7 +19202,7 @@
         <v>20</v>
       </c>
       <c r="I351" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="J351"/>
       <c r="K351"/>
@@ -19210,19 +19218,19 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="B352" t="n">
         <v>135403821</v>
       </c>
       <c r="C352" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="D352" t="s">
         <v>16</v>
       </c>
       <c r="E352" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="F352" t="s">
         <v>18</v>
@@ -19231,10 +19239,10 @@
         <v>77</v>
       </c>
       <c r="H352" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="I352" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="J352" t="n">
         <v>0.11</v>
@@ -19250,22 +19258,22 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="B353" t="n">
         <v>6436173</v>
       </c>
       <c r="C353" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D353" t="s">
         <v>41</v>
       </c>
       <c r="E353" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="F353" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="G353" t="s">
         <v>77</v>
@@ -19274,7 +19282,7 @@
         <v>20</v>
       </c>
       <c r="I353" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="J353" t="n">
         <v>0.6</v>
@@ -19290,13 +19298,13 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="B354" t="n">
         <v>65633</v>
       </c>
       <c r="C354" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="D354" t="s">
         <v>198</v>
@@ -19310,7 +19318,7 @@
         <v>20</v>
       </c>
       <c r="I354" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="J354"/>
       <c r="K354"/>
@@ -19322,13 +19330,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="B355" t="n">
         <v>163692</v>
       </c>
       <c r="C355" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="D355" t="s">
         <v>198</v>
@@ -19342,7 +19350,7 @@
         <v>20</v>
       </c>
       <c r="I355" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="J355"/>
       <c r="K355"/>
@@ -19354,19 +19362,19 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B356" t="n">
         <v>5282211</v>
       </c>
       <c r="C356" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="D356" t="s">
         <v>34</v>
       </c>
       <c r="E356" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="F356" t="s">
         <v>139</v>
@@ -19378,7 +19386,7 @@
         <v>20</v>
       </c>
       <c r="I356" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="J356" t="n">
         <v>0.8</v>
@@ -19394,19 +19402,19 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B357" t="n">
         <v>54682938</v>
       </c>
       <c r="C357" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D357" t="s">
         <v>587</v>
       </c>
       <c r="E357" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="F357" t="s">
         <v>587</v>
@@ -19418,7 +19426,7 @@
         <v>20</v>
       </c>
       <c r="I357" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="J357"/>
       <c r="K357"/>
@@ -19434,19 +19442,19 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="B358" t="n">
         <v>287180</v>
       </c>
       <c r="C358" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D358" t="s">
         <v>193</v>
       </c>
       <c r="E358" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="F358" t="s">
         <v>611</v>
@@ -19458,7 +19466,7 @@
         <v>20</v>
       </c>
       <c r="I358" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="J358" t="n">
         <v>0.3</v>
@@ -19474,17 +19482,17 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="B359"/>
       <c r="C359" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="D359" t="s">
         <v>34</v>
       </c>
       <c r="E359" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="F359" t="s">
         <v>139</v>
@@ -19493,7 +19501,7 @@
         <v>140</v>
       </c>
       <c r="H359" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="I359" t="s">
         <v>20</v>
@@ -19512,19 +19520,19 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B360" t="n">
         <v>58258</v>
       </c>
       <c r="C360" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D360" t="s">
         <v>193</v>
       </c>
       <c r="E360" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="F360" t="s">
         <v>611</v>
@@ -19536,7 +19544,7 @@
         <v>20</v>
       </c>
       <c r="I360" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="J360" t="n">
         <v>0.2</v>
@@ -19552,13 +19560,13 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B361" t="n">
         <v>3085092</v>
       </c>
       <c r="C361" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="D361" t="s">
         <v>41</v>
@@ -19572,25 +19580,25 @@
         <v>20</v>
       </c>
       <c r="I361" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
       <c r="N361" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="B362" t="n">
         <v>56208</v>
       </c>
       <c r="C362" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="D362" t="s">
         <v>193</v>
@@ -19604,7 +19612,7 @@
         <v>20</v>
       </c>
       <c r="I362" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="J362"/>
       <c r="K362"/>
@@ -19616,13 +19624,13 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="B363" t="n">
         <v>9933415</v>
       </c>
       <c r="C363" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D363" t="s">
         <v>58</v>
@@ -19636,7 +19644,7 @@
         <v>20</v>
       </c>
       <c r="I363" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="J363"/>
       <c r="K363"/>
@@ -19648,19 +19656,19 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="B364" t="n">
         <v>71815</v>
       </c>
       <c r="C364" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="D364" t="s">
         <v>41</v>
       </c>
       <c r="E364" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="F364"/>
       <c r="G364"/>
@@ -19668,7 +19676,7 @@
         <v>20</v>
       </c>
       <c r="I364" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="J364" t="n">
         <v>2</v>
@@ -19684,17 +19692,17 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="B365"/>
       <c r="C365" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="D365" t="s">
         <v>16</v>
       </c>
       <c r="E365" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="F365" t="s">
         <v>18</v>
@@ -19703,7 +19711,7 @@
         <v>712</v>
       </c>
       <c r="H365" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="I365" t="s">
         <v>20</v>
@@ -19718,19 +19726,19 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="B366" t="n">
         <v>36119</v>
       </c>
       <c r="C366" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="D366" t="s">
         <v>47</v>
       </c>
       <c r="E366" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="F366" t="s">
         <v>49</v>
@@ -19739,10 +19747,10 @@
         <v>50</v>
       </c>
       <c r="H366" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="I366" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
       <c r="J366"/>
       <c r="K366"/>
@@ -19758,19 +19766,19 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="B367" t="n">
         <v>461399</v>
       </c>
       <c r="C367" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="D367" t="s">
         <v>193</v>
       </c>
       <c r="E367" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
       <c r="F367"/>
       <c r="G367"/>
@@ -19778,7 +19786,7 @@
         <v>20</v>
       </c>
       <c r="I367" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="J367" t="n">
         <v>0.1</v>
@@ -19794,19 +19802,19 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="B368" t="n">
         <v>2724368</v>
       </c>
       <c r="C368" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="D368" t="s">
         <v>16</v>
       </c>
       <c r="E368" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="F368" t="s">
         <v>18</v>
@@ -19818,7 +19826,7 @@
         <v>20</v>
       </c>
       <c r="I368" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="J368" t="n">
         <v>14</v>
@@ -19838,19 +19846,19 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B369" t="n">
         <v>25242512</v>
       </c>
       <c r="C369" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D369" t="s">
         <v>34</v>
       </c>
       <c r="E369" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="F369"/>
       <c r="G369"/>
@@ -19870,19 +19878,19 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
       <c r="B370" t="n">
         <v>60464</v>
       </c>
       <c r="C370" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D370" t="s">
         <v>193</v>
       </c>
       <c r="E370" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="F370" t="s">
         <v>611</v>
@@ -19891,10 +19899,10 @@
         <v>618</v>
       </c>
       <c r="H370" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="I370" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="J370" t="n">
         <v>0.2</v>
@@ -19910,19 +19918,19 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="B371" t="n">
         <v>15541</v>
       </c>
       <c r="C371" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="D371" t="s">
         <v>41</v>
       </c>
       <c r="E371" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="F371" t="s">
         <v>41</v>
@@ -19931,10 +19939,10 @@
         <v>41</v>
       </c>
       <c r="H371" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="I371" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="J371"/>
       <c r="K371"/>
@@ -19950,19 +19958,19 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B372" t="n">
         <v>6419898</v>
       </c>
       <c r="C372" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="D372" t="s">
         <v>34</v>
       </c>
       <c r="E372" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="F372" t="s">
         <v>139</v>
@@ -19971,10 +19979,10 @@
         <v>140</v>
       </c>
       <c r="H372" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="I372" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="J372" t="n">
         <v>3</v>
@@ -19990,17 +19998,17 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="B373"/>
       <c r="C373" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D373" t="s">
         <v>41</v>
       </c>
       <c r="E373" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F373" t="s">
         <v>187</v>
@@ -20024,23 +20032,23 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="B374"/>
       <c r="C374" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D374" t="s">
         <v>47</v>
       </c>
       <c r="E374" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="F374" t="s">
         <v>49</v>
       </c>
       <c r="G374" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="H374" t="s">
         <v>20</v>
@@ -20062,31 +20070,31 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="B375" t="n">
         <v>19649</v>
       </c>
       <c r="C375" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D375" t="s">
         <v>47</v>
       </c>
       <c r="E375" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="F375" t="s">
         <v>49</v>
       </c>
       <c r="G375" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="H375" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="I375" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="J375"/>
       <c r="K375"/>
@@ -20097,16 +20105,16 @@
         <v>22</v>
       </c>
       <c r="N375" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="B376"/>
       <c r="C376" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="D376" t="s">
         <v>47</v>
@@ -20117,7 +20125,7 @@
       <c r="F376"/>
       <c r="G376"/>
       <c r="H376" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="I376" t="s">
         <v>20</v>
@@ -20132,23 +20140,23 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="B377"/>
       <c r="C377" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D377" t="s">
         <v>16</v>
       </c>
       <c r="E377" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="F377" t="s">
         <v>18</v>
       </c>
       <c r="G377" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H377" t="s">
         <v>20</v>
@@ -20166,31 +20174,31 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="B378" t="n">
         <v>130313</v>
       </c>
       <c r="C378" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D378" t="s">
         <v>58</v>
       </c>
       <c r="E378" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="F378" t="s">
         <v>60</v>
       </c>
       <c r="G378" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="H378" t="s">
         <v>20</v>
       </c>
       <c r="I378" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="J378"/>
       <c r="K378"/>
@@ -20206,19 +20214,19 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
       <c r="B379" t="n">
         <v>20055036</v>
       </c>
       <c r="C379" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D379" t="s">
         <v>58</v>
       </c>
       <c r="E379" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="F379" t="s">
         <v>60</v>
@@ -20230,7 +20238,7 @@
         <v>20</v>
       </c>
       <c r="I379" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
       <c r="J379"/>
       <c r="K379"/>
@@ -20246,19 +20254,19 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="B380" t="n">
         <v>5318</v>
       </c>
       <c r="C380" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="D380" t="s">
         <v>25</v>
       </c>
       <c r="E380" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="F380"/>
       <c r="G380"/>
@@ -20266,7 +20274,7 @@
         <v>20</v>
       </c>
       <c r="I380" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="J380"/>
       <c r="K380"/>
@@ -20278,13 +20286,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="B381" t="n">
         <v>6634</v>
       </c>
       <c r="C381" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D381" t="s">
         <v>41</v>
@@ -20298,7 +20306,7 @@
         <v>20</v>
       </c>
       <c r="I381" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="J381"/>
       <c r="K381"/>
@@ -20310,31 +20318,31 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="B382" t="n">
         <v>5215</v>
       </c>
       <c r="C382" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="D382" t="s">
         <v>207</v>
       </c>
       <c r="E382" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="F382" t="s">
         <v>209</v>
       </c>
       <c r="G382" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="H382" t="s">
         <v>20</v>
       </c>
       <c r="I382" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="J382" t="n">
         <v>0.6</v>
@@ -20345,30 +20353,30 @@
       <c r="L382"/>
       <c r="M382"/>
       <c r="N382" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="B383" t="n">
         <v>122284</v>
       </c>
       <c r="C383" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="D383" t="s">
         <v>207</v>
       </c>
       <c r="E383" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F383" t="s">
         <v>209</v>
       </c>
       <c r="G383" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H383" t="s">
         <v>20</v>
@@ -20386,31 +20394,31 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="B384" t="n">
         <v>64932</v>
       </c>
       <c r="C384" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D384" t="s">
         <v>207</v>
       </c>
       <c r="E384" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="F384" t="s">
         <v>209</v>
       </c>
       <c r="G384" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H384" t="s">
         <v>20</v>
       </c>
       <c r="I384" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="J384"/>
       <c r="K384"/>
@@ -20422,31 +20430,31 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="B385" t="n">
         <v>5323</v>
       </c>
       <c r="C385" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D385" t="s">
         <v>207</v>
       </c>
       <c r="E385" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="F385" t="s">
         <v>209</v>
       </c>
       <c r="G385" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H385" t="s">
         <v>20</v>
       </c>
       <c r="I385" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="J385" t="n">
         <v>0.5</v>
@@ -20462,31 +20470,31 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="B386" t="n">
         <v>5327</v>
       </c>
       <c r="C386" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D386" t="s">
         <v>207</v>
       </c>
       <c r="E386" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="F386" t="s">
         <v>209</v>
       </c>
       <c r="G386" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H386" t="s">
         <v>20</v>
       </c>
       <c r="I386" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="J386" t="n">
         <v>4</v>
@@ -20502,23 +20510,23 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="B387"/>
       <c r="C387" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="D387" t="s">
         <v>207</v>
       </c>
       <c r="E387" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="F387" t="s">
         <v>209</v>
       </c>
       <c r="G387" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H387" t="s">
         <v>20</v>
@@ -20536,31 +20544,31 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="B388" t="n">
         <v>5344</v>
       </c>
       <c r="C388" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="D388" t="s">
         <v>207</v>
       </c>
       <c r="E388" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="F388" t="s">
         <v>209</v>
       </c>
       <c r="G388" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H388" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="I388" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="J388" t="n">
         <v>4</v>
@@ -20580,31 +20588,31 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="B389" t="n">
         <v>5343</v>
       </c>
       <c r="C389" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="D389" t="s">
         <v>207</v>
       </c>
       <c r="E389" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="F389" t="s">
         <v>209</v>
       </c>
       <c r="G389" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H389" t="s">
         <v>20</v>
       </c>
       <c r="I389" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="J389" t="n">
         <v>4</v>
@@ -20624,31 +20632,31 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="B390" t="n">
         <v>9047</v>
       </c>
       <c r="C390" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="D390" t="s">
         <v>207</v>
       </c>
       <c r="E390" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="F390" t="s">
         <v>209</v>
       </c>
       <c r="G390" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H390" t="s">
         <v>20</v>
       </c>
       <c r="I390" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="J390" t="n">
         <v>0.1</v>
@@ -20664,31 +20672,31 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="B391" t="n">
         <v>187764</v>
       </c>
       <c r="C391" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D391" t="s">
         <v>207</v>
       </c>
       <c r="E391" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="F391" t="s">
         <v>209</v>
       </c>
       <c r="G391" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H391" t="s">
         <v>20</v>
       </c>
       <c r="I391" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="J391" t="n">
         <v>1.5</v>
@@ -20704,31 +20712,31 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="B392" t="n">
         <v>5325</v>
       </c>
       <c r="C392" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D392" t="s">
         <v>207</v>
       </c>
       <c r="E392" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="F392" t="s">
         <v>209</v>
       </c>
       <c r="G392" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H392" t="s">
         <v>20</v>
       </c>
       <c r="I392" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="J392" t="n">
         <v>3</v>
@@ -20744,23 +20752,23 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="B393"/>
       <c r="C393" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="D393" t="s">
         <v>207</v>
       </c>
       <c r="E393" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="F393" t="s">
         <v>209</v>
       </c>
       <c r="G393" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H393" t="s">
         <v>20</v>
@@ -20778,13 +20786,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="B394" t="n">
         <v>5327</v>
       </c>
       <c r="C394" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="D394" t="s">
         <v>41</v>
@@ -20798,43 +20806,43 @@
         <v>20</v>
       </c>
       <c r="I394" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="J394"/>
       <c r="K394"/>
       <c r="L394"/>
       <c r="M394"/>
       <c r="N394" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="B395" t="n">
         <v>5328</v>
       </c>
       <c r="C395" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="D395" t="s">
         <v>207</v>
       </c>
       <c r="E395" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F395" t="s">
         <v>209</v>
       </c>
       <c r="G395" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H395" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="I395" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="J395" t="n">
         <v>4</v>
@@ -20845,36 +20853,36 @@
       <c r="L395"/>
       <c r="M395"/>
       <c r="N395" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="B396" t="n">
         <v>5329</v>
       </c>
       <c r="C396" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="D396" t="s">
         <v>207</v>
       </c>
       <c r="E396" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="F396" t="s">
         <v>209</v>
       </c>
       <c r="G396" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="H396" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="I396" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="J396" t="n">
         <v>2</v>
@@ -20885,36 +20893,36 @@
       <c r="L396"/>
       <c r="M396"/>
       <c r="N396" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B397" t="n">
         <v>5330</v>
       </c>
       <c r="C397" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="D397" t="s">
         <v>207</v>
       </c>
       <c r="E397" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="F397" t="s">
         <v>209</v>
       </c>
       <c r="G397" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H397" t="s">
         <v>20</v>
       </c>
       <c r="I397" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="J397" t="n">
         <v>0.5</v>
@@ -20930,31 +20938,31 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B398" t="n">
         <v>19596</v>
       </c>
       <c r="C398" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="D398" t="s">
         <v>207</v>
       </c>
       <c r="E398" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="F398" t="s">
         <v>209</v>
       </c>
       <c r="G398" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H398" t="s">
         <v>20</v>
       </c>
       <c r="I398" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="J398"/>
       <c r="K398"/>
@@ -20966,31 +20974,31 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="B399" t="n">
         <v>5326</v>
       </c>
       <c r="C399" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D399" t="s">
         <v>207</v>
       </c>
       <c r="E399" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="F399" t="s">
         <v>209</v>
       </c>
       <c r="G399" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H399" t="s">
         <v>20</v>
       </c>
       <c r="I399" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="J399" t="n">
         <v>0.5</v>
@@ -21006,26 +21014,26 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="B400"/>
       <c r="C400" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="D400" t="s">
         <v>207</v>
       </c>
       <c r="E400" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="F400" t="s">
         <v>209</v>
       </c>
       <c r="G400" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H400" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="I400" t="s">
         <v>20</v>
@@ -21040,31 +21048,31 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="B401" t="n">
         <v>12894</v>
       </c>
       <c r="C401" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D401" t="s">
         <v>207</v>
       </c>
       <c r="E401" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="F401" t="s">
         <v>209</v>
       </c>
       <c r="G401" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="H401" t="s">
         <v>20</v>
       </c>
       <c r="I401" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="J401" t="n">
         <v>1</v>
@@ -21084,23 +21092,23 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="B402"/>
       <c r="C402" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D402" t="s">
         <v>207</v>
       </c>
       <c r="E402" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="F402" t="s">
         <v>209</v>
       </c>
       <c r="G402" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H402" t="s">
         <v>20</v>
@@ -21118,31 +21126,31 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="B403" t="n">
         <v>5333</v>
       </c>
       <c r="C403" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="D403" t="s">
         <v>207</v>
       </c>
       <c r="E403" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="F403" t="s">
         <v>209</v>
       </c>
       <c r="G403" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H403" t="s">
         <v>20</v>
       </c>
       <c r="I403" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="J403"/>
       <c r="K403"/>
@@ -21154,31 +21162,31 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B404" t="n">
         <v>68933</v>
       </c>
       <c r="C404" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="D404" t="s">
         <v>207</v>
       </c>
       <c r="E404" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="F404" t="s">
         <v>209</v>
       </c>
       <c r="G404" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H404" t="s">
         <v>20</v>
       </c>
       <c r="I404" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="J404" t="n">
         <v>0.5</v>
@@ -21194,31 +21202,31 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="B405" t="n">
         <v>5335</v>
       </c>
       <c r="C405" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="D405" t="s">
         <v>207</v>
       </c>
       <c r="E405" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="F405" t="s">
         <v>209</v>
       </c>
       <c r="G405" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="H405" t="s">
         <v>20</v>
       </c>
       <c r="I405" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="J405" t="n">
         <v>1</v>
@@ -21234,31 +21242,31 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="B406" t="n">
         <v>5336</v>
       </c>
       <c r="C406" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="D406" t="s">
         <v>207</v>
       </c>
       <c r="E406" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F406" t="s">
         <v>209</v>
       </c>
       <c r="G406" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H406" t="s">
         <v>20</v>
       </c>
       <c r="I406" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="J406" t="n">
         <v>1</v>
@@ -21269,18 +21277,18 @@
       <c r="L406"/>
       <c r="M406"/>
       <c r="N406" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="B407" t="n">
         <v>60582</v>
       </c>
       <c r="C407" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="D407" t="s">
         <v>41</v>
@@ -21294,7 +21302,7 @@
         <v>20</v>
       </c>
       <c r="I407" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="J407"/>
       <c r="K407"/>
@@ -21306,67 +21314,67 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="B408" t="n">
         <v>5340</v>
       </c>
       <c r="C408" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="D408" t="s">
         <v>207</v>
       </c>
       <c r="E408" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="F408" t="s">
         <v>209</v>
       </c>
       <c r="G408" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H408" t="s">
         <v>20</v>
       </c>
       <c r="I408" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="J408"/>
       <c r="K408"/>
       <c r="L408"/>
       <c r="M408"/>
       <c r="N408" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="B409" t="n">
         <v>3000579</v>
       </c>
       <c r="C409" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D409" t="s">
         <v>207</v>
       </c>
       <c r="E409" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="F409" t="s">
         <v>209</v>
       </c>
       <c r="G409" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H409" t="s">
         <v>20</v>
       </c>
       <c r="I409" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="J409" t="n">
         <v>6</v>
@@ -21382,13 +21390,13 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="B410" t="n">
         <v>5344</v>
       </c>
       <c r="C410" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="D410" t="s">
         <v>41</v>
@@ -21402,25 +21410,25 @@
         <v>20</v>
       </c>
       <c r="I410" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="J410"/>
       <c r="K410"/>
       <c r="L410"/>
       <c r="M410"/>
       <c r="N410" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="B411" t="n">
         <v>86225</v>
       </c>
       <c r="C411" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="D411" t="s">
         <v>41</v>
@@ -21431,7 +21439,7 @@
       <c r="F411"/>
       <c r="G411"/>
       <c r="H411" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="I411" t="s">
         <v>20</v>
@@ -21446,13 +21454,13 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B412" t="n">
         <v>9950244</v>
       </c>
       <c r="C412" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="D412" t="s">
         <v>41</v>
@@ -21466,7 +21474,7 @@
         <v>20</v>
       </c>
       <c r="I412" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="J412"/>
       <c r="K412"/>
@@ -21478,19 +21486,19 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B413" t="n">
         <v>444022</v>
       </c>
       <c r="C413" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="D413" t="s">
         <v>58</v>
       </c>
       <c r="E413" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="F413" t="s">
         <v>60</v>
@@ -21502,7 +21510,7 @@
         <v>20</v>
       </c>
       <c r="I413" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="J413" t="n">
         <v>1.5</v>
@@ -21518,13 +21526,13 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B414" t="n">
         <v>46700778</v>
       </c>
       <c r="C414" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="D414" t="s">
         <v>41</v>
@@ -21538,7 +21546,7 @@
         <v>20</v>
       </c>
       <c r="I414" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="J414"/>
       <c r="K414"/>
@@ -21550,19 +21558,19 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B415" t="n">
         <v>71447</v>
       </c>
       <c r="C415" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="D415" t="s">
         <v>58</v>
       </c>
       <c r="E415" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="F415" t="s">
         <v>60</v>
@@ -21574,7 +21582,7 @@
         <v>20</v>
       </c>
       <c r="I415" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="J415" t="n">
         <v>2</v>
@@ -21590,13 +21598,13 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>1783</v>
+        <v>1785</v>
       </c>
       <c r="B416" t="n">
         <v>163307</v>
       </c>
       <c r="C416" t="s">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="D416" t="s">
         <v>41</v>
@@ -21610,7 +21618,7 @@
         <v>20</v>
       </c>
       <c r="I416" t="s">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="J416"/>
       <c r="K416"/>
@@ -21622,31 +21630,31 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="B417" t="n">
         <v>123630</v>
       </c>
       <c r="C417" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="D417" t="s">
         <v>58</v>
       </c>
       <c r="E417" t="s">
-        <v>1788</v>
+        <v>1790</v>
       </c>
       <c r="F417" t="s">
         <v>60</v>
       </c>
       <c r="G417" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
       <c r="H417" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="I417" t="s">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="J417"/>
       <c r="K417"/>
@@ -21658,13 +21666,13 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="B418" t="n">
         <v>9800194</v>
       </c>
       <c r="C418" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D418" t="s">
         <v>198</v>
@@ -21690,19 +21698,19 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>1793</v>
+        <v>1795</v>
       </c>
       <c r="B419" t="n">
         <v>11234049</v>
       </c>
       <c r="C419" t="s">
-        <v>1794</v>
+        <v>1796</v>
       </c>
       <c r="D419" t="s">
         <v>218</v>
       </c>
       <c r="E419" t="s">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="F419" t="s">
         <v>41</v>
@@ -21711,10 +21719,10 @@
         <v>41</v>
       </c>
       <c r="H419" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="I419" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="J419" t="n">
         <v>0.2</v>
@@ -21734,19 +21742,19 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="B420" t="n">
         <v>16131923</v>
       </c>
       <c r="C420" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="D420" t="s">
         <v>130</v>
       </c>
       <c r="E420" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="F420" t="s">
         <v>41</v>
@@ -21755,10 +21763,10 @@
         <v>689</v>
       </c>
       <c r="H420" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="I420" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="J420"/>
       <c r="K420"/>
@@ -21769,16 +21777,16 @@
         <v>22</v>
       </c>
       <c r="N420" t="s">
-        <v>1803</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>1804</v>
+        <v>1806</v>
       </c>
       <c r="B421"/>
       <c r="C421" t="s">
-        <v>1805</v>
+        <v>1807</v>
       </c>
       <c r="D421" t="s">
         <v>130</v>
@@ -21804,19 +21812,19 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>1806</v>
+        <v>1808</v>
       </c>
       <c r="B422" t="n">
         <v>3081362</v>
       </c>
       <c r="C422" t="s">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="D422" t="s">
         <v>130</v>
       </c>
       <c r="E422" t="s">
-        <v>1808</v>
+        <v>1810</v>
       </c>
       <c r="F422" t="s">
         <v>41</v>
@@ -21825,10 +21833,10 @@
         <v>689</v>
       </c>
       <c r="H422" t="s">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="I422" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
       <c r="J422"/>
       <c r="K422"/>
@@ -21840,19 +21848,19 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="B423" t="n">
         <v>3002190</v>
       </c>
       <c r="C423" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
       <c r="D423" t="s">
         <v>34</v>
       </c>
       <c r="E423" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
       <c r="F423" t="s">
         <v>139</v>
@@ -21861,10 +21869,10 @@
         <v>140</v>
       </c>
       <c r="H423" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
       <c r="I423" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="J423" t="n">
         <v>0.8</v>
@@ -21880,19 +21888,19 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="B424" t="n">
         <v>60021</v>
       </c>
       <c r="C424" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="D424" t="s">
         <v>193</v>
       </c>
       <c r="E424" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="F424" t="s">
         <v>611</v>
@@ -21901,10 +21909,10 @@
         <v>618</v>
       </c>
       <c r="H424" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="I424" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="J424" t="n">
         <v>0.8</v>
@@ -21920,19 +21928,19 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="B425" t="n">
         <v>171758</v>
       </c>
       <c r="C425" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="D425" t="s">
         <v>58</v>
       </c>
       <c r="E425" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
       <c r="F425" t="s">
         <v>60</v>
@@ -21941,10 +21949,10 @@
         <v>61</v>
       </c>
       <c r="H425" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
       <c r="I425" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
       <c r="J425"/>
       <c r="K425"/>
@@ -21960,31 +21968,31 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
       <c r="B426" t="n">
         <v>1549008</v>
       </c>
       <c r="C426" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="D426" t="s">
         <v>25</v>
       </c>
       <c r="E426" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="F426" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="G426" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="H426" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="I426" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="J426" t="n">
         <v>0.25</v>
@@ -22000,19 +22008,19 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="B427" t="n">
         <v>441383</v>
       </c>
       <c r="C427" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="D427" t="s">
         <v>25</v>
       </c>
       <c r="E427" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
       <c r="F427"/>
       <c r="G427"/>
@@ -22020,7 +22028,7 @@
         <v>20</v>
       </c>
       <c r="I427" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="J427"/>
       <c r="K427"/>
@@ -22032,19 +22040,19 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="B428" t="n">
         <v>65720</v>
       </c>
       <c r="C428" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="D428" t="s">
         <v>16</v>
       </c>
       <c r="E428" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="F428" t="s">
         <v>18</v>
@@ -22056,7 +22064,7 @@
         <v>20</v>
       </c>
       <c r="I428" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="J428"/>
       <c r="K428"/>
@@ -22068,19 +22076,19 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B429" t="n">
         <v>54675776</v>
       </c>
       <c r="C429" t="s">
-        <v>1841</v>
+        <v>1843</v>
       </c>
       <c r="D429" t="s">
         <v>587</v>
       </c>
       <c r="E429" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="F429" t="s">
         <v>587</v>
@@ -22089,10 +22097,10 @@
         <v>587</v>
       </c>
       <c r="H429" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="I429" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="J429" t="n">
         <v>1</v>
@@ -22107,18 +22115,18 @@
         <v>22</v>
       </c>
       <c r="N429" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="B430" t="n">
         <v>65450</v>
       </c>
       <c r="C430" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="D430" t="s">
         <v>41</v>
@@ -22132,7 +22140,7 @@
         <v>20</v>
       </c>
       <c r="I430" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="J430"/>
       <c r="K430"/>
@@ -22144,13 +22152,13 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B431" t="n">
         <v>9568512</v>
       </c>
       <c r="C431" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="D431" t="s">
         <v>218</v>
@@ -22164,7 +22172,7 @@
         <v>20</v>
       </c>
       <c r="I431" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="J431"/>
       <c r="K431"/>
@@ -22176,19 +22184,19 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B432" t="n">
         <v>27200</v>
       </c>
       <c r="C432" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="D432" t="s">
         <v>591</v>
       </c>
       <c r="E432" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="F432" t="s">
         <v>591</v>
@@ -22200,7 +22208,7 @@
         <v>20</v>
       </c>
       <c r="I432" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="J432" t="n">
         <v>1.5</v>
@@ -22220,23 +22228,23 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="B433"/>
       <c r="C433" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="D433" t="s">
         <v>16</v>
       </c>
       <c r="E433" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="F433" t="s">
         <v>18</v>
       </c>
       <c r="G433" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H433" t="s">
         <v>20</v>
@@ -22254,13 +22262,13 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="B434" t="n">
         <v>656958</v>
       </c>
       <c r="C434" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="D434" t="s">
         <v>41</v>
@@ -22274,31 +22282,31 @@
         <v>20</v>
       </c>
       <c r="I434" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J434"/>
       <c r="K434"/>
       <c r="L434"/>
       <c r="M434"/>
       <c r="N434" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B435" t="n">
         <v>36921</v>
       </c>
       <c r="C435" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="D435" t="s">
         <v>58</v>
       </c>
       <c r="E435" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="F435" t="s">
         <v>60</v>
@@ -22307,10 +22315,10 @@
         <v>61</v>
       </c>
       <c r="H435" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="I435" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="J435"/>
       <c r="K435"/>
@@ -22321,24 +22329,24 @@
         <v>22</v>
       </c>
       <c r="N435" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="B436" t="n">
         <v>6437075</v>
       </c>
       <c r="C436" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="D436" t="s">
         <v>58</v>
       </c>
       <c r="E436" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="F436" t="s">
         <v>60</v>
@@ -22347,10 +22355,10 @@
         <v>68</v>
       </c>
       <c r="H436" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="I436" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="J436"/>
       <c r="K436"/>
@@ -22366,19 +22374,19 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="B437" t="n">
         <v>54686904</v>
       </c>
       <c r="C437" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="D437" t="s">
         <v>587</v>
       </c>
       <c r="E437" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="F437" t="s">
         <v>587</v>
@@ -22387,10 +22395,10 @@
         <v>587</v>
       </c>
       <c r="H437" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="I437" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="J437"/>
       <c r="K437"/>
@@ -22406,19 +22414,19 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="B438" t="n">
         <v>65592</v>
       </c>
       <c r="C438" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="D438" t="s">
         <v>193</v>
       </c>
       <c r="E438" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="F438"/>
       <c r="G438"/>
@@ -22426,7 +22434,7 @@
         <v>20</v>
       </c>
       <c r="I438" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="J438"/>
       <c r="K438"/>
@@ -22438,13 +22446,13 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="B439" t="n">
         <v>24860548</v>
       </c>
       <c r="C439" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="D439" t="s">
         <v>34</v>
@@ -22458,7 +22466,7 @@
         <v>20</v>
       </c>
       <c r="I439" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="J439"/>
       <c r="K439"/>
@@ -22470,13 +22478,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="B440" t="n">
         <v>5282521</v>
       </c>
       <c r="C440" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="D440" t="s">
         <v>34</v>
@@ -22490,43 +22498,43 @@
         <v>20</v>
       </c>
       <c r="I440" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="J440"/>
       <c r="K440"/>
       <c r="L440"/>
       <c r="M440"/>
       <c r="N440" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="B441" t="n">
         <v>5479</v>
       </c>
       <c r="C441" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="D441" t="s">
         <v>41</v>
       </c>
       <c r="E441" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="F441" t="s">
         <v>41</v>
       </c>
       <c r="G441" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="H441" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="I441" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="J441" t="n">
         <v>2</v>
@@ -22546,31 +22554,31 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="B442" t="n">
         <v>3001386</v>
       </c>
       <c r="C442" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="D442" t="s">
         <v>16</v>
       </c>
       <c r="E442" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="F442" t="s">
         <v>18</v>
       </c>
       <c r="G442" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H442" t="s">
         <v>20</v>
       </c>
       <c r="I442" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="J442" t="n">
         <v>7</v>
@@ -22586,13 +22594,13 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="B443" t="n">
         <v>10247721</v>
       </c>
       <c r="C443" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="D443" t="s">
         <v>41</v>
@@ -22606,7 +22614,7 @@
         <v>20</v>
       </c>
       <c r="I443" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="J443"/>
       <c r="K443"/>
@@ -22618,13 +22626,13 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="B444" t="n">
         <v>65788</v>
       </c>
       <c r="C444" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="D444" t="s">
         <v>193</v>
@@ -22638,7 +22646,7 @@
         <v>20</v>
       </c>
       <c r="I444" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="J444"/>
       <c r="K444"/>
@@ -22650,13 +22658,13 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="B445" t="n">
         <v>394397</v>
       </c>
       <c r="C445" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="D445" t="s">
         <v>41</v>
@@ -22670,7 +22678,7 @@
         <v>20</v>
       </c>
       <c r="I445" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="J445"/>
       <c r="K445"/>
@@ -22682,19 +22690,19 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B446" t="n">
         <v>36294</v>
       </c>
       <c r="C446" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="D446" t="s">
         <v>47</v>
       </c>
       <c r="E446" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="F446" t="s">
         <v>49</v>
@@ -22703,10 +22711,10 @@
         <v>50</v>
       </c>
       <c r="H446" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="I446" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="J446"/>
       <c r="K446"/>
@@ -22717,16 +22725,16 @@
         <v>22</v>
       </c>
       <c r="N446" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="B447"/>
       <c r="C447" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="D447" t="s">
         <v>47</v>
@@ -22737,7 +22745,7 @@
       <c r="F447"/>
       <c r="G447"/>
       <c r="H447" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="I447" t="s">
         <v>20</v>
@@ -22752,19 +22760,19 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="B448" t="n">
         <v>5517</v>
       </c>
       <c r="C448" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="D448" t="s">
         <v>193</v>
       </c>
       <c r="E448" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="F448"/>
       <c r="G448"/>
@@ -22772,7 +22780,7 @@
         <v>20</v>
       </c>
       <c r="I448" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="J448" t="n">
         <v>0.45</v>
@@ -22788,19 +22796,19 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="B449" t="n">
         <v>5578</v>
       </c>
       <c r="C449" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="D449" t="s">
         <v>207</v>
       </c>
       <c r="E449" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="F449" t="s">
         <v>209</v>
@@ -22809,10 +22817,10 @@
         <v>210</v>
       </c>
       <c r="H449" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="I449" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="J449" t="n">
         <v>0.4</v>
@@ -22827,36 +22835,36 @@
         <v>22</v>
       </c>
       <c r="N449" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="B450" t="n">
         <v>358641</v>
       </c>
       <c r="C450" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="D450" t="s">
         <v>207</v>
       </c>
       <c r="E450" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="F450" t="s">
         <v>209</v>
       </c>
       <c r="G450" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="H450" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="I450" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="J450"/>
       <c r="K450"/>
@@ -22868,19 +22876,19 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="B451" t="n">
         <v>202225</v>
       </c>
       <c r="C451" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="D451" t="s">
         <v>34</v>
       </c>
       <c r="E451" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="F451" t="s">
         <v>139</v>
@@ -22892,7 +22900,7 @@
         <v>20</v>
       </c>
       <c r="I451" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="J451" t="n">
         <v>1</v>
@@ -22908,13 +22916,13 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="B452" t="n">
         <v>55886</v>
       </c>
       <c r="C452" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="D452" t="s">
         <v>41</v>
@@ -22928,7 +22936,7 @@
         <v>20</v>
       </c>
       <c r="I452" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="J452"/>
       <c r="K452"/>
@@ -22940,19 +22948,19 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B453" t="n">
         <v>62959</v>
       </c>
       <c r="C453" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D453" t="s">
         <v>193</v>
       </c>
       <c r="E453" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="F453" t="s">
         <v>611</v>
@@ -22961,10 +22969,10 @@
         <v>618</v>
       </c>
       <c r="H453" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="I453" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="J453" t="n">
         <v>0.2</v>
@@ -22984,13 +22992,13 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="B454" t="n">
         <v>9832301</v>
       </c>
       <c r="C454" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="D454" t="s">
         <v>34</v>
@@ -23004,7 +23012,7 @@
         <v>20</v>
       </c>
       <c r="I454" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="J454"/>
       <c r="K454"/>
@@ -23016,13 +23024,13 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="B455" t="n">
         <v>5280440</v>
       </c>
       <c r="C455" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="D455" t="s">
         <v>34</v>
@@ -23036,25 +23044,25 @@
         <v>20</v>
       </c>
       <c r="I455" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="J455"/>
       <c r="K455"/>
       <c r="L455"/>
       <c r="M455"/>
       <c r="N455" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B456" t="n">
         <v>6441094</v>
       </c>
       <c r="C456" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D456" t="s">
         <v>34</v>
@@ -23065,7 +23073,7 @@
       <c r="F456"/>
       <c r="G456"/>
       <c r="H456" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="I456" t="s">
         <v>20</v>
@@ -23080,13 +23088,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="B457" t="n">
         <v>124225</v>
       </c>
       <c r="C457" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="D457" t="s">
         <v>41</v>
@@ -23100,7 +23108,7 @@
         <v>20</v>
       </c>
       <c r="I457" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="J457"/>
       <c r="K457"/>
@@ -23112,19 +23120,19 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="B458" t="n">
         <v>14969</v>
       </c>
       <c r="C458" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="D458" t="s">
         <v>130</v>
       </c>
       <c r="E458" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="F458" t="s">
         <v>41</v>
@@ -23133,10 +23141,10 @@
         <v>689</v>
       </c>
       <c r="H458" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="I458" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="J458" t="n">
         <v>2</v>
@@ -23151,16 +23159,16 @@
         <v>22</v>
       </c>
       <c r="N458" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B459"/>
       <c r="C459" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="D459" t="s">
         <v>130</v>
@@ -23186,13 +23194,13 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="B460" t="n">
         <v>135398671</v>
       </c>
       <c r="C460" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="D460" t="s">
         <v>16</v>
@@ -23206,7 +23214,7 @@
         <v>20</v>
       </c>
       <c r="I460" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="J460"/>
       <c r="K460"/>
@@ -23218,13 +23226,13 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="B461" t="n">
         <v>11979535</v>
       </c>
       <c r="C461" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="D461" t="s">
         <v>41</v>
@@ -23238,7 +23246,7 @@
         <v>20</v>
       </c>
       <c r="I461" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="J461"/>
       <c r="K461"/>
@@ -23250,31 +23258,31 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="B462" t="n">
         <v>71616</v>
       </c>
       <c r="C462" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="D462" t="s">
         <v>25</v>
       </c>
       <c r="E462" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="F462" t="s">
         <v>76</v>
       </c>
       <c r="G462" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H462" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="I462" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="J462" t="n">
         <v>0.4</v>
@@ -23289,24 +23297,24 @@
         <v>22</v>
       </c>
       <c r="N462" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="B463" t="n">
         <v>72144</v>
       </c>
       <c r="C463" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="D463" t="s">
         <v>41</v>
       </c>
       <c r="E463" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="F463" t="s">
         <v>41</v>
@@ -23318,7 +23326,7 @@
         <v>20</v>
       </c>
       <c r="I463" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="J463"/>
       <c r="K463"/>
@@ -23330,13 +23338,13 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="B464" t="n">
         <v>77846445</v>
       </c>
       <c r="C464" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="D464" t="s">
         <v>41</v>
@@ -23350,7 +23358,7 @@
         <v>20</v>
       </c>
       <c r="I464" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="J464"/>
       <c r="K464"/>
@@ -23362,11 +23370,11 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="B465"/>
       <c r="C465" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="D465"/>
       <c r="E465" t="s">

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -5372,7 +5372,7 @@
     <t xml:space="preserve">sfmx,sulf</t>
   </si>
   <si>
-    <t xml:space="preserve">azo gantanol,bactrim,bactrimel,cotrimoxazole,eusaprim,gamazole,gantanol,gantanol ds,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,septrin,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfisomezole,sulmeprim,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
+    <t xml:space="preserve">azo gantanol,gamazole,gantanol,gantanol ds,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfisomezole,sulmeprim,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
   </si>
   <si>
     <t xml:space="preserve">10342-4,25271-8,39772-9,59971-2,59972-0,60333-2,72674-5,80549-9,80974-9</t>

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -7569,7 +7569,7 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -5193,7 +5193,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Cephalosporins (unclassified gen.)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aminopar,aminosalicylic,aminosalicylic acid,aminosalyl,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,neopasalate,osacyl,pamacyl,pamisyl,paramycin,parasal,parasalicil,parasalindon,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnodia,pasolac,propasa,rezipas,teebacin</t>
+          <t>aminacyl,aminopar,aminosalicylate,aminosalicylic,aminosalicylic acid,aminosalyl,aminosalyle,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,nemasol,neopasalate,nippas,osacyl,p.a.s.,pamacyl,pamisyl,paramisan,paramycin,parasal,parasalicil,parasalindon,pasade,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnal,pasnodia,pasolac,passodico,propasa,rezipas,salvis,sodiopas,teebacin</t>
         </is>
       </c>
       <c r="J2">
@@ -548,7 +548,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t/>
+          <t>medemycin,mydecamycin</t>
         </is>
       </c>
       <c r="J3" t="e">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>acetylspiramycin,foromacidin b,spiramycin ii</t>
+          <t>formacidine,foromacidin,foromacidin a,foromacidin b,rovamicina,rovamycin,rovamycine,spiramycin i</t>
         </is>
       </c>
       <c r="J4" t="e">
@@ -668,7 +668,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>adesulfone sodium,aldapsone,aldesulfona sodica,aldesulfone,aldesulfone sodique,aldesulfone sodium,aldesulphone sodium,diamidin,diasone,diasone sodium,diazon,novotrone,sodium aldesulphone,sodium sulfoxone,sulfoxone sodium</t>
+          <t>adesulfone,aldapsone,aldesulfona sodica,aldesulfone,aldesulfone sodique,aldesulphone,diamidin,diason,diasone,diasoneenterab,diazon,novotrone,sulfoxone</t>
         </is>
       </c>
       <c r="J5">
@@ -732,7 +732,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>amicacin,amikacillin,amikacin,amikacin base,amikacin dihydrate,amikacin free base,amikacin sulfate,amikacina,amikacine,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,arikayce liposomal,briclin,kaminax,lukadin,mikavir,pierami,potentox</t>
+          <t>ambutyrosin a,ambutyrosin b,ambuyrosin a,amicacin,amikacillin,amikacin dihydrate,amikacin free,amikacina,amikacine,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,arikayce liposomal,briclin,butirosin a,butirosin b,butyrosin a,butyrosin b,kaminax,lukadin,mikavir,pierami,potentox</t>
         </is>
       </c>
       <c r="J6" t="e">
@@ -854,7 +854,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>amorolfina,amorolfine,amorolfinum,loceryl</t>
+          <t>amorolfina,amorolfine hcl?,amorolfinum,bekiron,corbel,curanail,fenpropemorph,fenpropimorph,fenpropimorphe,funbas,loceryl,locetar,mildofix,mistral,mistral t,odenil,pekiron</t>
         </is>
       </c>
       <c r="J8" t="e">
@@ -916,7 +916,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>actimoxi,amoclen,amolin,amopen,amopenixin,amoxibiotic,amoxicaps,amoxicilina,amoxicillin,amoxicillin hydrate,amoxicilline,amoxicillinum,amoxiden,amoxil,amoxivet,amoxy,amoxycillin,amoxyke,anemolin,aspenil,atoksilin,biomox,bristamox,cemoxin,clamoxyl,damoxy,delacillin,demoksil,dispermox,efpenix,flemoxin,hiconcil,histocillin,hydroxyampicillin,ibiamox,imacillin,lamoxy,largopen,metafarma capsules,metifarma capsules,moksilin,moxacin,moxatag,ospamox,pamoxicillin,piramox,promoxil,remoxil,robamox,sawamox pm,tolodina,topramoxin,unicillin,utimox,vetramox</t>
+          <t>actimoxi,acuotricina,agram,alfamox,alfida,alfoxil enjektabl,amitron,amoclen,amodex,amoksicillin,amoksicillin forte,amolin,amopen,amopenixin,amophar,amoran,amoxibiotic,amoxicaps,amoxicilina,amoxicillin pulsys,amoxicilline,amoxicillinsalt,amoxicillinum,amoxidal,amoxiden,amoxil,amoxil trihydrate,amoxillat,amoxina,amoxine,amoxipen,amoxivet,amoxy,amoxycillin,amoxyke,anemolin,aspenil,atoksilin,biomox,bristamox,cemoxin,ciblor,clamoxyl,damoxy,danoxillin,delacillin,demoksil,dispermox,dura,efpenix,eupen,flemoxin,flemoxine,galenamox,gramidil,hiconcil,himinomax,histocillin,hydroxyampicillin,ibiamox,imacillin,izoltil,kentrocyllin,lamoxy,largopen,larotid,matasedrin,metafarma capsules,metifarma,metifarma capsules,moksilin,moxacin,moxaline,moxatag,neotetranase,novabritine,ospamox,pacetocin,pamocil,pamoxicillin,paradroxil,pasetocin,penamox,piramox,promoxil,quimiopen,remoxil,riotapen,robamox,sawacillin,sawamox,siganopen,simplamox,sintopen,tolodina,topramoxin,trifamox,trimox,unicillin,utimox,velamox,vetramox,wymox,zamocillin,zamocilline,zimox</t>
         </is>
       </c>
       <c r="J9">
@@ -982,7 +982,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>amocla,amoclan,amoclav,amoksiclav,amoxsiklav,amoxyclav,augmentan,augmentin,augmentin xr,augmentine,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilin plus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,synulox,viaclav,xiclav</t>
+          <t>amocla,amoclan,amoclav,amoksiclav,amox clav,amoxsiklav,amoxyclav,augmentan,augmentin,augmentine,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilin plus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,synulox,viaclav,xiclav</t>
         </is>
       </c>
       <c r="J10">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>abelcet,abelecet,ambisome,amfotericina b,amphocin,amphomoronal,amphortericin b,amphotec,amphotericin,amphotericin b,amphotericine b,amphotericinum b,amphozone,anfotericine b,fungilin,fungisome,fungisone,fungizone,halizon</t>
+          <t>abelcet,abelecet,ambisome,amfotericina b,amphocin,amphomoronal,amphortericin b,amphotec,amphotericin,amphotericine b,amphotericinum b,amphozone,anfotericine b,fungilin,fungisome,fungisone,fungizone,halizon,nyotran,nystatinum,terrastatin</t>
         </is>
       </c>
       <c r="J12">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>acillin,adobacillin,amblosin,amcill,amfipen,amfipen v,amipenix s,ampichel,ampicil,ampicilina,ampicillin,ampicillin a,ampicillin acid,ampicillin anhydrate,ampicillin anhydrous,ampicillin base,ampicillin hydrate,ampicillin sodium,ampicillina,ampicilline,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,anhydrous ampicillin,austrapen,binotal,bonapicillin,britacil,campicillin,copharcilin,delcillin,deripen,divercillin,doktacillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olin kid,omnipen,orbicilina,pen a oral,pen ampil,penbristol,penbritin,penbritin paediatric,penbritin syrup,penbrock,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpen a,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,redicilin,rosampline,roscillin,semicillin,semicillin r,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillin s,vidocillin,wypicil</t>
+          <t>acillin,adobacillin,amblosin,amcap,amcill,amfipen,amfipen v,amipenix s,amperil,ampichel,ampicil,ampicilina,ampicillin a,ampicillin acid,ampicillina,ampicilline,ampicillinesalt,ampicillinsalt,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampinova,ampipenin,ampiplus simplex,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,austrapen,benzopenicillin,binotal,bonapicillin,britacil,campicillin,citteral,compocillin g,copharcilin,cymbi,delcillin,deripen,divercillin,doktacillin,domicillin,duphacillin,galofak,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olin kid,omnipen,orbicilina,pen a,pen ampil,penbristol,penbritin,penbrock,penialmen,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpen a,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,redicilin,rosampline,roscillin,semicillin,semicillin r,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trafarbiot,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillin s,vidocillin,wypicil</t>
         </is>
       </c>
       <c r="J14">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>amprocidum,amprol,amprolio,amprolium,amprolium chloride,amprovine,thiacoccid</t>
+          <t>amprid for calves,amprocidum,amprol,amprolio,amprolium chloride,amprolium ion,amprolsol,ampromed for calves,ampromed for cattle,amprovine,cocciaid,cocciprol,corid,mepyrium,thiacoccid</t>
         </is>
       </c>
       <c r="J16" t="e">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>anidulafungin,anidulafungina,anidulafungine,anidulafunginum,ecalta,eraxis</t>
+          <t>anidulafungina,anidulafungine,anidulafunginum,biafungin,ecalta,eraxis,rezafungin acetate,rezafungin cation,rezafungin ion,rezafungin?,rezzayo</t>
         </is>
       </c>
       <c r="J17" t="e">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>apalcilina,apalcillin,apalcilline,apalcillinum</t>
+          <t>apalcilina,apalcilline,apalcillinsalt,apalcillinum,lumota</t>
         </is>
       </c>
       <c r="J18" t="e">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ambylan,apralan,apramicina,apramycin,apramycine,apramycinum,nebramycin ii</t>
+          <t>ambylan,apralan,apramicina,apramycine,apramycinum,casein hydrolysate,nebramycin,nebramycin vii</t>
         </is>
       </c>
       <c r="J19" t="e">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>arbekacin,arbekacina,arbekacine,arbekacini sulfas,arbekacinum,habekacin,haberacin</t>
+          <t>ambutyrosin a,ambutyrosin b,ambuyrosin a,arbekacina,arbekacine,arbekacini sulfas,arbekacinum,butirosin a,butirosin b,butyrosin a,butyrosin b,haberacin</t>
         </is>
       </c>
       <c r="J20" t="e">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aspoxicilina,aspoxicillan,aspoxicillin,aspoxicilline,aspoxicillinum</t>
+          <t>amoxycillin,aspoxicilina,aspoxicillan,aspoxicilline,aspoxicillinum</t>
         </is>
       </c>
       <c r="J21" t="e">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>astromicin,astromicin a,astromicina,astromicine,astromicinum,fortimicin,fortimicin a</t>
+          <t>astromicin a,astromicina,astromicine,astromicinum,fortimicin,fortimicin a,istamycin a</t>
         </is>
       </c>
       <c r="J22" t="e">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>avibactam,avibactam free acid,avibactamfreeacid</t>
+          <t>avibactam free acid,avibactamfreeacid</t>
         </is>
       </c>
       <c r="J23" t="e">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>avilamycin,avilamycina,avilamycine,avilamycinum,surmax</t>
+          <t>avilamycin a,avilamycina,avilamycine,avilamycinum,surmax</t>
         </is>
       </c>
       <c r="J24" t="e">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>avoparcin,avoparcina,avoparcine,avoparcinum,avotan</t>
+          <t>aerovanc,avoparcina,avoparcine,avoparcinum,avotan,firvanq,firvanq kit,targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
         </is>
       </c>
       <c r="J25" t="e">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>azidocilina,azidocillin,azidocillina,azidocilline,azidocillinum</t>
+          <t>amcap,amcill,ampen,amperil,ampinova,azidocilina,azidocillina,azidocilline,azidocillinum,cymbi,deripen,guicitrine,pen a,penbritin,principen,trafarbiot,wypicil</t>
         </is>
       </c>
       <c r="J26">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aritromicina,aruzilina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithrocin,azithromycin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwin,aziwok,aztrin,azyter,azythromycin,durasite,hemomycin,macrozit,misultina,mixoterin,setron,sumamed,toraseptol,tromix,trozocina,trulimax,xithrone,zentavion,zithrax,zithromac,zithromax,zithromax iv,zithromycin,zitrim,zitromax,zitrotek,zmax sr,zythromax</t>
+          <t>aritromicina,aruzilina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithrocin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwin,aziwok,aztrin,azyter,azythromycin,durasite,hemomycin,macrozit,misultina,mixoterin,setron,sumamed,toraseptol,tromix,trozocina,trulimax,xithrone,zentavion,zithrax,zithromac,zithromax,zithromycin,zitrim,zitromax,zitrotek,zmax,zythromax</t>
         </is>
       </c>
       <c r="J27">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>azlocilina,azlocillin,azlocilline,azlocillinum</t>
+          <t>azlin,azlocilina,azlocilline,azlocillinsalt,azlocillinum,securopen</t>
         </is>
       </c>
       <c r="J29" t="e">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>azactam,azetreonam,azonam,azthreonam,aztreon,aztreonam,nebactam,primbactam</t>
+          <t>azactam,azetreonam,azonam,azthreonam,aztreon,nebactam,primbactam</t>
         </is>
       </c>
       <c r="J30" t="e">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>bacampicilina,bacampicillin,bacampicilline,bacampicillinum,penglobe</t>
+          <t>alphacilina,alphacillin,ambacamp,ambaxin,bacacil,bacampicilina,bacampicilline,bacampicillinum,berocillin,centurina,devonium,diancina,inacilin,maxifen,penglobe,pivatil,pondocil,pondocillin,pondocillina,sanguicillin,spectrobid,velbacil</t>
         </is>
       </c>
       <c r="J33">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>fortracin,md bacitracin</t>
+          <t>altracin,ayfivin,baciguent,baciim,baciliquin,bacilliquin,bacitek ointment,bacitracin a,bacitracin powder,bacitracina,bacitracine,bacitracinum,fortracin,md bacitracin,mycitracin,parentracin,penitracin,septa,spectrocin plus,topitracin,topitrasin,tropitracin,zutracin</t>
         </is>
       </c>
       <c r="J34" t="e">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>bedaquiline,sirturo</t>
+          <t>bedaquiline ?,sirturo</t>
         </is>
       </c>
       <c r="J35">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aminodeoxykanamycin,becanamicina,bekanamycin,bekanamycine,bekanamycinum,kanamycin b,klebcil,nebramycin v</t>
+          <t>aminodeoxykanamycin,becanamicina,bekanamycine,bekanamycinum,kanamycin b,klebcil,nebramycin v</t>
         </is>
       </c>
       <c r="J36" t="e">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>abbocillin,ayercillin,bencilpenicilina,benzopenicillin,benzyl penicillin,benzylpenicillin,benzylpenicillin g,benzylpenicilline,benzylpenicillinum,bicillin,cillora,cilloral,cilopen,compocillin g,cosmopen,dropcillin,free penicillin g,free penicillin ii,galofak,gelacillin,liquacillin,megacillin,pencillin g,penicillin,penicilling,pentids,permapen,pfizerpen,pfizerpen g,pharmacillin,pradupen,specilline g,ursopen</t>
+          <t>abbocillin,amcap,amcill,american penicillin,amperil,ampinova,ayercillin,bencilpenicilina,benzopenicillin,benzyl penicillin,benzylpenicillin g,benzylpenicilline,benzylpenicillinsalt,benzylpenicillinum,bicillin,capicillin,cillora,cilloral,cilopen,cintrisul,compocillin g,cosmopen,cristapen,crystapen,cymbi,dropcillin,eskacillin,ethacillin,falapen,forpen,free penicillin g,free penicillin,galofak,gelacillin,hipercilina,hyasorb,hylenta,lemopen,liquacillin,liquapen,megacillin,megacillin tablets,monocillin,monopen,mycofarm,nalpen g,novocillin,paclin g,penalev,penbritin,pencillin g,penicillin,penicillin g,penicillin g k,penicilling,penicillinum,penilaryn,penisem,pentid,pentids,permapen,pfizerpen,pfizerpen g,pharmacillin,pradupen,principen,qidpen g,scotcil,specilline g,sugracillin,sugracillinsalt,tabilin,trafarbiot,tu cillin,ursopen,veticillin</t>
         </is>
       </c>
       <c r="J39" t="e">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>besifloxacin,besivance</t>
+          <t>besifloxacin hcl?,besivance</t>
         </is>
       </c>
       <c r="J40" t="e">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>biapenem,biapenern,bipenem,omegacin</t>
+          <t>biapenern,bipenem,omegacin</t>
         </is>
       </c>
       <c r="J41" t="e">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aizumycin,bacfeed,bacteron,bicozamicina,bicozamycin,bicozamycine,bicozamycinum,bicyclomycin</t>
+          <t>aizumycin,bacfeed,bacteron,bicozamicina,bicozamycin,bicozamycine,bicozamycinum</t>
         </is>
       </c>
       <c r="J42" t="e">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>brodimoprim,brodimoprima,brodimoprime,brodimoprimum,bromdimoprim,hyprim,unitrim</t>
+          <t>brodimoprima,brodimoprime,brodimoprimum,bromdimoprim,hyprim,unitrim</t>
         </is>
       </c>
       <c r="J43">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>butaconazole,butoconazol,butoconazole,butoconazolum,compositenstarke,dahlin,femstat,gynofort,polyfructosanum</t>
+          <t>butaconazole,butoconazol,butoconazolum,compositenstarke,dahlin,femstat,gynofort,polyfructosanum</t>
         </is>
       </c>
       <c r="J44" t="e">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>cadazolid</t>
+          <t/>
         </is>
       </c>
       <c r="J45" t="e">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t/>
+          <t>capstat,cyclo,hexanamide,tuberactinomycin o</t>
         </is>
       </c>
       <c r="J47" t="e">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>anabactyl,carbenicilina,carbenicillin,carbenicillina,carbenicilline,carbenicillinum,geopen,pyopen</t>
+          <t>anabactyl,carbecin,carbenicilina,carbenicillin disalt,carbenicillina,carbenicilline,carbenicillinum,dicarbenicillin,dipenicillin,fugacillin,geopen,gripenin,hyoper,microcillin,piopen,pyocianil,pyoclox,pyopan,pyopen,pyopene</t>
         </is>
       </c>
       <c r="J48" t="e">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>carindacilina,carindacillin,carindacilline,carindacillinum</t>
+          <t>carindacilina,carindacilline,carindacillinsalt,carindacillinum,geocillin,indanylcarbinicillin,urobac</t>
         </is>
       </c>
       <c r="J49">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>carumonam,carumonamum</t>
+          <t>carumonamum</t>
         </is>
       </c>
       <c r="J50" t="e">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cancidas,capsofungin,caspofungin</t>
+          <t>cancidas,capsofungin,caspo,caspofungin acetate,caspofungina</t>
         </is>
       </c>
       <c r="J51" t="e">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cefacetril,cefacetrile,cefacetrilo,cefacetrilum,celospor,celtol,cephacetrile,cristacef,vetrimast</t>
+          <t>cefacetril,cefacetrilo,cefacetrilum,celospor,celtol,cephacetrile,cristacef,vetrimast</t>
         </is>
       </c>
       <c r="J52" t="e">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>alenfral,alfacet,ceclor,ceclor cd,cefaclor,cefaclor anhydrous,cefaclor impurity c,cefaclor monohydrate,cefaclorimpurityc,cefacloro,cefaclorum,cefeaclor,cephaclor,dystaclor mr,keflor,kefral,panoral,raniclor</t>
+          <t>alenfral,alfacet,alfatil,alfatil kapseln,ceclor,cefachlor,cefaclor impurity c,cefaclor monohydrate,cefaclorimpurityc,cefacloro,cefaclorum,cefeaclor,cephaclor,cephalexin,distaclor,dystaclor,keflor,kefolor,kefolor suspension,kefral,keftab,muco panoral,panacef,panoral,raniclor</t>
         </is>
       </c>
       <c r="J53">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>anhydrous cefadroxil,cefadrops,cefadroxil,cefadroxil anhydrous,cefadroxilo,cefadroxilum,cefradroxil,cephadroxil,duracef,duricef,sumacef,ultracef</t>
+          <t>brisoral,cefadrops,cefadroxilo,cefadroxilum,cefradroxil,cefzil,cephadroxil,duracef,duricef,procef,sumacef,ultracef</t>
         </is>
       </c>
       <c r="J54">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>alcephin,alexin,alsporin,amplex,anhydrous cefalexin,anhydrous cephalexin,biocef,carnosporin,cefablan,cefadal,cefadin,cefadina,cefaleksin,cefalessina,cefalexin,cefalexin anhydrous,cefalexina,cefalexine,cefalexinum,cefalin,cefaloto,cefaseptin,ceffanex,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexin,cephalexin anhydrous,cephalexine,cephalexinum,cephanasten,cephaxin,cephin,ceporex,ceporex forte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,durantel,durantel ds,erocetin,factagard,felexin,ibilex,ibrexin,inphalex,kefalospes,keflet,keflex,kefolan,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,lonflex,lopilexin,madlexin,mamalexin,mamlexin,medoxine,neokef,neolexina,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixine disperdose,pectril,pyassan,roceph,roceph distab,sanaxin,sartosona,sencephalin,sepexin,servispor,sialexin,sinthecillin,sporicef,sporidex,syncle,synecl,tepaxin,tokiolexin,uphalexin,voxxim,winlex,zozarine</t>
+          <t>adcadina,alcephin,alexin,alfatil,alfatil kapseln,alsporin,ambal,amplex,cephalexin,aristosporin,azabort,bactopenor,beliam,biocef,carnosporin,ceclor,cefablan,cefacet,cefachlor,cefaclor monohydrate,cefadal,cefadin,cefadina,cefalekey,cefaleksin,cefalessina,cefalexgobens,cefalexin generics,cefalexina,cefalexina northia,cefalexina richet,cefalexine,cefalexinum,cefalin,cefalival,cefaloto,cefanex,cefaseptin,ceffanex,cefibacter,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalex von,cephalexine,cephalexinum,cephalobene,cephanasten,cephaxin,cephin,ceporex,ceporex forte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,distaclor,domucef,doriman,durantel,efemida,erocetin,factagard,felexin,henina,ibilex,ibrexin,inphalex,karilexina,kefalospes,keflet,keflex,keflor,kefolan,kefolor,kefolor suspension,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,loisine,lonflex,lopilexin,losporal,madlexin,maksipor,mamalexin,mamlexin,medolexin,medoxine,muco panoral,neokef,neolexina,noveol,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panacef,panixine,panixine disperdose,panoral,pectril,prindex,pyassan,raniclor,rilexine,roceph,roceph distab,rogevil,sanaxin,sartosona,sencephalin,sepexin,servicef,servispor,sialexin,sinthecillin,sintolexyn,sporicef,sporidex,syncle,synecl,tepaxin,theratrex,tokiolexin,uphalexin,viosporine,voxxim,winlex,zabytrex,zozarine</t>
         </is>
       </c>
       <c r="J55">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aliporina,ampligram,cefaloridin,cefaloridina,cefaloridine,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,loridine,sasperin,sefacin,verolgin,vioviantine</t>
+          <t>aliporina,ampligram,cefaloridin,cefaloridina,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,loridine,sasperin,sefacin,verolgin,vioviantine</t>
         </is>
       </c>
       <c r="J56" t="e">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cefalothin,cefalotin,cefalotina,cefalotina fabra,cefalotine,cefalotinum,cemastin,cephalothinum,cephalotin,cephalotin acid,coaxin,keflin,seffin</t>
+          <t>cefalothin,cefalothine,cefalotina,cefalotina fabra,cefalotina sodica,cefalotine,cefalotinsalt,cefalotinum,cemastin,cephalothin,cephalothinsalt,cephalothinum,cephalotin,cephalotin acid,cephalotinsalt,ceporacin,cepovenin,cet injektionsfl,coaxin,keflin,lospoven,microtin,seffin,synclotin,tokiosarl ampullen,toricelocin</t>
         </is>
       </c>
       <c r="J57" t="e">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cefadole,cefamandol,cefamandole,cefamandolum,cephadole,cephamandole,kefamandol,kefdole,mancef</t>
+          <t>cefadole,cefamandol,cefamandolesalt,cefamandolum,cephadole,cephamandole,kefamandol,kefdole,mancef</t>
         </is>
       </c>
       <c r="J58" t="e">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ambrocef,cefadyl,cefapilin,cefapirin,cefapirina,cefapirine,cefapirinum,cefaprin,cefaprin sodium,cefatrex,cefatrexyl,cephapirine,metricure</t>
+          <t>ambrocef,brisfirina,brisporin,bristocef,cefa lak,cefadyl,cefalak,cefaloject,cefapilin,cefapirina,cefapirina sodica,cefapirine,cefapirinsalt,cefapirinum,cefaprin,cefatrex,cefatrexyl,cephapirin,cephapirine,cephapirinsalt,cephatrexil,cephatrexyl,metricure</t>
         </is>
       </c>
       <c r="J59" t="e">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>bricef,cefatrix,cefatrizine,cefatrizino,cefatrizinum,cephatriazine,cepticol,cetrazil,latocef,orosporina,trizina</t>
+          <t>bricef,cefatrix,cefatrizino,cefatrizinum,cephatriazine,cepticol,cetrazil,latocef,orosporina,orotric,seapuro,seapuron,trizina</t>
         </is>
       </c>
       <c r="J60">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cefazedon,cefazedona,cefazedone,cefazedone acid,cefazedonum,refosporen,refosporene,refosporin</t>
+          <t>cefazedon,cefazedona,cefazedone acid,cefazedonesalt,cefazedonum,refosporen,refosporene,refosporin</t>
         </is>
       </c>
       <c r="J61" t="e">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>atirin,cefamezin,cefamezine,cefazina,cefazolin,cefazolin acid,cefazolina,cefazoline,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,kefzol,liviclina,totacef</t>
+          <t>ancef,atirin,biazolina,cefabiozim,cefacidal,cefalomicina,cefamedin,cefamezin,cefamezine,cefazil,cefazina,cefazolin acid,cefazolina,cefazoline,cefazolinsalt,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,gramaxin,kefzol,lampocef,liviclina,neofazol,recef,totacef,zolicef,zolin,zolisint</t>
         </is>
       </c>
       <c r="J62" t="e">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cefbuperazona,cefbuperazone,cefbuperazonum,cefbuperzaone,cerbuperazone,tomiporan</t>
+          <t>cefbuperazona,cefbuperazonesalt,cefbuperazonum,cefbuperzaone,cerbuperazone,keiperazon,tomiporan</t>
         </is>
       </c>
       <c r="J63" t="e">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cefcamate,cefcapene</t>
+          <t>cefcamate</t>
         </is>
       </c>
       <c r="J64">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cefcamate pivoxil,cefcapene piroxil</t>
+          <t>cefcamate,cefcamate pivoxil,cefcapene piroxil,flomox,flumax</t>
         </is>
       </c>
       <c r="J65" t="e">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cefdinir,cefdinir anhydrous,cefdinirum,cefdinyl,cefdirnir,ceftinex,cefzon,omnicef</t>
+          <t>cefdinir impurity g,cefdinirum,cefdinyl,cefdirnir,ceftinex,cefzon,omnicef</t>
         </is>
       </c>
       <c r="J66">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>cefditoren</t>
+          <t>spectracef</t>
         </is>
       </c>
       <c r="J67">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cefditoren,cefditoren pi voxil,cefditoren pivoxil,cefditorin,cefditorin pivoxil,meiact,spectracef</t>
+          <t>cefditoren pi voxil,cefditorin,cefditorin pivoxil,meiact,spectracef</t>
         </is>
       </c>
       <c r="J68" t="e">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>axepim,cefepima,cefepime,cefepimum,cepimax,cepimex,maxcef,maxipime</t>
+          <t>axepim,cefepima,cefepimum,cepimax,cepimex,maxcef,maxipime</t>
         </is>
       </c>
       <c r="J69" t="e">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cefetamet,cefetametum,cepime o,deacetoxycefotaxime</t>
+          <t>cefetametum,cepime o,deacetoxycefotaxime,epocelin</t>
         </is>
       </c>
       <c r="J75">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>cefetamet pivoxyl,globocef</t>
+          <t>cefetamet pivoxyl,cefetametpivoxil,ceftamet pivoxil,cefyl,globocef</t>
         </is>
       </c>
       <c r="J76" t="e">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>cefetecol,cefetecol anhydrous</t>
+          <t/>
         </is>
       </c>
       <c r="J77" t="e">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>cefetrizole,cefetrizolum</t>
+          <t>cefetrizolum</t>
         </is>
       </c>
       <c r="J78" t="e">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>cefiderocol</t>
+          <t>fetcroja</t>
         </is>
       </c>
       <c r="J79" t="e">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>anhydrous cefixime,cefixim,cefixima,cefixime,cefixime anhydrous,cefixime hydrate,cefiximum,cefixoral,cefspan,cephoral,citropen,denvar,necopen,oroken,suprax,tricef,unixime</t>
+          <t>cefixim,cefixima,cefixime impurity d,cefiximum,cefixoral,cefspan,cephoral,citropen,denvar,necopen,oroken,suprax,tricef,unixime</t>
         </is>
       </c>
       <c r="J80">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>bestron,cefmax,cefmenoxima,cefmenoxime,cefmenoximum</t>
+          <t>bestron,cefmax,cefmenoxima,cefmenoximum,cemix,tacef</t>
         </is>
       </c>
       <c r="J82" t="e">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>cefmetazole,cefmetazolesodium,cefmetazolo,cefmetazolum</t>
+          <t>cefmetazolesalt,cefmetazolesodium,cefmetazolo,cefmetazolum,cefmetazon,metafar,zefazone</t>
         </is>
       </c>
       <c r="J83" t="e">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>cefminox,cefminoxum</t>
+          <t>alteporina,cefminoxum,meicelin,tencef</t>
         </is>
       </c>
       <c r="J84" t="e">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>cefodizima,cefodizime,cefodizime acid,cefodizime disodium,cefodizimum,cefodizme,diezime,modivid,neucef,timecef</t>
+          <t>cefodizima,cefodizime acid,cefodizime disalt,cefodizime disodium,cefodizimum,cefodizme,diezime,kenicef,modivid,neucef,timecef</t>
         </is>
       </c>
       <c r="J85" t="e">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>cefonicid,cefonicido,cefonicidum,monocef</t>
+          <t>cefonicid disalt,cefonicide,cefonicido,cefonicidsalt,cefonicidum,monocef,monocid</t>
         </is>
       </c>
       <c r="J86" t="e">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>bioperazone,cefobid,cefoperazine,cefoperazon,cefoperazone,cefoperazone acid,cefoperazono,cefoperazonum,cefozon,medocef,myticef,pathozone,peracef</t>
+          <t>bioperazone,cefobid,cefobis,cefoneg,cefoper,cefoperazin,cefoperazine,cefoperazon,cefoperazone acid,cefoperazonesalt,cefoperazono,cefoperazonum,cefozon,medocef,myticef,pathozone,peracef,tomabef</t>
         </is>
       </c>
       <c r="J87" t="e">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>ceforanide,ceforanido,ceforanidum,precef,radacef</t>
+          <t>ceforanido,ceforanidum,precef,radacef</t>
         </is>
       </c>
       <c r="J89" t="e">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>cefoselis,cefoselis sulfate,wincef,winsef</t>
+          <t>wincef,winsef</t>
         </is>
       </c>
       <c r="J90" t="e">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>cefotaxim,cefotaxim hikma,cefotaxima,cefotaxima acid,cefotaxime,cefotaxime acid,cefotaximum,cephotaxime,claforan,omnatax</t>
+          <t>anticefotaxime,cefotax,cefotaxim,cefotaxim hikma,cefotaxima,cefotaxima acid,cefotaxime acid,cefotaximeimpurity d,cefotaximesalt,cefotaximsalt,cefotaximum,cephotaxime,claforan,kefotex,omnatax,pretor,ralopar,tolycar,tolycor,zariviz</t>
         </is>
       </c>
       <c r="J91" t="e">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>apacef,cefotan,cefotetan,cefotetan acid,cefotetan free acid,cefotetanum</t>
+          <t>apacef,cefotan,cefotetan acid,cefotetan free acid,cefotetanum</t>
         </is>
       </c>
       <c r="J94" t="e">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>cefotiam,cefotiam?,cefotiamum,ceradolan,ceradon,haloapor</t>
+          <t>cefotiam?,cefotiamum,ceradolan,ceradon,haloapor,halospor,pansporin,pansporin ampullen,pansporine,spizef</t>
         </is>
       </c>
       <c r="J95">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>cefotiam cilexetil,pansporin t</t>
+          <t>cefotiam cilexetil,pansporin t,taketiam,texodil</t>
         </is>
       </c>
       <c r="J96" t="e">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>cefovecin</t>
+          <t>cefovecinsalt,convenia</t>
         </is>
       </c>
       <c r="J97" t="e">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>cefoxitin,cefoxitina,cefoxitine,cefoxitinum,cefoxotin,cenomycin,cephoxitin,mefoxin,mefoxitin,rephoxitin</t>
+          <t>betacef,cefoxil,cefoxitina,cefoxitine,cefoxitinsalt,cefoxitinum,cefoxotin,cenomycin,cephoxitin,farmoxin,mefoxin,mefoxithin,mefoxitin,merxin,rephoxitin</t>
         </is>
       </c>
       <c r="J98" t="e">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>cefozopran</t>
+          <t>cefozopran?,firstcin</t>
         </is>
       </c>
       <c r="J100" t="e">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>cefpimizol,cefpimizole,cefpimizole sodium,cefpimizolum</t>
+          <t>cefpimizol,cefpimizolesalt,cefpimizolum,renilan</t>
         </is>
       </c>
       <c r="J101" t="e">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>cefpiramide,cefpiramide acid,cefpiramido,cefpiramidum</t>
+          <t>cefpiramide acid,cefpiramidesalt,cefpiramido,cefpiramidum,sepatren,suncefal,tamicin</t>
         </is>
       </c>
       <c r="J102" t="e">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>broact,cefpiroma,cefpirome,cefpiromum,cefrom,cerfpirome,keiten</t>
+          <t>broact,cefpiroma,cefpiromum,cefrom,cerfpirome,keiten,romecef</t>
         </is>
       </c>
       <c r="J103" t="e">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>cefpodoxim acid,cefpodoxima,cefpodoxime,cefpodoxime acid,cefpodoximum,epoxim</t>
+          <t>anticefotaxime,cefotax,cefotaxim,cefotaxime acid,cefotaximeimpurity d,cefpodoxim acid,cefpodoxima,cefpodoxime acid,cefpodoximum,claforan,epoxim,kefotex</t>
         </is>
       </c>
       <c r="J104">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>cefodox,cefoprox,cefpodoxime proxetil,cepodem,orelox,orelox paed,otreon,podomexef,simplicef,vantin</t>
+          <t>cefodox,cefodoxime proxetil,cefoprox,cefpodoximproxetil,cepodem,orelox,orelox paed,otreon,podomexef,simplicef,vantin</t>
         </is>
       </c>
       <c r="J105" t="e">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>arzimol,brisoral,cefprozil,cefprozil anhydrous,cefprozil hydrate,cefprozilo,cefprozilum,cefzil,cronocef,procef,serozil</t>
+          <t>arzimol,brisoral,cefprozilo,cefprozilum,cefzil,cronocef,procef,serozil</t>
         </is>
       </c>
       <c r="J107">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>cefquinoma,cefquinome,cefquinomum,cobactan</t>
+          <t>cefquinoma,cefquinomum,cobactan</t>
         </is>
       </c>
       <c r="J108" t="e">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>cefroxadin,cefroxadine,cefroxadino,cefroxadinum,oraspor</t>
+          <t>cefroxadin,cefroxadin dihydrate,cefroxadino,cefroxadinum,oraspor</t>
         </is>
       </c>
       <c r="J109">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>cefonomil,cefsulodin,cefsulodine,cefsulodino,cefsulodinum</t>
+          <t>cefomonil,cefonomil,cefsulodine,cefsulodino,cefsulodinsalt,cefsulodinum,pseudocef,pseudomonil,pyocefal,sulcephalosporin,takesulin,tilmapor,ulfaret</t>
         </is>
       </c>
       <c r="J110" t="e">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>cefsulmid,cefsumide,cefsumido,cefsumidum</t>
+          <t>cefsulmid,cefsumido,cefsumidum</t>
         </is>
       </c>
       <c r="J111" t="e">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>ceftaroline fosamil,teflaro,zinforo</t>
+          <t>ceftaroine,ceftaroline fosamil,teflaro,zinforo</t>
         </is>
       </c>
       <c r="J112" t="e">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>ceftazidim,ceftazidima,ceftazidime,ceftazidimum,ceptaz,fortaz,fortum,pentacef,tazicef,tazidime</t>
+          <t>ceftazidim,ceftazidima,ceftazidimum,ceftazimide,ceptaz,fortam,fortaz,fortum,glazidim,modacin,pentacef,tazicef,tazidime</t>
         </is>
       </c>
       <c r="J114" t="e">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>cefteram,cefterame,cefteramum,ceftetrame</t>
+          <t>cefterame,cefteramum,ceftetrame</t>
         </is>
       </c>
       <c r="J117">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>cefteram pivoxil,cefterampivoxil,tomiron</t>
+          <t>cefterampivoxil,tomiron</t>
         </is>
       </c>
       <c r="J118" t="e">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>ceftezol,ceftezole,ceftezolo,ceftezolum,demethylcefazolin</t>
+          <t>alomen,ceftezol,ceftezolesalt,ceftezolo,ceftezolum,celoslin,demethylcefazolin,falomesin</t>
         </is>
       </c>
       <c r="J119" t="e">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>ceftem,ceftibuten,ceftibuten dihydrate,ceftibuten hydrate,ceftibutene,ceftibuteno,ceftibutenum,ceftibutin,cephem,ceprifran,isocef,keimax</t>
+          <t>cedax,ceftem,ceftibuten dihydrate,ceftibutene,ceftibuteno,ceftibutenum,ceftibutin,cephem,ceprifran,isocef,keimax,seftem</t>
         </is>
       </c>
       <c r="J120">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>ceftiofur,ceftiofurum,excede,excenel,naxcel</t>
+          <t>ceftiofurum,excede,excenel,naxcel</t>
         </is>
       </c>
       <c r="J121" t="e">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>cefizox,ceftisomin,ceftix,ceftizoxima,ceftizoxime,ceftizoximum,epocelin,eposerin</t>
+          <t>cefizox,ceftisomin,ceftix,ceftizoxima,ceftizoximesalt,ceftizoximum,epocelin,eposerin</t>
         </is>
       </c>
       <c r="J122" t="e">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>ceftobiprole</t>
+          <t/>
         </is>
       </c>
       <c r="J124" t="e">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t/>
+          <t>zevtera</t>
         </is>
       </c>
       <c r="J125" t="e">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>biotrakson,cefatriaxone,cefatriaxone hydrate,ceftriaxon,ceftriaxona,ceftriaxone,ceftriaxone sodium,ceftriaxonum,ceftriazone,cephtriaxone,longacef,rocefin,rocephalin,rocephin,rocephine,rophex</t>
+          <t>biotrakson,cefatriaxone,ceftriaxon,ceftriaxona,ceftriaxonum,ceftriazone,cephtriaxone,longacef,rocefin,rocephalin,rocephin,rocephine,rophex</t>
         </is>
       </c>
       <c r="J127" t="e">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>biofuroksym,cefuril,cefuroxim,cefuroxima,cefuroxime,cefuroxime acid,cefuroximine,cefuroximo,cefuroximum,cephuroxime,kefurox,sharox,zinacef,zinacef danmark</t>
+          <t>anaptivan,biociclin,biofuroksym,bioxima,cefofix,cefumax,cefurex,cefuril,cefurox,cefuroxim,cefuroxim curasan,cefuroxim fresenius,cefuroxim genericsn,cefuroxim hexal,cefuroxim lilly,cefuroxim norcox,cefuroxima,cefuroxima fabra,cefuroxima richet,cefuroxime acid,cefuroxime free acid,cefuroximeimpurity e,cefuroximesalt,cefuroximine,cefuroximo,cefuroximum,cephuroxime,cetroxil,colifossim,curoxim,curoxima,curoxime,froxal,furoxil,kefurox,kesint,ketocef,lifurox,medoxim,sharox,spectrazolr,ultroxim,zinacef,zinacef danmark,zinnat</t>
         </is>
       </c>
       <c r="J129">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>altacef,bioracef,cefaks,cefazine,ceftin,cefurax,cefuroximaxetil,cefuroxime,cefuroxime axetil,celocid,cepazine,cethixim,cetoxil,coliofossim,elobact,forcef,furoxime,kalcef,maxitil,medoxm,nivador,novador,novocef,oraxim,zinnat</t>
+          <t>altacef,bioracef,cefaks,cefazine,ceftin,cefurax,cefuroximaxetil,celocid,cepazine,cethixim,cetoxil,coliofossim,elobact,forcef,furoxime,kalcef,maxitil,medoxm,nivador,novador,novocef,oraxim,zinnat</t>
         </is>
       </c>
       <c r="J130" t="e">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>cefuzonam,cefuzonam sodium,cefuzoname,cefuzonamum</t>
+          <t>cefuzoname,cefuzonamum,cefzoname,cosmosin,mtc.na</t>
         </is>
       </c>
       <c r="J132" t="e">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>anspor,cefradin,cefradina,cefradine,cefradine hydrate,cefradinum,cekodin,cephradin,cephradine,cephradine anhydrous,cephradine hydrate,eskacef,infexin,megace f,megacef,sefril,velocef,velosef</t>
+          <t>anspor,cefradin,cefradina,cefradine,cefradine dihydrate,cefradinum,cekodin,cephradin,cephradine dihydrate,eskacef,infexin,megace f,megacef,sefril,velocef,velosef</t>
         </is>
       </c>
       <c r="J133">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>cetocycline,cetocyline,cetotetrine,chelocardin</t>
+          <t>cetocyline,cetotetrine,chelocardin</t>
         </is>
       </c>
       <c r="J134" t="e">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,ch loramex,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicol,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetin r,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocid s,chlorocide,chlorocidin c,chlorocidin c tetran,chlorocin,chlorocol,chlorofair,chloroject l,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloroptic s.o.p,chloroptic s.o.p.,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,f armicetina,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isopto fenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocid s,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycin v,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,sintomicetine r,sno phenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,vice ton,viceton</t>
+          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,ch loramex,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicol levo,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetin r,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocid s,chlorocide,chlorocidin c,chlorocidin c tetran,chlorocin,chlorocol,chlorofair,chloroject l,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloroptic s.o.p,chloroptic s.o.p.,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextramycin,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,f armicetina,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isopto fenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocid s,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycin v,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,sintomicetine r,sno phenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,vice ton,viceton</t>
         </is>
       </c>
       <c r="J135">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>acronize,aueromycin,aureocina,aureomycin,aureomykoin,biomitsin,biomycin,biomycin a,chlormax,chlorotetracycline,chlortetracycline,chlortetracyclinum,chrysomykine,clortetraciclina,duomycin,flamycin,uromycin</t>
+          <t>acronize,alexomycin,aueromycin,aureocarmyl,aureociclina,aureocina,aureocycline,aureomycin,aureomykoin,auxeomycin,biomitsin,biomycin,biomycin a,chlormax,chlorotetracycline,chlortetracyclinum,chrysomykine,clorocipan,clortetraciclina,clortetrin,declomycin,declostatin,deganol,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,duomycin,elkamicina,fermycin soluble,flamycin,isphamycin,ledermicina,ledermycin,ledermycine,mexocine,novotriclina,perciclina,periciclina,sumaclina,uromycin,veraciclina</t>
         </is>
       </c>
       <c r="J136">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>bastcillin,calthor,ciclacilina,ciclacillin,ciclacilline,ciclacillinum,ciclacillum,citosarin,cyclacillin,cyclapen,noblicil,orfilina,peamezin,syngacillin,ultracillin,vastcillin,vipicil,wyvital</t>
+          <t>bastcillin,calthor,ciclacilina,ciclacilline,ciclacillinum,ciclacillum,citosarin,cyclacillin,cyclapen,noblicil,orfilina,peamezin,syngacillin,ultracillin,vastcillin,vipicil,wyvital</t>
         </is>
       </c>
       <c r="J137" t="e">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>butaconazole,butoconazol,butoconazole,butoconazolum,ciclodan,ciclopirox,ciclopirox gel,ciclopirox olamin,ciclopiroxum,compositenstarke,dahlin,femstat,gynofort,loprox,loprox cream,loprox gel,penlac,polyfructosanum,stieprox</t>
+          <t>butaconazole,butoconazol,butoconazolum,ciclodan,ciclopirox gel,ciclopirox olamin,ciclopiroxum,compositenstarke,dahlin,femstat,gynofort,loprox,loprox cream,loprox gel,penlac,polyfructosanum,stieprox</t>
         </is>
       </c>
       <c r="J138" t="e">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>azolinic acid,cinobac,cinobactin,cinoxacin,cinoxacine,cinoxacino,cinoxacinum,clinoxacin,noxigram,uronorm</t>
+          <t>azolinic acid,cinobac,cinobactin,cinoxacine,cinoxacino,cinoxacinum,clinoxacin,noxigram,uronorm</t>
         </is>
       </c>
       <c r="J139">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>alcon cilox,auripro,bacquinor,baflox,baycip,bernoflox,cetraxal,ciflox,cifloxin,ciloxan,ciplus,ciprecu,ciprine,ciprinol,cipro i.v.,cipro iv,cipro xl,cipro xr,ciprobay,ciprobay uro,ciprocinol,ciprodar,ciproflox,ciprofloxacin,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprogis,ciprolin,ciprolon,cipromycin,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citopcin,corsacin,cyprobay,fimoflox,flociprin,ipiflox,italnik,linhaliq,otiprio,probiox,proflaxin,quinolid,quintor,rancif,roxytal,septicide,sophixin ofteno,spitacin,superocin,velmonit,velomonit,zumaflox</t>
+          <t>alcipro,alcon cilox,auripro,bacquinor,baflox,baycip,belmacina,bernoflox,catex,cenin,ceprimax,cetraxal,ciflan,ciflosin,ciflox,cifloxin,cilox,ciloxan,cipad,ciplus,ciprecu,ciprenit,ciprine,ciprinol,cipro,ciprobay,ciprobay uro,ciprocinal,ciprocinol,ciprodar,ciproflox,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprofur,ciprogis,ciproktan,ciprolin,ciprolon,cipromycin,cipronex,cipropol,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citeral,citopcin,corsacin,cunesin,cyprobay,cyproxan,disfabac,felixene,fimoflox,flociprin,floxacipron,flunas,globuce,inkamil,ipiflox,italnik,keefloxin,linhaliq,loxacid,lypro,megaflox,microgan,nixin,novidat,novoquin,ofitin,oftacilox,ophaflox,otiprio,phaproxin,piprol,plenolyt,probiox,proflaxin,proquin,proquinxr,proxacin,quinoflox,quinolid,quintor,quipro,rancif,renator,roflazin,roxytal,sepcen,septicide,septocipro,siprogut,sophixin,sophixin ofteno,spitacin,strox,suiflox,superocin,supraflox,uritent,utiminx,velmonit,velomonit,zumaflox</t>
         </is>
       </c>
       <c r="J140">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>abbotic,astromen,biaxin,biaxin filmtab,biaxin hp,biaxin xl,biaxin xl filmtab,bicrolid,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycin,clarithromycine,clarithromycinum,claritromicina,clathromycin,crixan,cyllid,cyllind,fromilid,heliclar,klabax,klacid,klaciped,klaricid,klaricid h.p,klaricid h.p.,klaricid pediatric,klaricid xl,klarid,klarin,kofron,mabicrol,macladin,maclar,prevpac,veclam,vikrol,zeclar</t>
+          <t>abbotic,abboticine,astromen,biaxin,biaxin filmtab,biaxin xl filmtab,bicrolid,bristamycin,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycine,clarithromycinum,claritromicina,clathromycin,crixan,cyllid,cyllind,dowmycin e,durapaediat,e.e.s,e.e.s.,ees granules,eratrex,eryliquid,erypar,eryped,erythrocin,erythrocin stearate,erythrocin w,erythroped,esinol,ethril,fromilid,gallimycin,heliclar,klabax,klacid,klaciped,klaricid,klarid,klarin,kofron,mabicrol,macladin,maclar,meberyt,pediamycin,prevpac,qidmycin,refkas,veclam,vikrol,wyamycin,wyamycin e,wyamycin s,zeclar</t>
         </is>
       </c>
       <c r="J144">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>acide clavulanique,acido clavulanico,acidum clavulanicum,clavulanate,clavulanate acid,clavulanate lithium,clavulanateacid,clavulanic acid,clavulansaeure,clavulansaure,clavulinic acid,clavulox,serdaxin,sodium clavulanate</t>
+          <t>acide clavulanique,acido clavulanico,acidum clavulanicum,amonate,clavulanate,clavulanate acid,clavulanate lithium,clavulanateacid,clavulansaeure,clavulansaure,clavulinic acid,clavulox,lithium clavulanate,serdaxin</t>
         </is>
       </c>
       <c r="J145" t="e">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>clinafloxacin</t>
+          <t>spifloxacin</t>
         </is>
       </c>
       <c r="J146" t="e">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>antirobe,chlolincocin,clindaderm,clindamicina,clindamycin,clindamycine,clindamycinum,clinimycin,dalacin c,dalacine,klimicin,sobelin</t>
+          <t>antirobe,antirobe aquadrops,antirobe capsules,benzaclin,chlolincocin,cleocin,clindacure,clindaderm,clindamed,clindamicina,clindamycine,clindamycinum,clinimycin,clinsol,clintabs,dalacin c,dalacine,klimicin,sobelin,zydaclin</t>
         </is>
       </c>
       <c r="J147">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>chlofazimine,clofazimin,clofazimina,clofazimine,clofaziminum,colfazimine,lampren,lamprene,riminophenazine</t>
+          <t>chlofazimine,clofazimin,clofazimina,clofaziminum,colfazimine,lampren,lamprene,riminophenazine</t>
         </is>
       </c>
       <c r="J149">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>clofoctol,clofoctolo,clofoctolum,gramplus,octofene</t>
+          <t>clofoctolo,clofoctolum,gramplus,octofene</t>
         </is>
       </c>
       <c r="J150" t="e">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>chlomethocillin,clometacillin,clometocilina,clometocillin,clometocilline,clometocillinum,rixapen</t>
+          <t>chlomethocillin,clometacillin,clomethacillin,clomethocillin,clometocilina,clometocilline,clometocillinsalt,clometocillinum,rixapen</t>
         </is>
       </c>
       <c r="J151">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>chlormethylencycline,clomociclina,clomocyclin,clomocycline,clomocyclinum,megaclor</t>
+          <t>alexomycin,aureocarmyl,aureociclina,aureocycline,aureomycin,auxeomycin,chlormethylencycline,clomociclina,clomocyclin,clomocyclinum,clorocipan,clortetrin,declomycin,declostatin,deganol,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,elkamicina,fermycin soluble,isphamycin,ledermicina,ledermycin,ledermycine,megaclor,mexocine,novotriclina,perciclina,periciclina,sumaclina,veraciclina</t>
         </is>
       </c>
       <c r="J152">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>canesten,canesten cream,canesten solution,canestene,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimaderm cream,clotrimazol,clotrimazole,clotrimazolum,cutistad,desamix f,diphenylmethane,empecid,esparol,fem care,femcare,gyne lotrimin,jidesheng,kanesten,klotrimazole,lotrimax,lotrimin,lotrimin af,lotrimin af cream,lotrimin af lotion,lotrimin af solution,lotrimin cream,lotrimin lotion,lotrimin solution,monobaycuten,mycelax,mycelex,mycelex cream,mycelex g,mycelex otc,mycelex solution,mycelex troches,mycelex twin pack,myclo cream,myclo solution,myclo spray solution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,trivagizole,veltrim</t>
+          <t>canesten,canesten cream,canesten solution,canestene,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimaderm cream,clotrimazol,clotrimazolum,cutistad,desamix f,diphenylmethane,empecid,esparol,fem care,femcare,gyne lotrimin,imidazole,jidesheng,kanesten,klotrimazole,lombazol,lombazole,lombazolum,lotrimax,lotrimin,lotrimin af cream,lotrimin af lotion,lotrimin af solution,lotrimin cream,lotrimin lotion,lotrimin solution,monobaycuten,mycelax,mycelex,mycelex cream,mycelex g,mycelex otc,mycelex solution,mycelex troches,mycelex twin pack,myclo cream,myclo solution,myclo spray solution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,trivagizole,veltrim</t>
         </is>
       </c>
       <c r="J153" t="e">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>chloroxacillin,clossacillina,cloxacilina,cloxacillin,cloxacillin sodium,cloxacilline,cloxacillinna,cloxacillinum,cloxapen,methocillin s,orbenin,syntarpen,tegopen</t>
+          <t>ankerbin,austrastaph,biocloxin,brispen,chloroxacillin,ciclex,clocil,clossacillina,cloxacilina,cloxacillinanhydrous,cloxacilline,cloxacillinna,cloxacillinsalt,cloxacillinum,cloxapen,constaphyl,dariclox,dichlorstapenor,diclocil,dicloxacillinhydrate,diflor,digloxilline,dycill,dynapen,ekvacillin,gelstaph,methocillin s,novapen,noxaben,orbenin,pathocil,prevencilina p,prostaphilin a,prostaphlin a,stampen,staphcillin a banyu,staphybiotic,syntarpen,syntarpensalt,tegopen</t>
         </is>
       </c>
       <c r="J154">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>belcomycine,colimycin,colimycin sulphate,colisticin,colistimethate,colistimethate sodium,colistin sulfate,colistin sulphate,colobreathe,colomycin,coly-mycin,polymyxin e,polymyxin e. sulfate,promixin,totazina</t>
+          <t>belcomycine,colimycin,colisticin,colisticina,colistimethate,colistina,colistine,colistinum,colobreathe,colomycin,coly-mycin,colymysin s,kangdisu,kolimitsin,polymyxin e,polymyxin e.,promixin,totazina</t>
         </is>
       </c>
       <c r="J155">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>cicloserina,closerin,closina,cyclorin,cycloserin,cycloserine,cycloserinum,farmiserina,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,tisomycin,wasserina</t>
+          <t>cicloserina,closerin,closina,cyclorin,cycloserin,cycloserinum,farmiserina,levcicloserina,levcycloserine,levcycloserinum,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,tisomycin,wasserina</t>
         </is>
       </c>
       <c r="J157">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>dalbavancin,dalvance</t>
+          <t>dalbavancin?,dalbavancina,dalvance,zeven</t>
         </is>
       </c>
       <c r="J158" t="e">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>advocin,danofloxacin,danofloxacine,danofloxacino,danofloxacinum</t>
+          <t>advocin,danofloxacine,danofloxacino,danofloxacinum</t>
         </is>
       </c>
       <c r="J159" t="e">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aczone,araldite ht,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bis sulfone,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsone,dapsonum,di sulfone,diaphenyl sulfone,diaphenylsulfon,diaphenylsulfone,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulfone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,metabolite c,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfone ucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicure s,tarimyl,udolac</t>
+          <t>aczone,araldite,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bis sulfone,bis sulfoxide,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsonum,di sulfone,di sulfoxide,diaphenyl sulfone,diaphenylsulfon,diaphenylsulfone,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulfone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,medapsol,metabolite c,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfone ucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicure s,tarimyl,udolac</t>
         </is>
       </c>
       <c r="J160">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>cidecin,cubicin,dapcin,daptomicina,daptomycine,daptomycinum</t>
+          <t>cidecin,cubicin,dapcin,daptomicina,daptomycin for,daptomycine,daptomycinum,dapzura,deptomycin</t>
         </is>
       </c>
       <c r="J161" t="e">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>baxdela,delafloxacin,delafloxacinum,quofenix</t>
+          <t>baxdela,delafloxacinum,quofenix</t>
         </is>
       </c>
       <c r="J162">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>delamanid,deltyba</t>
+          <t>deltyba</t>
         </is>
       </c>
       <c r="J163">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>bioterciclin,clortetrin,declomycin,deganol,demeclociclina,demeclocycline,demeclocyclinum,demeclor,demetraclin,diuciclin,elkamicina,ledermycin,mexocine,novotriclina,perciclina,sumaclina</t>
+          <t>alexomycin,aureocarmyl,aureociclina,aureocycline,aureomycin,auxeomycin,bioterciclin,clorocipan,clortetrin,declomycin,declostatin,deganol,demeclociclina,demeclocyclinum,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,elkamicina,fermycin soluble,isphamycin,ledermicina,ledermycin,ledermycine,mexocine,novotriclina,perciclina,periciclina,sumaclina,veraciclina</t>
         </is>
       </c>
       <c r="J164">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>debecacin,dibekacin,dibekacin sulfate,dibekacina,dibekacine,dibekacinum,dideoxykanamycin b,kappati,orbicin,panamicin</t>
+          <t>debecacin,dibekacina,dibekacine,dibekacinum,dideoxykanamycin b,kappati,orbicin,panamicin</t>
         </is>
       </c>
       <c r="J165" t="e">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>dichloroxacillin,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillin,dicloxacillin sodium,dicloxacillina,dicloxacilline,dicloxacillinum,dicloxacycline,dycill,dynapen,maclicine,nm|| dicloxacillin,pathocil</t>
+          <t>ankerbin,austrastaph,biocloxin,brispen,ciclex,clocil,cloxacillinanhydrous,cloxacillinsalt,constaphyl,dariclox,dichloroxacillin,dichlorstapenor,diclocil,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillina,dicloxacilline,dicloxacillinhydrate,dicloxacillinum,dicloxacycline,diflor,digloxilline,dycill,dynapen,ekvacillin,gelstaph,maclicine,nm|| dicloxacillin,novapen,noxaben,orbenin,pathocil,prevencilina p,prostaphilin a,prostaphlin a,stampen,staphcillin a banyu,staphybiotic,syntarpensalt,tegopen</t>
         </is>
       </c>
       <c r="J166">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>dicural,difloxacin,pulsaflox</t>
+          <t>dicural,dicural tablets,pulsaflox</t>
         </is>
       </c>
       <c r="J167" t="e">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>dirithromycin,dirithromycine,dirithromycinum,diritromicina,divitross,dynabac,noriclan,valodin</t>
+          <t>dirithromycine,dirithromycinum,diritromicina,divitross,dynabac,noriclan,valodin</t>
         </is>
       </c>
       <c r="J168">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>doribax,doripenem,doripenem hydrate,finibax</t>
+          <t>doribax,dripenem,finibax</t>
         </is>
       </c>
       <c r="J169" t="e">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>atridox,azudoxat,deoxymykoin,dossiciclina,doxcycline anhydrous,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycycline,doxycycline calcium,doxycycline hyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,hydramycin,investin,jenacyclin,liviatin,monodox,oracea,periostat,ronaxan,spanor,supracyclin,vibramycin,vibramycin novum,vibramycine,vibravenos,zenavod</t>
+          <t>abbocin,alamycin,aquacycline,atridox,azudoxat,bi steclin,biosolvomycin,biotet,bisolvomycin,chrysocin,dalimycin,dalinmycin,deoxymykoin,dossiciclina,doxcycline,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycycline calcium,doxycycline hyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,elinton,engemycin,hydramycin,hydrocyclin,imperacin,intaloxin,investin,jenacyclin,liquachel,liviatin,macodyn,mepatar,monodox,oracea,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetracycline.hcl,oxytetral,oxytetrin,oxytracyl,oxyvet,periostat,ronaxan,spanor,stecsolin,supracyclin,terraject,terramycin,tetran hydrochloride,toxinal,unimycin,vendarcin,vibramycin,vibramycin novum,vibramycine,vibravenos,zenavod</t>
         </is>
       </c>
       <c r="J170">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>econazol,econazole,econazolum,ecostatin,ecostatin cream,palavale,pevaryl,spectazole,spectazole cream</t>
+          <t>bromazil,chloramizol,clinafarm,deccosil,deccozil,econazol,econazolum,ecostatin,ecostatin cream,enilconazol,enilconazole,eniloconazol,fecundal,flo pro imz,flopro imz,florasan,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,imidazole,magnate,nuzone,palavale,pevaryl,rappor plus,spectazole,spectazole cream</t>
         </is>
       </c>
       <c r="J171" t="e">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>almitil,bactidan,bactidron,comprecin,enofloxacine,enoksetin,enoram,enoxacin,enoxacina,enoxacine,enoxacino,enoxacinum,enoxen,enoxin,enoxor,flumark,penetrex</t>
+          <t>almitil,bactidan,bactidron,comprecin,enofloxacine,enoksetin,enoram,enoxacina,enoxacine,enoxacino,enoxacinum,enoxen,enoxin,enoxor,flumark,penetrex</t>
         </is>
       </c>
       <c r="J172">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>baytril,enrofloxacin,enrofloxacine,enrofloxacino,enrofloxacinum,enroxil</t>
+          <t>baytril,enrofloxacine,enrofloxacino,enrofloxacinum,enroxil</t>
         </is>
       </c>
       <c r="J173" t="e">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>enviomicina,enviomycin,enviomycina,enviomycinum,tuberactin</t>
+          <t>enviomicina,enviomycina,enviomycinum,tuberactin</t>
         </is>
       </c>
       <c r="J174" t="e">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>dexacillin,dihydroampicillin,epicilina,epicillin,epicilline,epicillinum</t>
+          <t>dexacillin,dihydroampicillin,epicilina,epicilline,epicillinum</t>
         </is>
       </c>
       <c r="J176">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>epiroprim,epiroprima,epiroprime,epiroprimum</t>
+          <t>epiroprima,epiroprime,epiroprimum</t>
         </is>
       </c>
       <c r="J177" t="e">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>eravacycline,xerava</t>
+          <t>xerava</t>
         </is>
       </c>
       <c r="J178" t="e">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>ertapenem,invanz</t>
+          <t>ertapenem?,ertapenemhydrate,ertapenemsalt,invanz</t>
         </is>
       </c>
       <c r="J179" t="e">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>abboticin,abomacetin,acneryne,acnesol,akne cordes losung,aknederm ery gel,aknemycin,austrias,benzamycin,bristamycin,derimer,deripil,dotycin,dumotrycin,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,eryc sprinkles,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erypar,erysafe,erytab,erythrocin,erythrocin stearate,erythroderm,erythrogran,erythroguent,erythromid,erythromycin,erythromycin a,erythromycin base,erythromycin lactate,erythromycine,erythromycines,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,ilotycin gluceptate,ilotycin t.s.,inderm,inderm gel,indermretcin,latotryd,lederpax,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pce dispertab,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,romycin,sansac,skid gel e,staticin,stiemicyn,stiemycin,theramycin z,tiloryth,tiprocin,torlamicina,udima ery gel,wyamycin s</t>
+          <t>abboticin,abboticine,abomacetin,acneryne,acnesol,akne cordes losung,aknederm ery gel,aknemycin,austrias,benzamycin,bristamycin,derimer,deripil,dotycin,dowmycin e,dumotrycin,durapaediat,e.e.s,e.e.s.,ees granules,emuvin,emycin,endoeritrin,eratrex,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,eryc sprinkles,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,eryliquid,erymax,erymed,erypar,eryped,erysafe,erytab,erythrocin,erythrocin stearate,erythrocin w,erythroderm,erythrogran,erythroguent,erythromid,erythromycin a,erythromycin lactate,erythromycine,erythromycines,erythromycinum,erythroped,erytop,erytrociclin,esinol,ethril,gallimycin,ilocaps,ilosone,iloticina,ilotycin,ilotycin gluceptate,inderm,inderm gel,indermretcin,latotryd,lederpax,meberyt,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pce dispertab,pediamycin,pharyngocin,primacine,propiocine,proterytrin,qidmycin,refkas,retcin,robimycin,romycin,sansac,skid gel e,staticin,stiemicyn,stiemycin,theramycin z,tiloryth,tiprocin,torlamicina,udima ery gel,wyamycin,wyamycin e,wyamycin s</t>
         </is>
       </c>
       <c r="J180">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aethambutolum,diambutol,ebutol,etambutol,etambutolo,etapiam,ethambutol,ethambutolum,myambutol,mycobutol,purderal,servambutol,tibutol</t>
+          <t>aethambutolum,dadibutol,diambutol,ebutol,etambutol,etambutolo,etapiam,ethambutolum,myambutol,mycobutol,purderal,servambutol,tibutol</t>
         </is>
       </c>
       <c r="J181">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aethionamidum,aetina,aetiva,amidazin,amidazine,ethatyl,ethimide,ethina,ethinamide,ethionamide,ethionamidum,ethioniamide,ethylisothiamide,ethyonomide,etimid,etiocidan,etionamid,etionamida,etionamide,etioniamid,etionid,etionizin,etionizina,etionizine,fatoliamid,iridocin,iridocin bayer,iridozin,isothin,isotiamida,itiocide,nicotion,nisotin,nizotin,rigenicid,sertinon,teberus,thianid,thianide,thioamide,thiodine,thiomid,thioniden,tianid,tiomid,trecator,trecator sc,trekator,trescatyl,trescazide,tubenamide,tubermin,tuberoid,tuberoson</t>
+          <t>aethionamidum,aetina,aetiva,amidazin,amidazine,ethatyl,ethimide,ethina,ethinamide,ethionamidum,ethioniamide,ethylisothiamide,ethyonomide,etimid,etiocidan,etionamid,etionamida,etionamide,etioniamid,etionid,etionizin,etionizina,etionizine,fatoliamid,iridocin,iridocin bayer,iridozin,isothin,isotiamida,itiocide,nicotion,nisotin,nizotin,rigenicid,sertinon,teberus,thianid,thianide,thioamide,thiodine,thiomid,thioniden,tianid,tiomid,trecator,trekator,trescatyl,trescazide,tubenamide,tubermin,tuberoid,tuberoson</t>
         </is>
       </c>
       <c r="J183">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>amprol plus,ethopabat,ethopabate,ethyl pabate</t>
+          <t>amprol plus,ethopabat,ethyl pabate</t>
         </is>
       </c>
       <c r="J184" t="e">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>faropenem,faropenem sodium,fropenem,fropenum sodium</t>
+          <t>farom,faropenemhydrate,faropenemsalt,fropenem,fropenum,furopenem</t>
         </is>
       </c>
       <c r="J186">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>dificid,dificlir,difimicin,fidaxomicin,lipiarmicin,lipiarmycin,lipiarrmycin,tiacumicin b</t>
+          <t>dificid,dificlir,difimicin,lipiarmicin,lipiarmycin,lipiarrmycin,tiacumicin b</t>
         </is>
       </c>
       <c r="J187">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>finafloxacin</t>
+          <t/>
         </is>
       </c>
       <c r="J188" t="e">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>flavophospholipol,moenomycin complex</t>
+          <t>bambermicina,bambermycin,bambermycine,bambermycinum,flavofosfolipol,flavophospholipol,gainpro,menomycin,moenomycin complex</t>
         </is>
       </c>
       <c r="J189" t="e">
@@ -12090,7 +12090,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>fleroxacin,fleroxacine,fleroxacino,fleroxacinum,fleroxicin,megalocin,megalone,megalosin,quinodis</t>
+          <t>fleroxacine,fleroxacino,fleroxacinum,fleroxicin,megalocin,megalone,megalosin,quinodis</t>
         </is>
       </c>
       <c r="J190">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>flomoxef,flomoxefo,flomoxefum</t>
+          <t>flomoxefo,flomoxefsalt,flomoxefum,flumarin</t>
         </is>
       </c>
       <c r="J191" t="e">
@@ -12212,7 +12212,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aquafen,florfenicol,nuflor,nuflor gold</t>
+          <t>aquafen,descocin,dexawin,dextrosulphenidol,efnicol,fricol,hyrazin,igralin,macphenicol,masatirin,neomyson,nuflor,nuflor gold,racephenicol,rincrol,thiamcol,thiamphenicol epimer,thiocymetin,urfamicina,urfamycine,urophenyl</t>
         </is>
       </c>
       <c r="J192" t="e">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>culpen,floxacillin,floxacillin sodium,floxapen,floxapen sodium salt,fluclox,flucloxacilina,flucloxacillin,flucloxacilline,flucloxacillinum,fluorochloroxacillin,staphylex</t>
+          <t>ankerbin,austrastaph,bactopen,cloxacap,cloxacillinanhydrous,cloxacillinhydrate,cloxacillinsalt,cloxapen,cloxypen,culpen,dariclox,ekvacillin,floxacillin,floxapen,floxapen sodium salt,fluclox,flucloxacilina,flucloxacilline,flucloxacillinum,fluorochloroxacillin,gelstaph,latocillin,orbenin,orbeninhydrate,prevencilina p,prostaphilin a,prostaphlin a,staphybiotic,staphylex,syntarpensalt,tegopen</t>
         </is>
       </c>
       <c r="J193">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>alflucoz,alfumet,alkanazole,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazol,fluconazole,fluconazole capsules,fluconazoli,fluconazolum,flucoral,flucostat,flukezol,flunazol,flunizol,flusol,fluzon,fluzone,forcan,fuconal,fungata,loitin,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zoltec</t>
+          <t>alflucoz,alfumet,alkanazole,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazol,fluconazole capsules,fluconazoli,fluconazolum,flucoral,flucostat,flukezol,flunazol,flunizol,flusol,fluzon,fluzone,forcan,fuconal,fungata,loitin,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zoltec</t>
         </is>
       </c>
       <c r="J194">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>alcobon,ancoban,ancobon,ancotil,ancotyl,flourocytosine,flucitosina,flucystine,flucytosin,flucytosine,flucytosinum,flucytosone,fluocytosine,fluorcytosine,fluorocytosine</t>
+          <t>alcobon,ancoban,ancobon,ancotil,ancotyl,flourocytosine,flucitosina,flucystine,flucytosin,flucytosinum,flucytosone,fluocytosine,fluorcytosine,fluorocytosine</t>
         </is>
       </c>
       <c r="J195">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>apurone,fantacin,flumequine,flumequino,flumequinum,flumigal,flumiquil,flumisol,flumix,imequyl</t>
+          <t>apurone,fantacin,flumequino,flumequinum,flumigal,flumiquil,flumisol,flumix,imequyl</t>
         </is>
       </c>
       <c r="J196">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>flurithromicina,flurithromycime,flurithromycin,flurithromycine,flurithromycinum,fluritromicina,fluritromycinum,flurizic</t>
+          <t>abboticine,beritromicina,berythromycin,berythromycine,berythromycinum,bristamycin,dowmycin e,eratrex,erypar,erythrocin,erythrocin stearate,erythromycin b,ethril,flurithromicina,flurithromycime,flurithromycine,flurithromycinum,fluritromicina,fluritromycinum,flurizic,gallimycin,meberyt,qidmycin,wyamycin s</t>
         </is>
       </c>
       <c r="J197">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>fosfluconazole,phosfluconazole,procif,prodif</t>
+          <t>phosfluconazole,procif,prodif</t>
         </is>
       </c>
       <c r="J198" t="e">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>calcium fosfomycin,fosfocina,fosfomicin,fosfomicina,fosfomycin,fosfomycin sodium,fosfomycine,fosfomycinum,fosfonomycin,infectophos,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
+          <t>calcium fosfomycin,fosfocina,fosfomicin,fosfomicina,fosfomycine,fosfomycinum,fosfonomycin,infectophos,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
         </is>
       </c>
       <c r="J199">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>fosmidomycin,fosmidomycina,fosmidomycine,fosmidomycinum</t>
+          <t>fosmidomycina,fosmidomycine,fosmidomycinsalt,fosmidomycinsalt?,fosmidomycinum</t>
         </is>
       </c>
       <c r="J200" t="e">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetin,framycetin sulfate,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin,neomycin b,neomycin b sulfate,neomycin solution,neomycin sulfate,neomycin sulphate,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
+          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin b,neomycin solution,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
         </is>
       </c>
       <c r="J201" t="e">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>akritoin,furagin,furaginum,furamag,furazidin,furazidine</t>
+          <t>akritoin,furagin,furaginum,furamag,furazidine,nitro macro</t>
         </is>
       </c>
       <c r="J202">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furaxon,furaxone,furazol,furazolidine,furazolidon,furazolidona,furazolidone,furazolidonum,furazolum,furazon,furidon,furovag,furox aerosol powder,furoxal,furoxane,furoxon,furoxone,furoxone liquid,furoxone swine mix,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
+          <t>bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furaxon,furaxone,furazol,furazolidine,furazolidon,furazolidona,furazolidonum,furazolum,furazon,furidon,furmethoxadone,furovag,furox aerosol powder,furoxal,furoxane,furoxon,furoxone,furoxone liquid,furoxone swine mix,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofuradoxadone,nitrofuradoxon,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
         </is>
       </c>
       <c r="J203" t="e">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>acide fusidique,acido fusidico,acidum fusidicum,flucidin,fucidate,fucidate sodium,fucidic acid,fucidin,fucidin acid,fucithalmic,fusidate,fusidate acid,fusidic acid,fusidicacid,fusidine,fusidinic acid,ramycin,taksta</t>
+          <t>acide fusidique,acido fusidico,acidum fusidicum,flucidin,fucidate,fucidic acid,fucidin,fucidin acid,fucidin leo,fucidina,fucidine,fucithalmic,fusidate,fusidate acid,fusidic acidsalt,fusidicacid,fusidin,fusidine,fusidinic acid,intertulle fucidin,ramycin,taksta</t>
         </is>
       </c>
       <c r="J204">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>gamithromycin</t>
+          <t>azasite</t>
         </is>
       </c>
       <c r="J205" t="e">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>ganefloxacin,garenfloxacin,garenoxacin</t>
+          <t>ganefloxacin,garenfloxacin,garenoxacin mesilate</t>
         </is>
       </c>
       <c r="J206">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>gatiflo,gatifloxacin,gatifloxacin hydrate,gatifloxacine,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequin and zymar,zymaxid</t>
+          <t>acorafloxacin,avarofloxacin,balofloxacin,bilimin,gatiflo,gatifloxacine,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequin and zymar,zymaxid</t>
         </is>
       </c>
       <c r="J207">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>factiv,factive,gemifioxacin,gemifloxacin,gemifloxacine,gemifloxacino,gemifloxacinum</t>
+          <t>factiv,factive,gemifioxacin,gemifloxacine,gemifloxacino,gemifloxacinum</t>
         </is>
       </c>
       <c r="J208">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>apogen,centicin,cidomycin,garamycin,garasol,genoptic liquifilm,genoptic s.o.p.,gentacycol,gentafair,gentak,gentamar,gentamcin sulfate,gentamicin,gentamicina,gentamicine,gentamicins,gentamicinum,gentamycin,gentamycins,gentamycinum,gentavet,gentocin,jenamicin,lyramycin,oksitselanim,refobacin,refobacin tm,septigen,uromycine</t>
+          <t>apogen,centicin,cidomycin,garamycin,garasol,genoptic liquifilm,genoptic s.o.p.,gentacycol,gentafair,gentak,gentamar,gentamcin,gentamicin c,gentamicin cla,gentamicina,gentamicine,gentamicins,gentamicinum,gentamycin,gentamycins,gentamycinum,gentavet,gentocin,jenamicin,liposomal gentamicin,lyramycin,oksitselanim,refobacin,septigen,septocin,uromycine</t>
         </is>
       </c>
       <c r="J209" t="e">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>gepotidacin</t>
+          <t/>
         </is>
       </c>
       <c r="J211" t="e">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>grepafloxacin</t>
+          <t>lungaskin,raxar,vaxar</t>
         </is>
       </c>
       <c r="J212">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>amudane,curling factor,delmofulvina,fulcin,fulcine,fulvican grisactin,fulvicin,fulvicin bolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvin v,grisactin,grisactin ultra,grisactin v,griscofulvin,grise ostatin,grisefuline,griseo,griseoflulvin,griseofulvin,griseofulvin forte,griseofulvina,griseofulvine,griseofulvinum,griseomix,griseostatin,grisetin,grisofulvin,grisovin,grisovin fp,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatin xan,xuanjing</t>
+          <t>amudane,curling factor,delmofulvina,fulcin,fulcine,fulvican grisactin,fulvicin,fulvicin bolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvin v,grisactin,grisactin ultra,grisactin v,griscofulvin,grise ostatin,grisefuline,griseo,griseoflulvin,griseofulvicacid,griseofulvin forte,griseofulvina,griseofulvine,griseofulvinum,griseomix,griseostatin,grisetin,grisofulvin,grisovin,grisowen,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatin xan,xuanjing</t>
         </is>
       </c>
       <c r="J213">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>arbekacin sulfate,arbekacin sulphate,habekacin,habekacin sulfate,habekacin xsulfate,habekacinxsulfate</t>
+          <t>amikacin bis,amikacin disulfate,amikacini sulfas,amikafur,amikan,amikin,amitrex,arikayce,biklin,biodacyn,chemacin,fabianol,habekacin xsulfate,habekacinxsulfate,kaminax,likacin,pierami</t>
         </is>
       </c>
       <c r="J214" t="e">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>cabimicina,hachimicina,hachimycin,hachimycine,hachimycinum,trichomycinum,trichonat</t>
+          <t>cabimicina,hachimicina,hachimycine,hachimycinum,trichomycinum,trichonat</t>
         </is>
       </c>
       <c r="J215" t="e">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>etacillina,hetacilina,hetacillin,hetacillin acid,hetacilline,hetacillinum,phenazacillin,versapen</t>
+          <t>etacillina,hetacilina,hetacillin acid,hetacillin potassium,hetacilline,hetacillinum,natacillin,phenazacillin,polymast,potassium hetacillin,versapen,versatrex</t>
         </is>
       </c>
       <c r="J216">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>antihelmycin,hydromycin b,hygrovetine</t>
+          <t>antihelmycin,destomycin a,destomysin,hyanthelmix,hydromycin b,hygrovectine,hygrovetine</t>
         </is>
       </c>
       <c r="J217" t="e">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>ibrexafungerp</t>
+          <t/>
         </is>
       </c>
       <c r="J218" t="e">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>iclaprim,mersarex</t>
+          <t>mersarex</t>
         </is>
       </c>
       <c r="J219" t="e">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>imipemide,imipenem,imipenem anhydrous,imipenem hydrate,imipenem/cilastatin,imipenemum,imipenen,primaxin,recarbrio .,tienamycin</t>
+          <t>imipemide,imipenem monohydrate,imipenem/cilastatin,imipenemum,imipenen,primaxin,recarbrio .,tienam,tienamycin</t>
         </is>
       </c>
       <c r="J220" t="e">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>isavuconazole</t>
+          <t>ravuconazole</t>
         </is>
       </c>
       <c r="J223">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>isepacin,isepalline,isepamicin,isepamicina,isepamicine,isepamicinsulphate,isepamicinum</t>
+          <t>isepacin,isepalline,isepamicina,isepamicine,isepamicinsulphate,isepamicinum</t>
         </is>
       </c>
       <c r="J224" t="e">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>isoconazol,isoconazole,isoconazolum,travogen</t>
+          <t>bromazil,chloramizol,clinafarm,deccosil,deccozil,enilconazol,enilconazole,eniloconazol,fecundal,flo pro imz,flopro imz,florasan,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,imidazole,isoconazol,isoconazolum,magnate,nuzone,rappor plus,travogen</t>
         </is>
       </c>
       <c r="J225" t="e">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>abdizide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azt + isoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hid rasonil,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,i.a.i.,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazid,isoniazid sa,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
+          <t>abdizide,acetyl isoniazid,acetylisoniazide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azt + isoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hid rasonil,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,i.a.i.,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
         </is>
       </c>
       <c r="J226">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>intraconazole,itraconazol,itraconazole,itraconazolo,itraconazolum,itraconzaole,itrazole,itrizole,oriconazole,sporanox</t>
+          <t>candistat,canditral,fungitraxx,intraconazole,itrac,itraconazol,itraconazolo,itraconazolum,itraconzaole,itrafungol,itralek,itrazole,itrizole,lozanoc,onmel,oriconazole,orungal,sempera,spherazole,sporamelt,sporanox,sporonox,tolsura,traconal,triasporin</t>
         </is>
       </c>
       <c r="J228">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>jomybel,josacine,josamicina,josamycin,josamycine,josamycinum</t>
+          <t>jomybel,josacine,josamicina,josamycine,josamycinum,medemycin,mydecamycin</t>
         </is>
       </c>
       <c r="J229">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>kanamicina,kanamycin,kanamycin a,kanamycin base,kanamycin sulfate,kanamycina,kanamycine,kanamycins,kanamycinum,kantrex,kenamycin a,klebcil,liposomal kanamycin</t>
+          <t>kanamicina,kanamycin a,kanamycina,kanamycine,kanamycins,kanamycinum,kantrex,kenamycin a,klebcil,liposomal kanamycin</t>
         </is>
       </c>
       <c r="J230">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>extina,fungarest,fungoral,ketocanazole,ketoconazol,ketoconazole,ketoconazolum,ketoderm,nizoral,xolegel</t>
+          <t>brizoral,cerasootheket,extina,fungarest,fungoral,ketaconazole,ketocanazole,ketoconazol,ketoconazole foam,ketoconazolum,ketodan,ketoderm,ketoisdin,ketomax tris flush,ketozole,kuric,levoketoconazole,nizoral,normocort,onofin k,orifungal m,panfungol,piperazine,recorlev,sebazole,suffusiontris,teryzolin,terzolin,xolegel</t>
         </is>
       </c>
       <c r="J233">
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>jomybel,josacine,josamicina,josamycin,josamycine,josamycinum</t>
+          <t>jomybel,josacine,josamicina,josamycine,josamycinum</t>
         </is>
       </c>
       <c r="J234" t="e">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>avatec,lasalocid,lasalocid a,lasalocide,lasalocide a,lasalocido,lasalocidum</t>
+          <t>avatec,bovatec,bovatec r,lasalocid a,lasalocid a na salt,lasalocid asalt,lasalocide,lasalocide a,lasalocido,lasalocidsalt,lasalocidum</t>
         </is>
       </c>
       <c r="J235" t="e">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>lascufloxacin</t>
+          <t>lasvic</t>
         </is>
       </c>
       <c r="J236">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>disodium moxalactam,festamoxin,lamoxactam,latamoxef,latamoxefum,moxalactamsupplement,shiomarin</t>
+          <t>dilatamoxef,dimoxalactam,disodium moxalactam,festamoxin,lamoxactam,latamoxefum,moxalactam,moxalactam disalt,moxalactamsalt,moxalactamsupplement,moxam,shiomarin</t>
         </is>
       </c>
       <c r="J237" t="e">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>lefamulin,xenleta</t>
+          <t>lefamulin acetate,lefamulin acetate?,lefamulinacetate,xenleta</t>
         </is>
       </c>
       <c r="J238" t="e">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>lenampicilina,lenampicillin,lenampicillin hcl,lenampicilline,lenampicillinum</t>
+          <t>lenampicilina,lenampicilline,lenampicillinum,takacillin,valacillin,varacillin</t>
         </is>
       </c>
       <c r="J239" t="e">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aeroquin,anhydrous ofloxacin,cravit,cravit hydrate,cravit iv,cravit ophthalmic,elequine,floxacin,floxel,fluoroquinolone,iquix hydrate,leroxacin,lesacin,levaquin,levaquin hydrate,levo floxacin,levofiexacin,levofloxacin,levofloxacin hydrate,levofloxacine,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,ofloxcacin,oftaquix,quinsair,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
+          <t>aeroquin,cravit,cravit ophthalmic,dextrofloxacin,dextrofloxacine,elequine,floxacin,floxel,fluoroquinolone,iquix,leroxacin,lesacin,levaquin,levo floxacin,levofiexacin,levofloxacine,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,ofloxacin impurity e,ofloxcacin,oftaquix,quinsair,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
         </is>
       </c>
       <c r="J240">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>levonadifloxacin</t>
+          <t/>
         </is>
       </c>
       <c r="J242" t="e">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>bactramycin,cillimycin,frademicina,jiemycin,lincocin,lincolcina,lincolnensin,lincomicina,lincomycin,lincomycin a,lincomycine,lincomycinum,lincorex</t>
+          <t>albiotic,bactramycin,cillimycin,frademicina,jiemycin,lincocin,lincogap,lincolcina,lincolnensin,lincomicina,lincomix,lincomycin a,lincomycin soluble,lincomycine,lincomycinum,lincorex,mycivin</t>
         </is>
       </c>
       <c r="J244">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>linezlid,linezoid,linezolid,linezolide,linezolidum,zivoxid,zyvoxa,zyvoxam,zyvoxid</t>
+          <t>linezlid,linezoid,linezolide,linezolidum,zivoxid,zyvoxa,zyvoxam,zyvoxid</t>
         </is>
       </c>
       <c r="J245">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>lomefloxacin,lomefloxacine,lomefloxacino,lomefloxacinum,maxaquin</t>
+          <t>bareon,logiflox,lomebact,lomefloxacine,lomefloxacino,lomefloxacinum,maxaquin,maxaquine,mazaquin,okacin,okacyn,uniquin</t>
         </is>
       </c>
       <c r="J247">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>anhydrous loracarbef,lorabid,loracabef,loracarbef,loracarbefum,lorbef,loribid</t>
+          <t>carbac,lorabid,loracabef,loracarbefum,lorafem,lorbef,loribid</t>
         </is>
       </c>
       <c r="J248">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>biovetin,chlortetracyclin,ciclisin,ciclolysal,ciclolysine,infaciclina,limeciclina,lisinbiotic,lymecyclin,lymecycline,lymecyclinum,mucomycin,ntetracycline,tetralisal,tetralysal,vebicyclysal</t>
+          <t>biovetin,chlortetracyclin,ciclisin,ciclolysal,ciclolysine,infaciclina,limeciclina,lisinbiotic,lymecyclin,lymecyclinum,mucomycin,ntetracycline,tetralisal,tetralysal,vebicyclysal</t>
         </is>
       </c>
       <c r="J249">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>acido mandelico,almond acid,ammonium mandelate,amygdalic acid,benzoglycolic acid,hydroxyacetic acid,kyselina mandlova,mandelic acid,paramandelic acid,phenylglycolic acid,uromaline</t>
+          <t>acido mandelico,almond acid,ammonium mandelate,amygdalate,amygdalic acid,benzoglycolic acid,hydroxyacetic acid,kyselina mandlova,methyl,methyl mandelic acid,paramandelate,paramandelic acid,phenylglycolate,phenylglycolic acid,phenylhydroxyacetate,uromaline</t>
         </is>
       </c>
       <c r="J250">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>manogepix</t>
+          <t/>
         </is>
       </c>
       <c r="J251" t="e">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>marbocyl,marbofloxacin,marbofloxacine,marbofloxacino,marbofloxacinum,zeniquin</t>
+          <t>marbocyl,marbofloxacine,marbofloxacino,marbofloxacinum,zeniquin</t>
         </is>
       </c>
       <c r="J252" t="e">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>amdinocillin,coactin,hexacillin,mecilinamo,mecillinam,mecillinamum,micillinam,penicillin hx,selexidin</t>
+          <t>amdinocillin,coactin,hexacillin,mecilinamo,mecillinamum,micillinam,penicillin,selexidin</t>
         </is>
       </c>
       <c r="J253" t="e">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>meronem,meropen,meropenem,meropenem anhydrous,meropenem hydrate,meropenem trihydrate,meropenemum,merrem,merrem i.v.,merrem iv</t>
+          <t>meronem,meropen,meropenem trihydrate,meropenemum,merrem</t>
         </is>
       </c>
       <c r="J255" t="e">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>mesulfamide,mesulfamido,mesulfamidum</t>
+          <t>mesulfamido,mesulfamidum</t>
         </is>
       </c>
       <c r="J258" t="e">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>bialatan,metaciclina,metacycline,metacyclinum,methacycline,methacycline base,methacyclinum,methylenecycline,physiomycine,rondomycin</t>
+          <t>abbocin,alamycin,aquacycline,bi steclin,bialatan,biosolvomycin,biotet,bisolvomycin,chrysocin,dalimycin,dalinmycin,elinton,engemycin,hydrocyclin,imperacin,intaloxin,liquachel,macodyn,mepatar,metaciclina,metacyclinum,methacycline,methacyclinum,methylenecycline,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetracycline.hcl,oxytetral,oxytetrin,oxytracyl,oxyvet,physiomycine,rondomycin,stecsolin,terraject,terramycin,tetran hydrochloride,toxinal,unimycin,vendarcin,vibramycin</t>
         </is>
       </c>
       <c r="J259">
@@ -16412,7 +16412,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>blomopen,bonopen,celinmicina,elatocilline,fedacilina kapseln,filorex,italcina kapseln,magnipen,metabacter ampullen,metambac,metampicilina,metampicillin,metampicillin sodium,metampicillina,metampicilline,metampicillinum,methampicillin,metiskia ampullen,micinovo,micinovo ampullen,pangocilin,probiotic,rastomycin k,relyothenate,ruticina,rutizina,rutizina ampullen,sedomycin,suvipen,suvipen ampullen,tampilen ampullen,teonicon trofen,viderpen,viderpin,vioplex</t>
+          <t>amcap,amcill,ampen,amperil,ampinova,blomopen,bonopen,celinmicina,cymbi,deripen,elatocilline,fedacilina kapseln,filorex,guicitrine,italcina kapseln,magnipen,metabacter ampullen,metambac,metampen,metampicilina,metampicillina,metampicilline,metampicillinsalt,metampicillinum,methampicillin,metiskia ampullen,micinovo,micinovo ampullen,ocelina,pangocilin,pen a,penbritin,principen,probiotic,rastomycin k,relyothenate,ruticina,rutizina,rutizina ampullen,sedomycin,serfabiotic,suvipen,suvipen ampullen,tampilen ampullen,teonicon trofen,trafarbiot,viderpen,viderpin,vioplex,wypicil</t>
         </is>
       </c>
       <c r="J260">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aceto hmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagom h,esametilentetramina,formamine,formin,h.m.t.,heksa k,herax uts,heterin,hexa b,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexamine silver,hexamine superfine,hexaminum,hexasan,hexilmethylenamine,mandelamine,metenamina,metenamine,methamin,methenamin,methenamine,methenamine silver,methenaminum,metramine,naphthamine,nocceler h,preparation af,resotropin,sanceler h,sanceler ht,silver methenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
+          <t>aceto hmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagom h,esametilentetramina,formamine,formin,h.m.t.,heksa k,herax uts,heterin,hexa b,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexamine silver,hexamine superfine,hexaminum,hexasan,hexilmethylenamine,mandelamine,metenamina,metenamine,methamin,methenamin,methenamine silver,methenaminum,metramine,naphthamine,nocceler h,pellurin,preparation,resotropin,sanceler h,sanceler,silver methenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
         </is>
       </c>
       <c r="J261">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>dimocillin,metacillin,methcilline,methicillin,methicillinum,methycillin,meticilina,meticillin,meticillina,meticilline,meticillinum,staphcillin</t>
+          <t>belfacillin,celbenin,celpilline,cinopenil,dimocillin,estafcilina,flabelline,lucopenin,metacillin,methcilline,methicillin,methicillinanhydrous,methicillinhydrate,methicillinsalt,methicillinum,methycillin,meticilina,meticillina,meticilline,meticillinsalt,meticillinum,penaureus,penysol,staficyn,staphcillin,synticillin</t>
         </is>
       </c>
       <c r="J262" t="e">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>methioprim,metioprim,metioprima,metioprime,metioprimum</t>
+          <t>methioprim,metioprima,metioprime,metioprimum</t>
         </is>
       </c>
       <c r="J263" t="e">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>metioxate,metioxato,metioxatum</t>
+          <t>metioxato,metioxatum</t>
         </is>
       </c>
       <c r="J264" t="e">
@@ -16722,7 +16722,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>acromona,anagiardil,arilin,atrivyl,danizol,deflamon,donnan,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyl er,flagyl i.v.,flagyl i.v. rtu,flazol,flegyl,florazole,fossyol,giatricol,ginefla vir,gineflavir,helidac,mepagyl,meronidal,methronidazole,metric,metro cream,metro gel,metro i.v,metro i.v.,metro iv,metrocream,metrodzhil,metrogel,metrogyl,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazole,metronidazole usp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibol 'silanes',monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,tricho cordes,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,tricowas b,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
+          <t>acromona,anagiardil,arilin,atrivyl,danizol,deflamon,donnan,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyl i.v. rtu,flazol,flegyl,florazole,fossyol,giatricol,ginefla vir,gineflavir,helidac,hmmni,hydroxydimetridazole,hydroxymetronidazole,isometronidazole,izoklion,mepagyl,meronidal,methronidazole,metric,metro cream,metro gel,metro,metrocream,metrodzhil,metrogel,metrogyl,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazole usp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibol 'silanes',mizonidazole,mnzoh,monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,tricho cordes,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,tricowas b,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
         </is>
       </c>
       <c r="J265">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>mezlin,mezlocilina,mezlocillin,mezlocillin acid,mezlocillin sodium,mezlocilline,mezlocillinum,multocillin</t>
+          <t>baycipen,baypen,mezlin,mezlocilina,mezlocillin acid,mezlocilline,mezlocillinsalt,mezlocillinum,multocillin</t>
         </is>
       </c>
       <c r="J266" t="e">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>micafungin,mycamine</t>
+          <t>fungard,funguard,micafungin?,micafunginsalt,mycamine</t>
         </is>
       </c>
       <c r="J268" t="e">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aflorix,albistat,andergin,brentan,conofite,dactarin,daktarin,daktarin iv,florid,lotrimin af,micantin,miconasil nitrate,miconazol,miconazole,miconazole base,miconazolo,miconazolum,micozole,minostate,monista,monistat,monistat iv,oravig,vusion,zimybase,zimycan</t>
+          <t>aflorix,albistat,andergin,brentan,bromazil,chloramizol,clinafarm,conofite,dactarin,daktarin,deccosil,deccozil,enilconazol,enilconazole,eniloconazol,fecundal,flo pro imz,flopro imz,florasan,florid,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,imidazole,lotrimin,magnate,micantin,miconasil nitrate,miconazol,miconazolo,miconazolum,micozole,minostate,monista,monistat,nuzone,oravig,rappor plus,vusion,zimybase,zimycan</t>
         </is>
       </c>
       <c r="J269">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>gentamicin c,micromicin,micromycin,micronomicin,micronomicina,micronomicine,micronomicinum,sagamicin,santemycin</t>
+          <t>garamycin,gentamicin c,gentamicin cla,gentamycin,gentocin,liposomal gentamicin,micromicin,micromycin,micronomicina,micronomicine,micronomicinum,sagamicin,santemycin,septocin</t>
         </is>
       </c>
       <c r="J270" t="e">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aboren,espinomycin a,macropen,madecacine,medemycin,midecamicina,midecamycin,midecamycin a,midecamycine,midecamycinum,midecin,momicine,mydecamycin,myoxam,normicina,rubimycin,turimycin p</t>
+          <t>aboren,espinomycin a,macropen,madecacine,medemycin,midecamicina,midecamycin a,midecamycine,midecamycinum,midecin,momicine,mydecamycin,myoxam,normicina,rubimycin,turimycin p</t>
         </is>
       </c>
       <c r="J271">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>miloxacin,miloxacine,miloxacino,miloxacinum</t>
+          <t>miloxacine,miloxacino,miloxacinum</t>
         </is>
       </c>
       <c r="J272" t="e">
@@ -17222,7 +17222,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>akamin,aknemin,borymycin,dynacin,klinomycin,minociclina,minocin,minocline,minocyclin,minocycline,minocyclinum,minocyn,minoderm,minomycin,sebomin,solodyn,vectrin</t>
+          <t>acnez,akamin,aknemin,amzeeq,arestin,borymycin,dynacin,klinomycin,lederderm,minociclina,minocin,minocline,minocyclin,minocyclinum,minocyn,minoderm,minolira,minomax,minomycin,minomycin chloride,mynocine,periocline,sebomin,solodyn,vectrin,ximino,zilxi</t>
         </is>
       </c>
       <c r="J273">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>acecamycin,macroral,midecamycin acetate,miocamen,miocamycin,miocamycine,miokamycin,myocamicin,ponsinomycin</t>
+          <t>acecamycin,macroral,medemycin,midecamycin acetate,miocamen,miocamycine,miokamycin,mydecamycin,myocamicin,ponsinomycin</t>
         </is>
       </c>
       <c r="J274">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>monensin sodium,sodium monensin</t>
+          <t>coban,elancoban,monelan,monensic acid,monensin,monensin granulated,monensina,monensine,monensinum,romensin,rumensin</t>
         </is>
       </c>
       <c r="J275" t="e">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>morfazinamide,morfazinammide,morfgazinamide,morinamida,morinamide,morinamide hcl,morinamidum,morphazinamid,morphazinamide,piazofolina,piazolin,piazolina</t>
+          <t>morfazinamide,morfazinammide,morfgazinamide,morinamida,morinamidum,morphazinamid,morphazinamide,piazofolina,piazolin,piazolina</t>
         </is>
       </c>
       <c r="J276" t="e">
@@ -17472,7 +17472,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>actira,avelox,avelox i.v.,avelox iv,avolex,izilox,moxeza,moxifloxacin,moxifloxacine,moxivig,vigamox,zimoxin</t>
+          <t>actira,actura,avalox,avelox,avelox abc pack,avolex,balofloxacin,bilimin,izilox,moxeza,moxifloxacine,moxivig,octegra,vegamox,vigamox,zimoxin</t>
         </is>
       </c>
       <c r="J277">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>bactoderm,bactroban,bactroban nasal,bactroban ointment,centany,mupirocin,mupirocina,mupirocine,mupirocinum,plasimine,pseudomonic acid,pseudomonic acid a,turixin</t>
+          <t>bactoderm,bactroban,bactroban nasal,bactroban ointment,centany,lithium mupirocin,mupirocin impurity a,mupirocina,mupirocine,mupirocinum,plasimine,pseudomonic acid,pseudomonic acid a,pseudomonic acid i,turixin</t>
         </is>
       </c>
       <c r="J278" t="e">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>nacubactam</t>
+          <t>nacubactam?</t>
         </is>
       </c>
       <c r="J279" t="e">
@@ -17650,7 +17650,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>acuatim,nadifloxacin,nadifloxacine,nadifloxacino,nadifloxacinum,nadixa,nadoxin</t>
+          <t>acuatim,nadifloxacine,nadifloxacino,nadifloxacinum,nadixa,nadoxin</t>
         </is>
       </c>
       <c r="J280" t="e">
@@ -17708,7 +17708,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>nafcilina,nafcillin,nafcillin sodium,nafcilline,nafcillinum,nallpen,naphcillin,unipen</t>
+          <t>nafcil,nafcilina,nafcillinanhydrous,nafcilline,nafcillinhydrate,nafcillinmonohydrate,nafcillinsalt,nafcillinum,naftopen,nallpen,naphcillin,naphthicillin,unipen</t>
         </is>
       </c>
       <c r="J281" t="e">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>nafithromycin</t>
+          <t/>
         </is>
       </c>
       <c r="J282" t="e">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>acide nalidixico,acide nalidixique,acido nalidissico,acido nalidixico,acidum nalidixicum,betaxina,dixiben,dixinal,eucisten,eucistin,innoxalomn,innoxalon,jicsron,kusnarin,naldixic acid,nalidic acid,nalidicron,nalidixan,nalidixane,nalidixate,nalidixate sodium,nalidixic,nalidixic acid,nalidixicacid,nalidixin,nalidixinic acid,nalidixinsaure,nalitucsan,nalurin,narigix,naxuril,neggram,negram,nevigramon,nicelate,nogram,poleon,sicmylon,specifen,specifin,unaserus,uralgin,uriben,uriclar,urisal,urodixin,uroman,uroneg,uronidix,uropan,wintomylon,wintron</t>
+          <t>acide amfonelique,acide nalidixico,acide nalidixique,acido anfonelico,acido nalidissico,acido nalidixico,acidum amfonelicum,acidum nalidixicum,amfonelic acid,amfonelinsaeure,baktogram,betaxina,chemiurin,dixiben,dixilina,dixinal,eucisten,eucistin,innoxalomn,innoxalon,jicsron,kusnarin,naldixic acid,nalidic acid,nalidicron,nalidixan,nalidixane,nalidixate,nalidixateanhydrous,nalidixic,nalidixicacid,nalidixin,nalidixinic acid,nalidixinsaure,nalitucsan,nalurin,narigix,naxuril,neggram,negram,nevigramon,nicelate,nogram,poleon,sicmylon,specifen,specifin,unaserus,uralgin,uriben,uriclar,urisal,urodixin,uroman,uroneg,uronidix,uropan,wintomylon,wintron</t>
         </is>
       </c>
       <c r="J283">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>monteban,narasin,narasin a,narasine,narasino,narasinum,narasul</t>
+          <t>monteban,narasin a,narasine,narasino,narasinum,narasul</t>
         </is>
       </c>
       <c r="J284" t="e">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>nemonoxacin</t>
+          <t/>
         </is>
       </c>
       <c r="J285" t="e">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetin,framycetin sulfate,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin,neomycin b,neomycin b sulfate,neomycin solution,neomycin sulfate,neomycin sulphate,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
+          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin b,neomycin solution,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
         </is>
       </c>
       <c r="J286">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>netillin,netilmicin,netilmicin sulfate,netilmicina,netilmicine,netilmicinum,netilyn,netira,nettacin,vectacin</t>
+          <t>netillin,netilmicina,netilmicine,netilmicinum,netilyn,netira,nettacin,vectacin</t>
         </is>
       </c>
       <c r="J287">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>nicarb,nicarbasin,nicarbazin,nicarbazine,nicoxin,nicrazin,nicrazine,nirazin</t>
+          <t>nicarb,nicarbasin,nicarbazine,nicoxin,nicrazin,nicrazine,nirazin</t>
         </is>
       </c>
       <c r="J288" t="e">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>abimasten,nifuroquina,nifuroquine,nifuroquinum,quinaldofur</t>
+          <t>abimasten,nifuroquina,nifuroquinum,quinaldofur</t>
         </is>
       </c>
       <c r="J289" t="e">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>levantin,nifurtoinol,nifurtoinolo,nifurtoinolum,urfadin,urfadine,urfadyn</t>
+          <t>levantin,nifurmazol,nifurmazole,nifurmazolo,nifurmazolum,nifurtoinolo,nifurtoinolum,urfadin,urfadine,urfadyn</t>
         </is>
       </c>
       <c r="J290">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>adrovet,alinia,azt + nitazoxanide,colufase,cryptaz,dexidex,heliton,kidonax,nitaxozanid,nitaxozanide,nitazox,nitazoxamide,nitazoxanid,nitazoxanida,nitazoxanide,nitazoxanidum,nitrazoxanide,omniparax,pacovanton,paramix,taenitaz</t>
+          <t>adrovet,alinia,azt + nitazoxanide,colufase,cryptaz,dexidex,heliton,kidonax,nitaxozanid,nitaxozanide,nitazox,nitazoxamide,nitazoxanid,nitazoxanida,nitazoxanidum,nitrazoxanide,omniparax,pacovanton,paramix,taenitaz</t>
         </is>
       </c>
       <c r="J291">
@@ -18386,7 +18386,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fua med,fuamed,furabid,furachel,furadantin,furadantin retard,furadantina mc,furadantine,furadantine mc,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophen t,gerofuran,io&gt;&gt;uss&gt;&gt;a&lt;&lt;ixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantion,nitrofurantoin,nitrofurantoin macro,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,parfuran,phenurin,piyeloseptyl,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
+          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fua med,fuamed,furabid,furachel,furadantin,furadantin retard,furadantina,furadantine,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophen t,gerofuran,io&gt;&gt;uss&gt;&gt;a&lt;&lt;ixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifuraden,nifuradene,nifuradeno,nifuradenum,nifuradine,nifurantin,nifuretten,nitoin,nitrex,nitro macro,nitrofuradantin,nitrofurantion,nitrofurantoin macro,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,oxafuradene,oxafurandene,oxifuradene,oxyfuradene,parfuran,phenurin,piyeloseptyl,renafur,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
         </is>
       </c>
       <c r="J292">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazol w,furazone,furazyme,furesol,furfurin,furosem,fuvacillin,hemofuran,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nfz mix,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazone,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,sanfuran,vabrocid,vadrocid,yatrocin</t>
+          <t>acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazol w,furazone,furazyme,furesol,furfurin,furosem,fuvacillin,hemofuran,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nfz mix,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,sanfuran,vabrocid,vadrocid,yatrocin</t>
         </is>
       </c>
       <c r="J293" t="e">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>galinok,isinok,nibiol,nicene forte,nitroxlina,nitroxolin,nitroxolina,nitroxoline,nitroxolinum,notroxoline,noxibiol</t>
+          <t>galinok,hydron iii,isinok,nibiol,nicene forte,nitroxlina,nitroxolin,nitroxolina,nitroxolinum,notroxoline,noxibiol</t>
         </is>
       </c>
       <c r="J294">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>baccidal,barazan,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,nolicin,noracin,noraxin,norflo,norfloxacin,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,sebercim,uroxacin,utinor,zoroxin</t>
+          <t>baccidal,barazan,bareon,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,logiflox,lomebact,maxaquin,maxaquine,mazaquin,nolicin,noracin,noraxin,norflo,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,okacin,okacyn,sebercim,uniquin,uroxacin,utinor,zoroxin</t>
         </is>
       </c>
       <c r="J295">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>norvancomycin</t>
+          <t>aerovanc,firvanq,firvanq kit,targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
         </is>
       </c>
       <c r="J298" t="e">
@@ -18814,7 +18814,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>albamix,albamycin,cardelmycin,cathocin,cathomycin,crystallinic acid,inamycin,novobiocin,novobiocina,novobiocine,novobiocinum,robiocina,sirbiocina,spheromycin,stilbiocina,streptonivicin</t>
+          <t>albadry,albamast suspension,albamix,albamycin,albamycin capsules,cardelmycin,cardelmycinsalt,cathocin,cathomycin,crystallinic acid,inabiocin,inamycin,novobiocina,novobiocina bomaca,novobiocine,novobiocinsalt,novobiocinum,robiocina,salt novobiocin,sirbiocina,spheromycin,stilbiocina,streptonivicin,streptonivicinsalt,vulcamycin</t>
         </is>
       </c>
       <c r="J299" t="e">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>biofanal,candex lotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatin pastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrade mark,nystaform,nystan,nystatin,nystatin a,nystatin g,nystatin hydrate,nystatin lf,nystatine,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydin e</t>
+          <t>biofanal,candex lotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatin pastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrade mark,nystaform,nystan,nystatin a,nystatin g,nystatine,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydin e</t>
         </is>
       </c>
       <c r="J300">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>bactocin,danoflox,dextrofloxacin,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxin otic,floxstat,fugacin,inoflox,kinflocin,kinoxacin,levofloxacin hcl,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacin,ofloxacin otic,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,uro tarivid,viotisone,visiren,zanocin</t>
+          <t>bactocin,danoflox,dextrofloxacin,dextrofloxacine,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxstat,fugacin,inoflox,kinflocin,kinoxacin,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacin impurity e,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,uro tarivid,viotisone,visiren,zanocin</t>
         </is>
       </c>
       <c r="J301">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>amimycin,landomycin,matromycin,oleandomicina,oleandomycin,oleandomycin a,oleandomycine,oleandomycinum,romicil</t>
+          <t>amimycin,landomycin,matromycin,oleandomicina,oleandomycin a,oleandomycine,oleandomycinum,romicil</t>
         </is>
       </c>
       <c r="J303">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>amadacycline,omadacycline</t>
+          <t>amadacycline</t>
         </is>
       </c>
       <c r="J304">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>numoquin,optochin,optoquine</t>
+          <t>aflukin,auriquin,biquinate,chinidin,chinidine,chinimetten,chinin,chinine,chininum muriaticum,chininum purum,conchinin,conchinine,conquinine,dentojel,dihydrochinidin,dihydroquinidine,dihydroquinine,hydroconchinine,hydroconquinine,hydroquinidine,kinder quinina,kinidin,methanol,numoquin,optoquine,pitayine,qualaquin,quinact,quinaglute,quine,quinicardine,quinidex,quinidine,quiniduran,quinindine,quinine,quinine chloride,quinine muriate,quinine tannate,quinineanhydrous,quinoline alkaloid,quinora,quinsan,rezquin</t>
         </is>
       </c>
       <c r="J305" t="e">
@@ -19244,7 +19244,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>orbifloxacin</t>
+          <t>bareon,logiflox,lomebact,maxaquin,maxaquine,mazaquin,okacin,okacyn,uniquin</t>
         </is>
       </c>
       <c r="J306" t="e">
@@ -19306,7 +19306,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>kimyrsa,oritavancin</t>
+          <t>aerovanc,firvanq,firvanq kit,kimyrsa</t>
         </is>
       </c>
       <c r="J307" t="e">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>madelen,ornidal,ornidazol,ornidazole,ornidazolum,tiberal</t>
+          <t>levornidazole,madelen,ornidal,ornidazol,ornidazole isomer,ornidazolum,tiberal</t>
         </is>
       </c>
       <c r="J309">
@@ -19492,7 +19492,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>oteseconazole</t>
+          <t>quilseconazole,quilseconazole?</t>
         </is>
       </c>
       <c r="J310">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>bactocill,ossacillina,oxacilina,oxacillin,oxacillin sodium,oxacilline,oxacillinum,oxazocillin,oxazocilline,prostaphlin,prostaphlyn,sodium oxacillin</t>
+          <t>bactocill,bristopen,cryptocillin,micropenin,ossacillina,oxabel,oxabelsalt,oxacilina,oxacillin spofa,oxacillinanhydrous,oxacilline,oxacillinhydrate,oxacillinmonohydrate,oxacillinum,oxazocillin,oxazocilline,penstapho,prostaphlin,prostaphlyn,resistopen,stapenor,staphcillin v</t>
         </is>
       </c>
       <c r="J311">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>acide oxolinique,acido ossolico,acido oxolinico,acidum oxolinicum,aqualinic,cistopax,dioxacin,emyrenil,gramurin,inoxyl,nidantin,oksaren,orthurine,ossian,oxoboi,oxolinic,oxolinic acid,pietil,prodoxal,prodoxol,starner,tiurasin,ultibid,urinox,uritrate,urotrate,uroxol,utibid</t>
+          <t>acide oxolinique,acido ossolico,acido oxolinico,acidum oxolinicum,aqualinic,cistopax,dioxacin,emyrenil,gramurin,inoxyl,nidantin,oksaren,orthurine,ossian,oxoboi,oxolinic,pietil,prodoxal,prodoxol,starner,tiurasin,ultibid,urinox,uritrate,urotrate,uroxol,utibid</t>
         </is>
       </c>
       <c r="J312">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>adamycin,berkmycen,biostat,biostat pa,bisolvomycin,dabicycline,dalimycin,embryostat,fanterrin,galsenomycin,geomycin,geotilin,hydroxytetracyclinum,imperacin,lenocycline,macocyn,medamycin,mepatar,oksisyklin,ossitetraciclina,oxacycline,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxydon,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytetracid,oxytetracyclin,oxytetracycline,oxytetracycline base,oxytetracyclinum,proteroxyna,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,tarocyn,tarosin,teravit,terrafungine,terramitsin,terramycin,terramycin im,terramycine,tetran,unimycin,ursocyclin,ursocycline,vendarcin</t>
+          <t>abbocin,achromycin,achromycin v,actisite,adamycin,ala tet,alamycin,aquacycline,artomycin,berkmycen,bi steclin,biosolvomycin,biostat,biotet,bisolvomycin,bristacycline,cefracycline tablets,chrysocin,cyclopar,dabicycline,dalimycin,dalinmycin,diacycine,dumocyclin,elinton,embryostat,engemycin,fanterrin,galsenomycin,geomycin,geotilin,hostacycline,hydrocyclin,hydroxytetracyclinum,imperacin,intaloxin,lenocycline,liquachel,macocyn,macodyn,medamycin,mepatar,mephacyclin,neocyclin b,neocycline b,oksisyklin,ossitetraciclina,otetryn,oxacycline,oxamycen,oxatet,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytet,oxytetracid,oxytetracyclin,oxytetracycline.hcl,oxytetracyclinum,oxytetral,oxytetrin,oxytracyl,oxyvet,paltet,partrex,piracaps,proteroxyna,qidtet,quadracycline,quatrex,remicyclin,retet,ricycline,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,stilciclina,subamycin,sumycin,supramycin,sustamycin,tarocyn,tarosin,tefilin,teline,telotrex,teravit,terrafungine,terraject,terramitsin,terramycin,terramycine,tetrabakat,tetrabid,tetrablet,tetracaps,tetracompren,tetracycline.hcl,tetrakap,tetralution,tetramavan,tetramed,tetran,tetran hydrochloride,tetrasure,tetrosol,topicycline,toxinal,triphacyclin,unicin,unimycin,ursocyclin,ursocycline,vendarcin</t>
         </is>
       </c>
       <c r="J313">
@@ -19746,7 +19746,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>ozadub,ozenoxacin,ozenoxacin cream</t>
+          <t>ozadub,ozenoxacin cream</t>
         </is>
       </c>
       <c r="J314" t="e">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aminopar,aminosalicylic,aminosalicylic acid,aminosalyl,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,neopasalate,osacyl,pamacyl,pamisyl,paramycin,parasal,parasalicil,parasalindon,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnodia,pasolac,propasa,rezipas,teebacin</t>
+          <t>aminacyl,aminopar,aminosalicylate,aminosalicylic,aminosalicylic acid,aminosalyl,aminosalyle,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,nemasol,neopasalate,nippas,osacyl,p.a.s.,pamacyl,pamisyl,paramisan,paramycin,parasal,parasalicil,parasalindon,pasade,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnal,pasnodia,pasolac,passodico,propasa,rezipas,salvis,sodiopas,teebacin</t>
         </is>
       </c>
       <c r="J315" t="e">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>panipenem,panipenem/betamipron,panipenemum,penipanem</t>
+          <t>panipenam,panipenem/betamipron,panipenemum,penipanem</t>
         </is>
       </c>
       <c r="J316" t="e">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aminosidin,aminosidine,aminosidine i,aminosidine sulfate,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,hydroxymycin sulfate,monomycin,monomycin a,neomycin e,paramomycin,paramomycin sulfate,paromomicina,paromomycin,paromomycin i,paromomycine,paromomycinum,paucimycin,paucimycinum,quintomycin c</t>
+          <t>aminosidin,aminosidine,aminosidine i,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,monomycin,monomycin a,neomycin e,paramomycin,paromomicina,paromomycin i,paromomycine,paromomycinum,paucimycin,paucimycinum,quintomycin c</t>
         </is>
       </c>
       <c r="J317">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>pazufloxacin,pazufloxacine,pazufloxacino,pazufloxacinum</t>
+          <t>pazufloxacine,pazufloxacino,pazufloxacinum</t>
         </is>
       </c>
       <c r="J318" t="e">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>abactal,labocton,pefloxacin,pefloxacine,pefloxacinium,pefloxacino,pefloxacinum,perfloxacin,silver pefloxacin</t>
+          <t>abactal,labocton,pefloxacine,pefloxacinium,pefloxacino,pefloxacinum,perfloxacin,silver pefloxacin</t>
         </is>
       </c>
       <c r="J319">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>hydroxymethyl,penamecilina,penamecillin,penamecillina,penamecilline,penamecillinum</t>
+          <t>alphacilina,alphacillin,bacbenzylpenicillin,berocillin,centurina,devonium,diancina,hydroxymethyl,inacilin,maxifen,penamecilina,penamecillina,penamecilline,penamecillinum,pivatil,pondocil,pondocillin,pondocillina,sanguicillin</t>
         </is>
       </c>
       <c r="J320">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>criseocil,duamine,geotricyn,hydrocycline,penetracyne,penimepiciclina,penimepicycline,penimepicyclinum</t>
+          <t>criseocil,duamine,geotricyn,hydrocycline,penetracyne,penimepiciclina,penimepicyclinum</t>
         </is>
       </c>
       <c r="J323" t="e">
@@ -20354,7 +20354,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>pentisomicin,pentisomicina,pentisomicine,pentisomicinum</t>
+          <t>pentisomicina,pentisomicine,pentisomicinum</t>
         </is>
       </c>
       <c r="J324" t="e">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>pentizidona,pentizidone,pentizidonum</t>
+          <t>pentizidona,pentizidonum</t>
         </is>
       </c>
       <c r="J325" t="e">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>pexiganan</t>
+          <t>cytolex,mangainin</t>
         </is>
       </c>
       <c r="J326" t="e">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>feneticilina,feneticillin,feneticillina,feneticilline,k phenethicillin,phenethicilin,phenethicillinum,pheneticillin,pheneticilline,pheneticillinum,phenoxy pc,potassium penicillin,synthepen</t>
+          <t>alfacillin,alticina,antibiocin,apsin,arcacil,arcasin,aspin,astracillin,bendralan,beromycin,brocsil,broxil,calciopen k,chemipen,cliacil,compocillin,darcil,dramcillin s,feneticilina,feneticillin,feneticillina,feneticilline,fenocin,icipen,isocillin,ispenoral,k phenethicillin,kavepenin,ledercillin,maxipen,megacillin,optipen,oracilline,oralopen,orapen,orocillin,ospeneff,pedipen,pen v,pen,penagen,penapar,pencompren,penemve,penicillin,penicillin v,penicillin vk+,peniplus,penova,pensig,penvikal,pfizerpen,phenethicilin,phenethicillinum,pheneticilline,pheneticillinum,phenoxy,potassium penicillin,primcillin,priospen,qidpen,robicillin,roscopenin,semopen,sumapen,suspen,synapen,syncillin,synerpenin,synthecillin,synthecilline,synthepen,synthepen tabl,triospen,uticillin,vamosyn,veetids,vepen</t>
         </is>
       </c>
       <c r="J327">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>acipen v,apocillin,apopen,beromycin,calcipen,compocillin v,crystapen v,distaquaine v,eskacillian v,eskacillin v,fenacilin,fenospen,meropenin,oracillin,oratren,pc pen vk,penicillin v,penicillinv,phenocillin,phenomycilline,phenopenicillin,robicillin,rocilin,stabicillin,vebecillin,veetids,vegacillin</t>
+          <t>acipen v,alfacillin,alticina,antibiocin,apocillin,apopen,apsin,arcacil,arcasin,aspin,astracillin,bendralan,beromycin,brocsil,broxil,calciopen k,calcipen,chemipen,cliacil,compocillin v,compocillin,crystapen v,darcil,distaquaine v,dramcillin s,eskacillian v,eskacillin v,fenacilin,feneticilline,fenocin,fenospen,icipen,isocillin,ispenoral,k phenethicillin,kavepenin,ledercillin,maxipen,megacillin,meropenin,optipen,oracillin,oracilline,oralopen,orapen,oratren,orocillin,ospeneff,pc pen,pedipen,pen v,pen,penagen,penapar,pencompren,penemve,penicillin,penicillin v,penicillin vk+,penicillinv,peniplus,penova,pensig,penvikal,pfizerpen,phenocillin,phenomycilline,phenopenicillin,potassium penicillin,primcillin,priospen,qidpen,robicillin,rocilin,roscopenin,semopen,stabicillin,sumapen,suspen,synapen,syncillin,synerpenin,synthecillin,synthecilline,synthepen,synthepen tabl,triospen,uticillin,vamosyn,vebecillin,veetids,vegacillin,vepen</t>
         </is>
       </c>
       <c r="J328">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>delvocid,delvolan,delvopos,mycophyt,myprozine,natacyn,natafucin,natamicina,natamycin,natamycine,natamycinum,pimafucin,pimaracin,pimaricin,pimaricine,pimarizin,synogil,tennecetin</t>
+          <t>delvocid,delvolan,delvopos,mycophyt,myprozine,natacyn,natafucin,natamicina,natamycin,natamycine,natamycinum,pimafucin,pimaracin,pimaricine,pimarizin,synogil,tennecetin</t>
         </is>
       </c>
       <c r="J329" t="e">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>acide pipemidique,acido pipemidico,acidum pipemidicum,deblaston,dolcol,filtrax,pipedac,pipemid,pipemidate,pipemidic,pipemidic acid,pipemidicacid,pipram,pipurin,tractur,uromidin,urosten,uroval</t>
+          <t>acide pipemidique,acido pipemidico,acidum pipemidicum,deblaston,dolcol,filtrax,karunomazin,pipedac,pipemid,pipemidate,pipemidic,pipemidicacid,pipram,pipurin,pyrido,tractur,uromidin,urosten,uroval</t>
         </is>
       </c>
       <c r="J330">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>isipen,pentcillin,peperacillin,peracin,piperacilina,piperacillin,piperacillin hydrate,piperacillin na,piperacillin sodium,piperacillina,piperacilline,piperacillinum,pipercillin,pipracil,pipril,tazocin</t>
+          <t>ab piperacillin,isipen,penmalin,pentcillin,peperacillin,peracin,piperacilina,piperacillina,piperacilline,piperacillinhydrate,piperacillinsalt,piperacillinum,pipercillin,pipracil,pipracil sterile,pipril,tazocin,zosyn sterile</t>
         </is>
       </c>
       <c r="J331" t="e">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>tazocel,tazocillin,tazocin,zosyn</t>
+          <t>piptazobactam,tazobac,tazocel,tazocillin,tazocilline,tazocin,tazonam,zobactin,zosyn</t>
         </is>
       </c>
       <c r="J333" t="e">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>piridicillin</t>
+          <t/>
         </is>
       </c>
       <c r="J334" t="e">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>pirlimycin,pirlimycina,pirlimycine,pirlimycinum,pirsue</t>
+          <t>pirlimycina,pirlimycine,pirlimycinum,pirsue</t>
         </is>
       </c>
       <c r="J335" t="e">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>acide piromidique,acido piromidico,acidum piromidicum,actrun c,bactramyl,enterol,gastrurol,panacid,pirodal,piromidate,piromidic acid,piromidicacid,pyrido,reelon,septural,urisept,uropir,zaomeal</t>
+          <t>acide piromidique,acido piromidico,acidum piromidicum,actrun c,bactramyl,enterol,gastrurol,panacid,pirodal,piromidate,piromidicacid,pyrido,reelon,septural,urisept,uropir,zaomeal</t>
         </is>
       </c>
       <c r="J336">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>berocillin,pivaloylampicillin,pivampicilina,pivampicillin,pivampicilline,pivampicillinum,pondocillin</t>
+          <t>alphacilina,alphacillin,ambacamp,ambaxin,bacacil,berocillin,centurina,devonium,diancina,inacilin,maxifen,pivaloylampicillin,pivampicilina,pivampicilline,pivampicillinum,pivatil,pondocil,pondocillin,pondocillina,sanguicillin,spectrobid,velbacil</t>
         </is>
       </c>
       <c r="J337">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>amdinocillin pivoxil,coactabs,hydroxymethyl,pivmecilinamo,pivmecillinam,pivmecillinam hcl,pivmecillinamum</t>
+          <t>amdinocillin pivoxil,coactabs,hydroxymethyl,melysin,pivmecilinamo,pivmecillinamum,pivya,selexid</t>
         </is>
       </c>
       <c r="J338">
@@ -21272,7 +21272,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>plazomicin,zemdri</t>
+          <t>zemdri</t>
         </is>
       </c>
       <c r="J339" t="e">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>polimixina b,polumyxin b,polymixin b,polymyxine b</t>
+          <t>aerosporin,polimixina b,polumyxin b,polymixin b,polymyxine b</t>
         </is>
       </c>
       <c r="J340">
@@ -21458,7 +21458,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>noxafil,posaconazole,posaconazole sp,posconazole</t>
+          <t>noxafil,posconazole</t>
         </is>
       </c>
       <c r="J342">
@@ -21520,7 +21520,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>pradofloxacin,pudofloxacin,veraflox</t>
+          <t>pudofloxacin,veraflox</t>
         </is>
       </c>
       <c r="J343" t="e">
@@ -21578,7 +21578,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>premafloxacin,remafloxacin</t>
+          <t>lasvic,remafloxacin</t>
         </is>
       </c>
       <c r="J344" t="e">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>oxazine,pretomanid</t>
+          <t>oxazine</t>
         </is>
       </c>
       <c r="J345">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>primycin</t>
+          <t>chinopricin,debrycin,guanidine,primycin a</t>
         </is>
       </c>
       <c r="J346" t="e">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>eskalin v,mikamycin,mikamycine,mikamycinum,ostreogrycinum,pristinamycine,pristinamycinum,stafac,stafytracine,staphylomycin,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamycin,virginiamycina,virginiamycine,virginiamycinum</t>
+          <t>eskalin,eskalin v,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycinum</t>
         </is>
       </c>
       <c r="J347">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>depocillin,duphapen,hostacillin,hydracillin,jenacillin o,nopcaine,penicillin procaine,retardillin,vetspen,vitablend</t>
+          <t>afsillin,aquacilina,aquacillin,aquasuspen,avloprocil,bactracillin g,cilicaine,crysticillin,depocillin,despacilina,distaquaine,duphapen,duracillin,hostacillin,hydracillin,jenacillin o,kabipenin,ledercillin,millicillin,mylipen,neoproc,nopcaine,novocaine penicillin,parencillin,penaquacaine g,penicillin procaine,premocillin,procaine penicillin,procanodia,prostabillin,retardillin,sharcillin,vetspen,vitablend,wycillin</t>
         </is>
       </c>
       <c r="J348" t="e">
@@ -21890,7 +21890,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>propicilina,propicillin,propicilline,propicillinum</t>
+          <t>alfacillin,alticina,antibiocin,apsin,arcacil,arcasin,aspin,astracillin,bendralan,beromycin,brocsil,broxil,calciopen k,chemipen,cliacil,compocillin,darcil,dramcillin s,feneticilline,fenocin,icipen,isocillin,ispenoral,k phenethicillin,kavepenin,ledercillin,maxipen,megacillin,optipen,oracilline,oralopen,orapen,orocillin,ospeneff,pedipen,pen v,pen,penagen,penapar,pencompren,penemve,penicillin,penicillin v,penicillin vk+,peniplus,penova,pensig,penvikal,pfizerpen,potassium penicillin,primcillin,priospen,propicilina,propicilline,propicillinum,qidpen,robicillin,roscopenin,semopen,sumapen,suspen,synapen,syncillin,synerpenin,synthecillin,synthecilline,synthepen,synthepen tabl,triospen,uticillin,vamosyn,veetids,vepen</t>
         </is>
       </c>
       <c r="J349">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>propikacin,propikacina,propikacine,propikacinum</t>
+          <t>gentamicin a,gentamycin a,propikacina,propikacine,propikacinum</t>
         </is>
       </c>
       <c r="J350" t="e">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>ektebin,peteha,prothionamide,prothionamidum,protion,protionamid,protionamida,protionamide,protionamidum,protionizina,tebeform,trevintix,tuberex</t>
+          <t>ektebin,peteha,prothionamide,prothionamidum,protion,protionamid,protionamida,protionamidum,protionizina,tebeform,trevintix,tuberex</t>
         </is>
       </c>
       <c r="J351">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>prulifloxacin,pruvel,pufloxacin dioxolil,quisnon</t>
+          <t>pruvel,pufloxacin dioxolil,quisnon</t>
         </is>
       </c>
       <c r="J352">
@@ -22140,7 +22140,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,p ezetamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamide,pyrazinamidum,pyrazine carboxamide,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
+          <t>aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,p ezetamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamidum,pyrazine carboxamide,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
         </is>
       </c>
       <c r="J353">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t/>
+          <t>synercid</t>
         </is>
       </c>
       <c r="J354" t="e">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>optaflexx,paylean,ractopamina,ractopamine,ractopaminum</t>
+          <t>bufenina,buphenin,buphenine,bupheninum,luteonin,nilidrine,nylidrin,nylidrinum,optaflexx,paylean,ractopamina,ractopaminum,ritodrin,ritodrina,ritodrine,ritodrinium,utopar,yutopar</t>
         </is>
       </c>
       <c r="J355" t="e">
@@ -22320,7 +22320,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>ramoplanin</t>
+          <t/>
         </is>
       </c>
       <c r="J356" t="e">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>razupenem</t>
+          <t/>
         </is>
       </c>
       <c r="J357" t="e">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>altabax,altargo,retapamulin</t>
+          <t>altabax,altargo</t>
         </is>
       </c>
       <c r="J358" t="e">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>kisqali,ribociclib</t>
+          <t>kisqali</t>
         </is>
       </c>
       <c r="J360">
@@ -22624,7 +22624,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>dekamycin iv,hetangmycin,ribastamin,ribostamicina,ribostamycin,ribostamycine,ribostamycinum,vistamycin,xylostatin</t>
+          <t>dekamycin,exaluren,hetangmycin,ribastamin,ribostamicina,ribostamycine,ribostamycinum,vistamycin,xylostatin</t>
         </is>
       </c>
       <c r="J361" t="e">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>ridinilazole</t>
+          <t/>
         </is>
       </c>
       <c r="J362" t="e">
@@ -22746,7 +22746,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>alfacid,ansamicin,ansamycin,ansatipin,ansatipine,assatipin,mycobutin,rifabutin,rifabutina,rifabutine,rifabutinum</t>
+          <t>alfacid,ansamicin,ansamycin,ansatipin,ansatipine,assatipin,mycobutin,rifabutina,rifabutine,rifabutinum</t>
         </is>
       </c>
       <c r="J363">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>abrifam,archidyn,arficin,arzide,azt + rifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadin i.v,rifadin i.v.,rifadine,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicin amp,rifamor,rifampicin,rifampicin sv,rifampicina,rifampicine,rifampicinum,rifampin,rifamsolin,rifamycin amp,rifapiam,rifaprodin,rifcin,rifinah,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactazid,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
+          <t>abrifam,archidyn,arficin,arzide,azt + rifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadine,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicin amp,rifamor,rifampicina,rifampicine,rifampicinum,rifampin,rifamsolin,rifamycin amp,rifapiam,rifaprodin,rifcin,rifinah,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactazid,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
         </is>
       </c>
       <c r="J364">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t/>
+          <t>isonarif,macox plus,rifamate,rifamazid,rifamazid i,rifinah,rimactazid</t>
         </is>
       </c>
       <c r="J365" t="e">
@@ -23124,7 +23124,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>aemcolo,rifacin,rifamicina,rifamicine sv,rifamycin,rifamycine,rifamycinum,rifocin,rifocyn,rifomycin,rifomycin sv,tuborin</t>
+          <t>acetic acid,aemcolo,nacimycin,nancimycin,otofa,rifacin,rifamastene,rifamicina,rifamicine,rifamycin b,rifamycin svsalt,rifamycine,rifamycinimpurity a,rifamycinum,rifamycinum natricum,rifaximin impurity b,rifocin,rifocyn,rifomycin,rifomycin b,tuborin</t>
         </is>
       </c>
       <c r="J369">
@@ -23190,7 +23190,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>cyclopentyl rifampin,prifitin,priftin,rifapentin,rifapentina,rifapentine,rifapentinum</t>
+          <t>cyclopentyl rifampin,prifitin,priftin,rifapentin,rifapentina,rifapentinum</t>
         </is>
       </c>
       <c r="J370">
@@ -23254,7 +23254,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>fatroximin,flonorm,lormyx,lumenax,normix,redactiv,rifacol,rifamixin,rifaxidin,rifaximin,rifaximina,rifaximine,rifaximinum,rifaxin,ritacol,spiraxin,xifaxan,xifaxsan</t>
+          <t>fatroximin,flonorm,lormyx,lumenax,normix,redactiv,rifacol,rifamixin,rifaxidin,rifaximina,rifaximine,rifaximinum,rifaxin,ritacol,spiraxin,xifaxan,xifaxsan</t>
         </is>
       </c>
       <c r="J371">
@@ -23314,7 +23314,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>ritipenem</t>
+          <t>ritipenemsalt</t>
         </is>
       </c>
       <c r="J372" t="e">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>ritipenem acoxil</t>
+          <t>penemac</t>
         </is>
       </c>
       <c r="J373" t="e">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>propionylleucomycin,ricamycin,rokicid,rokital,rokitamicina,rokitamycin,rokitamycine,rokitamycinum</t>
+          <t>medemycin,mydecamycin,propionylleucomycin,ricamycin,rokicid,rokital,rokitamicina,rokitamycine,rokitamycinum</t>
         </is>
       </c>
       <c r="J374">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>bristacin,kinteto,reverin,rolitetraciclina,rolitetracycline,rolitetracyclinum,solvocillin,superciclin,synotodecin,synterin,syntetrex,syntetrin,transcycline,velacicline,velacycline</t>
+          <t>bristacin,colbiocin,kinteto,pyrrocycline n,reverin,rolitetraciclina,rolitetracyclinum,solvocillin,superciclin,synotodecin,synterin,syntetrex,syntetrin,syntetrin nitrate,tetraverin,tetrex pmt,tetrim,tetriv,transcycline,velacicline,velacycline</t>
         </is>
       </c>
       <c r="J375" t="e">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>acrosoxacin,eracine,eradacil,eradacin,eradicin,rosoxacin,rosoxacine,rosoxacino,rosoxacinum,roxadyl,winoxacin,winuron</t>
+          <t>acrosoxacin,eracine,eradacil,eradacin,eradicin,rosoxacine,rosoxacino,rosoxacinum,roxadyl,winoxacin,winuron</t>
         </is>
       </c>
       <c r="J376">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>roxithromycin,roxithromycine,roxithromycinum,roxitromicina,rulide</t>
+          <t>roxithromycine,roxithromycinum,roxitromicina,rulide</t>
         </is>
       </c>
       <c r="J377">
@@ -23690,7 +23690,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>rufloxacin,rufloxacin hcl,rufloxacine,rufloxacino,rufloxacinum</t>
+          <t>monos,rufloxacine,rufloxacino,rufloxacinum,tebraxin</t>
         </is>
       </c>
       <c r="J378">
@@ -23750,7 +23750,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>coxistac,procoxacin,salinomicina,salinomycin,salinomycine,salinomycinum</t>
+          <t>coxistac,procoxacin,salinomicina,salinomycine,salinomycinum</t>
         </is>
       </c>
       <c r="J379" t="e">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>difloxacine,difloxacino,difloxacinum,quinolone der.,saraflox,sarafloxacin,sarafloxacine,sarafloxacino,sarafloxacinum</t>
+          <t>difloxacine,difloxacino,difloxacinum,quinolone der.,sarafin,saraflox,saraflox injectable,saraflox wsp,sarafloxacine,sarafloxacino,sarafloxacinum</t>
         </is>
       </c>
       <c r="J380" t="e">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sarecycline,seysara</t>
+          <t>sarecycline?,seysara</t>
         </is>
       </c>
       <c r="J381">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sarmoxicillin</t>
+          <t>sarmoxillina,sarmoxilline,sarmoxillinum</t>
         </is>
       </c>
       <c r="J382" t="e">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>flagentyl,secnidal,secnidazol,secnidazole,secnidazolum,secnil,sindose,solosec</t>
+          <t>flagentyl,secnidal,secnidazol,secnidazolum,secnil,sindose,solosec</t>
         </is>
       </c>
       <c r="J383">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>rickamicin,salvamina,siseptin sulfate,sisomicin,sisomicin sulfate,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
+          <t>rickamicin,salvamina,siseptin,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
         </is>
       </c>
       <c r="J385" t="e">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>gracevit,sitafloxacin,sitafloxacinisomer</t>
+          <t>clinafoxacin,gracevit,sitafloxacinisomer,spifloxacin</t>
         </is>
       </c>
       <c r="J386">
@@ -24238,7 +24238,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>bactylan,decapasil,lepasen,monopas,nippas,p.a.s. sodium,pamisyl sodium,parasal sodium,pas sodium,pasade,pasnal,passodico,salvis,sanipirol,sodiopas,sodium p.a.s,sodium pas,teebacin,tubersan</t>
+          <t>aminacyl,aminosalicylate,aminosalyle,bactylan,decapasil,lepasen,monopas,nemasol,nippas,p.a.s.,pamisyl,paramisan,parasal,pas,pasade,paskalium,pasnal,passodico,salvis,sanipirol,sodiopas,p.a.s,teebacin,tubersan</t>
         </is>
       </c>
       <c r="J387">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>solithera,solithromycin</t>
+          <t>solithera</t>
         </is>
       </c>
       <c r="J388" t="e">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>esparfloxacino,sparfloxacin,sparfloxacine,sparfloxacinum</t>
+          <t>esparfloxacino,sparfloxacine,sparfloxacinum</t>
         </is>
       </c>
       <c r="J389">
@@ -24426,7 +24426,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>actinospectacina,adspec,espectinomicina,prospec,specitinomycin,spectam,spectinomicina,spectinomycin,spectinomycin di hcl,spectinomycine,spectinomycinum,stanilo,togamycin,trobicin</t>
+          <t>actinospectacina,adspec,espectinomicina,prospec,specitinomycin,spectam,spectam scour halt,spectinomicina,spectinomycin dihcl,spectinomycine,spectinomycinum,spectogard,stanilo,togamycin,trobicin</t>
         </is>
       </c>
       <c r="J390" t="e">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>espiramicin,provamycin,rovamycin,rovamycine,sequamycin,spiramycine,spiramycinum</t>
+          <t>espiramicin,formacidine,foromacidin,foromacidin a,provamycin,rovamicina,rovamycin,rovamycine,sequamycin,spiramycin i,spiramycine,spiramycinum</t>
         </is>
       </c>
       <c r="J391">
@@ -24680,7 +24680,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>agrept,agrimycin,chemform,estreptomicina,neodiestreptopab,strepcen,streptomicina,streptomycin,streptomycin a,streptomycin spx,streptomycin sulfate,streptomycine,streptomycinum,streptomyzin,vetstrep</t>
+          <t>agrept,agrimycin,chemform,estreptomicina,hydroxystreptomycin,neodiestreptopab,reticulin,strepcen,streptomicina,streptomycin a,streptomycin b,streptomycin c,streptomycin spx,streptomycine,streptomycinum,streptomyzin,vetstrep</t>
         </is>
       </c>
       <c r="J394" t="e">
@@ -24864,7 +24864,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>betamaze,sulbactam,sulbactam acid,sulbactam free acid,sulbactamum</t>
+          <t>betamaze,sulbactam acid,sulbactam free acid,sulbactamum</t>
         </is>
       </c>
       <c r="J397" t="e">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>kedacillina,sulbenicilina,sulbenicillin,sulbenicilline,sulbenicillinum</t>
+          <t>kedacillina,penicillin sulfoxide,sulbenicilina,sulbenicilline,sulbenicillinum</t>
         </is>
       </c>
       <c r="J398" t="e">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sulconazol,sulconazole,sulconazolum</t>
+          <t>sulconazol,sulconazolum</t>
         </is>
       </c>
       <c r="J399" t="e">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone vet,prinzone vet.,solfaclorpiridazina,sonilyn,sulfachlorpyridazine,sulfacloropiridazina,vetisulid</t>
+          <t>cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone,solfaclorpiridazina,sonilyn,sulfacloropiridazina,vetisulid</t>
         </is>
       </c>
       <c r="J400" t="e">
@@ -25108,7 +25108,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>adiazin,adiazine,cocodiazine,codiazine,cremodiazine,cremotres,debenal,deltazina,diazin,diazolone,diazovit,diazyl,eskadiazine,honey diazine,liquadiazine,microsulfon,neazine,neotrizine,nsulfanilamide,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,sildaflo,silvadene,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazine,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonamides duplex,sulfonsol,sulfose,sulphadiazine,sulphadiazine e,terfonyl,theradiazine,thermazene,trifonamide,triple sulfa,triple sulfas,trisem,truozine,zinc sulfadiazine</t>
+          <t>adiazin,adiazine,cocodiazine,codiazine,cremodiazine,cremotres,debenal,deltazina,dermazin,dermazine,diazin,diazolone,diazovit,diazyl,eskadiazine,flamazine,geben,honey diazine,liquadiazine,microsulfon,n salt,neazine,neotrizine,nsulfanilamide,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,rayasore kit,sanodiazine,silbertone,sildaflo,silvadene,silvazine,silver  sulfadiazine,silver sulfadazine,silver sulfadiazene,silver sulfadiazine,silver sulfafdiazine,silver sulphadiazine,silveramide,sliverex,solfadiazina,spofadrizine,ssd cream,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazin silber,sulfadiazina,sulfadiazine silver,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonamides duplex,sulfonsol,sulfose,sulphadiazine,sulphadiazine e,terfonyl,theradiazine,thermazene,trifonamide,triple sulfa,triple sulfas,trisem,truozine,zinc sulfadiazine</t>
         </is>
       </c>
       <c r="J401">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>cotetroxazine</t>
+          <t>berlocombin,cotetroxazine,potesept,trimerazine</t>
         </is>
       </c>
       <c r="J402" t="e">
@@ -25234,7 +25234,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>antastmon,cotrimazine,diaziprim forte,ditrim,ditrivet,sultrisan,triglobe,trimin,tucoprim,uniprim</t>
+          <t>antastmon,berlocombin,cotrimazine,diaziprim forte,ditrim,ditrivet,potesept,sultrisan,triglobe,trimerazine,trimin,tucoprim,uniprim</t>
         </is>
       </c>
       <c r="J403" t="e">
@@ -25296,7 +25296,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>agribon,arnosulfan,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamide,omnibon,persulfen,primor,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxine,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfadimoxine,sulfastop,sulfdimethoxine,sulfoplan,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
+          <t>agribon,arnosulfan,bactotril,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamide,nsulfanilamidesalt,nsulphanilamide,omnibon,persulfen,primor,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxinesalt,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfadimoxine,sulfamoprine,sulfastop,sulfdimethoxine,sulfoplan,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
         </is>
       </c>
       <c r="J404">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>azolmetazin,benzene sulfonamide,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidine,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazine,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan</t>
+          <t>azolmetazin,benzene sulfonamide,bovibol,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,nsulfanilamidesalt,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimetine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazinesalt,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfisomidin,sulfisomidine,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan,vesadin</t>
         </is>
       </c>
       <c r="J405">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazole,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazole,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
+          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulfanilamidesalt,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolesalt,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
         </is>
       </c>
       <c r="J407">
@@ -25552,7 +25552,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aristamid,aristamide,aristogyn,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,isosulf,mefenal,nsulfanilamide,solfisomidina,sulfadimetine,sulfaisodimerazine,sulfaisodimidine,sulfaisodimidinum,sulfaisomidine,sulfamethin,sulfasomidine,sulfisomidina,sulfisomidine,sulfisomidine sodium,sulfisomidinum,sulphasomidine</t>
+          <t>aristamid,aristamid augensalbe,aristamide,aristogyn,bovibol,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,intradine,isosulf,mefenal,nsulfanilamide,nsulfanilamidesalt,solfisomidina,sulfadimetine,sulfadimidin,sulfaisodimerazine,sulfaisodimidinum,sulfaisomidine,sulfamethazinesalt,sulfamethin,sulfasomidine,sulfisomidin,sulfisomidina,sulfisomidine,sulfisomidinum,sulphasomidine,vesadin</t>
         </is>
       </c>
       <c r="J408">
@@ -25618,7 +25618,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>dalysep,kelfizin,kelfizina,kelfizine,kelfizine w,longum,nsulfanilamide,policydal,polycidal,solfametopirazina,sulfalen,sulfalene,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
+          <t>dalysep,kelfizin,kelfizina,kelfizine,kelfizine w,longum,nsulfanilamide,policydal,polycidal,solfametopirazina,sulfalen,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
         </is>
       </c>
       <c r="J409">
@@ -25682,7 +25682,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sulfamazon,sulfamazona,sulfamazone,sulfamazonum</t>
+          <t>marespin,sulfamazon,sulfamazona,sulfamazonum</t>
         </is>
       </c>
       <c r="J410">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>cremomerazine,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,nsulfanilamide,percoccide,pyralcid,pyrimal m,romezin,septacil,septosyl,solfamerazina,solumedin,solumedine,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazine,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine,susfamerazine</t>
+          <t>cremomerazine,dermazin,dermazine,flamazine,geben,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,n salt,nsulfanilamide,percoccide,pyralcid,pyrimal m,rayasore kit,romezin,septacil,septosyl,silbertone,sildaflo,silvadene,silvazine,silver  sulfadiazine,silver sulfadazine,silver sulfadiazene,silver sulfadiazine,silver sulfafdiazine,silver sulphadiazine,silveramide,sliverex,solfamerazina,solumedin,solumedine,ssd cream,sulfadiazin silber,sulfadiazine silver,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine,susfamerazine,thermazene</t>
         </is>
       </c>
       <c r="J411">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>azolmetazin,benzene sulfonamide,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidine,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazine,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan</t>
+          <t>azolmetazin,benzene sulfonamide,bovibol,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,nsulfanilamidesalt,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimetine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazinesalt,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfisomidin,sulfisomidine,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan,vesadin</t>
         </is>
       </c>
       <c r="J413" t="e">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>ayerlucil,lucosil,methazol,microsul,nsulfanilamide,proklar,renasul,salimol,solfametizolo,sulamethizole,sulfa gram,sulfamethizol,sulfamethizole,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphamethizole,tetracid,thidicur,thiosulfil,thiosulfil forte,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
+          <t>aethazol,aethazolum,ayerlucil,berlophen,etazol,etazole,ethazole,gliprotiazol,globucid,globucin,globuzid,glyprothiazol,glyprothiazole,glyprothiazolum,glyprothizol,glyprothizolum,lucosil,methazol,microsul,nsulfanilamide,pasit,proklar,renasul,salimol,sethadil,solfametizolo,solfetidolo,sulamethizole,sulfa gram,sulfaethidiole,sulfaethidol,sulfaethidole,sulfaethidolum,sulfaetidol,sulfamethizol,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphaethidole,sulphamethizole,tardipyrine,tetracid,thidicur,thiosulfil,thiosulfil forte,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
         </is>
       </c>
       <c r="J414">
@@ -25994,7 +25994,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>azo gantanol,gamazole,gantanol,gantanol ds,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfisomezole,sulmeprim,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
+          <t>azo gantanol,gamazole,gantanol,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfiodizole,sulfisomezole,sulmeprim,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
         </is>
       </c>
       <c r="J415">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>altezol,davosin,depovernil,kineks,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,nsulfanilamide,opinsul,paramid,paramid supra,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,sulfalex,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
+          <t>altezol,cysul,davosin,depovernil,kineks,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,nsulfanilamide,nsulphanilamide,opinsul,paramid,paramid supra,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,sulfalex,sulfapiridazin,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
         </is>
       </c>
       <c r="J416">
@@ -26122,7 +26122,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>duroprocin,methofadin,methofazine,nsulfanilamide,solfametomidina,sulfamethomidine,sulfametomidin,sulfametomidina,sulfametomidine,sulfametomidinum</t>
+          <t>bactotril,duroprocin,methofadin,methofazine,nsulfanilamide,nsulfanilamidesalt,solfametomidina,sulfadimethoxinesalt,sulfamethomidine,sulfametomidin,sulfametomidina,sulfametomidinum,sulphadimethoxine</t>
         </is>
       </c>
       <c r="J417" t="e">
@@ -26184,7 +26184,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,longasulf,methoxypyrimal,nsulfanilamide,solfametossidiazina,sulfameter,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorin,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazine,sulfametoxydiazinum,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
+          <t>bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,longasulf,methoxypyrimal,nsulfanilamide,solfametossidiazina,sulfameter,sulfametersalt,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorin,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazinum,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
         </is>
       </c>
       <c r="J418">
@@ -26310,7 +26310,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>justamil,nsulfanilamide,oxasulfa,solfamossolo,sulfadimethyloxazole,sulfamoxol,sulfamoxole,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
+          <t>enterocura,justamil,nsulfanilamide,oxasulfa,solfaguanolo,solfamossolo,sulfadimethyloxazole,sulfaguanol,sulfaguanole,sulfaguanolum,sulfamoxol,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
         </is>
       </c>
       <c r="J420">
@@ -26438,7 +26438,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,desseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,gerison,gombardol,infepan,lysococcine,neococcyl,orgaseptine,prontalbin,prontosil album,prontosil i,prontosil white,prontylin,pronzin album,proseptal,proseptine,proseptol,pysococcine,rubiazol a,sanamid,septamide album,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stopton album,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocid album,streptocide,streptocide white,streptocidum,streptoclase,streptocom,streptol,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamida,sulfanilamide,sulfanilamidum,sulfanilimidic acid,sulfanimide,sulfocidin,sulfocidine,sulfonamide,sulfonamide p,sulfonylamide,sulphanilamide,sulphanilamide gr,sulphanilamidum,sulphonamide,therapol,tolder,white streptocide</t>
+          <t>albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,desseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,gerison,gombardol,infepan,lysococcine,neococcyl,orgaseptine,prontalbin,prontosil album,prontosil i,prontosil white,prontylin,pronzin album,proseptal,proseptine,proseptol,pysococcine,rubiazol a,sanamid,septamide album,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stopton album,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocid album,streptocide,streptocide white,streptocidum,streptoclase,streptocom,streptol,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamid,sulfanilamida,sulfanilamidomethan,sulfanilamidum,sulfanilimidic acid,sulfanimide,sulfocidin,sulfocidine,sulfonamide p,sulfonylamide,sulphanilamide,sulphanilamidum,sulphonamide,therapol,tolder,white streptocide</t>
         </is>
       </c>
       <c r="J422" t="e">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>anastaf,archisulfa,avissul,chemiopen,demosulfan,durisan saft,ipersulfidin sirup,isosulfamerazine,methylsulfadiazin,methylsulfadiazine,novosul,nsulfanilamide,orosulfan,pallidin,retardon,risulfasens,sulfaperin,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,ultrasulfon sirup</t>
+          <t>anastaf,archisulfa,avissul,chemiopen,demosulfan,durisan saft,ipersulfidin sirup,isosulfamerazine,methylsulfadiazin,methylsulfadiazine,novosul,nsulfanilamide,orosulfan,pallidin,retardon,risulfasens,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,ultrasulfon sirup</t>
         </is>
       </c>
       <c r="J423">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,isarol v,merian,microtan pirazolo,nsulfanilamide,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazole,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
+          <t>depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,isarol v,merian,microtan pirazolo,nsulfanilamide,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
         </is>
       </c>
       <c r="J424">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,septipulmon,solfapiridina,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridine,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
+          <t>adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,septipulmon,solfapiridina,soludagenan,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
         </is>
       </c>
       <c r="J425">
@@ -26688,7 +26688,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>ambesid,derganil,sulfasuccinamid,sulfasuccinamida,sulfasuccinamide,sulfasuccinamidum</t>
+          <t>ambesid,derganil,sulfasuccinamid,sulfasuccinamida,sulfasuccinamidum</t>
         </is>
       </c>
       <c r="J426" t="e">
@@ -26750,7 +26750,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,nsulfanilamide,planomide,poliseptil,sanotiazol,septozol,sodium sulfathiazole,solfatiazolo,streptosilthiazole,sulfamul,sulfathiazol,sulfathiazole,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,triple sulfa,wintrazole</t>
+          <t>azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,nsulfanilamide,planomide,poliseptil,sanotiazol,septozol,silver sulfathiazole,solfatiazolo,soluthiazomide,streptosilthiazole,sulfamul,sulfathiazol,sulfathiazole silver,sulfathiazolesalt,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,triple sulfa,wintrazole</t>
         </is>
       </c>
       <c r="J427" t="e">
@@ -26812,7 +26812,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathiourea,sulfathiouree,sulfatiourea,sulphathiourea</t>
+          <t>badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathioureasalt,sulfathiouree,sulfatiourea,sulphathiourea</t>
         </is>
       </c>
       <c r="J428">
@@ -26872,7 +26872,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazole,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazole,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
+          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulfanilamidesalt,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolesalt,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
         </is>
       </c>
       <c r="J429" t="e">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sulopenem</t>
+          <t/>
         </is>
       </c>
       <c r="J431" t="e">
@@ -27050,7 +27050,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sultamicilina,sultamicillin,sultamicillinum</t>
+          <t>sultamicilina,sultamicillinum</t>
         </is>
       </c>
       <c r="J432">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>surotomycin</t>
+          <t>cidecin,cubicin,dapcin,daptomicina,daptomycin for,daptomycine,daptomycinum,dapzura,deptomycin</t>
         </is>
       </c>
       <c r="J433" t="e">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>talampicilina,talampicillin,talampicilline,talampicillinum</t>
+          <t>aseocillin,talampicilina,talampicilline,talampicillinum,talpen,tamampicillin,yamacillin</t>
         </is>
       </c>
       <c r="J434">
@@ -27232,7 +27232,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>talmetoprim</t>
+          <t/>
         </is>
       </c>
       <c r="J435" t="e">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>tazobactam,tazobactam acid,tazobactamum,tazobactum</t>
+          <t>enmetazobactam,tazobactam acid,tazobactamsalt,tazobactamum,tazobactum</t>
         </is>
       </c>
       <c r="J436" t="e">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sivextro,tedizolid,torezolid</t>
+          <t>sivextro,torezolid</t>
         </is>
       </c>
       <c r="J438">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanin,teicoplanina,teicoplanine,teicoplaninum</t>
+          <t>aerovanc,firvanq,firvanq kit,targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
         </is>
       </c>
       <c r="J439" t="e">
@@ -27604,7 +27604,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>telavancin,televancin,vibativ</t>
+          <t>aerovanc,firvanq,firvanq kit,televancin,vibativ</t>
         </is>
       </c>
       <c r="J441" t="e">
@@ -27666,7 +27666,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>levviax,telithromycin</t>
+          <t>ketek,levviax</t>
         </is>
       </c>
       <c r="J442">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>omniflox,temafloxacin,temafloxacina,temafloxacine,temafloxacinum</t>
+          <t>omniflox,sarafin,saraflox,saraflox injectable,saraflox wsp,temafloxacina,temafloxacine,temafloxacinum</t>
         </is>
       </c>
       <c r="J443">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>negaban,temocilina,temocillin,temocillina,temocilline,temocillinum</t>
+          <t>negaban,temocilina,temocillin disalt,temocillina,temocilline,temocillinum</t>
         </is>
       </c>
       <c r="J444" t="e">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>corbinal,lamasil,lamisil,lamisil at,lamisil tablet,terbinafina,terbinafine,terbinafinum,terbinex</t>
+          <t>afogan,antifungal foot,athletes foot,bramazil,bramizil,corbinal,innonyx,krogerantifungal,lamasil,lamisil,lamisil at cream,lamisil krem,lamisil tablet,lamisilat jock itch,muzonal,mycova,shopkoathletes foot,shoprite,silkaantifungal,silkagel,silkajock itch,terbifoam,terbina,terbinafina,terbinafine hcl?,terbinafinum,terbine,terbinex,terbisil,zabel</t>
         </is>
       </c>
       <c r="J445">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>fungistat,panlomyc,terazol,terconazol,terconazole,terconazolum,tercospor,triaconazole,zazole</t>
+          <t>fungistat,panlomyc,terazol,terconazol,terconazolum,tercospor,triaconazole,zazole</t>
         </is>
       </c>
       <c r="J446" t="e">
@@ -27980,7 +27980,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>terivalidin,terizidon,terizidona,terizidone,terizidonum</t>
+          <t>terivalidin,terizidon,terizidona,terizidonum</t>
         </is>
       </c>
       <c r="J447" t="e">
@@ -28042,7 +28042,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>abramycin,abricycline,achromycin,achromycin v,actisite,agromicina,ambramicina,ambramycin,amycin,biocycline,bristaciclin,bristaciclina,bristacycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,democracin,deschlorobiomycin,dumocyclin,economycin,enterocycline,hostacyclin,lexacycline,limecycline,liquamycin,medocycline,mericycline,micycline,neocycline,oletetrin,omegamycin,orlycycline,panmycin,piracaps,polycycline,polyotic,purocyclina,resteclin,robitet,roviciclina,sigmamycin,solvocin,sumycin,sumycin syrup,supramycin,sustamycin,tetrabid organon,tetrabon,tetrachel,tetraciclina,tetracycl,tetracyclin,tetracycline,tetracycline base,tetracycline i,tetracycline ii,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetramed,tetrasure,tetraverine,tetrazyklin,tetrex,topicycline,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum,vetquamycin</t>
+          <t>abbocin,abramycin,abricycline,achromycin,achromycin v,acromicina,actisite,agromicina,ala tet,alamycin,ambramicina,ambramycin,amycin,aquacycline,artomycin,bi steclin,biocycline,biosolvomycin,biotet,bisolvomycin,bristaciclin,bristaciclin .alpha.,bristaciclina,bristacycline,brodspec,cefracycline,cefracycline tablets,centet,chrysocin,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,dalimycin,dalinmycin,democracin,deschlorobiomycin,diacycine,dispatetrin,dumocyclin,economycin,elinton,engemycin,enterocycline,hostacyclin,hostacycline,hydrocyclin,ibicyn,imperacin,intaloxin,lemtrex,lexacycline,limecycline,liquachel,liquamycin,macodyn,medocycline,mepatar,mephacyclin,mericycline,micycline,neocyclin b,neocycline,neocycline b,oletetrin,omegamycin,orlycycline,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetracycline.hcl,oxytetral,oxytetrin,oxytracyl,oxyvet,paltet,panmycin,partrex,piracaps,polycycline,polyotic,purocyclina,qidtet,quadracycline,quatrex,remicyclin,resteclin,retet,ricycline,robitet,roviciclina,sigmamycin,solvocin,steclin,stecsolin,stilciclina,subamycin,sumycin,supramycin,sustamycin,talsutin,tefilin,teline,telotrex,terraject,terramycin,tetrabakat,tetrabid,tetrabid organon,tetrablet,tetrabon,tetracaps,tetrachel,tetraciclina,tetracompren,tetracycl,tetracyclin,tetracyclinbase,tetracycline i,tetracycline.hcl,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetrakap,tetralution,tetramavan,tetramed,tetran hydrochloride,tetraseptine,tetrasure,tetraverine,tetrazyklin,tetrex,tetrosol,topicycline,toxinal,triphacyclin,tsiklomistsin,tsiklomitsin,unicin,unimycin,vendarcin,veracin,vetacyclinum,vetquamycin</t>
         </is>
       </c>
       <c r="J448">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>tetroxoprim,tetroxoprima,tetroxoprime,tetroxoprimum</t>
+          <t>primsol,tetroxoprima,tetroxoprime,tetroxoprimum,trimpex,trimplex</t>
         </is>
       </c>
       <c r="J450" t="e">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aktivan,ambathizon,amithiozone,amithizone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,diazan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazone,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
+          <t>aktivan,ambathizon,amithiozone,amithizone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,diazan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone?,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
         </is>
       </c>
       <c r="J451" t="e">
@@ -28286,7 +28286,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>descocin,dexawin,dextrosulfenidol,dextrosulphenidol,efnicol,hyrazin,igralin,macphenicol,masatirin,neomyson,racefenicol,racefenicolo,racefenicolum,raceophenidol,racephenicol,rincrol,thiamcol,thiamphenicol,thiamphenicolum,thiocymetin,thiomycetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamicina,urfamycine,vicemycetin</t>
+          <t>descocin,dexawin,dextrosulfenidol,dextrosulphenidol,efnicol,fricol,hyrazin,igralin,macphenicol,masatirin,neomyson,racefenicol,racefenicolo,racefenicolum,raceophenidol,racephenicol,rincrol,thiamcol,thiamphenicol epimer,thiamphenicolum,thiocymetin,thiomycetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamicina,urfamycine,urophenyl,vicemycetin</t>
         </is>
       </c>
       <c r="J452">
@@ -28352,7 +28352,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aktivan,ambathizon,amithiozone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazone,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
+          <t>aktivan,ambathizon,amithiozone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone?,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
         </is>
       </c>
       <c r="J453" t="e">
@@ -28472,7 +28472,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>denagard,thiamutilin,tiamulin,tiamulin pamoate,tiamulina,tiamuline,tiamulinum,tiavet p</t>
+          <t>denagard,thiamutilin,tiamulin pamoate,tiamulina,tiamuline,tiamulinum,tiavet p</t>
         </is>
       </c>
       <c r="J455" t="e">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>ticarcilina,ticarcillin,ticarcilline,ticarcillinum,ticillin,timentin</t>
+          <t>ticarcilina,ticarcilline,ticarcillinum,ticillin,timentin</t>
         </is>
       </c>
       <c r="J456" t="e">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>timentin</t>
+          <t>augpenin,timentin</t>
         </is>
       </c>
       <c r="J457" t="e">
@@ -28662,7 +28662,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>haizheng li xing,tigeciclina,tigecyclin,tigecycline,tigecycline hydrate,tigecyclinum,tigilcycline,tygacil</t>
+          <t>haizheng li xing,tigeciclina,tigecyclin,tigecyclinehydrate,tigecyclinum,tigilcycline,tygacil</t>
         </is>
       </c>
       <c r="J458" t="e">
@@ -28722,7 +28722,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>tilbroquinol,tilbroquinolum</t>
+          <t>tilbroquinolum</t>
         </is>
       </c>
       <c r="J459" t="e">
@@ -28780,7 +28780,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>tildipirosin,zuprevo</t>
+          <t>zuprevo</t>
         </is>
       </c>
       <c r="J460" t="e">
@@ -28838,7 +28838,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>micotil,pulmotil,tilmicosin,tilmicosina,tilmicosine,tilmicosinum</t>
+          <t>micotil,pulmotil,tilmicosina,tilmicosine,tilmicosinum</t>
         </is>
       </c>
       <c r="J461" t="e">
@@ -28900,7 +28900,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>amtiba,bioshik,ethyl sulfone,fasigin,fasigyn,fasigyntrade mark,fasygin,glongyn,haisigyn,pletil,simplotan,simplotantrade mark,sorquetan,symplotan,tindamax,tindamaxtrade mark,tinidazol,tinidazole,tinidazolum,tricolam,trimonase</t>
+          <t>amtiba,bioshik,ethyl sulfone,fasigin,fasigyn,fasigyntrade mark,fasygin,glongyn,haisigyn,isotinidazole,pletil,simplotan,simplotantrade mark,sorquetan,symplotan,tindamax,tindamaxtrade mark,tinidazol,tinidazolum,tricolam,trimonase</t>
         </is>
       </c>
       <c r="J462">
@@ -28966,7 +28966,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>amixyl,datanil,disocarban,disoxyl,isoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlide,tiocarlidum</t>
+          <t>aethoksid,aethoxyd,aethoxydum,amixyl,datanil,disocarban,disoxyl,ethoxide,ethoxyd,etocarlid,etocarlida,etocarlide,etocarlidum,etoksid,isoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
         </is>
       </c>
       <c r="J463">
@@ -29026,7 +29026,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>cloruro de tiodonio,tiodonii chloridum,tiodonium chloride</t>
+          <t>cloruro de tiodonio,tiodonii chloridum,tiodonium,tiodonium cation</t>
         </is>
       </c>
       <c r="J464" t="e">
@@ -29084,7 +29084,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>tioxacin,tioxacine,tioxacino,tioxacinum,tioxic acid</t>
+          <t>tioxacine,tioxacino,tioxacinum,tioxic acid</t>
         </is>
       </c>
       <c r="J465" t="e">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>bethkis,brulamycin,deoxykanamycin b,distobram,gernebcin,gotabiotic,kitabis,kitabis pak,nebcin,nebicin,nebramycin,nebramycin vi,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobi podhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycin,tobramycin base,tobramycin sulfate,tobramycine,tobramycinum,tobrased,tobrasone,tobrex</t>
+          <t>bethkis,brulamycin,deoxykanamycin b,distobram,gernebcin,gotabiotic,kitabis,kitabis pak,nebcin,nebicin,nebramycin,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobi podhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycine,tobramycinum,tobrased,tobrasone,tobrex</t>
         </is>
       </c>
       <c r="J467" t="e">
@@ -29322,7 +29322,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>tosufloxacin</t>
+          <t/>
         </is>
       </c>
       <c r="J469">
@@ -29386,7 +29386,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,colizole ds,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lagatrim forte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprim forte,roubac,roubal,salvatrim,septrin ds,septrin forte,septrin s,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmp smx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
+          <t>abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lagatrim forte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprim forte,roubac,roubal,salvatrim,septrin,septrin forte,septrin s,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmp smx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
         </is>
       </c>
       <c r="J470">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bacterial forte,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrim ds,bactrim forte,bactrim pediatric,bactrimel,bactrizol,bactromin,bactropin,baktar,belcomycine,berlocid,bibacrim,biseptol,chemitrim,chemotrim,ciplin,colimycin,colimycin sulphate,colisticin,colistimethate,colistimethate sodium,colistin sulfate,colistin sulphate,colomycin,coly-mycin,cotribene,cotrim d.s.,cotrim eu rho,cotrim holsen,cotrim.l.u.t.,cotrimaxazol,cotrimazole,cotrimhexal,cotrimoxazol,cotrimoxazol al,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,esteprim,eusaprim,fectrim,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,jenamoxazol,kemoprim,kepinol,kepinol forte,laratrim,linaris,maxtrim,microtrim,microtrim forte,mikrosid,momentol,oecotrim,oriprim,oxaprim,pantoprim,polymyxin e,polymyxin e. sulfate,primazole,promixin,septra,septra ds,septra grape,septrim,septrin,servitrim,sigaprim,sigaprin,sulfatrim pediatric,sulfotrim,sulfotrimin,sulmeprim pediatric,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,totazina,tribakin,trifen,trigonyl,trimesulf,trimetho comp,trimethoprimsulfa,trimetoger,trimexazol,trimforte,trimosulfa,uroplus,uroplus ds,uroplus ss</t>
+          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bacterial forte,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrim forte,bactrimel,bactrizol,bactromin,bactropin,baktar,belcomycine,berlocid,bibacrim,biseptol,chemitrim,chemotrim,ciplin,colimycin,colisticin,colistimethate,colomycin,coly-mycin,cotribene,cotrim,cotrim eu rho,cotrim holsen,cotrim.l.u.t.,cotrimaxazol,cotrimazole,cotrimhexal,cotrimoxazol,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,esteprim,eusaprim,fectrim,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,jenamoxazol,kemoprim,kepinol,kepinol forte,laratrim,linaris,maxtrim,microtrim,microtrim forte,mikrosid,momentol,oecotrim,oriprim,oxaprim,pantoprim,polymyxin e,polymyxin e.,potrox,primazole,promixin,septra,septra grape,septrim,septrin,servitrim,sigaprim,sigaprin,sulfatrim,sulfotrim,sulfotrimin,sulmeprim,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,totazina,tribakin,trifen,trigonyl,trimesulf,trimetho comp,trimethoprimsulfa,trimetoger,trimexazol,trimforte,trimosulfa,uroplus</t>
         </is>
       </c>
       <c r="J471" t="e">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycin t,micotil,oleandocetine,oleandomycin,t.a.o.,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycin,troleandomycine,troleandomycinum,viamicina,wytrion</t>
+          <t>acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycin t,micotil,oleandocetin,oleandocetine,t.a.o.,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycine,troleandomycinum,viamicina,wytrion</t>
         </is>
       </c>
       <c r="J472">
@@ -29574,7 +29574,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>rubidiumnitrate,trospectinomycin,trospectomicina,trospectomycin,trospectomycine,trospectomycinum</t>
+          <t>rubidiumnitrate,trospectinomycin,trospectomicina,trospectomycine,trospectomycinum</t>
         </is>
       </c>
       <c r="J473" t="e">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>trovafloxacin,trovan</t>
+          <t>trovan</t>
         </is>
       </c>
       <c r="J474">
@@ -29698,7 +29698,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>draxxin,tulathrmycin a,tulathromycin,tulathromycin a</t>
+          <t>draxxin,tulathrmycin a,tulathromycin a</t>
         </is>
       </c>
       <c r="J475" t="e">
@@ -29756,7 +29756,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>fradizine,tilosina,tylocine,tylosin,tylosin a,tylosine,tylosinum</t>
+          <t>fradizine,tilosina,tylocine,tylosin a,tylosine,tylosinum</t>
         </is>
       </c>
       <c r="J476" t="e">
@@ -29814,7 +29814,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>tylvalosin</t>
+          <t/>
         </is>
       </c>
       <c r="J477" t="e">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>vancocin,vancocin hcl,vancoled,vancomicina,vancomycin,vancomycin hcl,vancomycine,vancomycinum,vancor,viomycin derivative</t>
+          <t>aerovanc,firvanq,firvanq kit,targocid,vancocin,vancoled,vancomicina,vancomycine,vancomycinum,vancor,viomycin derivative</t>
         </is>
       </c>
       <c r="J479">
@@ -30054,7 +30054,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>celiomycin,florimycin,floromycin,tuberactinomycin b,vinacetin a,vioactane,viomicina,viomycin,viomycine,viomycinum</t>
+          <t>celiomycin,florimycin,floromycin,solfato di viomicina,tuberactinomycin b,vinacetin a,vioactane,viocin,viomicina,viomycine,viomycinum</t>
         </is>
       </c>
       <c r="J481" t="e">
@@ -30112,7 +30112,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>eskalin,eskalin v,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycin,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycine,virginiamycinum</t>
+          <t>eskalin,eskalin v,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycinum</t>
         </is>
       </c>
       <c r="J482" t="e">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>pfizer,vfend i.v.,voriconazol,voriconazole,voriconazole vfend,voriconazolum,voriconzole,vorikonazole</t>
+          <t>pfizer,vfend,voriconazol,voriconazole vfend,voriconazolum,voriconzole,vorikonazole</t>
         </is>
       </c>
       <c r="J483">
@@ -30240,7 +30240,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>bactacine,bracen,nanbacine,xibornol,xibornolo,xibornolum</t>
+          <t>bactacine,bracen,nanbacine,xibornolo,xibornolum</t>
         </is>
       </c>
       <c r="J484" t="e">
@@ -30298,7 +30298,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>zidebactam</t>
+          <t>zidebactamsalt</t>
         </is>
       </c>
       <c r="J485" t="e">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>zoliflodacin</t>
+          <t/>
         </is>
       </c>
       <c r="J486" t="e">

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aminacyl,aminopar,aminosalicylate,aminosalicylic,aminosalicylic acid,aminosalyl,aminosalyle,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,nemasol,neopasalate,nippas,osacyl,p.a.s.,pamacyl,pamisyl,paramisan,paramycin,parasal,parasalicil,parasalindon,pasade,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnal,pasnodia,pasolac,passodico,propasa,rezipas,salvis,sodiopas,teebacin</t>
+          <t>aminopar,aminosalicylic,aminosalicylic acid,aminosalyl,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,neopasalate,osacyl,pamacyl,pamisyl,paramycin,parasal,parasalicil,parasalindon,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnodia,pasolac,propasa,rezipas,teebacin</t>
         </is>
       </c>
       <c r="J2">
@@ -548,7 +548,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>medemycin,mydecamycin</t>
+          <t/>
         </is>
       </c>
       <c r="J3" t="e">
@@ -606,7 +606,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>formacidine,foromacidin,foromacidin a,foromacidin b,rovamicina,rovamycin,rovamycine,spiramycin i</t>
+          <t>acetylspiramycin,foromacidin b,spiramycin ii</t>
         </is>
       </c>
       <c r="J4" t="e">
@@ -668,7 +668,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>adesulfone,aldapsone,aldesulfona sodica,aldesulfone,aldesulfone sodique,aldesulphone,diamidin,diason,diasone,diasoneenterab,diazon,novotrone,sulfoxone</t>
+          <t>adesulfone sodium,aldapsone,aldesulfona sodica,aldesulfone,aldesulfone sodique,aldesulfone sodium,aldesulphone sodium,diamidin,diasone,diasone sodium,diazon,novotrone,sodium aldesulphone,sodium sulfoxone,sulfoxone sodium</t>
         </is>
       </c>
       <c r="J5">
@@ -732,7 +732,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>ambutyrosin a,ambutyrosin b,ambuyrosin a,amicacin,amikacillin,amikacin dihydrate,amikacin free,amikacina,amikacine,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,arikayce liposomal,briclin,butirosin a,butirosin b,butyrosin a,butyrosin b,kaminax,lukadin,mikavir,pierami,potentox</t>
+          <t>amicacin,amikacillin,amikacin,amikacin base,amikacin dihydrate,amikacin free base,amikacin sulfate,amikacina,amikacine,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,arikayce liposomal,briclin,kaminax,lukadin,mikavir,pierami,potentox</t>
         </is>
       </c>
       <c r="J6" t="e">
@@ -854,7 +854,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>amorolfina,amorolfine hcl?,amorolfinum,bekiron,corbel,curanail,fenpropemorph,fenpropimorph,fenpropimorphe,funbas,loceryl,locetar,mildofix,mistral,mistral t,odenil,pekiron</t>
+          <t>amorolfina,amorolfine,amorolfinum,loceryl</t>
         </is>
       </c>
       <c r="J8" t="e">
@@ -916,7 +916,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>actimoxi,acuotricina,agram,alfamox,alfida,alfoxil enjektabl,amitron,amoclen,amodex,amoksicillin,amoksicillin forte,amolin,amopen,amopenixin,amophar,amoran,amoxibiotic,amoxicaps,amoxicilina,amoxicillin pulsys,amoxicilline,amoxicillinsalt,amoxicillinum,amoxidal,amoxiden,amoxil,amoxil trihydrate,amoxillat,amoxina,amoxine,amoxipen,amoxivet,amoxy,amoxycillin,amoxyke,anemolin,aspenil,atoksilin,biomox,bristamox,cemoxin,ciblor,clamoxyl,damoxy,danoxillin,delacillin,demoksil,dispermox,dura,efpenix,eupen,flemoxin,flemoxine,galenamox,gramidil,hiconcil,himinomax,histocillin,hydroxyampicillin,ibiamox,imacillin,izoltil,kentrocyllin,lamoxy,largopen,larotid,matasedrin,metafarma capsules,metifarma,metifarma capsules,moksilin,moxacin,moxaline,moxatag,neotetranase,novabritine,ospamox,pacetocin,pamocil,pamoxicillin,paradroxil,pasetocin,penamox,piramox,promoxil,quimiopen,remoxil,riotapen,robamox,sawacillin,sawamox,siganopen,simplamox,sintopen,tolodina,topramoxin,trifamox,trimox,unicillin,utimox,velamox,vetramox,wymox,zamocillin,zamocilline,zimox</t>
+          <t>actimoxi,amoclen,amolin,amopen,amopenixin,amoxibiotic,amoxicaps,amoxicilina,amoxicillin,amoxicillin hydrate,amoxicilline,amoxicillinum,amoxiden,amoxil,amoxivet,amoxy,amoxycillin,amoxyke,anemolin,aspenil,atoksilin,biomox,bristamox,cemoxin,clamoxyl,damoxy,delacillin,demoksil,dispermox,efpenix,flemoxin,hiconcil,histocillin,hydroxyampicillin,ibiamox,imacillin,lamoxy,largopen,metafarma capsules,metifarma capsules,moksilin,moxacin,moxatag,ospamox,pamoxicillin,piramox,promoxil,remoxil,robamox,sawamox pm,tolodina,topramoxin,unicillin,utimox,vetramox</t>
         </is>
       </c>
       <c r="J9">
@@ -982,7 +982,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>amocla,amoclan,amoclav,amoksiclav,amox clav,amoxsiklav,amoxyclav,augmentan,augmentin,augmentine,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilin plus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,synulox,viaclav,xiclav</t>
+          <t>amocla,amoclan,amoclav,amoksiclav,amoxsiklav,amoxyclav,augmentan,augmentin,augmentin xr,augmentine,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilin plus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,synulox,viaclav,xiclav</t>
         </is>
       </c>
       <c r="J10">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>abelcet,abelecet,ambisome,amfotericina b,amphocin,amphomoronal,amphortericin b,amphotec,amphotericin,amphotericine b,amphotericinum b,amphozone,anfotericine b,fungilin,fungisome,fungisone,fungizone,halizon,nyotran,nystatinum,terrastatin</t>
+          <t>abelcet,abelecet,ambisome,amfotericina b,amphocin,amphomoronal,amphortericin b,amphotec,amphotericin,amphotericin b,amphotericine b,amphotericinum b,amphozone,anfotericine b,fungilin,fungisome,fungisone,fungizone,halizon</t>
         </is>
       </c>
       <c r="J12">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>acillin,adobacillin,amblosin,amcap,amcill,amfipen,amfipen v,amipenix s,amperil,ampichel,ampicil,ampicilina,ampicillin a,ampicillin acid,ampicillina,ampicilline,ampicillinesalt,ampicillinsalt,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampinova,ampipenin,ampiplus simplex,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,austrapen,benzopenicillin,binotal,bonapicillin,britacil,campicillin,citteral,compocillin g,copharcilin,cymbi,delcillin,deripen,divercillin,doktacillin,domicillin,duphacillin,galofak,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olin kid,omnipen,orbicilina,pen a,pen ampil,penbristol,penbritin,penbrock,penialmen,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpen a,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,redicilin,rosampline,roscillin,semicillin,semicillin r,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trafarbiot,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillin s,vidocillin,wypicil</t>
+          <t>acillin,adobacillin,amblosin,amcill,amfipen,amfipen v,amipenix s,ampichel,ampicil,ampicilina,ampicillin,ampicillin a,ampicillin acid,ampicillin anhydrate,ampicillin anhydrous,ampicillin base,ampicillin hydrate,ampicillin sodium,ampicillina,ampicilline,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,anhydrous ampicillin,austrapen,binotal,bonapicillin,britacil,campicillin,copharcilin,delcillin,deripen,divercillin,doktacillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olin kid,omnipen,orbicilina,pen a oral,pen ampil,penbristol,penbritin,penbritin paediatric,penbritin syrup,penbrock,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpen a,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,redicilin,rosampline,roscillin,semicillin,semicillin r,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillin s,vidocillin,wypicil</t>
         </is>
       </c>
       <c r="J14">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>amprid for calves,amprocidum,amprol,amprolio,amprolium chloride,amprolium ion,amprolsol,ampromed for calves,ampromed for cattle,amprovine,cocciaid,cocciprol,corid,mepyrium,thiacoccid</t>
+          <t>amprocidum,amprol,amprolio,amprolium,amprolium chloride,amprovine,thiacoccid</t>
         </is>
       </c>
       <c r="J16" t="e">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>anidulafungina,anidulafungine,anidulafunginum,biafungin,ecalta,eraxis,rezafungin acetate,rezafungin cation,rezafungin ion,rezafungin?,rezzayo</t>
+          <t>anidulafungin,anidulafungina,anidulafungine,anidulafunginum,ecalta,eraxis</t>
         </is>
       </c>
       <c r="J17" t="e">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>apalcilina,apalcilline,apalcillinsalt,apalcillinum,lumota</t>
+          <t>apalcilina,apalcillin,apalcilline,apalcillinum</t>
         </is>
       </c>
       <c r="J18" t="e">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ambylan,apralan,apramicina,apramycine,apramycinum,casein hydrolysate,nebramycin,nebramycin vii</t>
+          <t>ambylan,apralan,apramicina,apramycin,apramycine,apramycinum,nebramycin ii</t>
         </is>
       </c>
       <c r="J19" t="e">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ambutyrosin a,ambutyrosin b,ambuyrosin a,arbekacina,arbekacine,arbekacini sulfas,arbekacinum,butirosin a,butirosin b,butyrosin a,butyrosin b,haberacin</t>
+          <t>arbekacin,arbekacina,arbekacine,arbekacini sulfas,arbekacinum,habekacin,haberacin</t>
         </is>
       </c>
       <c r="J20" t="e">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>amoxycillin,aspoxicilina,aspoxicillan,aspoxicilline,aspoxicillinum</t>
+          <t>aspoxicilina,aspoxicillan,aspoxicillin,aspoxicilline,aspoxicillinum</t>
         </is>
       </c>
       <c r="J21" t="e">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>astromicin a,astromicina,astromicine,astromicinum,fortimicin,fortimicin a,istamycin a</t>
+          <t>astromicin,astromicin a,astromicina,astromicine,astromicinum,fortimicin,fortimicin a</t>
         </is>
       </c>
       <c r="J22" t="e">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>avibactam free acid,avibactamfreeacid</t>
+          <t>avibactam,avibactam free acid,avibactamfreeacid</t>
         </is>
       </c>
       <c r="J23" t="e">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>avilamycin a,avilamycina,avilamycine,avilamycinum,surmax</t>
+          <t>avilamycin,avilamycina,avilamycine,avilamycinum,surmax</t>
         </is>
       </c>
       <c r="J24" t="e">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aerovanc,avoparcina,avoparcine,avoparcinum,avotan,firvanq,firvanq kit,targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
+          <t>avoparcin,avoparcina,avoparcine,avoparcinum,avotan</t>
         </is>
       </c>
       <c r="J25" t="e">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>amcap,amcill,ampen,amperil,ampinova,azidocilina,azidocillina,azidocilline,azidocillinum,cymbi,deripen,guicitrine,pen a,penbritin,principen,trafarbiot,wypicil</t>
+          <t>azidocilina,azidocillin,azidocillina,azidocilline,azidocillinum</t>
         </is>
       </c>
       <c r="J26">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aritromicina,aruzilina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithrocin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwin,aziwok,aztrin,azyter,azythromycin,durasite,hemomycin,macrozit,misultina,mixoterin,setron,sumamed,toraseptol,tromix,trozocina,trulimax,xithrone,zentavion,zithrax,zithromac,zithromax,zithromycin,zitrim,zitromax,zitrotek,zmax,zythromax</t>
+          <t>aritromicina,aruzilina,azasite,azenil,azifast,azigram,azimakrol,azithramycine,azithrocin,azithromycin,azithromycine,azithromycinum,azitrocin,azitromax,azitromicina,azitromicine,azitromin,aziwin,aziwok,aztrin,azyter,azythromycin,durasite,hemomycin,macrozit,misultina,mixoterin,setron,sumamed,toraseptol,tromix,trozocina,trulimax,xithrone,zentavion,zithrax,zithromac,zithromax,zithromax iv,zithromycin,zitrim,zitromax,zitrotek,zmax sr,zythromax</t>
         </is>
       </c>
       <c r="J27">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>azlin,azlocilina,azlocilline,azlocillinsalt,azlocillinum,securopen</t>
+          <t>azlocilina,azlocillin,azlocilline,azlocillinum</t>
         </is>
       </c>
       <c r="J29" t="e">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>azactam,azetreonam,azonam,azthreonam,aztreon,nebactam,primbactam</t>
+          <t>azactam,azetreonam,azonam,azthreonam,aztreon,aztreonam,nebactam,primbactam</t>
         </is>
       </c>
       <c r="J30" t="e">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>alphacilina,alphacillin,ambacamp,ambaxin,bacacil,bacampicilina,bacampicilline,bacampicillinum,berocillin,centurina,devonium,diancina,inacilin,maxifen,penglobe,pivatil,pondocil,pondocillin,pondocillina,sanguicillin,spectrobid,velbacil</t>
+          <t>bacampicilina,bacampicillin,bacampicilline,bacampicillinum,penglobe</t>
         </is>
       </c>
       <c r="J33">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>altracin,ayfivin,baciguent,baciim,baciliquin,bacilliquin,bacitek ointment,bacitracin a,bacitracin powder,bacitracina,bacitracine,bacitracinum,fortracin,md bacitracin,mycitracin,parentracin,penitracin,septa,spectrocin plus,topitracin,topitrasin,tropitracin,zutracin</t>
+          <t>fortracin,md bacitracin</t>
         </is>
       </c>
       <c r="J34" t="e">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>bedaquiline ?,sirturo</t>
+          <t>bedaquiline,sirturo</t>
         </is>
       </c>
       <c r="J35">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aminodeoxykanamycin,becanamicina,bekanamycine,bekanamycinum,kanamycin b,klebcil,nebramycin v</t>
+          <t>aminodeoxykanamycin,becanamicina,bekanamycin,bekanamycine,bekanamycinum,kanamycin b,klebcil,nebramycin v</t>
         </is>
       </c>
       <c r="J36" t="e">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>abbocillin,amcap,amcill,american penicillin,amperil,ampinova,ayercillin,bencilpenicilina,benzopenicillin,benzyl penicillin,benzylpenicillin g,benzylpenicilline,benzylpenicillinsalt,benzylpenicillinum,bicillin,capicillin,cillora,cilloral,cilopen,cintrisul,compocillin g,cosmopen,cristapen,crystapen,cymbi,dropcillin,eskacillin,ethacillin,falapen,forpen,free penicillin g,free penicillin,galofak,gelacillin,hipercilina,hyasorb,hylenta,lemopen,liquacillin,liquapen,megacillin,megacillin tablets,monocillin,monopen,mycofarm,nalpen g,novocillin,paclin g,penalev,penbritin,pencillin g,penicillin,penicillin g,penicillin g k,penicilling,penicillinum,penilaryn,penisem,pentid,pentids,permapen,pfizerpen,pfizerpen g,pharmacillin,pradupen,principen,qidpen g,scotcil,specilline g,sugracillin,sugracillinsalt,tabilin,trafarbiot,tu cillin,ursopen,veticillin</t>
+          <t>abbocillin,ayercillin,bencilpenicilina,benzopenicillin,benzyl penicillin,benzylpenicillin,benzylpenicillin g,benzylpenicilline,benzylpenicillinum,bicillin,cillora,cilloral,cilopen,compocillin g,cosmopen,dropcillin,free penicillin g,free penicillin ii,galofak,gelacillin,liquacillin,megacillin,pencillin g,penicillin,penicilling,pentids,permapen,pfizerpen,pfizerpen g,pharmacillin,pradupen,specilline g,ursopen</t>
         </is>
       </c>
       <c r="J39" t="e">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>besifloxacin hcl?,besivance</t>
+          <t>besifloxacin,besivance</t>
         </is>
       </c>
       <c r="J40" t="e">
@@ -2874,7 +2874,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>biapenern,bipenem,omegacin</t>
+          <t>biapenem,biapenern,bipenem,omegacin</t>
         </is>
       </c>
       <c r="J41" t="e">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aizumycin,bacfeed,bacteron,bicozamicina,bicozamycin,bicozamycine,bicozamycinum</t>
+          <t>aizumycin,bacfeed,bacteron,bicozamicina,bicozamycin,bicozamycine,bicozamycinum,bicyclomycin</t>
         </is>
       </c>
       <c r="J42" t="e">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>brodimoprima,brodimoprime,brodimoprimum,bromdimoprim,hyprim,unitrim</t>
+          <t>brodimoprim,brodimoprima,brodimoprime,brodimoprimum,bromdimoprim,hyprim,unitrim</t>
         </is>
       </c>
       <c r="J43">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>butaconazole,butoconazol,butoconazolum,compositenstarke,dahlin,femstat,gynofort,polyfructosanum</t>
+          <t>butaconazole,butoconazol,butoconazole,butoconazolum,compositenstarke,dahlin,femstat,gynofort,polyfructosanum</t>
         </is>
       </c>
       <c r="J44" t="e">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t/>
+          <t>cadazolid</t>
         </is>
       </c>
       <c r="J45" t="e">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>capstat,cyclo,hexanamide,tuberactinomycin o</t>
+          <t/>
         </is>
       </c>
       <c r="J47" t="e">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>anabactyl,carbecin,carbenicilina,carbenicillin disalt,carbenicillina,carbenicilline,carbenicillinum,dicarbenicillin,dipenicillin,fugacillin,geopen,gripenin,hyoper,microcillin,piopen,pyocianil,pyoclox,pyopan,pyopen,pyopene</t>
+          <t>anabactyl,carbenicilina,carbenicillin,carbenicillina,carbenicilline,carbenicillinum,geopen,pyopen</t>
         </is>
       </c>
       <c r="J48" t="e">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>carindacilina,carindacilline,carindacillinsalt,carindacillinum,geocillin,indanylcarbinicillin,urobac</t>
+          <t>carindacilina,carindacillin,carindacilline,carindacillinum</t>
         </is>
       </c>
       <c r="J49">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>carumonamum</t>
+          <t>carumonam,carumonamum</t>
         </is>
       </c>
       <c r="J50" t="e">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cancidas,capsofungin,caspo,caspofungin acetate,caspofungina</t>
+          <t>cancidas,capsofungin,caspofungin</t>
         </is>
       </c>
       <c r="J51" t="e">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cefacetril,cefacetrilo,cefacetrilum,celospor,celtol,cephacetrile,cristacef,vetrimast</t>
+          <t>cefacetril,cefacetrile,cefacetrilo,cefacetrilum,celospor,celtol,cephacetrile,cristacef,vetrimast</t>
         </is>
       </c>
       <c r="J52" t="e">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>alenfral,alfacet,alfatil,alfatil kapseln,ceclor,cefachlor,cefaclor impurity c,cefaclor monohydrate,cefaclorimpurityc,cefacloro,cefaclorum,cefeaclor,cephaclor,cephalexin,distaclor,dystaclor,keflor,kefolor,kefolor suspension,kefral,keftab,muco panoral,panacef,panoral,raniclor</t>
+          <t>alenfral,alfacet,ceclor,ceclor cd,cefaclor,cefaclor anhydrous,cefaclor impurity c,cefaclor monohydrate,cefaclorimpurityc,cefacloro,cefaclorum,cefeaclor,cephaclor,dystaclor mr,keflor,kefral,panoral,raniclor</t>
         </is>
       </c>
       <c r="J53">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>brisoral,cefadrops,cefadroxilo,cefadroxilum,cefradroxil,cefzil,cephadroxil,duracef,duricef,procef,sumacef,ultracef</t>
+          <t>anhydrous cefadroxil,cefadrops,cefadroxil,cefadroxil anhydrous,cefadroxilo,cefadroxilum,cefradroxil,cephadroxil,duracef,duricef,sumacef,ultracef</t>
         </is>
       </c>
       <c r="J54">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>adcadina,alcephin,alexin,alfatil,alfatil kapseln,alsporin,ambal,amplex,cephalexin,aristosporin,azabort,bactopenor,beliam,biocef,carnosporin,ceclor,cefablan,cefacet,cefachlor,cefaclor monohydrate,cefadal,cefadin,cefadina,cefalekey,cefaleksin,cefalessina,cefalexgobens,cefalexin generics,cefalexina,cefalexina northia,cefalexina richet,cefalexine,cefalexinum,cefalin,cefalival,cefaloto,cefanex,cefaseptin,ceffanex,cefibacter,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalex von,cephalexine,cephalexinum,cephalobene,cephanasten,cephaxin,cephin,ceporex,ceporex forte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,distaclor,domucef,doriman,durantel,efemida,erocetin,factagard,felexin,henina,ibilex,ibrexin,inphalex,karilexina,kefalospes,keflet,keflex,keflor,kefolan,kefolor,kefolor suspension,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,loisine,lonflex,lopilexin,losporal,madlexin,maksipor,mamalexin,mamlexin,medolexin,medoxine,muco panoral,neokef,neolexina,noveol,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panacef,panixine,panixine disperdose,panoral,pectril,prindex,pyassan,raniclor,rilexine,roceph,roceph distab,rogevil,sanaxin,sartosona,sencephalin,sepexin,servicef,servispor,sialexin,sinthecillin,sintolexyn,sporicef,sporidex,syncle,synecl,tepaxin,theratrex,tokiolexin,uphalexin,viosporine,voxxim,winlex,zabytrex,zozarine</t>
+          <t>alcephin,alexin,alsporin,amplex,anhydrous cefalexin,anhydrous cephalexin,biocef,carnosporin,cefablan,cefadal,cefadin,cefadina,cefaleksin,cefalessina,cefalexin,cefalexin anhydrous,cefalexina,cefalexine,cefalexinum,cefalin,cefaloto,cefaseptin,ceffanex,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexin,cephalexin anhydrous,cephalexine,cephalexinum,cephanasten,cephaxin,cephin,ceporex,ceporex forte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,durantel,durantel ds,erocetin,factagard,felexin,ibilex,ibrexin,inphalex,kefalospes,keflet,keflex,kefolan,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,lonflex,lopilexin,madlexin,mamalexin,mamlexin,medoxine,neokef,neolexina,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixine disperdose,pectril,pyassan,roceph,roceph distab,sanaxin,sartosona,sencephalin,sepexin,servispor,sialexin,sinthecillin,sporicef,sporidex,syncle,synecl,tepaxin,tokiolexin,uphalexin,voxxim,winlex,zozarine</t>
         </is>
       </c>
       <c r="J55">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aliporina,ampligram,cefaloridin,cefaloridina,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,loridine,sasperin,sefacin,verolgin,vioviantine</t>
+          <t>aliporina,ampligram,cefaloridin,cefaloridina,cefaloridine,cefaloridinum,cefalorizin,ceflorin,cepaloridin,cepalorin,cephalomycine,cephaloridin,cephaloridine,cephaloridinum,ceporan,ceporin,ceporine,cilifor,deflorin,faredina,floridin,glaxoridin,intrasporin,keflodin,keflordin,kefloridin,kefspor,lloncefal,loridine,sasperin,sefacin,verolgin,vioviantine</t>
         </is>
       </c>
       <c r="J56" t="e">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cefalothin,cefalothine,cefalotina,cefalotina fabra,cefalotina sodica,cefalotine,cefalotinsalt,cefalotinum,cemastin,cephalothin,cephalothinsalt,cephalothinum,cephalotin,cephalotin acid,cephalotinsalt,ceporacin,cepovenin,cet injektionsfl,coaxin,keflin,lospoven,microtin,seffin,synclotin,tokiosarl ampullen,toricelocin</t>
+          <t>cefalothin,cefalotin,cefalotina,cefalotina fabra,cefalotine,cefalotinum,cemastin,cephalothinum,cephalotin,cephalotin acid,coaxin,keflin,seffin</t>
         </is>
       </c>
       <c r="J57" t="e">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cefadole,cefamandol,cefamandolesalt,cefamandolum,cephadole,cephamandole,kefamandol,kefdole,mancef</t>
+          <t>cefadole,cefamandol,cefamandole,cefamandolum,cephadole,cephamandole,kefamandol,kefdole,mancef</t>
         </is>
       </c>
       <c r="J58" t="e">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ambrocef,brisfirina,brisporin,bristocef,cefa lak,cefadyl,cefalak,cefaloject,cefapilin,cefapirina,cefapirina sodica,cefapirine,cefapirinsalt,cefapirinum,cefaprin,cefatrex,cefatrexyl,cephapirin,cephapirine,cephapirinsalt,cephatrexil,cephatrexyl,metricure</t>
+          <t>ambrocef,cefadyl,cefapilin,cefapirin,cefapirina,cefapirine,cefapirinum,cefaprin,cefaprin sodium,cefatrex,cefatrexyl,cephapirine,metricure</t>
         </is>
       </c>
       <c r="J59" t="e">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>bricef,cefatrix,cefatrizino,cefatrizinum,cephatriazine,cepticol,cetrazil,latocef,orosporina,orotric,seapuro,seapuron,trizina</t>
+          <t>bricef,cefatrix,cefatrizine,cefatrizino,cefatrizinum,cephatriazine,cepticol,cetrazil,latocef,orosporina,trizina</t>
         </is>
       </c>
       <c r="J60">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>cefazedon,cefazedona,cefazedone acid,cefazedonesalt,cefazedonum,refosporen,refosporene,refosporin</t>
+          <t>cefazedon,cefazedona,cefazedone,cefazedone acid,cefazedonum,refosporen,refosporene,refosporin</t>
         </is>
       </c>
       <c r="J61" t="e">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ancef,atirin,biazolina,cefabiozim,cefacidal,cefalomicina,cefamedin,cefamezin,cefamezine,cefazil,cefazina,cefazolin acid,cefazolina,cefazoline,cefazolinsalt,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,gramaxin,kefzol,lampocef,liviclina,neofazol,recef,totacef,zolicef,zolin,zolisint</t>
+          <t>atirin,cefamezin,cefamezine,cefazina,cefazolin,cefazolin acid,cefazolina,cefazoline,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,kefzol,liviclina,totacef</t>
         </is>
       </c>
       <c r="J62" t="e">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cefbuperazona,cefbuperazonesalt,cefbuperazonum,cefbuperzaone,cerbuperazone,keiperazon,tomiporan</t>
+          <t>cefbuperazona,cefbuperazone,cefbuperazonum,cefbuperzaone,cerbuperazone,tomiporan</t>
         </is>
       </c>
       <c r="J63" t="e">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cefcamate</t>
+          <t>cefcamate,cefcapene</t>
         </is>
       </c>
       <c r="J64">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>cefcamate,cefcamate pivoxil,cefcapene piroxil,flomox,flumax</t>
+          <t>cefcamate pivoxil,cefcapene piroxil</t>
         </is>
       </c>
       <c r="J65" t="e">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cefdinir impurity g,cefdinirum,cefdinyl,cefdirnir,ceftinex,cefzon,omnicef</t>
+          <t>cefdinir,cefdinir anhydrous,cefdinirum,cefdinyl,cefdirnir,ceftinex,cefzon,omnicef</t>
         </is>
       </c>
       <c r="J66">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>spectracef</t>
+          <t>cefditoren</t>
         </is>
       </c>
       <c r="J67">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cefditoren pi voxil,cefditorin,cefditorin pivoxil,meiact,spectracef</t>
+          <t>cefditoren,cefditoren pi voxil,cefditoren pivoxil,cefditorin,cefditorin pivoxil,meiact,spectracef</t>
         </is>
       </c>
       <c r="J68" t="e">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>axepim,cefepima,cefepimum,cepimax,cepimex,maxcef,maxipime</t>
+          <t>axepim,cefepima,cefepime,cefepimum,cepimax,cepimex,maxcef,maxipime</t>
         </is>
       </c>
       <c r="J69" t="e">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cefetametum,cepime o,deacetoxycefotaxime,epocelin</t>
+          <t>cefetamet,cefetametum,cepime o,deacetoxycefotaxime</t>
         </is>
       </c>
       <c r="J75">
@@ -5040,7 +5040,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>cefetamet pivoxyl,cefetametpivoxil,ceftamet pivoxil,cefyl,globocef</t>
+          <t>cefetamet pivoxyl,globocef</t>
         </is>
       </c>
       <c r="J76" t="e">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t/>
+          <t>cefetecol,cefetecol anhydrous</t>
         </is>
       </c>
       <c r="J77" t="e">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>cefetrizolum</t>
+          <t>cefetrizole,cefetrizolum</t>
         </is>
       </c>
       <c r="J78" t="e">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>fetcroja</t>
+          <t>cefiderocol</t>
         </is>
       </c>
       <c r="J79" t="e">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>cefixim,cefixima,cefixime impurity d,cefiximum,cefixoral,cefspan,cephoral,citropen,denvar,necopen,oroken,suprax,tricef,unixime</t>
+          <t>anhydrous cefixime,cefixim,cefixima,cefixime,cefixime anhydrous,cefixime hydrate,cefiximum,cefixoral,cefspan,cephoral,citropen,denvar,necopen,oroken,suprax,tricef,unixime</t>
         </is>
       </c>
       <c r="J80">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>bestron,cefmax,cefmenoxima,cefmenoximum,cemix,tacef</t>
+          <t>bestron,cefmax,cefmenoxima,cefmenoxime,cefmenoximum</t>
         </is>
       </c>
       <c r="J82" t="e">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>cefmetazolesalt,cefmetazolesodium,cefmetazolo,cefmetazolum,cefmetazon,metafar,zefazone</t>
+          <t>cefmetazole,cefmetazolesodium,cefmetazolo,cefmetazolum</t>
         </is>
       </c>
       <c r="J83" t="e">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>alteporina,cefminoxum,meicelin,tencef</t>
+          <t>cefminox,cefminoxum</t>
         </is>
       </c>
       <c r="J84" t="e">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>cefodizima,cefodizime acid,cefodizime disalt,cefodizime disodium,cefodizimum,cefodizme,diezime,kenicef,modivid,neucef,timecef</t>
+          <t>cefodizima,cefodizime,cefodizime acid,cefodizime disodium,cefodizimum,cefodizme,diezime,modivid,neucef,timecef</t>
         </is>
       </c>
       <c r="J85" t="e">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>cefonicid disalt,cefonicide,cefonicido,cefonicidsalt,cefonicidum,monocef,monocid</t>
+          <t>cefonicid,cefonicido,cefonicidum,monocef</t>
         </is>
       </c>
       <c r="J86" t="e">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>bioperazone,cefobid,cefobis,cefoneg,cefoper,cefoperazin,cefoperazine,cefoperazon,cefoperazone acid,cefoperazonesalt,cefoperazono,cefoperazonum,cefozon,medocef,myticef,pathozone,peracef,tomabef</t>
+          <t>bioperazone,cefobid,cefoperazine,cefoperazon,cefoperazone,cefoperazone acid,cefoperazono,cefoperazonum,cefozon,medocef,myticef,pathozone,peracef</t>
         </is>
       </c>
       <c r="J87" t="e">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>ceforanido,ceforanidum,precef,radacef</t>
+          <t>ceforanide,ceforanido,ceforanidum,precef,radacef</t>
         </is>
       </c>
       <c r="J89" t="e">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>wincef,winsef</t>
+          <t>cefoselis,cefoselis sulfate,wincef,winsef</t>
         </is>
       </c>
       <c r="J90" t="e">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>anticefotaxime,cefotax,cefotaxim,cefotaxim hikma,cefotaxima,cefotaxima acid,cefotaxime acid,cefotaximeimpurity d,cefotaximesalt,cefotaximsalt,cefotaximum,cephotaxime,claforan,kefotex,omnatax,pretor,ralopar,tolycar,tolycor,zariviz</t>
+          <t>cefotaxim,cefotaxim hikma,cefotaxima,cefotaxima acid,cefotaxime,cefotaxime acid,cefotaximum,cephotaxime,claforan,omnatax</t>
         </is>
       </c>
       <c r="J91" t="e">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>apacef,cefotan,cefotetan acid,cefotetan free acid,cefotetanum</t>
+          <t>apacef,cefotan,cefotetan,cefotetan acid,cefotetan free acid,cefotetanum</t>
         </is>
       </c>
       <c r="J94" t="e">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>cefotiam?,cefotiamum,ceradolan,ceradon,haloapor,halospor,pansporin,pansporin ampullen,pansporine,spizef</t>
+          <t>cefotiam,cefotiam?,cefotiamum,ceradolan,ceradon,haloapor</t>
         </is>
       </c>
       <c r="J95">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>cefotiam cilexetil,pansporin t,taketiam,texodil</t>
+          <t>cefotiam cilexetil,pansporin t</t>
         </is>
       </c>
       <c r="J96" t="e">
@@ -6334,7 +6334,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>cefovecinsalt,convenia</t>
+          <t>cefovecin</t>
         </is>
       </c>
       <c r="J97" t="e">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>betacef,cefoxil,cefoxitina,cefoxitine,cefoxitinsalt,cefoxitinum,cefoxotin,cenomycin,cephoxitin,farmoxin,mefoxin,mefoxithin,mefoxitin,merxin,rephoxitin</t>
+          <t>cefoxitin,cefoxitina,cefoxitine,cefoxitinum,cefoxotin,cenomycin,cephoxitin,mefoxin,mefoxitin,rephoxitin</t>
         </is>
       </c>
       <c r="J98" t="e">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>cefozopran?,firstcin</t>
+          <t>cefozopran</t>
         </is>
       </c>
       <c r="J100" t="e">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>cefpimizol,cefpimizolesalt,cefpimizolum,renilan</t>
+          <t>cefpimizol,cefpimizole,cefpimizole sodium,cefpimizolum</t>
         </is>
       </c>
       <c r="J101" t="e">
@@ -6636,7 +6636,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>cefpiramide acid,cefpiramidesalt,cefpiramido,cefpiramidum,sepatren,suncefal,tamicin</t>
+          <t>cefpiramide,cefpiramide acid,cefpiramido,cefpiramidum</t>
         </is>
       </c>
       <c r="J102" t="e">
@@ -6700,7 +6700,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>broact,cefpiroma,cefpiromum,cefrom,cerfpirome,keiten,romecef</t>
+          <t>broact,cefpiroma,cefpirome,cefpiromum,cefrom,cerfpirome,keiten</t>
         </is>
       </c>
       <c r="J103" t="e">
@@ -6764,7 +6764,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>anticefotaxime,cefotax,cefotaxim,cefotaxime acid,cefotaximeimpurity d,cefpodoxim acid,cefpodoxima,cefpodoxime acid,cefpodoximum,claforan,epoxim,kefotex</t>
+          <t>cefpodoxim acid,cefpodoxima,cefpodoxime,cefpodoxime acid,cefpodoximum,epoxim</t>
         </is>
       </c>
       <c r="J104">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>cefodox,cefodoxime proxetil,cefoprox,cefpodoximproxetil,cepodem,orelox,orelox paed,otreon,podomexef,simplicef,vantin</t>
+          <t>cefodox,cefoprox,cefpodoxime proxetil,cepodem,orelox,orelox paed,otreon,podomexef,simplicef,vantin</t>
         </is>
       </c>
       <c r="J105" t="e">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>arzimol,brisoral,cefprozilo,cefprozilum,cefzil,cronocef,procef,serozil</t>
+          <t>arzimol,brisoral,cefprozil,cefprozil anhydrous,cefprozil hydrate,cefprozilo,cefprozilum,cefzil,cronocef,procef,serozil</t>
         </is>
       </c>
       <c r="J107">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>cefquinoma,cefquinomum,cobactan</t>
+          <t>cefquinoma,cefquinome,cefquinomum,cobactan</t>
         </is>
       </c>
       <c r="J108" t="e">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>cefroxadin,cefroxadin dihydrate,cefroxadino,cefroxadinum,oraspor</t>
+          <t>cefroxadin,cefroxadine,cefroxadino,cefroxadinum,oraspor</t>
         </is>
       </c>
       <c r="J109">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>cefomonil,cefonomil,cefsulodine,cefsulodino,cefsulodinsalt,cefsulodinum,pseudocef,pseudomonil,pyocefal,sulcephalosporin,takesulin,tilmapor,ulfaret</t>
+          <t>cefonomil,cefsulodin,cefsulodine,cefsulodino,cefsulodinum</t>
         </is>
       </c>
       <c r="J110" t="e">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>cefsulmid,cefsumido,cefsumidum</t>
+          <t>cefsulmid,cefsumide,cefsumido,cefsumidum</t>
         </is>
       </c>
       <c r="J111" t="e">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>ceftaroine,ceftaroline fosamil,teflaro,zinforo</t>
+          <t>ceftaroline fosamil,teflaro,zinforo</t>
         </is>
       </c>
       <c r="J112" t="e">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>ceftazidim,ceftazidima,ceftazidimum,ceftazimide,ceptaz,fortam,fortaz,fortum,glazidim,modacin,pentacef,tazicef,tazidime</t>
+          <t>ceftazidim,ceftazidima,ceftazidime,ceftazidimum,ceptaz,fortaz,fortum,pentacef,tazicef,tazidime</t>
         </is>
       </c>
       <c r="J114" t="e">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>cefterame,cefteramum,ceftetrame</t>
+          <t>cefteram,cefterame,cefteramum,ceftetrame</t>
         </is>
       </c>
       <c r="J117">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>cefterampivoxil,tomiron</t>
+          <t>cefteram pivoxil,cefterampivoxil,tomiron</t>
         </is>
       </c>
       <c r="J118" t="e">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>alomen,ceftezol,ceftezolesalt,ceftezolo,ceftezolum,celoslin,demethylcefazolin,falomesin</t>
+          <t>ceftezol,ceftezole,ceftezolo,ceftezolum,demethylcefazolin</t>
         </is>
       </c>
       <c r="J119" t="e">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>cedax,ceftem,ceftibuten dihydrate,ceftibutene,ceftibuteno,ceftibutenum,ceftibutin,cephem,ceprifran,isocef,keimax,seftem</t>
+          <t>ceftem,ceftibuten,ceftibuten dihydrate,ceftibuten hydrate,ceftibutene,ceftibuteno,ceftibutenum,ceftibutin,cephem,ceprifran,isocef,keimax</t>
         </is>
       </c>
       <c r="J120">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>ceftiofurum,excede,excenel,naxcel</t>
+          <t>ceftiofur,ceftiofurum,excede,excenel,naxcel</t>
         </is>
       </c>
       <c r="J121" t="e">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>cefizox,ceftisomin,ceftix,ceftizoxima,ceftizoximesalt,ceftizoximum,epocelin,eposerin</t>
+          <t>cefizox,ceftisomin,ceftix,ceftizoxima,ceftizoxime,ceftizoximum,epocelin,eposerin</t>
         </is>
       </c>
       <c r="J122" t="e">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t/>
+          <t>ceftobiprole</t>
         </is>
       </c>
       <c r="J124" t="e">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>zevtera</t>
+          <t/>
         </is>
       </c>
       <c r="J125" t="e">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>biotrakson,cefatriaxone,ceftriaxon,ceftriaxona,ceftriaxonum,ceftriazone,cephtriaxone,longacef,rocefin,rocephalin,rocephin,rocephine,rophex</t>
+          <t>biotrakson,cefatriaxone,cefatriaxone hydrate,ceftriaxon,ceftriaxona,ceftriaxone,ceftriaxone sodium,ceftriaxonum,ceftriazone,cephtriaxone,longacef,rocefin,rocephalin,rocephin,rocephine,rophex</t>
         </is>
       </c>
       <c r="J127" t="e">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>anaptivan,biociclin,biofuroksym,bioxima,cefofix,cefumax,cefurex,cefuril,cefurox,cefuroxim,cefuroxim curasan,cefuroxim fresenius,cefuroxim genericsn,cefuroxim hexal,cefuroxim lilly,cefuroxim norcox,cefuroxima,cefuroxima fabra,cefuroxima richet,cefuroxime acid,cefuroxime free acid,cefuroximeimpurity e,cefuroximesalt,cefuroximine,cefuroximo,cefuroximum,cephuroxime,cetroxil,colifossim,curoxim,curoxima,curoxime,froxal,furoxil,kefurox,kesint,ketocef,lifurox,medoxim,sharox,spectrazolr,ultroxim,zinacef,zinacef danmark,zinnat</t>
+          <t>biofuroksym,cefuril,cefuroxim,cefuroxima,cefuroxime,cefuroxime acid,cefuroximine,cefuroximo,cefuroximum,cephuroxime,kefurox,sharox,zinacef,zinacef danmark</t>
         </is>
       </c>
       <c r="J129">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>altacef,bioracef,cefaks,cefazine,ceftin,cefurax,cefuroximaxetil,celocid,cepazine,cethixim,cetoxil,coliofossim,elobact,forcef,furoxime,kalcef,maxitil,medoxm,nivador,novador,novocef,oraxim,zinnat</t>
+          <t>altacef,bioracef,cefaks,cefazine,ceftin,cefurax,cefuroximaxetil,cefuroxime,cefuroxime axetil,celocid,cepazine,cethixim,cetoxil,coliofossim,elobact,forcef,furoxime,kalcef,maxitil,medoxm,nivador,novador,novocef,oraxim,zinnat</t>
         </is>
       </c>
       <c r="J130" t="e">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>cefuzoname,cefuzonamum,cefzoname,cosmosin,mtc.na</t>
+          <t>cefuzonam,cefuzonam sodium,cefuzoname,cefuzonamum</t>
         </is>
       </c>
       <c r="J132" t="e">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>anspor,cefradin,cefradina,cefradine,cefradine dihydrate,cefradinum,cekodin,cephradin,cephradine dihydrate,eskacef,infexin,megace f,megacef,sefril,velocef,velosef</t>
+          <t>anspor,cefradin,cefradina,cefradine,cefradine hydrate,cefradinum,cekodin,cephradin,cephradine,cephradine anhydrous,cephradine hydrate,eskacef,infexin,megace f,megacef,sefril,velocef,velosef</t>
         </is>
       </c>
       <c r="J133">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>cetocyline,cetotetrine,chelocardin</t>
+          <t>cetocycline,cetocyline,cetotetrine,chelocardin</t>
         </is>
       </c>
       <c r="J134" t="e">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,ch loramex,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicol levo,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetin r,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocid s,chlorocide,chlorocidin c,chlorocidin c tetran,chlorocin,chlorocol,chlorofair,chloroject l,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloroptic s.o.p,chloroptic s.o.p.,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextramycin,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,f armicetina,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isopto fenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocid s,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycin v,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,sintomicetine r,sno phenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,vice ton,viceton</t>
+          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,ch loramex,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicol,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetin r,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocid s,chlorocide,chlorocidin c,chlorocidin c tetran,chlorocin,chlorocol,chlorofair,chloroject l,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloroptic s.o.p,chloroptic s.o.p.,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,f armicetina,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isopto fenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocid s,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycin v,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,sintomicetine r,sno phenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,vice ton,viceton</t>
         </is>
       </c>
       <c r="J135">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>acronize,alexomycin,aueromycin,aureocarmyl,aureociclina,aureocina,aureocycline,aureomycin,aureomykoin,auxeomycin,biomitsin,biomycin,biomycin a,chlormax,chlorotetracycline,chlortetracyclinum,chrysomykine,clorocipan,clortetraciclina,clortetrin,declomycin,declostatin,deganol,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,duomycin,elkamicina,fermycin soluble,flamycin,isphamycin,ledermicina,ledermycin,ledermycine,mexocine,novotriclina,perciclina,periciclina,sumaclina,uromycin,veraciclina</t>
+          <t>acronize,aueromycin,aureocina,aureomycin,aureomykoin,biomitsin,biomycin,biomycin a,chlormax,chlorotetracycline,chlortetracycline,chlortetracyclinum,chrysomykine,clortetraciclina,duomycin,flamycin,uromycin</t>
         </is>
       </c>
       <c r="J136">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>bastcillin,calthor,ciclacilina,ciclacilline,ciclacillinum,ciclacillum,citosarin,cyclacillin,cyclapen,noblicil,orfilina,peamezin,syngacillin,ultracillin,vastcillin,vipicil,wyvital</t>
+          <t>bastcillin,calthor,ciclacilina,ciclacillin,ciclacilline,ciclacillinum,ciclacillum,citosarin,cyclacillin,cyclapen,noblicil,orfilina,peamezin,syngacillin,ultracillin,vastcillin,vipicil,wyvital</t>
         </is>
       </c>
       <c r="J137" t="e">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>butaconazole,butoconazol,butoconazolum,ciclodan,ciclopirox gel,ciclopirox olamin,ciclopiroxum,compositenstarke,dahlin,femstat,gynofort,loprox,loprox cream,loprox gel,penlac,polyfructosanum,stieprox</t>
+          <t>butaconazole,butoconazol,butoconazole,butoconazolum,ciclodan,ciclopirox,ciclopirox gel,ciclopirox olamin,ciclopiroxum,compositenstarke,dahlin,femstat,gynofort,loprox,loprox cream,loprox gel,penlac,polyfructosanum,stieprox</t>
         </is>
       </c>
       <c r="J138" t="e">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>azolinic acid,cinobac,cinobactin,cinoxacine,cinoxacino,cinoxacinum,clinoxacin,noxigram,uronorm</t>
+          <t>azolinic acid,cinobac,cinobactin,cinoxacin,cinoxacine,cinoxacino,cinoxacinum,clinoxacin,noxigram,uronorm</t>
         </is>
       </c>
       <c r="J139">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>alcipro,alcon cilox,auripro,bacquinor,baflox,baycip,belmacina,bernoflox,catex,cenin,ceprimax,cetraxal,ciflan,ciflosin,ciflox,cifloxin,cilox,ciloxan,cipad,ciplus,ciprecu,ciprenit,ciprine,ciprinol,cipro,ciprobay,ciprobay uro,ciprocinal,ciprocinol,ciprodar,ciproflox,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprofur,ciprogis,ciproktan,ciprolin,ciprolon,cipromycin,cipronex,cipropol,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citeral,citopcin,corsacin,cunesin,cyprobay,cyproxan,disfabac,felixene,fimoflox,flociprin,floxacipron,flunas,globuce,inkamil,ipiflox,italnik,keefloxin,linhaliq,loxacid,lypro,megaflox,microgan,nixin,novidat,novoquin,ofitin,oftacilox,ophaflox,otiprio,phaproxin,piprol,plenolyt,probiox,proflaxin,proquin,proquinxr,proxacin,quinoflox,quinolid,quintor,quipro,rancif,renator,roflazin,roxytal,sepcen,septicide,septocipro,siprogut,sophixin,sophixin ofteno,spitacin,strox,suiflox,superocin,supraflox,uritent,utiminx,velmonit,velomonit,zumaflox</t>
+          <t>alcon cilox,auripro,bacquinor,baflox,baycip,bernoflox,cetraxal,ciflox,cifloxin,ciloxan,ciplus,ciprecu,ciprine,ciprinol,cipro i.v.,cipro iv,cipro xl,cipro xr,ciprobay,ciprobay uro,ciprocinol,ciprodar,ciproflox,ciprofloxacin,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprogis,ciprolin,ciprolon,cipromycin,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citopcin,corsacin,cyprobay,fimoflox,flociprin,ipiflox,italnik,linhaliq,otiprio,probiox,proflaxin,quinolid,quintor,rancif,roxytal,septicide,sophixin ofteno,spitacin,superocin,velmonit,velomonit,zumaflox</t>
         </is>
       </c>
       <c r="J140">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>abbotic,abboticine,astromen,biaxin,biaxin filmtab,biaxin xl filmtab,bicrolid,bristamycin,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycine,clarithromycinum,claritromicina,clathromycin,crixan,cyllid,cyllind,dowmycin e,durapaediat,e.e.s,e.e.s.,ees granules,eratrex,eryliquid,erypar,eryped,erythrocin,erythrocin stearate,erythrocin w,erythroped,esinol,ethril,fromilid,gallimycin,heliclar,klabax,klacid,klaciped,klaricid,klarid,klarin,kofron,mabicrol,macladin,maclar,meberyt,pediamycin,prevpac,qidmycin,refkas,veclam,vikrol,wyamycin,wyamycin e,wyamycin s,zeclar</t>
+          <t>abbotic,astromen,biaxin,biaxin filmtab,biaxin hp,biaxin xl,biaxin xl filmtab,bicrolid,clacee,clacid,clacine,clambiotic,clarem,claribid,claricide,claridar,claripen,clarith,clarithromycin,clarithromycine,clarithromycinum,claritromicina,clathromycin,crixan,cyllid,cyllind,fromilid,heliclar,klabax,klacid,klaciped,klaricid,klaricid h.p,klaricid h.p.,klaricid pediatric,klaricid xl,klarid,klarin,kofron,mabicrol,macladin,maclar,prevpac,veclam,vikrol,zeclar</t>
         </is>
       </c>
       <c r="J144">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>acide clavulanique,acido clavulanico,acidum clavulanicum,amonate,clavulanate,clavulanate acid,clavulanate lithium,clavulanateacid,clavulansaeure,clavulansaure,clavulinic acid,clavulox,lithium clavulanate,serdaxin</t>
+          <t>acide clavulanique,acido clavulanico,acidum clavulanicum,clavulanate,clavulanate acid,clavulanate lithium,clavulanateacid,clavulanic acid,clavulansaeure,clavulansaure,clavulinic acid,clavulox,serdaxin,sodium clavulanate</t>
         </is>
       </c>
       <c r="J145" t="e">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>spifloxacin</t>
+          <t>clinafloxacin</t>
         </is>
       </c>
       <c r="J146" t="e">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>antirobe,antirobe aquadrops,antirobe capsules,benzaclin,chlolincocin,cleocin,clindacure,clindaderm,clindamed,clindamicina,clindamycine,clindamycinum,clinimycin,clinsol,clintabs,dalacin c,dalacine,klimicin,sobelin,zydaclin</t>
+          <t>antirobe,chlolincocin,clindaderm,clindamicina,clindamycin,clindamycine,clindamycinum,clinimycin,dalacin c,dalacine,klimicin,sobelin</t>
         </is>
       </c>
       <c r="J147">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>chlofazimine,clofazimin,clofazimina,clofaziminum,colfazimine,lampren,lamprene,riminophenazine</t>
+          <t>chlofazimine,clofazimin,clofazimina,clofazimine,clofaziminum,colfazimine,lampren,lamprene,riminophenazine</t>
         </is>
       </c>
       <c r="J149">
@@ -9600,7 +9600,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>clofoctolo,clofoctolum,gramplus,octofene</t>
+          <t>clofoctol,clofoctolo,clofoctolum,gramplus,octofene</t>
         </is>
       </c>
       <c r="J150" t="e">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>chlomethocillin,clometacillin,clomethacillin,clomethocillin,clometocilina,clometocilline,clometocillinsalt,clometocillinum,rixapen</t>
+          <t>chlomethocillin,clometacillin,clometocilina,clometocillin,clometocilline,clometocillinum,rixapen</t>
         </is>
       </c>
       <c r="J151">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>alexomycin,aureocarmyl,aureociclina,aureocycline,aureomycin,auxeomycin,chlormethylencycline,clomociclina,clomocyclin,clomocyclinum,clorocipan,clortetrin,declomycin,declostatin,deganol,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,elkamicina,fermycin soluble,isphamycin,ledermicina,ledermycin,ledermycine,megaclor,mexocine,novotriclina,perciclina,periciclina,sumaclina,veraciclina</t>
+          <t>chlormethylencycline,clomociclina,clomocyclin,clomocycline,clomocyclinum,megaclor</t>
         </is>
       </c>
       <c r="J152">
@@ -9786,7 +9786,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>canesten,canesten cream,canesten solution,canestene,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimaderm cream,clotrimazol,clotrimazolum,cutistad,desamix f,diphenylmethane,empecid,esparol,fem care,femcare,gyne lotrimin,imidazole,jidesheng,kanesten,klotrimazole,lombazol,lombazole,lombazolum,lotrimax,lotrimin,lotrimin af cream,lotrimin af lotion,lotrimin af solution,lotrimin cream,lotrimin lotion,lotrimin solution,monobaycuten,mycelax,mycelex,mycelex cream,mycelex g,mycelex otc,mycelex solution,mycelex troches,mycelex twin pack,myclo cream,myclo solution,myclo spray solution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,trivagizole,veltrim</t>
+          <t>canesten,canesten cream,canesten solution,canestene,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimaderm cream,clotrimazol,clotrimazole,clotrimazolum,cutistad,desamix f,diphenylmethane,empecid,esparol,fem care,femcare,gyne lotrimin,jidesheng,kanesten,klotrimazole,lotrimax,lotrimin,lotrimin af,lotrimin af cream,lotrimin af lotion,lotrimin af solution,lotrimin cream,lotrimin lotion,lotrimin solution,monobaycuten,mycelax,mycelex,mycelex cream,mycelex g,mycelex otc,mycelex solution,mycelex troches,mycelex twin pack,myclo cream,myclo solution,myclo spray solution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,trivagizole,veltrim</t>
         </is>
       </c>
       <c r="J153" t="e">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>ankerbin,austrastaph,biocloxin,brispen,chloroxacillin,ciclex,clocil,clossacillina,cloxacilina,cloxacillinanhydrous,cloxacilline,cloxacillinna,cloxacillinsalt,cloxacillinum,cloxapen,constaphyl,dariclox,dichlorstapenor,diclocil,dicloxacillinhydrate,diflor,digloxilline,dycill,dynapen,ekvacillin,gelstaph,methocillin s,novapen,noxaben,orbenin,pathocil,prevencilina p,prostaphilin a,prostaphlin a,stampen,staphcillin a banyu,staphybiotic,syntarpen,syntarpensalt,tegopen</t>
+          <t>chloroxacillin,clossacillina,cloxacilina,cloxacillin,cloxacillin sodium,cloxacilline,cloxacillinna,cloxacillinum,cloxapen,methocillin s,orbenin,syntarpen,tegopen</t>
         </is>
       </c>
       <c r="J154">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>belcomycine,colimycin,colisticin,colisticina,colistimethate,colistina,colistine,colistinum,colobreathe,colomycin,coly-mycin,colymysin s,kangdisu,kolimitsin,polymyxin e,polymyxin e.,promixin,totazina</t>
+          <t>belcomycine,colimycin,colimycin sulphate,colisticin,colistimethate,colistimethate sodium,colistin sulfate,colistin sulphate,colobreathe,colomycin,coly-mycin,polymyxin e,polymyxin e. sulfate,promixin,totazina</t>
         </is>
       </c>
       <c r="J155">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>cicloserina,closerin,closina,cyclorin,cycloserin,cycloserinum,farmiserina,levcicloserina,levcycloserine,levcycloserinum,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,tisomycin,wasserina</t>
+          <t>cicloserina,closerin,closina,cyclorin,cycloserin,cycloserine,cycloserinum,farmiserina,micoserina,miroserina,miroseryn,novoserin,oxamicina,oxamycin,seromycin,tebemicina,tisomycin,wasserina</t>
         </is>
       </c>
       <c r="J157">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>dalbavancin?,dalbavancina,dalvance,zeven</t>
+          <t>dalbavancin,dalvance</t>
         </is>
       </c>
       <c r="J158" t="e">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>advocin,danofloxacine,danofloxacino,danofloxacinum</t>
+          <t>advocin,danofloxacin,danofloxacine,danofloxacino,danofloxacinum</t>
         </is>
       </c>
       <c r="J159" t="e">
@@ -10224,7 +10224,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aczone,araldite,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bis sulfone,bis sulfoxide,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsonum,di sulfone,di sulfoxide,diaphenyl sulfone,diaphenylsulfon,diaphenylsulfone,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulfone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,medapsol,metabolite c,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfone ucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicure s,tarimyl,udolac</t>
+          <t>aczone,araldite ht,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bis sulfone,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsone,dapsonum,di sulfone,diaphenyl sulfone,diaphenylsulfon,diaphenylsulfone,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulfone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,metabolite c,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfone ucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicure s,tarimyl,udolac</t>
         </is>
       </c>
       <c r="J160">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>cidecin,cubicin,dapcin,daptomicina,daptomycin for,daptomycine,daptomycinum,dapzura,deptomycin</t>
+          <t>cidecin,cubicin,dapcin,daptomicina,daptomycine,daptomycinum</t>
         </is>
       </c>
       <c r="J161" t="e">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>baxdela,delafloxacinum,quofenix</t>
+          <t>baxdela,delafloxacin,delafloxacinum,quofenix</t>
         </is>
       </c>
       <c r="J162">
@@ -10414,7 +10414,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>deltyba</t>
+          <t>delamanid,deltyba</t>
         </is>
       </c>
       <c r="J163">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>alexomycin,aureocarmyl,aureociclina,aureocycline,aureomycin,auxeomycin,bioterciclin,clorocipan,clortetrin,declomycin,declostatin,deganol,demeclociclina,demeclocyclinum,demeclor,demeplus,demetraciclina,demetraclin,detracin,detravis,diuciclin,elkamicina,fermycin soluble,isphamycin,ledermicina,ledermycin,ledermycine,mexocine,novotriclina,perciclina,periciclina,sumaclina,veraciclina</t>
+          <t>bioterciclin,clortetrin,declomycin,deganol,demeclociclina,demeclocycline,demeclocyclinum,demeclor,demetraclin,diuciclin,elkamicina,ledermycin,mexocine,novotriclina,perciclina,sumaclina</t>
         </is>
       </c>
       <c r="J164">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>debecacin,dibekacina,dibekacine,dibekacinum,dideoxykanamycin b,kappati,orbicin,panamicin</t>
+          <t>debecacin,dibekacin,dibekacin sulfate,dibekacina,dibekacine,dibekacinum,dideoxykanamycin b,kappati,orbicin,panamicin</t>
         </is>
       </c>
       <c r="J165" t="e">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>ankerbin,austrastaph,biocloxin,brispen,ciclex,clocil,cloxacillinanhydrous,cloxacillinsalt,constaphyl,dariclox,dichloroxacillin,dichlorstapenor,diclocil,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillina,dicloxacilline,dicloxacillinhydrate,dicloxacillinum,dicloxacycline,diflor,digloxilline,dycill,dynapen,ekvacillin,gelstaph,maclicine,nm|| dicloxacillin,novapen,noxaben,orbenin,pathocil,prevencilina p,prostaphilin a,prostaphlin a,stampen,staphcillin a banyu,staphybiotic,syntarpensalt,tegopen</t>
+          <t>dichloroxacillin,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillin,dicloxacillin sodium,dicloxacillina,dicloxacilline,dicloxacillinum,dicloxacycline,dycill,dynapen,maclicine,nm|| dicloxacillin,pathocil</t>
         </is>
       </c>
       <c r="J166">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>dicural,dicural tablets,pulsaflox</t>
+          <t>dicural,difloxacin,pulsaflox</t>
         </is>
       </c>
       <c r="J167" t="e">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>dirithromycine,dirithromycinum,diritromicina,divitross,dynabac,noriclan,valodin</t>
+          <t>dirithromycin,dirithromycine,dirithromycinum,diritromicina,divitross,dynabac,noriclan,valodin</t>
         </is>
       </c>
       <c r="J168">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>doribax,dripenem,finibax</t>
+          <t>doribax,doripenem,doripenem hydrate,finibax</t>
         </is>
       </c>
       <c r="J169" t="e">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>abbocin,alamycin,aquacycline,atridox,azudoxat,bi steclin,biosolvomycin,biotet,bisolvomycin,chrysocin,dalimycin,dalinmycin,deoxymykoin,dossiciclina,doxcycline,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycycline calcium,doxycycline hyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,elinton,engemycin,hydramycin,hydrocyclin,imperacin,intaloxin,investin,jenacyclin,liquachel,liviatin,macodyn,mepatar,monodox,oracea,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetracycline.hcl,oxytetral,oxytetrin,oxytracyl,oxyvet,periostat,ronaxan,spanor,stecsolin,supracyclin,terraject,terramycin,tetran hydrochloride,toxinal,unimycin,vendarcin,vibramycin,vibramycin novum,vibramycine,vibravenos,zenavod</t>
+          <t>atridox,azudoxat,deoxymykoin,dossiciclina,doxcycline anhydrous,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycycline,doxycycline calcium,doxycycline hyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,hydramycin,investin,jenacyclin,liviatin,monodox,oracea,periostat,ronaxan,spanor,supracyclin,vibramycin,vibramycin novum,vibramycine,vibravenos,zenavod</t>
         </is>
       </c>
       <c r="J170">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>bromazil,chloramizol,clinafarm,deccosil,deccozil,econazol,econazolum,ecostatin,ecostatin cream,enilconazol,enilconazole,eniloconazol,fecundal,flo pro imz,flopro imz,florasan,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,imidazole,magnate,nuzone,palavale,pevaryl,rappor plus,spectazole,spectazole cream</t>
+          <t>econazol,econazole,econazolum,ecostatin,ecostatin cream,palavale,pevaryl,spectazole,spectazole cream</t>
         </is>
       </c>
       <c r="J171" t="e">
@@ -10986,7 +10986,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>almitil,bactidan,bactidron,comprecin,enofloxacine,enoksetin,enoram,enoxacina,enoxacine,enoxacino,enoxacinum,enoxen,enoxin,enoxor,flumark,penetrex</t>
+          <t>almitil,bactidan,bactidron,comprecin,enofloxacine,enoksetin,enoram,enoxacin,enoxacina,enoxacine,enoxacino,enoxacinum,enoxen,enoxin,enoxor,flumark,penetrex</t>
         </is>
       </c>
       <c r="J172">
@@ -11046,7 +11046,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>baytril,enrofloxacine,enrofloxacino,enrofloxacinum,enroxil</t>
+          <t>baytril,enrofloxacin,enrofloxacine,enrofloxacino,enrofloxacinum,enroxil</t>
         </is>
       </c>
       <c r="J173" t="e">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>enviomicina,enviomycina,enviomycinum,tuberactin</t>
+          <t>enviomicina,enviomycin,enviomycina,enviomycinum,tuberactin</t>
         </is>
       </c>
       <c r="J174" t="e">
@@ -11226,7 +11226,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>dexacillin,dihydroampicillin,epicilina,epicilline,epicillinum</t>
+          <t>dexacillin,dihydroampicillin,epicilina,epicillin,epicilline,epicillinum</t>
         </is>
       </c>
       <c r="J176">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>epiroprima,epiroprime,epiroprimum</t>
+          <t>epiroprim,epiroprima,epiroprime,epiroprimum</t>
         </is>
       </c>
       <c r="J177" t="e">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>xerava</t>
+          <t>eravacycline,xerava</t>
         </is>
       </c>
       <c r="J178" t="e">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>ertapenem?,ertapenemhydrate,ertapenemsalt,invanz</t>
+          <t>ertapenem,invanz</t>
         </is>
       </c>
       <c r="J179" t="e">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>abboticin,abboticine,abomacetin,acneryne,acnesol,akne cordes losung,aknederm ery gel,aknemycin,austrias,benzamycin,bristamycin,derimer,deripil,dotycin,dowmycin e,dumotrycin,durapaediat,e.e.s,e.e.s.,ees granules,emuvin,emycin,endoeritrin,eratrex,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,eryc sprinkles,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,eryliquid,erymax,erymed,erypar,eryped,erysafe,erytab,erythrocin,erythrocin stearate,erythrocin w,erythroderm,erythrogran,erythroguent,erythromid,erythromycin a,erythromycin lactate,erythromycine,erythromycines,erythromycinum,erythroped,erytop,erytrociclin,esinol,ethril,gallimycin,ilocaps,ilosone,iloticina,ilotycin,ilotycin gluceptate,inderm,inderm gel,indermretcin,latotryd,lederpax,meberyt,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pce dispertab,pediamycin,pharyngocin,primacine,propiocine,proterytrin,qidmycin,refkas,retcin,robimycin,romycin,sansac,skid gel e,staticin,stiemicyn,stiemycin,theramycin z,tiloryth,tiprocin,torlamicina,udima ery gel,wyamycin,wyamycin e,wyamycin s</t>
+          <t>abboticin,abomacetin,acneryne,acnesol,akne cordes losung,aknederm ery gel,aknemycin,austrias,benzamycin,bristamycin,derimer,deripil,dotycin,dumotrycin,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,eryc sprinkles,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erypar,erysafe,erytab,erythrocin,erythrocin stearate,erythroderm,erythrogran,erythroguent,erythromid,erythromycin,erythromycin a,erythromycin base,erythromycin lactate,erythromycine,erythromycines,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,ilotycin gluceptate,ilotycin t.s.,inderm,inderm gel,indermretcin,latotryd,lederpax,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pce dispertab,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,romycin,sansac,skid gel e,staticin,stiemicyn,stiemycin,theramycin z,tiloryth,tiprocin,torlamicina,udima ery gel,wyamycin s</t>
         </is>
       </c>
       <c r="J180">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aethambutolum,dadibutol,diambutol,ebutol,etambutol,etambutolo,etapiam,ethambutolum,myambutol,mycobutol,purderal,servambutol,tibutol</t>
+          <t>aethambutolum,diambutol,ebutol,etambutol,etambutolo,etapiam,ethambutol,ethambutolum,myambutol,mycobutol,purderal,servambutol,tibutol</t>
         </is>
       </c>
       <c r="J181">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>aethionamidum,aetina,aetiva,amidazin,amidazine,ethatyl,ethimide,ethina,ethinamide,ethionamidum,ethioniamide,ethylisothiamide,ethyonomide,etimid,etiocidan,etionamid,etionamida,etionamide,etioniamid,etionid,etionizin,etionizina,etionizine,fatoliamid,iridocin,iridocin bayer,iridozin,isothin,isotiamida,itiocide,nicotion,nisotin,nizotin,rigenicid,sertinon,teberus,thianid,thianide,thioamide,thiodine,thiomid,thioniden,tianid,tiomid,trecator,trekator,trescatyl,trescazide,tubenamide,tubermin,tuberoid,tuberoson</t>
+          <t>aethionamidum,aetina,aetiva,amidazin,amidazine,ethatyl,ethimide,ethina,ethinamide,ethionamide,ethionamidum,ethioniamide,ethylisothiamide,ethyonomide,etimid,etiocidan,etionamid,etionamida,etionamide,etioniamid,etionid,etionizin,etionizina,etionizine,fatoliamid,iridocin,iridocin bayer,iridozin,isothin,isotiamida,itiocide,nicotion,nisotin,nizotin,rigenicid,sertinon,teberus,thianid,thianide,thioamide,thiodine,thiomid,thioniden,tianid,tiomid,trecator,trecator sc,trekator,trescatyl,trescazide,tubenamide,tubermin,tuberoid,tuberoson</t>
         </is>
       </c>
       <c r="J183">
@@ -11732,7 +11732,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>amprol plus,ethopabat,ethyl pabate</t>
+          <t>amprol plus,ethopabat,ethopabate,ethyl pabate</t>
         </is>
       </c>
       <c r="J184" t="e">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>farom,faropenemhydrate,faropenemsalt,fropenem,fropenum,furopenem</t>
+          <t>faropenem,faropenem sodium,fropenem,fropenum sodium</t>
         </is>
       </c>
       <c r="J186">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>dificid,dificlir,difimicin,lipiarmicin,lipiarmycin,lipiarrmycin,tiacumicin b</t>
+          <t>dificid,dificlir,difimicin,fidaxomicin,lipiarmicin,lipiarmycin,lipiarrmycin,tiacumicin b</t>
         </is>
       </c>
       <c r="J187">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t/>
+          <t>finafloxacin</t>
         </is>
       </c>
       <c r="J188" t="e">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>bambermicina,bambermycin,bambermycine,bambermycinum,flavofosfolipol,flavophospholipol,gainpro,menomycin,moenomycin complex</t>
+          <t>flavophospholipol,moenomycin complex</t>
         </is>
       </c>
       <c r="J189" t="e">
@@ -12090,7 +12090,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>fleroxacine,fleroxacino,fleroxacinum,fleroxicin,megalocin,megalone,megalosin,quinodis</t>
+          <t>fleroxacin,fleroxacine,fleroxacino,fleroxacinum,fleroxicin,megalocin,megalone,megalosin,quinodis</t>
         </is>
       </c>
       <c r="J190">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>flomoxefo,flomoxefsalt,flomoxefum,flumarin</t>
+          <t>flomoxef,flomoxefo,flomoxefum</t>
         </is>
       </c>
       <c r="J191" t="e">
@@ -12212,7 +12212,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aquafen,descocin,dexawin,dextrosulphenidol,efnicol,fricol,hyrazin,igralin,macphenicol,masatirin,neomyson,nuflor,nuflor gold,racephenicol,rincrol,thiamcol,thiamphenicol epimer,thiocymetin,urfamicina,urfamycine,urophenyl</t>
+          <t>aquafen,florfenicol,nuflor,nuflor gold</t>
         </is>
       </c>
       <c r="J192" t="e">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>ankerbin,austrastaph,bactopen,cloxacap,cloxacillinanhydrous,cloxacillinhydrate,cloxacillinsalt,cloxapen,cloxypen,culpen,dariclox,ekvacillin,floxacillin,floxapen,floxapen sodium salt,fluclox,flucloxacilina,flucloxacilline,flucloxacillinum,fluorochloroxacillin,gelstaph,latocillin,orbenin,orbeninhydrate,prevencilina p,prostaphilin a,prostaphlin a,staphybiotic,staphylex,syntarpensalt,tegopen</t>
+          <t>culpen,floxacillin,floxacillin sodium,floxapen,floxapen sodium salt,fluclox,flucloxacilina,flucloxacillin,flucloxacilline,flucloxacillinum,fluorochloroxacillin,staphylex</t>
         </is>
       </c>
       <c r="J193">
@@ -12340,7 +12340,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>alflucoz,alfumet,alkanazole,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazol,fluconazole capsules,fluconazoli,fluconazolum,flucoral,flucostat,flukezol,flunazol,flunizol,flusol,fluzon,fluzone,forcan,fuconal,fungata,loitin,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zoltec</t>
+          <t>alflucoz,alfumet,alkanazole,biocanol,biozole,biozolene,canzol,cryptal,diflazon,diflucan,dimycon,elazor,flucazol,fluconazol,fluconazole,fluconazole capsules,fluconazoli,fluconazolum,flucoral,flucostat,flukezol,flunazol,flunizol,flusol,fluzon,fluzone,forcan,fuconal,fungata,loitin,oxifugol,pritenzol,syscan,trican,triconal,triflucan,zoltec</t>
         </is>
       </c>
       <c r="J194">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>alcobon,ancoban,ancobon,ancotil,ancotyl,flourocytosine,flucitosina,flucystine,flucytosin,flucytosinum,flucytosone,fluocytosine,fluorcytosine,fluorocytosine</t>
+          <t>alcobon,ancoban,ancobon,ancotil,ancotyl,flourocytosine,flucitosina,flucystine,flucytosin,flucytosine,flucytosinum,flucytosone,fluocytosine,fluorcytosine,fluorocytosine</t>
         </is>
       </c>
       <c r="J195">
@@ -12472,7 +12472,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>apurone,fantacin,flumequino,flumequinum,flumigal,flumiquil,flumisol,flumix,imequyl</t>
+          <t>apurone,fantacin,flumequine,flumequino,flumequinum,flumigal,flumiquil,flumisol,flumix,imequyl</t>
         </is>
       </c>
       <c r="J196">
@@ -12536,7 +12536,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>abboticine,beritromicina,berythromycin,berythromycine,berythromycinum,bristamycin,dowmycin e,eratrex,erypar,erythrocin,erythrocin stearate,erythromycin b,ethril,flurithromicina,flurithromycime,flurithromycine,flurithromycinum,fluritromicina,fluritromycinum,flurizic,gallimycin,meberyt,qidmycin,wyamycin s</t>
+          <t>flurithromicina,flurithromycime,flurithromycin,flurithromycine,flurithromycinum,fluritromicina,fluritromycinum,flurizic</t>
         </is>
       </c>
       <c r="J197">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>phosfluconazole,procif,prodif</t>
+          <t>fosfluconazole,phosfluconazole,procif,prodif</t>
         </is>
       </c>
       <c r="J198" t="e">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>calcium fosfomycin,fosfocina,fosfomicin,fosfomicina,fosfomycine,fosfomycinum,fosfonomycin,infectophos,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
+          <t>calcium fosfomycin,fosfocina,fosfomicin,fosfomicina,fosfomycin,fosfomycin sodium,fosfomycine,fosfomycinum,fosfonomycin,infectophos,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
         </is>
       </c>
       <c r="J199">
@@ -12720,7 +12720,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>fosmidomycina,fosmidomycine,fosmidomycinsalt,fosmidomycinsalt?,fosmidomycinum</t>
+          <t>fosmidomycin,fosmidomycina,fosmidomycine,fosmidomycinum</t>
         </is>
       </c>
       <c r="J200" t="e">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin b,neomycin solution,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
+          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetin,framycetin sulfate,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin,neomycin b,neomycin b sulfate,neomycin solution,neomycin sulfate,neomycin sulphate,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
         </is>
       </c>
       <c r="J201" t="e">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>akritoin,furagin,furaginum,furamag,furazidine,nitro macro</t>
+          <t>akritoin,furagin,furaginum,furamag,furazidin,furazidine</t>
         </is>
       </c>
       <c r="J202">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furaxon,furaxone,furazol,furazolidine,furazolidon,furazolidona,furazolidonum,furazolum,furazon,furidon,furmethoxadone,furovag,furox aerosol powder,furoxal,furoxane,furoxon,furoxone,furoxone liquid,furoxone swine mix,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofuradoxadone,nitrofuradoxon,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
+          <t>bifuron,corizium,coryzium,diafuron,enterotoxon,furall,furaxon,furaxone,furazol,furazolidine,furazolidon,furazolidona,furazolidone,furazolidonum,furazolum,furazon,furidon,furovag,furox aerosol powder,furoxal,furoxane,furoxon,furoxone,furoxone liquid,furoxone swine mix,furozolidine,giardil,giarlam,medaron,neftin,nicolen,nifulidone,nifuran,nifurazolidone,nifurazolidonum,nitrofurazolidone,nitrofurazolidonum,nitrofuroxon,optazol,ortazol,puradin,roptazol,sclaventerol,tikofuran,topazone,trichofuron,tricofuron,tricoron,trifurox,viofuragyn</t>
         </is>
       </c>
       <c r="J203" t="e">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>acide fusidique,acido fusidico,acidum fusidicum,flucidin,fucidate,fucidic acid,fucidin,fucidin acid,fucidin leo,fucidina,fucidine,fucithalmic,fusidate,fusidate acid,fusidic acidsalt,fusidicacid,fusidin,fusidine,fusidinic acid,intertulle fucidin,ramycin,taksta</t>
+          <t>acide fusidique,acido fusidico,acidum fusidicum,flucidin,fucidate,fucidate sodium,fucidic acid,fucidin,fucidin acid,fucithalmic,fusidate,fusidate acid,fusidic acid,fusidicacid,fusidine,fusidinic acid,ramycin,taksta</t>
         </is>
       </c>
       <c r="J204">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>azasite</t>
+          <t>gamithromycin</t>
         </is>
       </c>
       <c r="J205" t="e">
@@ -13082,7 +13082,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>ganefloxacin,garenfloxacin,garenoxacin mesilate</t>
+          <t>ganefloxacin,garenfloxacin,garenoxacin</t>
         </is>
       </c>
       <c r="J206">
@@ -13146,7 +13146,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>acorafloxacin,avarofloxacin,balofloxacin,bilimin,gatiflo,gatifloxacine,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequin and zymar,zymaxid</t>
+          <t>gatiflo,gatifloxacin,gatifloxacin hydrate,gatifloxacine,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequin and zymar,zymaxid</t>
         </is>
       </c>
       <c r="J207">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>factiv,factive,gemifioxacin,gemifloxacine,gemifloxacino,gemifloxacinum</t>
+          <t>factiv,factive,gemifioxacin,gemifloxacin,gemifloxacine,gemifloxacino,gemifloxacinum</t>
         </is>
       </c>
       <c r="J208">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>apogen,centicin,cidomycin,garamycin,garasol,genoptic liquifilm,genoptic s.o.p.,gentacycol,gentafair,gentak,gentamar,gentamcin,gentamicin c,gentamicin cla,gentamicina,gentamicine,gentamicins,gentamicinum,gentamycin,gentamycins,gentamycinum,gentavet,gentocin,jenamicin,liposomal gentamicin,lyramycin,oksitselanim,refobacin,septigen,septocin,uromycine</t>
+          <t>apogen,centicin,cidomycin,garamycin,garasol,genoptic liquifilm,genoptic s.o.p.,gentacycol,gentafair,gentak,gentamar,gentamcin sulfate,gentamicin,gentamicina,gentamicine,gentamicins,gentamicinum,gentamycin,gentamycins,gentamycinum,gentavet,gentocin,jenamicin,lyramycin,oksitselanim,refobacin,refobacin tm,septigen,uromycine</t>
         </is>
       </c>
       <c r="J209" t="e">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t/>
+          <t>gepotidacin</t>
         </is>
       </c>
       <c r="J211" t="e">
@@ -13458,7 +13458,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>lungaskin,raxar,vaxar</t>
+          <t>grepafloxacin</t>
         </is>
       </c>
       <c r="J212">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>amudane,curling factor,delmofulvina,fulcin,fulcine,fulvican grisactin,fulvicin,fulvicin bolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvin v,grisactin,grisactin ultra,grisactin v,griscofulvin,grise ostatin,grisefuline,griseo,griseoflulvin,griseofulvicacid,griseofulvin forte,griseofulvina,griseofulvine,griseofulvinum,griseomix,griseostatin,grisetin,grisofulvin,grisovin,grisowen,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatin xan,xuanjing</t>
+          <t>amudane,curling factor,delmofulvina,fulcin,fulcine,fulvican grisactin,fulvicin,fulvicin bolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvin v,grisactin,grisactin ultra,grisactin v,griscofulvin,grise ostatin,grisefuline,griseo,griseoflulvin,griseofulvin,griseofulvin forte,griseofulvina,griseofulvine,griseofulvinum,griseomix,griseostatin,grisetin,grisofulvin,grisovin,grisovin fp,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatin xan,xuanjing</t>
         </is>
       </c>
       <c r="J213">
@@ -13578,7 +13578,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>amikacin bis,amikacin disulfate,amikacini sulfas,amikafur,amikan,amikin,amitrex,arikayce,biklin,biodacyn,chemacin,fabianol,habekacin xsulfate,habekacinxsulfate,kaminax,likacin,pierami</t>
+          <t>arbekacin sulfate,arbekacin sulphate,habekacin,habekacin sulfate,habekacin xsulfate,habekacinxsulfate</t>
         </is>
       </c>
       <c r="J214" t="e">
@@ -13640,7 +13640,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>cabimicina,hachimicina,hachimycine,hachimycinum,trichomycinum,trichonat</t>
+          <t>cabimicina,hachimicina,hachimycin,hachimycine,hachimycinum,trichomycinum,trichonat</t>
         </is>
       </c>
       <c r="J215" t="e">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>etacillina,hetacilina,hetacillin acid,hetacillin potassium,hetacilline,hetacillinum,natacillin,phenazacillin,polymast,potassium hetacillin,versapen,versatrex</t>
+          <t>etacillina,hetacilina,hetacillin,hetacillin acid,hetacilline,hetacillinum,phenazacillin,versapen</t>
         </is>
       </c>
       <c r="J216">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>antihelmycin,destomycin a,destomysin,hyanthelmix,hydromycin b,hygrovectine,hygrovetine</t>
+          <t>antihelmycin,hydromycin b,hygrovetine</t>
         </is>
       </c>
       <c r="J217" t="e">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t/>
+          <t>ibrexafungerp</t>
         </is>
       </c>
       <c r="J218" t="e">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>mersarex</t>
+          <t>iclaprim,mersarex</t>
         </is>
       </c>
       <c r="J219" t="e">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>imipemide,imipenem monohydrate,imipenem/cilastatin,imipenemum,imipenen,primaxin,recarbrio .,tienam,tienamycin</t>
+          <t>imipemide,imipenem,imipenem anhydrous,imipenem hydrate,imipenem/cilastatin,imipenemum,imipenen,primaxin,recarbrio .,tienamycin</t>
         </is>
       </c>
       <c r="J220" t="e">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>ravuconazole</t>
+          <t>isavuconazole</t>
         </is>
       </c>
       <c r="J223">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>isepacin,isepalline,isepamicina,isepamicine,isepamicinsulphate,isepamicinum</t>
+          <t>isepacin,isepalline,isepamicin,isepamicina,isepamicine,isepamicinsulphate,isepamicinum</t>
         </is>
       </c>
       <c r="J224" t="e">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>bromazil,chloramizol,clinafarm,deccosil,deccozil,enilconazol,enilconazole,eniloconazol,fecundal,flo pro imz,flopro imz,florasan,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,imidazole,isoconazol,isoconazolum,magnate,nuzone,rappor plus,travogen</t>
+          <t>isoconazol,isoconazole,isoconazolum,travogen</t>
         </is>
       </c>
       <c r="J225" t="e">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>abdizide,acetyl isoniazid,acetylisoniazide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azt + isoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hid rasonil,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,i.a.i.,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
+          <t>abdizide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,azt + isoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hid rasonil,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,i.a.i.,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazid,isoniazid sa,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
         </is>
       </c>
       <c r="J226">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>candistat,canditral,fungitraxx,intraconazole,itrac,itraconazol,itraconazolo,itraconazolum,itraconzaole,itrafungol,itralek,itrazole,itrizole,lozanoc,onmel,oriconazole,orungal,sempera,spherazole,sporamelt,sporanox,sporonox,tolsura,traconal,triasporin</t>
+          <t>intraconazole,itraconazol,itraconazole,itraconazolo,itraconazolum,itraconzaole,itrazole,itrizole,oriconazole,sporanox</t>
         </is>
       </c>
       <c r="J228">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>jomybel,josacine,josamicina,josamycine,josamycinum,medemycin,mydecamycin</t>
+          <t>jomybel,josacine,josamicina,josamycin,josamycine,josamycinum</t>
         </is>
       </c>
       <c r="J229">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>kanamicina,kanamycin a,kanamycina,kanamycine,kanamycins,kanamycinum,kantrex,kenamycin a,klebcil,liposomal kanamycin</t>
+          <t>kanamicina,kanamycin,kanamycin a,kanamycin base,kanamycin sulfate,kanamycina,kanamycine,kanamycins,kanamycinum,kantrex,kenamycin a,klebcil,liposomal kanamycin</t>
         </is>
       </c>
       <c r="J230">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>brizoral,cerasootheket,extina,fungarest,fungoral,ketaconazole,ketocanazole,ketoconazol,ketoconazole foam,ketoconazolum,ketodan,ketoderm,ketoisdin,ketomax tris flush,ketozole,kuric,levoketoconazole,nizoral,normocort,onofin k,orifungal m,panfungol,piperazine,recorlev,sebazole,suffusiontris,teryzolin,terzolin,xolegel</t>
+          <t>extina,fungarest,fungoral,ketocanazole,ketoconazol,ketoconazole,ketoconazolum,ketoderm,nizoral,xolegel</t>
         </is>
       </c>
       <c r="J233">
@@ -14810,7 +14810,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>jomybel,josacine,josamicina,josamycine,josamycinum</t>
+          <t>jomybel,josacine,josamicina,josamycin,josamycine,josamycinum</t>
         </is>
       </c>
       <c r="J234" t="e">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>avatec,bovatec,bovatec r,lasalocid a,lasalocid a na salt,lasalocid asalt,lasalocide,lasalocide a,lasalocido,lasalocidsalt,lasalocidum</t>
+          <t>avatec,lasalocid,lasalocid a,lasalocide,lasalocide a,lasalocido,lasalocidum</t>
         </is>
       </c>
       <c r="J235" t="e">
@@ -14930,7 +14930,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>lasvic</t>
+          <t>lascufloxacin</t>
         </is>
       </c>
       <c r="J236">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>dilatamoxef,dimoxalactam,disodium moxalactam,festamoxin,lamoxactam,latamoxefum,moxalactam,moxalactam disalt,moxalactamsalt,moxalactamsupplement,moxam,shiomarin</t>
+          <t>disodium moxalactam,festamoxin,lamoxactam,latamoxef,latamoxefum,moxalactamsupplement,shiomarin</t>
         </is>
       </c>
       <c r="J237" t="e">
@@ -15054,7 +15054,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>lefamulin acetate,lefamulin acetate?,lefamulinacetate,xenleta</t>
+          <t>lefamulin,xenleta</t>
         </is>
       </c>
       <c r="J238" t="e">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>lenampicilina,lenampicilline,lenampicillinum,takacillin,valacillin,varacillin</t>
+          <t>lenampicilina,lenampicillin,lenampicillin hcl,lenampicilline,lenampicillinum</t>
         </is>
       </c>
       <c r="J239" t="e">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aeroquin,cravit,cravit ophthalmic,dextrofloxacin,dextrofloxacine,elequine,floxacin,floxel,fluoroquinolone,iquix,leroxacin,lesacin,levaquin,levo floxacin,levofiexacin,levofloxacine,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,ofloxacin impurity e,ofloxcacin,oftaquix,quinsair,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
+          <t>aeroquin,anhydrous ofloxacin,cravit,cravit hydrate,cravit iv,cravit ophthalmic,elequine,floxacin,floxel,fluoroquinolone,iquix hydrate,leroxacin,lesacin,levaquin,levaquin hydrate,levo floxacin,levofiexacin,levofloxacin,levofloxacin hydrate,levofloxacine,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,ofloxcacin,oftaquix,quinsair,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
         </is>
       </c>
       <c r="J240">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t/>
+          <t>levonadifloxacin</t>
         </is>
       </c>
       <c r="J242" t="e">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>albiotic,bactramycin,cillimycin,frademicina,jiemycin,lincocin,lincogap,lincolcina,lincolnensin,lincomicina,lincomix,lincomycin a,lincomycin soluble,lincomycine,lincomycinum,lincorex,mycivin</t>
+          <t>bactramycin,cillimycin,frademicina,jiemycin,lincocin,lincolcina,lincolnensin,lincomicina,lincomycin,lincomycin a,lincomycine,lincomycinum,lincorex</t>
         </is>
       </c>
       <c r="J244">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>linezlid,linezoid,linezolide,linezolidum,zivoxid,zyvoxa,zyvoxam,zyvoxid</t>
+          <t>linezlid,linezoid,linezolid,linezolide,linezolidum,zivoxid,zyvoxa,zyvoxam,zyvoxid</t>
         </is>
       </c>
       <c r="J245">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>bareon,logiflox,lomebact,lomefloxacine,lomefloxacino,lomefloxacinum,maxaquin,maxaquine,mazaquin,okacin,okacyn,uniquin</t>
+          <t>lomefloxacin,lomefloxacine,lomefloxacino,lomefloxacinum,maxaquin</t>
         </is>
       </c>
       <c r="J247">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>carbac,lorabid,loracabef,loracarbefum,lorafem,lorbef,loribid</t>
+          <t>anhydrous loracarbef,lorabid,loracabef,loracarbef,loracarbefum,lorbef,loribid</t>
         </is>
       </c>
       <c r="J248">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>biovetin,chlortetracyclin,ciclisin,ciclolysal,ciclolysine,infaciclina,limeciclina,lisinbiotic,lymecyclin,lymecyclinum,mucomycin,ntetracycline,tetralisal,tetralysal,vebicyclysal</t>
+          <t>biovetin,chlortetracyclin,ciclisin,ciclolysal,ciclolysine,infaciclina,limeciclina,lisinbiotic,lymecyclin,lymecycline,lymecyclinum,mucomycin,ntetracycline,tetralisal,tetralysal,vebicyclysal</t>
         </is>
       </c>
       <c r="J249">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>acido mandelico,almond acid,ammonium mandelate,amygdalate,amygdalic acid,benzoglycolic acid,hydroxyacetic acid,kyselina mandlova,methyl,methyl mandelic acid,paramandelate,paramandelic acid,phenylglycolate,phenylglycolic acid,phenylhydroxyacetate,uromaline</t>
+          <t>acido mandelico,almond acid,ammonium mandelate,amygdalic acid,benzoglycolic acid,hydroxyacetic acid,kyselina mandlova,mandelic acid,paramandelic acid,phenylglycolic acid,uromaline</t>
         </is>
       </c>
       <c r="J250">
@@ -15862,7 +15862,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t/>
+          <t>manogepix</t>
         </is>
       </c>
       <c r="J251" t="e">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>marbocyl,marbofloxacine,marbofloxacino,marbofloxacinum,zeniquin</t>
+          <t>marbocyl,marbofloxacin,marbofloxacine,marbofloxacino,marbofloxacinum,zeniquin</t>
         </is>
       </c>
       <c r="J252" t="e">
@@ -15982,7 +15982,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>amdinocillin,coactin,hexacillin,mecilinamo,mecillinamum,micillinam,penicillin,selexidin</t>
+          <t>amdinocillin,coactin,hexacillin,mecilinamo,mecillinam,mecillinamum,micillinam,penicillin hx,selexidin</t>
         </is>
       </c>
       <c r="J253" t="e">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>meronem,meropen,meropenem trihydrate,meropenemum,merrem</t>
+          <t>meronem,meropen,meropenem,meropenem anhydrous,meropenem hydrate,meropenem trihydrate,meropenemum,merrem,merrem i.v.,merrem iv</t>
         </is>
       </c>
       <c r="J255" t="e">
@@ -16286,7 +16286,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>mesulfamido,mesulfamidum</t>
+          <t>mesulfamide,mesulfamido,mesulfamidum</t>
         </is>
       </c>
       <c r="J258" t="e">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>abbocin,alamycin,aquacycline,bi steclin,bialatan,biosolvomycin,biotet,bisolvomycin,chrysocin,dalimycin,dalinmycin,elinton,engemycin,hydrocyclin,imperacin,intaloxin,liquachel,macodyn,mepatar,metaciclina,metacyclinum,methacycline,methacyclinum,methylenecycline,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetracycline.hcl,oxytetral,oxytetrin,oxytracyl,oxyvet,physiomycine,rondomycin,stecsolin,terraject,terramycin,tetran hydrochloride,toxinal,unimycin,vendarcin,vibramycin</t>
+          <t>bialatan,metaciclina,metacycline,metacyclinum,methacycline,methacycline base,methacyclinum,methylenecycline,physiomycine,rondomycin</t>
         </is>
       </c>
       <c r="J259">
@@ -16412,7 +16412,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>amcap,amcill,ampen,amperil,ampinova,blomopen,bonopen,celinmicina,cymbi,deripen,elatocilline,fedacilina kapseln,filorex,guicitrine,italcina kapseln,magnipen,metabacter ampullen,metambac,metampen,metampicilina,metampicillina,metampicilline,metampicillinsalt,metampicillinum,methampicillin,metiskia ampullen,micinovo,micinovo ampullen,ocelina,pangocilin,pen a,penbritin,principen,probiotic,rastomycin k,relyothenate,ruticina,rutizina,rutizina ampullen,sedomycin,serfabiotic,suvipen,suvipen ampullen,tampilen ampullen,teonicon trofen,trafarbiot,viderpen,viderpin,vioplex,wypicil</t>
+          <t>blomopen,bonopen,celinmicina,elatocilline,fedacilina kapseln,filorex,italcina kapseln,magnipen,metabacter ampullen,metambac,metampicilina,metampicillin,metampicillin sodium,metampicillina,metampicilline,metampicillinum,methampicillin,metiskia ampullen,micinovo,micinovo ampullen,pangocilin,probiotic,rastomycin k,relyothenate,ruticina,rutizina,rutizina ampullen,sedomycin,suvipen,suvipen ampullen,tampilen ampullen,teonicon trofen,viderpen,viderpin,vioplex</t>
         </is>
       </c>
       <c r="J260">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aceto hmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagom h,esametilentetramina,formamine,formin,h.m.t.,heksa k,herax uts,heterin,hexa b,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexamine silver,hexamine superfine,hexaminum,hexasan,hexilmethylenamine,mandelamine,metenamina,metenamine,methamin,methenamin,methenamine silver,methenaminum,metramine,naphthamine,nocceler h,pellurin,preparation,resotropin,sanceler h,sanceler,silver methenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
+          <t>aceto hmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagom h,esametilentetramina,formamine,formin,h.m.t.,heksa k,herax uts,heterin,hexa b,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexamine silver,hexamine superfine,hexaminum,hexasan,hexilmethylenamine,mandelamine,metenamina,metenamine,methamin,methenamin,methenamine,methenamine silver,methenaminum,metramine,naphthamine,nocceler h,preparation af,resotropin,sanceler h,sanceler ht,silver methenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
         </is>
       </c>
       <c r="J261">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>belfacillin,celbenin,celpilline,cinopenil,dimocillin,estafcilina,flabelline,lucopenin,metacillin,methcilline,methicillin,methicillinanhydrous,methicillinhydrate,methicillinsalt,methicillinum,methycillin,meticilina,meticillina,meticilline,meticillinsalt,meticillinum,penaureus,penysol,staficyn,staphcillin,synticillin</t>
+          <t>dimocillin,metacillin,methcilline,methicillin,methicillinum,methycillin,meticilina,meticillin,meticillina,meticilline,meticillinum,staphcillin</t>
         </is>
       </c>
       <c r="J262" t="e">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>methioprim,metioprima,metioprime,metioprimum</t>
+          <t>methioprim,metioprim,metioprima,metioprime,metioprimum</t>
         </is>
       </c>
       <c r="J263" t="e">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>metioxato,metioxatum</t>
+          <t>metioxate,metioxato,metioxatum</t>
         </is>
       </c>
       <c r="J264" t="e">
@@ -16722,7 +16722,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>acromona,anagiardil,arilin,atrivyl,danizol,deflamon,donnan,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyl i.v. rtu,flazol,flegyl,florazole,fossyol,giatricol,ginefla vir,gineflavir,helidac,hmmni,hydroxydimetridazole,hydroxymetronidazole,isometronidazole,izoklion,mepagyl,meronidal,methronidazole,metric,metro cream,metro gel,metro,metrocream,metrodzhil,metrogel,metrogyl,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazole usp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibol 'silanes',mizonidazole,mnzoh,monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,tricho cordes,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,tricowas b,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
+          <t>acromona,anagiardil,arilin,atrivyl,danizol,deflamon,donnan,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyl er,flagyl i.v.,flagyl i.v. rtu,flazol,flegyl,florazole,fossyol,giatricol,ginefla vir,gineflavir,helidac,mepagyl,meronidal,methronidazole,metric,metro cream,metro gel,metro i.v,metro i.v.,metro iv,metrocream,metrodzhil,metrogel,metrogyl,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazole,metronidazole usp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibol 'silanes',monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,tricho cordes,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,tricowas b,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
         </is>
       </c>
       <c r="J265">
@@ -16788,7 +16788,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>baycipen,baypen,mezlin,mezlocilina,mezlocillin acid,mezlocilline,mezlocillinsalt,mezlocillinum,multocillin</t>
+          <t>mezlin,mezlocilina,mezlocillin,mezlocillin acid,mezlocillin sodium,mezlocilline,mezlocillinum,multocillin</t>
         </is>
       </c>
       <c r="J266" t="e">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>fungard,funguard,micafungin?,micafunginsalt,mycamine</t>
+          <t>micafungin,mycamine</t>
         </is>
       </c>
       <c r="J268" t="e">
@@ -16974,7 +16974,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aflorix,albistat,andergin,brentan,bromazil,chloramizol,clinafarm,conofite,dactarin,daktarin,deccosil,deccozil,enilconazol,enilconazole,eniloconazol,fecundal,flo pro imz,flopro imz,florasan,florid,freshgard,freshguard,fungaflor,fungazil,imaverol,imaversol,imazalil,imidazole,lotrimin,magnate,micantin,miconasil nitrate,miconazol,miconazolo,miconazolum,micozole,minostate,monista,monistat,nuzone,oravig,rappor plus,vusion,zimybase,zimycan</t>
+          <t>aflorix,albistat,andergin,brentan,conofite,dactarin,daktarin,daktarin iv,florid,lotrimin af,micantin,miconasil nitrate,miconazol,miconazole,miconazole base,miconazolo,miconazolum,micozole,minostate,monista,monistat,monistat iv,oravig,vusion,zimybase,zimycan</t>
         </is>
       </c>
       <c r="J269">
@@ -17036,7 +17036,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>garamycin,gentamicin c,gentamicin cla,gentamycin,gentocin,liposomal gentamicin,micromicin,micromycin,micronomicina,micronomicine,micronomicinum,sagamicin,santemycin,septocin</t>
+          <t>gentamicin c,micromicin,micromycin,micronomicin,micronomicina,micronomicine,micronomicinum,sagamicin,santemycin</t>
         </is>
       </c>
       <c r="J270" t="e">
@@ -17098,7 +17098,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>aboren,espinomycin a,macropen,madecacine,medemycin,midecamicina,midecamycin a,midecamycine,midecamycinum,midecin,momicine,mydecamycin,myoxam,normicina,rubimycin,turimycin p</t>
+          <t>aboren,espinomycin a,macropen,madecacine,medemycin,midecamicina,midecamycin,midecamycin a,midecamycine,midecamycinum,midecin,momicine,mydecamycin,myoxam,normicina,rubimycin,turimycin p</t>
         </is>
       </c>
       <c r="J271">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>miloxacine,miloxacino,miloxacinum</t>
+          <t>miloxacin,miloxacine,miloxacino,miloxacinum</t>
         </is>
       </c>
       <c r="J272" t="e">
@@ -17222,7 +17222,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>acnez,akamin,aknemin,amzeeq,arestin,borymycin,dynacin,klinomycin,lederderm,minociclina,minocin,minocline,minocyclin,minocyclinum,minocyn,minoderm,minolira,minomax,minomycin,minomycin chloride,mynocine,periocline,sebomin,solodyn,vectrin,ximino,zilxi</t>
+          <t>akamin,aknemin,borymycin,dynacin,klinomycin,minociclina,minocin,minocline,minocyclin,minocycline,minocyclinum,minocyn,minoderm,minomycin,sebomin,solodyn,vectrin</t>
         </is>
       </c>
       <c r="J273">
@@ -17288,7 +17288,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>acecamycin,macroral,medemycin,midecamycin acetate,miocamen,miocamycine,miokamycin,mydecamycin,myocamicin,ponsinomycin</t>
+          <t>acecamycin,macroral,midecamycin acetate,miocamen,miocamycin,miocamycine,miokamycin,myocamicin,ponsinomycin</t>
         </is>
       </c>
       <c r="J274">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>coban,elancoban,monelan,monensic acid,monensin,monensin granulated,monensina,monensine,monensinum,romensin,rumensin</t>
+          <t>monensin sodium,sodium monensin</t>
         </is>
       </c>
       <c r="J275" t="e">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>morfazinamide,morfazinammide,morfgazinamide,morinamida,morinamidum,morphazinamid,morphazinamide,piazofolina,piazolin,piazolina</t>
+          <t>morfazinamide,morfazinammide,morfgazinamide,morinamida,morinamide,morinamide hcl,morinamidum,morphazinamid,morphazinamide,piazofolina,piazolin,piazolina</t>
         </is>
       </c>
       <c r="J276" t="e">
@@ -17472,7 +17472,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>actira,actura,avalox,avelox,avelox abc pack,avolex,balofloxacin,bilimin,izilox,moxeza,moxifloxacine,moxivig,octegra,vegamox,vigamox,zimoxin</t>
+          <t>actira,avelox,avelox i.v.,avelox iv,avolex,izilox,moxeza,moxifloxacin,moxifloxacine,moxivig,vigamox,zimoxin</t>
         </is>
       </c>
       <c r="J277">
@@ -17534,7 +17534,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>bactoderm,bactroban,bactroban nasal,bactroban ointment,centany,lithium mupirocin,mupirocin impurity a,mupirocina,mupirocine,mupirocinum,plasimine,pseudomonic acid,pseudomonic acid a,pseudomonic acid i,turixin</t>
+          <t>bactoderm,bactroban,bactroban nasal,bactroban ointment,centany,mupirocin,mupirocina,mupirocine,mupirocinum,plasimine,pseudomonic acid,pseudomonic acid a,turixin</t>
         </is>
       </c>
       <c r="J278" t="e">
@@ -17592,7 +17592,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>nacubactam?</t>
+          <t>nacubactam</t>
         </is>
       </c>
       <c r="J279" t="e">
@@ -17650,7 +17650,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>acuatim,nadifloxacine,nadifloxacino,nadifloxacinum,nadixa,nadoxin</t>
+          <t>acuatim,nadifloxacin,nadifloxacine,nadifloxacino,nadifloxacinum,nadixa,nadoxin</t>
         </is>
       </c>
       <c r="J280" t="e">
@@ -17708,7 +17708,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>nafcil,nafcilina,nafcillinanhydrous,nafcilline,nafcillinhydrate,nafcillinmonohydrate,nafcillinsalt,nafcillinum,naftopen,nallpen,naphcillin,naphthicillin,unipen</t>
+          <t>nafcilina,nafcillin,nafcillin sodium,nafcilline,nafcillinum,nallpen,naphcillin,unipen</t>
         </is>
       </c>
       <c r="J281" t="e">
@@ -17768,7 +17768,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t/>
+          <t>nafithromycin</t>
         </is>
       </c>
       <c r="J282" t="e">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>acide amfonelique,acide nalidixico,acide nalidixique,acido anfonelico,acido nalidissico,acido nalidixico,acidum amfonelicum,acidum nalidixicum,amfonelic acid,amfonelinsaeure,baktogram,betaxina,chemiurin,dixiben,dixilina,dixinal,eucisten,eucistin,innoxalomn,innoxalon,jicsron,kusnarin,naldixic acid,nalidic acid,nalidicron,nalidixan,nalidixane,nalidixate,nalidixateanhydrous,nalidixic,nalidixicacid,nalidixin,nalidixinic acid,nalidixinsaure,nalitucsan,nalurin,narigix,naxuril,neggram,negram,nevigramon,nicelate,nogram,poleon,sicmylon,specifen,specifin,unaserus,uralgin,uriben,uriclar,urisal,urodixin,uroman,uroneg,uronidix,uropan,wintomylon,wintron</t>
+          <t>acide nalidixico,acide nalidixique,acido nalidissico,acido nalidixico,acidum nalidixicum,betaxina,dixiben,dixinal,eucisten,eucistin,innoxalomn,innoxalon,jicsron,kusnarin,naldixic acid,nalidic acid,nalidicron,nalidixan,nalidixane,nalidixate,nalidixate sodium,nalidixic,nalidixic acid,nalidixicacid,nalidixin,nalidixinic acid,nalidixinsaure,nalitucsan,nalurin,narigix,naxuril,neggram,negram,nevigramon,nicelate,nogram,poleon,sicmylon,specifen,specifin,unaserus,uralgin,uriben,uriclar,urisal,urodixin,uroman,uroneg,uronidix,uropan,wintomylon,wintron</t>
         </is>
       </c>
       <c r="J283">
@@ -17890,7 +17890,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>monteban,narasin a,narasine,narasino,narasinum,narasul</t>
+          <t>monteban,narasin,narasin a,narasine,narasino,narasinum,narasul</t>
         </is>
       </c>
       <c r="J284" t="e">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t/>
+          <t>nemonoxacin</t>
         </is>
       </c>
       <c r="J285" t="e">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin b,neomycin solution,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
+          <t>actilin,actiline,antibiotique,bycomycin,dekamycin iii,endomixin,enterfram,fradiomycin,fradiomycin b,fradiomycinum,framicetina,framidal,framycetin,framycetin sulfate,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycin,neomycin b,neomycin b sulfate,neomycin solution,neomycin sulfate,neomycin sulphate,neomycinb,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycin powder v</t>
         </is>
       </c>
       <c r="J286">
@@ -18080,7 +18080,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>netillin,netilmicina,netilmicine,netilmicinum,netilyn,netira,nettacin,vectacin</t>
+          <t>netillin,netilmicin,netilmicin sulfate,netilmicina,netilmicine,netilmicinum,netilyn,netira,nettacin,vectacin</t>
         </is>
       </c>
       <c r="J287">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>nicarb,nicarbasin,nicarbazine,nicoxin,nicrazin,nicrazine,nirazin</t>
+          <t>nicarb,nicarbasin,nicarbazin,nicarbazine,nicoxin,nicrazin,nicrazine,nirazin</t>
         </is>
       </c>
       <c r="J288" t="e">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>abimasten,nifuroquina,nifuroquinum,quinaldofur</t>
+          <t>abimasten,nifuroquina,nifuroquine,nifuroquinum,quinaldofur</t>
         </is>
       </c>
       <c r="J289" t="e">
@@ -18262,7 +18262,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>levantin,nifurmazol,nifurmazole,nifurmazolo,nifurmazolum,nifurtoinolo,nifurtoinolum,urfadin,urfadine,urfadyn</t>
+          <t>levantin,nifurtoinol,nifurtoinolo,nifurtoinolum,urfadin,urfadine,urfadyn</t>
         </is>
       </c>
       <c r="J290">
@@ -18322,7 +18322,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>adrovet,alinia,azt + nitazoxanide,colufase,cryptaz,dexidex,heliton,kidonax,nitaxozanid,nitaxozanide,nitazox,nitazoxamide,nitazoxanid,nitazoxanida,nitazoxanidum,nitrazoxanide,omniparax,pacovanton,paramix,taenitaz</t>
+          <t>adrovet,alinia,azt + nitazoxanide,colufase,cryptaz,dexidex,heliton,kidonax,nitaxozanid,nitaxozanide,nitazox,nitazoxamide,nitazoxanid,nitazoxanida,nitazoxanide,nitazoxanidum,nitrazoxanide,omniparax,pacovanton,paramix,taenitaz</t>
         </is>
       </c>
       <c r="J291">
@@ -18386,7 +18386,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fua med,fuamed,furabid,furachel,furadantin,furadantin retard,furadantina,furadantine,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophen t,gerofuran,io&gt;&gt;uss&gt;&gt;a&lt;&lt;ixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifuraden,nifuradene,nifuradeno,nifuradenum,nifuradine,nifurantin,nifuretten,nitoin,nitrex,nitro macro,nitrofuradantin,nitrofurantion,nitrofurantoin macro,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,oxafuradene,oxafurandene,oxifuradene,oxyfuradene,parfuran,phenurin,piyeloseptyl,renafur,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
+          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fua med,fuamed,furabid,furachel,furadantin,furadantin retard,furadantina mc,furadantine,furadantine mc,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophen t,gerofuran,io&gt;&gt;uss&gt;&gt;a&lt;&lt;ixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantion,nitrofurantoin,nitrofurantoin macro,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,parfuran,phenurin,piyeloseptyl,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
         </is>
       </c>
       <c r="J292">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazol w,furazone,furazyme,furesol,furfurin,furosem,fuvacillin,hemofuran,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nfz mix,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,sanfuran,vabrocid,vadrocid,yatrocin</t>
+          <t>acutol,aldomycin,alfucin,amifur,babrocid,becafurazone,biofuracina,biofurea,chemofuran,chixin,cocafurin,coxistat,dermofural,dymazone,dynazone,eldezol,fedacin,flavazone,fracine,furacilin,furacilinum,furacillin,furacin,furacine,furacinetten,furacoccid,furacort,furacycline,furaderm,furagent,furalcyn,furaldon,furalone,furametral,furaplast,furaseptyl,furaskin,furatsilin,furaziline,furazin,furazina,furazol w,furazone,furazyme,furesol,furfurin,furosem,fuvacillin,hemofuran,ibiofural,mammex,mastofuran,monafuracin,monafuracis,monofuracin,nfz mix,nifucin,nifurid,nifuzon,nitrofural,nitrofuralum,nitrofuran,nitrofurane,nitrofurazan,nitrofurazone,nitrofurazonum,nitrofurol,nitrozone,otofural,otofuran,rivafurazon,sanfuran,vabrocid,vadrocid,yatrocin</t>
         </is>
       </c>
       <c r="J293" t="e">
@@ -18508,7 +18508,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>galinok,hydron iii,isinok,nibiol,nicene forte,nitroxlina,nitroxolin,nitroxolina,nitroxolinum,notroxoline,noxibiol</t>
+          <t>galinok,isinok,nibiol,nicene forte,nitroxlina,nitroxolin,nitroxolina,nitroxoline,nitroxolinum,notroxoline,noxibiol</t>
         </is>
       </c>
       <c r="J294">
@@ -18572,7 +18572,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>baccidal,barazan,bareon,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,logiflox,lomebact,maxaquin,maxaquine,mazaquin,nolicin,noracin,noraxin,norflo,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,okacin,okacyn,sebercim,uniquin,uroxacin,utinor,zoroxin</t>
+          <t>baccidal,barazan,chibroxin,chibroxine,chibroxol,fulgram,gonorcin,lexinor,nolicin,noracin,noraxin,norflo,norfloxacin,norfloxacine,norfloxacino,norfloxacinum,norocin,noroxin,noroxine,norxacin,sebercim,uroxacin,utinor,zoroxin</t>
         </is>
       </c>
       <c r="J295">
@@ -18756,7 +18756,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>aerovanc,firvanq,firvanq kit,targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
+          <t>norvancomycin</t>
         </is>
       </c>
       <c r="J298" t="e">
@@ -18814,7 +18814,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>albadry,albamast suspension,albamix,albamycin,albamycin capsules,cardelmycin,cardelmycinsalt,cathocin,cathomycin,crystallinic acid,inabiocin,inamycin,novobiocina,novobiocina bomaca,novobiocine,novobiocinsalt,novobiocinum,robiocina,salt novobiocin,sirbiocina,spheromycin,stilbiocina,streptonivicin,streptonivicinsalt,vulcamycin</t>
+          <t>albamix,albamycin,cardelmycin,cathocin,cathomycin,crystallinic acid,inamycin,novobiocin,novobiocina,novobiocine,novobiocinum,robiocina,sirbiocina,spheromycin,stilbiocina,streptonivicin</t>
         </is>
       </c>
       <c r="J299" t="e">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>biofanal,candex lotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatin pastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrade mark,nystaform,nystan,nystatin a,nystatin g,nystatine,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydin e</t>
+          <t>biofanal,candex lotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatin pastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrade mark,nystaform,nystan,nystatin,nystatin a,nystatin g,nystatin hydrate,nystatin lf,nystatine,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydin e</t>
         </is>
       </c>
       <c r="J300">
@@ -18936,7 +18936,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>bactocin,danoflox,dextrofloxacin,dextrofloxacine,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxstat,fugacin,inoflox,kinflocin,kinoxacin,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacin impurity e,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,uro tarivid,viotisone,visiren,zanocin</t>
+          <t>bactocin,danoflox,dextrofloxacin,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxin otic,floxstat,fugacin,inoflox,kinflocin,kinoxacin,levofloxacin hcl,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacin,ofloxacin otic,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,uro tarivid,viotisone,visiren,zanocin</t>
         </is>
       </c>
       <c r="J301">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>amimycin,landomycin,matromycin,oleandomicina,oleandomycin a,oleandomycine,oleandomycinum,romicil</t>
+          <t>amimycin,landomycin,matromycin,oleandomicina,oleandomycin,oleandomycin a,oleandomycine,oleandomycinum,romicil</t>
         </is>
       </c>
       <c r="J303">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>amadacycline</t>
+          <t>amadacycline,omadacycline</t>
         </is>
       </c>
       <c r="J304">
@@ -19186,7 +19186,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aflukin,auriquin,biquinate,chinidin,chinidine,chinimetten,chinin,chinine,chininum muriaticum,chininum purum,conchinin,conchinine,conquinine,dentojel,dihydrochinidin,dihydroquinidine,dihydroquinine,hydroconchinine,hydroconquinine,hydroquinidine,kinder quinina,kinidin,methanol,numoquin,optoquine,pitayine,qualaquin,quinact,quinaglute,quine,quinicardine,quinidex,quinidine,quiniduran,quinindine,quinine,quinine chloride,quinine muriate,quinine tannate,quinineanhydrous,quinoline alkaloid,quinora,quinsan,rezquin</t>
+          <t>numoquin,optochin,optoquine</t>
         </is>
       </c>
       <c r="J305" t="e">
@@ -19244,7 +19244,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>bareon,logiflox,lomebact,maxaquin,maxaquine,mazaquin,okacin,okacyn,uniquin</t>
+          <t>orbifloxacin</t>
         </is>
       </c>
       <c r="J306" t="e">
@@ -19306,7 +19306,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aerovanc,firvanq,firvanq kit,kimyrsa</t>
+          <t>kimyrsa,oritavancin</t>
         </is>
       </c>
       <c r="J307" t="e">
@@ -19426,7 +19426,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>levornidazole,madelen,ornidal,ornidazol,ornidazole isomer,ornidazolum,tiberal</t>
+          <t>madelen,ornidal,ornidazol,ornidazole,ornidazolum,tiberal</t>
         </is>
       </c>
       <c r="J309">
@@ -19492,7 +19492,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>quilseconazole,quilseconazole?</t>
+          <t>oteseconazole</t>
         </is>
       </c>
       <c r="J310">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>bactocill,bristopen,cryptocillin,micropenin,ossacillina,oxabel,oxabelsalt,oxacilina,oxacillin spofa,oxacillinanhydrous,oxacilline,oxacillinhydrate,oxacillinmonohydrate,oxacillinum,oxazocillin,oxazocilline,penstapho,prostaphlin,prostaphlyn,resistopen,stapenor,staphcillin v</t>
+          <t>bactocill,ossacillina,oxacilina,oxacillin,oxacillin sodium,oxacilline,oxacillinum,oxazocillin,oxazocilline,prostaphlin,prostaphlyn,sodium oxacillin</t>
         </is>
       </c>
       <c r="J311">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>acide oxolinique,acido ossolico,acido oxolinico,acidum oxolinicum,aqualinic,cistopax,dioxacin,emyrenil,gramurin,inoxyl,nidantin,oksaren,orthurine,ossian,oxoboi,oxolinic,pietil,prodoxal,prodoxol,starner,tiurasin,ultibid,urinox,uritrate,urotrate,uroxol,utibid</t>
+          <t>acide oxolinique,acido ossolico,acido oxolinico,acidum oxolinicum,aqualinic,cistopax,dioxacin,emyrenil,gramurin,inoxyl,nidantin,oksaren,orthurine,ossian,oxoboi,oxolinic,oxolinic acid,pietil,prodoxal,prodoxol,starner,tiurasin,ultibid,urinox,uritrate,urotrate,uroxol,utibid</t>
         </is>
       </c>
       <c r="J312">
@@ -19686,7 +19686,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>abbocin,achromycin,achromycin v,actisite,adamycin,ala tet,alamycin,aquacycline,artomycin,berkmycen,bi steclin,biosolvomycin,biostat,biotet,bisolvomycin,bristacycline,cefracycline tablets,chrysocin,cyclopar,dabicycline,dalimycin,dalinmycin,diacycine,dumocyclin,elinton,embryostat,engemycin,fanterrin,galsenomycin,geomycin,geotilin,hostacycline,hydrocyclin,hydroxytetracyclinum,imperacin,intaloxin,lenocycline,liquachel,macocyn,macodyn,medamycin,mepatar,mephacyclin,neocyclin b,neocycline b,oksisyklin,ossitetraciclina,otetryn,oxacycline,oxamycen,oxatet,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytet,oxytetracid,oxytetracyclin,oxytetracycline.hcl,oxytetracyclinum,oxytetral,oxytetrin,oxytracyl,oxyvet,paltet,partrex,piracaps,proteroxyna,qidtet,quadracycline,quatrex,remicyclin,retet,ricycline,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,stilciclina,subamycin,sumycin,supramycin,sustamycin,tarocyn,tarosin,tefilin,teline,telotrex,teravit,terrafungine,terraject,terramitsin,terramycin,terramycine,tetrabakat,tetrabid,tetrablet,tetracaps,tetracompren,tetracycline.hcl,tetrakap,tetralution,tetramavan,tetramed,tetran,tetran hydrochloride,tetrasure,tetrosol,topicycline,toxinal,triphacyclin,unicin,unimycin,ursocyclin,ursocycline,vendarcin</t>
+          <t>adamycin,berkmycen,biostat,biostat pa,bisolvomycin,dabicycline,dalimycin,embryostat,fanterrin,galsenomycin,geomycin,geotilin,hydroxytetracyclinum,imperacin,lenocycline,macocyn,medamycin,mepatar,oksisyklin,ossitetraciclina,oxacycline,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxydon,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytetracid,oxytetracyclin,oxytetracycline,oxytetracycline base,oxytetracyclinum,proteroxyna,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,tarocyn,tarosin,teravit,terrafungine,terramitsin,terramycin,terramycin im,terramycine,tetran,unimycin,ursocyclin,ursocycline,vendarcin</t>
         </is>
       </c>
       <c r="J313">
@@ -19746,7 +19746,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>ozadub,ozenoxacin cream</t>
+          <t>ozadub,ozenoxacin,ozenoxacin cream</t>
         </is>
       </c>
       <c r="J314" t="e">
@@ -19804,7 +19804,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aminacyl,aminopar,aminosalicylate,aminosalicylic,aminosalicylic acid,aminosalyl,aminosalyle,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,nemasol,neopasalate,nippas,osacyl,p.a.s.,pamacyl,pamisyl,paramisan,paramycin,parasal,parasalicil,parasalindon,pasade,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnal,pasnodia,pasolac,passodico,propasa,rezipas,salvis,sodiopas,teebacin</t>
+          <t>aminopar,aminosalicylic,aminosalicylic acid,aminosalyl,aminox,apacil,deapasil,entepas,ferrosan,gabbropas,granupas,helipidyl,hellipidyl,neopasalate,osacyl,pamacyl,pamisyl,paramycin,parasal,parasalicil,parasalindon,pasalon,pasara,pascorbic,pasdium,paser granules,paskalium,pasmed,pasnodia,pasolac,propasa,rezipas,teebacin</t>
         </is>
       </c>
       <c r="J315" t="e">
@@ -19862,7 +19862,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>panipenam,panipenem/betamipron,panipenemum,penipanem</t>
+          <t>panipenem,panipenem/betamipron,panipenemum,penipanem</t>
         </is>
       </c>
       <c r="J316" t="e">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aminosidin,aminosidine,aminosidine i,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,monomycin,monomycin a,neomycin e,paramomycin,paromomicina,paromomycin i,paromomycine,paromomycinum,paucimycin,paucimycinum,quintomycin c</t>
+          <t>aminosidin,aminosidine,aminosidine i,aminosidine sulfate,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,hydroxymycin sulfate,monomycin,monomycin a,neomycin e,paramomycin,paramomycin sulfate,paromomicina,paromomycin,paromomycin i,paromomycine,paromomycinum,paucimycin,paucimycinum,quintomycin c</t>
         </is>
       </c>
       <c r="J317">
@@ -19986,7 +19986,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>pazufloxacine,pazufloxacino,pazufloxacinum</t>
+          <t>pazufloxacin,pazufloxacine,pazufloxacino,pazufloxacinum</t>
         </is>
       </c>
       <c r="J318" t="e">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>abactal,labocton,pefloxacine,pefloxacinium,pefloxacino,pefloxacinum,perfloxacin,silver pefloxacin</t>
+          <t>abactal,labocton,pefloxacin,pefloxacine,pefloxacinium,pefloxacino,pefloxacinum,perfloxacin,silver pefloxacin</t>
         </is>
       </c>
       <c r="J319">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>alphacilina,alphacillin,bacbenzylpenicillin,berocillin,centurina,devonium,diancina,hydroxymethyl,inacilin,maxifen,penamecilina,penamecillina,penamecilline,penamecillinum,pivatil,pondocil,pondocillin,pondocillina,sanguicillin</t>
+          <t>hydroxymethyl,penamecilina,penamecillin,penamecillina,penamecilline,penamecillinum</t>
         </is>
       </c>
       <c r="J320">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>criseocil,duamine,geotricyn,hydrocycline,penetracyne,penimepiciclina,penimepicyclinum</t>
+          <t>criseocil,duamine,geotricyn,hydrocycline,penetracyne,penimepiciclina,penimepicycline,penimepicyclinum</t>
         </is>
       </c>
       <c r="J323" t="e">
@@ -20354,7 +20354,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>pentisomicina,pentisomicine,pentisomicinum</t>
+          <t>pentisomicin,pentisomicina,pentisomicine,pentisomicinum</t>
         </is>
       </c>
       <c r="J324" t="e">
@@ -20412,7 +20412,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>pentizidona,pentizidonum</t>
+          <t>pentizidona,pentizidone,pentizidonum</t>
         </is>
       </c>
       <c r="J325" t="e">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>cytolex,mangainin</t>
+          <t>pexiganan</t>
         </is>
       </c>
       <c r="J326" t="e">
@@ -20532,7 +20532,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>alfacillin,alticina,antibiocin,apsin,arcacil,arcasin,aspin,astracillin,bendralan,beromycin,brocsil,broxil,calciopen k,chemipen,cliacil,compocillin,darcil,dramcillin s,feneticilina,feneticillin,feneticillina,feneticilline,fenocin,icipen,isocillin,ispenoral,k phenethicillin,kavepenin,ledercillin,maxipen,megacillin,optipen,oracilline,oralopen,orapen,orocillin,ospeneff,pedipen,pen v,pen,penagen,penapar,pencompren,penemve,penicillin,penicillin v,penicillin vk+,peniplus,penova,pensig,penvikal,pfizerpen,phenethicilin,phenethicillinum,pheneticilline,pheneticillinum,phenoxy,potassium penicillin,primcillin,priospen,qidpen,robicillin,roscopenin,semopen,sumapen,suspen,synapen,syncillin,synerpenin,synthecillin,synthecilline,synthepen,synthepen tabl,triospen,uticillin,vamosyn,veetids,vepen</t>
+          <t>feneticilina,feneticillin,feneticillina,feneticilline,k phenethicillin,phenethicilin,phenethicillinum,pheneticillin,pheneticilline,pheneticillinum,phenoxy pc,potassium penicillin,synthepen</t>
         </is>
       </c>
       <c r="J327">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>acipen v,alfacillin,alticina,antibiocin,apocillin,apopen,apsin,arcacil,arcasin,aspin,astracillin,bendralan,beromycin,brocsil,broxil,calciopen k,calcipen,chemipen,cliacil,compocillin v,compocillin,crystapen v,darcil,distaquaine v,dramcillin s,eskacillian v,eskacillin v,fenacilin,feneticilline,fenocin,fenospen,icipen,isocillin,ispenoral,k phenethicillin,kavepenin,ledercillin,maxipen,megacillin,meropenin,optipen,oracillin,oracilline,oralopen,orapen,oratren,orocillin,ospeneff,pc pen,pedipen,pen v,pen,penagen,penapar,pencompren,penemve,penicillin,penicillin v,penicillin vk+,penicillinv,peniplus,penova,pensig,penvikal,pfizerpen,phenocillin,phenomycilline,phenopenicillin,potassium penicillin,primcillin,priospen,qidpen,robicillin,rocilin,roscopenin,semopen,stabicillin,sumapen,suspen,synapen,syncillin,synerpenin,synthecillin,synthecilline,synthepen,synthepen tabl,triospen,uticillin,vamosyn,vebecillin,veetids,vegacillin,vepen</t>
+          <t>acipen v,apocillin,apopen,beromycin,calcipen,compocillin v,crystapen v,distaquaine v,eskacillian v,eskacillin v,fenacilin,fenospen,meropenin,oracillin,oratren,pc pen vk,penicillin v,penicillinv,phenocillin,phenomycilline,phenopenicillin,robicillin,rocilin,stabicillin,vebecillin,veetids,vegacillin</t>
         </is>
       </c>
       <c r="J328">
@@ -20656,7 +20656,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>delvocid,delvolan,delvopos,mycophyt,myprozine,natacyn,natafucin,natamicina,natamycin,natamycine,natamycinum,pimafucin,pimaracin,pimaricine,pimarizin,synogil,tennecetin</t>
+          <t>delvocid,delvolan,delvopos,mycophyt,myprozine,natacyn,natafucin,natamicina,natamycin,natamycine,natamycinum,pimafucin,pimaracin,pimaricin,pimaricine,pimarizin,synogil,tennecetin</t>
         </is>
       </c>
       <c r="J329" t="e">
@@ -20718,7 +20718,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>acide pipemidique,acido pipemidico,acidum pipemidicum,deblaston,dolcol,filtrax,karunomazin,pipedac,pipemid,pipemidate,pipemidic,pipemidicacid,pipram,pipurin,pyrido,tractur,uromidin,urosten,uroval</t>
+          <t>acide pipemidique,acido pipemidico,acidum pipemidicum,deblaston,dolcol,filtrax,pipedac,pipemid,pipemidate,pipemidic,pipemidic acid,pipemidicacid,pipram,pipurin,tractur,uromidin,urosten,uroval</t>
         </is>
       </c>
       <c r="J330">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>ab piperacillin,isipen,penmalin,pentcillin,peperacillin,peracin,piperacilina,piperacillina,piperacilline,piperacillinhydrate,piperacillinsalt,piperacillinum,pipercillin,pipracil,pipracil sterile,pipril,tazocin,zosyn sterile</t>
+          <t>isipen,pentcillin,peperacillin,peracin,piperacilina,piperacillin,piperacillin hydrate,piperacillin na,piperacillin sodium,piperacillina,piperacilline,piperacillinum,pipercillin,pipracil,pipril,tazocin</t>
         </is>
       </c>
       <c r="J331" t="e">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>piptazobactam,tazobac,tazocel,tazocillin,tazocilline,tazocin,tazonam,zobactin,zosyn</t>
+          <t>tazocel,tazocillin,tazocin,zosyn</t>
         </is>
       </c>
       <c r="J333" t="e">
@@ -20964,7 +20964,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t/>
+          <t>piridicillin</t>
         </is>
       </c>
       <c r="J334" t="e">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>pirlimycina,pirlimycine,pirlimycinum,pirsue</t>
+          <t>pirlimycin,pirlimycina,pirlimycine,pirlimycinum,pirsue</t>
         </is>
       </c>
       <c r="J335" t="e">
@@ -21084,7 +21084,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>acide piromidique,acido piromidico,acidum piromidicum,actrun c,bactramyl,enterol,gastrurol,panacid,pirodal,piromidate,piromidicacid,pyrido,reelon,septural,urisept,uropir,zaomeal</t>
+          <t>acide piromidique,acido piromidico,acidum piromidicum,actrun c,bactramyl,enterol,gastrurol,panacid,pirodal,piromidate,piromidic acid,piromidicacid,pyrido,reelon,septural,urisept,uropir,zaomeal</t>
         </is>
       </c>
       <c r="J336">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>alphacilina,alphacillin,ambacamp,ambaxin,bacacil,berocillin,centurina,devonium,diancina,inacilin,maxifen,pivaloylampicillin,pivampicilina,pivampicilline,pivampicillinum,pivatil,pondocil,pondocillin,pondocillina,sanguicillin,spectrobid,velbacil</t>
+          <t>berocillin,pivaloylampicillin,pivampicilina,pivampicillin,pivampicilline,pivampicillinum,pondocillin</t>
         </is>
       </c>
       <c r="J337">
@@ -21212,7 +21212,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>amdinocillin pivoxil,coactabs,hydroxymethyl,melysin,pivmecilinamo,pivmecillinamum,pivya,selexid</t>
+          <t>amdinocillin pivoxil,coactabs,hydroxymethyl,pivmecilinamo,pivmecillinam,pivmecillinam hcl,pivmecillinamum</t>
         </is>
       </c>
       <c r="J338">
@@ -21272,7 +21272,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>zemdri</t>
+          <t>plazomicin,zemdri</t>
         </is>
       </c>
       <c r="J339" t="e">
@@ -21334,7 +21334,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aerosporin,polimixina b,polumyxin b,polymixin b,polymyxine b</t>
+          <t>polimixina b,polumyxin b,polymixin b,polymyxine b</t>
         </is>
       </c>
       <c r="J340">
@@ -21458,7 +21458,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>noxafil,posconazole</t>
+          <t>noxafil,posaconazole,posaconazole sp,posconazole</t>
         </is>
       </c>
       <c r="J342">
@@ -21520,7 +21520,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>pudofloxacin,veraflox</t>
+          <t>pradofloxacin,pudofloxacin,veraflox</t>
         </is>
       </c>
       <c r="J343" t="e">
@@ -21578,7 +21578,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>lasvic,remafloxacin</t>
+          <t>premafloxacin,remafloxacin</t>
         </is>
       </c>
       <c r="J344" t="e">
@@ -21640,7 +21640,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>oxazine</t>
+          <t>oxazine,pretomanid</t>
         </is>
       </c>
       <c r="J345">
@@ -21700,7 +21700,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>chinopricin,debrycin,guanidine,primycin a</t>
+          <t>primycin</t>
         </is>
       </c>
       <c r="J346" t="e">
@@ -21762,7 +21762,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>eskalin,eskalin v,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycinum</t>
+          <t>eskalin v,mikamycin,mikamycine,mikamycinum,ostreogrycinum,pristinamycine,pristinamycinum,stafac,stafytracine,staphylomycin,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamycin,virginiamycina,virginiamycine,virginiamycinum</t>
         </is>
       </c>
       <c r="J347">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>afsillin,aquacilina,aquacillin,aquasuspen,avloprocil,bactracillin g,cilicaine,crysticillin,depocillin,despacilina,distaquaine,duphapen,duracillin,hostacillin,hydracillin,jenacillin o,kabipenin,ledercillin,millicillin,mylipen,neoproc,nopcaine,novocaine penicillin,parencillin,penaquacaine g,penicillin procaine,premocillin,procaine penicillin,procanodia,prostabillin,retardillin,sharcillin,vetspen,vitablend,wycillin</t>
+          <t>depocillin,duphapen,hostacillin,hydracillin,jenacillin o,nopcaine,penicillin procaine,retardillin,vetspen,vitablend</t>
         </is>
       </c>
       <c r="J348" t="e">
@@ -21890,7 +21890,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>alfacillin,alticina,antibiocin,apsin,arcacil,arcasin,aspin,astracillin,bendralan,beromycin,brocsil,broxil,calciopen k,chemipen,cliacil,compocillin,darcil,dramcillin s,feneticilline,fenocin,icipen,isocillin,ispenoral,k phenethicillin,kavepenin,ledercillin,maxipen,megacillin,optipen,oracilline,oralopen,orapen,orocillin,ospeneff,pedipen,pen v,pen,penagen,penapar,pencompren,penemve,penicillin,penicillin v,penicillin vk+,peniplus,penova,pensig,penvikal,pfizerpen,potassium penicillin,primcillin,priospen,propicilina,propicilline,propicillinum,qidpen,robicillin,roscopenin,semopen,sumapen,suspen,synapen,syncillin,synerpenin,synthecillin,synthecilline,synthepen,synthepen tabl,triospen,uticillin,vamosyn,veetids,vepen</t>
+          <t>propicilina,propicillin,propicilline,propicillinum</t>
         </is>
       </c>
       <c r="J349">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>gentamicin a,gentamycin a,propikacina,propikacine,propikacinum</t>
+          <t>propikacin,propikacina,propikacine,propikacinum</t>
         </is>
       </c>
       <c r="J350" t="e">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>ektebin,peteha,prothionamide,prothionamidum,protion,protionamid,protionamida,protionamidum,protionizina,tebeform,trevintix,tuberex</t>
+          <t>ektebin,peteha,prothionamide,prothionamidum,protion,protionamid,protionamida,protionamide,protionamidum,protionizina,tebeform,trevintix,tuberex</t>
         </is>
       </c>
       <c r="J351">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>pruvel,pufloxacin dioxolil,quisnon</t>
+          <t>prulifloxacin,pruvel,pufloxacin dioxolil,quisnon</t>
         </is>
       </c>
       <c r="J352">
@@ -22140,7 +22140,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,p ezetamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamidum,pyrazine carboxamide,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
+          <t>aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,p ezetamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamide,pyrazinamidum,pyrazine carboxamide,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
         </is>
       </c>
       <c r="J353">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>synercid</t>
+          <t/>
         </is>
       </c>
       <c r="J354" t="e">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>bufenina,buphenin,buphenine,bupheninum,luteonin,nilidrine,nylidrin,nylidrinum,optaflexx,paylean,ractopamina,ractopaminum,ritodrin,ritodrina,ritodrine,ritodrinium,utopar,yutopar</t>
+          <t>optaflexx,paylean,ractopamina,ractopamine,ractopaminum</t>
         </is>
       </c>
       <c r="J355" t="e">
@@ -22320,7 +22320,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t/>
+          <t>ramoplanin</t>
         </is>
       </c>
       <c r="J356" t="e">
@@ -22378,7 +22378,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t/>
+          <t>razupenem</t>
         </is>
       </c>
       <c r="J357" t="e">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>altabax,altargo</t>
+          <t>altabax,altargo,retapamulin</t>
         </is>
       </c>
       <c r="J358" t="e">
@@ -22560,7 +22560,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>kisqali</t>
+          <t>kisqali,ribociclib</t>
         </is>
       </c>
       <c r="J360">
@@ -22624,7 +22624,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>dekamycin,exaluren,hetangmycin,ribastamin,ribostamicina,ribostamycine,ribostamycinum,vistamycin,xylostatin</t>
+          <t>dekamycin iv,hetangmycin,ribastamin,ribostamicina,ribostamycin,ribostamycine,ribostamycinum,vistamycin,xylostatin</t>
         </is>
       </c>
       <c r="J361" t="e">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t/>
+          <t>ridinilazole</t>
         </is>
       </c>
       <c r="J362" t="e">
@@ -22746,7 +22746,7 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>alfacid,ansamicin,ansamycin,ansatipin,ansatipine,assatipin,mycobutin,rifabutina,rifabutine,rifabutinum</t>
+          <t>alfacid,ansamicin,ansamycin,ansatipin,ansatipine,assatipin,mycobutin,rifabutin,rifabutina,rifabutine,rifabutinum</t>
         </is>
       </c>
       <c r="J363">
@@ -22810,7 +22810,7 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>abrifam,archidyn,arficin,arzide,azt + rifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadine,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicin amp,rifamor,rifampicina,rifampicine,rifampicinum,rifampin,rifamsolin,rifamycin amp,rifapiam,rifaprodin,rifcin,rifinah,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactazid,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
+          <t>abrifam,archidyn,arficin,arzide,azt + rifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadin i.v,rifadin i.v.,rifadine,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicin amp,rifamor,rifampicin,rifampicin sv,rifampicina,rifampicine,rifampicinum,rifampin,rifamsolin,rifamycin amp,rifapiam,rifaprodin,rifcin,rifinah,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactazid,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
         </is>
       </c>
       <c r="J364">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>isonarif,macox plus,rifamate,rifamazid,rifamazid i,rifinah,rimactazid</t>
+          <t/>
         </is>
       </c>
       <c r="J365" t="e">
@@ -23124,7 +23124,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>acetic acid,aemcolo,nacimycin,nancimycin,otofa,rifacin,rifamastene,rifamicina,rifamicine,rifamycin b,rifamycin svsalt,rifamycine,rifamycinimpurity a,rifamycinum,rifamycinum natricum,rifaximin impurity b,rifocin,rifocyn,rifomycin,rifomycin b,tuborin</t>
+          <t>aemcolo,rifacin,rifamicina,rifamicine sv,rifamycin,rifamycine,rifamycinum,rifocin,rifocyn,rifomycin,rifomycin sv,tuborin</t>
         </is>
       </c>
       <c r="J369">
@@ -23190,7 +23190,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>cyclopentyl rifampin,prifitin,priftin,rifapentin,rifapentina,rifapentinum</t>
+          <t>cyclopentyl rifampin,prifitin,priftin,rifapentin,rifapentina,rifapentine,rifapentinum</t>
         </is>
       </c>
       <c r="J370">
@@ -23254,7 +23254,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>fatroximin,flonorm,lormyx,lumenax,normix,redactiv,rifacol,rifamixin,rifaxidin,rifaximina,rifaximine,rifaximinum,rifaxin,ritacol,spiraxin,xifaxan,xifaxsan</t>
+          <t>fatroximin,flonorm,lormyx,lumenax,normix,redactiv,rifacol,rifamixin,rifaxidin,rifaximin,rifaximina,rifaximine,rifaximinum,rifaxin,ritacol,spiraxin,xifaxan,xifaxsan</t>
         </is>
       </c>
       <c r="J371">
@@ -23314,7 +23314,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>ritipenemsalt</t>
+          <t>ritipenem</t>
         </is>
       </c>
       <c r="J372" t="e">
@@ -23372,7 +23372,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>penemac</t>
+          <t>ritipenem acoxil</t>
         </is>
       </c>
       <c r="J373" t="e">
@@ -23434,7 +23434,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>medemycin,mydecamycin,propionylleucomycin,ricamycin,rokicid,rokital,rokitamicina,rokitamycine,rokitamycinum</t>
+          <t>propionylleucomycin,ricamycin,rokicid,rokital,rokitamicina,rokitamycin,rokitamycine,rokitamycinum</t>
         </is>
       </c>
       <c r="J374">
@@ -23498,7 +23498,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>bristacin,colbiocin,kinteto,pyrrocycline n,reverin,rolitetraciclina,rolitetracyclinum,solvocillin,superciclin,synotodecin,synterin,syntetrex,syntetrin,syntetrin nitrate,tetraverin,tetrex pmt,tetrim,tetriv,transcycline,velacicline,velacycline</t>
+          <t>bristacin,kinteto,reverin,rolitetraciclina,rolitetracycline,rolitetracyclinum,solvocillin,superciclin,synotodecin,synterin,syntetrex,syntetrin,transcycline,velacicline,velacycline</t>
         </is>
       </c>
       <c r="J375" t="e">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>acrosoxacin,eracine,eradacil,eradacin,eradicin,rosoxacine,rosoxacino,rosoxacinum,roxadyl,winoxacin,winuron</t>
+          <t>acrosoxacin,eracine,eradacil,eradacin,eradicin,rosoxacin,rosoxacine,rosoxacino,rosoxacinum,roxadyl,winoxacin,winuron</t>
         </is>
       </c>
       <c r="J376">
@@ -23626,7 +23626,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>roxithromycine,roxithromycinum,roxitromicina,rulide</t>
+          <t>roxithromycin,roxithromycine,roxithromycinum,roxitromicina,rulide</t>
         </is>
       </c>
       <c r="J377">
@@ -23690,7 +23690,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>monos,rufloxacine,rufloxacino,rufloxacinum,tebraxin</t>
+          <t>rufloxacin,rufloxacin hcl,rufloxacine,rufloxacino,rufloxacinum</t>
         </is>
       </c>
       <c r="J378">
@@ -23750,7 +23750,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>coxistac,procoxacin,salinomicina,salinomycine,salinomycinum</t>
+          <t>coxistac,procoxacin,salinomicina,salinomycin,salinomycine,salinomycinum</t>
         </is>
       </c>
       <c r="J379" t="e">
@@ -23808,7 +23808,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>difloxacine,difloxacino,difloxacinum,quinolone der.,sarafin,saraflox,saraflox injectable,saraflox wsp,sarafloxacine,sarafloxacino,sarafloxacinum</t>
+          <t>difloxacine,difloxacino,difloxacinum,quinolone der.,saraflox,sarafloxacin,sarafloxacine,sarafloxacino,sarafloxacinum</t>
         </is>
       </c>
       <c r="J380" t="e">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sarecycline?,seysara</t>
+          <t>sarecycline,seysara</t>
         </is>
       </c>
       <c r="J381">
@@ -23930,7 +23930,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sarmoxillina,sarmoxilline,sarmoxillinum</t>
+          <t>sarmoxicillin</t>
         </is>
       </c>
       <c r="J382" t="e">
@@ -23988,7 +23988,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>flagentyl,secnidal,secnidazol,secnidazolum,secnil,sindose,solosec</t>
+          <t>flagentyl,secnidal,secnidazol,secnidazole,secnidazolum,secnil,sindose,solosec</t>
         </is>
       </c>
       <c r="J383">
@@ -24114,7 +24114,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>rickamicin,salvamina,siseptin,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
+          <t>rickamicin,salvamina,siseptin sulfate,sisomicin,sisomicin sulfate,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
         </is>
       </c>
       <c r="J385" t="e">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>clinafoxacin,gracevit,sitafloxacinisomer,spifloxacin</t>
+          <t>gracevit,sitafloxacin,sitafloxacinisomer</t>
         </is>
       </c>
       <c r="J386">
@@ -24238,7 +24238,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aminacyl,aminosalicylate,aminosalyle,bactylan,decapasil,lepasen,monopas,nemasol,nippas,p.a.s.,pamisyl,paramisan,parasal,pas,pasade,paskalium,pasnal,passodico,salvis,sanipirol,sodiopas,p.a.s,teebacin,tubersan</t>
+          <t>bactylan,decapasil,lepasen,monopas,nippas,p.a.s. sodium,pamisyl sodium,parasal sodium,pas sodium,pasade,pasnal,passodico,salvis,sanipirol,sodiopas,sodium p.a.s,sodium pas,teebacin,tubersan</t>
         </is>
       </c>
       <c r="J387">
@@ -24300,7 +24300,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>solithera</t>
+          <t>solithera,solithromycin</t>
         </is>
       </c>
       <c r="J388" t="e">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>esparfloxacino,sparfloxacine,sparfloxacinum</t>
+          <t>esparfloxacino,sparfloxacin,sparfloxacine,sparfloxacinum</t>
         </is>
       </c>
       <c r="J389">
@@ -24426,7 +24426,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>actinospectacina,adspec,espectinomicina,prospec,specitinomycin,spectam,spectam scour halt,spectinomicina,spectinomycin dihcl,spectinomycine,spectinomycinum,spectogard,stanilo,togamycin,trobicin</t>
+          <t>actinospectacina,adspec,espectinomicina,prospec,specitinomycin,spectam,spectinomicina,spectinomycin,spectinomycin di hcl,spectinomycine,spectinomycinum,stanilo,togamycin,trobicin</t>
         </is>
       </c>
       <c r="J390" t="e">
@@ -24490,7 +24490,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>espiramicin,formacidine,foromacidin,foromacidin a,provamycin,rovamicina,rovamycin,rovamycine,sequamycin,spiramycin i,spiramycine,spiramycinum</t>
+          <t>espiramicin,provamycin,rovamycin,rovamycine,sequamycin,spiramycine,spiramycinum</t>
         </is>
       </c>
       <c r="J391">
@@ -24680,7 +24680,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>agrept,agrimycin,chemform,estreptomicina,hydroxystreptomycin,neodiestreptopab,reticulin,strepcen,streptomicina,streptomycin a,streptomycin b,streptomycin c,streptomycin spx,streptomycine,streptomycinum,streptomyzin,vetstrep</t>
+          <t>agrept,agrimycin,chemform,estreptomicina,neodiestreptopab,strepcen,streptomicina,streptomycin,streptomycin a,streptomycin spx,streptomycin sulfate,streptomycine,streptomycinum,streptomyzin,vetstrep</t>
         </is>
       </c>
       <c r="J394" t="e">
@@ -24864,7 +24864,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>betamaze,sulbactam acid,sulbactam free acid,sulbactamum</t>
+          <t>betamaze,sulbactam,sulbactam acid,sulbactam free acid,sulbactamum</t>
         </is>
       </c>
       <c r="J397" t="e">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>kedacillina,penicillin sulfoxide,sulbenicilina,sulbenicilline,sulbenicillinum</t>
+          <t>kedacillina,sulbenicilina,sulbenicillin,sulbenicilline,sulbenicillinum</t>
         </is>
       </c>
       <c r="J398" t="e">
@@ -24988,7 +24988,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sulconazol,sulconazolum</t>
+          <t>sulconazol,sulconazole,sulconazolum</t>
         </is>
       </c>
       <c r="J399" t="e">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone,solfaclorpiridazina,sonilyn,sulfacloropiridazina,vetisulid</t>
+          <t>cluricol,cosulid,cosumix,durasulf,nefrosul,nsulfanilamide,prinzone vet,prinzone vet.,solfaclorpiridazina,sonilyn,sulfachlorpyridazine,sulfacloropiridazina,vetisulid</t>
         </is>
       </c>
       <c r="J400" t="e">
@@ -25108,7 +25108,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>adiazin,adiazine,cocodiazine,codiazine,cremodiazine,cremotres,debenal,deltazina,dermazin,dermazine,diazin,diazolone,diazovit,diazyl,eskadiazine,flamazine,geben,honey diazine,liquadiazine,microsulfon,n salt,neazine,neotrizine,nsulfanilamide,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,rayasore kit,sanodiazine,silbertone,sildaflo,silvadene,silvazine,silver  sulfadiazine,silver sulfadazine,silver sulfadiazene,silver sulfadiazine,silver sulfafdiazine,silver sulphadiazine,silveramide,sliverex,solfadiazina,spofadrizine,ssd cream,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazin silber,sulfadiazina,sulfadiazine silver,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonamides duplex,sulfonsol,sulfose,sulphadiazine,sulphadiazine e,terfonyl,theradiazine,thermazene,trifonamide,triple sulfa,triple sulfas,trisem,truozine,zinc sulfadiazine</t>
+          <t>adiazin,adiazine,cocodiazine,codiazine,cremodiazine,cremotres,debenal,deltazina,diazin,diazolone,diazovit,diazyl,eskadiazine,honey diazine,liquadiazine,microsulfon,neazine,neotrizine,nsulfanilamide,palatrize,piridisir,pirimal,pyrimal,quadetts,quadramoid,sanodiazine,sildaflo,silvadene,solfadiazina,spofadrizine,sterazine,sulfacombin,sulfadiazene,sulfadiazin,sulfadiazina,sulfadiazine,sulfadiazinum,sulfapirimidin,sulfapyrimidin,sulfapyrimidine,sulfatryl,sulfazine,sulfolex,sulfonamides duplex,sulfonsol,sulfose,sulphadiazine,sulphadiazine e,terfonyl,theradiazine,thermazene,trifonamide,triple sulfa,triple sulfas,trisem,truozine,zinc sulfadiazine</t>
         </is>
       </c>
       <c r="J401">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>berlocombin,cotetroxazine,potesept,trimerazine</t>
+          <t>cotetroxazine</t>
         </is>
       </c>
       <c r="J402" t="e">
@@ -25234,7 +25234,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>antastmon,berlocombin,cotrimazine,diaziprim forte,ditrim,ditrivet,potesept,sultrisan,triglobe,trimerazine,trimin,tucoprim,uniprim</t>
+          <t>antastmon,cotrimazine,diaziprim forte,ditrim,ditrivet,sultrisan,triglobe,trimin,tucoprim,uniprim</t>
         </is>
       </c>
       <c r="J403" t="e">
@@ -25296,7 +25296,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>agribon,arnosulfan,bactotril,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamide,nsulfanilamidesalt,nsulphanilamide,omnibon,persulfen,primor,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxinesalt,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfadimoxine,sulfamoprine,sulfastop,sulfdimethoxine,sulfoplan,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
+          <t>agribon,arnosulfan,bactrovet,deposul,diasulfa,diasulfyl,dimetazina,dinosol,dorisul,lasibon,madribon,madrigid,madriqid,madroxin,madroxine,maxulvet,mecozine,memcozine,metoxidon,neostrepal,neostreptal,nsulfanilamide,omnibon,persulfen,primor,radonin,redifal,rofenaid,roscosulf,scandisil,solfadimetossina,sudine,suldixine,sulfabon,sulfadimethoxin,sulfadimethoxine,sulfadimethoxinum,sulfadimetossina,sulfadimetoxin,sulfadimetoxina,sulfadimetoxine,sulfadimoxine,sulfastop,sulfdimethoxine,sulfoplan,sulphadimethoxine,sulxin,sumbio,symbio,theracanzan,ultrasulfon</t>
         </is>
       </c>
       <c r="J404">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>azolmetazin,benzene sulfonamide,bovibol,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,nsulfanilamidesalt,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimetine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazinesalt,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfisomidin,sulfisomidine,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan,vesadin</t>
+          <t>azolmetazin,benzene sulfonamide,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidine,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazine,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan</t>
         </is>
       </c>
       <c r="J405">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulfanilamidesalt,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolesalt,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
+          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazole,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazole,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
         </is>
       </c>
       <c r="J407">
@@ -25552,7 +25552,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aristamid,aristamid augensalbe,aristamide,aristogyn,bovibol,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,intradine,isosulf,mefenal,nsulfanilamide,nsulfanilamidesalt,solfisomidina,sulfadimetine,sulfadimidin,sulfaisodimerazine,sulfaisodimidinum,sulfaisomidine,sulfamethazinesalt,sulfamethin,sulfasomidine,sulfisomidin,sulfisomidina,sulfisomidine,sulfisomidinum,sulphasomidine,vesadin</t>
+          <t>aristamid,aristamide,aristogyn,domain,domian,elcosin,elcosine,elkosil,elkosin,elkosine,erycon,isosulf,mefenal,nsulfanilamide,solfisomidina,sulfadimetine,sulfaisodimerazine,sulfaisodimidine,sulfaisodimidinum,sulfaisomidine,sulfamethin,sulfasomidine,sulfisomidina,sulfisomidine,sulfisomidine sodium,sulfisomidinum,sulphasomidine</t>
         </is>
       </c>
       <c r="J408">
@@ -25618,7 +25618,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>dalysep,kelfizin,kelfizina,kelfizine,kelfizine w,longum,nsulfanilamide,policydal,polycidal,solfametopirazina,sulfalen,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
+          <t>dalysep,kelfizin,kelfizina,kelfizine,kelfizine w,longum,nsulfanilamide,policydal,polycidal,solfametopirazina,sulfalen,sulfalene,sulfaleno,sulfalenum,sulfamethopyrazine,sulfamethoxypyrazine,sulfametopyrazine,sulfametoxypyridazin,sulphalene,sulphametopyrazine,vetkelfizina</t>
         </is>
       </c>
       <c r="J409">
@@ -25682,7 +25682,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>marespin,sulfamazon,sulfamazona,sulfamazonum</t>
+          <t>sulfamazon,sulfamazona,sulfamazone,sulfamazonum</t>
         </is>
       </c>
       <c r="J410">
@@ -25746,7 +25746,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>cremomerazine,dermazin,dermazine,flamazine,geben,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,n salt,nsulfanilamide,percoccide,pyralcid,pyrimal m,rayasore kit,romezin,septacil,septosyl,silbertone,sildaflo,silvadene,silvazine,silver  sulfadiazine,silver sulfadazine,silver sulfadiazene,silver sulfadiazine,silver sulfafdiazine,silver sulphadiazine,silveramide,sliverex,solfamerazina,solumedin,solumedine,ssd cream,sulfadiazin silber,sulfadiazine silver,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine,susfamerazine,thermazene</t>
+          <t>cremomerazine,kelamerazine,mebacid,mesulfa,methylpyrimal,methylsulfazin,methylsulfazine,metilsulfadiazin,metilsulfazin,nsulfanilamide,percoccide,pyralcid,pyrimal m,romezin,septacil,septosyl,solfamerazina,solumedin,solumedine,sulfameradine,sulfamerazin,sulfamerazina,sulfamerazine,sulfamerazinum,sulfamethyldiazine,sulphamerazine,sumedine,susfamerazine</t>
         </is>
       </c>
       <c r="J411">
@@ -25868,7 +25868,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>azolmetazin,benzene sulfonamide,bovibol,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,nsulfanilamidesalt,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimetine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazinesalt,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfisomidin,sulfisomidine,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan,vesadin</t>
+          <t>azolmetazin,benzene sulfonamide,calfspan,calfspan tablets,cremomethazine,diazil,diazilsulfadine,dimezathine,intradine,kelametazine,mermeth,metazin,neasina,neazina,nsulfanilamide,panazin,pirmazin,primazin,sa iii,solfadimidina,spanbolet,sulfadimerazine,sulfadimesin,sulfadimesine,sulfadimethyldiazine,sulfadimezin,sulfadimezine,sulfadimezinum,sulfadimidin,sulfadimidina,sulfadimidine,sulfadimidinum,sulfadine,sulfametazina,sulfametazyny,sulfamethazine,sulfamethiazine,sulfamezathine,sulfamidine,sulfasure sr bolus,sulfodimesin,sulfodimezine,sulka k boluses,sulka s boluses,sulmet,sulphadimidine,sulphamethasine,sulphamethazine,sulphamezathine,sulphamidine,sulphodimezine,superseptil,superseptyl,vertolan</t>
         </is>
       </c>
       <c r="J413" t="e">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aethazol,aethazolum,ayerlucil,berlophen,etazol,etazole,ethazole,gliprotiazol,globucid,globucin,globuzid,glyprothiazol,glyprothiazole,glyprothiazolum,glyprothizol,glyprothizolum,lucosil,methazol,microsul,nsulfanilamide,pasit,proklar,renasul,salimol,sethadil,solfametizolo,solfetidolo,sulamethizole,sulfa gram,sulfaethidiole,sulfaethidol,sulfaethidole,sulfaethidolum,sulfaetidol,sulfamethizol,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphaethidole,sulphamethizole,tardipyrine,tetracid,thidicur,thiosulfil,thiosulfil forte,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
+          <t>ayerlucil,lucosil,methazol,microsul,nsulfanilamide,proklar,renasul,salimol,solfametizolo,sulamethizole,sulfa gram,sulfamethizol,sulfamethizole,sulfamethizolum,sulfametizol,sulfapyelon,sulfstat,sulfurine,sulphamethizole,tetracid,thidicur,thiosulfil,thiosulfil forte,ultrasul,urocydal,urodiaton,urolucosil,urosulfin</t>
         </is>
       </c>
       <c r="J414">
@@ -25994,7 +25994,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>azo gantanol,gamazole,gantanol,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfiodizole,sulfisomezole,sulmeprim,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
+          <t>azo gantanol,gamazole,gantanol,gantanol ds,metoxal,nsulfanilamide,nsulphanilamide,radonil,septran,simsinomin,sinomin,solfametossazolo,sulfamethalazole,sulfamethoxazol,sulfamethoxazole,sulfamethoxazolum,sulfamethoxizole,sulfamethylisoxazole,sulfametoxazol,sulfisomezole,sulmeprim,sulphamethalazole,sulphamethoxazol,sulphamethoxazole,sulphisomezole,urobak</t>
         </is>
       </c>
       <c r="J415">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>altezol,cysul,davosin,depovernil,kineks,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,nsulfanilamide,nsulphanilamide,opinsul,paramid,paramid supra,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,sulfalex,sulfapiridazin,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
+          <t>altezol,davosin,depovernil,kineks,lederkyn,lentac,lisulfen,longin,medicel,midicel,midikel,myasul,nsulfanilamide,opinsul,paramid,paramid supra,petrisul,piridolo,quinoseptyl,retamid,retasulfin,retasulphine,slosul,spofadazine,sulfalex,sulfapyridazine,sulfdurazin,sulfozona,sultirene,vinces</t>
         </is>
       </c>
       <c r="J416">
@@ -26122,7 +26122,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>bactotril,duroprocin,methofadin,methofazine,nsulfanilamide,nsulfanilamidesalt,solfametomidina,sulfadimethoxinesalt,sulfamethomidine,sulfametomidin,sulfametomidina,sulfametomidinum,sulphadimethoxine</t>
+          <t>duroprocin,methofadin,methofazine,nsulfanilamide,solfametomidina,sulfamethomidine,sulfametomidin,sulfametomidina,sulfametomidine,sulfametomidinum</t>
         </is>
       </c>
       <c r="J417" t="e">
@@ -26184,7 +26184,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,longasulf,methoxypyrimal,nsulfanilamide,solfametossidiazina,sulfameter,sulfametersalt,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorin,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazinum,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
+          <t>bayrena,berlicid,dairena,durenat,juvoxin,kinecid,kirocid,longasulf,methoxypyrimal,nsulfanilamide,solfametossidiazina,sulfameter,sulfamethorine,sulfamethoxine,sulfamethoxydiazin,sulfamethoxydiazine,sulfamethoxydin,sulfamethoxydine,sulfametin,sulfametinum,sulfametorin,sulfametorine,sulfametorinum,sulfametoxidiazina,sulfametoxidine,sulfametoxydiazine,sulfametoxydiazinum,sulphameter,sulphamethoxydiazine,supramid,ultrax</t>
         </is>
       </c>
       <c r="J418">
@@ -26310,7 +26310,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>enterocura,justamil,nsulfanilamide,oxasulfa,solfaguanolo,solfamossolo,sulfadimethyloxazole,sulfaguanol,sulfaguanole,sulfaguanolum,sulfamoxol,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
+          <t>justamil,nsulfanilamide,oxasulfa,solfamossolo,sulfadimethyloxazole,sulfamoxol,sulfamoxole,sulfamoxolum,sulfano,sulfavigor,sulfmidil,sulfono,sulfune,sulfuno,sulphamoxole,tardamid,tardamide</t>
         </is>
       </c>
       <c r="J420">
@@ -26438,7 +26438,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,desseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,gerison,gombardol,infepan,lysococcine,neococcyl,orgaseptine,prontalbin,prontosil album,prontosil i,prontosil white,prontylin,pronzin album,proseptal,proseptine,proseptol,pysococcine,rubiazol a,sanamid,septamide album,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stopton album,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocid album,streptocide,streptocide white,streptocidum,streptoclase,streptocom,streptol,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamid,sulfanilamida,sulfanilamidomethan,sulfanilamidum,sulfanilimidic acid,sulfanimide,sulfocidin,sulfocidine,sulfonamide p,sulfonylamide,sulphanilamide,sulphanilamidum,sulphonamide,therapol,tolder,white streptocide</t>
+          <t>albexan,albosal,ambeside,antistrept,astreptine,astrocid,bacteramid,bactesid,collomide,colsulanyde,copticide,deseptyl,desseptyl,dipron,ergaseptine,erysipan,estreptocida,exoseptoplix,gerison,gombardol,infepan,lysococcine,neococcyl,orgaseptine,prontalbin,prontosil album,prontosil i,prontosil white,prontylin,pronzin album,proseptal,proseptine,proseptol,pysococcine,rubiazol a,sanamid,septamide album,septanilam,septinal,septolix,septoplex,septoplix,solfanilamide,stopton album,stramid,strepamide,strepsan,streptagol,streptamid,streptamin,streptasol,streptocid,streptocid album,streptocide,streptocide white,streptocidum,streptoclase,streptocom,streptol,strepton,streptopan,streptosil,streptozol,streptozone,streptrocide,sulfamidyl,sulfamine,sulfana,sulfanalone,sulfanidyl,sulfanil,sulfanilamida,sulfanilamide,sulfanilamidum,sulfanilimidic acid,sulfanimide,sulfocidin,sulfocidine,sulfonamide,sulfonamide p,sulfonylamide,sulphanilamide,sulphanilamide gr,sulphanilamidum,sulphonamide,therapol,tolder,white streptocide</t>
         </is>
       </c>
       <c r="J422" t="e">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>anastaf,archisulfa,avissul,chemiopen,demosulfan,durisan saft,ipersulfidin sirup,isosulfamerazine,methylsulfadiazin,methylsulfadiazine,novosul,nsulfanilamide,orosulfan,pallidin,retardon,risulfasens,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,ultrasulfon sirup</t>
+          <t>anastaf,archisulfa,avissul,chemiopen,demosulfan,durisan saft,ipersulfidin sirup,isosulfamerazine,methylsulfadiazin,methylsulfadiazine,novosul,nsulfanilamide,orosulfan,pallidin,retardon,risulfasens,sulfaperin,sulfaperina,sulfaperine,sulfaperinum,sulfatreis,sulfopirimidine,sulpenta,ultrasulfon sirup</t>
         </is>
       </c>
       <c r="J423">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,isarol v,merian,microtan pirazolo,nsulfanilamide,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
+          <t>depocid,depotsulfonamide,eftolon,firmazolo,inamil,isarol,isarol v,merian,microtan pirazolo,nsulfanilamide,orisul,orisulf,paidazolo,phenylsulfapyrazole,plisulfan,raziosulfa,solfafenazolo,sulfabid,sulfafenazol,sulfafenazolo,sulfaphenazol,sulfaphenazole,sulfaphenazolum,sulfaphenazon,sulfaphenylpipazol,sulfaphenylpyrazol,sulfaphenylpyrazole,sulfonylpyrazol,sulphaphenazole,sulphenazole</t>
         </is>
       </c>
       <c r="J424">
@@ -26628,7 +26628,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,septipulmon,solfapiridina,soludagenan,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
+          <t>adiplon,coccoclase,dagenan,eubasin,eubasinum,haptocil,piridazol,plurazol,pyriamid,pyridazol,relbapiridina,septipulmon,solfapiridina,streptosilpyridine,sulfapiridina,sulfapyridin,sulfapyridine,sulfapyridinum,sulfidin,sulfidine,sulphapyridin,sulphapyridine,thioseptal,trianon</t>
         </is>
       </c>
       <c r="J425">
@@ -26688,7 +26688,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>ambesid,derganil,sulfasuccinamid,sulfasuccinamida,sulfasuccinamidum</t>
+          <t>ambesid,derganil,sulfasuccinamid,sulfasuccinamida,sulfasuccinamide,sulfasuccinamidum</t>
         </is>
       </c>
       <c r="J426" t="e">
@@ -26750,7 +26750,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,nsulfanilamide,planomide,poliseptil,sanotiazol,septozol,silver sulfathiazole,solfatiazolo,soluthiazomide,streptosilthiazole,sulfamul,sulfathiazol,sulfathiazole silver,sulfathiazolesalt,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,triple sulfa,wintrazole</t>
+          <t>azoquimiol,azoseptale,cerazol,cerazole,chemosept,cibazol,duatok,dulana,eleudron,enterobiocine,estafilol,formosulfathiazole,neostrepsan,norsulfasol,norsulfazol,norsulfazole,norsulfazolum,nsulfanilamide,planomide,poliseptil,sanotiazol,septozol,sodium sulfathiazole,solfatiazolo,streptosilthiazole,sulfamul,sulfathiazol,sulfathiazole,sulfathiazolum,sulfatiazol,sulfavitina,sulfocerol,sulphathiazole,sulzol,thiacoccine,thiasulfol,thiazamide,thiozamide,triple sulfa,wintrazole</t>
         </is>
       </c>
       <c r="J427" t="e">
@@ -26812,7 +26812,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathioureasalt,sulfathiouree,sulfatiourea,sulphathiourea</t>
+          <t>badional,baldinol,fontamide,salvoseptyl,solfatiourea,solufontamide,sulfanilthiourea,sulfathiocarbamid,sulfathiocarbamide,sulfathiocarbamidum,sulfathiourea,sulfathiouree,sulfatiourea,sulphathiourea</t>
         </is>
       </c>
       <c r="J428">
@@ -26872,7 +26872,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulfanilamidesalt,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazolesalt,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
+          <t>accuzole,alphazole,amidoxal,astrazolo,azo gantrisin,azosulfizin,bactesulf,barazae,chemouag,cosoxazole,dorsulfan,dorsulfan warthausen,entusil,entusul,eryzole,gantrisin,gantrisine,gantrisona,gantrizin,gantrosan,isoxamin,neazolin,neoxazoi,neoxazol,novazolo,novosaxazole,nsulfanilamide,nsulphanilamide,pancid,pediazole,renosulfan,resoxol,roxosul,roxosul tablets,roxoxol,saxosozine,sodizole,solfafurazolo,soxamide,soxazole,soxisol,soxitabs,soxomide,stansin,sulbio,sulfafuraz ole,sulfafurazol,sulfafurazole,sulfafurazolum,sulfagan,sulfagen,sulfaisoxazole,sulfalar,sulfapolar,sulfasol,sulfasoxazole,sulfasoxizole,sulfazin,sulfisin,sulfisonazole,sulfisoxasole,sulfisoxazol,sulfisoxazole,sulfisoxazolum,sulfizin,sulfizol,sulfizole,sulfofurazole,sulfoxol,suloxsol,sulphafuraz,sulphafurazol,sulphafurazole,sulphafurazolum,sulphaisoxazole,sulphisoxazol,sulphisoxazole,sulphofurazole,sulsoxin,thiasin,unisulf,urisoxin,uritrisin,urogan,vagilia</t>
         </is>
       </c>
       <c r="J429" t="e">
@@ -26988,7 +26988,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t/>
+          <t>sulopenem</t>
         </is>
       </c>
       <c r="J431" t="e">
@@ -27050,7 +27050,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sultamicilina,sultamicillinum</t>
+          <t>sultamicilina,sultamicillin,sultamicillinum</t>
         </is>
       </c>
       <c r="J432">
@@ -27110,7 +27110,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>cidecin,cubicin,dapcin,daptomicina,daptomycin for,daptomycine,daptomycinum,dapzura,deptomycin</t>
+          <t>surotomycin</t>
         </is>
       </c>
       <c r="J433" t="e">
@@ -27172,7 +27172,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>aseocillin,talampicilina,talampicilline,talampicillinum,talpen,tamampicillin,yamacillin</t>
+          <t>talampicilina,talampicillin,talampicilline,talampicillinum</t>
         </is>
       </c>
       <c r="J434">
@@ -27232,7 +27232,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t/>
+          <t>talmetoprim</t>
         </is>
       </c>
       <c r="J435" t="e">
@@ -27294,7 +27294,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>enmetazobactam,tazobactam acid,tazobactamsalt,tazobactamum,tazobactum</t>
+          <t>tazobactam,tazobactam acid,tazobactamum,tazobactum</t>
         </is>
       </c>
       <c r="J436" t="e">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sivextro,torezolid</t>
+          <t>sivextro,tedizolid,torezolid</t>
         </is>
       </c>
       <c r="J438">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aerovanc,firvanq,firvanq kit,targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanina,teicoplanine,teicoplaninum</t>
+          <t>targocid,tecoplanina,tecoplanine,tecoplaninum,teichomycin,teicoplanin,teicoplanina,teicoplanine,teicoplaninum</t>
         </is>
       </c>
       <c r="J439" t="e">
@@ -27604,7 +27604,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aerovanc,firvanq,firvanq kit,televancin,vibativ</t>
+          <t>telavancin,televancin,vibativ</t>
         </is>
       </c>
       <c r="J441" t="e">
@@ -27666,7 +27666,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>ketek,levviax</t>
+          <t>levviax,telithromycin</t>
         </is>
       </c>
       <c r="J442">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>omniflox,sarafin,saraflox,saraflox injectable,saraflox wsp,temafloxacina,temafloxacine,temafloxacinum</t>
+          <t>omniflox,temafloxacin,temafloxacina,temafloxacine,temafloxacinum</t>
         </is>
       </c>
       <c r="J443">
@@ -27794,7 +27794,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>negaban,temocilina,temocillin disalt,temocillina,temocilline,temocillinum</t>
+          <t>negaban,temocilina,temocillin,temocillina,temocilline,temocillinum</t>
         </is>
       </c>
       <c r="J444" t="e">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>afogan,antifungal foot,athletes foot,bramazil,bramizil,corbinal,innonyx,krogerantifungal,lamasil,lamisil,lamisil at cream,lamisil krem,lamisil tablet,lamisilat jock itch,muzonal,mycova,shopkoathletes foot,shoprite,silkaantifungal,silkagel,silkajock itch,terbifoam,terbina,terbinafina,terbinafine hcl?,terbinafinum,terbine,terbinex,terbisil,zabel</t>
+          <t>corbinal,lamasil,lamisil,lamisil at,lamisil tablet,terbinafina,terbinafine,terbinafinum,terbinex</t>
         </is>
       </c>
       <c r="J445">
@@ -27918,7 +27918,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>fungistat,panlomyc,terazol,terconazol,terconazolum,tercospor,triaconazole,zazole</t>
+          <t>fungistat,panlomyc,terazol,terconazol,terconazole,terconazolum,tercospor,triaconazole,zazole</t>
         </is>
       </c>
       <c r="J446" t="e">
@@ -27980,7 +27980,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>terivalidin,terizidon,terizidona,terizidonum</t>
+          <t>terivalidin,terizidon,terizidona,terizidone,terizidonum</t>
         </is>
       </c>
       <c r="J447" t="e">
@@ -28042,7 +28042,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>abbocin,abramycin,abricycline,achromycin,achromycin v,acromicina,actisite,agromicina,ala tet,alamycin,ambramicina,ambramycin,amycin,aquacycline,artomycin,bi steclin,biocycline,biosolvomycin,biotet,bisolvomycin,bristaciclin,bristaciclin .alpha.,bristaciclina,bristacycline,brodspec,cefracycline,cefracycline tablets,centet,chrysocin,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,dalimycin,dalinmycin,democracin,deschlorobiomycin,diacycine,dispatetrin,dumocyclin,economycin,elinton,engemycin,enterocycline,hostacyclin,hostacycline,hydrocyclin,ibicyn,imperacin,intaloxin,lemtrex,lexacycline,limecycline,liquachel,liquamycin,macodyn,medocycline,mepatar,mephacyclin,mericycline,micycline,neocyclin b,neocycline,neocycline b,oletetrin,omegamycin,orlycycline,otetryn,oxacycline,oxamycen,oxatet,oxlopar,oxy,oxybiocycline,oxycycline,oxydon,oxyject,oxymykoin,oxysteclin,oxytet,oxytetracycline.hcl,oxytetral,oxytetrin,oxytracyl,oxyvet,paltet,panmycin,partrex,piracaps,polycycline,polyotic,purocyclina,qidtet,quadracycline,quatrex,remicyclin,resteclin,retet,ricycline,robitet,roviciclina,sigmamycin,solvocin,steclin,stecsolin,stilciclina,subamycin,sumycin,supramycin,sustamycin,talsutin,tefilin,teline,telotrex,terraject,terramycin,tetrabakat,tetrabid,tetrabid organon,tetrablet,tetrabon,tetracaps,tetrachel,tetraciclina,tetracompren,tetracycl,tetracyclin,tetracyclinbase,tetracycline i,tetracycline.hcl,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetrakap,tetralution,tetramavan,tetramed,tetran hydrochloride,tetraseptine,tetrasure,tetraverine,tetrazyklin,tetrex,tetrosol,topicycline,toxinal,triphacyclin,tsiklomistsin,tsiklomitsin,unicin,unimycin,vendarcin,veracin,vetacyclinum,vetquamycin</t>
+          <t>abramycin,abricycline,achromycin,achromycin v,actisite,agromicina,ambramicina,ambramycin,amycin,biocycline,bristaciclin,bristaciclina,bristacycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,democracin,deschlorobiomycin,dumocyclin,economycin,enterocycline,hostacyclin,lexacycline,limecycline,liquamycin,medocycline,mericycline,micycline,neocycline,oletetrin,omegamycin,orlycycline,panmycin,piracaps,polycycline,polyotic,purocyclina,resteclin,robitet,roviciclina,sigmamycin,solvocin,sumycin,sumycin syrup,supramycin,sustamycin,tetrabid organon,tetrabon,tetrachel,tetraciclina,tetracycl,tetracyclin,tetracycline,tetracycline base,tetracycline i,tetracycline ii,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetramed,tetrasure,tetraverine,tetrazyklin,tetrex,topicycline,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum,vetquamycin</t>
         </is>
       </c>
       <c r="J448">
@@ -28166,7 +28166,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>primsol,tetroxoprima,tetroxoprime,tetroxoprimum,trimpex,trimplex</t>
+          <t>tetroxoprim,tetroxoprima,tetroxoprime,tetroxoprimum</t>
         </is>
       </c>
       <c r="J450" t="e">
@@ -28224,7 +28224,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aktivan,ambathizon,amithiozone,amithizone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,diazan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone?,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
+          <t>aktivan,ambathizon,amithiozone,amithizone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,diazan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazone,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
         </is>
       </c>
       <c r="J451" t="e">
@@ -28286,7 +28286,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>descocin,dexawin,dextrosulfenidol,dextrosulphenidol,efnicol,fricol,hyrazin,igralin,macphenicol,masatirin,neomyson,racefenicol,racefenicolo,racefenicolum,raceophenidol,racephenicol,rincrol,thiamcol,thiamphenicol epimer,thiamphenicolum,thiocymetin,thiomycetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamicina,urfamycine,urophenyl,vicemycetin</t>
+          <t>descocin,dexawin,dextrosulfenidol,dextrosulphenidol,efnicol,hyrazin,igralin,macphenicol,masatirin,neomyson,racefenicol,racefenicolo,racefenicolum,raceophenidol,racephenicol,rincrol,thiamcol,thiamphenicol,thiamphenicolum,thiocymetin,thiomycetin,thiophenicol,tiamfenicol,tiamfenicolo,urfamicina,urfamycine,vicemycetin</t>
         </is>
       </c>
       <c r="J452">
@@ -28352,7 +28352,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>aktivan,ambathizon,amithiozone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetazone?,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
+          <t>aktivan,ambathizon,amithiozone,amitiozon,benthiozone,benzothiozane,benzothiozon,berculon a,berkazon,citazone,conteben,diasan,domakol,ilbion,livazone,mirizone neustab,mivizon,myvizone,neotibil,neustab,novakol,nuclon argentinian,panrone,parazone,seroden,siocarbazone,tebalon,tebecure,tebemar,tebesone i,tebethion,tebethione,tebezon,thiacetone,thiacetozone,thibon,thibone,thioacetazon,thioacetazone,thioacetazonum,thioazetazone,thiocarbazil,thiomicid,thionicid,thioparamizon,thioparamizone,thiosemicarbarzone,thiosemicarbazone,thiotebesin,thiotebezin,thiotebicina,thizone,tiacetazon,tibicur,tibion,tibione,tibizan,tibone,tioacetazon,tioacetazona,tioatsetazon,tiobicina,tiocarone,tiosecolo,tubercazon,tubigal</t>
         </is>
       </c>
       <c r="J453" t="e">
@@ -28472,7 +28472,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>denagard,thiamutilin,tiamulin pamoate,tiamulina,tiamuline,tiamulinum,tiavet p</t>
+          <t>denagard,thiamutilin,tiamulin,tiamulin pamoate,tiamulina,tiamuline,tiamulinum,tiavet p</t>
         </is>
       </c>
       <c r="J455" t="e">
@@ -28534,7 +28534,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>ticarcilina,ticarcilline,ticarcillinum,ticillin,timentin</t>
+          <t>ticarcilina,ticarcillin,ticarcilline,ticarcillinum,ticillin,timentin</t>
         </is>
       </c>
       <c r="J456" t="e">
@@ -28598,7 +28598,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>augpenin,timentin</t>
+          <t>timentin</t>
         </is>
       </c>
       <c r="J457" t="e">
@@ -28662,7 +28662,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>haizheng li xing,tigeciclina,tigecyclin,tigecyclinehydrate,tigecyclinum,tigilcycline,tygacil</t>
+          <t>haizheng li xing,tigeciclina,tigecyclin,tigecycline,tigecycline hydrate,tigecyclinum,tigilcycline,tygacil</t>
         </is>
       </c>
       <c r="J458" t="e">
@@ -28722,7 +28722,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>tilbroquinolum</t>
+          <t>tilbroquinol,tilbroquinolum</t>
         </is>
       </c>
       <c r="J459" t="e">
@@ -28780,7 +28780,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>zuprevo</t>
+          <t>tildipirosin,zuprevo</t>
         </is>
       </c>
       <c r="J460" t="e">
@@ -28838,7 +28838,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>micotil,pulmotil,tilmicosina,tilmicosine,tilmicosinum</t>
+          <t>micotil,pulmotil,tilmicosin,tilmicosina,tilmicosine,tilmicosinum</t>
         </is>
       </c>
       <c r="J461" t="e">
@@ -28900,7 +28900,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>amtiba,bioshik,ethyl sulfone,fasigin,fasigyn,fasigyntrade mark,fasygin,glongyn,haisigyn,isotinidazole,pletil,simplotan,simplotantrade mark,sorquetan,symplotan,tindamax,tindamaxtrade mark,tinidazol,tinidazolum,tricolam,trimonase</t>
+          <t>amtiba,bioshik,ethyl sulfone,fasigin,fasigyn,fasigyntrade mark,fasygin,glongyn,haisigyn,pletil,simplotan,simplotantrade mark,sorquetan,symplotan,tindamax,tindamaxtrade mark,tinidazol,tinidazole,tinidazolum,tricolam,trimonase</t>
         </is>
       </c>
       <c r="J462">
@@ -28966,7 +28966,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>aethoksid,aethoxyd,aethoxydum,amixyl,datanil,disocarban,disoxyl,ethoxide,ethoxyd,etocarlid,etocarlida,etocarlide,etocarlidum,etoksid,isoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
+          <t>amixyl,datanil,disocarban,disoxyl,isoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlide,tiocarlidum</t>
         </is>
       </c>
       <c r="J463">
@@ -29026,7 +29026,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>cloruro de tiodonio,tiodonii chloridum,tiodonium,tiodonium cation</t>
+          <t>cloruro de tiodonio,tiodonii chloridum,tiodonium chloride</t>
         </is>
       </c>
       <c r="J464" t="e">
@@ -29084,7 +29084,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>tioxacine,tioxacino,tioxacinum,tioxic acid</t>
+          <t>tioxacin,tioxacine,tioxacino,tioxacinum,tioxic acid</t>
         </is>
       </c>
       <c r="J465" t="e">
@@ -29204,7 +29204,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>bethkis,brulamycin,deoxykanamycin b,distobram,gernebcin,gotabiotic,kitabis,kitabis pak,nebcin,nebicin,nebramycin,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobi podhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycine,tobramycinum,tobrased,tobrasone,tobrex</t>
+          <t>bethkis,brulamycin,deoxykanamycin b,distobram,gernebcin,gotabiotic,kitabis,kitabis pak,nebcin,nebicin,nebramycin,nebramycin vi,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobi podhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycin,tobramycin base,tobramycin sulfate,tobramycine,tobramycinum,tobrased,tobrasone,tobrex</t>
         </is>
       </c>
       <c r="J467" t="e">
@@ -29322,7 +29322,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t/>
+          <t>tosufloxacin</t>
         </is>
       </c>
       <c r="J469">
@@ -29386,7 +29386,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lagatrim forte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprim forte,roubac,roubal,salvatrim,septrin,septrin forte,septrin s,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmp smx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
+          <t>abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,colizole ds,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lagatrim forte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprim forte,roubac,roubal,salvatrim,septrin ds,septrin forte,septrin s,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmp smx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
         </is>
       </c>
       <c r="J470">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bacterial forte,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrim forte,bactrimel,bactrizol,bactromin,bactropin,baktar,belcomycine,berlocid,bibacrim,biseptol,chemitrim,chemotrim,ciplin,colimycin,colisticin,colistimethate,colomycin,coly-mycin,cotribene,cotrim,cotrim eu rho,cotrim holsen,cotrim.l.u.t.,cotrimaxazol,cotrimazole,cotrimhexal,cotrimoxazol,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,esteprim,eusaprim,fectrim,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,jenamoxazol,kemoprim,kepinol,kepinol forte,laratrim,linaris,maxtrim,microtrim,microtrim forte,mikrosid,momentol,oecotrim,oriprim,oxaprim,pantoprim,polymyxin e,polymyxin e.,potrox,primazole,promixin,septra,septra grape,septrim,septrin,servitrim,sigaprim,sigaprin,sulfatrim,sulfotrim,sulfotrimin,sulmeprim,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,totazina,tribakin,trifen,trigonyl,trimesulf,trimetho comp,trimethoprimsulfa,trimetoger,trimexazol,trimforte,trimosulfa,uroplus</t>
+          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bacterial forte,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrim ds,bactrim forte,bactrim pediatric,bactrimel,bactrizol,bactromin,bactropin,baktar,belcomycine,berlocid,bibacrim,biseptol,chemitrim,chemotrim,ciplin,colimycin,colimycin sulphate,colisticin,colistimethate,colistimethate sodium,colistin sulfate,colistin sulphate,colomycin,coly-mycin,cotribene,cotrim d.s.,cotrim eu rho,cotrim holsen,cotrim.l.u.t.,cotrimaxazol,cotrimazole,cotrimhexal,cotrimoxazol,cotrimoxazol al,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,esteprim,eusaprim,fectrim,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,jenamoxazol,kemoprim,kepinol,kepinol forte,laratrim,linaris,maxtrim,microtrim,microtrim forte,mikrosid,momentol,oecotrim,oriprim,oxaprim,pantoprim,polymyxin e,polymyxin e. sulfate,primazole,promixin,septra,septra ds,septra grape,septrim,septrin,servitrim,sigaprim,sigaprin,sulfatrim pediatric,sulfotrim,sulfotrimin,sulmeprim pediatric,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,totazina,tribakin,trifen,trigonyl,trimesulf,trimetho comp,trimethoprimsulfa,trimetoger,trimexazol,trimforte,trimosulfa,uroplus,uroplus ds,uroplus ss</t>
         </is>
       </c>
       <c r="J471" t="e">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycin t,micotil,oleandocetin,oleandocetine,t.a.o.,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycine,troleandomycinum,viamicina,wytrion</t>
+          <t>acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycin t,micotil,oleandocetine,oleandomycin,t.a.o.,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycin,troleandomycine,troleandomycinum,viamicina,wytrion</t>
         </is>
       </c>
       <c r="J472">
@@ -29574,7 +29574,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>rubidiumnitrate,trospectinomycin,trospectomicina,trospectomycine,trospectomycinum</t>
+          <t>rubidiumnitrate,trospectinomycin,trospectomicina,trospectomycin,trospectomycine,trospectomycinum</t>
         </is>
       </c>
       <c r="J473" t="e">
@@ -29636,7 +29636,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>trovan</t>
+          <t>trovafloxacin,trovan</t>
         </is>
       </c>
       <c r="J474">
@@ -29698,7 +29698,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>draxxin,tulathrmycin a,tulathromycin a</t>
+          <t>draxxin,tulathrmycin a,tulathromycin,tulathromycin a</t>
         </is>
       </c>
       <c r="J475" t="e">
@@ -29756,7 +29756,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>fradizine,tilosina,tylocine,tylosin a,tylosine,tylosinum</t>
+          <t>fradizine,tilosina,tylocine,tylosin,tylosin a,tylosine,tylosinum</t>
         </is>
       </c>
       <c r="J476" t="e">
@@ -29814,7 +29814,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t/>
+          <t>tylvalosin</t>
         </is>
       </c>
       <c r="J477" t="e">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>aerovanc,firvanq,firvanq kit,targocid,vancocin,vancoled,vancomicina,vancomycine,vancomycinum,vancor,viomycin derivative</t>
+          <t>vancocin,vancocin hcl,vancoled,vancomicina,vancomycin,vancomycin hcl,vancomycine,vancomycinum,vancor,viomycin derivative</t>
         </is>
       </c>
       <c r="J479">
@@ -30054,7 +30054,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>celiomycin,florimycin,floromycin,solfato di viomicina,tuberactinomycin b,vinacetin a,vioactane,viocin,viomicina,viomycine,viomycinum</t>
+          <t>celiomycin,florimycin,floromycin,tuberactinomycin b,vinacetin a,vioactane,viomicina,viomycin,viomycine,viomycinum</t>
         </is>
       </c>
       <c r="J481" t="e">
@@ -30112,7 +30112,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>eskalin,eskalin v,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycinum</t>
+          <t>eskalin,eskalin v,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycin,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycine,virginiamycinum</t>
         </is>
       </c>
       <c r="J482" t="e">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>pfizer,vfend,voriconazol,voriconazole vfend,voriconazolum,voriconzole,vorikonazole</t>
+          <t>pfizer,vfend i.v.,voriconazol,voriconazole,voriconazole vfend,voriconazolum,voriconzole,vorikonazole</t>
         </is>
       </c>
       <c r="J483">
@@ -30240,7 +30240,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>bactacine,bracen,nanbacine,xibornolo,xibornolum</t>
+          <t>bactacine,bracen,nanbacine,xibornol,xibornolo,xibornolum</t>
         </is>
       </c>
       <c r="J484" t="e">
@@ -30298,7 +30298,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>zidebactamsalt</t>
+          <t>zidebactam</t>
         </is>
       </c>
       <c r="J485" t="e">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t/>
+          <t>zoliflodacin</t>
         </is>
       </c>
       <c r="J486" t="e">

--- a/data-raw/antibiotics.xlsx
+++ b/data-raw/antibiotics.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:N487"/>
+  <dimension ref="A1:N488"/>
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -730,7 +730,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>amicacin,amikacillin,amikacinbase,amikacindihydrate,amikacinfreebase,amikacinsulfate,amikacina,amikacine,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,arikayceliposomal,briclin,kaminax,lukadin,mikavir,pierami,potentox</t>
+          <t>amicacin,amikacillin,amikacina,amikacinbase,amikacindihydrate,amikacine,amikacinfreebase,amikacinsulfate,amikacinum,amikavet,amikin,amiklin,amikozit,amukin,arikace,arikayceliposomal,briclin,kaminax,lukadin,mikavir,pierami,potentox</t>
         </is>
       </c>
       <c r="J6" t="e">
@@ -914,7 +914,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>actimoxi,amoclen,amolin,amopen,amopenixin,amoxibiotic,amoxicaps,amoxicilina,amoxicillinhydrate,amoxicilline,amoxicillinum,amoxiden,amoxil,amoxivet,amoxy,amoxycillin,amoxyke,anemolin,aspenil,atoksilin,biomox,bristamox,cemoxin,clamoxyl,damoxy,delacillin,demoksil,dispermox,efpenix,flemoxin,hiconcil,histocillin,hydroxyampicillin,ibiamox,imacillin,lamoxy,largopen,metafarmacapsules,metifarmacapsules,moksilin,moxacin,moxatag,ospamox,pamoxicillin,piramox,promoxil,remoxil,robamox,sawamoxpm,tolodina,topramoxin,unicillin,utimox,vetramox</t>
+          <t>actimoxi,amoclen,amolin,amopen,amopenixin,amoxibiotic,amoxicaps,amoxicilina,amoxicilline,amoxicillinhydrate,amoxicillinum,amoxiden,amoxil,amoxivet,amoxy,amoxycillin,amoxyke,anemolin,aspenil,atoksilin,biomox,bristamox,cemoxin,clamoxyl,damoxy,delacillin,demoksil,dispermox,efpenix,flemoxin,hiconcil,histocillin,hydroxyampicillin,ibiamox,imacillin,lamoxy,largopen,metafarmacapsules,metifarmacapsules,moksilin,moxacin,moxatag,ospamox,pamoxicillin,piramox,promoxil,remoxil,robamox,sawamoxpm,tolodina,topramoxin,unicillin,utimox,vetramox</t>
         </is>
       </c>
       <c r="J9">
@@ -980,7 +980,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>amocla,amoclan,amoclav,amoksiclav,amoxsiklav,amoxyclav,augmentan,augmentin,augmentinxr,augmentine,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilinplus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,synulox,viaclav,xiclav</t>
+          <t>amocla,amoclan,amoclav,amoksiclav,amoxsiklav,amoxyclav,augmentan,augmentin,augmentine,augmentinxr,auspilic,clamentin,clamobit,clavamox,clavinex,clavoxilinplus,clavulin,clavumox,coamoxiclav,eumetinex,kmoxilin,spectramox,spektramox,synulox,viaclav,xiclav</t>
         </is>
       </c>
       <c r="J10">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>acillin,adobacillin,amblosin,amcill,amfipen,amfipenv,amipenixs,ampichel,ampicil,ampicilina,ampicillina,ampicillinacid,ampicillinanhydrate,ampicillinanhydrous,ampicillinbase,ampicillinhydrate,ampicillinsodium,ampicilline,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,anhydrousampicillin,austrapen,binotal,bonapicillin,britacil,campicillin,copharcilin,delcillin,deripen,divercillin,doktacillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olinkid,omnipen,orbicilina,penaoral,penampil,penbristol,penbritin,penbritinpaediatric,penbritinsyrup,penbrock,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpena,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,redicilin,rosampline,roscillin,semicillin,semicillinr,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillins,vidocillin,wypicil</t>
+          <t>acillin,adobacillin,amblosin,amcill,amfipen,amfipenv,amipenixs,ampichel,ampicil,ampicilina,ampicillina,ampicillinacid,ampicillinanhydrate,ampicillinanhydrous,ampicillinbase,ampicilline,ampicillinhydrate,ampicillinsodium,ampicillinum,ampicin,ampifarm,ampikel,ampimed,ampipenin,ampiscel,ampisyn,ampivax,ampivet,amplacilina,amplin,amplipenyl,amplisom,amplital,anhydrousampicillin,austrapen,binotal,bonapicillin,britacil,campicillin,copharcilin,delcillin,deripen,divercillin,doktacillin,duphacillin,grampenil,guicitrina,guicitrine,lifeampil,marcillin,morepen,norobrittin,nuvapen,olinkid,omnipen,orbicilina,penampil,penaoral,penbristol,penbritin,penbritinpaediatric,penbritinsyrup,penbrock,penicline,penimic,pensyn,pentrex,pentrexl,pentrexyl,pentritin,pfizerpena,polycillin,polyflex,ponecil,princillin,principen,qidamp,racenacillin,redicilin,rosampline,roscillin,semicillin,semicillinr,servicillin,sumipanto,synpenin,texcillin,tokiocillin,tolomol,totacillin,totalciclina,totapen,trifacilina,ukapen,ultrabion,ultrabron,vampen,viccillin,viccillins,vidocillin,wypicil</t>
         </is>
       </c>
       <c r="J14">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>abbocillin,ayercillin,bencilpenicilina,benzopenicillin,benzylpenicilling,benzylpenicilline,benzylpenicillinum,bicillin,cillora,cilloral,cilopen,compocilling,cosmopen,dropcillin,freepenicilling,freepenicillinii,galofak,gelacillin,liquacillin,megacillin,pencilling,penicillin,penicilling,pentids,permapen,pfizerpen,pfizerpeng,pharmacillin,pradupen,specillineg,ursopen</t>
+          <t>abbocillin,ayercillin,bencilpenicilina,benzopenicillin,benzylpenicilline,benzylpenicilling,benzylpenicillinum,bicillin,cillora,cilloral,cilopen,compocilling,cosmopen,dropcillin,freepenicilling,freepenicillinii,galofak,gelacillin,liquacillin,megacillin,pencilling,penicillin,penicilling,pentids,permapen,pfizerpen,pfizerpeng,pharmacillin,pradupen,specillineg,ursopen</t>
         </is>
       </c>
       <c r="J39" t="e">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>alcephin,alexin,alsporin,amplex,anhydrouscefalexin,anhydrouscephalexin,biocef,carnosporin,cefablan,cefadal,cefadin,cefadina,cefaleksin,cefalessina,cefalexinanhydrous,cefalexina,cefalexine,cefalexinum,cefalin,cefaloto,cefaseptin,ceffanex,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexin,cephalexinanhydrous,cephalexine,cephalexinum,cephanasten,cephaxin,cephin,ceporex,ceporexforte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,durantel,durantelds,erocetin,factagard,felexin,ibilex,ibrexin,inphalex,kefalospes,keflet,keflex,kefolan,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,lonflex,lopilexin,madlexin,mamalexin,mamlexin,medoxine,neokef,neolexina,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixinedisperdose,pectril,pyassan,roceph,rocephdistab,sanaxin,sartosona,sencephalin,sepexin,servispor,sialexin,sinthecillin,sporicef,sporidex,syncle,synecl,tepaxin,tokiolexin,uphalexin,voxxim,winlex,zozarine</t>
+          <t>alcephin,alexin,alsporin,amplex,anhydrouscefalexin,anhydrouscephalexin,biocef,carnosporin,cefablan,cefadal,cefadin,cefadina,cefaleksin,cefalessina,cefalexina,cefalexinanhydrous,cefalexine,cefalexinum,cefalin,cefaloto,cefaseptin,ceffanex,ceflax,ceforal,cefovit,celexin,cepastar,cepexin,cephacillin,cephalexin,cephalexinanhydrous,cephalexine,cephalexinum,cephanasten,cephaxin,cephin,ceporex,ceporexforte,ceporexin,ceporexine,cerexin,cerexins,cophalexin,durantel,durantelds,erocetin,factagard,felexin,ibilex,ibrexin,inphalex,kefalospes,keflet,keflex,kefolan,keforal,keftab,kekrinal,kidolex,lafarine,larixin,lenocef,lexibiotico,lonflex,lopilexin,madlexin,mamalexin,mamlexin,medoxine,neokef,neolexina,novolexin,optocef,oracef,oriphex,oroxin,ortisporina,ospexin,palitrex,panixinedisperdose,pectril,pyassan,roceph,rocephdistab,sanaxin,sartosona,sencephalin,sepexin,servispor,sialexin,sinthecillin,sporicef,sporidex,syncle,synecl,tepaxin,tokiolexin,uphalexin,voxxim,winlex,zozarine</t>
         </is>
       </c>
       <c r="J55">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>atirin,cefamezin,cefamezine,cefazina,cefazolinacid,cefazolina,cefazoline,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,kefzol,liviclina,totacef</t>
+          <t>atirin,cefamezin,cefamezine,cefazina,cefazolina,cefazolinacid,cefazoline,cefazolinum,cephamezine,cephazolidin,cephazolin,cephazoline,elzogram,firmacef,kefzol,liviclina,totacef</t>
         </is>
       </c>
       <c r="J62" t="e">
@@ -4659,7 +4659,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Cephalosporins (4th gen.)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Beta-lactams/penicillins</t>
+          <t>Cephalosporins (4th gen.)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Cephalosporins (4th gen.)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>cefotaxim,cefotaximhikma,cefotaxima,cefotaximaacid,cefotaximeacid,cefotaximum,cephotaxime,claforan,omnatax</t>
+          <t>cefotaxim,cefotaxima,cefotaximaacid,cefotaximeacid,cefotaximhikma,cefotaximum,cephotaxime,claforan,omnatax</t>
         </is>
       </c>
       <c r="J91" t="e">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>cefpodoximacid,cefpodoxima,cefpodoximeacid,cefpodoximum,epoxim</t>
+          <t>cefpodoxima,cefpodoximacid,cefpodoximeacid,cefpodoximum,epoxim</t>
         </is>
       </c>
       <c r="J104">
@@ -7736,7 +7736,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>ceftem,ceftibutendihydrate,ceftibutenhydrate,ceftibutene,ceftibuteno,ceftibutenum,ceftibutin,cephem,ceprifran,isocef,keimax</t>
+          <t>ceftem,ceftibutendihydrate,ceftibutene,ceftibutenhydrate,ceftibuteno,ceftibutenum,ceftibutin,cephem,ceprifran,isocef,keimax</t>
         </is>
       </c>
       <c r="J120">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>cefuzonamsodium,cefuzoname,cefuzonamum</t>
+          <t>cefuzoname,cefuzonamsodium,cefuzonamum</t>
         </is>
       </c>
       <c r="J132" t="e">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,chloramex,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramfenikol,chloramficin,chloramfilin,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetinr,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocids,chlorocide,chlorocidinc,chlorocidinctetran,chlorocin,chlorocol,chlorofair,chlorojectl,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloropticsop,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isoptofenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocids,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycinv,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,sintomicetiner,snophenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,viceton</t>
+          <t>alficetyn,ambofen,amphenicol,amphicol,amseclor,anacetin,aquamycetin,austracil,austracol,biocetin,biophenicol,catilan,chemiceticol,chemicetin,chemicetina,chlomin,chlomycol,chloramex,chloramfenikol,chloramficin,chloramfilin,chloramphenicole,chloramphenicolum,chloramsaar,chlorasol,chlorbiotic,chloricol,chlormycetinr,chlornitromycin,chloroamphenicol,chlorocaps,chlorocid,chlorocide,chlorocidinc,chlorocidinctetran,chlorocids,chlorocin,chlorocol,chlorofair,chlorojectl,chloromax,chloromycetin,chloromycetny,chloromyxin,chloronitrin,chloroptic,chloropticsop,chlorovules,chlorsig,cidocetine,ciplamycetin,cloramfen,cloramfenicol,cloramfenicolo,cloramficin,cloramical,cloramicol,cloramidina,cloranfenicol,cloroamfenicolo,clorocyn,cloromisan,cloromissan,clorosintex,comycetin,cylphenicol,desphen,detreomycin,detreomycine,dextromycetin,doctamicina,duphenicol,econochlor,embacetin,emetren,enicol,enteromycetin,erbaplast,ertilen,farmicetina,fenicol,globenicol,glorous,gloveticol,halcetin,halomycetin,hortfenicol,interomycetine,intramycetin,intramyctin,isicetin,ismicetina,isophenicol,isoptofenicol,juvamycetin,kamaver,kemicetina,kemicetine,kloramfenikol,klorita,klorocids,laevomycetinum,leukamycin,leukomyan,leukomycin,levocin,levomicetina,levomitsetin,levomycetin,levoplast,levosin,levovetin,loromicetina,loromisan,loromisin,mastiphen,mediamycetine,medichol,micloretin,micochlorine,micoclorina,microcetina,mychel,mycinol,myclocin,mycochlorin,myscel,normimycinv,novochlorocap,novomycetin,novophenicol,ocuphenicol,oftalent,oleomycetin,opclor,opelor,ophthochlor,ophthocort,ophtochlor,optomycin,otachron,otophen,pantovernil,paraxin,pentamycetin,quemicetina,rivomycin,romphenil,ronfenil,ronphenil,septicol,sificetina,sintomicetin,sintomicetina,sintomicetiner,snophenicol,soluthor,stanomycetin,synthomycetin,synthomycetine,synthomycine,syntomycin,tevcocin,tevcosin,tifomycin,tifomycine,tiromycetin,treomicetina,tyfomycine,unimycetin,veticol,viceton</t>
         </is>
       </c>
       <c r="J135">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>alconcilox,auripro,bacquinor,baflox,baycip,bernoflox,cetraxal,ciflox,cifloxin,ciloxan,ciplus,ciprecu,ciprine,ciprinol,ciproiv,ciproxl,ciproxr,ciprobay,ciprobayuro,ciprocinol,ciprodar,ciproflox,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprogis,ciprolin,ciprolon,cipromycin,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciriax,citopcin,corsacin,cyprobay,fimoflox,flociprin,ipiflox,italnik,linhaliq,otiprio,probiox,proflaxin,quinolid,quintor,rancif,roxytal,septicide,sophixinofteno,spitacin,superocin,velmonit,velomonit,zumaflox</t>
+          <t>alconcilox,auripro,bacquinor,baflox,baycip,bernoflox,cetraxal,ciflox,cifloxin,ciloxan,ciplus,ciprecu,ciprine,ciprinol,ciprobay,ciprobayuro,ciprocinol,ciprodar,ciproflox,ciprofloxacina,ciprofloxacine,ciprofloxacino,ciprofloxacinum,ciprogis,ciproiv,ciprolin,ciprolon,cipromycin,ciproquinol,ciprowin,ciproxan,ciproxin,ciproxina,ciproxine,ciproxl,ciproxr,ciriax,citopcin,corsacin,cyprobay,fimoflox,flociprin,ipiflox,italnik,linhaliq,otiprio,probiox,proflaxin,quinolid,quintor,rancif,roxytal,septicide,sophixinofteno,spitacin,superocin,velmonit,velomonit,zumaflox</t>
         </is>
       </c>
       <c r="J140">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>canesten,canestencream,canestensolution,canestene,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimadermcream,clotrimazol,clotrimazolum,cutistad,desamixf,diphenylmethane,empecid,esparol,femcare,gynelotrimin,jidesheng,kanesten,klotrimazole,lotrimax,lotrimin,lotriminaf,lotriminafcream,lotriminaflotion,lotriminafsolution,lotrimincream,lotriminlotion,lotriminsolution,monobaycuten,mycelax,mycelex,mycelexcream,mycelexg,mycelexotc,mycelexsolution,mycelextroches,mycelextwinpack,myclocream,myclosolution,myclospraysolution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,trivagizole,veltrim</t>
+          <t>canesten,canestencream,canestene,canestensolution,canestine,canifug,chlotrimazole,cimitidine,clomatin,clotrimaderm,clotrimadermcream,clotrimazol,clotrimazolum,cutistad,desamixf,diphenylmethane,empecid,esparol,femcare,gynelotrimin,jidesheng,kanesten,klotrimazole,lotrimax,lotrimin,lotriminaf,lotriminafcream,lotriminaflotion,lotriminafsolution,lotrimincream,lotriminlotion,lotriminsolution,monobaycuten,mycelax,mycelex,mycelexcream,mycelexg,mycelexotc,mycelexsolution,mycelextroches,mycelextwinpack,myclocream,myclosolution,myclospraysolution,mycofug,mycosporin,mykosporin,nalbix,otomax,pedisafe,rimazole,stiemazol,tibatin,trimysten,trivagizole,veltrim</t>
         </is>
       </c>
       <c r="J153" t="e">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>chloroxacillin,clossacillina,cloxacilina,cloxacillinsodium,cloxacilline,cloxacillinna,cloxacillinum,cloxapen,methocillins,orbenin,syntarpen,tegopen</t>
+          <t>chloroxacillin,clossacillina,cloxacilina,cloxacilline,cloxacillinna,cloxacillinsodium,cloxacillinum,cloxapen,methocillins,orbenin,syntarpen,tegopen</t>
         </is>
       </c>
       <c r="J154">
@@ -10222,7 +10222,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aczone,aralditeht,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsonum,disulfone,diaphenylsulfone,diaphenylsulfon,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,metabolitec,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfoneucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicures,tarimyl,udolac</t>
+          <t>aczone,aralditeht,atrisone,avlosulfon,avlosulfone,avlosulphone,avsulfor,bissulfone,bissulphone,croysulfone,croysulphone,dapson,dapsona,dapsonum,diaphenylsulfon,diaphenylsulfone,diaphenylsulphon,diaphenylsulphone,dimitone,diphenasone,diphone,disulfone,disulone,disulphone,dubronax,dubronaz,dumitone,eporal,metabolitec,novophone,protogen,servidapson,slphadione,sulfadione,sulfona,sulfoneucb,sulfonyldianiline,sulphadione,sulphonyldianiline,sumicures,tarimyl,udolac</t>
         </is>
       </c>
       <c r="J160">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>debecacin,dibekacinsulfate,dibekacina,dibekacine,dibekacinum,dideoxykanamycinb,kappati,orbicin,panamicin</t>
+          <t>debecacin,dibekacina,dibekacine,dibekacinsulfate,dibekacinum,dideoxykanamycinb,kappati,orbicin,panamicin</t>
         </is>
       </c>
       <c r="J165" t="e">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>dichloroxacillin,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillinsodium,dicloxacillina,dicloxacilline,dicloxacillinum,dicloxacycline,dycill,dynapen,maclicine,nmdicloxacillin,pathocil</t>
+          <t>dichloroxacillin,diclossacillina,dicloxaciclin,dicloxacilin,dicloxacilina,dicloxacillina,dicloxacilline,dicloxacillinsodium,dicloxacillinum,dicloxacycline,dycill,dynapen,maclicine,nmdicloxacillin,pathocil</t>
         </is>
       </c>
       <c r="J166">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>atridox,azudoxat,deoxymykoin,dossiciclina,doxcyclineanhydrous,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycyclinecalcium,doxycyclinehyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,hydramycin,investin,jenacyclin,liviatin,monodox,oracea,periostat,ronaxan,spanor,supracyclin,vibramycin,vibramycinnovum,vibramycine,vibravenos,zenavod</t>
+          <t>atridox,azudoxat,deoxymykoin,dossiciclina,doxcyclineanhydrous,doxiciclina,doxirobe,doxitard,doxivetin,doxycen,doxychel,doxycin,doxycyclin,doxycyclinecalcium,doxycyclinehyclate,doxycyclinum,doxylin,doxysol,doxytec,doxytetracycline,hydramycin,investin,jenacyclin,liviatin,monodox,oracea,periostat,ronaxan,spanor,supracyclin,vibramycin,vibramycine,vibramycinnovum,vibravenos,zenavod</t>
         </is>
       </c>
       <c r="J170">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>abboticin,abomacetin,acneryne,acnesol,aknecordeslosung,aknedermerygel,aknemycin,austrias,benzamycin,bristamycin,derimer,deripil,dotycin,dumotrycin,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,erycsprinkles,erycen,erycette,erycin,erycinum,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erypar,erysafe,erytab,erythrocin,erythrocinstearate,erythroderm,erythrogran,erythroguent,erythromid,erythromycina,erythromycinbase,erythromycinlactate,erythromycine,erythromycines,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,ilotycingluceptate,ilotycints,inderm,indermgel,indermretcin,latotryd,lederpax,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pcedispertab,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,romycin,sansac,skidgele,staticin,stiemicyn,stiemycin,theramycinz,tiloryth,tiprocin,torlamicina,udimaerygel,wyamycins</t>
+          <t>abboticin,abomacetin,acneryne,acnesol,aknecordeslosung,aknedermerygel,aknemycin,austrias,benzamycin,bristamycin,derimer,deripil,dotycin,dumotrycin,emuvin,emycin,endoeritrin,erecin,erisone,eritomicina,eritrocina,eritromicina,ermycin,eryacne,eryacnen,erycen,erycette,erycin,erycinum,erycsprinkles,eryderm,erydermer,erygel,eryhexal,erymax,erymed,erypar,erysafe,erytab,erythrocin,erythrocinstearate,erythroderm,erythrogran,erythroguent,erythromid,erythromycina,erythromycinbase,erythromycine,erythromycines,erythromycinlactate,erythromycinum,erytop,erytrociclin,ilocaps,ilosone,iloticina,ilotycin,ilotycingluceptate,ilotycints,inderm,indermgel,indermretcin,latotryd,lederpax,mephamycin,mercina,oftamolets,paediathrocin,pantoderm,pantodrin,pantomicina,pcedispertab,pharyngocin,primacine,propiocine,proterytrin,retcin,robimycin,romycin,sansac,skidgele,staticin,stiemicyn,stiemycin,theramycinz,tiloryth,tiprocin,torlamicina,udimaerygel,wyamycins</t>
         </is>
       </c>
       <c r="J181">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>calciumfosfomycin,fosfocina,fosfomicin,fosfomicina,fosfomycinsodium,fosfomycine,fosfomycinum,fosfonomycin,infectophos,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
+          <t>calciumfosfomycin,fosfocina,fosfomicin,fosfomicina,fosfomycine,fosfomycinsodium,fosfomycinum,fosfonomycin,infectophos,monuril,monurol,phosphonemycin,phosphonomycin,veramina</t>
         </is>
       </c>
       <c r="J200">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>actilin,actiline,antibiotique,bycomycin,dekamyciniii,endomixin,enterfram,fradiomycin,fradiomycinb,fradiomycinum,framicetina,framidal,framycetinsulfate,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycinb,neomycinbsulfate,neomycinsolution,neomycinsulfate,neomycinsulphate,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycinpowderv</t>
+          <t>actilin,actiline,antibiotique,bycomycin,dekamyciniii,endomixin,enterfram,fradiomycin,fradiomycinb,fradiomycinum,framicetina,framidal,framycetine,framycetinsulfate,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycinb,neomycinbsulfate,neomycine,neomycinsolution,neomycinsulfate,neomycinsulphate,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycinpowderv</t>
         </is>
       </c>
       <c r="J202" t="e">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>gatiflo,gatifloxacinhydrate,gatifloxacine,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequinandzymar,zymaxid</t>
+          <t>gatiflo,gatifloxacine,gatifloxacinhydrate,gatifloxcin,gatilox,gatiquin,gatispan,tequin,tequinandzymar,zymaxid</t>
         </is>
       </c>
       <c r="J208">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>amudane,curlingfactor,delmofulvina,fulcin,fulcine,fulvicangrisactin,fulvicin,fulvicinbolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvinv,grisactin,grisactinultra,grisactinv,griscofulvin,griseostatin,grisefuline,griseo,griseoflulvin,griseofulvinforte,griseofulvina,griseofulvine,griseofulvinum,griseomix,grisetin,grisofulvin,grisovin,grisovinfp,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatinxan,xuanjing</t>
+          <t>amudane,curlingfactor,delmofulvina,fulcin,fulcine,fulvicangrisactin,fulvicin,fulvicinbolus,fulvidex,fulvina,fulvinil,fulvistatin,fungivin,greosin,gresfeed,gricin,grifulin,grifulvin,grifulvinv,grisactin,grisactinultra,grisactinv,griscofulvin,grisefuline,griseo,griseoflulvin,griseofulvina,griseofulvine,griseofulvinforte,griseofulvinum,griseomix,griseostatin,grisetin,grisofulvin,grisovin,grisovinfp,grizeofulvin,grysio,guservin,lamoryl,likuden,likunden,murfulvin,poncyl,spirofulvin,sporostatinxan,xuanjing</t>
         </is>
       </c>
       <c r="J214">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>imipemide,imipenemanhydrous,imipenemhydrate,imipenemcilastatin,imipenemum,imipenen,primaxin,recarbrio,tienamycin</t>
+          <t>imipemide,imipenemanhydrous,imipenemcilastatin,imipenemhydrate,imipenemum,imipenen,primaxin,recarbrio,tienamycin</t>
         </is>
       </c>
       <c r="J221" t="e">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>abdizide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,aztisoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hidrasonil,hidranizil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,iai,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazidsa,isoniazida,isoniazide,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
+          <t>abdizide,andrazide,anidrasona,antimicina,antituberkulosum,armacide,armazid,armazide,atcotibine,aztisoniazid,azuren,bacillin,cemidon,chemiazid,chemidon,continazine,cortinazine,cotinazin,cotinizin,defonin,dianicotyl,dibutin,diforin,dinacrin,ditubin,ebidene,eralon,ertuban,eutizon,evalon,fetefu,fimalene,hidranizil,hidrasonil,hidrulta,hidrun,hycozid,hydrazid,hydrazide,hyozid,iai,idrazil,inizid,ipcazide,iscotin,isidrina,ismazide,isobicina,isocid,isocidene,isocotin,isohydrazide,isokin,isolyn,isonerit,isonex,isoniacid,isoniazida,isoniazide,isoniazidsa,isoniazidum,isonicazide,isonicid,isonico,isonicotan,isonicotil,isonicotinhydrazid,isonicotinohydrazide,isonide,isonidrin,isonikazid,isonilex,isonin,isonindon,isonirit,isoniton,isonizida,isonizide,isotamine,isotebe,isotebezid,isotinyl,isozid,isozide,isozyd,laniazid,laniozid,lanizid,mayambutol,mybasan,neoteben,neoxin,neumandin,niadrin,nicazide,nicetal,nicizina,niconyl,nicotibina,nicotibine,nicotisan,nicozide,nidaton,nidrazid,nikozid,niplen,nitadon,niteban,nydrazid,nyscozid,pelazid,percin,phthisen,pycazide,pyreazid,pyricidin,pyridicin,pyrizidin,raumanon,razide,retozide,rifater,rimicid,rimifon,rimiphone,rimitsid,robiselin,robisellin,roxifen,sanohidrazina,sauterazid,sauterzid,stanozide,tebecid,tebenic,tebexin,tebilon,teebaconin,tekazin,tibazide,tibemid,tibiazide,tibinide,tibison,tibivis,tibizide,tibusan,tisiodrazida,tizide,tubazid,tubazide,tubeco,tubecotubercid,tuberian,tubicon,tubilysin,tubizid,tubomel,unicocyde,unicozyde,vazadrine,vederon,zidafimia,zinadon,zonazide</t>
         </is>
       </c>
       <c r="J227">
@@ -14624,7 +14624,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>kanamicina,kanamycina,kanamycinbase,kanamycinsulfate,kanamycine,kanamycins,kanamycinum,kantrex,kenamycina,klebcil,liposomalkanamycin</t>
+          <t>kanamicina,kanamycina,kanamycinbase,kanamycine,kanamycins,kanamycinsulfate,kanamycinum,kantrex,kenamycina,klebcil,liposomalkanamycin</t>
         </is>
       </c>
       <c r="J231">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>lenampicilina,lenampicillinhcl,lenampicilline,lenampicillinum</t>
+          <t>lenampicilina,lenampicilline,lenampicillinhcl,lenampicillinum</t>
         </is>
       </c>
       <c r="J240" t="e">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>aeroquin,anhydrousofloxacin,cravit,cravithydrate,cravitiv,cravitophthalmic,elequine,floxacin,floxel,fluoroquinolone,iquixhydrate,leroxacin,lesacin,levaquin,levaquinhydrate,levofiexacin,levofloxacinhydrate,levofloxacine,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,ofloxcacin,oftaquix,quinsair,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
+          <t>aeroquin,anhydrousofloxacin,cravit,cravithydrate,cravitiv,cravitophthalmic,elequine,floxacin,floxel,fluoroquinolone,iquixhydrate,leroxacin,lesacin,levaquin,levaquinhydrate,levofiexacin,levofloxacine,levofloxacinhydrate,levofloxacino,levofloxacinum,levokacin,levoxacin,mosardal,nofaxin,ofloxcacin,oftaquix,quinsair,quixin,reskuin,tavanic,unibiotic,venaxan,volequin</t>
         </is>
       </c>
       <c r="J241">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>blomopen,bonopen,celinmicina,elatocilline,fedacilinakapseln,filorex,italcinakapseln,magnipen,metabacterampullen,metambac,metampicilina,metampicillinsodium,metampicillina,metampicilline,metampicillinum,methampicillin,metiskiaampullen,micinovo,micinovoampullen,pangocilin,probiotic,rastomycink,relyothenate,ruticina,rutizina,rutizinaampullen,sedomycin,suvipen,suvipenampullen,tampilenampullen,teonicontrofen,viderpen,viderpin,vioplex</t>
+          <t>blomopen,bonopen,celinmicina,elatocilline,fedacilinakapseln,filorex,italcinakapseln,magnipen,metabacterampullen,metambac,metampicilina,metampicillina,metampicilline,metampicillinsodium,metampicillinum,methampicillin,metiskiaampullen,micinovo,micinovoampullen,pangocilin,probiotic,rastomycink,relyothenate,ruticina,rutizina,rutizinaampullen,sedomycin,suvipen,suvipenampullen,tampilenampullen,teonicontrofen,viderpen,viderpin,vioplex</t>
         </is>
       </c>
       <c r="J261">
@@ -16534,7 +16534,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>acetohmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagomh,esametilentetramina,formamine,formin,hmt,heksak,heraxuts,heterin,hexab,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexaminesilver,hexaminesuperfine,hexaminum,hexasan,hexilmethylenamine,mandelamine,metenamina,metenamine,methamin,methenamin,methenaminesilver,methenaminum,metramine,naphthamine,noccelerh,preparationaf,resotropin,sancelerh,sancelerht,silvermethenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
+          <t>acetohmt,aminoform,aminoformaldehyde,ammoform,ammonioformaldehyde,antihydral,cystamin,cystex,cystogen,duirexol,ekagomh,esametilentetramina,formamine,formin,heksak,heraxuts,heterin,hexab,hexaform,hexaloids,hexamethylamine,hexamethylenamine,hexamethyleneamine,hexamethylentetramin,hexamine,hexaminesilver,hexaminesuperfine,hexaminum,hexasan,hexilmethylenamine,hmt,mandelamine,metenamina,metenamine,methamin,methenamin,methenaminesilver,methenaminum,metramine,naphthamine,noccelerh,preparationaf,resotropin,sancelerh,sancelerht,silvermethenamine,uramin,uratrine,urisol,uritone,urodeine,urotropin,urotropine,vesaloin,vesalvine,xametrin</t>
         </is>
       </c>
       <c r="J262">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>acromona,anagiardil,arilin,atrivyl,danizol,deflamon,donnan,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyler,flagyliv,flagylivrtu,flazol,flegyl,florazole,fossyol,giatricol,gineflavir,helidac,mepagyl,meronidal,methronidazole,metric,metrocream,metrogel,metroiv,metrodzhil,metrogyl,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazoleusp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibolsilanes,monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,trichocordes,trichobrol,trichocide,trichomol,trichopal,trichopol,tricocet,tricom,tricowasb,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
+          <t>acromona,anagiardil,arilin,atrivyl,danizol,deflamon,donnan,efloran,elyzol,entizol,flagemona,flagesol,flagil,flagyl,flagyler,flagyliv,flagylivrtu,flazol,flegyl,florazole,fossyol,giatricol,gineflavir,helidac,mepagyl,meronidal,methronidazole,metric,metrocream,metrodzhil,metrogel,metrogyl,metroiv,metrolag,metrolotion,metrolyl,metromidol,metronidaz,metronidazol,metronidazoleusp,metronidazolo,metronidazolum,metrotop,metrozine,metryl,mexibol,mexibolsilanes,monagyl,monasin,nidagel,nidagyl,noritate,novonidazol,nuvessa,orvagil,polibiotic,protostat,rathimed,rosased,sanatrichom,satric,takimetol,trichazol,trichex,trichobrol,trichocide,trichocordes,trichomol,trichopal,trichopol,tricocet,tricom,tricowasb,trikacide,trikamon,trikhopol,trikojol,trikozol,trimeks,trivazol,vagilen,vagimid,vandazole,vertisal,wagitran,zadstat,zidoval</t>
         </is>
       </c>
       <c r="J266">
@@ -16844,7 +16844,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>mezlin,mezlocilina,mezlocillinacid,mezlocillinsodium,mezlocilline,mezlocillinum,multocillin</t>
+          <t>mezlin,mezlocilina,mezlocillinacid,mezlocilline,mezlocillinsodium,mezlocillinum,multocillin</t>
         </is>
       </c>
       <c r="J267" t="e">
@@ -17764,7 +17764,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>nafcilina,nafcillinsodium,nafcilline,nafcillinum,nallpen,naphcillin,unipen</t>
+          <t>nafcilina,nafcilline,nafcillinsodium,nafcillinum,nallpen,naphcillin,unipen</t>
         </is>
       </c>
       <c r="J282" t="e">
@@ -18070,7 +18070,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>actilin,actiline,antibiotique,bycomycin,dekamyciniii,endomixin,enterfram,fradiomycin,fradiomycinb,fradiomycinum,framicetina,framidal,framycetinsulfate,framycetine,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycinb,neomycinbsulfate,neomycinsolution,neomycinsulfate,neomycinsulphate,neomycine,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycinpowderv</t>
+          <t>actilin,actiline,antibiotique,bycomycin,dekamyciniii,endomixin,enterfram,fradiomycin,fradiomycinb,fradiomycinum,framicetina,framidal,framycetine,framycetinsulfate,framycetinum,framycin,framygen,francetin,fraquinol,jernadex,myacine,myacyne,mycerin,mycifradin,neobrettin,neolate,neomas,neomcin,neomicina,neomin,neomycinb,neomycinbsulfate,neomycine,neomycinsolution,neomycinsulfate,neomycinsulphate,neomycinum,nivemycin,pimavecort,soframycin,soframycine,tuttomycin,vonamycin,vonamycinpowderv</t>
         </is>
       </c>
       <c r="J287">
@@ -18136,7 +18136,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>netillin,netilmicinsulfate,netilmicina,netilmicine,netilmicinum,netilyn,netira,nettacin,vectacin</t>
+          <t>netillin,netilmicina,netilmicine,netilmicinsulfate,netilmicinum,netilyn,netira,nettacin,vectacin</t>
         </is>
       </c>
       <c r="J288">
@@ -18442,7 +18442,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fuamed,furabid,furachel,furadantin,furadantinretard,furadantinamc,furadantine,furadantinemc,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophent,gerofuran,ioussaixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantion,nitrofurantoinmacro,nitrofurantoina,nitrofurantoine,nitrofurantoinum,novofuran,orafuran,parfuran,phenurin,piyeloseptyl,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
+          <t>alfuran,benkfuran,berkfuran,berkfurin,ceduran,chemiofuran,cistofuran,cyantin,cystit,dantafur,fuamed,furabid,furachel,furadantin,furadantinamc,furadantine,furadantinemc,furadantinretard,furadantoin,furadoin,furadoine,furadonin,furadonine,furadoninum,furadontin,furadoxyl,furalan,furaloid,furantoin,furantoina,furatoin,furedan,furina,furobactina,furodantin,furophent,gerofuran,ioussaixoo,ituran,ivadantin,macpac,macrobid,macrodantin,macrodantina,macrofuran,macrofurin,nierofu,nifurantin,nifuretten,nitoin,nitrex,nitrofuradantin,nitrofurantion,nitrofurantoina,nitrofurantoine,nitrofurantoinmacro,nitrofurantoinum,novofuran,orafuran,parfuran,phenurin,piyeloseptyl,siraliden,trantoin,uerineks,urantoin,urizept,urodin,urofuran,urofurin,urolisa,urolong,uvamin,welfurin,zoofurin</t>
         </is>
       </c>
       <c r="J293">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>biofanal,candexlotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatinpastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrademark,nystaform,nystan,nystatina,nystating,nystatinhydrate,nystatinlf,nystatine,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydine</t>
+          <t>biofanal,candexlotion,comycin,diastatin,herniocid,moronal,myconystatin,mycostatin,mycostatinpastilles,mykinac,mykostatyna,nilstat,nistatin,nistatina,nyamyc,nyotran,nyotrantrademark,nystaform,nystan,nystatina,nystatine,nystating,nystatinhydrate,nystatinlf,nystatinum,nystatyna,nystavescent,nystex,nystop,stamycin,terrastatin,zydine</t>
         </is>
       </c>
       <c r="J301">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>bactocin,danoflox,dextrofloxacin,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxinotic,floxstat,fugacin,inoflox,kinflocin,kinoxacin,levofloxacinhcl,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacinotic,ofloxacina,ofloxacine,ofloxacino,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,urotarivid,viotisone,visiren,zanocin</t>
+          <t>bactocin,danoflox,dextrofloxacin,effexin,exocin,exocine,flobacin,flodemex,flotavid,flovid,floxal,floxil,floxin,floxinotic,floxstat,fugacin,inoflox,kinflocin,kinoxacin,levofloxacinhcl,liflox,loxinter,marfloxacin,medofloxine,mergexin,monoflocet,novecin,nufafloqo,occidal,ocuflox,oflocee,oflocet,oflocin,oflodal,oflodex,oflodura,ofloxacina,ofloxacine,ofloxacino,ofloxacinotic,ofloxacinum,ofloxin,onexacin,operan,orocin,otonil,oxaldin,pharflox,praxin,puiritol,qinolon,quinolon,quotavil,sinflo,tabrin,taravid,tariflox,tarivid,telbit,tructum,urotarivid,viotisone,visiren,zanocin</t>
         </is>
       </c>
       <c r="J302">
@@ -19612,7 +19612,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>bactocill,ossacillina,oxacilina,oxacillinsodium,oxacilline,oxacillinum,oxazocillin,oxazocilline,prostaphlin,prostaphlyn,sodiumoxacillin</t>
+          <t>bactocill,ossacillina,oxacilina,oxacilline,oxacillinsodium,oxacillinum,oxazocillin,oxazocilline,prostaphlin,prostaphlyn,sodiumoxacillin</t>
         </is>
       </c>
       <c r="J312">
@@ -19742,7 +19742,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>adamycin,berkmycen,biostat,biostatpa,bisolvomycin,dabicycline,dalimycin,embryostat,fanterrin,galsenomycin,geomycin,geotilin,hydroxytetracyclinum,imperacin,lenocycline,macocyn,medamycin,mepatar,oksisyklin,ossitetraciclina,oxacycline,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxydon,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytetracid,oxytetracyclin,oxytetracyclinebase,oxytetracyclinum,proteroxyna,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,tarocyn,tarosin,teravit,terrafungine,terramitsin,terramycin,terramycinim,terramycine,tetran,unimycin,ursocyclin,ursocycline,vendarcin</t>
+          <t>adamycin,berkmycen,biostat,biostatpa,bisolvomycin,dabicycline,dalimycin,embryostat,fanterrin,galsenomycin,geomycin,geotilin,hydroxytetracyclinum,imperacin,lenocycline,macocyn,medamycin,mepatar,oksisyklin,ossitetraciclina,oxacycline,oxitetraciclina,oxitetracyclin,oxitetracycline,oxitetracyclinum,oxydon,oxymycin,oxymykoin,oxypam,oxysteclin,oxyterracin,oxyterracine,oxyterracyne,oxytetracid,oxytetracyclin,oxytetracyclinebase,oxytetracyclinum,proteroxyna,riomitsin,ryomycin,solkaciclina,stecsolin,stevacin,tarocyn,tarosin,teravit,terrafungine,terramitsin,terramycin,terramycine,terramycinim,tetran,unimycin,ursocyclin,ursocycline,vendarcin</t>
         </is>
       </c>
       <c r="J314">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aminosidin,aminosidine,aminosidinei,aminosidinesulfate,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,hydroxymycinsulfate,monomycin,monomycina,neomycine,paramomycin,paramomycinsulfate,paromomicina,paromomycini,paromomycine,paromomycinum,paucimycin,paucimycinum,quintomycinc</t>
+          <t>aminosidin,aminosidine,aminosidinei,aminosidinesulfate,amminosidin,crestomycin,estomycin,gabbromicina,gabbromycin,gabromycin,humatin,humycin,hydroxymycin,hydroxymycinsulfate,monomycin,monomycina,neomycine,paramomycin,paramomycinsulfate,paromomicina,paromomycine,paromomycini,paromomycinum,paucimycin,paucimycinum,quintomycinc</t>
         </is>
       </c>
       <c r="J318">
@@ -20838,7 +20838,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>isipen,pentcillin,peperacillin,peracin,piperacilina,piperacillinhydrate,piperacillinna,piperacillinsodium,piperacillina,piperacilline,piperacillinum,pipercillin,pipracil,pipril,tazocin</t>
+          <t>isipen,pentcillin,peperacillin,peracin,piperacilina,piperacillina,piperacilline,piperacillinhydrate,piperacillinna,piperacillinsodium,piperacillinum,pipercillin,pipracil,pipril,tazocin</t>
         </is>
       </c>
       <c r="J332" t="e">
@@ -22196,7 +22196,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamidum,pyrazinecarboxamide,pyrazineamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
+          <t>aldinamid,aldinamide,braccopiral,corsazinmid,dipimide,eprazin,farmizina,isopas,lynamide,novamid,pezetamid,pharozinamide,piraldina,pirazimida,pirazinamid,pirazinamida,pirazinamide,prazina,pyrafat,pyramide,pyrazide,pyrazinamdie,pyrazinamid,pyrazinamidum,pyrazineamide,pyrazinecarboxamide,pyrizinamide,rifafour,rozide,tebrazid,tebrazio,tisamid,unipyranamide,zinamide,zinastat</t>
         </is>
       </c>
       <c r="J354">
@@ -22866,7 +22866,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>abrifam,archidyn,arficin,arzide,aztrifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadiniv,rifadine,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicinamp,rifamor,rifampicinsv,rifampicina,rifampicine,rifampicinum,rifampin,rifamsolin,rifamycinamp,rifapiam,rifaprodin,rifcin,rifinah,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactazid,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
+          <t>abrifam,archidyn,arficin,arzide,aztrifampin,benemicin,benemycin,dipicin,doloresum,eremfat,famcin,fenampicin,rifadin,rifadine,rifadiniv,rifagen,rifaldazin,rifaldazine,rifaldin,rifamate,rifamicinamp,rifamor,rifampicina,rifampicine,rifampicinsv,rifampicinum,rifampin,rifamsolin,rifamycinamp,rifapiam,rifaprodin,rifcin,rifinah,rifobac,rifoldin,rifoldine,riforal,rimactan,rimactane,rimactazid,rimactizid,rimazid,rimycin,sinerdol,tubocin</t>
         </is>
       </c>
       <c r="J365">
@@ -23746,7 +23746,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>rufloxacinhcl,rufloxacine,rufloxacino,rufloxacinum</t>
+          <t>rufloxacine,rufloxacinhcl,rufloxacino,rufloxacinum</t>
         </is>
       </c>
       <c r="J379">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>rickamicin,salvamina,siseptinsulfate,sisomicinsulfate,sisomicina,sisomicine,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
+          <t>rickamicin,salvamina,siseptinsulfate,sisomicina,sisomicine,sisomicinsulfate,sisomicinum,sisomin,sisomycin,sissomicin,sizomycin</t>
         </is>
       </c>
       <c r="J386" t="e">
@@ -24294,7 +24294,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>bactylan,decapasil,lepasen,monopas,nippas,passodium,pamisylsodium,parasalsodium,pasade,pasnal,passodico,salvis,sanipirol,sodiopas,sodiumpas,teebacin,tubersan</t>
+          <t>bactylan,decapasil,lepasen,monopas,nippas,pamisylsodium,parasalsodium,pasade,pasnal,passodico,passodium,salvis,sanipirol,sodiopas,sodiumpas,teebacin,tubersan</t>
         </is>
       </c>
       <c r="J388">
@@ -24736,7 +24736,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>agrept,agrimycin,chemform,estreptomicina,neodiestreptopab,strepcen,streptomicina,streptomycina,streptomycinspx,streptomycinsulfate,streptomycine,streptomycinum,streptomyzin,vetstrep</t>
+          <t>agrept,agrimycin,chemform,estreptomicina,neodiestreptopab,strepcen,streptomicina,streptomycina,streptomycine,streptomycinspx,streptomycinsulfate,streptomycinum,streptomyzin,vetstrep</t>
         </is>
       </c>
       <c r="J395" t="e">
@@ -28098,7 +28098,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>abramycin,abricycline,achromycin,achromycinv,actisite,agromicina,ambramicina,ambramycin,amycin,biocycline,bristaciclin,bristaciclina,bristacycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,democracin,deschlorobiomycin,dumocyclin,economycin,enterocycline,hostacyclin,lexacycline,limecycline,liquamycin,medocycline,mericycline,micycline,neocycline,oletetrin,omegamycin,orlycycline,panmycin,piracaps,polycycline,polyotic,purocyclina,resteclin,robitet,roviciclina,sigmamycin,solvocin,sumycin,sumycinsyrup,supramycin,sustamycin,tetrabidorganon,tetrabon,tetrachel,tetraciclina,tetracycl,tetracyclin,tetracyclinebase,tetracyclinei,tetracyclineii,tetracyclinehydrate,tetracyclinum,tetracyn,tetradecin,tetrafil,tetramed,tetrasure,tetraverine,tetrazyklin,tetrex,topicycline,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum,vetquamycin</t>
+          <t>abramycin,abricycline,achromycin,achromycinv,actisite,agromicina,ambramicina,ambramycin,amycin,biocycline,bristaciclin,bristaciclina,bristacycline,brodspec,cefracycline,centet,ciclibion,copharlan,criseociclina,cyclomycin,cyclopar,cytome,democracin,deschlorobiomycin,dumocyclin,economycin,enterocycline,hostacyclin,lexacycline,limecycline,liquamycin,medocycline,mericycline,micycline,neocycline,oletetrin,omegamycin,orlycycline,panmycin,piracaps,polycycline,polyotic,purocyclina,resteclin,robitet,roviciclina,sigmamycin,solvocin,sumycin,sumycinsyrup,supramycin,sustamycin,tetrabidorganon,tetrabon,tetrachel,tetraciclina,tetracycl,tetracyclin,tetracyclinebase,tetracyclinehydrate,tetracyclinei,tetracyclineii,tetracyclinum,tetracyn,tetradecin,tetrafil,tetramed,tetrasure,tetraverine,tetrazyklin,tetrex,topicycline,tsiklomistsin,tsiklomitsin,veracin,vetacyclinum,vetquamycin</t>
         </is>
       </c>
       <c r="J449">
@@ -28528,7 +28528,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>denagard,thiamutilin,tiamulinpamoate,tiamulina,tiamuline,tiamulinum,tiavetp</t>
+          <t>denagard,thiamutilin,tiamulina,tiamuline,tiamulinpamoate,tiamulinum,tiavetp</t>
         </is>
       </c>
       <c r="J456" t="e">
@@ -28744,25 +28744,25 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>TBQ</t>
-        </is>
-      </c>
-      <c r="B460">
-        <v>65592</v>
+          <t>TMN</t>
+        </is>
+      </c>
+      <c r="B460" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Tilbroquinol</t>
+          <t>Tigemonam</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Monobactams</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>P01AA05</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F460" t="e">
@@ -28778,7 +28778,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>tilbroquinolum</t>
+          <t/>
         </is>
       </c>
       <c r="J460" t="e">
@@ -28802,25 +28802,25 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>TIP</t>
+          <t>TBQ</t>
         </is>
       </c>
       <c r="B461">
-        <v>24860548</v>
+        <v>65592</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Tildipirosin</t>
+          <t>Tilbroquinol</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>QJ01FA96</t>
+          <t>P01AA05</t>
         </is>
       </c>
       <c r="F461" t="e">
@@ -28836,7 +28836,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>zuprevo</t>
+          <t>tilbroquinolum</t>
         </is>
       </c>
       <c r="J461" t="e">
@@ -28853,22 +28853,22 @@
       </c>
       <c r="N461" t="inlineStr">
         <is>
-          <t>100060-3,88375-1,88377-7</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>TIL</t>
+          <t>TIP</t>
         </is>
       </c>
       <c r="B462">
-        <v>5282521</v>
+        <v>24860548</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Tilmicosin</t>
+          <t>Tildipirosin</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -28878,7 +28878,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>QJ01FA91</t>
+          <t>QJ01FA96</t>
         </is>
       </c>
       <c r="F462" t="e">
@@ -28894,7 +28894,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>micotil,pulmotil,tilmicosina,tilmicosine,tilmicosinum</t>
+          <t>zuprevo</t>
         </is>
       </c>
       <c r="J462" t="e">
@@ -28911,169 +28911,167 @@
       </c>
       <c r="N462" t="inlineStr">
         <is>
-          <t>35849-9,35850-7,35851-5,87588-0</t>
+          <t>100060-3,88375-1,88377-7</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>TIN</t>
+          <t>TIL</t>
         </is>
       </c>
       <c r="B463">
-        <v>5479</v>
+        <v>5282521</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Tinidazole</t>
+          <t>Tilmicosin</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>G01AF21,J01XD02,P01AB02</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
-      </c>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>Imidazole derivatives</t>
-        </is>
+          <t>QJ01FA91</t>
+        </is>
+      </c>
+      <c r="F463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G463" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>tini</t>
+          <t/>
         </is>
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>amtiba,bioshik,ethylsulfone,fasigin,fasigyn,fasigyntrademark,fasygin,glongyn,haisigyn,pletil,simplotan,simplotantrademark,sorquetan,symplotan,tindamax,tindamaxtrademark,tinidazol,tinidazolum,tricolam,trimonase</t>
-        </is>
-      </c>
-      <c r="J463">
-        <v>2</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L463">
-        <v>1.5</v>
-      </c>
-      <c r="M463" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>micotil,pulmotil,tilmicosina,tilmicosine,tilmicosinum</t>
+        </is>
+      </c>
+      <c r="J463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L463" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M463" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N463" t="inlineStr">
         <is>
-          <t>54928-7,55720-7,55721-5,55722-3</t>
+          <t>35849-9,35850-7,35851-5,87588-0</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>TCR</t>
+          <t>TIN</t>
         </is>
       </c>
       <c r="B464">
-        <v>3001386</v>
+        <v>5479</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Tiocarlide</t>
+          <t>Tinidazole</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>J04AD02</t>
+          <t>G01AF21,J01XD02,P01AB02</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Drugs for treatment of tuberculosis</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>Thiocarbamide derivatives</t>
+          <t>Imidazole derivatives</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t/>
+          <t>tini</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>amixyl,datanil,disocarban,disoxyl,isoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
+          <t>amtiba,bioshik,ethylsulfone,fasigin,fasigyn,fasigyntrademark,fasygin,glongyn,haisigyn,pletil,simplotan,simplotantrademark,sorquetan,symplotan,tindamax,tindamaxtrademark,tinidazol,tinidazolum,tricolam,trimonase</t>
         </is>
       </c>
       <c r="J464">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L464" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M464" t="e">
-        <v>#N/A</v>
+      <c r="L464">
+        <v>1.5</v>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N464" t="inlineStr">
         <is>
-          <t/>
+          <t>54928-7,55720-7,55721-5,55722-3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>TDC</t>
+          <t>TCR</t>
         </is>
       </c>
       <c r="B465">
-        <v>10247721</v>
+        <v>3001386</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Tiodonium chloride</t>
+          <t>Tiocarlide</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F465" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G465" t="e">
-        <v>#N/A</v>
+          <t>J04AD02</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>Drugs for treatment of tuberculosis</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>Thiocarbamide derivatives</t>
+        </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
@@ -29082,14 +29080,16 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>clorurodetiodonio,tiodoniichloridum,tiodoniumchloride</t>
-        </is>
-      </c>
-      <c r="J465" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K465" t="e">
-        <v>#N/A</v>
+          <t>amixyl,datanil,disocarban,disoxyl,isoxyl,thiocarlide,tiocarlid,tiocarlida,tiocarlidum</t>
+        </is>
+      </c>
+      <c r="J465">
+        <v>7</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L465" t="e">
         <v>#N/A</v>
@@ -29106,20 +29106,20 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>TXC</t>
+          <t>TDC</t>
         </is>
       </c>
       <c r="B466">
-        <v>65788</v>
+        <v>10247721</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Tioxacin</t>
+          <t>Tiodonium chloride</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -29140,7 +29140,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>tioxacine,tioxacino,tioxacinum,tioxicacid</t>
+          <t>clorurodetiodonio,tiodoniichloridum,tiodoniumchloride</t>
         </is>
       </c>
       <c r="J466" t="e">
@@ -29164,20 +29164,20 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>TIZ</t>
+          <t>TXC</t>
         </is>
       </c>
       <c r="B467">
-        <v>394397</v>
+        <v>65788</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Tizoxanide</t>
+          <t>Tioxacin</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -29198,7 +29198,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>ntzdes</t>
+          <t>tioxacine,tioxacino,tioxacinum,tioxicacid</t>
         </is>
       </c>
       <c r="J467" t="e">
@@ -29215,52 +29215,48 @@
       </c>
       <c r="N467" t="inlineStr">
         <is>
-          <t>73585-2,73607-4,73629-8</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>TOB</t>
+          <t>TIZ</t>
         </is>
       </c>
       <c r="B468">
-        <v>36294</v>
+        <v>394397</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Tobramycin</t>
+          <t>Tizoxanide</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Aminoglycosides</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>J01GB01,S01AA12</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>Aminoglycoside antibacterials</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>Other aminoglycosides</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F468" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G468" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>nn,tm,to,tob,tobr</t>
+          <t/>
         </is>
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>bethkis,brulamycin,deoxykanamycinb,distobram,gernebcin,gotabiotic,kitabis,kitabispak,nebcin,nebicin,nebramycin,nebramycinvi,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobipodhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycinbase,tobramycinsulfate,tobramycine,tobramycinum,tobrased,tobrasone,tobrex</t>
+          <t>ntzdes</t>
         </is>
       </c>
       <c r="J468" t="e">
@@ -29269,32 +29265,30 @@
       <c r="K468" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L468">
-        <v>0.24</v>
-      </c>
-      <c r="M468" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L468" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M468" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N468" t="inlineStr">
         <is>
-          <t>101496-8,13584-8,17808-7,18996-9,22750-4,22751-2,22752-0,25227-0,25800-4,31094-6,31095-3,31096-1,35239-3,35670-9,4057-6,4058-4,4059-2,507-4,508-2,509-0,50927-3,510-8,52962-8,59380-6,7055-7,80966-5</t>
+          <t>73585-2,73607-4,73629-8</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>TOH</t>
-        </is>
-      </c>
-      <c r="B469" t="e">
-        <v>#N/A</v>
+          <t>TOB</t>
+        </is>
+      </c>
+      <c r="B469">
+        <v>36294</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Tobramycin-high</t>
+          <t>Tobramycin</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -29304,23 +29298,27 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F469" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G469" t="e">
-        <v>#N/A</v>
+          <t>J01GB01,S01AA12</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>Aminoglycoside antibacterials</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>Other aminoglycosides</t>
+        </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>tobra high,tobramycin high,tohl</t>
+          <t>nn,tm,to,tob,tobr</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t/>
+          <t>bethkis,brulamycin,deoxykanamycinb,distobram,gernebcin,gotabiotic,kitabis,kitabispak,nebcin,nebicin,nebramycin,nebramycinvi,obramycin,sybryx,tenebrimycin,tenemycin,tobacin,tobipodhaler,tobracin,tobradex,tobradistin,tobralex,tobramaxin,tobramicin,tobramicina,tobramitsetin,tobramycetin,tobramycinbase,tobramycine,tobramycinsulfate,tobramycinum,tobrased,tobrasone,tobrex</t>
         </is>
       </c>
       <c r="J469" t="e">
@@ -29329,40 +29327,42 @@
       <c r="K469" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L469" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M469" t="e">
-        <v>#N/A</v>
+      <c r="L469">
+        <v>0.24</v>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N469" t="inlineStr">
         <is>
-          <t/>
+          <t>101496-8,13584-8,17808-7,18996-9,22750-4,22751-2,22752-0,25227-0,25800-4,31094-6,31095-3,31096-1,35239-3,35670-9,4057-6,4058-4,4059-2,507-4,508-2,509-0,50927-3,510-8,52962-8,59380-6,7055-7,80966-5</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>TFX</t>
-        </is>
-      </c>
-      <c r="B470">
-        <v>5517</v>
+          <t>TOH</t>
+        </is>
+      </c>
+      <c r="B470" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Tosufloxacin</t>
+          <t>Tobramycin-high</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Aminoglycosides</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>J01MA22,S01AE09</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F470" t="e">
@@ -29373,7 +29373,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t/>
+          <t>tobra high,tobramycin high,tohl</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -29381,13 +29381,11 @@
           <t/>
         </is>
       </c>
-      <c r="J470">
-        <v>0.45</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="J470" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K470" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L470" t="e">
         <v>#N/A</v>
@@ -29397,88 +29395,82 @@
       </c>
       <c r="N470" t="inlineStr">
         <is>
-          <t>100061-1,76146-0</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>TMP</t>
+          <t>TFX</t>
         </is>
       </c>
       <c r="B471">
-        <v>5578</v>
+        <v>5517</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Trimethoprim</t>
+          <t>Tosufloxacin</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Trimethoprims</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>J01EA01</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>Sulfonamides and trimethoprim</t>
-        </is>
-      </c>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>Trimethoprim and derivatives</t>
-        </is>
+          <t>J01MA22,S01AE09</t>
+        </is>
+      </c>
+      <c r="F471" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G471" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>t,tmp,tr,tri,trim,w</t>
+          <t/>
         </is>
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,colizoleds,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lagatrimforte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprimforte,roubac,roubal,salvatrim,septrinds,septrinforte,septrins,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmpsmx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
+          <t/>
         </is>
       </c>
       <c r="J471">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="L471">
-        <v>0.4</v>
-      </c>
-      <c r="M471" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+      <c r="L471" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M471" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N471" t="inlineStr">
         <is>
-          <t>101495-0,11005-6,17747-7,18997-7,18998-5,20387-7,23614-1,23631-5,25273-4,32342-8,4079-0,4080-8,4081-6,511-6,512-4,513-2,514-0,515-7,516-5,517-3,518-1,55584-7,7056-5,7057-3,80552-3,80973-1</t>
+          <t>100061-1,76146-0</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SXT</t>
+          <t>TMP</t>
         </is>
       </c>
       <c r="B472">
-        <v>358641</v>
+        <v>5578</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Trimethoprim/sulfamethoxazole</t>
+          <t>Trimethoprim</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -29488,7 +29480,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>J01EE01</t>
+          <t>J01EA01</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -29498,88 +29490,90 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
+          <t>Trimethoprim and derivatives</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>cot,cotrim,sxt,t/s,tms,trsu,trsx,ts</t>
+          <t>t,tmp,tr,tri,trim,w</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bacterialforte,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrimds,bactrimforte,bactrimpediatric,bactrimel,bactrizol,bactromin,bactropin,baktar,belcomycine,berlocid,bibacrim,biseptol,chemitrim,chemotrim,ciplin,colimycin,colimycinsulphate,colisticin,colistimethate,colistimethatesodium,colistinsulfate,colistinsulphate,colomycin,colymycin,cotribene,cotrimds,cotrimeurho,cotrimholsen,cotrimlut,cotrimaxazol,cotrimazole,cotrimhexal,cotrimoxazol,cotrimoxazolal,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,esteprim,eusaprim,fectrim,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,jenamoxazol,kemoprim,kepinol,kepinolforte,laratrim,linaris,maxtrim,microtrim,microtrimforte,mikrosid,momentol,oecotrim,oriprim,oxaprim,pantoprim,polymyxine,polymyxinesulfate,primazole,promixin,septra,septrads,septragrape,septrim,septrin,servitrim,sigaprim,sigaprin,sulfatrimpediatric,sulfotrim,sulfotrimin,sulmeprimpediatric,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,totazina,tribakin,trifen,trigonyl,trimesulf,trimethocomp,trimethoprimsulfa,trimetoger,trimexazol,trimforte,trimosulfa,uroplus,uroplusds,uroplusss</t>
-        </is>
-      </c>
-      <c r="J472" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K472" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L472" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M472" t="e">
-        <v>#N/A</v>
+          <t>abaprim,alprim,anitrim,antrima,antrimox,bacdan,bacidal,bacide,bacterial,bacticel,bactifor,bactin,bactoprim,bactramin,bactrim,bencole,bethaprim,biosulten,briscotrim,chemotrin,colizole,colizoleds,conprim,cotrimel,cotrimoxizole,deprim,dosulfin,duocide,esbesul,espectrin,euctrim,exbesul,fermagex,fortrim,idotrim,ikaprim,infectotrimet,instalac,kombinax,lagatrim,lagatrimforte,lastrim,lescot,methoprim,metoprim,monoprim,monotrim,monotrimin,novotrimel,omstat,oraprim,pancidim,polytrim,priloprim,primosept,primsol,proloprim,protrin,purbal,resprim,resprimforte,roubac,roubal,salvatrim,septrinds,septrinforte,septrins,setprin,sinotrim,stopan,streptoplus,sugaprim,sulfamar,sulfamethoprim,sulfoxaprim,sulthrim,sultrex,syraprim,tiempe,tmpsmx,toprim,trimanyl,trimethioprim,trimethopim,trimethoprime,trimethoprimum,trimethopriom,trimetoprim,trimetoprima,trimexazole,trimexol,trimezol,trimogal,trimono,trimopan,trimpex,triprim,trisul,trisulcom,trisulfam,trisural,uretrim,urobactrim,utetrin,velaten,wellcoprim,wellcoprin,xeroprim,zamboprim</t>
+        </is>
+      </c>
+      <c r="J472">
+        <v>0.4</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L472">
+        <v>0.4</v>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N472" t="inlineStr">
         <is>
-          <t>101495-0,18998-5,20387-7,23631-5,25273-4,32342-8,4081-6,515-7,516-5,517-3,518-1,7057-3</t>
+          <t>101495-0,11005-6,17747-7,18997-7,18998-5,20387-7,23614-1,23631-5,25273-4,32342-8,4079-0,4080-8,4081-6,511-6,512-4,513-2,514-0,515-7,516-5,517-3,518-1,55584-7,7056-5,7057-3,80552-3,80973-1</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>TRL</t>
+          <t>SXT</t>
         </is>
       </c>
       <c r="B473">
-        <v>202225</v>
+        <v>358641</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Troleandomycin</t>
+          <t>Trimethoprim/sulfamethoxazole</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Trimethoprims</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>J01FA08</t>
+          <t>J01EE01</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Macrolides, lincosamides and streptogramins</t>
+          <t>Sulfonamides and trimethoprim</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>Macrolides</t>
+          <t>Combinations of sulfonamides and trimethoprim, incl. derivatives</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t/>
+          <t>cot,cotrim,sxt,t/s,tms,trsu,trsx,ts</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycint,micotil,oleandocetine,tao,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycine,troleandomycinum,viamicina,wytrion</t>
-        </is>
-      </c>
-      <c r="J473">
-        <v>1</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>abacin,abactrim,agoprim,alfatrim,aposulfatrim,bacteral,bacterialforte,bactilen,bactiver,bacton,bactoreduct,bactrim,bactrimds,bactrimel,bactrimforte,bactrimpediatric,bactrizol,bactromin,bactropin,baktar,belcomycine,berlocid,bibacrim,biseptol,chemitrim,chemotrim,ciplin,colimycin,colimycinsulphate,colisticin,colistimethate,colistimethatesodium,colistinsulfate,colistinsulphate,colomycin,colymycin,cotribene,cotrimaxazol,cotrimazole,cotrimds,cotrimeurho,cotrimhexal,cotrimholsen,cotrimlut,cotrimoxazol,cotrimoxazolal,cotrimoxazole,cotrimstada,cotriver,dibaprim,drylin,duratrimet,eltrianyl,escoprim,esteprim,eusaprim,fectrim,gantaprim,gantaprin,gantrim,groprim,helveprim,imexim,jenamoxazol,kemoprim,kepinol,kepinolforte,laratrim,linaris,maxtrim,microtrim,microtrimforte,mikrosid,momentol,oecotrim,oriprim,oxaprim,pantoprim,polymyxine,polymyxinesulfate,primazole,promixin,septra,septrads,septragrape,septrim,septrin,servitrim,sigaprim,sigaprin,sulfatrimpediatric,sulfotrim,sulfotrimin,sulmeprimpediatric,sulprim,sumetrolim,supracombin,suprim,tacumil,teleprim,teleprin,thiocuran,totazina,tribakin,trifen,trigonyl,trimesulf,trimethocomp,trimethoprimsulfa,trimetoger,trimexazol,trimforte,trimosulfa,uroplus,uroplusds,uroplusss</t>
+        </is>
+      </c>
+      <c r="J473" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K473" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L473" t="e">
         <v>#N/A</v>
@@ -29589,39 +29583,43 @@
       </c>
       <c r="N473" t="inlineStr">
         <is>
-          <t>18999-3,519-9,520-7,521-5,522-3</t>
+          <t>101495-0,18998-5,20387-7,23631-5,25273-4,32342-8,4081-6,515-7,516-5,517-3,518-1,7057-3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>TRO</t>
+          <t>TRL</t>
         </is>
       </c>
       <c r="B474">
-        <v>55886</v>
+        <v>202225</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Trospectomycin</t>
+          <t>Troleandomycin</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F474" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G474" t="e">
-        <v>#N/A</v>
+          <t>J01FA08</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Macrolides, lincosamides and streptogramins</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>Macrolides</t>
+        </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
@@ -29630,14 +29628,16 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>rubidiumnitrate,trospectinomycin,trospectomicina,trospectomycine,trospectomycinum</t>
-        </is>
-      </c>
-      <c r="J474" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K474" t="e">
-        <v>#N/A</v>
+          <t>acetyloleandomycin,aovine,cyclamycin,evramicina,matromicina,matromycint,micotil,oleandocetine,tao,treolmicina,tribiocillina,triocetin,triolan,troleandomicina,troleandomycine,troleandomycinum,viamicina,wytrion</t>
+        </is>
+      </c>
+      <c r="J474">
+        <v>1</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="L474" t="e">
         <v>#N/A</v>
@@ -29647,146 +29647,146 @@
       </c>
       <c r="N474" t="inlineStr">
         <is>
-          <t/>
+          <t>18999-3,519-9,520-7,521-5,522-3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>TVA</t>
+          <t>TRO</t>
         </is>
       </c>
       <c r="B475">
-        <v>62959</v>
+        <v>55886</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Trovafloxacin</t>
+          <t>Trospectomycin</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Quinolones</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>J01MA13</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>Quinolone antibacterials</t>
-        </is>
-      </c>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>Fluoroquinolones</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F475" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G475" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>trov</t>
+          <t/>
         </is>
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>trovan</t>
-        </is>
-      </c>
-      <c r="J475">
-        <v>0.2</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L475">
-        <v>0.2</v>
-      </c>
-      <c r="M475" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>rubidiumnitrate,trospectinomycin,trospectomicina,trospectomycine,trospectomycinum</t>
+        </is>
+      </c>
+      <c r="J475" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K475" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L475" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M475" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
-          <t>23642-2,23643-0,35855-6,7058-1</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>TUL</t>
+          <t>TVA</t>
         </is>
       </c>
       <c r="B476">
-        <v>9832301</v>
+        <v>62959</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Tulathromycin</t>
+          <t>Trovafloxacin</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Macrolides/lincosamides</t>
+          <t>Quinolones</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>QJ01FA94</t>
-        </is>
-      </c>
-      <c r="F476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G476" t="e">
-        <v>#N/A</v>
+          <t>J01MA13</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>Quinolone antibacterials</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>Fluoroquinolones</t>
+        </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t/>
+          <t>trov</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>draxxin,tulathrmycina,tulathromycina</t>
-        </is>
-      </c>
-      <c r="J476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M476" t="e">
-        <v>#N/A</v>
+          <t>trovan</t>
+        </is>
+      </c>
+      <c r="J476">
+        <v>0.2</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L476">
+        <v>0.2</v>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N476" t="inlineStr">
         <is>
-          <t>76149-4,87798-5</t>
+          <t>23642-2,23643-0,35855-6,7058-1</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>TUL</t>
         </is>
       </c>
       <c r="B477">
-        <v>5280440</v>
+        <v>9832301</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Tylosin</t>
+          <t>Tulathromycin</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -29796,7 +29796,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>QJ01FA90,QJ51FA90</t>
+          <t>QJ01FA94</t>
         </is>
       </c>
       <c r="F477" t="e">
@@ -29812,7 +29812,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>fradizine,tilosina,tylocine,tylosina,tylosine,tylosinum</t>
+          <t>draxxin,tulathrmycina,tulathromycina</t>
         </is>
       </c>
       <c r="J477" t="e">
@@ -29829,22 +29829,22 @@
       </c>
       <c r="N477" t="inlineStr">
         <is>
-          <t>35856-4,35857-2,35858-0,87587-2</t>
+          <t>76149-4,87798-5</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>TYL1</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="B478">
-        <v>6441094</v>
+        <v>5280440</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Tylvalosin</t>
+          <t>Tylosin</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -29854,7 +29854,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>QJ01FA92</t>
+          <t>QJ01FA90,QJ51FA90</t>
         </is>
       </c>
       <c r="F478" t="e">
@@ -29865,12 +29865,12 @@
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>tvn</t>
+          <t/>
         </is>
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t/>
+          <t>fradizine,tilosina,tylocine,tylosina,tylosine,tylosinum</t>
         </is>
       </c>
       <c r="J478" t="e">
@@ -29887,32 +29887,32 @@
       </c>
       <c r="N478" t="inlineStr">
         <is>
-          <t>101526-2,87586-4</t>
+          <t>35856-4,35857-2,35858-0,87587-2</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>PRU1</t>
+          <t>TYL1</t>
         </is>
       </c>
       <c r="B479">
-        <v>124225</v>
+        <v>6441094</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Ulifloxacin (Prulifloxacin)</t>
+          <t>Tylvalosin</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Macrolides/lincosamides</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>QJ01FA92</t>
         </is>
       </c>
       <c r="F479" t="e">
@@ -29923,12 +29923,12 @@
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t/>
+          <t>tvn</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>ulifloxacin</t>
+          <t/>
         </is>
       </c>
       <c r="J479" t="e">
@@ -29945,88 +29945,80 @@
       </c>
       <c r="N479" t="inlineStr">
         <is>
-          <t/>
+          <t>101526-2,87586-4</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>PRU1</t>
         </is>
       </c>
       <c r="B480">
-        <v>14969</v>
+        <v>124225</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Ulifloxacin (Prulifloxacin)</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Glycopeptides</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>A07AA09,J01XA01,S01AA28</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>Other antibacterials</t>
-        </is>
-      </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>Glycopeptide antibacterials</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F480" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G480" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>va,van,vanc</t>
+          <t/>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>vancocin,vancocinhcl,vancoled,vancomicina,vancomycinhcl,vancomycine,vancomycinum,vancor,viomycinderivative</t>
-        </is>
-      </c>
-      <c r="J480">
-        <v>2</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L480">
-        <v>2</v>
-      </c>
-      <c r="M480" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>ulifloxacin</t>
+        </is>
+      </c>
+      <c r="J480" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K480" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L480" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M480" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N480" t="inlineStr">
         <is>
-          <t>13586-3,13587-1,19000-9,20578-1,23615-8,25228-8,31012-8,39092-2,39796-8,39797-6,4089-9,4090-7,4091-5,4092-3,50938-0,523-1,524-9,525-6,526-4,59381-4,7059-9,92241-9,97657-1</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>VAM</t>
-        </is>
-      </c>
-      <c r="B481" t="e">
-        <v>#N/A</v>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="B481">
+        <v>14969</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Vancomycin-macromethod</t>
+          <t>Vancomycin</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -30036,60 +30028,68 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G481" t="e">
-        <v>#N/A</v>
+          <t>A07AA09,J01XA01,S01AA28</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>Glycopeptide antibacterials</t>
+        </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t/>
+          <t>va,van,vanc</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L481" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M481" t="e">
-        <v>#N/A</v>
+          <t>vancocin,vancocinhcl,vancoled,vancomicina,vancomycine,vancomycinhcl,vancomycinum,vancor,viomycinderivative</t>
+        </is>
+      </c>
+      <c r="J481">
+        <v>2</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L481">
+        <v>2</v>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N481" t="inlineStr">
         <is>
-          <t/>
+          <t>13586-3,13587-1,19000-9,20578-1,23615-8,25228-8,31012-8,39092-2,39796-8,39797-6,4089-9,4090-7,4091-5,4092-3,50938-0,523-1,524-9,525-6,526-4,59381-4,7059-9,92241-9,97657-1</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>VIO</t>
-        </is>
-      </c>
-      <c r="B482">
-        <v>135398671</v>
+          <t>VAM</t>
+        </is>
+      </c>
+      <c r="B482" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Viomycin</t>
+          <t>Vancomycin-macromethod</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Antimycobacterials</t>
+          <t>Glycopeptides</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -30110,7 +30110,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>celiomycin,florimycin,floromycin,tuberactinomycinb,vinacetina,vioactane,viomicina,viomycine,viomycinum</t>
+          <t/>
         </is>
       </c>
       <c r="J482" t="e">
@@ -30127,27 +30127,27 @@
       </c>
       <c r="N482" t="inlineStr">
         <is>
-          <t>19001-7,23616-6,527-2,528-0,529-8,530-6</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>VIR</t>
+          <t>VIO</t>
         </is>
       </c>
       <c r="B483">
-        <v>11979535</v>
+        <v>135398671</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Virginiamycine</t>
+          <t>Viomycin</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Antimycobacterials</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
@@ -30168,7 +30168,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>eskalin,eskalinv,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycinum</t>
+          <t>celiomycin,florimycin,floromycin,tuberactinomycinb,vinacetina,vioactane,viomicina,viomycine,viomycinum</t>
         </is>
       </c>
       <c r="J483" t="e">
@@ -30185,150 +30185,146 @@
       </c>
       <c r="N483" t="inlineStr">
         <is>
-          <t/>
+          <t>19001-7,23616-6,527-2,528-0,529-8,530-6</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>VOR</t>
+          <t>VIR</t>
         </is>
       </c>
       <c r="B484">
-        <v>71616</v>
+        <v>11979535</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Voriconazole</t>
+          <t>Virginiamycine</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Antifungals/antimycotics</t>
+          <t>Other antibacterials</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>J02AC03</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>Antimycotics for systemic use</t>
-        </is>
-      </c>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>Triazole derivatives</t>
-        </is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F484" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G484" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>vori,vrc</t>
+          <t/>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>pfizer,vfendiv,voriconazol,voriconazolevfend,voriconazolum,voriconzole,vorikonazole</t>
-        </is>
-      </c>
-      <c r="J484">
-        <v>0.4</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="L484">
-        <v>0.4</v>
-      </c>
-      <c r="M484" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
+          <t>eskalin,eskalinv,micamicina,mikamycin,mikamycine,mikamycinum,ostreogricina,ostreogrycin,ostreogrycine,ostreogrycinum,pristinamicina,pristinamycine,pristinamycinum,pyostacine,stafac,stafytracine,staphylomycin,stapyocine,starfac,streptogramin,vernamycin,virgimycin,virgimycine,virginiamicina,virginiamycin,virginiamycina,virginiamycinum</t>
+        </is>
+      </c>
+      <c r="J484" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K484" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L484" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M484" t="e">
+        <v>#N/A</v>
       </c>
       <c r="N484" t="inlineStr">
         <is>
-          <t>32379-0,35862-2,35863-0,38370-3,41199-1,41200-7,53902-3,73676-9,80553-1,80651-3</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>XBR</t>
+          <t>VOR</t>
         </is>
       </c>
       <c r="B485">
-        <v>72144</v>
+        <v>71616</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Xibornol</t>
+          <t>Voriconazole</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Antifungals/antimycotics</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>J01XX02</t>
+          <t>J02AC03</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Antimycotics for systemic use</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>Other antibacterials</t>
+          <t>Triazole derivatives</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t/>
+          <t>vori,vrc</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>bactacine,bracen,nanbacine,xibornolo,xibornolum</t>
-        </is>
-      </c>
-      <c r="J485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L485" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M485" t="e">
-        <v>#N/A</v>
+          <t>pfizer,vfendiv,voriconazol,voriconazolevfend,voriconazolum,voriconzole,vorikonazole</t>
+        </is>
+      </c>
+      <c r="J485">
+        <v>0.4</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="L485">
+        <v>0.4</v>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
       </c>
       <c r="N485" t="inlineStr">
         <is>
-          <t/>
+          <t>32379-0,35862-2,35863-0,38370-3,41199-1,41200-7,53902-3,73676-9,80553-1,80651-3</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ZID</t>
+          <t>XBR</t>
         </is>
       </c>
       <c r="B486">
-        <v>77846445</v>
+        <v>72144</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Zidebactam</t>
+          <t>Xibornol</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -30338,14 +30334,18 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F486" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G486" t="e">
-        <v>#N/A</v>
+          <t>J01XX02</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t/>
+          <t>bactacine,bracen,nanbacine,xibornolo,xibornolum</t>
         </is>
       </c>
       <c r="J486" t="e">
@@ -30378,54 +30378,112 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
+          <t>ZID</t>
+        </is>
+      </c>
+      <c r="B487">
+        <v>77846445</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Zidebactam</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Other antibacterials</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F487" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G487" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J487" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K487" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L487" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M487" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
           <t>ZFD</t>
         </is>
       </c>
-      <c r="B487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C487" t="inlineStr">
+      <c r="B488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C488" t="inlineStr">
         <is>
           <t>Zoliflodacin</t>
         </is>
       </c>
-      <c r="D487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E487" t="inlineStr">
+      <c r="D488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E488" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="F487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I487" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M487" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N487" t="inlineStr">
+      <c r="F488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M488" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N488" t="inlineStr">
         <is>
           <t/>
         </is>
